--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1666">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,16 +44,16 @@
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18833589553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04538297653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9192476272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99913263320923</t>
+    <t xml:space="preserve">5.18833541870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04538249969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91924810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99913311004639</t>
   </si>
   <si>
     <t xml:space="preserve">4.93186140060425</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">5.07061004638672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23458433151245</t>
+    <t xml:space="preserve">5.23458385467529</t>
   </si>
   <si>
     <t xml:space="preserve">4.96970176696777</t>
@@ -74,16 +74,16 @@
     <t xml:space="preserve">4.91083955764771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88981676101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50300407409668</t>
+    <t xml:space="preserve">4.88981628417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50300312042236</t>
   </si>
   <si>
     <t xml:space="preserve">4.47777700424194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80152273178101</t>
+    <t xml:space="preserve">4.80152225494385</t>
   </si>
   <si>
     <t xml:space="preserve">4.72163724899292</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">4.70902442932129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90243005752563</t>
+    <t xml:space="preserve">4.90242958068848</t>
   </si>
   <si>
     <t xml:space="preserve">4.86459016799927</t>
@@ -110,28 +110,28 @@
     <t xml:space="preserve">4.78470516204834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81413602828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58289003372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27175712585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26755332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53243541717529</t>
+    <t xml:space="preserve">4.81413555145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58288955688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27175664901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26755237579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53243589401245</t>
   </si>
   <si>
     <t xml:space="preserve">4.47357225418091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64175224304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55766248703003</t>
+    <t xml:space="preserve">4.64175176620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55766296386719</t>
   </si>
   <si>
     <t xml:space="preserve">4.73425102233887</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">4.52402591705322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49039077758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70061445236206</t>
+    <t xml:space="preserve">4.49039030075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70061492919922</t>
   </si>
   <si>
     <t xml:space="preserve">4.83515882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94867992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99492788314819</t>
+    <t xml:space="preserve">4.94867944717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99492883682251</t>
   </si>
   <si>
     <t xml:space="preserve">4.86038589477539</t>
@@ -170,49 +170,49 @@
     <t xml:space="preserve">4.77209091186523</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79311466217041</t>
+    <t xml:space="preserve">4.79311418533325</t>
   </si>
   <si>
     <t xml:space="preserve">4.64595651626587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69220542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66277456283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54504871368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36425590515137</t>
+    <t xml:space="preserve">4.69220590591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66277503967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54504919052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36425638198853</t>
   </si>
   <si>
     <t xml:space="preserve">4.33902931213379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3053936958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33062028884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40209531784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46095943450928</t>
+    <t xml:space="preserve">4.30539321899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33061981201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40209627151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46095895767212</t>
   </si>
   <si>
     <t xml:space="preserve">4.28857564926147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2591438293457</t>
+    <t xml:space="preserve">4.25914430618286</t>
   </si>
   <si>
     <t xml:space="preserve">4.56607103347778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4105052947998</t>
+    <t xml:space="preserve">4.41050577163696</t>
   </si>
   <si>
     <t xml:space="preserve">4.48618650436401</t>
@@ -224,52 +224,52 @@
     <t xml:space="preserve">5.01595163345337</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81834030151367</t>
+    <t xml:space="preserve">4.81834077835083</t>
   </si>
   <si>
     <t xml:space="preserve">4.76788663864136</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83095359802246</t>
+    <t xml:space="preserve">4.83095407485962</t>
   </si>
   <si>
     <t xml:space="preserve">4.7468638420105</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78890991210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82254409790039</t>
+    <t xml:space="preserve">4.78890943527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82254457473755</t>
   </si>
   <si>
     <t xml:space="preserve">4.80993175506592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83936262130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80572700500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92345237731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98231506347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12947177886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1799259185791</t>
+    <t xml:space="preserve">4.83936309814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80572652816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92345285415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98231554031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12947225570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17992639541626</t>
   </si>
   <si>
     <t xml:space="preserve">5.10004091262817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16731262207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20094871520996</t>
+    <t xml:space="preserve">5.16731309890747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2009482383728</t>
   </si>
   <si>
     <t xml:space="preserve">5.04117822647095</t>
@@ -278,19 +278,19 @@
     <t xml:space="preserve">5.01849603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04870223999023</t>
+    <t xml:space="preserve">5.04870176315308</t>
   </si>
   <si>
     <t xml:space="preserve">5.19110107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01418161392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83726072311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78547954559326</t>
+    <t xml:space="preserve">5.01418113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83726119995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7854790687561</t>
   </si>
   <si>
     <t xml:space="preserve">4.73801279067993</t>
@@ -308,28 +308,28 @@
     <t xml:space="preserve">4.88472700119019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81999969482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78116464614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58698320388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18049764633179</t>
+    <t xml:space="preserve">4.82000017166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78116416931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58698272705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18049812316895</t>
   </si>
   <si>
     <t xml:space="preserve">4.37985706329346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49636554718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51794052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5567774772644</t>
+    <t xml:space="preserve">4.49636602401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51794004440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55677700042725</t>
   </si>
   <si>
     <t xml:space="preserve">4.50931072235107</t>
@@ -338,10 +338,10 @@
     <t xml:space="preserve">4.35396528244019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33239030838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29269123077393</t>
+    <t xml:space="preserve">4.33238983154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29269075393677</t>
   </si>
   <si>
     <t xml:space="preserve">4.43595266342163</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">4.40143251419067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4057469367981</t>
+    <t xml:space="preserve">4.40574741363525</t>
   </si>
   <si>
     <t xml:space="preserve">4.34965133666992</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">4.28233528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3625955581665</t>
+    <t xml:space="preserve">4.36259603500366</t>
   </si>
   <si>
     <t xml:space="preserve">4.41437721252441</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">4.51362562179565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.448899269104</t>
+    <t xml:space="preserve">4.44889879226685</t>
   </si>
   <si>
     <t xml:space="preserve">4.45752906799316</t>
@@ -380,13 +380,13 @@
     <t xml:space="preserve">4.48341989517212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63013505935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62581968307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53951644897461</t>
+    <t xml:space="preserve">4.63013458251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62581920623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53951692581177</t>
   </si>
   <si>
     <t xml:space="preserve">4.53088617324829</t>
@@ -395,13 +395,13 @@
     <t xml:space="preserve">4.49204969406128</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50499534606934</t>
+    <t xml:space="preserve">4.50499582290649</t>
   </si>
   <si>
     <t xml:space="preserve">4.55246210098267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47910499572754</t>
+    <t xml:space="preserve">4.47910451889038</t>
   </si>
   <si>
     <t xml:space="preserve">4.31340360641479</t>
@@ -410,13 +410,13 @@
     <t xml:space="preserve">4.41869306564331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44026803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34533643722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28060865402222</t>
+    <t xml:space="preserve">4.44026756286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34533596038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28060817718506</t>
   </si>
   <si>
     <t xml:space="preserve">4.38417196273804</t>
@@ -425,19 +425,19 @@
     <t xml:space="preserve">4.3410210609436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23745727539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22882699966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27197885513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44458389282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39711713790894</t>
+    <t xml:space="preserve">4.23745775222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22882747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2719783782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44458341598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39711761474609</t>
   </si>
   <si>
     <t xml:space="preserve">4.32807493209839</t>
@@ -446,28 +446,28 @@
     <t xml:space="preserve">4.3013219833374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61718940734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63444948196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70349168777466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67328500747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57403755187988</t>
+    <t xml:space="preserve">4.61718845367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63444995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7034912109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67328548431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57403802871704</t>
   </si>
   <si>
     <t xml:space="preserve">4.56540679931641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56972169876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52225589752197</t>
+    <t xml:space="preserve">4.56972217559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52225637435913</t>
   </si>
   <si>
     <t xml:space="preserve">4.46615934371948</t>
@@ -476,13 +476,13 @@
     <t xml:space="preserve">4.42732334136963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38848686218262</t>
+    <t xml:space="preserve">4.38848733901978</t>
   </si>
   <si>
     <t xml:space="preserve">4.35828018188477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31513071060181</t>
+    <t xml:space="preserve">4.31513023376465</t>
   </si>
   <si>
     <t xml:space="preserve">4.30995178222656</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">4.32376003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30477333068848</t>
+    <t xml:space="preserve">4.30477380752563</t>
   </si>
   <si>
     <t xml:space="preserve">4.24263525009155</t>
@@ -500,22 +500,22 @@
     <t xml:space="preserve">4.19430637359619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29441738128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37554121017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2857871055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2167444229126</t>
+    <t xml:space="preserve">4.29441690444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37554216384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28578662872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21674394607544</t>
   </si>
   <si>
     <t xml:space="preserve">4.24090957641602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22192335128784</t>
+    <t xml:space="preserve">4.22192287445068</t>
   </si>
   <si>
     <t xml:space="preserve">4.26334857940674</t>
@@ -533,22 +533,22 @@
     <t xml:space="preserve">4.28751277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29096460342407</t>
+    <t xml:space="preserve">4.29096508026123</t>
   </si>
   <si>
     <t xml:space="preserve">4.2150182723999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26852560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25817060470581</t>
+    <t xml:space="preserve">4.26852607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25817012786865</t>
   </si>
   <si>
     <t xml:space="preserve">4.23573112487793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31944513320923</t>
+    <t xml:space="preserve">4.31944465637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.39280271530151</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">4.4877347946167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45321369171143</t>
+    <t xml:space="preserve">4.45321416854858</t>
   </si>
   <si>
     <t xml:space="preserve">4.47479009628296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2547173500061</t>
+    <t xml:space="preserve">4.25471782684326</t>
   </si>
   <si>
     <t xml:space="preserve">4.25989580154419</t>
@@ -575,10 +575,10 @@
     <t xml:space="preserve">4.14425039291382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12526369094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10455083847046</t>
+    <t xml:space="preserve">4.12526321411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10455131530762</t>
   </si>
   <si>
     <t xml:space="preserve">4.17359399795532</t>
@@ -587,58 +587,58 @@
     <t xml:space="preserve">4.16668939590454</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12698984146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18912792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23918437957764</t>
+    <t xml:space="preserve">4.12699031829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18912839889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23918342590332</t>
   </si>
   <si>
     <t xml:space="preserve">4.63876438140869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64307928085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65171003341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61287403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54383134841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53520107269287</t>
+    <t xml:space="preserve">4.64307975769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65171051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61287355422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54383182525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53520154953003</t>
   </si>
   <si>
     <t xml:space="preserve">4.58266830444336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54814767837524</t>
+    <t xml:space="preserve">4.54814720153809</t>
   </si>
   <si>
     <t xml:space="preserve">4.5956130027771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59129810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.599928855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72938251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74664306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66897010803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80705451965332</t>
+    <t xml:space="preserve">4.59129762649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59992837905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72938299179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74664258956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66897058486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80705547332764</t>
   </si>
   <si>
     <t xml:space="preserve">4.82431507110596</t>
@@ -650,37 +650,37 @@
     <t xml:space="preserve">4.77253341674805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69486093521118</t>
+    <t xml:space="preserve">4.69486141204834</t>
   </si>
   <si>
     <t xml:space="preserve">4.86746644973755</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96239948272705</t>
+    <t xml:space="preserve">4.96239995956421</t>
   </si>
   <si>
     <t xml:space="preserve">4.94945383071899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87609672546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97965955734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14363527297974</t>
+    <t xml:space="preserve">4.87609624862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97966003417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14363479614258</t>
   </si>
   <si>
     <t xml:space="preserve">5.1091136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05733203887939</t>
+    <t xml:space="preserve">5.05733156204224</t>
   </si>
   <si>
     <t xml:space="preserve">5.08322286605835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02281141281128</t>
+    <t xml:space="preserve">5.02281093597412</t>
   </si>
   <si>
     <t xml:space="preserve">5.06596279144287</t>
@@ -689,25 +689,25 @@
     <t xml:space="preserve">5.00555038452148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06164741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09185409545898</t>
+    <t xml:space="preserve">5.06164693832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09185361862183</t>
   </si>
   <si>
     <t xml:space="preserve">5.1522650718689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34644556045532</t>
+    <t xml:space="preserve">5.34644603729248</t>
   </si>
   <si>
     <t xml:space="preserve">5.31192493438721</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18678569793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20836162567139</t>
+    <t xml:space="preserve">5.18678617477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20836114883423</t>
   </si>
   <si>
     <t xml:space="preserve">5.17815589904785</t>
@@ -719,25 +719,25 @@
     <t xml:space="preserve">5.19541692733765</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24288320541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35076141357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27308893203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.329185962677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38528203964233</t>
+    <t xml:space="preserve">5.24288272857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35076189041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27308940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32918500900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38528251647949</t>
   </si>
   <si>
     <t xml:space="preserve">5.54925727844238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50610494613647</t>
+    <t xml:space="preserve">5.50610589981079</t>
   </si>
   <si>
     <t xml:space="preserve">5.45000839233398</t>
@@ -755,22 +755,22 @@
     <t xml:space="preserve">5.43706369400024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41980266571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5622034072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48884582519531</t>
+    <t xml:space="preserve">5.41980314254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56220245361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48884534835815</t>
   </si>
   <si>
     <t xml:space="preserve">5.48453044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56651830673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58377695083618</t>
+    <t xml:space="preserve">5.56651782989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58377742767334</t>
   </si>
   <si>
     <t xml:space="preserve">5.48021459579468</t>
@@ -791,31 +791,31 @@
     <t xml:space="preserve">5.23856782913208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3680214881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28171920776367</t>
+    <t xml:space="preserve">5.36802101135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28171873092651</t>
   </si>
   <si>
     <t xml:space="preserve">5.33480167388916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67983865737915</t>
+    <t xml:space="preserve">5.67983818054199</t>
   </si>
   <si>
     <t xml:space="preserve">5.71080303192139</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62675666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59136724472046</t>
+    <t xml:space="preserve">5.62675619125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5913667678833</t>
   </si>
   <si>
     <t xml:space="preserve">5.66214418411255</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67099046707153</t>
+    <t xml:space="preserve">5.67099094390869</t>
   </si>
   <si>
     <t xml:space="preserve">5.63560247421265</t>
@@ -827,40 +827,40 @@
     <t xml:space="preserve">5.58252048492432</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58694314956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49404954910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4365439414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51174354553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53828573226929</t>
+    <t xml:space="preserve">5.58694362640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49405002593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43654346466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51174402236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53828525543213</t>
   </si>
   <si>
     <t xml:space="preserve">5.56482553482056</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57367324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48962640762329</t>
+    <t xml:space="preserve">5.57367372512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48962593078613</t>
   </si>
   <si>
     <t xml:space="preserve">5.52059078216553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4852032661438</t>
+    <t xml:space="preserve">5.48520278930664</t>
   </si>
   <si>
     <t xml:space="preserve">5.56040239334106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55597877502441</t>
+    <t xml:space="preserve">5.55597925186157</t>
   </si>
   <si>
     <t xml:space="preserve">5.59579133987427</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">5.61348485946655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64887380599976</t>
+    <t xml:space="preserve">5.64887428283691</t>
   </si>
   <si>
     <t xml:space="preserve">5.72407341003418</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">5.69310903549194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71964979171753</t>
+    <t xml:space="preserve">5.71965026855469</t>
   </si>
   <si>
     <t xml:space="preserve">5.7019567489624</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">5.62233257293701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56924962997437</t>
+    <t xml:space="preserve">5.56925058364868</t>
   </si>
   <si>
     <t xml:space="preserve">5.51616716384888</t>
@@ -911,22 +911,22 @@
     <t xml:space="preserve">5.4586615562439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54713201522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64002656936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61790800094604</t>
+    <t xml:space="preserve">5.54713153839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64002561569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6179084777832</t>
   </si>
   <si>
     <t xml:space="preserve">5.60906171798706</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64444971084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81254529953003</t>
+    <t xml:space="preserve">5.64445018768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81254482269287</t>
   </si>
   <si>
     <t xml:space="preserve">5.86562776565552</t>
@@ -935,16 +935,16 @@
     <t xml:space="preserve">5.92755699157715</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95852136611938</t>
+    <t xml:space="preserve">5.95852184295654</t>
   </si>
   <si>
     <t xml:space="preserve">6.02487564086914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94525146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90543937683105</t>
+    <t xml:space="preserve">5.94525194168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9054388999939</t>
   </si>
   <si>
     <t xml:space="preserve">5.76388597488403</t>
@@ -962,25 +962,25 @@
     <t xml:space="preserve">5.68868541717529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71522665023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70637989044189</t>
+    <t xml:space="preserve">5.71522617340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70638036727905</t>
   </si>
   <si>
     <t xml:space="preserve">5.55155515670776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60463762283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50289630889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.383460521698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17555379867554</t>
+    <t xml:space="preserve">5.60463809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50289583206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38346099853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17555332183838</t>
   </si>
   <si>
     <t xml:space="preserve">5.19767189025879</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">5.087082862854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13131761550903</t>
+    <t xml:space="preserve">5.13131809234619</t>
   </si>
   <si>
     <t xml:space="preserve">5.12247133255005</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">5.23748302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1932487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15343570709229</t>
+    <t xml:space="preserve">5.19324827194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15343618392944</t>
   </si>
   <si>
     <t xml:space="preserve">5.16670703887939</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">5.14016580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0959300994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25075483322144</t>
+    <t xml:space="preserve">5.09592962265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25075435638428</t>
   </si>
   <si>
     <t xml:space="preserve">5.21978950500488</t>
@@ -1028,31 +1028,31 @@
     <t xml:space="preserve">5.14901256561279</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1180477142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00303506851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93668174743652</t>
+    <t xml:space="preserve">5.11804819107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0030345916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93668222427368</t>
   </si>
   <si>
     <t xml:space="preserve">4.97649335861206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94552850723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91014099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98091745376587</t>
+    <t xml:space="preserve">4.94552898406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91014051437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98091793060303</t>
   </si>
   <si>
     <t xml:space="preserve">4.94995260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91456460952759</t>
+    <t xml:space="preserve">4.91456413269043</t>
   </si>
   <si>
     <t xml:space="preserve">4.99861145019531</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">5.07381200790405</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02957582473755</t>
+    <t xml:space="preserve">5.02957630157471</t>
   </si>
   <si>
     <t xml:space="preserve">5.01188230514526</t>
@@ -1070,13 +1070,13 @@
     <t xml:space="preserve">4.98976469039917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95437717437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20651865005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21536493301392</t>
+    <t xml:space="preserve">4.95437669754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20651912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21536540985107</t>
   </si>
   <si>
     <t xml:space="preserve">5.18440008163452</t>
@@ -1088,13 +1088,13 @@
     <t xml:space="preserve">5.46750831604004</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29498958587646</t>
+    <t xml:space="preserve">5.29498910903931</t>
   </si>
   <si>
     <t xml:space="preserve">5.31710720062256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47635459899902</t>
+    <t xml:space="preserve">5.47635507583618</t>
   </si>
   <si>
     <t xml:space="preserve">5.40115451812744</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">5.0693883895874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96322298049927</t>
+    <t xml:space="preserve">4.96322345733643</t>
   </si>
   <si>
     <t xml:space="preserve">4.87917613983154</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">4.86590528488159</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88802242279053</t>
+    <t xml:space="preserve">4.88802289962769</t>
   </si>
   <si>
     <t xml:space="preserve">4.90571737289429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98534154891968</t>
+    <t xml:space="preserve">4.98534107208252</t>
   </si>
   <si>
     <t xml:space="preserve">4.85705804824829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8216700553894</t>
+    <t xml:space="preserve">4.82166957855225</t>
   </si>
   <si>
     <t xml:space="preserve">4.80839872360229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84821128845215</t>
+    <t xml:space="preserve">4.84821176528931</t>
   </si>
   <si>
     <t xml:space="preserve">4.75531625747681</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">4.7862811088562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83936309814453</t>
+    <t xml:space="preserve">4.83936357498169</t>
   </si>
   <si>
     <t xml:space="preserve">4.86148166656494</t>
@@ -1169,34 +1169,34 @@
     <t xml:space="preserve">4.87032842636108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83051729202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75089311599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70223331451416</t>
+    <t xml:space="preserve">4.83051681518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75089359283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70223379135132</t>
   </si>
   <si>
     <t xml:space="preserve">4.61818647384644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64472770690918</t>
+    <t xml:space="preserve">4.64472723007202</t>
   </si>
   <si>
     <t xml:space="preserve">4.43682050704956</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4076247215271</t>
+    <t xml:space="preserve">4.40762519836426</t>
   </si>
   <si>
     <t xml:space="preserve">4.39700937271118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40231704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44124412536621</t>
+    <t xml:space="preserve">4.40231657028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44124364852905</t>
   </si>
   <si>
     <t xml:space="preserve">4.34038734436035</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">4.34569597244263</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37046766281128</t>
+    <t xml:space="preserve">4.37046813964844</t>
   </si>
   <si>
     <t xml:space="preserve">4.41647291183472</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">4.42355060577393</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38816118240356</t>
+    <t xml:space="preserve">4.38816165924072</t>
   </si>
   <si>
     <t xml:space="preserve">4.41470289230347</t>
@@ -1229,10 +1229,10 @@
     <t xml:space="preserve">3.07879066467285</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01155304908752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04163336753845</t>
+    <t xml:space="preserve">3.01155281066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04163312911987</t>
   </si>
   <si>
     <t xml:space="preserve">3.06463527679443</t>
@@ -1244,25 +1244,25 @@
     <t xml:space="preserve">3.09648513793945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12302660942078</t>
+    <t xml:space="preserve">3.1230263710022</t>
   </si>
   <si>
     <t xml:space="preserve">3.19557285308838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26281046867371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35835886001587</t>
+    <t xml:space="preserve">3.26281070709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35835909843445</t>
   </si>
   <si>
     <t xml:space="preserve">3.33535671234131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34420371055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33004856109619</t>
+    <t xml:space="preserve">3.34420347213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33004832267761</t>
   </si>
   <si>
     <t xml:space="preserve">3.36720657348633</t>
@@ -1271,46 +1271,46 @@
     <t xml:space="preserve">3.36189794540405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2875828742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1902642250061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20795869827271</t>
+    <t xml:space="preserve">3.28758263587952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19026446342468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20795893669128</t>
   </si>
   <si>
     <t xml:space="preserve">3.11948704719543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13187336921692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06994366645813</t>
+    <t xml:space="preserve">3.13187313079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06994390487671</t>
   </si>
   <si>
     <t xml:space="preserve">3.00801348686218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99208903312683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01863050460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90892696380615</t>
+    <t xml:space="preserve">2.99208927154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01863026618958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90892672538757</t>
   </si>
   <si>
     <t xml:space="preserve">2.70898151397705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6983654499054</t>
+    <t xml:space="preserve">2.69836568832397</t>
   </si>
   <si>
     <t xml:space="preserve">2.65943813323975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7426016330719</t>
+    <t xml:space="preserve">2.74260139465332</t>
   </si>
   <si>
     <t xml:space="preserve">2.64882135391235</t>
@@ -1319,25 +1319,25 @@
     <t xml:space="preserve">2.66474652290344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65412950515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62581920623779</t>
+    <t xml:space="preserve">2.65412974357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62581944465637</t>
   </si>
   <si>
     <t xml:space="preserve">2.56211972236633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53734850883484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50019025802612</t>
+    <t xml:space="preserve">2.53734827041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5001904964447</t>
   </si>
   <si>
     <t xml:space="preserve">2.50726795196533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5178849697113</t>
+    <t xml:space="preserve">2.51788473129272</t>
   </si>
   <si>
     <t xml:space="preserve">2.40994954109192</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">2.45064687728882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3957941532135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40641140937805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55681228637695</t>
+    <t xml:space="preserve">2.39579439163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40641117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55681252479553</t>
   </si>
   <si>
     <t xml:space="preserve">2.52142310142517</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">2.43649077415466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43826079368591</t>
+    <t xml:space="preserve">2.43826103210449</t>
   </si>
   <si>
     <t xml:space="preserve">2.4329526424408</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">2.46126294136047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4736487865448</t>
+    <t xml:space="preserve">2.47364902496338</t>
   </si>
   <si>
     <t xml:space="preserve">2.49311256408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5054988861084</t>
+    <t xml:space="preserve">2.50549864768982</t>
   </si>
   <si>
     <t xml:space="preserve">2.48957347869873</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">2.38871669769287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35155916213989</t>
+    <t xml:space="preserve">2.35155940055847</t>
   </si>
   <si>
     <t xml:space="preserve">2.41525816917419</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">2.35686683654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36217546463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54265570640564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59396910667419</t>
+    <t xml:space="preserve">2.36217522621155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54265594482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59396934509277</t>
   </si>
   <si>
     <t xml:space="preserve">2.56742811203003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45595455169678</t>
+    <t xml:space="preserve">2.45595479011536</t>
   </si>
   <si>
     <t xml:space="preserve">2.44533848762512</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">2.48249578475952</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47010946273804</t>
+    <t xml:space="preserve">2.47010970115662</t>
   </si>
   <si>
     <t xml:space="preserve">2.40818023681641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31794023513794</t>
+    <t xml:space="preserve">2.31794047355652</t>
   </si>
   <si>
     <t xml:space="preserve">2.30555438995361</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">2.3409423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34271168708801</t>
+    <t xml:space="preserve">2.34271192550659</t>
   </si>
   <si>
     <t xml:space="preserve">2.17638611793518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13038110733032</t>
+    <t xml:space="preserve">2.1303813457489</t>
   </si>
   <si>
     <t xml:space="preserve">2.09145379066467</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">2.1586925983429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27901291847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30024576187134</t>
+    <t xml:space="preserve">2.27901315689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30024600028992</t>
   </si>
   <si>
     <t xml:space="preserve">2.31086206436157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29493737220764</t>
+    <t xml:space="preserve">2.29493761062622</t>
   </si>
   <si>
     <t xml:space="preserve">2.29670643806458</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">2.28255152702332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28432059288025</t>
+    <t xml:space="preserve">2.28432035446167</t>
   </si>
   <si>
     <t xml:space="preserve">2.24008560180664</t>
@@ -1487,28 +1487,28 @@
     <t xml:space="preserve">2.2135443687439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22239112854004</t>
+    <t xml:space="preserve">2.22239136695862</t>
   </si>
   <si>
     <t xml:space="preserve">2.28785991668701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22062206268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21531367301941</t>
+    <t xml:space="preserve">2.22062182426453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21531343460083</t>
   </si>
   <si>
     <t xml:space="preserve">2.14453625679016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14630675315857</t>
+    <t xml:space="preserve">2.14630651473999</t>
   </si>
   <si>
     <t xml:space="preserve">2.2507016658783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36925268173218</t>
+    <t xml:space="preserve">2.36925292015076</t>
   </si>
   <si>
     <t xml:space="preserve">2.31617021560669</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">2.19231152534485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18523383140564</t>
+    <t xml:space="preserve">2.18523406982422</t>
   </si>
   <si>
     <t xml:space="preserve">2.11976504325867</t>
@@ -1532,13 +1532,13 @@
     <t xml:space="preserve">2.10030150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06137418746948</t>
+    <t xml:space="preserve">2.06137442588806</t>
   </si>
   <si>
     <t xml:space="preserve">1.98705852031708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8614296913147</t>
+    <t xml:space="preserve">1.86142981052399</t>
   </si>
   <si>
     <t xml:space="preserve">1.7959611415863</t>
@@ -1559,19 +1559,19 @@
     <t xml:space="preserve">1.57389879226685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47923469543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3951872587204</t>
+    <t xml:space="preserve">1.47923445701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39518737792969</t>
   </si>
   <si>
     <t xml:space="preserve">1.36156833171844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34652817249298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32352614402771</t>
+    <t xml:space="preserve">1.34652805328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32352602481842</t>
   </si>
   <si>
     <t xml:space="preserve">1.31821751594543</t>
@@ -1592,58 +1592,58 @@
     <t xml:space="preserve">1.39076387882233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35979926586151</t>
+    <t xml:space="preserve">1.35979914665222</t>
   </si>
   <si>
     <t xml:space="preserve">1.35537576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41819024085999</t>
+    <t xml:space="preserve">1.41819036006927</t>
   </si>
   <si>
     <t xml:space="preserve">1.43146049976349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37130033969879</t>
+    <t xml:space="preserve">1.3713002204895</t>
   </si>
   <si>
     <t xml:space="preserve">1.37306940555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31644833087921</t>
+    <t xml:space="preserve">1.3164484500885</t>
   </si>
   <si>
     <t xml:space="preserve">1.32618033885956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34298968315125</t>
+    <t xml:space="preserve">1.34298980236053</t>
   </si>
   <si>
     <t xml:space="preserve">1.32706439495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30671656131744</t>
+    <t xml:space="preserve">1.30671668052673</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060359954834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33237278461456</t>
+    <t xml:space="preserve">1.33237290382385</t>
   </si>
   <si>
     <t xml:space="preserve">1.3350270986557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44915509223938</t>
+    <t xml:space="preserve">1.44915497303009</t>
   </si>
   <si>
     <t xml:space="preserve">1.45092403888702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44473159313202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4252678155899</t>
+    <t xml:space="preserve">1.44473147392273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42526793479919</t>
   </si>
   <si>
     <t xml:space="preserve">1.39253306388855</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">1.42438280582428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32529520988464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31202507019043</t>
+    <t xml:space="preserve">1.32529509067535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31202495098114</t>
   </si>
   <si>
     <t xml:space="preserve">1.13154339790344</t>
@@ -1664,43 +1664,43 @@
     <t xml:space="preserve">1.0191855430603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04838120937347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.670609354972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744925737380981</t>
+    <t xml:space="preserve">1.04838109016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.670609295368195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744925796985626</t>
   </si>
   <si>
     <t xml:space="preserve">0.746694922447205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913020312786102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01476216316223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00414526462555</t>
+    <t xml:space="preserve">0.913020372390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01476228237152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00414538383484</t>
   </si>
   <si>
     <t xml:space="preserve">0.898865103721619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967872083187103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00060701370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973180651664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971411526203156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06430554389954</t>
+    <t xml:space="preserve">0.967872202396393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0006068944931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973180592060089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971411466598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06430542469025</t>
   </si>
   <si>
     <t xml:space="preserve">1.21559166908264</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">1.18020260334015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16427826881409</t>
+    <t xml:space="preserve">1.1642781496048</t>
   </si>
   <si>
     <t xml:space="preserve">1.19878220558167</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.16870164871216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09704029560089</t>
+    <t xml:space="preserve">1.09704041481018</t>
   </si>
   <si>
     <t xml:space="preserve">1.07138311862946</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">1.07580745220184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07315337657928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14658379554749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16693246364594</t>
+    <t xml:space="preserve">1.07315325737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1465836763382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16693234443665</t>
   </si>
   <si>
     <t xml:space="preserve">1.19435787200928</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">1.20408964157104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17931854724884</t>
+    <t xml:space="preserve">1.17931842803955</t>
   </si>
   <si>
     <t xml:space="preserve">1.16781663894653</t>
@@ -1769,10 +1769,10 @@
     <t xml:space="preserve">1.13419759273529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12623596191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07934594154358</t>
+    <t xml:space="preserve">1.12623584270477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07934582233429</t>
   </si>
   <si>
     <t xml:space="preserve">1.09615528583527</t>
@@ -1781,25 +1781,25 @@
     <t xml:space="preserve">1.128005027771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1952428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14923787117004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15100717544556</t>
+    <t xml:space="preserve">1.19524276256561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14923799037933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15100705623627</t>
   </si>
   <si>
     <t xml:space="preserve">1.13596773147583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14481449127197</t>
+    <t xml:space="preserve">1.14481437206268</t>
   </si>
   <si>
     <t xml:space="preserve">1.17047071456909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14216029644012</t>
+    <t xml:space="preserve">1.14216017723083</t>
   </si>
   <si>
     <t xml:space="preserve">1.1651623249054</t>
@@ -1826,19 +1826,19 @@
     <t xml:space="preserve">1.44119226932526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40934240818024</t>
+    <t xml:space="preserve">1.40934252738953</t>
   </si>
   <si>
     <t xml:space="preserve">1.37483942508698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45446348190308</t>
+    <t xml:space="preserve">1.45446336269379</t>
   </si>
   <si>
     <t xml:space="preserve">1.46950280666351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40845847129822</t>
+    <t xml:space="preserve">1.40845835208893</t>
   </si>
   <si>
     <t xml:space="preserve">1.43057537078857</t>
@@ -1853,10 +1853,10 @@
     <t xml:space="preserve">1.44650077819824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45269322395325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48542809486389</t>
+    <t xml:space="preserve">1.45269334316254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4854279756546</t>
   </si>
   <si>
     <t xml:space="preserve">1.50312173366547</t>
@@ -1868,19 +1868,19 @@
     <t xml:space="preserve">1.50666093826294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51285338401794</t>
+    <t xml:space="preserve">1.51285350322723</t>
   </si>
   <si>
     <t xml:space="preserve">1.48277390003204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45711672306061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47658026218414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53939485549927</t>
+    <t xml:space="preserve">1.45711660385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47658038139343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53939473628998</t>
   </si>
   <si>
     <t xml:space="preserve">1.52081620693207</t>
@@ -1892,46 +1892,46 @@
     <t xml:space="preserve">1.70660531520844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69156503677368</t>
+    <t xml:space="preserve">1.69156515598297</t>
   </si>
   <si>
     <t xml:space="preserve">1.68802678585052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6676778793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64467597007751</t>
+    <t xml:space="preserve">1.66767799854279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64467585086823</t>
   </si>
   <si>
     <t xml:space="preserve">1.64290583133698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60397934913635</t>
+    <t xml:space="preserve">1.60397946834564</t>
   </si>
   <si>
     <t xml:space="preserve">1.55797433853149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50135254859924</t>
+    <t xml:space="preserve">1.50135242938995</t>
   </si>
   <si>
     <t xml:space="preserve">1.51904702186584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47038793563843</t>
+    <t xml:space="preserve">1.47038781642914</t>
   </si>
   <si>
     <t xml:space="preserve">1.46507930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41111171245575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44826984405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42969119548798</t>
+    <t xml:space="preserve">1.41111183166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44826996326447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42969143390656</t>
   </si>
   <si>
     <t xml:space="preserve">1.38014698028564</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">1.40049564838409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39430224895477</t>
+    <t xml:space="preserve">1.39430212974548</t>
   </si>
   <si>
     <t xml:space="preserve">1.37572360038757</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">1.36864590644836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36333751678467</t>
+    <t xml:space="preserve">1.36333763599396</t>
   </si>
   <si>
     <t xml:space="preserve">1.32441020011902</t>
@@ -1967,31 +1967,31 @@
     <t xml:space="preserve">1.40580415725708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3889946937561</t>
+    <t xml:space="preserve">1.38899481296539</t>
   </si>
   <si>
     <t xml:space="preserve">1.39784157276154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42880618572235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42615187168121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38457143306732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33679628372192</t>
+    <t xml:space="preserve">1.42880606651306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4261519908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38457131385803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33679616451263</t>
   </si>
   <si>
     <t xml:space="preserve">1.34387373924255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29433047771454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26248073577881</t>
+    <t xml:space="preserve">1.29433059692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2624808549881</t>
   </si>
   <si>
     <t xml:space="preserve">1.43853807449341</t>
@@ -2000,34 +2000,34 @@
     <t xml:space="preserve">1.4013808965683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35802984237671</t>
+    <t xml:space="preserve">1.358029961586</t>
   </si>
   <si>
     <t xml:space="preserve">1.31379413604736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34918224811554</t>
+    <t xml:space="preserve">1.34918236732483</t>
   </si>
   <si>
     <t xml:space="preserve">1.33591210842133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40491902828217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41730511188507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50931525230408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56947529315948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58451569080353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59159338474274</t>
+    <t xml:space="preserve">1.40491914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41730523109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50931513309479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56947541236877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58451581001282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59159326553345</t>
   </si>
   <si>
     <t xml:space="preserve">1.59247744083405</t>
@@ -2039,10 +2039,10 @@
     <t xml:space="preserve">1.65617692470551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62963557243347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64025259017944</t>
+    <t xml:space="preserve">1.62963569164276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64025247097015</t>
   </si>
   <si>
     <t xml:space="preserve">1.58009135723114</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.50046753883362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47569620609283</t>
+    <t xml:space="preserve">1.47569632530212</t>
   </si>
   <si>
     <t xml:space="preserve">1.47304201126099</t>
@@ -2066,10 +2066,10 @@
     <t xml:space="preserve">1.42792212963104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41022765636444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40668833255768</t>
+    <t xml:space="preserve">1.41022753715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40668821334839</t>
   </si>
   <si>
     <t xml:space="preserve">1.37395441532135</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">1.37660872936249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37926280498505</t>
+    <t xml:space="preserve">1.37926304340363</t>
   </si>
   <si>
     <t xml:space="preserve">1.41199672222137</t>
@@ -2087,31 +2087,31 @@
     <t xml:space="preserve">1.3403354883194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31556344032288</t>
+    <t xml:space="preserve">1.31556332111359</t>
   </si>
   <si>
     <t xml:space="preserve">1.47215700149536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45180916786194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46684861183167</t>
+    <t xml:space="preserve">1.45180928707123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46684849262238</t>
   </si>
   <si>
     <t xml:space="preserve">1.47127294540405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46154093742371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53851056098938</t>
+    <t xml:space="preserve">1.46154117584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53851068019867</t>
   </si>
   <si>
     <t xml:space="preserve">1.57655310630798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58539974689484</t>
+    <t xml:space="preserve">1.58539986610413</t>
   </si>
   <si>
     <t xml:space="preserve">1.58982312679291</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">1.53320217132568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48188877105713</t>
+    <t xml:space="preserve">1.48188889026642</t>
   </si>
   <si>
     <t xml:space="preserve">1.63405895233154</t>
@@ -2129,25 +2129,25 @@
     <t xml:space="preserve">1.54735743999481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47392606735229</t>
+    <t xml:space="preserve">1.47392618656158</t>
   </si>
   <si>
     <t xml:space="preserve">1.49338984489441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49162065982819</t>
+    <t xml:space="preserve">1.49162077903748</t>
   </si>
   <si>
     <t xml:space="preserve">1.51373851299286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49073565006256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41288185119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40403401851654</t>
+    <t xml:space="preserve">1.49073553085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.412881731987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40403413772583</t>
   </si>
   <si>
     <t xml:space="preserve">1.41642010211945</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">1.45003914833069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53054797649384</t>
+    <t xml:space="preserve">1.53054809570312</t>
   </si>
   <si>
     <t xml:space="preserve">1.51993119716644</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">1.5526659488678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5588583946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55178093910217</t>
+    <t xml:space="preserve">1.55885851383209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55178081989288</t>
   </si>
   <si>
     <t xml:space="preserve">1.55974352359772</t>
@@ -2180,19 +2180,19 @@
     <t xml:space="preserve">1.60132527351379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55708944797516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58097636699677</t>
+    <t xml:space="preserve">1.55708932876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58097648620605</t>
   </si>
   <si>
     <t xml:space="preserve">1.61282634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63140475749969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.626096367836</t>
+    <t xml:space="preserve">1.63140487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62609624862671</t>
   </si>
   <si>
     <t xml:space="preserve">1.69245004653931</t>
@@ -2213,16 +2213,16 @@
     <t xml:space="preserve">1.72872316837311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67829489707947</t>
+    <t xml:space="preserve">1.67829477787018</t>
   </si>
   <si>
     <t xml:space="preserve">1.65263772010803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63317394256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65086841583252</t>
+    <t xml:space="preserve">1.63317406177521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65086853504181</t>
   </si>
   <si>
     <t xml:space="preserve">1.65883111953735</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">1.68094897270203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74730205535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84373533725739</t>
+    <t xml:space="preserve">1.74730181694031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8437352180481</t>
   </si>
   <si>
     <t xml:space="preserve">1.80834722518921</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">1.83134913444519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81365561485291</t>
+    <t xml:space="preserve">1.81365549564362</t>
   </si>
   <si>
     <t xml:space="preserve">1.83488845825195</t>
@@ -2273,10 +2273,10 @@
     <t xml:space="preserve">1.70395112037659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78534424304962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76941978931427</t>
+    <t xml:space="preserve">1.78534412384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76941967010498</t>
   </si>
   <si>
     <t xml:space="preserve">1.78711438179016</t>
@@ -2285,16 +2285,16 @@
     <t xml:space="preserve">1.77472817897797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78003656864166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71279788017273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7110288143158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72076070308685</t>
+    <t xml:space="preserve">1.78003668785095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71279776096344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71102869510651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72076058387756</t>
   </si>
   <si>
     <t xml:space="preserve">1.70572030544281</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">1.7048362493515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67121720314026</t>
+    <t xml:space="preserve">1.67121732234955</t>
   </si>
   <si>
     <t xml:space="preserve">1.68537259101868</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">1.65440785884857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68625676631927</t>
+    <t xml:space="preserve">1.68625664710999</t>
   </si>
   <si>
     <t xml:space="preserve">1.68979585170746</t>
@@ -2330,10 +2330,10 @@
     <t xml:space="preserve">1.6986426115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69510436058044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67917895317078</t>
+    <t xml:space="preserve">1.69510424137115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67917907238007</t>
   </si>
   <si>
     <t xml:space="preserve">1.63671326637268</t>
@@ -2351,28 +2351,28 @@
     <t xml:space="preserve">1.58274567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57743811607361</t>
+    <t xml:space="preserve">1.57743799686432</t>
   </si>
   <si>
     <t xml:space="preserve">1.55443513393402</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6022093296051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61636447906494</t>
+    <t xml:space="preserve">1.60220921039581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61636459827423</t>
   </si>
   <si>
     <t xml:space="preserve">1.62255799770355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63936758041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60663259029388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59867084026337</t>
+    <t xml:space="preserve">1.63936746120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60663270950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59867095947266</t>
   </si>
   <si>
     <t xml:space="preserve">1.57035946846008</t>
@@ -2387,34 +2387,34 @@
     <t xml:space="preserve">1.25009477138519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23593938350677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20320570468903</t>
+    <t xml:space="preserve">1.23593950271606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20320558547974</t>
   </si>
   <si>
     <t xml:space="preserve">1.08819258213043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988220989704132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822779595851898</t>
+    <t xml:space="preserve">0.988221049308777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822779536247253</t>
   </si>
   <si>
     <t xml:space="preserve">0.761735200881958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.736963033676147</t>
+    <t xml:space="preserve">0.736963093280792</t>
   </si>
   <si>
     <t xml:space="preserve">0.579042315483093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649819493293762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.550288915634155</t>
+    <t xml:space="preserve">0.649819433689117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55028885602951</t>
   </si>
   <si>
     <t xml:space="preserve">0.634779155254364</t>
@@ -2426,19 +2426,19 @@
     <t xml:space="preserve">0.767927765846252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743155598640442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675033688545227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722807824611664</t>
+    <t xml:space="preserve">0.743155658245087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675033628940582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.722807884216309</t>
   </si>
   <si>
     <t xml:space="preserve">0.72059565782547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728558361530304</t>
+    <t xml:space="preserve">0.728558301925659</t>
   </si>
   <si>
     <t xml:space="preserve">0.698920786380768</t>
@@ -2453,10 +2453,10 @@
     <t xml:space="preserve">0.681226253509521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6644167304039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610892117023468</t>
+    <t xml:space="preserve">0.664416790008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610892176628113</t>
   </si>
   <si>
     <t xml:space="preserve">0.654684901237488</t>
@@ -2468,49 +2468,49 @@
     <t xml:space="preserve">0.684765458106995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.689188897609711</t>
+    <t xml:space="preserve">0.689188838005066</t>
   </si>
   <si>
     <t xml:space="preserve">0.675917744636536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688303828239441</t>
+    <t xml:space="preserve">0.688303887844086</t>
   </si>
   <si>
     <t xml:space="preserve">0.678129911422729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.648492276668549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652030646800995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646280109882355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641414701938629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.647165238857269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.690073013305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716614305973053</t>
+    <t xml:space="preserve">0.648492336273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65203070640564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.646280169487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641414761543274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.647165298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.690072953701019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716614365577698</t>
   </si>
   <si>
     <t xml:space="preserve">0.693612277507782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.680341124534607</t>
+    <t xml:space="preserve">0.680341184139252</t>
   </si>
   <si>
     <t xml:space="preserve">0.679457068443298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694497346878052</t>
+    <t xml:space="preserve">0.694497406482697</t>
   </si>
   <si>
     <t xml:space="preserve">0.677687883377075</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">0.687419712543488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707767486572266</t>
+    <t xml:space="preserve">0.70776754617691</t>
   </si>
   <si>
     <t xml:space="preserve">0.688745856285095</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">0.663531720638275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6458380818367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641856789588928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.667070984840393</t>
+    <t xml:space="preserve">0.645838141441345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641856729984283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667070925235748</t>
   </si>
   <si>
     <t xml:space="preserve">0.632125020027161</t>
@@ -2543,13 +2543,13 @@
     <t xml:space="preserve">0.608679950237274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616200566291809</t>
+    <t xml:space="preserve">0.616200625896454</t>
   </si>
   <si>
     <t xml:space="preserve">0.60823792219162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637433409690857</t>
+    <t xml:space="preserve">0.637433350086212</t>
   </si>
   <si>
     <t xml:space="preserve">0.667956054210663</t>
@@ -2561,55 +2561,55 @@
     <t xml:space="preserve">0.836050689220428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808182239532471</t>
+    <t xml:space="preserve">0.808182299137115</t>
   </si>
   <si>
     <t xml:space="preserve">0.813932776451111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876747190952301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884709894657135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954602003097534</t>
+    <t xml:space="preserve">0.876747250556946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88470983505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954602062702179</t>
   </si>
   <si>
     <t xml:space="preserve">0.964333832263947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06519055366516</t>
+    <t xml:space="preserve">1.06519067287445</t>
   </si>
   <si>
     <t xml:space="preserve">1.07049906253815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02626323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929829835891724</t>
+    <t xml:space="preserve">1.0262633562088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929829776287079</t>
   </si>
   <si>
     <t xml:space="preserve">0.979373157024384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980258226394653</t>
+    <t xml:space="preserve">0.980258285999298</t>
   </si>
   <si>
     <t xml:space="preserve">0.993529260158539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976719915866852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944870173931122</t>
+    <t xml:space="preserve">0.976719975471497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944870114326477</t>
   </si>
   <si>
     <t xml:space="preserve">0.946639358997345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948408424854279</t>
+    <t xml:space="preserve">0.948408484458923</t>
   </si>
   <si>
     <t xml:space="preserve">0.872323870658875</t>
@@ -2618,16 +2618,16 @@
     <t xml:space="preserve">0.827203929424286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873651027679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85374516248703</t>
+    <t xml:space="preserve">0.873650908470154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85374528169632</t>
   </si>
   <si>
     <t xml:space="preserve">0.832069337368011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849763929843903</t>
+    <t xml:space="preserve">0.849763870239258</t>
   </si>
   <si>
     <t xml:space="preserve">0.844897449016571</t>
@@ -2636,13 +2636,13 @@
     <t xml:space="preserve">0.849320888519287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845782518386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822337508201599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82853102684021</t>
+    <t xml:space="preserve">0.845782577991486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822337567806244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828531086444855</t>
   </si>
   <si>
     <t xml:space="preserve">0.811720609664917</t>
@@ -2660,16 +2660,16 @@
     <t xml:space="preserve">0.905942738056183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894441664218903</t>
+    <t xml:space="preserve">0.894441723823547</t>
   </si>
   <si>
     <t xml:space="preserve">0.908596992492676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885594010353088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884266972541809</t>
+    <t xml:space="preserve">0.885594069957733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884266912937164</t>
   </si>
   <si>
     <t xml:space="preserve">0.888248264789581</t>
@@ -2678,13 +2678,13 @@
     <t xml:space="preserve">0.847551763057709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819683313369751</t>
+    <t xml:space="preserve">0.819683253765106</t>
   </si>
   <si>
     <t xml:space="preserve">0.836492776870728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817472040653229</t>
+    <t xml:space="preserve">0.817472100257874</t>
   </si>
   <si>
     <t xml:space="preserve">0.812605679035187</t>
@@ -2693,10 +2693,10 @@
     <t xml:space="preserve">0.821452438831329</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833396434783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83958899974823</t>
+    <t xml:space="preserve">0.83339649438858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839589059352875</t>
   </si>
   <si>
     <t xml:space="preserve">0.803758859634399</t>
@@ -2705,19 +2705,19 @@
     <t xml:space="preserve">0.811278581619263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847993791103363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857725560665131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.847109615802765</t>
+    <t xml:space="preserve">0.847993731498718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857725620269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84710967540741</t>
   </si>
   <si>
     <t xml:space="preserve">0.826318860054016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816586971282959</t>
+    <t xml:space="preserve">0.816587030887604</t>
   </si>
   <si>
     <t xml:space="preserve">0.784737229347229</t>
@@ -2726,19 +2726,19 @@
     <t xml:space="preserve">0.760408103466034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754214525222778</t>
+    <t xml:space="preserve">0.754214584827423</t>
   </si>
   <si>
     <t xml:space="preserve">0.724577009677887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731654584407806</t>
+    <t xml:space="preserve">0.731654644012451</t>
   </si>
   <si>
     <t xml:space="preserve">0.733866810798645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72634619474411</t>
+    <t xml:space="preserve">0.726346135139465</t>
   </si>
   <si>
     <t xml:space="preserve">0.713961064815521</t>
@@ -2747,40 +2747,40 @@
     <t xml:space="preserve">0.705998361110687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72236579656601</t>
+    <t xml:space="preserve">0.722365736961365</t>
   </si>
   <si>
     <t xml:space="preserve">0.728116273880005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725904047489166</t>
+    <t xml:space="preserve">0.725904107093811</t>
   </si>
   <si>
     <t xml:space="preserve">0.717941462993622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735635936260223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.738732218742371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.745367825031281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.739617347717285</t>
+    <t xml:space="preserve">0.735635995864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.738732278347015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.745367765426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.739617228507996</t>
   </si>
   <si>
     <t xml:space="preserve">0.76394647359848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763062298297882</t>
+    <t xml:space="preserve">0.763062357902527</t>
   </si>
   <si>
     <t xml:space="preserve">0.786506414413452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813047707080841</t>
+    <t xml:space="preserve">0.813047766685486</t>
   </si>
   <si>
     <t xml:space="preserve">0.760850191116333</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">0.828088045120239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801989674568176</t>
+    <t xml:space="preserve">0.801989734172821</t>
   </si>
   <si>
     <t xml:space="preserve">0.824991762638092</t>
@@ -2804,13 +2804,13 @@
     <t xml:space="preserve">0.874093055725098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.900634229183197</t>
+    <t xml:space="preserve">0.900634288787842</t>
   </si>
   <si>
     <t xml:space="preserve">0.911251187324524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897095918655396</t>
+    <t xml:space="preserve">0.89709597826004</t>
   </si>
   <si>
     <t xml:space="preserve">0.909481108188629</t>
@@ -2831,22 +2831,22 @@
     <t xml:space="preserve">0.860822856426239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855514407157898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861264884471893</t>
+    <t xml:space="preserve">0.855514347553253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861264944076538</t>
   </si>
   <si>
     <t xml:space="preserve">0.877632260322571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882055640220642</t>
+    <t xml:space="preserve">0.882055699825287</t>
   </si>
   <si>
     <t xml:space="preserve">0.869227528572083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794027090072632</t>
+    <t xml:space="preserve">0.794027030467987</t>
   </si>
   <si>
     <t xml:space="preserve">0.752887487411499</t>
@@ -2882,19 +2882,19 @@
     <t xml:space="preserve">0.850647985935211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906827807426453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895325899124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928944706916809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953716933727264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942215859889984</t>
+    <t xml:space="preserve">0.906827747821808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895325839519501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928944826126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95371687412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942215919494629</t>
   </si>
   <si>
     <t xml:space="preserve">0.939561665058136</t>
@@ -2909,67 +2909,67 @@
     <t xml:space="preserve">0.95814037322998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94575423002243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955486178398132</t>
+    <t xml:space="preserve">0.945754170417786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955486118793488</t>
   </si>
   <si>
     <t xml:space="preserve">0.934253215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919212937355042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890902519226074</t>
+    <t xml:space="preserve">0.919212877750397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890902459621429</t>
   </si>
   <si>
     <t xml:space="preserve">0.889133274555206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891787528991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890018284320831</t>
+    <t xml:space="preserve">0.891787469387054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890018343925476</t>
   </si>
   <si>
     <t xml:space="preserve">0.910366117954254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959025323390961</t>
+    <t xml:space="preserve">0.959025382995605</t>
   </si>
   <si>
     <t xml:space="preserve">0.899749279022217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924521327018738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95991051197052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999722003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01033878326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0138772726059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02272498607635</t>
+    <t xml:space="preserve">0.924521386623383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959910452365875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999721884727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01033890247345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01387715339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02272486686707</t>
   </si>
   <si>
     <t xml:space="preserve">1.03599500656128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01830065250397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989989995956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956371128559113</t>
+    <t xml:space="preserve">1.01830053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98999011516571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956371188163757</t>
   </si>
   <si>
     <t xml:space="preserve">0.926290512084961</t>
@@ -2978,46 +2978,46 @@
     <t xml:space="preserve">0.90328848361969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918328762054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930714845657349</t>
+    <t xml:space="preserve">0.918328821659088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930714905261993</t>
   </si>
   <si>
     <t xml:space="preserve">0.960794568061829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986451745033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975834846496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982027411460876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966988027095795</t>
+    <t xml:space="preserve">0.986451804637909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975834786891937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982027471065521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966988086700439</t>
   </si>
   <si>
     <t xml:space="preserve">1.00326120853424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952831864356995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984681665897369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994413554668427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992644250392914</t>
+    <t xml:space="preserve">0.952831923961639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98468154668808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994413614273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992644309997559</t>
   </si>
   <si>
     <t xml:space="preserve">0.9979527592659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997067809104919</t>
+    <t xml:space="preserve">0.99706768989563</t>
   </si>
   <si>
     <t xml:space="preserve">1.00237619876862</t>
@@ -3032,13 +3032,13 @@
     <t xml:space="preserve">1.21470654010773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25982654094696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24301707744598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22886192798615</t>
+    <t xml:space="preserve">1.25982666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24301695823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22886180877686</t>
   </si>
   <si>
     <t xml:space="preserve">1.22620761394501</t>
@@ -3047,10 +3047,10 @@
     <t xml:space="preserve">1.24124789237976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20585978031158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17489409446716</t>
+    <t xml:space="preserve">1.20585989952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17489421367645</t>
   </si>
   <si>
     <t xml:space="preserve">1.1766642332077</t>
@@ -3062,43 +3062,43 @@
     <t xml:space="preserve">1.17754852771759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19789707660675</t>
+    <t xml:space="preserve">1.19789719581604</t>
   </si>
   <si>
     <t xml:space="preserve">1.18728029727936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23240113258362</t>
+    <t xml:space="preserve">1.23240125179291</t>
   </si>
   <si>
     <t xml:space="preserve">1.21293747425079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18108773231506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17312502861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45888686180115</t>
+    <t xml:space="preserve">1.18108761310577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17312490940094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45888674259186</t>
   </si>
   <si>
     <t xml:space="preserve">1.45357835292816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52435541152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5217010974884</t>
+    <t xml:space="preserve">1.52435553073883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52170121669769</t>
   </si>
   <si>
     <t xml:space="preserve">1.52523946762085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48985147476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49515998363495</t>
+    <t xml:space="preserve">1.48985159397125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49515986442566</t>
   </si>
   <si>
     <t xml:space="preserve">1.48011982440948</t>
@@ -3110,16 +3110,16 @@
     <t xml:space="preserve">1.56416690349579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54558837413788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52612459659576</t>
+    <t xml:space="preserve">1.54558825492859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52612471580505</t>
   </si>
   <si>
     <t xml:space="preserve">1.51816201210022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56859028339386</t>
+    <t xml:space="preserve">1.56859040260315</t>
   </si>
   <si>
     <t xml:space="preserve">1.49692916870117</t>
@@ -3128,31 +3128,31 @@
     <t xml:space="preserve">1.51019930839539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68183314800262</t>
+    <t xml:space="preserve">1.68183326721191</t>
   </si>
   <si>
     <t xml:space="preserve">1.64202165603638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72252976894379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70749032497406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71633720397949</t>
+    <t xml:space="preserve">1.72252988815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70749056339264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71633732318878</t>
   </si>
   <si>
     <t xml:space="preserve">1.71545207500458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72341477870941</t>
+    <t xml:space="preserve">1.7234148979187</t>
   </si>
   <si>
     <t xml:space="preserve">1.70925962924957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54293406009674</t>
+    <t xml:space="preserve">1.54293417930603</t>
   </si>
   <si>
     <t xml:space="preserve">1.48100471496582</t>
@@ -3164,46 +3164,46 @@
     <t xml:space="preserve">1.43676888942719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43942308425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44561564922333</t>
+    <t xml:space="preserve">1.43942320346832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44561576843262</t>
   </si>
   <si>
     <t xml:space="preserve">1.48572742938995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5195152759552</t>
+    <t xml:space="preserve">1.51951539516449</t>
   </si>
   <si>
     <t xml:space="preserve">1.4960515499115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47634196281433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47446477413177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41252040863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53359353542328</t>
+    <t xml:space="preserve">1.47634184360504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47446501255035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41252052783966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53359365463257</t>
   </si>
   <si>
     <t xml:space="preserve">1.57864415645599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773921012878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62275612354279</t>
+    <t xml:space="preserve">1.60773932933807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6227560043335</t>
   </si>
   <si>
     <t xml:space="preserve">1.67813062667847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61900186538696</t>
+    <t xml:space="preserve">1.61900198459625</t>
   </si>
   <si>
     <t xml:space="preserve">1.6405885219574</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">1.62932586669922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65091252326965</t>
+    <t xml:space="preserve">1.65091264247894</t>
   </si>
   <si>
     <t xml:space="preserve">1.66968369483948</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">1.71004140377045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70159447193146</t>
+    <t xml:space="preserve">1.70159435272217</t>
   </si>
   <si>
     <t xml:space="preserve">1.66217529773712</t>
@@ -3233,16 +3233,16 @@
     <t xml:space="preserve">1.68282341957092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69877862930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73256647586823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72130405902863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70816421508789</t>
+    <t xml:space="preserve">1.69877874851227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73256659507751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72130393981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70816433429718</t>
   </si>
   <si>
     <t xml:space="preserve">1.67719197273254</t>
@@ -3251,28 +3251,28 @@
     <t xml:space="preserve">1.60867774486542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61055481433868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5814596414566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58615255355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61524748802185</t>
+    <t xml:space="preserve">1.61055493354797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58145976066589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58615267276764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61524760723114</t>
   </si>
   <si>
     <t xml:space="preserve">1.59647655487061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58990669250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63120317459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62087905406952</t>
+    <t xml:space="preserve">1.58990681171417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63120305538177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62087893486023</t>
   </si>
   <si>
     <t xml:space="preserve">1.64528131484985</t>
@@ -3305,13 +3305,13 @@
     <t xml:space="preserve">1.55330312252045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71379566192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93717086315155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9559417963028</t>
+    <t xml:space="preserve">1.71379554271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93717074394226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95594191551208</t>
   </si>
   <si>
     <t xml:space="preserve">2.01788640022278</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">2.00850081443787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10047888755798</t>
+    <t xml:space="preserve">2.10047912597656</t>
   </si>
   <si>
     <t xml:space="preserve">2.15679216384888</t>
@@ -3329,19 +3329,19 @@
     <t xml:space="preserve">2.21498227119446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29945182800293</t>
+    <t xml:space="preserve">2.29945206642151</t>
   </si>
   <si>
     <t xml:space="preserve">2.07607650756836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0009925365448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07795357704163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06105995178223</t>
+    <t xml:space="preserve">2.00099229812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07795381546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06105971336365</t>
   </si>
   <si>
     <t xml:space="preserve">2.13802123069763</t>
@@ -3350,28 +3350,28 @@
     <t xml:space="preserve">2.23375344276428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19808840751648</t>
+    <t xml:space="preserve">2.1980881690979</t>
   </si>
   <si>
     <t xml:space="preserve">2.22999906539917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26378679275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25252461433411</t>
+    <t xml:space="preserve">2.26378703117371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25252437591553</t>
   </si>
   <si>
     <t xml:space="preserve">2.306960105896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29194331169128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30508351325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31071448326111</t>
+    <t xml:space="preserve">2.29194355010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30508327484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31071424484253</t>
   </si>
   <si>
     <t xml:space="preserve">2.37641334533691</t>
@@ -3386,19 +3386,19 @@
     <t xml:space="preserve">2.27317237854004</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32760834693909</t>
+    <t xml:space="preserve">2.32760858535767</t>
   </si>
   <si>
     <t xml:space="preserve">2.44211173057556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42146372795105</t>
+    <t xml:space="preserve">2.42146348953247</t>
   </si>
   <si>
     <t xml:space="preserve">2.45712876319885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48716259002686</t>
+    <t xml:space="preserve">2.48716235160828</t>
   </si>
   <si>
     <t xml:space="preserve">2.56036925315857</t>
@@ -3407,25 +3407,25 @@
     <t xml:space="preserve">2.59040307998657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52470445632935</t>
+    <t xml:space="preserve">2.52470469474792</t>
   </si>
   <si>
     <t xml:space="preserve">2.60917377471924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56787800788879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62043690681458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66173267364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65797877311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57538604736328</t>
+    <t xml:space="preserve">2.56787776947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.620436668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6617329120636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65797853469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57538628578186</t>
   </si>
   <si>
     <t xml:space="preserve">2.61668252944946</t>
@@ -3440,13 +3440,13 @@
     <t xml:space="preserve">2.51907300949097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34074807167053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53033566474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6260678768158</t>
+    <t xml:space="preserve">2.34074831008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53033590316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62606811523438</t>
   </si>
   <si>
     <t xml:space="preserve">2.63920783996582</t>
@@ -3455,22 +3455,22 @@
     <t xml:space="preserve">2.71241474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81377816200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79688453674316</t>
+    <t xml:space="preserve">2.81377840042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79688429832458</t>
   </si>
   <si>
     <t xml:space="preserve">2.78749895095825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81002378463745</t>
+    <t xml:space="preserve">2.81002426147461</t>
   </si>
   <si>
     <t xml:space="preserve">2.74995684623718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67299580574036</t>
+    <t xml:space="preserve">2.67299556732178</t>
   </si>
   <si>
     <t xml:space="preserve">2.47026824951172</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">2.44586586952209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4139552116394</t>
+    <t xml:space="preserve">2.41395545005798</t>
   </si>
   <si>
     <t xml:space="preserve">2.42334079742432</t>
@@ -3503,22 +3503,22 @@
     <t xml:space="preserve">2.40269255638123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5059335231781</t>
+    <t xml:space="preserve">2.50593328475952</t>
   </si>
   <si>
     <t xml:space="preserve">2.44398903846741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37265920639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27692675590515</t>
+    <t xml:space="preserve">2.3726589679718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27692699432373</t>
   </si>
   <si>
     <t xml:space="preserve">2.28818941116333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30320620536804</t>
+    <t xml:space="preserve">2.30320596694946</t>
   </si>
   <si>
     <t xml:space="preserve">2.26566410064697</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">2.17931723594666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29757475852966</t>
+    <t xml:space="preserve">2.29757452011108</t>
   </si>
   <si>
     <t xml:space="preserve">2.32573127746582</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">2.26190996170044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53409004211426</t>
+    <t xml:space="preserve">2.53408980369568</t>
   </si>
   <si>
     <t xml:space="preserve">2.53596687316895</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">2.04604291915894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13426685333252</t>
+    <t xml:space="preserve">2.13426661491394</t>
   </si>
   <si>
     <t xml:space="preserve">2.12300395965576</t>
@@ -3587,25 +3587,25 @@
     <t xml:space="preserve">1.97846722602844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01413226127625</t>
+    <t xml:space="preserve">2.01413202285767</t>
   </si>
   <si>
     <t xml:space="preserve">1.91276872158051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74289071559906</t>
+    <t xml:space="preserve">1.74289083480835</t>
   </si>
   <si>
     <t xml:space="preserve">1.6556054353714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66123676300049</t>
+    <t xml:space="preserve">1.6612366437912</t>
   </si>
   <si>
     <t xml:space="preserve">1.7794942855835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67343783378601</t>
+    <t xml:space="preserve">1.6734379529953</t>
   </si>
   <si>
     <t xml:space="preserve">1.68939316272736</t>
@@ -3614,13 +3614,13 @@
     <t xml:space="preserve">1.75790750980377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89212036132812</t>
+    <t xml:space="preserve">1.8921205997467</t>
   </si>
   <si>
     <t xml:space="preserve">1.85927104949951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83956158161163</t>
+    <t xml:space="preserve">1.83956146240234</t>
   </si>
   <si>
     <t xml:space="preserve">1.83674585819244</t>
@@ -3632,25 +3632,25 @@
     <t xml:space="preserve">1.74852204322815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76447749137878</t>
+    <t xml:space="preserve">1.76447737216949</t>
   </si>
   <si>
     <t xml:space="preserve">1.77855563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83017599582672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97471296787262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94280219078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84894704818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89024341106415</t>
+    <t xml:space="preserve">1.83017611503601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9747132062912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94280230998993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84894716739655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89024329185486</t>
   </si>
   <si>
     <t xml:space="preserve">1.86677944660187</t>
@@ -3662,7 +3662,7 @@
     <t xml:space="preserve">1.76917016506195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73819804191589</t>
+    <t xml:space="preserve">1.7381979227066</t>
   </si>
   <si>
     <t xml:space="preserve">1.69596314430237</t>
@@ -3683,7 +3683,7 @@
     <t xml:space="preserve">1.72599673271179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73632085323334</t>
+    <t xml:space="preserve">1.73632097244263</t>
   </si>
   <si>
     <t xml:space="preserve">1.72693526744843</t>
@@ -3698,10 +3698,10 @@
     <t xml:space="preserve">1.64246571063995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54954898357391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56644296646118</t>
+    <t xml:space="preserve">1.5495491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56644284725189</t>
   </si>
   <si>
     <t xml:space="preserve">1.63308012485504</t>
@@ -3713,46 +3713,46 @@
     <t xml:space="preserve">1.68376195430756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74195206165314</t>
+    <t xml:space="preserve">1.74195218086243</t>
   </si>
   <si>
     <t xml:space="preserve">1.70253300666809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69502460956573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61618626117706</t>
+    <t xml:space="preserve">1.69502449035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61618614196777</t>
   </si>
   <si>
     <t xml:space="preserve">1.61149346828461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72787392139435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74476778507233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82454466819763</t>
+    <t xml:space="preserve">1.72787380218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74476766586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82454478740692</t>
   </si>
   <si>
     <t xml:space="preserve">1.79075682163239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81797480583191</t>
+    <t xml:space="preserve">1.8179749250412</t>
   </si>
   <si>
     <t xml:space="preserve">1.88648915290833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95406496524811</t>
+    <t xml:space="preserve">1.95406484603882</t>
   </si>
   <si>
     <t xml:space="preserve">1.91464567184448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90526020526886</t>
+    <t xml:space="preserve">1.90526008605957</t>
   </si>
   <si>
     <t xml:space="preserve">1.90150594711304</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">1.50262141227722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55171418190002</t>
+    <t xml:space="preserve">1.55171406269073</t>
   </si>
   <si>
     <t xml:space="preserve">1.56422793865204</t>
@@ -3779,16 +3779,16 @@
     <t xml:space="preserve">1.54401326179504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56326520442963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5218733549118</t>
+    <t xml:space="preserve">1.56326532363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52187347412109</t>
   </si>
   <si>
     <t xml:space="preserve">1.56134009361267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56904101371765</t>
+    <t xml:space="preserve">1.56904089450836</t>
   </si>
   <si>
     <t xml:space="preserve">1.4978084564209</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">1.46026682853699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37844586372375</t>
+    <t xml:space="preserve">1.37844574451447</t>
   </si>
   <si>
     <t xml:space="preserve">1.40636122226715</t>
@@ -3818,10 +3818,10 @@
     <t xml:space="preserve">1.39288485050201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36015629768372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3553432226181</t>
+    <t xml:space="preserve">1.36015641689301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35534334182739</t>
   </si>
   <si>
     <t xml:space="preserve">1.38614666461945</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">1.43812704086304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4371645450592</t>
+    <t xml:space="preserve">1.43716442584991</t>
   </si>
   <si>
     <t xml:space="preserve">1.37363278865814</t>
@@ -3857,13 +3857,13 @@
     <t xml:space="preserve">1.51128482818604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48433196544647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5295741558075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55652701854706</t>
+    <t xml:space="preserve">1.48433208465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52957427501678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55652713775635</t>
   </si>
   <si>
     <t xml:space="preserve">1.545938372612</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">1.58347988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57674181461334</t>
+    <t xml:space="preserve">1.57674169540405</t>
   </si>
   <si>
     <t xml:space="preserve">1.60561978816986</t>
@@ -3896,16 +3896,13 @@
     <t xml:space="preserve">1.51706039905548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50262129306793</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.49492049217224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42657577991486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42272555828094</t>
+    <t xml:space="preserve">1.42657589912415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42272543907166</t>
   </si>
   <si>
     <t xml:space="preserve">1.45449137687683</t>
@@ -3917,16 +3914,16 @@
     <t xml:space="preserve">1.44293999671936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47470593452454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41502475738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43235146999359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45064079761505</t>
+    <t xml:space="preserve">1.47470581531525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41502463817596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43235158920288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45064091682434</t>
   </si>
   <si>
     <t xml:space="preserve">1.44005239009857</t>
@@ -3938,7 +3935,7 @@
     <t xml:space="preserve">1.51994824409485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50069630146027</t>
+    <t xml:space="preserve">1.50069618225098</t>
   </si>
   <si>
     <t xml:space="preserve">1.55556452274323</t>
@@ -3947,7 +3944,7 @@
     <t xml:space="preserve">1.49588322639465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48144423961639</t>
+    <t xml:space="preserve">1.4814441204071</t>
   </si>
   <si>
     <t xml:space="preserve">1.80680358409882</t>
@@ -3959,19 +3956,19 @@
     <t xml:space="preserve">1.67781496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67203938961029</t>
+    <t xml:space="preserve">1.672039270401</t>
   </si>
   <si>
     <t xml:space="preserve">1.68551576137543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567517280579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58829283714294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64989948272705</t>
+    <t xml:space="preserve">1.6556750535965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58829295635223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64989936351776</t>
   </si>
   <si>
     <t xml:space="preserve">1.64412379264832</t>
@@ -3995,7 +3992,7 @@
     <t xml:space="preserve">1.62390923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68936622142792</t>
+    <t xml:space="preserve">1.68936610221863</t>
   </si>
   <si>
     <t xml:space="preserve">1.68840348720551</t>
@@ -4010,22 +4007,22 @@
     <t xml:space="preserve">1.75674831867218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7577109336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76926207542419</t>
+    <t xml:space="preserve">1.75771081447601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76926219463348</t>
   </si>
   <si>
     <t xml:space="preserve">1.86744749546051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89825069904327</t>
+    <t xml:space="preserve">1.89825081825256</t>
   </si>
   <si>
     <t xml:space="preserve">1.89440035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83279383182526</t>
+    <t xml:space="preserve">1.83279395103455</t>
   </si>
   <si>
     <t xml:space="preserve">1.81931746006012</t>
@@ -4034,31 +4031,31 @@
     <t xml:space="preserve">1.82894337177277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87611091136932</t>
+    <t xml:space="preserve">1.87611079216003</t>
   </si>
   <si>
     <t xml:space="preserve">1.83375644683838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85493361949921</t>
+    <t xml:space="preserve">1.8549337387085</t>
   </si>
   <si>
     <t xml:space="preserve">1.89343774318695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95793187618256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97718405723572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98295962810516</t>
+    <t xml:space="preserve">1.95793211460114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97718393802643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98295950889587</t>
   </si>
   <si>
     <t xml:space="preserve">2.01183772087097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04841661453247</t>
+    <t xml:space="preserve">2.04841685295105</t>
   </si>
   <si>
     <t xml:space="preserve">2.05996775627136</t>
@@ -4085,16 +4082,16 @@
     <t xml:space="preserve">2.09077095985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10809779167175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16585397720337</t>
+    <t xml:space="preserve">2.10809803009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16585421562195</t>
   </si>
   <si>
     <t xml:space="preserve">2.26018905639648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28136610984802</t>
+    <t xml:space="preserve">2.2813663482666</t>
   </si>
   <si>
     <t xml:space="preserve">2.24863767623901</t>
@@ -4112,13 +4109,13 @@
     <t xml:space="preserve">2.23516130447388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22746062278748</t>
+    <t xml:space="preserve">2.2274603843689</t>
   </si>
   <si>
     <t xml:space="preserve">2.22553539276123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09269618988037</t>
+    <t xml:space="preserve">2.09269642829895</t>
   </si>
   <si>
     <t xml:space="preserve">2.14082646369934</t>
@@ -4127,10 +4124,10 @@
     <t xml:space="preserve">1.96178257465363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00221180915833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02531409263611</t>
+    <t xml:space="preserve">2.00221157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02531433105469</t>
   </si>
   <si>
     <t xml:space="preserve">2.04071569442749</t>
@@ -4148,19 +4145,19 @@
     <t xml:space="preserve">2.02723932266235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07921981811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08499550819397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15237760543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18125557899475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22938561439514</t>
+    <t xml:space="preserve">2.07922005653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08499526977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15237784385681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18125581741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22938585281372</t>
   </si>
   <si>
     <t xml:space="preserve">2.25441336631775</t>
@@ -4175,13 +4172,13 @@
     <t xml:space="preserve">2.1389012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19473195075989</t>
+    <t xml:space="preserve">2.19473218917847</t>
   </si>
   <si>
     <t xml:space="preserve">2.18510603904724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15815353393555</t>
+    <t xml:space="preserve">2.15815329551697</t>
   </si>
   <si>
     <t xml:space="preserve">2.12157440185547</t>
@@ -4193,13 +4190,13 @@
     <t xml:space="preserve">2.13697600364685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11964917182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40842986106873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38147687911987</t>
+    <t xml:space="preserve">2.11964893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40842962265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38147664070129</t>
   </si>
   <si>
     <t xml:space="preserve">2.45463442802429</t>
@@ -4211,31 +4208,31 @@
     <t xml:space="preserve">2.47003602981567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51239061355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55859541893005</t>
+    <t xml:space="preserve">2.51239037513733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55859565734863</t>
   </si>
   <si>
     <t xml:space="preserve">2.51624131202698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55089497566223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53934335708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52971744537354</t>
+    <t xml:space="preserve">2.55089473724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53934359550476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52971768379211</t>
   </si>
   <si>
     <t xml:space="preserve">2.53356790542603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49698925018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48351263999939</t>
+    <t xml:space="preserve">2.49698901176453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48351240158081</t>
   </si>
   <si>
     <t xml:space="preserve">2.44308352470398</t>
@@ -4274,13 +4271,13 @@
     <t xml:space="preserve">2.31409478187561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36415028572083</t>
+    <t xml:space="preserve">2.36415004730225</t>
   </si>
   <si>
     <t xml:space="preserve">2.31216955184937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26981496810913</t>
+    <t xml:space="preserve">2.26981520652771</t>
   </si>
   <si>
     <t xml:space="preserve">2.33527207374573</t>
@@ -4289,16 +4286,16 @@
     <t xml:space="preserve">2.33719706535339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29869294166565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26596474647522</t>
+    <t xml:space="preserve">2.29869318008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26596450805664</t>
   </si>
   <si>
     <t xml:space="preserve">2.27366542816162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27559089660645</t>
+    <t xml:space="preserve">2.27559065818787</t>
   </si>
   <si>
     <t xml:space="preserve">2.3256459236145</t>
@@ -4307,16 +4304,16 @@
     <t xml:space="preserve">2.31987047195435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40265393257141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37955164909363</t>
+    <t xml:space="preserve">2.40265417098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37955141067505</t>
   </si>
   <si>
     <t xml:space="preserve">2.37570118904114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38532710075378</t>
+    <t xml:space="preserve">2.38532733917236</t>
   </si>
   <si>
     <t xml:space="preserve">2.43730783462524</t>
@@ -4331,16 +4328,16 @@
     <t xml:space="preserve">2.62597751617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59324908256531</t>
+    <t xml:space="preserve">2.59324932098389</t>
   </si>
   <si>
     <t xml:space="preserve">2.63560366630554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.614426612854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61827683448792</t>
+    <t xml:space="preserve">2.61442637443542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61827707290649</t>
   </si>
   <si>
     <t xml:space="preserve">2.60480070114136</t>
@@ -4349,7 +4346,7 @@
     <t xml:space="preserve">2.60287523269653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57784748077393</t>
+    <t xml:space="preserve">2.5778477191925</t>
   </si>
   <si>
     <t xml:space="preserve">2.66255664825439</t>
@@ -4364,7 +4361,7 @@
     <t xml:space="preserve">2.61635160446167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54319381713867</t>
+    <t xml:space="preserve">2.54319405555725</t>
   </si>
   <si>
     <t xml:space="preserve">2.50661516189575</t>
@@ -4385,7 +4382,7 @@
     <t xml:space="preserve">2.40457916259766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35837435722351</t>
+    <t xml:space="preserve">2.35837459564209</t>
   </si>
   <si>
     <t xml:space="preserve">2.43923282623291</t>
@@ -4394,7 +4391,7 @@
     <t xml:space="preserve">2.46233558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46811103820801</t>
+    <t xml:space="preserve">2.46811079978943</t>
   </si>
   <si>
     <t xml:space="preserve">2.43538236618042</t>
@@ -49312,7 +49309,7 @@
         <v>1.56099998950958</v>
       </c>
       <c r="G1691" t="s">
-        <v>1294</v>
+        <v>1250</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49338,7 +49335,7 @@
         <v>1.55299997329712</v>
       </c>
       <c r="G1692" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49364,7 +49361,7 @@
         <v>1.48199999332428</v>
       </c>
       <c r="G1693" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49390,7 +49387,7 @@
         <v>1.47800004482269</v>
       </c>
       <c r="G1694" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49416,7 +49413,7 @@
         <v>1.5110000371933</v>
       </c>
       <c r="G1695" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49442,7 +49439,7 @@
         <v>1.51400005817413</v>
       </c>
       <c r="G1696" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49468,7 +49465,7 @@
         <v>1.49899995326996</v>
       </c>
       <c r="G1697" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49494,7 +49491,7 @@
         <v>1.53199994564056</v>
       </c>
       <c r="G1698" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49520,7 +49517,7 @@
         <v>1.47000002861023</v>
       </c>
       <c r="G1699" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49546,7 +49543,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G1700" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49572,7 +49569,7 @@
         <v>1.50699996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49598,7 +49595,7 @@
         <v>1.49600005149841</v>
       </c>
       <c r="G1702" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49624,7 +49621,7 @@
         <v>1.55499994754791</v>
       </c>
       <c r="G1703" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49650,7 +49647,7 @@
         <v>1.5789999961853</v>
       </c>
       <c r="G1704" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49676,7 +49673,7 @@
         <v>1.55900001525879</v>
       </c>
       <c r="G1705" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49702,7 +49699,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1706" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49728,7 +49725,7 @@
         <v>1.56099998950958</v>
       </c>
       <c r="G1707" t="s">
-        <v>1294</v>
+        <v>1250</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49754,7 +49751,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G1708" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49806,7 +49803,7 @@
         <v>1.53900003433228</v>
       </c>
       <c r="G1710" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49832,7 +49829,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G1711" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49858,7 +49855,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49884,7 +49881,7 @@
         <v>1.74300003051758</v>
       </c>
       <c r="G1713" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49910,7 +49907,7 @@
         <v>1.73699998855591</v>
       </c>
       <c r="G1714" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49936,7 +49933,7 @@
         <v>1.75100004673004</v>
       </c>
       <c r="G1715" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49962,7 +49959,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49988,7 +49985,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1717" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50014,7 +50011,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1718" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50040,7 +50037,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G1719" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50066,7 +50063,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G1720" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50092,7 +50089,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1721" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50118,7 +50115,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1722" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50144,7 +50141,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1723" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50196,7 +50193,7 @@
         <v>1.71700000762939</v>
       </c>
       <c r="G1725" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50222,7 +50219,7 @@
         <v>1.68700003623962</v>
       </c>
       <c r="G1726" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50248,7 +50245,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G1727" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50274,7 +50271,7 @@
         <v>1.75399994850159</v>
       </c>
       <c r="G1728" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50300,7 +50297,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G1729" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50326,7 +50323,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G1730" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50352,7 +50349,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G1731" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50378,7 +50375,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G1732" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50404,7 +50401,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G1733" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50430,7 +50427,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G1734" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50456,7 +50453,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1735" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50482,7 +50479,7 @@
         <v>1.97200000286102</v>
       </c>
       <c r="G1736" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50508,7 +50505,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G1737" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50534,7 +50531,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1738" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50560,7 +50557,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1739" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50586,7 +50583,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1740" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50612,7 +50609,7 @@
         <v>1.94900000095367</v>
       </c>
       <c r="G1741" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50638,7 +50635,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50664,7 +50661,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G1743" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50690,7 +50687,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G1744" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50716,7 +50713,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G1745" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50742,7 +50739,7 @@
         <v>2.05399990081787</v>
       </c>
       <c r="G1746" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50768,7 +50765,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1747" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50794,7 +50791,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1748" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50820,7 +50817,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1749" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50846,7 +50843,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1750" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50872,7 +50869,7 @@
         <v>2.09800004959106</v>
       </c>
       <c r="G1751" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50898,7 +50895,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1752" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50924,7 +50921,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1753" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50950,7 +50947,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1754" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50976,7 +50973,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1755" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51002,7 +50999,7 @@
         <v>2.20600008964539</v>
       </c>
       <c r="G1756" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51028,7 +51025,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G1757" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51054,7 +51051,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1758" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51080,7 +51077,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G1759" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51106,7 +51103,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1760" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51132,7 +51129,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1761" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51158,7 +51155,7 @@
         <v>2.25</v>
       </c>
       <c r="G1762" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51184,7 +51181,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G1763" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51210,7 +51207,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1764" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51236,7 +51233,7 @@
         <v>2.33599996566772</v>
       </c>
       <c r="G1765" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51262,7 +51259,7 @@
         <v>2.33200001716614</v>
       </c>
       <c r="G1766" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51288,7 +51285,7 @@
         <v>2.35199999809265</v>
       </c>
       <c r="G1767" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51314,7 +51311,7 @@
         <v>2.38599991798401</v>
       </c>
       <c r="G1768" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51340,7 +51337,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1769" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51366,7 +51363,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G1770" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51392,7 +51389,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1771" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51418,7 +51415,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G1772" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51444,7 +51441,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1773" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51470,7 +51467,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G1774" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51496,7 +51493,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1775" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51522,7 +51519,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G1776" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51548,7 +51545,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1777" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51574,7 +51571,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1778" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51600,7 +51597,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G1779" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51626,7 +51623,7 @@
         <v>2.09200000762939</v>
       </c>
       <c r="G1780" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51652,7 +51649,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1781" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51678,7 +51675,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G1782" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51704,7 +51701,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1783" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51730,7 +51727,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1784" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51756,7 +51753,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G1785" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51782,7 +51779,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1786" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51808,7 +51805,7 @@
         <v>2.25</v>
       </c>
       <c r="G1787" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51834,7 +51831,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G1788" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51860,7 +51857,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1789" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51886,7 +51883,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1790" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51912,7 +51909,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G1791" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51938,7 +51935,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1792" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51964,7 +51961,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1793" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51990,7 +51987,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1794" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52016,7 +52013,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1795" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52042,7 +52039,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1796" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52068,7 +52065,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1797" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52094,7 +52091,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1798" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52120,7 +52117,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1799" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52146,7 +52143,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1800" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52172,7 +52169,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1801" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52198,7 +52195,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1802" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52224,7 +52221,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1803" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52250,7 +52247,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G1804" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52276,7 +52273,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1805" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52302,7 +52299,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52328,7 +52325,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1807" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52354,7 +52351,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52380,7 +52377,7 @@
         <v>2.56599998474121</v>
       </c>
       <c r="G1809" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52406,7 +52403,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1810" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52432,7 +52429,7 @@
         <v>2.65799999237061</v>
       </c>
       <c r="G1811" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52458,7 +52455,7 @@
         <v>2.61400008201599</v>
       </c>
       <c r="G1812" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52484,7 +52481,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1813" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52510,7 +52507,7 @@
         <v>2.63800001144409</v>
       </c>
       <c r="G1814" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52536,7 +52533,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G1815" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52562,7 +52559,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1816" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52588,7 +52585,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1817" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52614,7 +52611,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1818" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52640,7 +52637,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1819" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52666,7 +52663,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G1820" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52692,7 +52689,7 @@
         <v>2.56599998474121</v>
       </c>
       <c r="G1821" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52718,7 +52715,7 @@
         <v>2.54800009727478</v>
       </c>
       <c r="G1822" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52744,7 +52741,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1823" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52770,7 +52767,7 @@
         <v>2.57399988174438</v>
       </c>
       <c r="G1824" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52796,7 +52793,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1825" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52822,7 +52819,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1826" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52848,7 +52845,7 @@
         <v>2.64800000190735</v>
       </c>
       <c r="G1827" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52874,7 +52871,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1828" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52900,7 +52897,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1829" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52926,7 +52923,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1830" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -52952,7 +52949,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G1831" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -52978,7 +52975,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G1832" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53004,7 +53001,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1833" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53030,7 +53027,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G1834" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53056,7 +53053,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1835" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53082,7 +53079,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1836" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53108,7 +53105,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G1837" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53134,7 +53131,7 @@
         <v>2.38599991798401</v>
       </c>
       <c r="G1838" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53160,7 +53157,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1839" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53186,7 +53183,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G1840" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53212,7 +53209,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1841" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53238,7 +53235,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G1842" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53264,7 +53261,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1843" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53290,7 +53287,7 @@
         <v>2.33200001716614</v>
       </c>
       <c r="G1844" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53316,7 +53313,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G1845" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53342,7 +53339,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G1846" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53368,7 +53365,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1847" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53394,7 +53391,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G1848" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53420,7 +53417,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1849" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53446,7 +53443,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G1850" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53472,7 +53469,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1851" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53498,7 +53495,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1852" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53524,7 +53521,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1853" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53550,7 +53547,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G1854" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53576,7 +53573,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G1855" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53602,7 +53599,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1856" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53628,7 +53625,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1857" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53654,7 +53651,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1858" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53680,7 +53677,7 @@
         <v>2.57599997520447</v>
       </c>
       <c r="G1859" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53706,7 +53703,7 @@
         <v>2.7279999256134</v>
       </c>
       <c r="G1860" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53732,7 +53729,7 @@
         <v>2.69400000572205</v>
       </c>
       <c r="G1861" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53758,7 +53755,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G1862" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53784,7 +53781,7 @@
         <v>2.69400000572205</v>
       </c>
       <c r="G1863" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53810,7 +53807,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1864" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53836,7 +53833,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1865" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53862,7 +53859,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G1866" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53888,7 +53885,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G1867" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53914,7 +53911,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53940,7 +53937,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1869" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -53966,7 +53963,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1870" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53992,7 +53989,7 @@
         <v>2.76600003242493</v>
       </c>
       <c r="G1871" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54018,7 +54015,7 @@
         <v>2.71199989318848</v>
       </c>
       <c r="G1872" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54044,7 +54041,7 @@
         <v>2.75399994850159</v>
       </c>
       <c r="G1873" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54070,7 +54067,7 @@
         <v>2.71799993515015</v>
       </c>
       <c r="G1874" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54096,7 +54093,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1875" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54122,7 +54119,7 @@
         <v>2.64199995994568</v>
       </c>
       <c r="G1876" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54148,7 +54145,7 @@
         <v>2.64199995994568</v>
       </c>
       <c r="G1877" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54174,7 +54171,7 @@
         <v>2.60400009155273</v>
       </c>
       <c r="G1878" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54200,7 +54197,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1879" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54226,7 +54223,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1880" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54252,7 +54249,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1881" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54278,7 +54275,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G1882" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54304,7 +54301,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G1883" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54330,7 +54327,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1884" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54356,7 +54353,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G1885" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54382,7 +54379,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1886" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54408,7 +54405,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1887" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54434,7 +54431,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G1888" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54460,7 +54457,7 @@
         <v>2.55800008773804</v>
       </c>
       <c r="G1889" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54486,7 +54483,7 @@
         <v>2.56399989128113</v>
       </c>
       <c r="G1890" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54512,7 +54509,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1891" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54538,7 +54535,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G1892" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54564,7 +54561,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G1893" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54590,7 +54587,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G1894" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54616,7 +54613,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G1895" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54642,7 +54639,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1896" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54668,7 +54665,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1897" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54694,7 +54691,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G1898" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54720,7 +54717,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1899" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54746,7 +54743,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1900" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54772,7 +54769,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1901" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54798,7 +54795,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1902" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54824,7 +54821,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1903" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54850,7 +54847,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G1904" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54876,7 +54873,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G1905" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54902,7 +54899,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G1906" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54928,7 +54925,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1907" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -54954,7 +54951,7 @@
         <v>2.48200011253357</v>
       </c>
       <c r="G1908" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -54980,7 +54977,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1909" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55006,7 +55003,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1910" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55032,7 +55029,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1911" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55058,7 +55055,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G1912" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55084,7 +55081,7 @@
         <v>2.46600008010864</v>
       </c>
       <c r="G1913" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55110,7 +55107,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1914" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55136,7 +55133,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1915" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55162,7 +55159,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1916" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55188,7 +55185,7 @@
         <v>2.54399991035461</v>
       </c>
       <c r="G1917" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55214,7 +55211,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1918" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55240,7 +55237,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1919" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55266,7 +55263,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1920" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55292,7 +55289,7 @@
         <v>2.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55318,7 +55315,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G1922" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55344,7 +55341,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G1923" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55370,7 +55367,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G1924" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55396,7 +55393,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G1925" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55422,7 +55419,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1926" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55448,7 +55445,7 @@
         <v>2.46199989318848</v>
       </c>
       <c r="G1927" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55474,7 +55471,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1928" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55500,7 +55497,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G1929" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55526,7 +55523,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1930" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55552,7 +55549,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G1931" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55578,7 +55575,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1932" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55604,7 +55601,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G1933" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55630,7 +55627,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1934" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55656,7 +55653,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1935" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55682,7 +55679,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1936" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55708,7 +55705,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G1937" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55734,7 +55731,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G1938" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55760,7 +55757,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1939" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55786,7 +55783,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1940" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55812,7 +55809,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1941" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55838,7 +55835,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1942" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55864,7 +55861,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1943" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55890,7 +55887,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1944" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55916,7 +55913,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G1945" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55942,7 +55939,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1946" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -55968,7 +55965,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G1947" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -55994,7 +55991,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G1948" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56020,7 +56017,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G1949" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56046,7 +56043,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G1950" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56072,7 +56069,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1951" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56098,7 +56095,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1952" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56124,7 +56121,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1953" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56150,7 +56147,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1954" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56176,7 +56173,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1955" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56202,7 +56199,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1956" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56228,7 +56225,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1957" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56254,7 +56251,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1958" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56280,7 +56277,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G1959" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56306,7 +56303,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1960" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56332,7 +56329,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G1961" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56358,7 +56355,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1962" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56384,7 +56381,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1963" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56410,7 +56407,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1964" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56436,7 +56433,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1965" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56462,7 +56459,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1966" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56488,7 +56485,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G1967" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56514,7 +56511,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G1968" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56540,7 +56537,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1969" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56566,7 +56563,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G1970" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56592,7 +56589,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G1971" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56618,7 +56615,7 @@
         <v>1.93599998950958</v>
       </c>
       <c r="G1972" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56644,7 +56641,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G1973" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56670,7 +56667,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1974" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56696,7 +56693,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G1975" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56722,7 +56719,7 @@
         <v>1.83700001239777</v>
       </c>
       <c r="G1976" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56748,7 +56745,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G1977" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56774,7 +56771,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G1978" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56800,7 +56797,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G1979" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56826,7 +56823,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G1980" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56852,7 +56849,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G1981" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56878,7 +56875,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G1982" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56904,7 +56901,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G1983" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56930,7 +56927,7 @@
         <v>1.75</v>
       </c>
       <c r="G1984" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56956,7 +56953,7 @@
         <v>1.75399994850159</v>
       </c>
       <c r="G1985" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56982,7 +56979,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1986" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57008,7 +57005,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G1987" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57034,7 +57031,7 @@
         <v>1.76800000667572</v>
       </c>
       <c r="G1988" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57060,7 +57057,7 @@
         <v>1.64400005340576</v>
       </c>
       <c r="G1989" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57086,7 +57083,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1990" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57112,7 +57109,7 @@
         <v>1.65199995040894</v>
       </c>
       <c r="G1991" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57138,7 +57135,7 @@
         <v>1.65900003910065</v>
       </c>
       <c r="G1992" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57164,7 +57161,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1993" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57190,7 +57187,7 @@
         <v>1.66499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57216,7 +57213,7 @@
         <v>1.6710000038147</v>
       </c>
       <c r="G1995" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57242,7 +57239,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1996" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57268,7 +57265,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1997" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57294,7 +57291,7 @@
         <v>1.73800003528595</v>
       </c>
       <c r="G1998" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57320,7 +57317,7 @@
         <v>1.71899998188019</v>
       </c>
       <c r="G1999" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57346,7 +57343,7 @@
         <v>1.72800004482269</v>
       </c>
       <c r="G2000" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57372,7 +57369,7 @@
         <v>1.7389999628067</v>
       </c>
       <c r="G2001" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57398,7 +57395,7 @@
         <v>1.74800002574921</v>
       </c>
       <c r="G2002" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57424,7 +57421,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G2003" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57450,7 +57447,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G2004" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57476,7 +57473,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G2005" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57502,7 +57499,7 @@
         <v>1.80099999904633</v>
       </c>
       <c r="G2006" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57528,7 +57525,7 @@
         <v>1.76199996471405</v>
       </c>
       <c r="G2007" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57554,7 +57551,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G2008" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57580,7 +57577,7 @@
         <v>1.81400001049042</v>
       </c>
       <c r="G2009" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57606,7 +57603,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G2010" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57632,7 +57629,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2011" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57658,7 +57655,7 @@
         <v>1.79100000858307</v>
       </c>
       <c r="G2012" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57684,7 +57681,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2013" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57710,7 +57707,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2014" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57736,7 +57733,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G2015" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57762,7 +57759,7 @@
         <v>1.97800004482269</v>
       </c>
       <c r="G2016" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57788,7 +57785,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G2017" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57814,7 +57811,7 @@
         <v>2.04399991035461</v>
       </c>
       <c r="G2018" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57840,7 +57837,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G2019" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57866,7 +57863,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G2020" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57892,7 +57889,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G2021" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57918,7 +57915,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G2022" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57944,7 +57941,7 @@
         <v>2.07800006866455</v>
       </c>
       <c r="G2023" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57970,7 +57967,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57996,7 +57993,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G2025" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58022,7 +58019,7 @@
         <v>2.02800011634827</v>
       </c>
       <c r="G2026" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58048,7 +58045,7 @@
         <v>2.14400005340576</v>
       </c>
       <c r="G2027" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58074,7 +58071,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G2028" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58100,7 +58097,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G2029" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58126,7 +58123,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G2030" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58152,7 +58149,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G2031" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58178,7 +58175,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G2032" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58204,7 +58201,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2033" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58230,7 +58227,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G2034" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58256,7 +58253,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G2035" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58282,7 +58279,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58308,7 +58305,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G2037" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58334,7 +58331,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G2038" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58360,7 +58357,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2039" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58386,7 +58383,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G2040" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58412,7 +58409,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2041" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58438,7 +58435,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58464,7 +58461,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2043" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58490,7 +58487,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2044" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58516,7 +58513,7 @@
         <v>2.16400003433228</v>
       </c>
       <c r="G2045" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58542,7 +58539,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G2046" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58568,7 +58565,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G2047" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58594,7 +58591,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58620,7 +58617,7 @@
         <v>2.05800008773804</v>
       </c>
       <c r="G2049" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58646,7 +58643,7 @@
         <v>2.03200006484985</v>
       </c>
       <c r="G2050" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58672,7 +58669,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2051" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58698,7 +58695,7 @@
         <v>2.09800004959106</v>
       </c>
       <c r="G2052" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58724,7 +58721,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G2053" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58750,7 +58747,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58776,7 +58773,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G2055" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58802,7 +58799,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G2056" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58828,7 +58825,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2057" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58854,7 +58851,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2058" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58880,7 +58877,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G2059" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58906,7 +58903,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2060" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58932,7 +58929,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2061" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58958,7 +58955,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2062" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58984,7 +58981,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2063" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59010,7 +59007,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G2064" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59036,7 +59033,7 @@
         <v>2.25</v>
       </c>
       <c r="G2065" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59062,7 +59059,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G2066" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59088,7 +59085,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2067" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59114,7 +59111,7 @@
         <v>2.25</v>
       </c>
       <c r="G2068" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59140,7 +59137,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G2069" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59166,7 +59163,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2070" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59192,7 +59189,7 @@
         <v>2.20600008964539</v>
       </c>
       <c r="G2071" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59218,7 +59215,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G2072" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59244,7 +59241,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2073" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59270,7 +59267,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G2074" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59296,7 +59293,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2075" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59322,7 +59319,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2076" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59348,7 +59345,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G2077" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59374,7 +59371,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2078" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59400,7 +59397,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G2079" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59426,7 +59423,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2080" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59452,7 +59449,7 @@
         <v>2.25</v>
       </c>
       <c r="G2081" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59478,7 +59475,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G2082" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59504,7 +59501,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G2083" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59530,7 +59527,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G2084" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59556,7 +59553,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G2085" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59582,7 +59579,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2086" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59608,7 +59605,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G2087" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59634,7 +59631,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2088" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59660,7 +59657,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G2089" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59686,7 +59683,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2090" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59712,7 +59709,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2091" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59738,7 +59735,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G2092" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59764,7 +59761,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G2093" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59790,7 +59787,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G2094" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59816,7 +59813,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G2095" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59842,7 +59839,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59868,7 +59865,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G2097" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59894,7 +59891,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G2098" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59920,7 +59917,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G2099" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59946,7 +59943,7 @@
         <v>2.37400007247925</v>
       </c>
       <c r="G2100" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59972,7 +59969,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G2101" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59998,7 +59995,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60024,7 +60021,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G2103" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60050,7 +60047,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G2104" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60076,7 +60073,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G2105" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60102,7 +60099,7 @@
         <v>2.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60128,7 +60125,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G2107" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60154,7 +60151,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G2108" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60180,7 +60177,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G2109" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60206,7 +60203,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60232,7 +60229,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G2111" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60258,7 +60255,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G2112" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60284,7 +60281,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60310,7 +60307,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G2114" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60336,7 +60333,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60362,7 +60359,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G2116" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60388,7 +60385,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G2117" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60414,7 +60411,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G2118" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60440,7 +60437,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G2119" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60466,7 +60463,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G2120" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60492,7 +60489,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G2121" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60518,7 +60515,7 @@
         <v>2.5</v>
       </c>
       <c r="G2122" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60544,7 +60541,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G2123" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60570,7 +60567,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G2124" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60596,7 +60593,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G2125" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60622,7 +60619,7 @@
         <v>2.58599996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60648,7 +60645,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G2127" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60674,7 +60671,7 @@
         <v>2.6340000629425</v>
       </c>
       <c r="G2128" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60700,7 +60697,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60726,7 +60723,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G2130" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60752,7 +60749,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2131" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60778,7 +60775,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2132" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60804,7 +60801,7 @@
         <v>2.70199990272522</v>
       </c>
       <c r="G2133" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60830,7 +60827,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2134" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60856,7 +60853,7 @@
         <v>2.65799999237061</v>
       </c>
       <c r="G2135" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60882,7 +60879,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2136" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60908,7 +60905,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2137" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60934,7 +60931,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G2138" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60960,7 +60957,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60986,7 +60983,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G2140" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61012,7 +61009,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G2141" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61038,7 +61035,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G2142" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61064,7 +61061,7 @@
         <v>2.86400008201599</v>
       </c>
       <c r="G2143" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61090,7 +61087,7 @@
         <v>2.82200002670288</v>
       </c>
       <c r="G2144" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61116,7 +61113,7 @@
         <v>2.80200004577637</v>
       </c>
       <c r="G2145" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1669">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33549213409424</t>
+    <t xml:space="preserve">5.33549165725708</t>
   </si>
   <si>
     <t xml:space="preserve">OVS.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">5.18833589553833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04538297653198</t>
+    <t xml:space="preserve">5.04538249969482</t>
   </si>
   <si>
     <t xml:space="preserve">4.91924810409546</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">5.07060956954956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23458433151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96970224380493</t>
+    <t xml:space="preserve">5.23458385467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96970176696777</t>
   </si>
   <si>
     <t xml:space="preserve">4.8772029876709</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">4.88981676101685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50300312042236</t>
+    <t xml:space="preserve">4.50300359725952</t>
   </si>
   <si>
     <t xml:space="preserve">4.47777700424194</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">4.80152225494385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72163724899292</t>
+    <t xml:space="preserve">4.72163677215576</t>
   </si>
   <si>
     <t xml:space="preserve">4.74265956878662</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76368188858032</t>
+    <t xml:space="preserve">4.76368236541748</t>
   </si>
   <si>
     <t xml:space="preserve">4.78049993515015</t>
@@ -107,43 +107,43 @@
     <t xml:space="preserve">4.86459016799927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78470516204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81413602828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58289003372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27175664901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26755237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53243541717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47357273101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64175176620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73004531860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75106811523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75527286529541</t>
+    <t xml:space="preserve">4.7847056388855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81413650512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58288955688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27175760269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26755285263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53243589401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47357225418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64175224304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55766248703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73425054550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73004579544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75106859207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75527238845825</t>
   </si>
   <si>
     <t xml:space="preserve">4.52402591705322</t>
@@ -152,19 +152,19 @@
     <t xml:space="preserve">4.49039030075073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70061492919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83515930175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94867944717407</t>
+    <t xml:space="preserve">4.70061445236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83515882492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94867992401123</t>
   </si>
   <si>
     <t xml:space="preserve">4.99492883682251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86038589477539</t>
+    <t xml:space="preserve">4.86038541793823</t>
   </si>
   <si>
     <t xml:space="preserve">4.77209138870239</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">4.79311418533325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64595651626587</t>
+    <t xml:space="preserve">4.64595603942871</t>
   </si>
   <si>
     <t xml:space="preserve">4.69220590591431</t>
@@ -182,40 +182,40 @@
     <t xml:space="preserve">4.66277456283569</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54504919052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36425638198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33902931213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3053936958313</t>
+    <t xml:space="preserve">4.54504871368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36425590515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33902883529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30539321899414</t>
   </si>
   <si>
     <t xml:space="preserve">4.33062028884888</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40209627151489</t>
+    <t xml:space="preserve">4.40209531784058</t>
   </si>
   <si>
     <t xml:space="preserve">4.46095943450928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28857517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25914430618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56607103347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41050577163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48618650436401</t>
+    <t xml:space="preserve">4.28857564926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25914335250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56607055664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4105052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4861855506897</t>
   </si>
   <si>
     <t xml:space="preserve">4.77629518508911</t>
@@ -224,46 +224,46 @@
     <t xml:space="preserve">5.01595163345337</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81834030151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76788663864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83095359802246</t>
+    <t xml:space="preserve">4.81834077835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76788711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83095407485962</t>
   </si>
   <si>
     <t xml:space="preserve">4.74686431884766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78890943527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82254505157471</t>
+    <t xml:space="preserve">4.78890991210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82254457473755</t>
   </si>
   <si>
     <t xml:space="preserve">4.80993175506592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83936262130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80572605133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92345285415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98231506347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12947225570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17992639541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10004091262817</t>
+    <t xml:space="preserve">4.83936214447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80572652816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92345237731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9823145866394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12947177886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1799259185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10004138946533</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731309890747</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">5.20094871520996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04117774963379</t>
+    <t xml:space="preserve">5.04117870330811</t>
   </si>
   <si>
     <t xml:space="preserve">5.01849603652954</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">5.19110107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0141806602478</t>
+    <t xml:space="preserve">5.01418113708496</t>
   </si>
   <si>
     <t xml:space="preserve">4.83726119995117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78547954559326</t>
+    <t xml:space="preserve">4.7854790687561</t>
   </si>
   <si>
     <t xml:space="preserve">4.73801279067993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74232721328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75527381896973</t>
+    <t xml:space="preserve">4.74232769012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75527334213257</t>
   </si>
   <si>
     <t xml:space="preserve">4.9063024520874</t>
@@ -308,40 +308,40 @@
     <t xml:space="preserve">4.88472700119019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82000017166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78116416931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58698272705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18049764633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37985706329346</t>
+    <t xml:space="preserve">4.81999969482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78116464614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58698320388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18049716949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3798565864563</t>
   </si>
   <si>
     <t xml:space="preserve">4.49636602401733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51794052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55677700042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50931072235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35396575927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33239030838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29269075393677</t>
+    <t xml:space="preserve">4.51794004440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5567774772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50931024551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35396528244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33239078521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29269123077393</t>
   </si>
   <si>
     <t xml:space="preserve">4.43595266342163</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">4.40574741363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34965133666992</t>
+    <t xml:space="preserve">4.34965085983276</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233528137207</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">4.3625955581665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41437721252441</t>
+    <t xml:space="preserve">4.41437768936157</t>
   </si>
   <si>
     <t xml:space="preserve">4.51362562179565</t>
@@ -377,31 +377,31 @@
     <t xml:space="preserve">4.45752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48341989517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63013458251953</t>
+    <t xml:space="preserve">4.48342037200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63013505935669</t>
   </si>
   <si>
     <t xml:space="preserve">4.62581968307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53951644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53088665008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49204969406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50499582290649</t>
+    <t xml:space="preserve">4.53951597213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53088617324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49205017089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50499534606934</t>
   </si>
   <si>
     <t xml:space="preserve">4.55246210098267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47910451889038</t>
+    <t xml:space="preserve">4.47910499572754</t>
   </si>
   <si>
     <t xml:space="preserve">4.31340360641479</t>
@@ -410,13 +410,13 @@
     <t xml:space="preserve">4.41869306564331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44026756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34533643722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2806077003479</t>
+    <t xml:space="preserve">4.44026803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34533596038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28060817718506</t>
   </si>
   <si>
     <t xml:space="preserve">4.38417196273804</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">4.23745727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22882747650146</t>
+    <t xml:space="preserve">4.22882699966431</t>
   </si>
   <si>
     <t xml:space="preserve">4.2719783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44458341598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39711713790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32807493209839</t>
+    <t xml:space="preserve">4.44458389282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39711761474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32807540893555</t>
   </si>
   <si>
     <t xml:space="preserve">4.3013219833374</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">4.61718893051147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63444995880127</t>
+    <t xml:space="preserve">4.63444948196411</t>
   </si>
   <si>
     <t xml:space="preserve">4.70349168777466</t>
@@ -458,16 +458,16 @@
     <t xml:space="preserve">4.67328548431396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57403755187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56540679931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56972169876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52225637435913</t>
+    <t xml:space="preserve">4.57403802871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56540727615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56972217559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52225589752197</t>
   </si>
   <si>
     <t xml:space="preserve">4.46615934371948</t>
@@ -476,28 +476,28 @@
     <t xml:space="preserve">4.42732334136963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38848733901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35828065872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31513023376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30995225906372</t>
+    <t xml:space="preserve">4.38848638534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35828018188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31513071060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30995178222656</t>
   </si>
   <si>
     <t xml:space="preserve">4.32376003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30477380752563</t>
+    <t xml:space="preserve">4.30477333068848</t>
   </si>
   <si>
     <t xml:space="preserve">4.24263525009155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19430637359619</t>
+    <t xml:space="preserve">4.19430589675903</t>
   </si>
   <si>
     <t xml:space="preserve">4.29441738128662</t>
@@ -506,13 +506,13 @@
     <t xml:space="preserve">4.37554168701172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2857871055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21674394607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24090957641602</t>
+    <t xml:space="preserve">4.28578662872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2167444229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24091005325317</t>
   </si>
   <si>
     <t xml:space="preserve">4.22192335128784</t>
@@ -533,13 +533,13 @@
     <t xml:space="preserve">4.28751277923584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29096508026123</t>
+    <t xml:space="preserve">4.29096460342407</t>
   </si>
   <si>
     <t xml:space="preserve">4.2150182723999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26852607727051</t>
+    <t xml:space="preserve">4.26852560043335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25817012786865</t>
@@ -557,28 +557,28 @@
     <t xml:space="preserve">4.4877347946167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45321416854858</t>
+    <t xml:space="preserve">4.45321369171143</t>
   </si>
   <si>
     <t xml:space="preserve">4.47479009628296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25471782684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25989627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16323709487915</t>
+    <t xml:space="preserve">4.2547173500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25989580154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16323757171631</t>
   </si>
   <si>
     <t xml:space="preserve">4.14425039291382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12526321411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10455131530762</t>
+    <t xml:space="preserve">4.12526369094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10455083847046</t>
   </si>
   <si>
     <t xml:space="preserve">4.17359399795532</t>
@@ -587,34 +587,34 @@
     <t xml:space="preserve">4.16668939590454</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12698984146118</t>
+    <t xml:space="preserve">4.12699031829834</t>
   </si>
   <si>
     <t xml:space="preserve">4.18912792205811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23918342590332</t>
+    <t xml:space="preserve">4.23918437957764</t>
   </si>
   <si>
     <t xml:space="preserve">4.63876438140869</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64307928085327</t>
+    <t xml:space="preserve">4.64307975769043</t>
   </si>
   <si>
     <t xml:space="preserve">4.65171051025391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61287403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54383182525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53520154953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5826678276062</t>
+    <t xml:space="preserve">4.61287355422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54383134841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53520107269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58266830444336</t>
   </si>
   <si>
     <t xml:space="preserve">4.54814720153809</t>
@@ -623,52 +623,52 @@
     <t xml:space="preserve">4.5956130027771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59129762649536</t>
+    <t xml:space="preserve">4.59129810333252</t>
   </si>
   <si>
     <t xml:space="preserve">4.599928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72938251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74664258956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66897058486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80705499649048</t>
+    <t xml:space="preserve">4.72938299179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74664306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66897010803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80705451965332</t>
   </si>
   <si>
     <t xml:space="preserve">4.82431507110596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79410934448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77253389358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69486141204834</t>
+    <t xml:space="preserve">4.79410982131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77253341674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69486093521118</t>
   </si>
   <si>
     <t xml:space="preserve">4.86746644973755</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96240043640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94945430755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87609624862671</t>
+    <t xml:space="preserve">4.96239995956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94945383071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87609672546387</t>
   </si>
   <si>
     <t xml:space="preserve">4.97965955734253</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14363479614258</t>
+    <t xml:space="preserve">5.14363527297974</t>
   </si>
   <si>
     <t xml:space="preserve">5.1091136932373</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">5.02281093597412</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06596326828003</t>
+    <t xml:space="preserve">5.06596279144287</t>
   </si>
   <si>
     <t xml:space="preserve">5.00555038452148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06164693832397</t>
+    <t xml:space="preserve">5.06164741516113</t>
   </si>
   <si>
     <t xml:space="preserve">5.09185361862183</t>
@@ -710,34 +710,34 @@
     <t xml:space="preserve">5.20836162567139</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17815542221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34213066101074</t>
+    <t xml:space="preserve">5.17815589904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3421311378479</t>
   </si>
   <si>
     <t xml:space="preserve">5.19541692733765</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24288272857666</t>
+    <t xml:space="preserve">5.24288320541382</t>
   </si>
   <si>
     <t xml:space="preserve">5.35076141357422</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27308940887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32918500900269</t>
+    <t xml:space="preserve">5.27308893203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.329185962677</t>
   </si>
   <si>
     <t xml:space="preserve">5.38528251647949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54925727844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50610589981079</t>
+    <t xml:space="preserve">5.54925680160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50610542297363</t>
   </si>
   <si>
     <t xml:space="preserve">5.45000839233398</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">5.50179052352905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35507726669312</t>
+    <t xml:space="preserve">5.3550763130188</t>
   </si>
   <si>
     <t xml:space="preserve">5.36370658874512</t>
@@ -755,58 +755,58 @@
     <t xml:space="preserve">5.43706369400024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41980314254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56220245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48884534835815</t>
+    <t xml:space="preserve">5.41980266571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5622034072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48884582519531</t>
   </si>
   <si>
     <t xml:space="preserve">5.48453044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56651782989502</t>
+    <t xml:space="preserve">5.56651830673218</t>
   </si>
   <si>
     <t xml:space="preserve">5.58377742767334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48021411895752</t>
+    <t xml:space="preserve">5.48021459579468</t>
   </si>
   <si>
     <t xml:space="preserve">5.47158479690552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49316024780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40685844421387</t>
+    <t xml:space="preserve">5.49316072463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40685892105103</t>
   </si>
   <si>
     <t xml:space="preserve">5.37233638763428</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23856830596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3680214881897</t>
+    <t xml:space="preserve">5.23856782913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36802101135254</t>
   </si>
   <si>
     <t xml:space="preserve">5.28171873092651</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33480215072632</t>
+    <t xml:space="preserve">5.33480167388916</t>
   </si>
   <si>
     <t xml:space="preserve">5.67983865737915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71080303192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62675619125366</t>
+    <t xml:space="preserve">5.71080255508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62675666809082</t>
   </si>
   <si>
     <t xml:space="preserve">5.5913667678833</t>
@@ -815,28 +815,28 @@
     <t xml:space="preserve">5.66214418411255</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67099094390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63560247421265</t>
+    <t xml:space="preserve">5.67099046707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6356029510498</t>
   </si>
   <si>
     <t xml:space="preserve">5.65329742431641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58252000808716</t>
+    <t xml:space="preserve">5.58252048492432</t>
   </si>
   <si>
     <t xml:space="preserve">5.58694362640381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49405002593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43654346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51174402236938</t>
+    <t xml:space="preserve">5.49404954910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4365439414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51174354553223</t>
   </si>
   <si>
     <t xml:space="preserve">5.53828573226929</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">5.56482553482056</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57367372512817</t>
+    <t xml:space="preserve">5.57367324829102</t>
   </si>
   <si>
     <t xml:space="preserve">5.48962640762329</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">5.52059078216553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48520231246948</t>
+    <t xml:space="preserve">5.48520278930664</t>
   </si>
   <si>
     <t xml:space="preserve">5.56040239334106</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">5.59579133987427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53386116027832</t>
+    <t xml:space="preserve">5.53386163711548</t>
   </si>
   <si>
     <t xml:space="preserve">5.61348485946655</t>
@@ -875,25 +875,25 @@
     <t xml:space="preserve">5.64887428283691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72407341003418</t>
+    <t xml:space="preserve">5.72407388687134</t>
   </si>
   <si>
     <t xml:space="preserve">5.69310903549194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71965026855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7019567489624</t>
+    <t xml:space="preserve">5.71964979171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70195627212524</t>
   </si>
   <si>
     <t xml:space="preserve">5.69753217697144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54270887374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62233257293701</t>
+    <t xml:space="preserve">5.54270935058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62233304977417</t>
   </si>
   <si>
     <t xml:space="preserve">5.56925010681152</t>
@@ -905,52 +905,52 @@
     <t xml:space="preserve">5.44096708297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41442537307739</t>
+    <t xml:space="preserve">5.41442584991455</t>
   </si>
   <si>
     <t xml:space="preserve">5.4586615562439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54713153839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6400260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61790800094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60906171798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64445018768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81254529953003</t>
+    <t xml:space="preserve">5.54713201522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64002656936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6179084777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6090612411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64444971084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81254482269287</t>
   </si>
   <si>
     <t xml:space="preserve">5.86562776565552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92755651473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852184295654</t>
+    <t xml:space="preserve">5.92755746841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852136611938</t>
   </si>
   <si>
     <t xml:space="preserve">6.02487564086914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94525146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90543937683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76388597488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95409917831421</t>
+    <t xml:space="preserve">5.94525194168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9054388999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76388549804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95409870147705</t>
   </si>
   <si>
     <t xml:space="preserve">6.01602792739868</t>
@@ -962,37 +962,37 @@
     <t xml:space="preserve">5.68868541717529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71522665023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70638036727905</t>
+    <t xml:space="preserve">5.71522617340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70637989044189</t>
   </si>
   <si>
     <t xml:space="preserve">5.55155563354492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60463762283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50289630889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38346099853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17555379867554</t>
+    <t xml:space="preserve">5.60463809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50289583206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.383460521698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17555332183838</t>
   </si>
   <si>
     <t xml:space="preserve">5.19767189025879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10477638244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08708333969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13131809234619</t>
+    <t xml:space="preserve">5.10477685928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.087082862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13131761550903</t>
   </si>
   <si>
     <t xml:space="preserve">5.12247133255005</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">5.23748302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1932487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15343570709229</t>
+    <t xml:space="preserve">5.19324827194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15343618392944</t>
   </si>
   <si>
     <t xml:space="preserve">5.16670703887939</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">5.14016532897949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0959300994873</t>
+    <t xml:space="preserve">5.09592962265015</t>
   </si>
   <si>
     <t xml:space="preserve">5.25075483322144</t>
@@ -1022,16 +1022,16 @@
     <t xml:space="preserve">5.21978950500488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06054210662842</t>
+    <t xml:space="preserve">5.06054162979126</t>
   </si>
   <si>
     <t xml:space="preserve">5.14901256561279</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1180477142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0030345916748</t>
+    <t xml:space="preserve">5.11804819107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00303506851196</t>
   </si>
   <si>
     <t xml:space="preserve">4.93668174743652</t>
@@ -1040,34 +1040,34 @@
     <t xml:space="preserve">4.97649335861206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94552898406982</t>
+    <t xml:space="preserve">4.94552850723267</t>
   </si>
   <si>
     <t xml:space="preserve">4.91014099121094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98091793060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94995212554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91456413269043</t>
+    <t xml:space="preserve">4.98091745376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94995260238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91456460952759</t>
   </si>
   <si>
     <t xml:space="preserve">4.99861145019531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07381248474121</t>
+    <t xml:space="preserve">5.07381200790405</t>
   </si>
   <si>
     <t xml:space="preserve">5.02957630157471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98976469039917</t>
+    <t xml:space="preserve">5.01188278198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98976421356201</t>
   </si>
   <si>
     <t xml:space="preserve">4.95437669754028</t>
@@ -1079,22 +1079,22 @@
     <t xml:space="preserve">5.21536540985107</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18440055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12689447402954</t>
+    <t xml:space="preserve">5.18440008163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1268949508667</t>
   </si>
   <si>
     <t xml:space="preserve">5.46750783920288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29498863220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3171067237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47635507583618</t>
+    <t xml:space="preserve">5.29498910903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31710720062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47635459899902</t>
   </si>
   <si>
     <t xml:space="preserve">5.40115451812744</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">4.87917613983154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86590528488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88802289962769</t>
+    <t xml:space="preserve">4.86590480804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88802242279053</t>
   </si>
   <si>
     <t xml:space="preserve">4.90571784973145</t>
@@ -1130,34 +1130,34 @@
     <t xml:space="preserve">4.8216700553894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80839872360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84821128845215</t>
+    <t xml:space="preserve">4.80839920043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84821081161499</t>
   </si>
   <si>
     <t xml:space="preserve">4.75531625747681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67126893997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70665693283081</t>
+    <t xml:space="preserve">4.67126941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70665740966797</t>
   </si>
   <si>
     <t xml:space="preserve">4.7597393989563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73762226104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7862811088562</t>
+    <t xml:space="preserve">4.73762178421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78628063201904</t>
   </si>
   <si>
     <t xml:space="preserve">4.83936309814453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86148118972778</t>
+    <t xml:space="preserve">4.86148166656494</t>
   </si>
   <si>
     <t xml:space="preserve">4.93225860595703</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">4.92341089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87032890319824</t>
+    <t xml:space="preserve">4.87032842636108</t>
   </si>
   <si>
     <t xml:space="preserve">4.83051681518555</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75089359283447</t>
+    <t xml:space="preserve">4.75089263916016</t>
   </si>
   <si>
     <t xml:space="preserve">4.70223379135132</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61818647384644</t>
+    <t xml:space="preserve">4.61818695068359</t>
   </si>
   <si>
     <t xml:space="preserve">4.64472770690918</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">4.4076247215271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39700889587402</t>
+    <t xml:space="preserve">4.39700937271118</t>
   </si>
   <si>
     <t xml:space="preserve">4.40231704711914</t>
@@ -1202,22 +1202,22 @@
     <t xml:space="preserve">4.34038734436035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39877843856812</t>
+    <t xml:space="preserve">4.39877796173096</t>
   </si>
   <si>
     <t xml:space="preserve">4.34569597244263</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37046813964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41647291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42355060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38816118240356</t>
+    <t xml:space="preserve">4.37046766281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41647243499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42355108261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38816165924072</t>
   </si>
   <si>
     <t xml:space="preserve">4.41470289230347</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">3.06463527679443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9673171043396</t>
+    <t xml:space="preserve">2.96731686592102</t>
   </si>
   <si>
     <t xml:space="preserve">3.09648513793945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1230263710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19557285308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26281070709229</t>
+    <t xml:space="preserve">3.12302660942078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1955726146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26281046867371</t>
   </si>
   <si>
     <t xml:space="preserve">3.35835886001587</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">3.33535671234131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34420347213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33004808425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36720633506775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36189818382263</t>
+    <t xml:space="preserve">3.34420371055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33004832267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36720657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36189794540405</t>
   </si>
   <si>
     <t xml:space="preserve">3.28758263587952</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">2.99208903312683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01863026618958</t>
+    <t xml:space="preserve">3.01863050460815</t>
   </si>
   <si>
     <t xml:space="preserve">2.90892672538757</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">2.70898151397705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69836568832397</t>
+    <t xml:space="preserve">2.6983654499054</t>
   </si>
   <si>
     <t xml:space="preserve">2.65943813323975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74260115623474</t>
+    <t xml:space="preserve">2.74260139465332</t>
   </si>
   <si>
     <t xml:space="preserve">2.64882135391235</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">2.66474652290344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65412950515747</t>
+    <t xml:space="preserve">2.65412974357605</t>
   </si>
   <si>
     <t xml:space="preserve">2.62581920623779</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">2.56211972236633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53734827041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50019025802612</t>
+    <t xml:space="preserve">2.53734850883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5001904964447</t>
   </si>
   <si>
     <t xml:space="preserve">2.50726795196533</t>
@@ -1364,34 +1364,34 @@
     <t xml:space="preserve">2.43826103210449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4329526424408</t>
+    <t xml:space="preserve">2.43295240402222</t>
   </si>
   <si>
     <t xml:space="preserve">2.46126294136047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47364926338196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49311280250549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50549864768982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48957324028015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4913432598114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49488186836243</t>
+    <t xml:space="preserve">2.47364902496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49311256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5054988861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48957347869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49134349822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49488162994385</t>
   </si>
   <si>
     <t xml:space="preserve">2.38871669769287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35155940055847</t>
+    <t xml:space="preserve">2.35155916213989</t>
   </si>
   <si>
     <t xml:space="preserve">2.41525793075562</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.35686683654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36217522621155</t>
+    <t xml:space="preserve">2.36217546463013</t>
   </si>
   <si>
     <t xml:space="preserve">2.54265594482422</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">2.59396934509277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56742835044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45595479011536</t>
+    <t xml:space="preserve">2.56742811203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45595455169678</t>
   </si>
   <si>
     <t xml:space="preserve">2.44533848762512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48249578475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47010970115662</t>
+    <t xml:space="preserve">2.4824960231781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47010946273804</t>
   </si>
   <si>
     <t xml:space="preserve">2.40818023681641</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">2.17638611793518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1303813457489</t>
+    <t xml:space="preserve">2.13038110733032</t>
   </si>
   <si>
     <t xml:space="preserve">2.09145379066467</t>
@@ -1463,34 +1463,34 @@
     <t xml:space="preserve">2.30024600028992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31086206436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29493761062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29670667648315</t>
+    <t xml:space="preserve">2.31086182594299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29493737220764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29670643806458</t>
   </si>
   <si>
     <t xml:space="preserve">2.28255152702332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28432035446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24008584022522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19938921928406</t>
+    <t xml:space="preserve">2.28432059288025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24008560180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19938898086548</t>
   </si>
   <si>
     <t xml:space="preserve">2.2135443687439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22239112854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28785967826843</t>
+    <t xml:space="preserve">2.22239089012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28785991668701</t>
   </si>
   <si>
     <t xml:space="preserve">2.22062206268311</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">2.21531343460083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14453649520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14630675315857</t>
+    <t xml:space="preserve">2.14453625679016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14630651473999</t>
   </si>
   <si>
     <t xml:space="preserve">2.25070142745972</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">2.36925292015076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31617021560669</t>
+    <t xml:space="preserve">2.31617045402527</t>
   </si>
   <si>
     <t xml:space="preserve">2.24362397193909</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">2.19231152534485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18523406982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11976504325867</t>
+    <t xml:space="preserve">2.18523383140564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11976528167725</t>
   </si>
   <si>
     <t xml:space="preserve">2.117995262146</t>
@@ -1532,13 +1532,13 @@
     <t xml:space="preserve">2.10030150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06137442588806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98705875873566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86142981052399</t>
+    <t xml:space="preserve">2.06137418746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98705852031708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8614296913147</t>
   </si>
   <si>
     <t xml:space="preserve">1.7959611415863</t>
@@ -1547,37 +1547,37 @@
     <t xml:space="preserve">1.75172519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72518408298492</t>
+    <t xml:space="preserve">1.72518396377563</t>
   </si>
   <si>
     <t xml:space="preserve">1.72606897354126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59336256980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57389891147614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47923457622528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3951872587204</t>
+    <t xml:space="preserve">1.59336245059967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57389879226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47923469543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39518737792969</t>
   </si>
   <si>
     <t xml:space="preserve">1.36156833171844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34652805328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32352602481842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31821763515472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36599183082581</t>
+    <t xml:space="preserve">1.34652817249298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32352614402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31821751594543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36599171161652</t>
   </si>
   <si>
     <t xml:space="preserve">1.35183656215668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">1.38103199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39341819286346</t>
+    <t xml:space="preserve">1.39341807365417</t>
   </si>
   <si>
     <t xml:space="preserve">1.39076387882233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35979914665222</t>
+    <t xml:space="preserve">1.35979926586151</t>
   </si>
   <si>
     <t xml:space="preserve">1.35537576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41819036006927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43146049976349</t>
+    <t xml:space="preserve">1.41819024085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4314603805542</t>
   </si>
   <si>
     <t xml:space="preserve">1.3713002204895</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">1.37306940555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31644833087921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32618033885956</t>
+    <t xml:space="preserve">1.3164484500885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32618021965027</t>
   </si>
   <si>
     <t xml:space="preserve">1.34298980236053</t>
@@ -1631,52 +1631,52 @@
     <t xml:space="preserve">1.33237278461456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33502697944641</t>
+    <t xml:space="preserve">1.3350270986557</t>
   </si>
   <si>
     <t xml:space="preserve">1.44915497303009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45092415809631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44473147392273</t>
+    <t xml:space="preserve">1.45092403888702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44473159313202</t>
   </si>
   <si>
     <t xml:space="preserve">1.42526793479919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39253318309784</t>
+    <t xml:space="preserve">1.39253294467926</t>
   </si>
   <si>
     <t xml:space="preserve">1.42438280582428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32529509067535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31202507019043</t>
+    <t xml:space="preserve">1.32529520988464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31202518939972</t>
   </si>
   <si>
     <t xml:space="preserve">1.13154339790344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01918566226959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04838109016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.670609295368195</t>
+    <t xml:space="preserve">1.0191855430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04838120937347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.670609354972839</t>
   </si>
   <si>
     <t xml:space="preserve">0.744925737380981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746694982051849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913020372390747</t>
+    <t xml:space="preserve">0.746694922447205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913020312786102</t>
   </si>
   <si>
     <t xml:space="preserve">1.01476216316223</t>
@@ -1688,28 +1688,28 @@
     <t xml:space="preserve">0.898865103721619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967872202396393</t>
+    <t xml:space="preserve">0.967872083187103</t>
   </si>
   <si>
     <t xml:space="preserve">1.00060701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973180532455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971411526203156</t>
+    <t xml:space="preserve">0.973180651664734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9714115858078</t>
   </si>
   <si>
     <t xml:space="preserve">1.06430542469025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21559166908264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18020260334015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16427826881409</t>
+    <t xml:space="preserve">1.21559178829193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18020272254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1642781496048</t>
   </si>
   <si>
     <t xml:space="preserve">1.19878220558167</t>
@@ -1718,22 +1718,22 @@
     <t xml:space="preserve">1.16870164871216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09704029560089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07138311862946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07846069335938</t>
+    <t xml:space="preserve">1.09704041481018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07138323783875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07846081256866</t>
   </si>
   <si>
     <t xml:space="preserve">1.05811297893524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07580745220184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07315337657928</t>
+    <t xml:space="preserve">1.07580757141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07315325737</t>
   </si>
   <si>
     <t xml:space="preserve">1.1465836763382</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">1.16693246364594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19435787200928</t>
+    <t xml:space="preserve">1.19435799121857</t>
   </si>
   <si>
     <t xml:space="preserve">1.19612801074982</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">1.20408964157104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17931842803955</t>
+    <t xml:space="preserve">1.17931854724884</t>
   </si>
   <si>
     <t xml:space="preserve">1.16781651973724</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">1.12888920307159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09350109100342</t>
+    <t xml:space="preserve">1.09350121021271</t>
   </si>
   <si>
     <t xml:space="preserve">1.13419759273529</t>
@@ -1772,22 +1772,22 @@
     <t xml:space="preserve">1.12623584270477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07934582233429</t>
+    <t xml:space="preserve">1.07934594154358</t>
   </si>
   <si>
     <t xml:space="preserve">1.09615528583527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.128005027771</t>
+    <t xml:space="preserve">1.12800514698029</t>
   </si>
   <si>
     <t xml:space="preserve">1.1952428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14923787117004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15100693702698</t>
+    <t xml:space="preserve">1.14923799037933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15100705623627</t>
   </si>
   <si>
     <t xml:space="preserve">1.13596773147583</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">1.17047071456909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14216017723083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16516220569611</t>
+    <t xml:space="preserve">1.14216029644012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1651623249054</t>
   </si>
   <si>
     <t xml:space="preserve">1.17843341827393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17577922344208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29875385761261</t>
+    <t xml:space="preserve">1.17577934265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2987539768219</t>
   </si>
   <si>
     <t xml:space="preserve">1.54824256896973</t>
@@ -1823,13 +1823,13 @@
     <t xml:space="preserve">1.4978141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44119238853455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40934252738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37483954429626</t>
+    <t xml:space="preserve">1.44119226932526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40934240818024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37483942508698</t>
   </si>
   <si>
     <t xml:space="preserve">1.45446336269379</t>
@@ -1838,16 +1838,16 @@
     <t xml:space="preserve">1.46950280666351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40845835208893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43057537078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43499970436096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4075733423233</t>
+    <t xml:space="preserve">1.40845847129822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43057548999786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43499982357025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40757346153259</t>
   </si>
   <si>
     <t xml:space="preserve">1.44650077819824</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">1.45269334316254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48542809486389</t>
+    <t xml:space="preserve">1.4854279756546</t>
   </si>
   <si>
     <t xml:space="preserve">1.50312173366547</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">1.51285350322723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48277390003204</t>
+    <t xml:space="preserve">1.48277401924133</t>
   </si>
   <si>
     <t xml:space="preserve">1.45711672306061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47658038139343</t>
+    <t xml:space="preserve">1.47658026218414</t>
   </si>
   <si>
     <t xml:space="preserve">1.53939485549927</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">1.66767799854279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64467585086823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64290583133698</t>
+    <t xml:space="preserve">1.64467597007751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64290571212769</t>
   </si>
   <si>
     <t xml:space="preserve">1.60397946834564</t>
@@ -1913,31 +1913,31 @@
     <t xml:space="preserve">1.55797445774078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50135254859924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51904702186584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47038769721985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46507942676544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41111183166504</t>
+    <t xml:space="preserve">1.50135242938995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51904690265656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47038793563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46507930755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41111171245575</t>
   </si>
   <si>
     <t xml:space="preserve">1.44826996326447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42969143390656</t>
+    <t xml:space="preserve">1.42969131469727</t>
   </si>
   <si>
     <t xml:space="preserve">1.38014698028564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40049576759338</t>
+    <t xml:space="preserve">1.40049564838409</t>
   </si>
   <si>
     <t xml:space="preserve">1.39430224895477</t>
@@ -1952,19 +1952,19 @@
     <t xml:space="preserve">1.38810968399048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39695656299591</t>
+    <t xml:space="preserve">1.39695644378662</t>
   </si>
   <si>
     <t xml:space="preserve">1.36864602565765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36333763599396</t>
+    <t xml:space="preserve">1.36333751678467</t>
   </si>
   <si>
     <t xml:space="preserve">1.32441020011902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40580415725708</t>
+    <t xml:space="preserve">1.40580403804779</t>
   </si>
   <si>
     <t xml:space="preserve">1.3889946937561</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">1.42880618572235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42615187168121</t>
+    <t xml:space="preserve">1.4261519908905</t>
   </si>
   <si>
     <t xml:space="preserve">1.38457143306732</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">1.26248073577881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4385381937027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4013808965683</t>
+    <t xml:space="preserve">1.43853807449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40138077735901</t>
   </si>
   <si>
     <t xml:space="preserve">1.358029961586</t>
@@ -2006,28 +2006,28 @@
     <t xml:space="preserve">1.31379413604736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34918236732483</t>
+    <t xml:space="preserve">1.34918224811554</t>
   </si>
   <si>
     <t xml:space="preserve">1.33591210842133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40491914749146</t>
+    <t xml:space="preserve">1.40491902828217</t>
   </si>
   <si>
     <t xml:space="preserve">1.41730511188507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50931513309479</t>
+    <t xml:space="preserve">1.50931525230408</t>
   </si>
   <si>
     <t xml:space="preserve">1.56947541236877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58451581001282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59159326553345</t>
+    <t xml:space="preserve">1.58451569080353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59159338474274</t>
   </si>
   <si>
     <t xml:space="preserve">1.59247744083405</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">1.64025259017944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58009135723114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50046765804291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47569632530212</t>
+    <t xml:space="preserve">1.58009147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50046753883362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47569620609283</t>
   </si>
   <si>
     <t xml:space="preserve">1.47304201126099</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">1.50400674343109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45623254776001</t>
+    <t xml:space="preserve">1.4562326669693</t>
   </si>
   <si>
     <t xml:space="preserve">1.42792201042175</t>
@@ -2072,28 +2072,28 @@
     <t xml:space="preserve">1.40668833255768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37395441532135</t>
+    <t xml:space="preserve">1.37395453453064</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660872936249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37926292419434</t>
+    <t xml:space="preserve">1.37926280498505</t>
   </si>
   <si>
     <t xml:space="preserve">1.41199672222137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34033560752869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31556332111359</t>
+    <t xml:space="preserve">1.3403354883194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31556344032288</t>
   </si>
   <si>
     <t xml:space="preserve">1.47215700149536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45180916786194</t>
+    <t xml:space="preserve">1.45180928707123</t>
   </si>
   <si>
     <t xml:space="preserve">1.46684861183167</t>
@@ -2111,28 +2111,28 @@
     <t xml:space="preserve">1.57655310630798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58539986610413</t>
+    <t xml:space="preserve">1.58539974689484</t>
   </si>
   <si>
     <t xml:space="preserve">1.58982312679291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53320229053497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48188877105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63405907154083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5473575592041</t>
+    <t xml:space="preserve">1.53320217132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48188889026642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63405895233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54735743999481</t>
   </si>
   <si>
     <t xml:space="preserve">1.47392618656158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4933899641037</t>
+    <t xml:space="preserve">1.49338984489441</t>
   </si>
   <si>
     <t xml:space="preserve">1.49162077903748</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">1.41288185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40403413772583</t>
+    <t xml:space="preserve">1.40403401851654</t>
   </si>
   <si>
     <t xml:space="preserve">1.41642010211945</t>
@@ -2156,19 +2156,19 @@
     <t xml:space="preserve">1.44207727909088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45003914833069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53054809570312</t>
+    <t xml:space="preserve">1.4500390291214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53054797649384</t>
   </si>
   <si>
     <t xml:space="preserve">1.51993119716644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55266582965851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55885851383209</t>
+    <t xml:space="preserve">1.5526659488678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5588583946228</t>
   </si>
   <si>
     <t xml:space="preserve">1.55178093910217</t>
@@ -2177,22 +2177,22 @@
     <t xml:space="preserve">1.55974352359772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6013251543045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55708932876587</t>
+    <t xml:space="preserve">1.60132527351379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55708944797516</t>
   </si>
   <si>
     <t xml:space="preserve">1.58097636699677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61282634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63140487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62609624862671</t>
+    <t xml:space="preserve">1.61282622814178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63140475749969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.626096367836</t>
   </si>
   <si>
     <t xml:space="preserve">1.69245004653931</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">1.68714165687561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72872316837311</t>
+    <t xml:space="preserve">1.7287232875824</t>
   </si>
   <si>
     <t xml:space="preserve">1.67829489707947</t>
@@ -2219,19 +2219,19 @@
     <t xml:space="preserve">1.65263772010803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63317406177521</t>
+    <t xml:space="preserve">1.63317394256592</t>
   </si>
   <si>
     <t xml:space="preserve">1.65086841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65883123874664</t>
+    <t xml:space="preserve">1.65883111953735</t>
   </si>
   <si>
     <t xml:space="preserve">1.65971529483795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68094909191132</t>
+    <t xml:space="preserve">1.68094897270203</t>
   </si>
   <si>
     <t xml:space="preserve">1.7473019361496</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">1.80834710597992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82073318958282</t>
+    <t xml:space="preserve">1.82073330879211</t>
   </si>
   <si>
     <t xml:space="preserve">1.83134913444519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81365561485291</t>
+    <t xml:space="preserve">1.81365549564362</t>
   </si>
   <si>
     <t xml:space="preserve">1.83488845825195</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">1.79242181777954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87027657032013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85258197784424</t>
+    <t xml:space="preserve">1.87027645111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85258209705353</t>
   </si>
   <si>
     <t xml:space="preserve">1.82250237464905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73580086231232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70395112037659</t>
+    <t xml:space="preserve">1.73580098152161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7039510011673</t>
   </si>
   <si>
     <t xml:space="preserve">1.78534424304962</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">1.76941978931427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78711438179016</t>
+    <t xml:space="preserve">1.78711426258087</t>
   </si>
   <si>
     <t xml:space="preserve">1.77472817897797</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">1.7110288143158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72076070308685</t>
+    <t xml:space="preserve">1.72076058387756</t>
   </si>
   <si>
     <t xml:space="preserve">1.70572030544281</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">1.73757004737854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71987557411194</t>
+    <t xml:space="preserve">1.71987569332123</t>
   </si>
   <si>
     <t xml:space="preserve">1.7048362493515</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">1.67121732234955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68537259101868</t>
+    <t xml:space="preserve">1.68537247180939</t>
   </si>
   <si>
     <t xml:space="preserve">1.65440785884857</t>
@@ -2330,16 +2330,16 @@
     <t xml:space="preserve">1.6986426115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69510436058044</t>
+    <t xml:space="preserve">1.69510424137115</t>
   </si>
   <si>
     <t xml:space="preserve">1.67917895317078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63671314716339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63848257064819</t>
+    <t xml:space="preserve">1.63671338558197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6384824514389</t>
   </si>
   <si>
     <t xml:space="preserve">1.67033219337463</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">1.522585272789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58274567127228</t>
+    <t xml:space="preserve">1.58274555206299</t>
   </si>
   <si>
     <t xml:space="preserve">1.57743811607361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55443501472473</t>
+    <t xml:space="preserve">1.55443513393402</t>
   </si>
   <si>
     <t xml:space="preserve">1.6022093296051</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">1.60663259029388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59867095947266</t>
+    <t xml:space="preserve">1.59867084026337</t>
   </si>
   <si>
     <t xml:space="preserve">1.57035946846008</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">1.30494737625122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2500946521759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23593950271606</t>
+    <t xml:space="preserve">1.25009477138519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23593938350677</t>
   </si>
   <si>
     <t xml:space="preserve">1.20320558547974</t>
@@ -2396,28 +2396,28 @@
     <t xml:space="preserve">1.08819258213043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988220930099487</t>
+    <t xml:space="preserve">0.988220989704132</t>
   </si>
   <si>
     <t xml:space="preserve">0.822779595851898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761735260486603</t>
+    <t xml:space="preserve">0.761735200881958</t>
   </si>
   <si>
     <t xml:space="preserve">0.736963093280792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579042315483093</t>
+    <t xml:space="preserve">0.579042375087738</t>
   </si>
   <si>
     <t xml:space="preserve">0.649819433689117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.55028885602951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.634779155254364</t>
+    <t xml:space="preserve">0.550288915634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634779095649719</t>
   </si>
   <si>
     <t xml:space="preserve">0.714845180511475</t>
@@ -2426,13 +2426,13 @@
     <t xml:space="preserve">0.767927765846252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743155658245087</t>
+    <t xml:space="preserve">0.743155598640442</t>
   </si>
   <si>
     <t xml:space="preserve">0.675033688545227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722807884216309</t>
+    <t xml:space="preserve">0.722807824611664</t>
   </si>
   <si>
     <t xml:space="preserve">0.72059565782547</t>
@@ -2444,16 +2444,16 @@
     <t xml:space="preserve">0.698920726776123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.681668281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698477745056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681226253509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.664416790008545</t>
+    <t xml:space="preserve">0.681668221950531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698477685451508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681226193904877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6644167304039</t>
   </si>
   <si>
     <t xml:space="preserve">0.610892117023468</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">0.654684901237488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699804902076721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.684765458106995</t>
+    <t xml:space="preserve">0.699804842472076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.684765517711639</t>
   </si>
   <si>
     <t xml:space="preserve">0.689188897609711</t>
@@ -2477,19 +2477,19 @@
     <t xml:space="preserve">0.688303828239441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.678129971027374</t>
+    <t xml:space="preserve">0.678129911422729</t>
   </si>
   <si>
     <t xml:space="preserve">0.648492336273193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.652030646800995</t>
+    <t xml:space="preserve">0.65203070640564</t>
   </si>
   <si>
     <t xml:space="preserve">0.646280169487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641414761543274</t>
+    <t xml:space="preserve">0.641414701938629</t>
   </si>
   <si>
     <t xml:space="preserve">0.647165238857269</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">0.716614305973053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.693612277507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.680341124534607</t>
+    <t xml:space="preserve">0.693612337112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680341184139252</t>
   </si>
   <si>
     <t xml:space="preserve">0.679457068443298</t>
@@ -2516,25 +2516,25 @@
     <t xml:space="preserve">0.677687883377075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687419772148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70776754617691</t>
+    <t xml:space="preserve">0.687419712543488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.707767486572266</t>
   </si>
   <si>
     <t xml:space="preserve">0.688745856285095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.66353178024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645838141441345</t>
+    <t xml:space="preserve">0.663531720638275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6458380818367</t>
   </si>
   <si>
     <t xml:space="preserve">0.641856789588928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.667070925235748</t>
+    <t xml:space="preserve">0.667071044445038</t>
   </si>
   <si>
     <t xml:space="preserve">0.632125020027161</t>
@@ -2543,10 +2543,10 @@
     <t xml:space="preserve">0.608679950237274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616200625896454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60823792219162</t>
+    <t xml:space="preserve">0.616200566291809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608237862586975</t>
   </si>
   <si>
     <t xml:space="preserve">0.637433409690857</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">0.667956054210663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769254863262177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836050689220428</t>
+    <t xml:space="preserve">0.769254922866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836050748825073</t>
   </si>
   <si>
     <t xml:space="preserve">0.808182239532471</t>
@@ -2576,43 +2576,43 @@
     <t xml:space="preserve">0.954602003097534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964333772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06519067287445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07049906253815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0262633562088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929829776287079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979373157024384</t>
+    <t xml:space="preserve">0.964333832263947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06519055366516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07049918174744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02626323699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929829835891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979373097419739</t>
   </si>
   <si>
     <t xml:space="preserve">0.980258285999298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993529379367828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976719975471497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944870114326477</t>
+    <t xml:space="preserve">0.993529260158539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976719915866852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944870173931122</t>
   </si>
   <si>
     <t xml:space="preserve">0.946639358997345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948408484458923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87232381105423</t>
+    <t xml:space="preserve">0.948408424854279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872323870658875</t>
   </si>
   <si>
     <t xml:space="preserve">0.827203929424286</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">0.873650968074799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853745222091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832069396972656</t>
+    <t xml:space="preserve">0.85374516248703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832069337368011</t>
   </si>
   <si>
     <t xml:space="preserve">0.849763870239258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844897449016571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849320828914642</t>
+    <t xml:space="preserve">0.844897508621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849320888519287</t>
   </si>
   <si>
     <t xml:space="preserve">0.845782518386841</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">0.822337508201599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828531086444855</t>
+    <t xml:space="preserve">0.82853102684021</t>
   </si>
   <si>
     <t xml:space="preserve">0.811720609664917</t>
@@ -2651,10 +2651,10 @@
     <t xml:space="preserve">0.870111644268036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842686295509338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914789497852325</t>
+    <t xml:space="preserve">0.842686235904694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91478955745697</t>
   </si>
   <si>
     <t xml:space="preserve">0.905942738056183</t>
@@ -2663,31 +2663,31 @@
     <t xml:space="preserve">0.894441723823547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908596992492676</t>
+    <t xml:space="preserve">0.908596932888031</t>
   </si>
   <si>
     <t xml:space="preserve">0.885594010353088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884266912937164</t>
+    <t xml:space="preserve">0.884266972541809</t>
   </si>
   <si>
     <t xml:space="preserve">0.888248264789581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847551763057709</t>
+    <t xml:space="preserve">0.847551703453064</t>
   </si>
   <si>
     <t xml:space="preserve">0.819683253765106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836492776870728</t>
+    <t xml:space="preserve">0.836492717266083</t>
   </si>
   <si>
     <t xml:space="preserve">0.817472040653229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812605619430542</t>
+    <t xml:space="preserve">0.812605679035187</t>
   </si>
   <si>
     <t xml:space="preserve">0.821452438831329</t>
@@ -2705,19 +2705,19 @@
     <t xml:space="preserve">0.811278581619263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847993731498718</t>
+    <t xml:space="preserve">0.847993791103363</t>
   </si>
   <si>
     <t xml:space="preserve">0.857725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84710967540741</t>
+    <t xml:space="preserve">0.847109615802765</t>
   </si>
   <si>
     <t xml:space="preserve">0.826318860054016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816587030887604</t>
+    <t xml:space="preserve">0.816586971282959</t>
   </si>
   <si>
     <t xml:space="preserve">0.784737229347229</t>
@@ -2732,10 +2732,10 @@
     <t xml:space="preserve">0.724576950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731654644012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733866751194</t>
+    <t xml:space="preserve">0.731654584407806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733866810798645</t>
   </si>
   <si>
     <t xml:space="preserve">0.72634619474411</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">0.705998361110687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722365736961365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.728116273880005</t>
+    <t xml:space="preserve">0.72236579656601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72811633348465</t>
   </si>
   <si>
     <t xml:space="preserve">0.725904107093811</t>
@@ -2762,34 +2762,34 @@
     <t xml:space="preserve">0.735635936260223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.738732218742371</t>
+    <t xml:space="preserve">0.738732278347015</t>
   </si>
   <si>
     <t xml:space="preserve">0.745367825031281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73961728811264</t>
+    <t xml:space="preserve">0.739617347717285</t>
   </si>
   <si>
     <t xml:space="preserve">0.76394647359848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763062357902527</t>
+    <t xml:space="preserve">0.763062298297882</t>
   </si>
   <si>
     <t xml:space="preserve">0.786506414413452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813047766685486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760850191116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757311820983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828088045120239</t>
+    <t xml:space="preserve">0.813047707080841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760850131511688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.757311761379242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828087985515594</t>
   </si>
   <si>
     <t xml:space="preserve">0.801989734172821</t>
@@ -2801,10 +2801,10 @@
     <t xml:space="preserve">0.843570351600647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874093055725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900634288787842</t>
+    <t xml:space="preserve">0.874092996120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900634229183197</t>
   </si>
   <si>
     <t xml:space="preserve">0.911251187324524</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">0.89709597826004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909481167793274</t>
+    <t xml:space="preserve">0.909481108188629</t>
   </si>
   <si>
     <t xml:space="preserve">0.893556654453278</t>
@@ -2822,10 +2822,10 @@
     <t xml:space="preserve">0.923637270927429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90240353345871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905057728290558</t>
+    <t xml:space="preserve">0.902403473854065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905057668685913</t>
   </si>
   <si>
     <t xml:space="preserve">0.860822856426239</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">0.855514407157898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861264944076538</t>
+    <t xml:space="preserve">0.861264884471893</t>
   </si>
   <si>
     <t xml:space="preserve">0.877632260322571</t>
@@ -2846,10 +2846,10 @@
     <t xml:space="preserve">0.869227528572083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794027030467987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752887427806854</t>
+    <t xml:space="preserve">0.794027090072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.752887487411499</t>
   </si>
   <si>
     <t xml:space="preserve">0.693170249462128</t>
@@ -2861,10 +2861,10 @@
     <t xml:space="preserve">0.683438360691071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699362754821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725019037723541</t>
+    <t xml:space="preserve">0.699362814426422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725018978118896</t>
   </si>
   <si>
     <t xml:space="preserve">0.729885458946228</t>
@@ -2876,25 +2876,25 @@
     <t xml:space="preserve">0.830742239952087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83428156375885</t>
+    <t xml:space="preserve">0.834281504154205</t>
   </si>
   <si>
     <t xml:space="preserve">0.850647985935211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906827807426453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895325839519501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928944766521454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953716933727264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942215919494629</t>
+    <t xml:space="preserve">0.906827747821808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89532595872879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928944706916809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95371687412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942215859889984</t>
   </si>
   <si>
     <t xml:space="preserve">0.939561665058136</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">0.94575423002243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955486178398132</t>
+    <t xml:space="preserve">0.955486118793488</t>
   </si>
   <si>
     <t xml:space="preserve">0.934253215789795</t>
@@ -2921,10 +2921,10 @@
     <t xml:space="preserve">0.919212937355042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890902459621429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889133274555206</t>
+    <t xml:space="preserve">0.890902519226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889133214950562</t>
   </si>
   <si>
     <t xml:space="preserve">0.891787528991699</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">0.899749279022217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924521386623383</t>
+    <t xml:space="preserve">0.924521327018738</t>
   </si>
   <si>
     <t xml:space="preserve">0.959910452365875</t>
@@ -2954,82 +2954,82 @@
     <t xml:space="preserve">1.01033878326416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01387715339661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02272486686707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03599500656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01830053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98999011516571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956371128559113</t>
+    <t xml:space="preserve">1.0138772726059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02272498607635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03599512577057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01830065250397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989989995956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956371188163757</t>
   </si>
   <si>
     <t xml:space="preserve">0.926290512084961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90328848361969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918328762054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930714905261993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960794627666473</t>
+    <t xml:space="preserve">0.903288543224335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918328821659088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930714845657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960794568061829</t>
   </si>
   <si>
     <t xml:space="preserve">0.986451804637909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975834786891937</t>
+    <t xml:space="preserve">0.975834846496582</t>
   </si>
   <si>
     <t xml:space="preserve">0.982027471065521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966988086700439</t>
+    <t xml:space="preserve">0.966988027095795</t>
   </si>
   <si>
     <t xml:space="preserve">1.00326120853424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952831923961639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98468154668808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994413495063782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992644309997559</t>
+    <t xml:space="preserve">0.952831864356995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984681665897369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994413614273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992644250392914</t>
   </si>
   <si>
     <t xml:space="preserve">0.9979527592659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99706768989563</t>
+    <t xml:space="preserve">0.997067749500275</t>
   </si>
   <si>
     <t xml:space="preserve">1.00237619876862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990875244140625</t>
+    <t xml:space="preserve">0.990875124931335</t>
   </si>
   <si>
     <t xml:space="preserve">1.03334081172943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21470654010773</t>
+    <t xml:space="preserve">1.21470665931702</t>
   </si>
   <si>
     <t xml:space="preserve">1.25982654094696</t>
@@ -3038,25 +3038,25 @@
     <t xml:space="preserve">1.24301695823669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22886180877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22620749473572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24124789237976</t>
+    <t xml:space="preserve">1.22886192798615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22620761394501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24124801158905</t>
   </si>
   <si>
     <t xml:space="preserve">1.20585978031158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17489421367645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1766642332077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17224073410034</t>
+    <t xml:space="preserve">1.17489409446716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17666435241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17224085330963</t>
   </si>
   <si>
     <t xml:space="preserve">1.1775484085083</t>
@@ -3065,19 +3065,19 @@
     <t xml:space="preserve">1.19789707660675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18728017807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23240125179291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21293747425079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18108761310577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17312502861023</t>
+    <t xml:space="preserve">1.18728029727936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23240113258362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2129373550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18108773231506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17312490940094</t>
   </si>
   <si>
     <t xml:space="preserve">1.45888674259186</t>
@@ -3104,28 +3104,28 @@
     <t xml:space="preserve">1.4801197052002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52347052097321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5641667842865</t>
+    <t xml:space="preserve">1.52347040176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56416690349579</t>
   </si>
   <si>
     <t xml:space="preserve">1.54558825492859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52612471580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51816189289093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56859028339386</t>
+    <t xml:space="preserve">1.52612459659576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51816201210022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56859040260315</t>
   </si>
   <si>
     <t xml:space="preserve">1.49692916870117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51019930839539</t>
+    <t xml:space="preserve">1.5101991891861</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183314800262</t>
@@ -3134,31 +3134,31 @@
     <t xml:space="preserve">1.64202165603638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72252988815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70749044418335</t>
+    <t xml:space="preserve">1.72252976894379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70749032497406</t>
   </si>
   <si>
     <t xml:space="preserve">1.71633720397949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71545207500458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72341477870941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70925951004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54293406009674</t>
+    <t xml:space="preserve">1.71545219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7234148979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70925962924957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54293417930603</t>
   </si>
   <si>
     <t xml:space="preserve">1.48100471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42261373996735</t>
+    <t xml:space="preserve">1.42261362075806</t>
   </si>
   <si>
     <t xml:space="preserve">1.43676888942719</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">1.43942308425903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44561576843262</t>
+    <t xml:space="preserve">1.44561564922333</t>
   </si>
   <si>
     <t xml:space="preserve">1.48572742938995</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">1.47634184360504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47446489334106</t>
+    <t xml:space="preserve">1.47446477413177</t>
   </si>
   <si>
     <t xml:space="preserve">1.41252040863037</t>
@@ -3194,16 +3194,16 @@
     <t xml:space="preserve">1.57864415645599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773921012878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6227560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67813050746918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61900186538696</t>
+    <t xml:space="preserve">1.60773932933807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62275612354279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67813062667847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61900198459625</t>
   </si>
   <si>
     <t xml:space="preserve">1.6405885219574</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">1.63589584827423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62932598590851</t>
+    <t xml:space="preserve">1.62932586669922</t>
   </si>
   <si>
     <t xml:space="preserve">1.65091252326965</t>
@@ -3224,16 +3224,16 @@
     <t xml:space="preserve">1.71004140377045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70159435272217</t>
+    <t xml:space="preserve">1.70159447193146</t>
   </si>
   <si>
     <t xml:space="preserve">1.66217529773712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282330036163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69877874851227</t>
+    <t xml:space="preserve">1.68282341957092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69877862930298</t>
   </si>
   <si>
     <t xml:space="preserve">1.73256659507751</t>
@@ -3242,37 +3242,37 @@
     <t xml:space="preserve">1.72130393981934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70816433429718</t>
+    <t xml:space="preserve">1.70816421508789</t>
   </si>
   <si>
     <t xml:space="preserve">1.67719197273254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60867774486542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61055493354797</t>
+    <t xml:space="preserve">1.60867786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61055481433868</t>
   </si>
   <si>
     <t xml:space="preserve">1.58145976066589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58615267276764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61524748802185</t>
+    <t xml:space="preserve">1.58615255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61524760723114</t>
   </si>
   <si>
     <t xml:space="preserve">1.59647655487061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58990669250488</t>
+    <t xml:space="preserve">1.58990681171417</t>
   </si>
   <si>
     <t xml:space="preserve">1.63120305538177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62087893486023</t>
+    <t xml:space="preserve">1.62087905406952</t>
   </si>
   <si>
     <t xml:space="preserve">1.64528131484985</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">1.5523647069931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50825262069702</t>
+    <t xml:space="preserve">1.50825273990631</t>
   </si>
   <si>
     <t xml:space="preserve">1.53265511989594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55330324172974</t>
+    <t xml:space="preserve">1.55330312252045</t>
   </si>
   <si>
     <t xml:space="preserve">1.71379554271698</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">2.00850081443787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10047912597656</t>
+    <t xml:space="preserve">2.10047888755798</t>
   </si>
   <si>
     <t xml:space="preserve">2.15679216384888</t>
@@ -3329,13 +3329,13 @@
     <t xml:space="preserve">2.21498227119446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29945206642151</t>
+    <t xml:space="preserve">2.29945182800293</t>
   </si>
   <si>
     <t xml:space="preserve">2.07607650756836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0009925365448</t>
+    <t xml:space="preserve">2.00099229812622</t>
   </si>
   <si>
     <t xml:space="preserve">2.07795381546021</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">2.13802123069763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2337532043457</t>
+    <t xml:space="preserve">2.23375368118286</t>
   </si>
   <si>
     <t xml:space="preserve">2.1980881690979</t>
@@ -3362,16 +3362,16 @@
     <t xml:space="preserve">2.25252461433411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.306960105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29194355010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30508327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31071424484253</t>
+    <t xml:space="preserve">2.30696034431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29194331169128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30508351325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31071448326111</t>
   </si>
   <si>
     <t xml:space="preserve">2.37641334533691</t>
@@ -3380,10 +3380,10 @@
     <t xml:space="preserve">2.30883741378784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24876999855042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27317214012146</t>
+    <t xml:space="preserve">2.24877023696899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27317237854004</t>
   </si>
   <si>
     <t xml:space="preserve">2.32760858535767</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">2.44211173057556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42146348953247</t>
+    <t xml:space="preserve">2.42146372795105</t>
   </si>
   <si>
     <t xml:space="preserve">2.45712852478027</t>
@@ -3404,10 +3404,10 @@
     <t xml:space="preserve">2.56036925315857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59040307998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52470445632935</t>
+    <t xml:space="preserve">2.59040284156799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52470469474792</t>
   </si>
   <si>
     <t xml:space="preserve">2.60917377471924</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">2.620436668396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6617329120636</t>
+    <t xml:space="preserve">2.66173267364502</t>
   </si>
   <si>
     <t xml:space="preserve">2.65797853469849</t>
@@ -3440,19 +3440,19 @@
     <t xml:space="preserve">2.51907300949097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34074831008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53033566474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6260678768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63920760154724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71241474151611</t>
+    <t xml:space="preserve">2.34074807167053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53033590316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62606811523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63920783996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71241497993469</t>
   </si>
   <si>
     <t xml:space="preserve">2.81377816200256</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">2.78749895095825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81002426147461</t>
+    <t xml:space="preserve">2.81002402305603</t>
   </si>
   <si>
     <t xml:space="preserve">2.74995684623718</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">2.41770935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41020083427429</t>
+    <t xml:space="preserve">2.41020131111145</t>
   </si>
   <si>
     <t xml:space="preserve">2.39330697059631</t>
@@ -3494,10 +3494,10 @@
     <t xml:space="preserve">2.44586586952209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41395545005798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42334079742432</t>
+    <t xml:space="preserve">2.4139552116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42334055900574</t>
   </si>
   <si>
     <t xml:space="preserve">2.40269255638123</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">2.44398903846741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3726589679718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27692699432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28818941116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30320620536804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26566410064697</t>
+    <t xml:space="preserve">2.37265920639038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27692675590515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28818917274475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30320596694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26566386222839</t>
   </si>
   <si>
     <t xml:space="preserve">2.28443503379822</t>
@@ -3530,22 +3530,22 @@
     <t xml:space="preserve">2.17931723594666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29757452011108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3257315158844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26191020011902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53408980369568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53596687316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18870306015015</t>
+    <t xml:space="preserve">2.29757475852966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32573127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26190996170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53409004211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53596711158752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18870258331299</t>
   </si>
   <si>
     <t xml:space="preserve">2.11174154281616</t>
@@ -3557,10 +3557,10 @@
     <t xml:space="preserve">2.24501585960388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21873641014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13238978385925</t>
+    <t xml:space="preserve">2.21873664855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13238954544067</t>
   </si>
   <si>
     <t xml:space="preserve">2.20371961593628</t>
@@ -3578,13 +3578,13 @@
     <t xml:space="preserve">2.04604291915894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13426661491394</t>
+    <t xml:space="preserve">2.13426685333252</t>
   </si>
   <si>
     <t xml:space="preserve">2.12300419807434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97846722602844</t>
+    <t xml:space="preserve">1.97846710681915</t>
   </si>
   <si>
     <t xml:space="preserve">2.01413226127625</t>
@@ -3599,10 +3599,10 @@
     <t xml:space="preserve">1.6556054353714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66123676300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77949440479279</t>
+    <t xml:space="preserve">1.6612366437912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7794942855835</t>
   </si>
   <si>
     <t xml:space="preserve">1.6734379529953</t>
@@ -3623,34 +3623,34 @@
     <t xml:space="preserve">1.83956158161163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83674597740173</t>
+    <t xml:space="preserve">1.83674585819244</t>
   </si>
   <si>
     <t xml:space="preserve">1.80765080451965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74852216243744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76447737216949</t>
+    <t xml:space="preserve">1.74852204322815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76447749137878</t>
   </si>
   <si>
     <t xml:space="preserve">1.77855563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83017611503601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9747132062912</t>
+    <t xml:space="preserve">1.83017599582672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97471296787262</t>
   </si>
   <si>
     <t xml:space="preserve">1.94280219078064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84894716739655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89024317264557</t>
+    <t xml:space="preserve">1.84894704818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89024329185486</t>
   </si>
   <si>
     <t xml:space="preserve">1.86677944660187</t>
@@ -3662,13 +3662,13 @@
     <t xml:space="preserve">1.76917016506195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7381979227066</t>
+    <t xml:space="preserve">1.73819804191589</t>
   </si>
   <si>
     <t xml:space="preserve">1.69596314430237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71567261219025</t>
+    <t xml:space="preserve">1.71567249298096</t>
   </si>
   <si>
     <t xml:space="preserve">1.81140506267548</t>
@@ -3677,28 +3677,28 @@
     <t xml:space="preserve">1.80108094215393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77761709690094</t>
+    <t xml:space="preserve">1.77761721611023</t>
   </si>
   <si>
     <t xml:space="preserve">1.72599673271179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73632097244263</t>
+    <t xml:space="preserve">1.73632085323334</t>
   </si>
   <si>
     <t xml:space="preserve">1.72693526744843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70441019535065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71661138534546</t>
+    <t xml:space="preserve">1.70441007614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71661126613617</t>
   </si>
   <si>
     <t xml:space="preserve">1.64246571063995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5495491027832</t>
+    <t xml:space="preserve">1.54954898357391</t>
   </si>
   <si>
     <t xml:space="preserve">1.56644296646118</t>
@@ -3707,13 +3707,13 @@
     <t xml:space="preserve">1.63308012485504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70347142219543</t>
+    <t xml:space="preserve">1.70347154140472</t>
   </si>
   <si>
     <t xml:space="preserve">1.68376195430756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74195218086243</t>
+    <t xml:space="preserve">1.74195206165314</t>
   </si>
   <si>
     <t xml:space="preserve">1.7025328874588</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">1.61149346828461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72787380218506</t>
+    <t xml:space="preserve">1.72787392139435</t>
   </si>
   <si>
     <t xml:space="preserve">1.74476778507233</t>
@@ -3737,37 +3737,37 @@
     <t xml:space="preserve">1.82454478740692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7907567024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8179749250412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88648903369904</t>
+    <t xml:space="preserve">1.79075694084167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81797480583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88648915290833</t>
   </si>
   <si>
     <t xml:space="preserve">1.95406484603882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91464555263519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90526008605957</t>
+    <t xml:space="preserve">1.91464567184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90526020526886</t>
   </si>
   <si>
     <t xml:space="preserve">1.90150594711304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75603055953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54204070568085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50262141227722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55171406269073</t>
+    <t xml:space="preserve">1.75603044033051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54204058647156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50262129306793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55171418190002</t>
   </si>
   <si>
     <t xml:space="preserve">1.56422793865204</t>
@@ -3779,16 +3779,16 @@
     <t xml:space="preserve">1.54401326179504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56326532363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52187347412109</t>
+    <t xml:space="preserve">1.56326520442963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5218733549118</t>
   </si>
   <si>
     <t xml:space="preserve">1.56134009361267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56904089450836</t>
+    <t xml:space="preserve">1.56904101371765</t>
   </si>
   <si>
     <t xml:space="preserve">1.4978084564209</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">1.46026682853699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37844574451447</t>
+    <t xml:space="preserve">1.37844586372375</t>
   </si>
   <si>
     <t xml:space="preserve">1.40636122226715</t>
@@ -3818,10 +3818,10 @@
     <t xml:space="preserve">1.39288485050201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36015641689301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35534334182739</t>
+    <t xml:space="preserve">1.36015629768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3553432226181</t>
   </si>
   <si>
     <t xml:space="preserve">1.38614666461945</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">1.43812704086304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43716442584991</t>
+    <t xml:space="preserve">1.4371645450592</t>
   </si>
   <si>
     <t xml:space="preserve">1.37363278865814</t>
@@ -3857,13 +3857,13 @@
     <t xml:space="preserve">1.51128482818604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48433208465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52957427501678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55652713775635</t>
+    <t xml:space="preserve">1.48433196544647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5295741558075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55652701854706</t>
   </si>
   <si>
     <t xml:space="preserve">1.545938372612</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">1.58347988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57674169540405</t>
+    <t xml:space="preserve">1.57674181461334</t>
   </si>
   <si>
     <t xml:space="preserve">1.60561978816986</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">1.49492049217224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42657589912415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42272543907166</t>
+    <t xml:space="preserve">1.42657577991486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42272555828094</t>
   </si>
   <si>
     <t xml:space="preserve">1.45449137687683</t>
@@ -3914,16 +3914,16 @@
     <t xml:space="preserve">1.44293999671936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47470581531525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41502463817596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43235158920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45064091682434</t>
+    <t xml:space="preserve">1.47470593452454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41502475738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43235146999359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45064079761505</t>
   </si>
   <si>
     <t xml:space="preserve">1.44005239009857</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">1.51994824409485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50069618225098</t>
+    <t xml:space="preserve">1.50069630146027</t>
   </si>
   <si>
     <t xml:space="preserve">1.55556452274323</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">1.49588322639465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4814441204071</t>
+    <t xml:space="preserve">1.48144423961639</t>
   </si>
   <si>
     <t xml:space="preserve">1.80680358409882</t>
@@ -3956,19 +3956,19 @@
     <t xml:space="preserve">1.67781496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.672039270401</t>
+    <t xml:space="preserve">1.67203938961029</t>
   </si>
   <si>
     <t xml:space="preserve">1.68551576137543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6556750535965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58829295635223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64989936351776</t>
+    <t xml:space="preserve">1.65567517280579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58829283714294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64989948272705</t>
   </si>
   <si>
     <t xml:space="preserve">1.64412379264832</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">1.62390923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68936610221863</t>
+    <t xml:space="preserve">1.68936622142792</t>
   </si>
   <si>
     <t xml:space="preserve">1.68840348720551</t>
@@ -4007,22 +4007,22 @@
     <t xml:space="preserve">1.75674831867218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75771081447601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76926219463348</t>
+    <t xml:space="preserve">1.7577109336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76926207542419</t>
   </si>
   <si>
     <t xml:space="preserve">1.86744749546051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89825081825256</t>
+    <t xml:space="preserve">1.89825069904327</t>
   </si>
   <si>
     <t xml:space="preserve">1.89440035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83279395103455</t>
+    <t xml:space="preserve">1.83279383182526</t>
   </si>
   <si>
     <t xml:space="preserve">1.81931746006012</t>
@@ -4031,31 +4031,31 @@
     <t xml:space="preserve">1.82894337177277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87611079216003</t>
+    <t xml:space="preserve">1.87611091136932</t>
   </si>
   <si>
     <t xml:space="preserve">1.83375644683838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8549337387085</t>
+    <t xml:space="preserve">1.85493361949921</t>
   </si>
   <si>
     <t xml:space="preserve">1.89343774318695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95793211460114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97718393802643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98295950889587</t>
+    <t xml:space="preserve">1.95793187618256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97718405723572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98295962810516</t>
   </si>
   <si>
     <t xml:space="preserve">2.01183772087097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04841685295105</t>
+    <t xml:space="preserve">2.04841661453247</t>
   </si>
   <si>
     <t xml:space="preserve">2.05996775627136</t>
@@ -4082,16 +4082,16 @@
     <t xml:space="preserve">2.09077095985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10809803009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16585421562195</t>
+    <t xml:space="preserve">2.10809779167175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16585397720337</t>
   </si>
   <si>
     <t xml:space="preserve">2.26018905639648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2813663482666</t>
+    <t xml:space="preserve">2.28136610984802</t>
   </si>
   <si>
     <t xml:space="preserve">2.24863767623901</t>
@@ -4109,13 +4109,13 @@
     <t xml:space="preserve">2.23516130447388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2274603843689</t>
+    <t xml:space="preserve">2.22746062278748</t>
   </si>
   <si>
     <t xml:space="preserve">2.22553539276123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09269642829895</t>
+    <t xml:space="preserve">2.09269618988037</t>
   </si>
   <si>
     <t xml:space="preserve">2.14082646369934</t>
@@ -4124,10 +4124,10 @@
     <t xml:space="preserve">1.96178257465363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00221157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02531433105469</t>
+    <t xml:space="preserve">2.00221180915833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02531409263611</t>
   </si>
   <si>
     <t xml:space="preserve">2.04071569442749</t>
@@ -4145,19 +4145,19 @@
     <t xml:space="preserve">2.02723932266235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07922005653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08499526977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15237784385681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18125581741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22938585281372</t>
+    <t xml:space="preserve">2.07921981811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08499550819397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15237760543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18125557899475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22938561439514</t>
   </si>
   <si>
     <t xml:space="preserve">2.25441336631775</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">2.1389012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19473218917847</t>
+    <t xml:space="preserve">2.19473195075989</t>
   </si>
   <si>
     <t xml:space="preserve">2.18510603904724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15815329551697</t>
+    <t xml:space="preserve">2.15815353393555</t>
   </si>
   <si>
     <t xml:space="preserve">2.12157440185547</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">2.13697600364685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11964893341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40842962265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38147664070129</t>
+    <t xml:space="preserve">2.11964917182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40842986106873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38147687911987</t>
   </si>
   <si>
     <t xml:space="preserve">2.45463442802429</t>
@@ -4208,31 +4208,31 @@
     <t xml:space="preserve">2.47003602981567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51239037513733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55859565734863</t>
+    <t xml:space="preserve">2.51239061355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55859541893005</t>
   </si>
   <si>
     <t xml:space="preserve">2.51624131202698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55089473724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53934359550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52971768379211</t>
+    <t xml:space="preserve">2.55089497566223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53934335708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52971744537354</t>
   </si>
   <si>
     <t xml:space="preserve">2.53356790542603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49698901176453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48351240158081</t>
+    <t xml:space="preserve">2.49698925018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48351263999939</t>
   </si>
   <si>
     <t xml:space="preserve">2.44308352470398</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">2.31409478187561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36415004730225</t>
+    <t xml:space="preserve">2.36415028572083</t>
   </si>
   <si>
     <t xml:space="preserve">2.31216955184937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26981520652771</t>
+    <t xml:space="preserve">2.26981496810913</t>
   </si>
   <si>
     <t xml:space="preserve">2.33527207374573</t>
@@ -4286,16 +4286,16 @@
     <t xml:space="preserve">2.33719706535339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29869318008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26596450805664</t>
+    <t xml:space="preserve">2.29869294166565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26596474647522</t>
   </si>
   <si>
     <t xml:space="preserve">2.27366542816162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27559065818787</t>
+    <t xml:space="preserve">2.27559089660645</t>
   </si>
   <si>
     <t xml:space="preserve">2.3256459236145</t>
@@ -4304,16 +4304,16 @@
     <t xml:space="preserve">2.31987047195435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40265417098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37955141067505</t>
+    <t xml:space="preserve">2.40265393257141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37955164909363</t>
   </si>
   <si>
     <t xml:space="preserve">2.37570118904114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38532733917236</t>
+    <t xml:space="preserve">2.38532710075378</t>
   </si>
   <si>
     <t xml:space="preserve">2.43730783462524</t>
@@ -4328,16 +4328,16 @@
     <t xml:space="preserve">2.62597751617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59324932098389</t>
+    <t xml:space="preserve">2.59324908256531</t>
   </si>
   <si>
     <t xml:space="preserve">2.63560366630554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61442637443542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61827707290649</t>
+    <t xml:space="preserve">2.614426612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61827683448792</t>
   </si>
   <si>
     <t xml:space="preserve">2.60480070114136</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">2.60287523269653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5778477191925</t>
+    <t xml:space="preserve">2.57784748077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.66255664825439</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">2.61635160446167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54319405555725</t>
+    <t xml:space="preserve">2.54319381713867</t>
   </si>
   <si>
     <t xml:space="preserve">2.50661516189575</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">2.40457916259766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35837459564209</t>
+    <t xml:space="preserve">2.35837435722351</t>
   </si>
   <si>
     <t xml:space="preserve">2.43923282623291</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">2.46233558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46811079978943</t>
+    <t xml:space="preserve">2.46811103820801</t>
   </si>
   <si>
     <t xml:space="preserve">2.43538236618042</t>
@@ -5016,6 +5016,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.79200005531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86199998855591</t>
   </si>
 </sst>
 </file>
@@ -61153,7 +61156,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6495717593</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>914697</v>
@@ -61174,6 +61177,32 @@
         <v>1667</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6494675926</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>1207232</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>2.86400008201599</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>2.75999999046326</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>2.7739999294281</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>2.86199998855591</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="1670">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33549165725708</t>
+    <t xml:space="preserve">5.33549213409424</t>
   </si>
   <si>
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18833589553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04538249969482</t>
+    <t xml:space="preserve">5.18833541870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04538297653198</t>
   </si>
   <si>
     <t xml:space="preserve">4.91924810409546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99913311004639</t>
+    <t xml:space="preserve">4.99913358688354</t>
   </si>
   <si>
     <t xml:space="preserve">4.93186140060425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07060956954956</t>
+    <t xml:space="preserve">5.07061004638672</t>
   </si>
   <si>
     <t xml:space="preserve">5.23458385467529</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">4.96970176696777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8772029876709</t>
+    <t xml:space="preserve">4.87720251083374</t>
   </si>
   <si>
     <t xml:space="preserve">4.91083955764771</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">4.88981676101685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50300359725952</t>
+    <t xml:space="preserve">4.50300312042236</t>
   </si>
   <si>
     <t xml:space="preserve">4.47777700424194</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">4.80152225494385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72163677215576</t>
+    <t xml:space="preserve">4.72163724899292</t>
   </si>
   <si>
     <t xml:space="preserve">4.74265956878662</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76368236541748</t>
+    <t xml:space="preserve">4.76368188858032</t>
   </si>
   <si>
     <t xml:space="preserve">4.78049993515015</t>
@@ -101,28 +101,28 @@
     <t xml:space="preserve">4.70902442932129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90243005752563</t>
+    <t xml:space="preserve">4.90243053436279</t>
   </si>
   <si>
     <t xml:space="preserve">4.86459016799927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7847056388855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81413650512695</t>
+    <t xml:space="preserve">4.78470468521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81413602828979</t>
   </si>
   <si>
     <t xml:space="preserve">4.58288955688477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27175760269165</t>
+    <t xml:space="preserve">4.27175712585449</t>
   </si>
   <si>
     <t xml:space="preserve">4.26755285263062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53243589401245</t>
+    <t xml:space="preserve">4.53243541717529</t>
   </si>
   <si>
     <t xml:space="preserve">4.47357225418091</t>
@@ -131,16 +131,16 @@
     <t xml:space="preserve">4.64175224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55766248703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73425054550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73004579544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75106859207153</t>
+    <t xml:space="preserve">4.55766296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73425102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73004531860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75106811523438</t>
   </si>
   <si>
     <t xml:space="preserve">4.75527238845825</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">4.49039030075073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70061445236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83515882492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94867992401123</t>
+    <t xml:space="preserve">4.70061492919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83515977859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94867897033691</t>
   </si>
   <si>
     <t xml:space="preserve">4.99492883682251</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">4.77209138870239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79311418533325</t>
+    <t xml:space="preserve">4.79311370849609</t>
   </si>
   <si>
     <t xml:space="preserve">4.64595603942871</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">4.69220590591431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66277456283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54504871368408</t>
+    <t xml:space="preserve">4.66277503967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54504919052124</t>
   </si>
   <si>
     <t xml:space="preserve">4.36425590515137</t>
@@ -194,10 +194,10 @@
     <t xml:space="preserve">4.30539321899414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33062028884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40209531784058</t>
+    <t xml:space="preserve">4.33061981201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40209627151489</t>
   </si>
   <si>
     <t xml:space="preserve">4.46095943450928</t>
@@ -206,16 +206,16 @@
     <t xml:space="preserve">4.28857564926147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25914335250854</t>
+    <t xml:space="preserve">4.2591438293457</t>
   </si>
   <si>
     <t xml:space="preserve">4.56607055664062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4105052947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4861855506897</t>
+    <t xml:space="preserve">4.41050577163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48618602752686</t>
   </si>
   <si>
     <t xml:space="preserve">4.77629518508911</t>
@@ -227,16 +227,16 @@
     <t xml:space="preserve">4.81834077835083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76788711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83095407485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74686431884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78890991210938</t>
+    <t xml:space="preserve">4.76788663864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83095359802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74686479568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78890943527222</t>
   </si>
   <si>
     <t xml:space="preserve">4.82254457473755</t>
@@ -251,19 +251,19 @@
     <t xml:space="preserve">4.80572652816772</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92345237731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9823145866394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12947177886963</t>
+    <t xml:space="preserve">4.92345285415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98231554031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12947273254395</t>
   </si>
   <si>
     <t xml:space="preserve">5.1799259185791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10004138946533</t>
+    <t xml:space="preserve">5.10004043579102</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731309890747</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">5.20094871520996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04117870330811</t>
+    <t xml:space="preserve">5.04117822647095</t>
   </si>
   <si>
     <t xml:space="preserve">5.01849603652954</t>
@@ -296,52 +296,52 @@
     <t xml:space="preserve">4.73801279067993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74232769012451</t>
+    <t xml:space="preserve">4.74232721328735</t>
   </si>
   <si>
     <t xml:space="preserve">4.75527334213257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9063024520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88472700119019</t>
+    <t xml:space="preserve">4.90630197525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88472747802734</t>
   </si>
   <si>
     <t xml:space="preserve">4.81999969482422</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78116464614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58698320388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18049716949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3798565864563</t>
+    <t xml:space="preserve">4.78116416931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58698272705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18049764633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37985706329346</t>
   </si>
   <si>
     <t xml:space="preserve">4.49636602401733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51794004440308</t>
+    <t xml:space="preserve">4.51794052124023</t>
   </si>
   <si>
     <t xml:space="preserve">4.5567774772644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50931024551392</t>
+    <t xml:space="preserve">4.50931072235107</t>
   </si>
   <si>
     <t xml:space="preserve">4.35396528244019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33239078521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29269123077393</t>
+    <t xml:space="preserve">4.33239030838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29269075393677</t>
   </si>
   <si>
     <t xml:space="preserve">4.43595266342163</t>
@@ -350,22 +350,22 @@
     <t xml:space="preserve">4.41006231307983</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40143251419067</t>
+    <t xml:space="preserve">4.40143203735352</t>
   </si>
   <si>
     <t xml:space="preserve">4.40574741363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34965085983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28233528137207</t>
+    <t xml:space="preserve">4.34965133666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28233575820923</t>
   </si>
   <si>
     <t xml:space="preserve">4.3625955581665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41437768936157</t>
+    <t xml:space="preserve">4.41437721252441</t>
   </si>
   <si>
     <t xml:space="preserve">4.51362562179565</t>
@@ -377,43 +377,43 @@
     <t xml:space="preserve">4.45752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48342037200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63013505935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62581968307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53951597213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53088617324829</t>
+    <t xml:space="preserve">4.48341989517212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63013458251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62581920623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53951644897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53088665008545</t>
   </si>
   <si>
     <t xml:space="preserve">4.49205017089844</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50499534606934</t>
+    <t xml:space="preserve">4.50499582290649</t>
   </si>
   <si>
     <t xml:space="preserve">4.55246210098267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47910499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31340360641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41869306564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44026803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34533596038818</t>
+    <t xml:space="preserve">4.47910451889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31340408325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41869354248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44026756286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34533643722534</t>
   </si>
   <si>
     <t xml:space="preserve">4.28060817718506</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">4.23745727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22882699966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2719783782959</t>
+    <t xml:space="preserve">4.22882747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27197885513306</t>
   </si>
   <si>
     <t xml:space="preserve">4.44458389282227</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39711761474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32807540893555</t>
+    <t xml:space="preserve">4.39711713790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32807493209839</t>
   </si>
   <si>
     <t xml:space="preserve">4.3013219833374</t>
@@ -461,13 +461,13 @@
     <t xml:space="preserve">4.57403802871704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56540727615356</t>
+    <t xml:space="preserve">4.56540679931641</t>
   </si>
   <si>
     <t xml:space="preserve">4.56972217559814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52225589752197</t>
+    <t xml:space="preserve">4.52225637435913</t>
   </si>
   <si>
     <t xml:space="preserve">4.46615934371948</t>
@@ -476,43 +476,43 @@
     <t xml:space="preserve">4.42732334136963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38848638534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35828018188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31513071060181</t>
+    <t xml:space="preserve">4.38848686218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35828065872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31513023376465</t>
   </si>
   <si>
     <t xml:space="preserve">4.30995178222656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32376003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30477333068848</t>
+    <t xml:space="preserve">4.32375955581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30477380752563</t>
   </si>
   <si>
     <t xml:space="preserve">4.24263525009155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19430589675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29441738128662</t>
+    <t xml:space="preserve">4.19430637359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29441690444946</t>
   </si>
   <si>
     <t xml:space="preserve">4.37554168701172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28578662872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2167444229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24091005325317</t>
+    <t xml:space="preserve">4.2857871055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21674394607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24090957641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.22192335128784</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">4.26162195205688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29959487915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28751277923584</t>
+    <t xml:space="preserve">4.29959535598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28751230239868</t>
   </si>
   <si>
     <t xml:space="preserve">4.29096460342407</t>
@@ -539,46 +539,46 @@
     <t xml:space="preserve">4.2150182723999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26852560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25817012786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23573112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31944513320923</t>
+    <t xml:space="preserve">4.26852607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25817060470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23573064804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31944465637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.39280271530151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4877347946167</t>
+    <t xml:space="preserve">4.48773431777954</t>
   </si>
   <si>
     <t xml:space="preserve">4.45321369171143</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47479009628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2547173500061</t>
+    <t xml:space="preserve">4.4747896194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25471782684326</t>
   </si>
   <si>
     <t xml:space="preserve">4.25989580154419</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16323757171631</t>
+    <t xml:space="preserve">4.16323709487915</t>
   </si>
   <si>
     <t xml:space="preserve">4.14425039291382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12526369094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10455083847046</t>
+    <t xml:space="preserve">4.12526321411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10455131530762</t>
   </si>
   <si>
     <t xml:space="preserve">4.17359399795532</t>
@@ -587,34 +587,34 @@
     <t xml:space="preserve">4.16668939590454</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12699031829834</t>
+    <t xml:space="preserve">4.12698984146118</t>
   </si>
   <si>
     <t xml:space="preserve">4.18912792205811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23918437957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63876438140869</t>
+    <t xml:space="preserve">4.23918390274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63876390457153</t>
   </si>
   <si>
     <t xml:space="preserve">4.64307975769043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65171051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61287355422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54383134841919</t>
+    <t xml:space="preserve">4.65171003341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61287403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54383182525635</t>
   </si>
   <si>
     <t xml:space="preserve">4.53520107269287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58266830444336</t>
+    <t xml:space="preserve">4.58266878128052</t>
   </si>
   <si>
     <t xml:space="preserve">4.54814720153809</t>
@@ -623,13 +623,13 @@
     <t xml:space="preserve">4.5956130027771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59129810333252</t>
+    <t xml:space="preserve">4.59129762649536</t>
   </si>
   <si>
     <t xml:space="preserve">4.599928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72938299179077</t>
+    <t xml:space="preserve">4.72938251495361</t>
   </si>
   <si>
     <t xml:space="preserve">4.74664306640625</t>
@@ -638,25 +638,25 @@
     <t xml:space="preserve">4.66897010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80705451965332</t>
+    <t xml:space="preserve">4.80705499649048</t>
   </si>
   <si>
     <t xml:space="preserve">4.82431507110596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79410982131958</t>
+    <t xml:space="preserve">4.79410934448242</t>
   </si>
   <si>
     <t xml:space="preserve">4.77253341674805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69486093521118</t>
+    <t xml:space="preserve">4.69486141204834</t>
   </si>
   <si>
     <t xml:space="preserve">4.86746644973755</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96239995956421</t>
+    <t xml:space="preserve">4.96240043640137</t>
   </si>
   <si>
     <t xml:space="preserve">4.94945383071899</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">5.1091136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05733203887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08322286605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02281093597412</t>
+    <t xml:space="preserve">5.05733156204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08322238922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02281141281128</t>
   </si>
   <si>
     <t xml:space="preserve">5.06596279144287</t>
@@ -695,43 +695,43 @@
     <t xml:space="preserve">5.09185361862183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1522650718689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34644556045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31192493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18678569793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20836162567139</t>
+    <t xml:space="preserve">5.15226554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34644603729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31192541122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18678617477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20836114883423</t>
   </si>
   <si>
     <t xml:space="preserve">5.17815589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3421311378479</t>
+    <t xml:space="preserve">5.34213066101074</t>
   </si>
   <si>
     <t xml:space="preserve">5.19541692733765</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24288320541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35076141357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27308893203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.329185962677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38528251647949</t>
+    <t xml:space="preserve">5.24288272857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35076189041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27308940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32918548583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38528203964233</t>
   </si>
   <si>
     <t xml:space="preserve">5.54925680160522</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">5.50179052352905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3550763130188</t>
+    <t xml:space="preserve">5.35507678985596</t>
   </si>
   <si>
     <t xml:space="preserve">5.36370658874512</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">5.41980266571045</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5622034072876</t>
+    <t xml:space="preserve">5.56220293045044</t>
   </si>
   <si>
     <t xml:space="preserve">5.48884582519531</t>
@@ -767,25 +767,25 @@
     <t xml:space="preserve">5.48453044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56651830673218</t>
+    <t xml:space="preserve">5.56651782989502</t>
   </si>
   <si>
     <t xml:space="preserve">5.58377742767334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48021459579468</t>
+    <t xml:space="preserve">5.48021411895752</t>
   </si>
   <si>
     <t xml:space="preserve">5.47158479690552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49316072463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40685892105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37233638763428</t>
+    <t xml:space="preserve">5.49316024780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40685844421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37233591079712</t>
   </si>
   <si>
     <t xml:space="preserve">5.23856782913208</t>
@@ -797,16 +797,16 @@
     <t xml:space="preserve">5.28171873092651</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33480167388916</t>
+    <t xml:space="preserve">5.33480215072632</t>
   </si>
   <si>
     <t xml:space="preserve">5.67983865737915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71080255508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62675666809082</t>
+    <t xml:space="preserve">5.71080303192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62675619125366</t>
   </si>
   <si>
     <t xml:space="preserve">5.5913667678833</t>
@@ -815,28 +815,28 @@
     <t xml:space="preserve">5.66214418411255</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67099046707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6356029510498</t>
+    <t xml:space="preserve">5.67099094390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63560247421265</t>
   </si>
   <si>
     <t xml:space="preserve">5.65329742431641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58252048492432</t>
+    <t xml:space="preserve">5.58252000808716</t>
   </si>
   <si>
     <t xml:space="preserve">5.58694362640381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49404954910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4365439414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51174354553223</t>
+    <t xml:space="preserve">5.49405002593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43654346466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51174402236938</t>
   </si>
   <si>
     <t xml:space="preserve">5.53828573226929</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">5.56482553482056</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57367324829102</t>
+    <t xml:space="preserve">5.57367372512817</t>
   </si>
   <si>
     <t xml:space="preserve">5.48962640762329</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">5.52059078216553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48520278930664</t>
+    <t xml:space="preserve">5.48520231246948</t>
   </si>
   <si>
     <t xml:space="preserve">5.56040239334106</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">5.59579133987427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53386163711548</t>
+    <t xml:space="preserve">5.53386116027832</t>
   </si>
   <si>
     <t xml:space="preserve">5.61348485946655</t>
@@ -875,25 +875,25 @@
     <t xml:space="preserve">5.64887428283691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72407388687134</t>
+    <t xml:space="preserve">5.72407341003418</t>
   </si>
   <si>
     <t xml:space="preserve">5.69310903549194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71964979171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70195627212524</t>
+    <t xml:space="preserve">5.71965026855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7019567489624</t>
   </si>
   <si>
     <t xml:space="preserve">5.69753217697144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54270935058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62233304977417</t>
+    <t xml:space="preserve">5.54270887374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62233257293701</t>
   </si>
   <si>
     <t xml:space="preserve">5.56925010681152</t>
@@ -905,52 +905,52 @@
     <t xml:space="preserve">5.44096708297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41442584991455</t>
+    <t xml:space="preserve">5.41442537307739</t>
   </si>
   <si>
     <t xml:space="preserve">5.4586615562439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54713201522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64002656936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6179084777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6090612411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64444971084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81254482269287</t>
+    <t xml:space="preserve">5.54713153839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6400260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61790800094604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60906171798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64445018768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81254529953003</t>
   </si>
   <si>
     <t xml:space="preserve">5.86562776565552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92755746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852136611938</t>
+    <t xml:space="preserve">5.92755651473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852184295654</t>
   </si>
   <si>
     <t xml:space="preserve">6.02487564086914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94525194168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9054388999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76388549804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95409870147705</t>
+    <t xml:space="preserve">5.94525146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90543937683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76388597488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95409917831421</t>
   </si>
   <si>
     <t xml:space="preserve">6.01602792739868</t>
@@ -962,37 +962,37 @@
     <t xml:space="preserve">5.68868541717529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71522617340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70637989044189</t>
+    <t xml:space="preserve">5.71522665023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70638036727905</t>
   </si>
   <si>
     <t xml:space="preserve">5.55155563354492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60463809967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50289583206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.383460521698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17555332183838</t>
+    <t xml:space="preserve">5.60463762283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50289630889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38346099853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17555379867554</t>
   </si>
   <si>
     <t xml:space="preserve">5.19767189025879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10477685928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.087082862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13131761550903</t>
+    <t xml:space="preserve">5.10477638244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08708333969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13131809234619</t>
   </si>
   <si>
     <t xml:space="preserve">5.12247133255005</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">5.23748302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19324827194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15343618392944</t>
+    <t xml:space="preserve">5.1932487487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15343570709229</t>
   </si>
   <si>
     <t xml:space="preserve">5.16670703887939</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">5.14016532897949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09592962265015</t>
+    <t xml:space="preserve">5.0959300994873</t>
   </si>
   <si>
     <t xml:space="preserve">5.25075483322144</t>
@@ -1022,16 +1022,16 @@
     <t xml:space="preserve">5.21978950500488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06054162979126</t>
+    <t xml:space="preserve">5.06054210662842</t>
   </si>
   <si>
     <t xml:space="preserve">5.14901256561279</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11804819107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00303506851196</t>
+    <t xml:space="preserve">5.1180477142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0030345916748</t>
   </si>
   <si>
     <t xml:space="preserve">4.93668174743652</t>
@@ -1040,34 +1040,34 @@
     <t xml:space="preserve">4.97649335861206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94552850723267</t>
+    <t xml:space="preserve">4.94552898406982</t>
   </si>
   <si>
     <t xml:space="preserve">4.91014099121094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98091745376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94995260238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91456460952759</t>
+    <t xml:space="preserve">4.98091793060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94995212554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91456413269043</t>
   </si>
   <si>
     <t xml:space="preserve">4.99861145019531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07381200790405</t>
+    <t xml:space="preserve">5.07381248474121</t>
   </si>
   <si>
     <t xml:space="preserve">5.02957630157471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01188278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98976421356201</t>
+    <t xml:space="preserve">5.01188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98976469039917</t>
   </si>
   <si>
     <t xml:space="preserve">4.95437669754028</t>
@@ -1079,22 +1079,22 @@
     <t xml:space="preserve">5.21536540985107</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18440008163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1268949508667</t>
+    <t xml:space="preserve">5.18440055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12689447402954</t>
   </si>
   <si>
     <t xml:space="preserve">5.46750783920288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29498910903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31710720062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47635459899902</t>
+    <t xml:space="preserve">5.29498863220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3171067237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47635507583618</t>
   </si>
   <si>
     <t xml:space="preserve">5.40115451812744</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">4.87917613983154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86590480804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88802242279053</t>
+    <t xml:space="preserve">4.86590528488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88802289962769</t>
   </si>
   <si>
     <t xml:space="preserve">4.90571784973145</t>
@@ -1130,34 +1130,34 @@
     <t xml:space="preserve">4.8216700553894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80839920043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84821081161499</t>
+    <t xml:space="preserve">4.80839872360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84821128845215</t>
   </si>
   <si>
     <t xml:space="preserve">4.75531625747681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67126941680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70665740966797</t>
+    <t xml:space="preserve">4.67126893997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70665693283081</t>
   </si>
   <si>
     <t xml:space="preserve">4.7597393989563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73762178421021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78628063201904</t>
+    <t xml:space="preserve">4.73762226104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7862811088562</t>
   </si>
   <si>
     <t xml:space="preserve">4.83936309814453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86148166656494</t>
+    <t xml:space="preserve">4.86148118972778</t>
   </si>
   <si>
     <t xml:space="preserve">4.93225860595703</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">4.92341089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87032842636108</t>
+    <t xml:space="preserve">4.87032890319824</t>
   </si>
   <si>
     <t xml:space="preserve">4.83051681518555</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75089263916016</t>
+    <t xml:space="preserve">4.75089359283447</t>
   </si>
   <si>
     <t xml:space="preserve">4.70223379135132</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61818695068359</t>
+    <t xml:space="preserve">4.61818647384644</t>
   </si>
   <si>
     <t xml:space="preserve">4.64472770690918</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">4.4076247215271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39700937271118</t>
+    <t xml:space="preserve">4.39700889587402</t>
   </si>
   <si>
     <t xml:space="preserve">4.40231704711914</t>
@@ -1202,22 +1202,22 @@
     <t xml:space="preserve">4.34038734436035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39877796173096</t>
+    <t xml:space="preserve">4.39877843856812</t>
   </si>
   <si>
     <t xml:space="preserve">4.34569597244263</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37046766281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41647243499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42355108261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38816165924072</t>
+    <t xml:space="preserve">4.37046813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41647291183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42355060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38816118240356</t>
   </si>
   <si>
     <t xml:space="preserve">4.41470289230347</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">3.06463527679443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96731686592102</t>
+    <t xml:space="preserve">2.9673171043396</t>
   </si>
   <si>
     <t xml:space="preserve">3.09648513793945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12302660942078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1955726146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26281046867371</t>
+    <t xml:space="preserve">3.1230263710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19557285308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26281070709229</t>
   </si>
   <si>
     <t xml:space="preserve">3.35835886001587</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">3.33535671234131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34420371055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33004832267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36720657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36189794540405</t>
+    <t xml:space="preserve">3.34420347213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33004808425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36720633506775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36189818382263</t>
   </si>
   <si>
     <t xml:space="preserve">3.28758263587952</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">2.99208903312683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01863050460815</t>
+    <t xml:space="preserve">3.01863026618958</t>
   </si>
   <si>
     <t xml:space="preserve">2.90892672538757</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">2.70898151397705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6983654499054</t>
+    <t xml:space="preserve">2.69836568832397</t>
   </si>
   <si>
     <t xml:space="preserve">2.65943813323975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74260139465332</t>
+    <t xml:space="preserve">2.74260115623474</t>
   </si>
   <si>
     <t xml:space="preserve">2.64882135391235</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">2.66474652290344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65412974357605</t>
+    <t xml:space="preserve">2.65412950515747</t>
   </si>
   <si>
     <t xml:space="preserve">2.62581920623779</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">2.56211972236633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53734850883484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5001904964447</t>
+    <t xml:space="preserve">2.53734827041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50019025802612</t>
   </si>
   <si>
     <t xml:space="preserve">2.50726795196533</t>
@@ -1364,34 +1364,34 @@
     <t xml:space="preserve">2.43826103210449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43295240402222</t>
+    <t xml:space="preserve">2.4329526424408</t>
   </si>
   <si>
     <t xml:space="preserve">2.46126294136047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47364902496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49311256408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5054988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48957347869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49134349822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49488162994385</t>
+    <t xml:space="preserve">2.47364926338196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49311280250549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50549864768982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48957324028015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4913432598114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49488186836243</t>
   </si>
   <si>
     <t xml:space="preserve">2.38871669769287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35155916213989</t>
+    <t xml:space="preserve">2.35155940055847</t>
   </si>
   <si>
     <t xml:space="preserve">2.41525793075562</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.35686683654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36217546463013</t>
+    <t xml:space="preserve">2.36217522621155</t>
   </si>
   <si>
     <t xml:space="preserve">2.54265594482422</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">2.59396934509277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56742811203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45595455169678</t>
+    <t xml:space="preserve">2.56742835044861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45595479011536</t>
   </si>
   <si>
     <t xml:space="preserve">2.44533848762512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4824960231781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47010946273804</t>
+    <t xml:space="preserve">2.48249578475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47010970115662</t>
   </si>
   <si>
     <t xml:space="preserve">2.40818023681641</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">2.17638611793518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13038110733032</t>
+    <t xml:space="preserve">2.1303813457489</t>
   </si>
   <si>
     <t xml:space="preserve">2.09145379066467</t>
@@ -1463,34 +1463,34 @@
     <t xml:space="preserve">2.30024600028992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31086182594299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29493737220764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29670643806458</t>
+    <t xml:space="preserve">2.31086206436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29493761062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29670667648315</t>
   </si>
   <si>
     <t xml:space="preserve">2.28255152702332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28432059288025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24008560180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19938898086548</t>
+    <t xml:space="preserve">2.28432035446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24008584022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19938921928406</t>
   </si>
   <si>
     <t xml:space="preserve">2.2135443687439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22239089012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28785991668701</t>
+    <t xml:space="preserve">2.22239112854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28785967826843</t>
   </si>
   <si>
     <t xml:space="preserve">2.22062206268311</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">2.21531343460083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14453625679016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14630651473999</t>
+    <t xml:space="preserve">2.14453649520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14630675315857</t>
   </si>
   <si>
     <t xml:space="preserve">2.25070142745972</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">2.36925292015076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31617045402527</t>
+    <t xml:space="preserve">2.31617021560669</t>
   </si>
   <si>
     <t xml:space="preserve">2.24362397193909</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">2.19231152534485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18523383140564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11976528167725</t>
+    <t xml:space="preserve">2.18523406982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11976504325867</t>
   </si>
   <si>
     <t xml:space="preserve">2.117995262146</t>
@@ -1532,13 +1532,13 @@
     <t xml:space="preserve">2.10030150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06137418746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98705852031708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8614296913147</t>
+    <t xml:space="preserve">2.06137442588806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98705875873566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86142981052399</t>
   </si>
   <si>
     <t xml:space="preserve">1.7959611415863</t>
@@ -1547,37 +1547,37 @@
     <t xml:space="preserve">1.75172519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72518396377563</t>
+    <t xml:space="preserve">1.72518408298492</t>
   </si>
   <si>
     <t xml:space="preserve">1.72606897354126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59336245059967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57389879226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47923469543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39518737792969</t>
+    <t xml:space="preserve">1.59336256980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57389891147614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47923457622528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3951872587204</t>
   </si>
   <si>
     <t xml:space="preserve">1.36156833171844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34652817249298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32352614402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31821751594543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36599171161652</t>
+    <t xml:space="preserve">1.34652805328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32352602481842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31821763515472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36599183082581</t>
   </si>
   <si>
     <t xml:space="preserve">1.35183656215668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">1.38103199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39341807365417</t>
+    <t xml:space="preserve">1.39341819286346</t>
   </si>
   <si>
     <t xml:space="preserve">1.39076387882233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35979926586151</t>
+    <t xml:space="preserve">1.35979914665222</t>
   </si>
   <si>
     <t xml:space="preserve">1.35537576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41819024085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4314603805542</t>
+    <t xml:space="preserve">1.41819036006927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43146049976349</t>
   </si>
   <si>
     <t xml:space="preserve">1.3713002204895</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">1.37306940555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3164484500885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32618021965027</t>
+    <t xml:space="preserve">1.31644833087921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32618033885956</t>
   </si>
   <si>
     <t xml:space="preserve">1.34298980236053</t>
@@ -1631,52 +1631,52 @@
     <t xml:space="preserve">1.33237278461456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3350270986557</t>
+    <t xml:space="preserve">1.33502697944641</t>
   </si>
   <si>
     <t xml:space="preserve">1.44915497303009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45092403888702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44473159313202</t>
+    <t xml:space="preserve">1.45092415809631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44473147392273</t>
   </si>
   <si>
     <t xml:space="preserve">1.42526793479919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39253294467926</t>
+    <t xml:space="preserve">1.39253318309784</t>
   </si>
   <si>
     <t xml:space="preserve">1.42438280582428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32529520988464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31202518939972</t>
+    <t xml:space="preserve">1.32529509067535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31202507019043</t>
   </si>
   <si>
     <t xml:space="preserve">1.13154339790344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0191855430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04838120937347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.670609354972839</t>
+    <t xml:space="preserve">1.01918566226959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04838109016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.670609295368195</t>
   </si>
   <si>
     <t xml:space="preserve">0.744925737380981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746694922447205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913020312786102</t>
+    <t xml:space="preserve">0.746694982051849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913020372390747</t>
   </si>
   <si>
     <t xml:space="preserve">1.01476216316223</t>
@@ -1688,28 +1688,28 @@
     <t xml:space="preserve">0.898865103721619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967872083187103</t>
+    <t xml:space="preserve">0.967872202396393</t>
   </si>
   <si>
     <t xml:space="preserve">1.00060701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973180651664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9714115858078</t>
+    <t xml:space="preserve">0.973180532455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971411526203156</t>
   </si>
   <si>
     <t xml:space="preserve">1.06430542469025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21559178829193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18020272254944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1642781496048</t>
+    <t xml:space="preserve">1.21559166908264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18020260334015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16427826881409</t>
   </si>
   <si>
     <t xml:space="preserve">1.19878220558167</t>
@@ -1718,22 +1718,22 @@
     <t xml:space="preserve">1.16870164871216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09704041481018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07138323783875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07846081256866</t>
+    <t xml:space="preserve">1.09704029560089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07138311862946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07846069335938</t>
   </si>
   <si>
     <t xml:space="preserve">1.05811297893524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07580757141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07315325737</t>
+    <t xml:space="preserve">1.07580745220184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07315337657928</t>
   </si>
   <si>
     <t xml:space="preserve">1.1465836763382</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">1.16693246364594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19435799121857</t>
+    <t xml:space="preserve">1.19435787200928</t>
   </si>
   <si>
     <t xml:space="preserve">1.19612801074982</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">1.20408964157104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17931854724884</t>
+    <t xml:space="preserve">1.17931842803955</t>
   </si>
   <si>
     <t xml:space="preserve">1.16781651973724</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">1.12888920307159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09350121021271</t>
+    <t xml:space="preserve">1.09350109100342</t>
   </si>
   <si>
     <t xml:space="preserve">1.13419759273529</t>
@@ -1772,22 +1772,22 @@
     <t xml:space="preserve">1.12623584270477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07934594154358</t>
+    <t xml:space="preserve">1.07934582233429</t>
   </si>
   <si>
     <t xml:space="preserve">1.09615528583527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12800514698029</t>
+    <t xml:space="preserve">1.128005027771</t>
   </si>
   <si>
     <t xml:space="preserve">1.1952428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14923799037933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15100705623627</t>
+    <t xml:space="preserve">1.14923787117004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15100693702698</t>
   </si>
   <si>
     <t xml:space="preserve">1.13596773147583</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">1.17047071456909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14216029644012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1651623249054</t>
+    <t xml:space="preserve">1.14216017723083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16516220569611</t>
   </si>
   <si>
     <t xml:space="preserve">1.17843341827393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17577934265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2987539768219</t>
+    <t xml:space="preserve">1.17577922344208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29875385761261</t>
   </si>
   <si>
     <t xml:space="preserve">1.54824256896973</t>
@@ -1823,13 +1823,13 @@
     <t xml:space="preserve">1.4978141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44119226932526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40934240818024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37483942508698</t>
+    <t xml:space="preserve">1.44119238853455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40934252738953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37483954429626</t>
   </si>
   <si>
     <t xml:space="preserve">1.45446336269379</t>
@@ -1838,16 +1838,16 @@
     <t xml:space="preserve">1.46950280666351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40845847129822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43057548999786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43499982357025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40757346153259</t>
+    <t xml:space="preserve">1.40845835208893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43057537078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43499970436096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4075733423233</t>
   </si>
   <si>
     <t xml:space="preserve">1.44650077819824</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">1.45269334316254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4854279756546</t>
+    <t xml:space="preserve">1.48542809486389</t>
   </si>
   <si>
     <t xml:space="preserve">1.50312173366547</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">1.51285350322723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48277401924133</t>
+    <t xml:space="preserve">1.48277390003204</t>
   </si>
   <si>
     <t xml:space="preserve">1.45711672306061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47658026218414</t>
+    <t xml:space="preserve">1.47658038139343</t>
   </si>
   <si>
     <t xml:space="preserve">1.53939485549927</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">1.66767799854279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64467597007751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64290571212769</t>
+    <t xml:space="preserve">1.64467585086823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64290583133698</t>
   </si>
   <si>
     <t xml:space="preserve">1.60397946834564</t>
@@ -1913,31 +1913,31 @@
     <t xml:space="preserve">1.55797445774078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50135242938995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51904690265656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47038793563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46507930755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41111171245575</t>
+    <t xml:space="preserve">1.50135254859924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51904702186584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47038769721985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46507942676544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41111183166504</t>
   </si>
   <si>
     <t xml:space="preserve">1.44826996326447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42969131469727</t>
+    <t xml:space="preserve">1.42969143390656</t>
   </si>
   <si>
     <t xml:space="preserve">1.38014698028564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40049564838409</t>
+    <t xml:space="preserve">1.40049576759338</t>
   </si>
   <si>
     <t xml:space="preserve">1.39430224895477</t>
@@ -1952,19 +1952,19 @@
     <t xml:space="preserve">1.38810968399048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39695644378662</t>
+    <t xml:space="preserve">1.39695656299591</t>
   </si>
   <si>
     <t xml:space="preserve">1.36864602565765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36333751678467</t>
+    <t xml:space="preserve">1.36333763599396</t>
   </si>
   <si>
     <t xml:space="preserve">1.32441020011902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40580403804779</t>
+    <t xml:space="preserve">1.40580415725708</t>
   </si>
   <si>
     <t xml:space="preserve">1.3889946937561</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">1.42880618572235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4261519908905</t>
+    <t xml:space="preserve">1.42615187168121</t>
   </si>
   <si>
     <t xml:space="preserve">1.38457143306732</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">1.26248073577881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43853807449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40138077735901</t>
+    <t xml:space="preserve">1.4385381937027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4013808965683</t>
   </si>
   <si>
     <t xml:space="preserve">1.358029961586</t>
@@ -2006,28 +2006,28 @@
     <t xml:space="preserve">1.31379413604736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34918224811554</t>
+    <t xml:space="preserve">1.34918236732483</t>
   </si>
   <si>
     <t xml:space="preserve">1.33591210842133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40491902828217</t>
+    <t xml:space="preserve">1.40491914749146</t>
   </si>
   <si>
     <t xml:space="preserve">1.41730511188507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50931525230408</t>
+    <t xml:space="preserve">1.50931513309479</t>
   </si>
   <si>
     <t xml:space="preserve">1.56947541236877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58451569080353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59159338474274</t>
+    <t xml:space="preserve">1.58451581001282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59159326553345</t>
   </si>
   <si>
     <t xml:space="preserve">1.59247744083405</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">1.64025259017944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58009147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50046753883362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47569620609283</t>
+    <t xml:space="preserve">1.58009135723114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50046765804291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47569632530212</t>
   </si>
   <si>
     <t xml:space="preserve">1.47304201126099</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">1.50400674343109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4562326669693</t>
+    <t xml:space="preserve">1.45623254776001</t>
   </si>
   <si>
     <t xml:space="preserve">1.42792201042175</t>
@@ -2072,28 +2072,28 @@
     <t xml:space="preserve">1.40668833255768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37395453453064</t>
+    <t xml:space="preserve">1.37395441532135</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660872936249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37926280498505</t>
+    <t xml:space="preserve">1.37926292419434</t>
   </si>
   <si>
     <t xml:space="preserve">1.41199672222137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3403354883194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31556344032288</t>
+    <t xml:space="preserve">1.34033560752869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31556332111359</t>
   </si>
   <si>
     <t xml:space="preserve">1.47215700149536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45180928707123</t>
+    <t xml:space="preserve">1.45180916786194</t>
   </si>
   <si>
     <t xml:space="preserve">1.46684861183167</t>
@@ -2111,28 +2111,28 @@
     <t xml:space="preserve">1.57655310630798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58539974689484</t>
+    <t xml:space="preserve">1.58539986610413</t>
   </si>
   <si>
     <t xml:space="preserve">1.58982312679291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53320217132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48188889026642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63405895233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54735743999481</t>
+    <t xml:space="preserve">1.53320229053497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48188877105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63405907154083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5473575592041</t>
   </si>
   <si>
     <t xml:space="preserve">1.47392618656158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49338984489441</t>
+    <t xml:space="preserve">1.4933899641037</t>
   </si>
   <si>
     <t xml:space="preserve">1.49162077903748</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">1.41288185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40403401851654</t>
+    <t xml:space="preserve">1.40403413772583</t>
   </si>
   <si>
     <t xml:space="preserve">1.41642010211945</t>
@@ -2156,19 +2156,19 @@
     <t xml:space="preserve">1.44207727909088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4500390291214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53054797649384</t>
+    <t xml:space="preserve">1.45003914833069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53054809570312</t>
   </si>
   <si>
     <t xml:space="preserve">1.51993119716644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5526659488678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5588583946228</t>
+    <t xml:space="preserve">1.55266582965851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55885851383209</t>
   </si>
   <si>
     <t xml:space="preserve">1.55178093910217</t>
@@ -2177,22 +2177,22 @@
     <t xml:space="preserve">1.55974352359772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60132527351379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55708944797516</t>
+    <t xml:space="preserve">1.6013251543045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55708932876587</t>
   </si>
   <si>
     <t xml:space="preserve">1.58097636699677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61282622814178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63140475749969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.626096367836</t>
+    <t xml:space="preserve">1.61282634735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63140487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62609624862671</t>
   </si>
   <si>
     <t xml:space="preserve">1.69245004653931</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">1.68714165687561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7287232875824</t>
+    <t xml:space="preserve">1.72872316837311</t>
   </si>
   <si>
     <t xml:space="preserve">1.67829489707947</t>
@@ -2219,19 +2219,19 @@
     <t xml:space="preserve">1.65263772010803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63317394256592</t>
+    <t xml:space="preserve">1.63317406177521</t>
   </si>
   <si>
     <t xml:space="preserve">1.65086841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65883111953735</t>
+    <t xml:space="preserve">1.65883123874664</t>
   </si>
   <si>
     <t xml:space="preserve">1.65971529483795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68094897270203</t>
+    <t xml:space="preserve">1.68094909191132</t>
   </si>
   <si>
     <t xml:space="preserve">1.7473019361496</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">1.80834710597992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82073330879211</t>
+    <t xml:space="preserve">1.82073318958282</t>
   </si>
   <si>
     <t xml:space="preserve">1.83134913444519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81365549564362</t>
+    <t xml:space="preserve">1.81365561485291</t>
   </si>
   <si>
     <t xml:space="preserve">1.83488845825195</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">1.79242181777954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87027645111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85258209705353</t>
+    <t xml:space="preserve">1.87027657032013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85258197784424</t>
   </si>
   <si>
     <t xml:space="preserve">1.82250237464905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73580098152161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7039510011673</t>
+    <t xml:space="preserve">1.73580086231232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70395112037659</t>
   </si>
   <si>
     <t xml:space="preserve">1.78534424304962</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">1.76941978931427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78711426258087</t>
+    <t xml:space="preserve">1.78711438179016</t>
   </si>
   <si>
     <t xml:space="preserve">1.77472817897797</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">1.7110288143158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72076058387756</t>
+    <t xml:space="preserve">1.72076070308685</t>
   </si>
   <si>
     <t xml:space="preserve">1.70572030544281</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">1.73757004737854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71987569332123</t>
+    <t xml:space="preserve">1.71987557411194</t>
   </si>
   <si>
     <t xml:space="preserve">1.7048362493515</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">1.67121732234955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68537247180939</t>
+    <t xml:space="preserve">1.68537259101868</t>
   </si>
   <si>
     <t xml:space="preserve">1.65440785884857</t>
@@ -2330,16 +2330,16 @@
     <t xml:space="preserve">1.6986426115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69510424137115</t>
+    <t xml:space="preserve">1.69510436058044</t>
   </si>
   <si>
     <t xml:space="preserve">1.67917895317078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63671338558197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6384824514389</t>
+    <t xml:space="preserve">1.63671314716339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63848257064819</t>
   </si>
   <si>
     <t xml:space="preserve">1.67033219337463</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">1.522585272789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58274555206299</t>
+    <t xml:space="preserve">1.58274567127228</t>
   </si>
   <si>
     <t xml:space="preserve">1.57743811607361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55443513393402</t>
+    <t xml:space="preserve">1.55443501472473</t>
   </si>
   <si>
     <t xml:space="preserve">1.6022093296051</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">1.60663259029388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59867084026337</t>
+    <t xml:space="preserve">1.59867095947266</t>
   </si>
   <si>
     <t xml:space="preserve">1.57035946846008</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">1.30494737625122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25009477138519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23593938350677</t>
+    <t xml:space="preserve">1.2500946521759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23593950271606</t>
   </si>
   <si>
     <t xml:space="preserve">1.20320558547974</t>
@@ -2396,28 +2396,28 @@
     <t xml:space="preserve">1.08819258213043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988220989704132</t>
+    <t xml:space="preserve">0.988220930099487</t>
   </si>
   <si>
     <t xml:space="preserve">0.822779595851898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761735200881958</t>
+    <t xml:space="preserve">0.761735260486603</t>
   </si>
   <si>
     <t xml:space="preserve">0.736963093280792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579042375087738</t>
+    <t xml:space="preserve">0.579042315483093</t>
   </si>
   <si>
     <t xml:space="preserve">0.649819433689117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.550288915634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.634779095649719</t>
+    <t xml:space="preserve">0.55028885602951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634779155254364</t>
   </si>
   <si>
     <t xml:space="preserve">0.714845180511475</t>
@@ -2426,13 +2426,13 @@
     <t xml:space="preserve">0.767927765846252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743155598640442</t>
+    <t xml:space="preserve">0.743155658245087</t>
   </si>
   <si>
     <t xml:space="preserve">0.675033688545227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722807824611664</t>
+    <t xml:space="preserve">0.722807884216309</t>
   </si>
   <si>
     <t xml:space="preserve">0.72059565782547</t>
@@ -2444,16 +2444,16 @@
     <t xml:space="preserve">0.698920726776123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.681668221950531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698477685451508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681226193904877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6644167304039</t>
+    <t xml:space="preserve">0.681668281555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698477745056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681226253509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.664416790008545</t>
   </si>
   <si>
     <t xml:space="preserve">0.610892117023468</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">0.654684901237488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699804842472076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.684765517711639</t>
+    <t xml:space="preserve">0.699804902076721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.684765458106995</t>
   </si>
   <si>
     <t xml:space="preserve">0.689188897609711</t>
@@ -2477,19 +2477,19 @@
     <t xml:space="preserve">0.688303828239441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.678129911422729</t>
+    <t xml:space="preserve">0.678129971027374</t>
   </si>
   <si>
     <t xml:space="preserve">0.648492336273193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.65203070640564</t>
+    <t xml:space="preserve">0.652030646800995</t>
   </si>
   <si>
     <t xml:space="preserve">0.646280169487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641414701938629</t>
+    <t xml:space="preserve">0.641414761543274</t>
   </si>
   <si>
     <t xml:space="preserve">0.647165238857269</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">0.716614305973053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.693612337112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.680341184139252</t>
+    <t xml:space="preserve">0.693612277507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680341124534607</t>
   </si>
   <si>
     <t xml:space="preserve">0.679457068443298</t>
@@ -2516,25 +2516,25 @@
     <t xml:space="preserve">0.677687883377075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687419712543488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.707767486572266</t>
+    <t xml:space="preserve">0.687419772148132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.70776754617691</t>
   </si>
   <si>
     <t xml:space="preserve">0.688745856285095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.663531720638275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6458380818367</t>
+    <t xml:space="preserve">0.66353178024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.645838141441345</t>
   </si>
   <si>
     <t xml:space="preserve">0.641856789588928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.667071044445038</t>
+    <t xml:space="preserve">0.667070925235748</t>
   </si>
   <si>
     <t xml:space="preserve">0.632125020027161</t>
@@ -2543,10 +2543,10 @@
     <t xml:space="preserve">0.608679950237274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616200566291809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608237862586975</t>
+    <t xml:space="preserve">0.616200625896454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60823792219162</t>
   </si>
   <si>
     <t xml:space="preserve">0.637433409690857</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">0.667956054210663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769254922866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836050748825073</t>
+    <t xml:space="preserve">0.769254863262177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836050689220428</t>
   </si>
   <si>
     <t xml:space="preserve">0.808182239532471</t>
@@ -2576,43 +2576,43 @@
     <t xml:space="preserve">0.954602003097534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964333832263947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06519055366516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07049918174744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02626323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929829835891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979373097419739</t>
+    <t xml:space="preserve">0.964333772659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06519067287445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07049906253815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0262633562088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929829776287079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979373157024384</t>
   </si>
   <si>
     <t xml:space="preserve">0.980258285999298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993529260158539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976719915866852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944870173931122</t>
+    <t xml:space="preserve">0.993529379367828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976719975471497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944870114326477</t>
   </si>
   <si>
     <t xml:space="preserve">0.946639358997345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948408424854279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872323870658875</t>
+    <t xml:space="preserve">0.948408484458923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87232381105423</t>
   </si>
   <si>
     <t xml:space="preserve">0.827203929424286</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">0.873650968074799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.85374516248703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832069337368011</t>
+    <t xml:space="preserve">0.853745222091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832069396972656</t>
   </si>
   <si>
     <t xml:space="preserve">0.849763870239258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844897508621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849320888519287</t>
+    <t xml:space="preserve">0.844897449016571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849320828914642</t>
   </si>
   <si>
     <t xml:space="preserve">0.845782518386841</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">0.822337508201599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82853102684021</t>
+    <t xml:space="preserve">0.828531086444855</t>
   </si>
   <si>
     <t xml:space="preserve">0.811720609664917</t>
@@ -2651,10 +2651,10 @@
     <t xml:space="preserve">0.870111644268036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842686235904694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91478955745697</t>
+    <t xml:space="preserve">0.842686295509338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914789497852325</t>
   </si>
   <si>
     <t xml:space="preserve">0.905942738056183</t>
@@ -2663,31 +2663,31 @@
     <t xml:space="preserve">0.894441723823547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908596932888031</t>
+    <t xml:space="preserve">0.908596992492676</t>
   </si>
   <si>
     <t xml:space="preserve">0.885594010353088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884266972541809</t>
+    <t xml:space="preserve">0.884266912937164</t>
   </si>
   <si>
     <t xml:space="preserve">0.888248264789581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847551703453064</t>
+    <t xml:space="preserve">0.847551763057709</t>
   </si>
   <si>
     <t xml:space="preserve">0.819683253765106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836492717266083</t>
+    <t xml:space="preserve">0.836492776870728</t>
   </si>
   <si>
     <t xml:space="preserve">0.817472040653229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812605679035187</t>
+    <t xml:space="preserve">0.812605619430542</t>
   </si>
   <si>
     <t xml:space="preserve">0.821452438831329</t>
@@ -2705,19 +2705,19 @@
     <t xml:space="preserve">0.811278581619263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847993791103363</t>
+    <t xml:space="preserve">0.847993731498718</t>
   </si>
   <si>
     <t xml:space="preserve">0.857725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847109615802765</t>
+    <t xml:space="preserve">0.84710967540741</t>
   </si>
   <si>
     <t xml:space="preserve">0.826318860054016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816586971282959</t>
+    <t xml:space="preserve">0.816587030887604</t>
   </si>
   <si>
     <t xml:space="preserve">0.784737229347229</t>
@@ -2732,10 +2732,10 @@
     <t xml:space="preserve">0.724576950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731654584407806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733866810798645</t>
+    <t xml:space="preserve">0.731654644012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733866751194</t>
   </si>
   <si>
     <t xml:space="preserve">0.72634619474411</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">0.705998361110687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72236579656601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72811633348465</t>
+    <t xml:space="preserve">0.722365736961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.728116273880005</t>
   </si>
   <si>
     <t xml:space="preserve">0.725904107093811</t>
@@ -2762,34 +2762,34 @@
     <t xml:space="preserve">0.735635936260223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.738732278347015</t>
+    <t xml:space="preserve">0.738732218742371</t>
   </si>
   <si>
     <t xml:space="preserve">0.745367825031281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.739617347717285</t>
+    <t xml:space="preserve">0.73961728811264</t>
   </si>
   <si>
     <t xml:space="preserve">0.76394647359848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763062298297882</t>
+    <t xml:space="preserve">0.763062357902527</t>
   </si>
   <si>
     <t xml:space="preserve">0.786506414413452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813047707080841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760850131511688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757311761379242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828087985515594</t>
+    <t xml:space="preserve">0.813047766685486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760850191116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.757311820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828088045120239</t>
   </si>
   <si>
     <t xml:space="preserve">0.801989734172821</t>
@@ -2801,10 +2801,10 @@
     <t xml:space="preserve">0.843570351600647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874092996120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900634229183197</t>
+    <t xml:space="preserve">0.874093055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900634288787842</t>
   </si>
   <si>
     <t xml:space="preserve">0.911251187324524</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">0.89709597826004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909481108188629</t>
+    <t xml:space="preserve">0.909481167793274</t>
   </si>
   <si>
     <t xml:space="preserve">0.893556654453278</t>
@@ -2822,10 +2822,10 @@
     <t xml:space="preserve">0.923637270927429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902403473854065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905057668685913</t>
+    <t xml:space="preserve">0.90240353345871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905057728290558</t>
   </si>
   <si>
     <t xml:space="preserve">0.860822856426239</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">0.855514407157898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861264884471893</t>
+    <t xml:space="preserve">0.861264944076538</t>
   </si>
   <si>
     <t xml:space="preserve">0.877632260322571</t>
@@ -2846,10 +2846,10 @@
     <t xml:space="preserve">0.869227528572083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794027090072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752887487411499</t>
+    <t xml:space="preserve">0.794027030467987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.752887427806854</t>
   </si>
   <si>
     <t xml:space="preserve">0.693170249462128</t>
@@ -2861,10 +2861,10 @@
     <t xml:space="preserve">0.683438360691071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699362814426422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725018978118896</t>
+    <t xml:space="preserve">0.699362754821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725019037723541</t>
   </si>
   <si>
     <t xml:space="preserve">0.729885458946228</t>
@@ -2876,25 +2876,25 @@
     <t xml:space="preserve">0.830742239952087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834281504154205</t>
+    <t xml:space="preserve">0.83428156375885</t>
   </si>
   <si>
     <t xml:space="preserve">0.850647985935211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906827747821808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89532595872879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928944706916809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95371687412262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942215859889984</t>
+    <t xml:space="preserve">0.906827807426453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895325839519501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928944766521454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953716933727264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942215919494629</t>
   </si>
   <si>
     <t xml:space="preserve">0.939561665058136</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">0.94575423002243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955486118793488</t>
+    <t xml:space="preserve">0.955486178398132</t>
   </si>
   <si>
     <t xml:space="preserve">0.934253215789795</t>
@@ -2921,10 +2921,10 @@
     <t xml:space="preserve">0.919212937355042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890902519226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889133214950562</t>
+    <t xml:space="preserve">0.890902459621429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889133274555206</t>
   </si>
   <si>
     <t xml:space="preserve">0.891787528991699</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">0.899749279022217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924521327018738</t>
+    <t xml:space="preserve">0.924521386623383</t>
   </si>
   <si>
     <t xml:space="preserve">0.959910452365875</t>
@@ -2954,82 +2954,82 @@
     <t xml:space="preserve">1.01033878326416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0138772726059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02272498607635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03599512577057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01830065250397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989989995956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956371188163757</t>
+    <t xml:space="preserve">1.01387715339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02272486686707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03599500656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01830053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98999011516571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956371128559113</t>
   </si>
   <si>
     <t xml:space="preserve">0.926290512084961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903288543224335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918328821659088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930714845657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960794568061829</t>
+    <t xml:space="preserve">0.90328848361969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918328762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930714905261993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960794627666473</t>
   </si>
   <si>
     <t xml:space="preserve">0.986451804637909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975834846496582</t>
+    <t xml:space="preserve">0.975834786891937</t>
   </si>
   <si>
     <t xml:space="preserve">0.982027471065521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966988027095795</t>
+    <t xml:space="preserve">0.966988086700439</t>
   </si>
   <si>
     <t xml:space="preserve">1.00326120853424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952831864356995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984681665897369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994413614273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992644250392914</t>
+    <t xml:space="preserve">0.952831923961639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98468154668808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994413495063782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992644309997559</t>
   </si>
   <si>
     <t xml:space="preserve">0.9979527592659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997067749500275</t>
+    <t xml:space="preserve">0.99706768989563</t>
   </si>
   <si>
     <t xml:space="preserve">1.00237619876862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990875124931335</t>
+    <t xml:space="preserve">0.990875244140625</t>
   </si>
   <si>
     <t xml:space="preserve">1.03334081172943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21470665931702</t>
+    <t xml:space="preserve">1.21470654010773</t>
   </si>
   <si>
     <t xml:space="preserve">1.25982654094696</t>
@@ -3038,25 +3038,25 @@
     <t xml:space="preserve">1.24301695823669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22886192798615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22620761394501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24124801158905</t>
+    <t xml:space="preserve">1.22886180877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22620749473572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24124789237976</t>
   </si>
   <si>
     <t xml:space="preserve">1.20585978031158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17489409446716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17666435241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17224085330963</t>
+    <t xml:space="preserve">1.17489421367645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1766642332077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17224073410034</t>
   </si>
   <si>
     <t xml:space="preserve">1.1775484085083</t>
@@ -3065,19 +3065,19 @@
     <t xml:space="preserve">1.19789707660675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18728029727936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23240113258362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2129373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18108773231506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17312490940094</t>
+    <t xml:space="preserve">1.18728017807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23240125179291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21293747425079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18108761310577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17312502861023</t>
   </si>
   <si>
     <t xml:space="preserve">1.45888674259186</t>
@@ -3104,28 +3104,28 @@
     <t xml:space="preserve">1.4801197052002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52347040176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56416690349579</t>
+    <t xml:space="preserve">1.52347052097321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5641667842865</t>
   </si>
   <si>
     <t xml:space="preserve">1.54558825492859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52612459659576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51816201210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56859040260315</t>
+    <t xml:space="preserve">1.52612471580505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51816189289093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56859028339386</t>
   </si>
   <si>
     <t xml:space="preserve">1.49692916870117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5101991891861</t>
+    <t xml:space="preserve">1.51019930839539</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183314800262</t>
@@ -3134,31 +3134,31 @@
     <t xml:space="preserve">1.64202165603638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72252976894379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70749032497406</t>
+    <t xml:space="preserve">1.72252988815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70749044418335</t>
   </si>
   <si>
     <t xml:space="preserve">1.71633720397949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71545219421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7234148979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70925962924957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54293417930603</t>
+    <t xml:space="preserve">1.71545207500458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72341477870941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70925951004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54293406009674</t>
   </si>
   <si>
     <t xml:space="preserve">1.48100471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42261362075806</t>
+    <t xml:space="preserve">1.42261373996735</t>
   </si>
   <si>
     <t xml:space="preserve">1.43676888942719</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">1.43942308425903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44561564922333</t>
+    <t xml:space="preserve">1.44561576843262</t>
   </si>
   <si>
     <t xml:space="preserve">1.48572742938995</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">1.47634184360504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47446477413177</t>
+    <t xml:space="preserve">1.47446489334106</t>
   </si>
   <si>
     <t xml:space="preserve">1.41252040863037</t>
@@ -3194,16 +3194,16 @@
     <t xml:space="preserve">1.57864415645599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773932933807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62275612354279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67813062667847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61900198459625</t>
+    <t xml:space="preserve">1.60773921012878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6227560043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67813050746918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61900186538696</t>
   </si>
   <si>
     <t xml:space="preserve">1.6405885219574</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">1.63589584827423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62932586669922</t>
+    <t xml:space="preserve">1.62932598590851</t>
   </si>
   <si>
     <t xml:space="preserve">1.65091252326965</t>
@@ -3224,16 +3224,16 @@
     <t xml:space="preserve">1.71004140377045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70159447193146</t>
+    <t xml:space="preserve">1.70159435272217</t>
   </si>
   <si>
     <t xml:space="preserve">1.66217529773712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282341957092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69877862930298</t>
+    <t xml:space="preserve">1.68282330036163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69877874851227</t>
   </si>
   <si>
     <t xml:space="preserve">1.73256659507751</t>
@@ -3242,37 +3242,37 @@
     <t xml:space="preserve">1.72130393981934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70816421508789</t>
+    <t xml:space="preserve">1.70816433429718</t>
   </si>
   <si>
     <t xml:space="preserve">1.67719197273254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60867786407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61055481433868</t>
+    <t xml:space="preserve">1.60867774486542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61055493354797</t>
   </si>
   <si>
     <t xml:space="preserve">1.58145976066589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58615255355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61524760723114</t>
+    <t xml:space="preserve">1.58615267276764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61524748802185</t>
   </si>
   <si>
     <t xml:space="preserve">1.59647655487061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58990681171417</t>
+    <t xml:space="preserve">1.58990669250488</t>
   </si>
   <si>
     <t xml:space="preserve">1.63120305538177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62087905406952</t>
+    <t xml:space="preserve">1.62087893486023</t>
   </si>
   <si>
     <t xml:space="preserve">1.64528131484985</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">1.5523647069931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50825273990631</t>
+    <t xml:space="preserve">1.50825262069702</t>
   </si>
   <si>
     <t xml:space="preserve">1.53265511989594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55330312252045</t>
+    <t xml:space="preserve">1.55330324172974</t>
   </si>
   <si>
     <t xml:space="preserve">1.71379554271698</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">2.00850081443787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10047888755798</t>
+    <t xml:space="preserve">2.10047912597656</t>
   </si>
   <si>
     <t xml:space="preserve">2.15679216384888</t>
@@ -3329,13 +3329,13 @@
     <t xml:space="preserve">2.21498227119446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29945182800293</t>
+    <t xml:space="preserve">2.29945206642151</t>
   </si>
   <si>
     <t xml:space="preserve">2.07607650756836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00099229812622</t>
+    <t xml:space="preserve">2.0009925365448</t>
   </si>
   <si>
     <t xml:space="preserve">2.07795381546021</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">2.13802123069763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23375368118286</t>
+    <t xml:space="preserve">2.2337532043457</t>
   </si>
   <si>
     <t xml:space="preserve">2.1980881690979</t>
@@ -3362,16 +3362,16 @@
     <t xml:space="preserve">2.25252461433411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30696034431458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29194331169128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30508351325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31071448326111</t>
+    <t xml:space="preserve">2.306960105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29194355010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30508327484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31071424484253</t>
   </si>
   <si>
     <t xml:space="preserve">2.37641334533691</t>
@@ -3380,10 +3380,10 @@
     <t xml:space="preserve">2.30883741378784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24877023696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27317237854004</t>
+    <t xml:space="preserve">2.24876999855042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27317214012146</t>
   </si>
   <si>
     <t xml:space="preserve">2.32760858535767</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">2.44211173057556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42146372795105</t>
+    <t xml:space="preserve">2.42146348953247</t>
   </si>
   <si>
     <t xml:space="preserve">2.45712852478027</t>
@@ -3404,10 +3404,10 @@
     <t xml:space="preserve">2.56036925315857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59040284156799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52470469474792</t>
+    <t xml:space="preserve">2.59040307998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52470445632935</t>
   </si>
   <si>
     <t xml:space="preserve">2.60917377471924</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">2.620436668396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66173267364502</t>
+    <t xml:space="preserve">2.6617329120636</t>
   </si>
   <si>
     <t xml:space="preserve">2.65797853469849</t>
@@ -3440,19 +3440,19 @@
     <t xml:space="preserve">2.51907300949097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34074807167053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53033590316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62606811523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63920783996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71241497993469</t>
+    <t xml:space="preserve">2.34074831008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53033566474915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6260678768158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63920760154724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71241474151611</t>
   </si>
   <si>
     <t xml:space="preserve">2.81377816200256</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">2.78749895095825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81002402305603</t>
+    <t xml:space="preserve">2.81002426147461</t>
   </si>
   <si>
     <t xml:space="preserve">2.74995684623718</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">2.41770935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41020131111145</t>
+    <t xml:space="preserve">2.41020083427429</t>
   </si>
   <si>
     <t xml:space="preserve">2.39330697059631</t>
@@ -3494,10 +3494,10 @@
     <t xml:space="preserve">2.44586586952209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4139552116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42334055900574</t>
+    <t xml:space="preserve">2.41395545005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42334079742432</t>
   </si>
   <si>
     <t xml:space="preserve">2.40269255638123</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">2.44398903846741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37265920639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27692675590515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28818917274475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30320596694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26566386222839</t>
+    <t xml:space="preserve">2.3726589679718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27692699432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28818941116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30320620536804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26566410064697</t>
   </si>
   <si>
     <t xml:space="preserve">2.28443503379822</t>
@@ -3530,22 +3530,22 @@
     <t xml:space="preserve">2.17931723594666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29757475852966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32573127746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26190996170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53409004211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53596711158752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18870258331299</t>
+    <t xml:space="preserve">2.29757452011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3257315158844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26191020011902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53408980369568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53596687316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18870306015015</t>
   </si>
   <si>
     <t xml:space="preserve">2.11174154281616</t>
@@ -3557,10 +3557,10 @@
     <t xml:space="preserve">2.24501585960388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21873664855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13238954544067</t>
+    <t xml:space="preserve">2.21873641014099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13238978385925</t>
   </si>
   <si>
     <t xml:space="preserve">2.20371961593628</t>
@@ -3578,13 +3578,13 @@
     <t xml:space="preserve">2.04604291915894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13426685333252</t>
+    <t xml:space="preserve">2.13426661491394</t>
   </si>
   <si>
     <t xml:space="preserve">2.12300419807434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97846710681915</t>
+    <t xml:space="preserve">1.97846722602844</t>
   </si>
   <si>
     <t xml:space="preserve">2.01413226127625</t>
@@ -3599,10 +3599,10 @@
     <t xml:space="preserve">1.6556054353714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6612366437912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7794942855835</t>
+    <t xml:space="preserve">1.66123676300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77949440479279</t>
   </si>
   <si>
     <t xml:space="preserve">1.6734379529953</t>
@@ -3623,34 +3623,34 @@
     <t xml:space="preserve">1.83956158161163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83674585819244</t>
+    <t xml:space="preserve">1.83674597740173</t>
   </si>
   <si>
     <t xml:space="preserve">1.80765080451965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74852204322815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76447749137878</t>
+    <t xml:space="preserve">1.74852216243744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76447737216949</t>
   </si>
   <si>
     <t xml:space="preserve">1.77855563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83017599582672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97471296787262</t>
+    <t xml:space="preserve">1.83017611503601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9747132062912</t>
   </si>
   <si>
     <t xml:space="preserve">1.94280219078064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84894704818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89024329185486</t>
+    <t xml:space="preserve">1.84894716739655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89024317264557</t>
   </si>
   <si>
     <t xml:space="preserve">1.86677944660187</t>
@@ -3662,13 +3662,13 @@
     <t xml:space="preserve">1.76917016506195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73819804191589</t>
+    <t xml:space="preserve">1.7381979227066</t>
   </si>
   <si>
     <t xml:space="preserve">1.69596314430237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71567249298096</t>
+    <t xml:space="preserve">1.71567261219025</t>
   </si>
   <si>
     <t xml:space="preserve">1.81140506267548</t>
@@ -3677,28 +3677,28 @@
     <t xml:space="preserve">1.80108094215393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77761721611023</t>
+    <t xml:space="preserve">1.77761709690094</t>
   </si>
   <si>
     <t xml:space="preserve">1.72599673271179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73632085323334</t>
+    <t xml:space="preserve">1.73632097244263</t>
   </si>
   <si>
     <t xml:space="preserve">1.72693526744843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70441007614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71661126613617</t>
+    <t xml:space="preserve">1.70441019535065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71661138534546</t>
   </si>
   <si>
     <t xml:space="preserve">1.64246571063995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54954898357391</t>
+    <t xml:space="preserve">1.5495491027832</t>
   </si>
   <si>
     <t xml:space="preserve">1.56644296646118</t>
@@ -3707,13 +3707,13 @@
     <t xml:space="preserve">1.63308012485504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70347154140472</t>
+    <t xml:space="preserve">1.70347142219543</t>
   </si>
   <si>
     <t xml:space="preserve">1.68376195430756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74195206165314</t>
+    <t xml:space="preserve">1.74195218086243</t>
   </si>
   <si>
     <t xml:space="preserve">1.7025328874588</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">1.61149346828461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72787392139435</t>
+    <t xml:space="preserve">1.72787380218506</t>
   </si>
   <si>
     <t xml:space="preserve">1.74476778507233</t>
@@ -3737,37 +3737,37 @@
     <t xml:space="preserve">1.82454478740692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79075694084167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81797480583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88648915290833</t>
+    <t xml:space="preserve">1.7907567024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8179749250412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88648903369904</t>
   </si>
   <si>
     <t xml:space="preserve">1.95406484603882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91464567184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90526020526886</t>
+    <t xml:space="preserve">1.91464555263519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90526008605957</t>
   </si>
   <si>
     <t xml:space="preserve">1.90150594711304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75603044033051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54204058647156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50262129306793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55171418190002</t>
+    <t xml:space="preserve">1.75603055953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54204070568085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50262141227722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55171406269073</t>
   </si>
   <si>
     <t xml:space="preserve">1.56422793865204</t>
@@ -3779,16 +3779,16 @@
     <t xml:space="preserve">1.54401326179504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56326520442963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5218733549118</t>
+    <t xml:space="preserve">1.56326532363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52187347412109</t>
   </si>
   <si>
     <t xml:space="preserve">1.56134009361267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56904101371765</t>
+    <t xml:space="preserve">1.56904089450836</t>
   </si>
   <si>
     <t xml:space="preserve">1.4978084564209</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">1.46026682853699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37844586372375</t>
+    <t xml:space="preserve">1.37844574451447</t>
   </si>
   <si>
     <t xml:space="preserve">1.40636122226715</t>
@@ -3818,10 +3818,10 @@
     <t xml:space="preserve">1.39288485050201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36015629768372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3553432226181</t>
+    <t xml:space="preserve">1.36015641689301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35534334182739</t>
   </si>
   <si>
     <t xml:space="preserve">1.38614666461945</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">1.43812704086304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4371645450592</t>
+    <t xml:space="preserve">1.43716442584991</t>
   </si>
   <si>
     <t xml:space="preserve">1.37363278865814</t>
@@ -3857,13 +3857,13 @@
     <t xml:space="preserve">1.51128482818604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48433196544647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5295741558075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55652701854706</t>
+    <t xml:space="preserve">1.48433208465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52957427501678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55652713775635</t>
   </si>
   <si>
     <t xml:space="preserve">1.545938372612</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">1.58347988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57674181461334</t>
+    <t xml:space="preserve">1.57674169540405</t>
   </si>
   <si>
     <t xml:space="preserve">1.60561978816986</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">1.49492049217224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42657577991486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42272555828094</t>
+    <t xml:space="preserve">1.42657589912415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42272543907166</t>
   </si>
   <si>
     <t xml:space="preserve">1.45449137687683</t>
@@ -3914,16 +3914,16 @@
     <t xml:space="preserve">1.44293999671936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47470593452454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41502475738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43235146999359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45064079761505</t>
+    <t xml:space="preserve">1.47470581531525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41502463817596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43235158920288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45064091682434</t>
   </si>
   <si>
     <t xml:space="preserve">1.44005239009857</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">1.51994824409485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50069630146027</t>
+    <t xml:space="preserve">1.50069618225098</t>
   </si>
   <si>
     <t xml:space="preserve">1.55556452274323</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">1.49588322639465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48144423961639</t>
+    <t xml:space="preserve">1.4814441204071</t>
   </si>
   <si>
     <t xml:space="preserve">1.80680358409882</t>
@@ -3956,19 +3956,19 @@
     <t xml:space="preserve">1.67781496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67203938961029</t>
+    <t xml:space="preserve">1.672039270401</t>
   </si>
   <si>
     <t xml:space="preserve">1.68551576137543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567517280579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58829283714294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64989948272705</t>
+    <t xml:space="preserve">1.6556750535965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58829295635223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64989936351776</t>
   </si>
   <si>
     <t xml:space="preserve">1.64412379264832</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">1.62390923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68936622142792</t>
+    <t xml:space="preserve">1.68936610221863</t>
   </si>
   <si>
     <t xml:space="preserve">1.68840348720551</t>
@@ -4007,22 +4007,22 @@
     <t xml:space="preserve">1.75674831867218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7577109336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76926207542419</t>
+    <t xml:space="preserve">1.75771081447601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76926219463348</t>
   </si>
   <si>
     <t xml:space="preserve">1.86744749546051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89825069904327</t>
+    <t xml:space="preserve">1.89825081825256</t>
   </si>
   <si>
     <t xml:space="preserve">1.89440035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83279383182526</t>
+    <t xml:space="preserve">1.83279395103455</t>
   </si>
   <si>
     <t xml:space="preserve">1.81931746006012</t>
@@ -4031,31 +4031,31 @@
     <t xml:space="preserve">1.82894337177277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87611091136932</t>
+    <t xml:space="preserve">1.87611079216003</t>
   </si>
   <si>
     <t xml:space="preserve">1.83375644683838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85493361949921</t>
+    <t xml:space="preserve">1.8549337387085</t>
   </si>
   <si>
     <t xml:space="preserve">1.89343774318695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95793187618256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97718405723572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98295962810516</t>
+    <t xml:space="preserve">1.95793211460114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97718393802643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98295950889587</t>
   </si>
   <si>
     <t xml:space="preserve">2.01183772087097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04841661453247</t>
+    <t xml:space="preserve">2.04841685295105</t>
   </si>
   <si>
     <t xml:space="preserve">2.05996775627136</t>
@@ -4082,16 +4082,16 @@
     <t xml:space="preserve">2.09077095985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10809779167175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16585397720337</t>
+    <t xml:space="preserve">2.10809803009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16585421562195</t>
   </si>
   <si>
     <t xml:space="preserve">2.26018905639648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28136610984802</t>
+    <t xml:space="preserve">2.2813663482666</t>
   </si>
   <si>
     <t xml:space="preserve">2.24863767623901</t>
@@ -4109,13 +4109,13 @@
     <t xml:space="preserve">2.23516130447388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22746062278748</t>
+    <t xml:space="preserve">2.2274603843689</t>
   </si>
   <si>
     <t xml:space="preserve">2.22553539276123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09269618988037</t>
+    <t xml:space="preserve">2.09269642829895</t>
   </si>
   <si>
     <t xml:space="preserve">2.14082646369934</t>
@@ -4124,10 +4124,10 @@
     <t xml:space="preserve">1.96178257465363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00221180915833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02531409263611</t>
+    <t xml:space="preserve">2.00221157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02531433105469</t>
   </si>
   <si>
     <t xml:space="preserve">2.04071569442749</t>
@@ -4145,19 +4145,19 @@
     <t xml:space="preserve">2.02723932266235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07921981811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08499550819397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15237760543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18125557899475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22938561439514</t>
+    <t xml:space="preserve">2.07922005653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08499526977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15237784385681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18125581741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22938585281372</t>
   </si>
   <si>
     <t xml:space="preserve">2.25441336631775</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">2.1389012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19473195075989</t>
+    <t xml:space="preserve">2.19473218917847</t>
   </si>
   <si>
     <t xml:space="preserve">2.18510603904724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15815353393555</t>
+    <t xml:space="preserve">2.15815329551697</t>
   </si>
   <si>
     <t xml:space="preserve">2.12157440185547</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">2.13697600364685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11964917182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40842986106873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38147687911987</t>
+    <t xml:space="preserve">2.11964893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40842962265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38147664070129</t>
   </si>
   <si>
     <t xml:space="preserve">2.45463442802429</t>
@@ -4208,31 +4208,31 @@
     <t xml:space="preserve">2.47003602981567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51239061355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55859541893005</t>
+    <t xml:space="preserve">2.51239037513733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55859565734863</t>
   </si>
   <si>
     <t xml:space="preserve">2.51624131202698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55089497566223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53934335708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52971744537354</t>
+    <t xml:space="preserve">2.55089473724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53934359550476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52971768379211</t>
   </si>
   <si>
     <t xml:space="preserve">2.53356790542603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49698925018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48351263999939</t>
+    <t xml:space="preserve">2.49698901176453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48351240158081</t>
   </si>
   <si>
     <t xml:space="preserve">2.44308352470398</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">2.31409478187561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36415028572083</t>
+    <t xml:space="preserve">2.36415004730225</t>
   </si>
   <si>
     <t xml:space="preserve">2.31216955184937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26981496810913</t>
+    <t xml:space="preserve">2.26981520652771</t>
   </si>
   <si>
     <t xml:space="preserve">2.33527207374573</t>
@@ -4286,16 +4286,16 @@
     <t xml:space="preserve">2.33719706535339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29869294166565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26596474647522</t>
+    <t xml:space="preserve">2.29869318008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26596450805664</t>
   </si>
   <si>
     <t xml:space="preserve">2.27366542816162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27559089660645</t>
+    <t xml:space="preserve">2.27559065818787</t>
   </si>
   <si>
     <t xml:space="preserve">2.3256459236145</t>
@@ -4304,16 +4304,16 @@
     <t xml:space="preserve">2.31987047195435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40265393257141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37955164909363</t>
+    <t xml:space="preserve">2.40265417098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37955141067505</t>
   </si>
   <si>
     <t xml:space="preserve">2.37570118904114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38532710075378</t>
+    <t xml:space="preserve">2.38532733917236</t>
   </si>
   <si>
     <t xml:space="preserve">2.43730783462524</t>
@@ -4328,16 +4328,16 @@
     <t xml:space="preserve">2.62597751617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59324908256531</t>
+    <t xml:space="preserve">2.59324932098389</t>
   </si>
   <si>
     <t xml:space="preserve">2.63560366630554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.614426612854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61827683448792</t>
+    <t xml:space="preserve">2.61442637443542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61827707290649</t>
   </si>
   <si>
     <t xml:space="preserve">2.60480070114136</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">2.60287523269653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57784748077393</t>
+    <t xml:space="preserve">2.5778477191925</t>
   </si>
   <si>
     <t xml:space="preserve">2.66255664825439</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">2.61635160446167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54319381713867</t>
+    <t xml:space="preserve">2.54319405555725</t>
   </si>
   <si>
     <t xml:space="preserve">2.50661516189575</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">2.40457916259766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35837435722351</t>
+    <t xml:space="preserve">2.35837459564209</t>
   </si>
   <si>
     <t xml:space="preserve">2.43923282623291</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">2.46233558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46811103820801</t>
+    <t xml:space="preserve">2.46811079978943</t>
   </si>
   <si>
     <t xml:space="preserve">2.43538236618042</t>
@@ -5019,6 +5019,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.86199998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82800006866455</t>
   </si>
 </sst>
 </file>
@@ -61182,7 +61185,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6494675926</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>1207232</v>
@@ -61203,6 +61206,32 @@
         <v>1668</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6494560185</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>622314</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>2.85800004005432</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>2.78600001335144</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>2.83599996566772</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>2.82800006866455</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33549213409424</t>
+    <t xml:space="preserve">5.33549165725708</t>
   </si>
   <si>
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18833541870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04538297653198</t>
+    <t xml:space="preserve">5.18833589553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04538249969482</t>
   </si>
   <si>
     <t xml:space="preserve">4.91924810409546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99913358688354</t>
+    <t xml:space="preserve">4.99913311004639</t>
   </si>
   <si>
     <t xml:space="preserve">4.93186140060425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07061004638672</t>
+    <t xml:space="preserve">5.07060956954956</t>
   </si>
   <si>
     <t xml:space="preserve">5.23458385467529</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">4.96970176696777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87720251083374</t>
+    <t xml:space="preserve">4.8772029876709</t>
   </si>
   <si>
     <t xml:space="preserve">4.91083955764771</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">4.88981676101685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50300312042236</t>
+    <t xml:space="preserve">4.50300359725952</t>
   </si>
   <si>
     <t xml:space="preserve">4.47777700424194</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">4.80152225494385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72163724899292</t>
+    <t xml:space="preserve">4.72163677215576</t>
   </si>
   <si>
     <t xml:space="preserve">4.74265956878662</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76368188858032</t>
+    <t xml:space="preserve">4.76368236541748</t>
   </si>
   <si>
     <t xml:space="preserve">4.78049993515015</t>
@@ -101,28 +101,28 @@
     <t xml:space="preserve">4.70902442932129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90243053436279</t>
+    <t xml:space="preserve">4.90243005752563</t>
   </si>
   <si>
     <t xml:space="preserve">4.86459016799927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78470468521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81413602828979</t>
+    <t xml:space="preserve">4.7847056388855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81413650512695</t>
   </si>
   <si>
     <t xml:space="preserve">4.58288955688477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27175712585449</t>
+    <t xml:space="preserve">4.27175760269165</t>
   </si>
   <si>
     <t xml:space="preserve">4.26755285263062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53243541717529</t>
+    <t xml:space="preserve">4.53243589401245</t>
   </si>
   <si>
     <t xml:space="preserve">4.47357225418091</t>
@@ -131,16 +131,16 @@
     <t xml:space="preserve">4.64175224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73004531860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75106811523438</t>
+    <t xml:space="preserve">4.55766248703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73425054550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73004579544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75106859207153</t>
   </si>
   <si>
     <t xml:space="preserve">4.75527238845825</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">4.49039030075073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70061492919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83515977859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94867897033691</t>
+    <t xml:space="preserve">4.70061445236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83515882492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94867992401123</t>
   </si>
   <si>
     <t xml:space="preserve">4.99492883682251</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">4.77209138870239</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79311370849609</t>
+    <t xml:space="preserve">4.79311418533325</t>
   </si>
   <si>
     <t xml:space="preserve">4.64595603942871</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">4.69220590591431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66277503967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54504919052124</t>
+    <t xml:space="preserve">4.66277456283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54504871368408</t>
   </si>
   <si>
     <t xml:space="preserve">4.36425590515137</t>
@@ -194,10 +194,10 @@
     <t xml:space="preserve">4.30539321899414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33061981201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40209627151489</t>
+    <t xml:space="preserve">4.33062028884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40209531784058</t>
   </si>
   <si>
     <t xml:space="preserve">4.46095943450928</t>
@@ -206,16 +206,16 @@
     <t xml:space="preserve">4.28857564926147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2591438293457</t>
+    <t xml:space="preserve">4.25914335250854</t>
   </si>
   <si>
     <t xml:space="preserve">4.56607055664062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41050577163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48618602752686</t>
+    <t xml:space="preserve">4.4105052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4861855506897</t>
   </si>
   <si>
     <t xml:space="preserve">4.77629518508911</t>
@@ -227,16 +227,16 @@
     <t xml:space="preserve">4.81834077835083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76788663864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83095359802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74686479568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78890943527222</t>
+    <t xml:space="preserve">4.76788711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83095407485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74686431884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78890991210938</t>
   </si>
   <si>
     <t xml:space="preserve">4.82254457473755</t>
@@ -251,19 +251,19 @@
     <t xml:space="preserve">4.80572652816772</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92345285415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98231554031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12947273254395</t>
+    <t xml:space="preserve">4.92345237731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9823145866394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12947177886963</t>
   </si>
   <si>
     <t xml:space="preserve">5.1799259185791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10004043579102</t>
+    <t xml:space="preserve">5.10004138946533</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731309890747</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">5.20094871520996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04117822647095</t>
+    <t xml:space="preserve">5.04117870330811</t>
   </si>
   <si>
     <t xml:space="preserve">5.01849603652954</t>
@@ -296,52 +296,52 @@
     <t xml:space="preserve">4.73801279067993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74232721328735</t>
+    <t xml:space="preserve">4.74232769012451</t>
   </si>
   <si>
     <t xml:space="preserve">4.75527334213257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90630197525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88472747802734</t>
+    <t xml:space="preserve">4.9063024520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88472700119019</t>
   </si>
   <si>
     <t xml:space="preserve">4.81999969482422</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78116416931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58698272705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18049764633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37985706329346</t>
+    <t xml:space="preserve">4.78116464614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58698320388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18049716949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3798565864563</t>
   </si>
   <si>
     <t xml:space="preserve">4.49636602401733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51794052124023</t>
+    <t xml:space="preserve">4.51794004440308</t>
   </si>
   <si>
     <t xml:space="preserve">4.5567774772644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50931072235107</t>
+    <t xml:space="preserve">4.50931024551392</t>
   </si>
   <si>
     <t xml:space="preserve">4.35396528244019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33239030838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29269075393677</t>
+    <t xml:space="preserve">4.33239078521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29269123077393</t>
   </si>
   <si>
     <t xml:space="preserve">4.43595266342163</t>
@@ -350,22 +350,22 @@
     <t xml:space="preserve">4.41006231307983</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40143203735352</t>
+    <t xml:space="preserve">4.40143251419067</t>
   </si>
   <si>
     <t xml:space="preserve">4.40574741363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34965133666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28233575820923</t>
+    <t xml:space="preserve">4.34965085983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28233528137207</t>
   </si>
   <si>
     <t xml:space="preserve">4.3625955581665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41437721252441</t>
+    <t xml:space="preserve">4.41437768936157</t>
   </si>
   <si>
     <t xml:space="preserve">4.51362562179565</t>
@@ -377,43 +377,43 @@
     <t xml:space="preserve">4.45752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48341989517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63013458251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62581920623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53951644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53088665008545</t>
+    <t xml:space="preserve">4.48342037200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63013505935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62581968307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53951597213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53088617324829</t>
   </si>
   <si>
     <t xml:space="preserve">4.49205017089844</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50499582290649</t>
+    <t xml:space="preserve">4.50499534606934</t>
   </si>
   <si>
     <t xml:space="preserve">4.55246210098267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47910451889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31340408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41869354248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44026756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34533643722534</t>
+    <t xml:space="preserve">4.47910499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31340360641479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41869306564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44026803970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34533596038818</t>
   </si>
   <si>
     <t xml:space="preserve">4.28060817718506</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">4.23745727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22882747650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27197885513306</t>
+    <t xml:space="preserve">4.22882699966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2719783782959</t>
   </si>
   <si>
     <t xml:space="preserve">4.44458389282227</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39711713790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32807493209839</t>
+    <t xml:space="preserve">4.39711761474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32807540893555</t>
   </si>
   <si>
     <t xml:space="preserve">4.3013219833374</t>
@@ -461,13 +461,13 @@
     <t xml:space="preserve">4.57403802871704</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56540679931641</t>
+    <t xml:space="preserve">4.56540727615356</t>
   </si>
   <si>
     <t xml:space="preserve">4.56972217559814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52225637435913</t>
+    <t xml:space="preserve">4.52225589752197</t>
   </si>
   <si>
     <t xml:space="preserve">4.46615934371948</t>
@@ -476,43 +476,43 @@
     <t xml:space="preserve">4.42732334136963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38848686218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35828065872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31513023376465</t>
+    <t xml:space="preserve">4.38848638534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35828018188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31513071060181</t>
   </si>
   <si>
     <t xml:space="preserve">4.30995178222656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32375955581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30477380752563</t>
+    <t xml:space="preserve">4.32376003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30477333068848</t>
   </si>
   <si>
     <t xml:space="preserve">4.24263525009155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19430637359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29441690444946</t>
+    <t xml:space="preserve">4.19430589675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29441738128662</t>
   </si>
   <si>
     <t xml:space="preserve">4.37554168701172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2857871055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21674394607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24090957641602</t>
+    <t xml:space="preserve">4.28578662872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2167444229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24091005325317</t>
   </si>
   <si>
     <t xml:space="preserve">4.22192335128784</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">4.26162195205688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29959535598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28751230239868</t>
+    <t xml:space="preserve">4.29959487915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28751277923584</t>
   </si>
   <si>
     <t xml:space="preserve">4.29096460342407</t>
@@ -539,46 +539,46 @@
     <t xml:space="preserve">4.2150182723999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26852607727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25817060470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23573064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31944465637207</t>
+    <t xml:space="preserve">4.26852560043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25817012786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23573112487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31944513320923</t>
   </si>
   <si>
     <t xml:space="preserve">4.39280271530151</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48773431777954</t>
+    <t xml:space="preserve">4.4877347946167</t>
   </si>
   <si>
     <t xml:space="preserve">4.45321369171143</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4747896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25471782684326</t>
+    <t xml:space="preserve">4.47479009628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2547173500061</t>
   </si>
   <si>
     <t xml:space="preserve">4.25989580154419</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16323709487915</t>
+    <t xml:space="preserve">4.16323757171631</t>
   </si>
   <si>
     <t xml:space="preserve">4.14425039291382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12526321411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10455131530762</t>
+    <t xml:space="preserve">4.12526369094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10455083847046</t>
   </si>
   <si>
     <t xml:space="preserve">4.17359399795532</t>
@@ -587,34 +587,34 @@
     <t xml:space="preserve">4.16668939590454</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12698984146118</t>
+    <t xml:space="preserve">4.12699031829834</t>
   </si>
   <si>
     <t xml:space="preserve">4.18912792205811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23918390274048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63876390457153</t>
+    <t xml:space="preserve">4.23918437957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63876438140869</t>
   </si>
   <si>
     <t xml:space="preserve">4.64307975769043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65171003341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61287403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54383182525635</t>
+    <t xml:space="preserve">4.65171051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61287355422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54383134841919</t>
   </si>
   <si>
     <t xml:space="preserve">4.53520107269287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58266878128052</t>
+    <t xml:space="preserve">4.58266830444336</t>
   </si>
   <si>
     <t xml:space="preserve">4.54814720153809</t>
@@ -623,13 +623,13 @@
     <t xml:space="preserve">4.5956130027771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59129762649536</t>
+    <t xml:space="preserve">4.59129810333252</t>
   </si>
   <si>
     <t xml:space="preserve">4.599928855896</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72938251495361</t>
+    <t xml:space="preserve">4.72938299179077</t>
   </si>
   <si>
     <t xml:space="preserve">4.74664306640625</t>
@@ -638,25 +638,25 @@
     <t xml:space="preserve">4.66897010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80705499649048</t>
+    <t xml:space="preserve">4.80705451965332</t>
   </si>
   <si>
     <t xml:space="preserve">4.82431507110596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79410934448242</t>
+    <t xml:space="preserve">4.79410982131958</t>
   </si>
   <si>
     <t xml:space="preserve">4.77253341674805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69486141204834</t>
+    <t xml:space="preserve">4.69486093521118</t>
   </si>
   <si>
     <t xml:space="preserve">4.86746644973755</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96240043640137</t>
+    <t xml:space="preserve">4.96239995956421</t>
   </si>
   <si>
     <t xml:space="preserve">4.94945383071899</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">5.1091136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05733156204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08322238922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02281141281128</t>
+    <t xml:space="preserve">5.05733203887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08322286605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02281093597412</t>
   </si>
   <si>
     <t xml:space="preserve">5.06596279144287</t>
@@ -695,43 +695,43 @@
     <t xml:space="preserve">5.09185361862183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15226554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34644603729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31192541122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18678617477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20836114883423</t>
+    <t xml:space="preserve">5.1522650718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34644556045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31192493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18678569793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20836162567139</t>
   </si>
   <si>
     <t xml:space="preserve">5.17815589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34213066101074</t>
+    <t xml:space="preserve">5.3421311378479</t>
   </si>
   <si>
     <t xml:space="preserve">5.19541692733765</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24288272857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35076189041138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27308940887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32918548583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38528203964233</t>
+    <t xml:space="preserve">5.24288320541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35076141357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27308893203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.329185962677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38528251647949</t>
   </si>
   <si>
     <t xml:space="preserve">5.54925680160522</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">5.50179052352905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35507678985596</t>
+    <t xml:space="preserve">5.3550763130188</t>
   </si>
   <si>
     <t xml:space="preserve">5.36370658874512</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">5.41980266571045</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56220293045044</t>
+    <t xml:space="preserve">5.5622034072876</t>
   </si>
   <si>
     <t xml:space="preserve">5.48884582519531</t>
@@ -767,25 +767,25 @@
     <t xml:space="preserve">5.48453044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56651782989502</t>
+    <t xml:space="preserve">5.56651830673218</t>
   </si>
   <si>
     <t xml:space="preserve">5.58377742767334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48021411895752</t>
+    <t xml:space="preserve">5.48021459579468</t>
   </si>
   <si>
     <t xml:space="preserve">5.47158479690552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49316024780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40685844421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37233591079712</t>
+    <t xml:space="preserve">5.49316072463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40685892105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37233638763428</t>
   </si>
   <si>
     <t xml:space="preserve">5.23856782913208</t>
@@ -797,16 +797,16 @@
     <t xml:space="preserve">5.28171873092651</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33480215072632</t>
+    <t xml:space="preserve">5.33480167388916</t>
   </si>
   <si>
     <t xml:space="preserve">5.67983865737915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71080303192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62675619125366</t>
+    <t xml:space="preserve">5.71080255508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62675666809082</t>
   </si>
   <si>
     <t xml:space="preserve">5.5913667678833</t>
@@ -815,28 +815,28 @@
     <t xml:space="preserve">5.66214418411255</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67099094390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63560247421265</t>
+    <t xml:space="preserve">5.67099046707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6356029510498</t>
   </si>
   <si>
     <t xml:space="preserve">5.65329742431641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58252000808716</t>
+    <t xml:space="preserve">5.58252048492432</t>
   </si>
   <si>
     <t xml:space="preserve">5.58694362640381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49405002593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43654346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51174402236938</t>
+    <t xml:space="preserve">5.49404954910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4365439414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51174354553223</t>
   </si>
   <si>
     <t xml:space="preserve">5.53828573226929</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">5.56482553482056</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57367372512817</t>
+    <t xml:space="preserve">5.57367324829102</t>
   </si>
   <si>
     <t xml:space="preserve">5.48962640762329</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">5.52059078216553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48520231246948</t>
+    <t xml:space="preserve">5.48520278930664</t>
   </si>
   <si>
     <t xml:space="preserve">5.56040239334106</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">5.59579133987427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53386116027832</t>
+    <t xml:space="preserve">5.53386163711548</t>
   </si>
   <si>
     <t xml:space="preserve">5.61348485946655</t>
@@ -875,25 +875,25 @@
     <t xml:space="preserve">5.64887428283691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72407341003418</t>
+    <t xml:space="preserve">5.72407388687134</t>
   </si>
   <si>
     <t xml:space="preserve">5.69310903549194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71965026855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7019567489624</t>
+    <t xml:space="preserve">5.71964979171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70195627212524</t>
   </si>
   <si>
     <t xml:space="preserve">5.69753217697144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54270887374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62233257293701</t>
+    <t xml:space="preserve">5.54270935058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62233304977417</t>
   </si>
   <si>
     <t xml:space="preserve">5.56925010681152</t>
@@ -905,52 +905,52 @@
     <t xml:space="preserve">5.44096708297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41442537307739</t>
+    <t xml:space="preserve">5.41442584991455</t>
   </si>
   <si>
     <t xml:space="preserve">5.4586615562439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54713153839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6400260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61790800094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60906171798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64445018768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81254529953003</t>
+    <t xml:space="preserve">5.54713201522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64002656936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6179084777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6090612411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64444971084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81254482269287</t>
   </si>
   <si>
     <t xml:space="preserve">5.86562776565552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92755651473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852184295654</t>
+    <t xml:space="preserve">5.92755746841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852136611938</t>
   </si>
   <si>
     <t xml:space="preserve">6.02487564086914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94525146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90543937683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76388597488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95409917831421</t>
+    <t xml:space="preserve">5.94525194168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9054388999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76388549804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95409870147705</t>
   </si>
   <si>
     <t xml:space="preserve">6.01602792739868</t>
@@ -962,37 +962,37 @@
     <t xml:space="preserve">5.68868541717529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71522665023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70638036727905</t>
+    <t xml:space="preserve">5.71522617340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70637989044189</t>
   </si>
   <si>
     <t xml:space="preserve">5.55155563354492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60463762283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50289630889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38346099853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17555379867554</t>
+    <t xml:space="preserve">5.60463809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50289583206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.383460521698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17555332183838</t>
   </si>
   <si>
     <t xml:space="preserve">5.19767189025879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10477638244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08708333969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13131809234619</t>
+    <t xml:space="preserve">5.10477685928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.087082862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13131761550903</t>
   </si>
   <si>
     <t xml:space="preserve">5.12247133255005</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">5.23748302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1932487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15343570709229</t>
+    <t xml:space="preserve">5.19324827194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15343618392944</t>
   </si>
   <si>
     <t xml:space="preserve">5.16670703887939</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">5.14016532897949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0959300994873</t>
+    <t xml:space="preserve">5.09592962265015</t>
   </si>
   <si>
     <t xml:space="preserve">5.25075483322144</t>
@@ -1022,16 +1022,16 @@
     <t xml:space="preserve">5.21978950500488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06054210662842</t>
+    <t xml:space="preserve">5.06054162979126</t>
   </si>
   <si>
     <t xml:space="preserve">5.14901256561279</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1180477142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0030345916748</t>
+    <t xml:space="preserve">5.11804819107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00303506851196</t>
   </si>
   <si>
     <t xml:space="preserve">4.93668174743652</t>
@@ -1040,34 +1040,34 @@
     <t xml:space="preserve">4.97649335861206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94552898406982</t>
+    <t xml:space="preserve">4.94552850723267</t>
   </si>
   <si>
     <t xml:space="preserve">4.91014099121094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98091793060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94995212554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91456413269043</t>
+    <t xml:space="preserve">4.98091745376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94995260238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91456460952759</t>
   </si>
   <si>
     <t xml:space="preserve">4.99861145019531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07381248474121</t>
+    <t xml:space="preserve">5.07381200790405</t>
   </si>
   <si>
     <t xml:space="preserve">5.02957630157471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01188230514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98976469039917</t>
+    <t xml:space="preserve">5.01188278198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98976421356201</t>
   </si>
   <si>
     <t xml:space="preserve">4.95437669754028</t>
@@ -1079,22 +1079,22 @@
     <t xml:space="preserve">5.21536540985107</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18440055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12689447402954</t>
+    <t xml:space="preserve">5.18440008163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1268949508667</t>
   </si>
   <si>
     <t xml:space="preserve">5.46750783920288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29498863220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3171067237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47635507583618</t>
+    <t xml:space="preserve">5.29498910903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31710720062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47635459899902</t>
   </si>
   <si>
     <t xml:space="preserve">5.40115451812744</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">4.87917613983154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86590528488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88802289962769</t>
+    <t xml:space="preserve">4.86590480804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88802242279053</t>
   </si>
   <si>
     <t xml:space="preserve">4.90571784973145</t>
@@ -1130,34 +1130,34 @@
     <t xml:space="preserve">4.8216700553894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80839872360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84821128845215</t>
+    <t xml:space="preserve">4.80839920043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84821081161499</t>
   </si>
   <si>
     <t xml:space="preserve">4.75531625747681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67126893997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70665693283081</t>
+    <t xml:space="preserve">4.67126941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70665740966797</t>
   </si>
   <si>
     <t xml:space="preserve">4.7597393989563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73762226104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7862811088562</t>
+    <t xml:space="preserve">4.73762178421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78628063201904</t>
   </si>
   <si>
     <t xml:space="preserve">4.83936309814453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86148118972778</t>
+    <t xml:space="preserve">4.86148166656494</t>
   </si>
   <si>
     <t xml:space="preserve">4.93225860595703</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">4.92341089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87032890319824</t>
+    <t xml:space="preserve">4.87032842636108</t>
   </si>
   <si>
     <t xml:space="preserve">4.83051681518555</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75089359283447</t>
+    <t xml:space="preserve">4.75089263916016</t>
   </si>
   <si>
     <t xml:space="preserve">4.70223379135132</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61818647384644</t>
+    <t xml:space="preserve">4.61818695068359</t>
   </si>
   <si>
     <t xml:space="preserve">4.64472770690918</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">4.4076247215271</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39700889587402</t>
+    <t xml:space="preserve">4.39700937271118</t>
   </si>
   <si>
     <t xml:space="preserve">4.40231704711914</t>
@@ -1202,22 +1202,22 @@
     <t xml:space="preserve">4.34038734436035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39877843856812</t>
+    <t xml:space="preserve">4.39877796173096</t>
   </si>
   <si>
     <t xml:space="preserve">4.34569597244263</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37046813964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41647291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42355060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38816118240356</t>
+    <t xml:space="preserve">4.37046766281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41647243499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42355108261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38816165924072</t>
   </si>
   <si>
     <t xml:space="preserve">4.41470289230347</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">3.06463527679443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9673171043396</t>
+    <t xml:space="preserve">2.96731686592102</t>
   </si>
   <si>
     <t xml:space="preserve">3.09648513793945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1230263710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19557285308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26281070709229</t>
+    <t xml:space="preserve">3.12302660942078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1955726146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26281046867371</t>
   </si>
   <si>
     <t xml:space="preserve">3.35835886001587</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">3.33535671234131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34420347213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33004808425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36720633506775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36189818382263</t>
+    <t xml:space="preserve">3.34420371055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33004832267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36720657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36189794540405</t>
   </si>
   <si>
     <t xml:space="preserve">3.28758263587952</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">2.99208903312683</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01863026618958</t>
+    <t xml:space="preserve">3.01863050460815</t>
   </si>
   <si>
     <t xml:space="preserve">2.90892672538757</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">2.70898151397705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69836568832397</t>
+    <t xml:space="preserve">2.6983654499054</t>
   </si>
   <si>
     <t xml:space="preserve">2.65943813323975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74260115623474</t>
+    <t xml:space="preserve">2.74260139465332</t>
   </si>
   <si>
     <t xml:space="preserve">2.64882135391235</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">2.66474652290344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65412950515747</t>
+    <t xml:space="preserve">2.65412974357605</t>
   </si>
   <si>
     <t xml:space="preserve">2.62581920623779</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">2.56211972236633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53734827041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50019025802612</t>
+    <t xml:space="preserve">2.53734850883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5001904964447</t>
   </si>
   <si>
     <t xml:space="preserve">2.50726795196533</t>
@@ -1364,34 +1364,34 @@
     <t xml:space="preserve">2.43826103210449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4329526424408</t>
+    <t xml:space="preserve">2.43295240402222</t>
   </si>
   <si>
     <t xml:space="preserve">2.46126294136047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47364926338196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49311280250549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50549864768982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48957324028015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4913432598114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49488186836243</t>
+    <t xml:space="preserve">2.47364902496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49311256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5054988861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48957347869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49134349822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49488162994385</t>
   </si>
   <si>
     <t xml:space="preserve">2.38871669769287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35155940055847</t>
+    <t xml:space="preserve">2.35155916213989</t>
   </si>
   <si>
     <t xml:space="preserve">2.41525793075562</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.35686683654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36217522621155</t>
+    <t xml:space="preserve">2.36217546463013</t>
   </si>
   <si>
     <t xml:space="preserve">2.54265594482422</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">2.59396934509277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56742835044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45595479011536</t>
+    <t xml:space="preserve">2.56742811203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45595455169678</t>
   </si>
   <si>
     <t xml:space="preserve">2.44533848762512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48249578475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47010970115662</t>
+    <t xml:space="preserve">2.4824960231781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47010946273804</t>
   </si>
   <si>
     <t xml:space="preserve">2.40818023681641</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">2.17638611793518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1303813457489</t>
+    <t xml:space="preserve">2.13038110733032</t>
   </si>
   <si>
     <t xml:space="preserve">2.09145379066467</t>
@@ -1463,34 +1463,34 @@
     <t xml:space="preserve">2.30024600028992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31086206436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29493761062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29670667648315</t>
+    <t xml:space="preserve">2.31086182594299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29493737220764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29670643806458</t>
   </si>
   <si>
     <t xml:space="preserve">2.28255152702332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28432035446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24008584022522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19938921928406</t>
+    <t xml:space="preserve">2.28432059288025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24008560180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19938898086548</t>
   </si>
   <si>
     <t xml:space="preserve">2.2135443687439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22239112854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28785967826843</t>
+    <t xml:space="preserve">2.22239089012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28785991668701</t>
   </si>
   <si>
     <t xml:space="preserve">2.22062206268311</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">2.21531343460083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14453649520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14630675315857</t>
+    <t xml:space="preserve">2.14453625679016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14630651473999</t>
   </si>
   <si>
     <t xml:space="preserve">2.25070142745972</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">2.36925292015076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31617021560669</t>
+    <t xml:space="preserve">2.31617045402527</t>
   </si>
   <si>
     <t xml:space="preserve">2.24362397193909</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">2.19231152534485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18523406982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11976504325867</t>
+    <t xml:space="preserve">2.18523383140564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11976528167725</t>
   </si>
   <si>
     <t xml:space="preserve">2.117995262146</t>
@@ -1532,13 +1532,13 @@
     <t xml:space="preserve">2.10030150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06137442588806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98705875873566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86142981052399</t>
+    <t xml:space="preserve">2.06137418746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98705852031708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8614296913147</t>
   </si>
   <si>
     <t xml:space="preserve">1.7959611415863</t>
@@ -1547,37 +1547,37 @@
     <t xml:space="preserve">1.75172519683838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72518408298492</t>
+    <t xml:space="preserve">1.72518396377563</t>
   </si>
   <si>
     <t xml:space="preserve">1.72606897354126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59336256980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57389891147614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47923457622528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3951872587204</t>
+    <t xml:space="preserve">1.59336245059967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57389879226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47923469543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39518737792969</t>
   </si>
   <si>
     <t xml:space="preserve">1.36156833171844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34652805328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32352602481842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31821763515472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36599183082581</t>
+    <t xml:space="preserve">1.34652817249298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32352614402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31821751594543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36599171161652</t>
   </si>
   <si>
     <t xml:space="preserve">1.35183656215668</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">1.38103199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39341819286346</t>
+    <t xml:space="preserve">1.39341807365417</t>
   </si>
   <si>
     <t xml:space="preserve">1.39076387882233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35979914665222</t>
+    <t xml:space="preserve">1.35979926586151</t>
   </si>
   <si>
     <t xml:space="preserve">1.35537576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41819036006927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43146049976349</t>
+    <t xml:space="preserve">1.41819024085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4314603805542</t>
   </si>
   <si>
     <t xml:space="preserve">1.3713002204895</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">1.37306940555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31644833087921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32618033885956</t>
+    <t xml:space="preserve">1.3164484500885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32618021965027</t>
   </si>
   <si>
     <t xml:space="preserve">1.34298980236053</t>
@@ -1631,52 +1631,52 @@
     <t xml:space="preserve">1.33237278461456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33502697944641</t>
+    <t xml:space="preserve">1.3350270986557</t>
   </si>
   <si>
     <t xml:space="preserve">1.44915497303009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45092415809631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44473147392273</t>
+    <t xml:space="preserve">1.45092403888702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44473159313202</t>
   </si>
   <si>
     <t xml:space="preserve">1.42526793479919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39253318309784</t>
+    <t xml:space="preserve">1.39253294467926</t>
   </si>
   <si>
     <t xml:space="preserve">1.42438280582428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32529509067535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31202507019043</t>
+    <t xml:space="preserve">1.32529520988464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31202518939972</t>
   </si>
   <si>
     <t xml:space="preserve">1.13154339790344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01918566226959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04838109016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.670609295368195</t>
+    <t xml:space="preserve">1.0191855430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04838120937347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.670609354972839</t>
   </si>
   <si>
     <t xml:space="preserve">0.744925737380981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746694982051849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913020372390747</t>
+    <t xml:space="preserve">0.746694922447205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913020312786102</t>
   </si>
   <si>
     <t xml:space="preserve">1.01476216316223</t>
@@ -1688,28 +1688,28 @@
     <t xml:space="preserve">0.898865103721619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967872202396393</t>
+    <t xml:space="preserve">0.967872083187103</t>
   </si>
   <si>
     <t xml:space="preserve">1.00060701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973180532455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971411526203156</t>
+    <t xml:space="preserve">0.973180651664734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9714115858078</t>
   </si>
   <si>
     <t xml:space="preserve">1.06430542469025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21559166908264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18020260334015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16427826881409</t>
+    <t xml:space="preserve">1.21559178829193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18020272254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1642781496048</t>
   </si>
   <si>
     <t xml:space="preserve">1.19878220558167</t>
@@ -1718,22 +1718,22 @@
     <t xml:space="preserve">1.16870164871216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09704029560089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07138311862946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07846069335938</t>
+    <t xml:space="preserve">1.09704041481018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07138323783875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07846081256866</t>
   </si>
   <si>
     <t xml:space="preserve">1.05811297893524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07580745220184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07315337657928</t>
+    <t xml:space="preserve">1.07580757141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07315325737</t>
   </si>
   <si>
     <t xml:space="preserve">1.1465836763382</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">1.16693246364594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19435787200928</t>
+    <t xml:space="preserve">1.19435799121857</t>
   </si>
   <si>
     <t xml:space="preserve">1.19612801074982</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">1.20408964157104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17931842803955</t>
+    <t xml:space="preserve">1.17931854724884</t>
   </si>
   <si>
     <t xml:space="preserve">1.16781651973724</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">1.12888920307159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09350109100342</t>
+    <t xml:space="preserve">1.09350121021271</t>
   </si>
   <si>
     <t xml:space="preserve">1.13419759273529</t>
@@ -1772,22 +1772,22 @@
     <t xml:space="preserve">1.12623584270477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07934582233429</t>
+    <t xml:space="preserve">1.07934594154358</t>
   </si>
   <si>
     <t xml:space="preserve">1.09615528583527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.128005027771</t>
+    <t xml:space="preserve">1.12800514698029</t>
   </si>
   <si>
     <t xml:space="preserve">1.1952428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14923787117004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15100693702698</t>
+    <t xml:space="preserve">1.14923799037933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15100705623627</t>
   </si>
   <si>
     <t xml:space="preserve">1.13596773147583</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">1.17047071456909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14216017723083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16516220569611</t>
+    <t xml:space="preserve">1.14216029644012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1651623249054</t>
   </si>
   <si>
     <t xml:space="preserve">1.17843341827393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17577922344208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29875385761261</t>
+    <t xml:space="preserve">1.17577934265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2987539768219</t>
   </si>
   <si>
     <t xml:space="preserve">1.54824256896973</t>
@@ -1823,13 +1823,13 @@
     <t xml:space="preserve">1.4978141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44119238853455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40934252738953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37483954429626</t>
+    <t xml:space="preserve">1.44119226932526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40934240818024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37483942508698</t>
   </si>
   <si>
     <t xml:space="preserve">1.45446336269379</t>
@@ -1838,16 +1838,16 @@
     <t xml:space="preserve">1.46950280666351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40845835208893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43057537078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43499970436096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4075733423233</t>
+    <t xml:space="preserve">1.40845847129822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43057548999786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43499982357025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40757346153259</t>
   </si>
   <si>
     <t xml:space="preserve">1.44650077819824</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">1.45269334316254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48542809486389</t>
+    <t xml:space="preserve">1.4854279756546</t>
   </si>
   <si>
     <t xml:space="preserve">1.50312173366547</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">1.51285350322723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48277390003204</t>
+    <t xml:space="preserve">1.48277401924133</t>
   </si>
   <si>
     <t xml:space="preserve">1.45711672306061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47658038139343</t>
+    <t xml:space="preserve">1.47658026218414</t>
   </si>
   <si>
     <t xml:space="preserve">1.53939485549927</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">1.66767799854279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64467585086823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64290583133698</t>
+    <t xml:space="preserve">1.64467597007751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64290571212769</t>
   </si>
   <si>
     <t xml:space="preserve">1.60397946834564</t>
@@ -1913,31 +1913,31 @@
     <t xml:space="preserve">1.55797445774078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50135254859924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51904702186584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47038769721985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46507942676544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41111183166504</t>
+    <t xml:space="preserve">1.50135242938995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51904690265656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47038793563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46507930755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41111171245575</t>
   </si>
   <si>
     <t xml:space="preserve">1.44826996326447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42969143390656</t>
+    <t xml:space="preserve">1.42969131469727</t>
   </si>
   <si>
     <t xml:space="preserve">1.38014698028564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40049576759338</t>
+    <t xml:space="preserve">1.40049564838409</t>
   </si>
   <si>
     <t xml:space="preserve">1.39430224895477</t>
@@ -1952,19 +1952,19 @@
     <t xml:space="preserve">1.38810968399048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39695656299591</t>
+    <t xml:space="preserve">1.39695644378662</t>
   </si>
   <si>
     <t xml:space="preserve">1.36864602565765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36333763599396</t>
+    <t xml:space="preserve">1.36333751678467</t>
   </si>
   <si>
     <t xml:space="preserve">1.32441020011902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40580415725708</t>
+    <t xml:space="preserve">1.40580403804779</t>
   </si>
   <si>
     <t xml:space="preserve">1.3889946937561</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">1.42880618572235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42615187168121</t>
+    <t xml:space="preserve">1.4261519908905</t>
   </si>
   <si>
     <t xml:space="preserve">1.38457143306732</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">1.26248073577881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4385381937027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4013808965683</t>
+    <t xml:space="preserve">1.43853807449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40138077735901</t>
   </si>
   <si>
     <t xml:space="preserve">1.358029961586</t>
@@ -2006,28 +2006,28 @@
     <t xml:space="preserve">1.31379413604736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34918236732483</t>
+    <t xml:space="preserve">1.34918224811554</t>
   </si>
   <si>
     <t xml:space="preserve">1.33591210842133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40491914749146</t>
+    <t xml:space="preserve">1.40491902828217</t>
   </si>
   <si>
     <t xml:space="preserve">1.41730511188507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50931513309479</t>
+    <t xml:space="preserve">1.50931525230408</t>
   </si>
   <si>
     <t xml:space="preserve">1.56947541236877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58451581001282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59159326553345</t>
+    <t xml:space="preserve">1.58451569080353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59159338474274</t>
   </si>
   <si>
     <t xml:space="preserve">1.59247744083405</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">1.64025259017944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58009135723114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50046765804291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47569632530212</t>
+    <t xml:space="preserve">1.58009147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50046753883362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47569620609283</t>
   </si>
   <si>
     <t xml:space="preserve">1.47304201126099</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">1.50400674343109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45623254776001</t>
+    <t xml:space="preserve">1.4562326669693</t>
   </si>
   <si>
     <t xml:space="preserve">1.42792201042175</t>
@@ -2072,28 +2072,28 @@
     <t xml:space="preserve">1.40668833255768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37395441532135</t>
+    <t xml:space="preserve">1.37395453453064</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660872936249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37926292419434</t>
+    <t xml:space="preserve">1.37926280498505</t>
   </si>
   <si>
     <t xml:space="preserve">1.41199672222137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34033560752869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31556332111359</t>
+    <t xml:space="preserve">1.3403354883194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31556344032288</t>
   </si>
   <si>
     <t xml:space="preserve">1.47215700149536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45180916786194</t>
+    <t xml:space="preserve">1.45180928707123</t>
   </si>
   <si>
     <t xml:space="preserve">1.46684861183167</t>
@@ -2111,28 +2111,28 @@
     <t xml:space="preserve">1.57655310630798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58539986610413</t>
+    <t xml:space="preserve">1.58539974689484</t>
   </si>
   <si>
     <t xml:space="preserve">1.58982312679291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53320229053497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48188877105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63405907154083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5473575592041</t>
+    <t xml:space="preserve">1.53320217132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48188889026642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63405895233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54735743999481</t>
   </si>
   <si>
     <t xml:space="preserve">1.47392618656158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4933899641037</t>
+    <t xml:space="preserve">1.49338984489441</t>
   </si>
   <si>
     <t xml:space="preserve">1.49162077903748</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">1.41288185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40403413772583</t>
+    <t xml:space="preserve">1.40403401851654</t>
   </si>
   <si>
     <t xml:space="preserve">1.41642010211945</t>
@@ -2156,19 +2156,19 @@
     <t xml:space="preserve">1.44207727909088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45003914833069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53054809570312</t>
+    <t xml:space="preserve">1.4500390291214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53054797649384</t>
   </si>
   <si>
     <t xml:space="preserve">1.51993119716644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55266582965851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55885851383209</t>
+    <t xml:space="preserve">1.5526659488678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5588583946228</t>
   </si>
   <si>
     <t xml:space="preserve">1.55178093910217</t>
@@ -2177,22 +2177,22 @@
     <t xml:space="preserve">1.55974352359772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6013251543045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55708932876587</t>
+    <t xml:space="preserve">1.60132527351379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55708944797516</t>
   </si>
   <si>
     <t xml:space="preserve">1.58097636699677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61282634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63140487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62609624862671</t>
+    <t xml:space="preserve">1.61282622814178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63140475749969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.626096367836</t>
   </si>
   <si>
     <t xml:space="preserve">1.69245004653931</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">1.68714165687561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72872316837311</t>
+    <t xml:space="preserve">1.7287232875824</t>
   </si>
   <si>
     <t xml:space="preserve">1.67829489707947</t>
@@ -2219,19 +2219,19 @@
     <t xml:space="preserve">1.65263772010803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63317406177521</t>
+    <t xml:space="preserve">1.63317394256592</t>
   </si>
   <si>
     <t xml:space="preserve">1.65086841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65883123874664</t>
+    <t xml:space="preserve">1.65883111953735</t>
   </si>
   <si>
     <t xml:space="preserve">1.65971529483795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68094909191132</t>
+    <t xml:space="preserve">1.68094897270203</t>
   </si>
   <si>
     <t xml:space="preserve">1.7473019361496</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">1.80834710597992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82073318958282</t>
+    <t xml:space="preserve">1.82073330879211</t>
   </si>
   <si>
     <t xml:space="preserve">1.83134913444519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81365561485291</t>
+    <t xml:space="preserve">1.81365549564362</t>
   </si>
   <si>
     <t xml:space="preserve">1.83488845825195</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">1.79242181777954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87027657032013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85258197784424</t>
+    <t xml:space="preserve">1.87027645111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85258209705353</t>
   </si>
   <si>
     <t xml:space="preserve">1.82250237464905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73580086231232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70395112037659</t>
+    <t xml:space="preserve">1.73580098152161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7039510011673</t>
   </si>
   <si>
     <t xml:space="preserve">1.78534424304962</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">1.76941978931427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78711438179016</t>
+    <t xml:space="preserve">1.78711426258087</t>
   </si>
   <si>
     <t xml:space="preserve">1.77472817897797</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">1.7110288143158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72076070308685</t>
+    <t xml:space="preserve">1.72076058387756</t>
   </si>
   <si>
     <t xml:space="preserve">1.70572030544281</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">1.73757004737854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71987557411194</t>
+    <t xml:space="preserve">1.71987569332123</t>
   </si>
   <si>
     <t xml:space="preserve">1.7048362493515</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">1.67121732234955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68537259101868</t>
+    <t xml:space="preserve">1.68537247180939</t>
   </si>
   <si>
     <t xml:space="preserve">1.65440785884857</t>
@@ -2330,16 +2330,16 @@
     <t xml:space="preserve">1.6986426115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69510436058044</t>
+    <t xml:space="preserve">1.69510424137115</t>
   </si>
   <si>
     <t xml:space="preserve">1.67917895317078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63671314716339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63848257064819</t>
+    <t xml:space="preserve">1.63671338558197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6384824514389</t>
   </si>
   <si>
     <t xml:space="preserve">1.67033219337463</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">1.522585272789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58274567127228</t>
+    <t xml:space="preserve">1.58274555206299</t>
   </si>
   <si>
     <t xml:space="preserve">1.57743811607361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55443501472473</t>
+    <t xml:space="preserve">1.55443513393402</t>
   </si>
   <si>
     <t xml:space="preserve">1.6022093296051</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">1.60663259029388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59867095947266</t>
+    <t xml:space="preserve">1.59867084026337</t>
   </si>
   <si>
     <t xml:space="preserve">1.57035946846008</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">1.30494737625122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2500946521759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23593950271606</t>
+    <t xml:space="preserve">1.25009477138519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23593938350677</t>
   </si>
   <si>
     <t xml:space="preserve">1.20320558547974</t>
@@ -2396,28 +2396,28 @@
     <t xml:space="preserve">1.08819258213043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988220930099487</t>
+    <t xml:space="preserve">0.988220989704132</t>
   </si>
   <si>
     <t xml:space="preserve">0.822779595851898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761735260486603</t>
+    <t xml:space="preserve">0.761735200881958</t>
   </si>
   <si>
     <t xml:space="preserve">0.736963093280792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579042315483093</t>
+    <t xml:space="preserve">0.579042375087738</t>
   </si>
   <si>
     <t xml:space="preserve">0.649819433689117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.55028885602951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.634779155254364</t>
+    <t xml:space="preserve">0.550288915634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634779095649719</t>
   </si>
   <si>
     <t xml:space="preserve">0.714845180511475</t>
@@ -2426,13 +2426,13 @@
     <t xml:space="preserve">0.767927765846252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743155658245087</t>
+    <t xml:space="preserve">0.743155598640442</t>
   </si>
   <si>
     <t xml:space="preserve">0.675033688545227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722807884216309</t>
+    <t xml:space="preserve">0.722807824611664</t>
   </si>
   <si>
     <t xml:space="preserve">0.72059565782547</t>
@@ -2444,16 +2444,16 @@
     <t xml:space="preserve">0.698920726776123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.681668281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698477745056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681226253509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.664416790008545</t>
+    <t xml:space="preserve">0.681668221950531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698477685451508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681226193904877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6644167304039</t>
   </si>
   <si>
     <t xml:space="preserve">0.610892117023468</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">0.654684901237488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699804902076721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.684765458106995</t>
+    <t xml:space="preserve">0.699804842472076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.684765517711639</t>
   </si>
   <si>
     <t xml:space="preserve">0.689188897609711</t>
@@ -2477,19 +2477,19 @@
     <t xml:space="preserve">0.688303828239441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.678129971027374</t>
+    <t xml:space="preserve">0.678129911422729</t>
   </si>
   <si>
     <t xml:space="preserve">0.648492336273193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.652030646800995</t>
+    <t xml:space="preserve">0.65203070640564</t>
   </si>
   <si>
     <t xml:space="preserve">0.646280169487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641414761543274</t>
+    <t xml:space="preserve">0.641414701938629</t>
   </si>
   <si>
     <t xml:space="preserve">0.647165238857269</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">0.716614305973053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.693612277507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.680341124534607</t>
+    <t xml:space="preserve">0.693612337112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680341184139252</t>
   </si>
   <si>
     <t xml:space="preserve">0.679457068443298</t>
@@ -2516,25 +2516,25 @@
     <t xml:space="preserve">0.677687883377075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687419772148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70776754617691</t>
+    <t xml:space="preserve">0.687419712543488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.707767486572266</t>
   </si>
   <si>
     <t xml:space="preserve">0.688745856285095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.66353178024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645838141441345</t>
+    <t xml:space="preserve">0.663531720638275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6458380818367</t>
   </si>
   <si>
     <t xml:space="preserve">0.641856789588928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.667070925235748</t>
+    <t xml:space="preserve">0.667071044445038</t>
   </si>
   <si>
     <t xml:space="preserve">0.632125020027161</t>
@@ -2543,10 +2543,10 @@
     <t xml:space="preserve">0.608679950237274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616200625896454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60823792219162</t>
+    <t xml:space="preserve">0.616200566291809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608237862586975</t>
   </si>
   <si>
     <t xml:space="preserve">0.637433409690857</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">0.667956054210663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769254863262177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836050689220428</t>
+    <t xml:space="preserve">0.769254922866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836050748825073</t>
   </si>
   <si>
     <t xml:space="preserve">0.808182239532471</t>
@@ -2576,43 +2576,43 @@
     <t xml:space="preserve">0.954602003097534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964333772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06519067287445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07049906253815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0262633562088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929829776287079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979373157024384</t>
+    <t xml:space="preserve">0.964333832263947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06519055366516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07049918174744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02626323699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929829835891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979373097419739</t>
   </si>
   <si>
     <t xml:space="preserve">0.980258285999298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993529379367828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976719975471497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944870114326477</t>
+    <t xml:space="preserve">0.993529260158539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976719915866852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944870173931122</t>
   </si>
   <si>
     <t xml:space="preserve">0.946639358997345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948408484458923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87232381105423</t>
+    <t xml:space="preserve">0.948408424854279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872323870658875</t>
   </si>
   <si>
     <t xml:space="preserve">0.827203929424286</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">0.873650968074799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853745222091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832069396972656</t>
+    <t xml:space="preserve">0.85374516248703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832069337368011</t>
   </si>
   <si>
     <t xml:space="preserve">0.849763870239258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844897449016571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849320828914642</t>
+    <t xml:space="preserve">0.844897508621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849320888519287</t>
   </si>
   <si>
     <t xml:space="preserve">0.845782518386841</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">0.822337508201599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828531086444855</t>
+    <t xml:space="preserve">0.82853102684021</t>
   </si>
   <si>
     <t xml:space="preserve">0.811720609664917</t>
@@ -2651,10 +2651,10 @@
     <t xml:space="preserve">0.870111644268036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842686295509338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914789497852325</t>
+    <t xml:space="preserve">0.842686235904694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91478955745697</t>
   </si>
   <si>
     <t xml:space="preserve">0.905942738056183</t>
@@ -2663,31 +2663,31 @@
     <t xml:space="preserve">0.894441723823547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908596992492676</t>
+    <t xml:space="preserve">0.908596932888031</t>
   </si>
   <si>
     <t xml:space="preserve">0.885594010353088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884266912937164</t>
+    <t xml:space="preserve">0.884266972541809</t>
   </si>
   <si>
     <t xml:space="preserve">0.888248264789581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847551763057709</t>
+    <t xml:space="preserve">0.847551703453064</t>
   </si>
   <si>
     <t xml:space="preserve">0.819683253765106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836492776870728</t>
+    <t xml:space="preserve">0.836492717266083</t>
   </si>
   <si>
     <t xml:space="preserve">0.817472040653229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812605619430542</t>
+    <t xml:space="preserve">0.812605679035187</t>
   </si>
   <si>
     <t xml:space="preserve">0.821452438831329</t>
@@ -2705,19 +2705,19 @@
     <t xml:space="preserve">0.811278581619263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847993731498718</t>
+    <t xml:space="preserve">0.847993791103363</t>
   </si>
   <si>
     <t xml:space="preserve">0.857725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84710967540741</t>
+    <t xml:space="preserve">0.847109615802765</t>
   </si>
   <si>
     <t xml:space="preserve">0.826318860054016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816587030887604</t>
+    <t xml:space="preserve">0.816586971282959</t>
   </si>
   <si>
     <t xml:space="preserve">0.784737229347229</t>
@@ -2732,10 +2732,10 @@
     <t xml:space="preserve">0.724576950073242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731654644012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733866751194</t>
+    <t xml:space="preserve">0.731654584407806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733866810798645</t>
   </si>
   <si>
     <t xml:space="preserve">0.72634619474411</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">0.705998361110687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722365736961365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.728116273880005</t>
+    <t xml:space="preserve">0.72236579656601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72811633348465</t>
   </si>
   <si>
     <t xml:space="preserve">0.725904107093811</t>
@@ -2762,34 +2762,34 @@
     <t xml:space="preserve">0.735635936260223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.738732218742371</t>
+    <t xml:space="preserve">0.738732278347015</t>
   </si>
   <si>
     <t xml:space="preserve">0.745367825031281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73961728811264</t>
+    <t xml:space="preserve">0.739617347717285</t>
   </si>
   <si>
     <t xml:space="preserve">0.76394647359848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763062357902527</t>
+    <t xml:space="preserve">0.763062298297882</t>
   </si>
   <si>
     <t xml:space="preserve">0.786506414413452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813047766685486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760850191116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757311820983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828088045120239</t>
+    <t xml:space="preserve">0.813047707080841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760850131511688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.757311761379242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828087985515594</t>
   </si>
   <si>
     <t xml:space="preserve">0.801989734172821</t>
@@ -2801,10 +2801,10 @@
     <t xml:space="preserve">0.843570351600647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874093055725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900634288787842</t>
+    <t xml:space="preserve">0.874092996120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900634229183197</t>
   </si>
   <si>
     <t xml:space="preserve">0.911251187324524</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">0.89709597826004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909481167793274</t>
+    <t xml:space="preserve">0.909481108188629</t>
   </si>
   <si>
     <t xml:space="preserve">0.893556654453278</t>
@@ -2822,10 +2822,10 @@
     <t xml:space="preserve">0.923637270927429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90240353345871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905057728290558</t>
+    <t xml:space="preserve">0.902403473854065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905057668685913</t>
   </si>
   <si>
     <t xml:space="preserve">0.860822856426239</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">0.855514407157898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861264944076538</t>
+    <t xml:space="preserve">0.861264884471893</t>
   </si>
   <si>
     <t xml:space="preserve">0.877632260322571</t>
@@ -2846,10 +2846,10 @@
     <t xml:space="preserve">0.869227528572083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794027030467987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752887427806854</t>
+    <t xml:space="preserve">0.794027090072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.752887487411499</t>
   </si>
   <si>
     <t xml:space="preserve">0.693170249462128</t>
@@ -2861,10 +2861,10 @@
     <t xml:space="preserve">0.683438360691071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699362754821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725019037723541</t>
+    <t xml:space="preserve">0.699362814426422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725018978118896</t>
   </si>
   <si>
     <t xml:space="preserve">0.729885458946228</t>
@@ -2876,25 +2876,25 @@
     <t xml:space="preserve">0.830742239952087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83428156375885</t>
+    <t xml:space="preserve">0.834281504154205</t>
   </si>
   <si>
     <t xml:space="preserve">0.850647985935211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906827807426453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895325839519501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928944766521454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953716933727264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942215919494629</t>
+    <t xml:space="preserve">0.906827747821808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89532595872879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928944706916809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95371687412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942215859889984</t>
   </si>
   <si>
     <t xml:space="preserve">0.939561665058136</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">0.94575423002243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955486178398132</t>
+    <t xml:space="preserve">0.955486118793488</t>
   </si>
   <si>
     <t xml:space="preserve">0.934253215789795</t>
@@ -2921,10 +2921,10 @@
     <t xml:space="preserve">0.919212937355042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890902459621429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889133274555206</t>
+    <t xml:space="preserve">0.890902519226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889133214950562</t>
   </si>
   <si>
     <t xml:space="preserve">0.891787528991699</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">0.899749279022217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924521386623383</t>
+    <t xml:space="preserve">0.924521327018738</t>
   </si>
   <si>
     <t xml:space="preserve">0.959910452365875</t>
@@ -2954,82 +2954,82 @@
     <t xml:space="preserve">1.01033878326416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01387715339661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02272486686707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03599500656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01830053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98999011516571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956371128559113</t>
+    <t xml:space="preserve">1.0138772726059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02272498607635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03599512577057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01830065250397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989989995956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956371188163757</t>
   </si>
   <si>
     <t xml:space="preserve">0.926290512084961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90328848361969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918328762054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930714905261993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960794627666473</t>
+    <t xml:space="preserve">0.903288543224335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918328821659088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930714845657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960794568061829</t>
   </si>
   <si>
     <t xml:space="preserve">0.986451804637909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975834786891937</t>
+    <t xml:space="preserve">0.975834846496582</t>
   </si>
   <si>
     <t xml:space="preserve">0.982027471065521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966988086700439</t>
+    <t xml:space="preserve">0.966988027095795</t>
   </si>
   <si>
     <t xml:space="preserve">1.00326120853424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952831923961639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98468154668808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994413495063782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992644309997559</t>
+    <t xml:space="preserve">0.952831864356995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984681665897369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994413614273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992644250392914</t>
   </si>
   <si>
     <t xml:space="preserve">0.9979527592659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99706768989563</t>
+    <t xml:space="preserve">0.997067749500275</t>
   </si>
   <si>
     <t xml:space="preserve">1.00237619876862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990875244140625</t>
+    <t xml:space="preserve">0.990875124931335</t>
   </si>
   <si>
     <t xml:space="preserve">1.03334081172943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21470654010773</t>
+    <t xml:space="preserve">1.21470665931702</t>
   </si>
   <si>
     <t xml:space="preserve">1.25982654094696</t>
@@ -3038,25 +3038,25 @@
     <t xml:space="preserve">1.24301695823669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22886180877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22620749473572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24124789237976</t>
+    <t xml:space="preserve">1.22886192798615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22620761394501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24124801158905</t>
   </si>
   <si>
     <t xml:space="preserve">1.20585978031158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17489421367645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1766642332077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17224073410034</t>
+    <t xml:space="preserve">1.17489409446716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17666435241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17224085330963</t>
   </si>
   <si>
     <t xml:space="preserve">1.1775484085083</t>
@@ -3065,19 +3065,19 @@
     <t xml:space="preserve">1.19789707660675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18728017807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23240125179291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21293747425079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18108761310577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17312502861023</t>
+    <t xml:space="preserve">1.18728029727936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23240113258362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2129373550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18108773231506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17312490940094</t>
   </si>
   <si>
     <t xml:space="preserve">1.45888674259186</t>
@@ -3104,28 +3104,28 @@
     <t xml:space="preserve">1.4801197052002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52347052097321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5641667842865</t>
+    <t xml:space="preserve">1.52347040176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56416690349579</t>
   </si>
   <si>
     <t xml:space="preserve">1.54558825492859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52612471580505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51816189289093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56859028339386</t>
+    <t xml:space="preserve">1.52612459659576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51816201210022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56859040260315</t>
   </si>
   <si>
     <t xml:space="preserve">1.49692916870117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51019930839539</t>
+    <t xml:space="preserve">1.5101991891861</t>
   </si>
   <si>
     <t xml:space="preserve">1.68183314800262</t>
@@ -3134,31 +3134,31 @@
     <t xml:space="preserve">1.64202165603638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72252988815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70749044418335</t>
+    <t xml:space="preserve">1.72252976894379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70749032497406</t>
   </si>
   <si>
     <t xml:space="preserve">1.71633720397949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71545207500458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72341477870941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70925951004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54293406009674</t>
+    <t xml:space="preserve">1.71545219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7234148979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70925962924957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54293417930603</t>
   </si>
   <si>
     <t xml:space="preserve">1.48100471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42261373996735</t>
+    <t xml:space="preserve">1.42261362075806</t>
   </si>
   <si>
     <t xml:space="preserve">1.43676888942719</t>
@@ -3167,7 +3167,7 @@
     <t xml:space="preserve">1.43942308425903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44561576843262</t>
+    <t xml:space="preserve">1.44561564922333</t>
   </si>
   <si>
     <t xml:space="preserve">1.48572742938995</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">1.47634184360504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47446489334106</t>
+    <t xml:space="preserve">1.47446477413177</t>
   </si>
   <si>
     <t xml:space="preserve">1.41252040863037</t>
@@ -3194,16 +3194,16 @@
     <t xml:space="preserve">1.57864415645599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773921012878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6227560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67813050746918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61900186538696</t>
+    <t xml:space="preserve">1.60773932933807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62275612354279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67813062667847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61900198459625</t>
   </si>
   <si>
     <t xml:space="preserve">1.6405885219574</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">1.63589584827423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62932598590851</t>
+    <t xml:space="preserve">1.62932586669922</t>
   </si>
   <si>
     <t xml:space="preserve">1.65091252326965</t>
@@ -3224,16 +3224,16 @@
     <t xml:space="preserve">1.71004140377045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70159435272217</t>
+    <t xml:space="preserve">1.70159447193146</t>
   </si>
   <si>
     <t xml:space="preserve">1.66217529773712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282330036163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69877874851227</t>
+    <t xml:space="preserve">1.68282341957092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69877862930298</t>
   </si>
   <si>
     <t xml:space="preserve">1.73256659507751</t>
@@ -3242,37 +3242,37 @@
     <t xml:space="preserve">1.72130393981934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70816433429718</t>
+    <t xml:space="preserve">1.70816421508789</t>
   </si>
   <si>
     <t xml:space="preserve">1.67719197273254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60867774486542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61055493354797</t>
+    <t xml:space="preserve">1.60867786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61055481433868</t>
   </si>
   <si>
     <t xml:space="preserve">1.58145976066589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58615267276764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61524748802185</t>
+    <t xml:space="preserve">1.58615255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61524760723114</t>
   </si>
   <si>
     <t xml:space="preserve">1.59647655487061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58990669250488</t>
+    <t xml:space="preserve">1.58990681171417</t>
   </si>
   <si>
     <t xml:space="preserve">1.63120305538177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62087893486023</t>
+    <t xml:space="preserve">1.62087905406952</t>
   </si>
   <si>
     <t xml:space="preserve">1.64528131484985</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">1.5523647069931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50825262069702</t>
+    <t xml:space="preserve">1.50825273990631</t>
   </si>
   <si>
     <t xml:space="preserve">1.53265511989594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55330324172974</t>
+    <t xml:space="preserve">1.55330312252045</t>
   </si>
   <si>
     <t xml:space="preserve">1.71379554271698</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">2.00850081443787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10047912597656</t>
+    <t xml:space="preserve">2.10047888755798</t>
   </si>
   <si>
     <t xml:space="preserve">2.15679216384888</t>
@@ -3329,13 +3329,13 @@
     <t xml:space="preserve">2.21498227119446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29945206642151</t>
+    <t xml:space="preserve">2.29945182800293</t>
   </si>
   <si>
     <t xml:space="preserve">2.07607650756836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0009925365448</t>
+    <t xml:space="preserve">2.00099229812622</t>
   </si>
   <si>
     <t xml:space="preserve">2.07795381546021</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">2.13802123069763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2337532043457</t>
+    <t xml:space="preserve">2.23375368118286</t>
   </si>
   <si>
     <t xml:space="preserve">2.1980881690979</t>
@@ -3362,16 +3362,16 @@
     <t xml:space="preserve">2.25252461433411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.306960105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29194355010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30508327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31071424484253</t>
+    <t xml:space="preserve">2.30696034431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29194331169128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30508351325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31071448326111</t>
   </si>
   <si>
     <t xml:space="preserve">2.37641334533691</t>
@@ -3380,10 +3380,10 @@
     <t xml:space="preserve">2.30883741378784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24876999855042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27317214012146</t>
+    <t xml:space="preserve">2.24877023696899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27317237854004</t>
   </si>
   <si>
     <t xml:space="preserve">2.32760858535767</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">2.44211173057556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42146348953247</t>
+    <t xml:space="preserve">2.42146372795105</t>
   </si>
   <si>
     <t xml:space="preserve">2.45712852478027</t>
@@ -3404,10 +3404,10 @@
     <t xml:space="preserve">2.56036925315857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59040307998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52470445632935</t>
+    <t xml:space="preserve">2.59040284156799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52470469474792</t>
   </si>
   <si>
     <t xml:space="preserve">2.60917377471924</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">2.620436668396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6617329120636</t>
+    <t xml:space="preserve">2.66173267364502</t>
   </si>
   <si>
     <t xml:space="preserve">2.65797853469849</t>
@@ -3440,19 +3440,19 @@
     <t xml:space="preserve">2.51907300949097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34074831008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53033566474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6260678768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63920760154724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71241474151611</t>
+    <t xml:space="preserve">2.34074807167053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53033590316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62606811523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63920783996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71241497993469</t>
   </si>
   <si>
     <t xml:space="preserve">2.81377816200256</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">2.78749895095825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81002426147461</t>
+    <t xml:space="preserve">2.81002402305603</t>
   </si>
   <si>
     <t xml:space="preserve">2.74995684623718</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">2.41770935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41020083427429</t>
+    <t xml:space="preserve">2.41020131111145</t>
   </si>
   <si>
     <t xml:space="preserve">2.39330697059631</t>
@@ -3494,10 +3494,10 @@
     <t xml:space="preserve">2.44586586952209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41395545005798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42334079742432</t>
+    <t xml:space="preserve">2.4139552116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42334055900574</t>
   </si>
   <si>
     <t xml:space="preserve">2.40269255638123</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">2.44398903846741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3726589679718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27692699432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28818941116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30320620536804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26566410064697</t>
+    <t xml:space="preserve">2.37265920639038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27692675590515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28818917274475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30320596694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26566386222839</t>
   </si>
   <si>
     <t xml:space="preserve">2.28443503379822</t>
@@ -3530,22 +3530,22 @@
     <t xml:space="preserve">2.17931723594666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29757452011108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3257315158844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26191020011902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53408980369568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53596687316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18870306015015</t>
+    <t xml:space="preserve">2.29757475852966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32573127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26190996170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53409004211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53596711158752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18870258331299</t>
   </si>
   <si>
     <t xml:space="preserve">2.11174154281616</t>
@@ -3557,10 +3557,10 @@
     <t xml:space="preserve">2.24501585960388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21873641014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13238978385925</t>
+    <t xml:space="preserve">2.21873664855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13238954544067</t>
   </si>
   <si>
     <t xml:space="preserve">2.20371961593628</t>
@@ -3578,13 +3578,13 @@
     <t xml:space="preserve">2.04604291915894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13426661491394</t>
+    <t xml:space="preserve">2.13426685333252</t>
   </si>
   <si>
     <t xml:space="preserve">2.12300419807434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97846722602844</t>
+    <t xml:space="preserve">1.97846710681915</t>
   </si>
   <si>
     <t xml:space="preserve">2.01413226127625</t>
@@ -3599,10 +3599,10 @@
     <t xml:space="preserve">1.6556054353714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66123676300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77949440479279</t>
+    <t xml:space="preserve">1.6612366437912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7794942855835</t>
   </si>
   <si>
     <t xml:space="preserve">1.6734379529953</t>
@@ -3623,34 +3623,34 @@
     <t xml:space="preserve">1.83956158161163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83674597740173</t>
+    <t xml:space="preserve">1.83674585819244</t>
   </si>
   <si>
     <t xml:space="preserve">1.80765080451965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74852216243744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76447737216949</t>
+    <t xml:space="preserve">1.74852204322815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76447749137878</t>
   </si>
   <si>
     <t xml:space="preserve">1.77855563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83017611503601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9747132062912</t>
+    <t xml:space="preserve">1.83017599582672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97471296787262</t>
   </si>
   <si>
     <t xml:space="preserve">1.94280219078064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84894716739655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89024317264557</t>
+    <t xml:space="preserve">1.84894704818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89024329185486</t>
   </si>
   <si>
     <t xml:space="preserve">1.86677944660187</t>
@@ -3662,13 +3662,13 @@
     <t xml:space="preserve">1.76917016506195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7381979227066</t>
+    <t xml:space="preserve">1.73819804191589</t>
   </si>
   <si>
     <t xml:space="preserve">1.69596314430237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71567261219025</t>
+    <t xml:space="preserve">1.71567249298096</t>
   </si>
   <si>
     <t xml:space="preserve">1.81140506267548</t>
@@ -3677,28 +3677,28 @@
     <t xml:space="preserve">1.80108094215393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77761709690094</t>
+    <t xml:space="preserve">1.77761721611023</t>
   </si>
   <si>
     <t xml:space="preserve">1.72599673271179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73632097244263</t>
+    <t xml:space="preserve">1.73632085323334</t>
   </si>
   <si>
     <t xml:space="preserve">1.72693526744843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70441019535065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71661138534546</t>
+    <t xml:space="preserve">1.70441007614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71661126613617</t>
   </si>
   <si>
     <t xml:space="preserve">1.64246571063995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5495491027832</t>
+    <t xml:space="preserve">1.54954898357391</t>
   </si>
   <si>
     <t xml:space="preserve">1.56644296646118</t>
@@ -3707,13 +3707,13 @@
     <t xml:space="preserve">1.63308012485504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70347142219543</t>
+    <t xml:space="preserve">1.70347154140472</t>
   </si>
   <si>
     <t xml:space="preserve">1.68376195430756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74195218086243</t>
+    <t xml:space="preserve">1.74195206165314</t>
   </si>
   <si>
     <t xml:space="preserve">1.7025328874588</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">1.61149346828461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72787380218506</t>
+    <t xml:space="preserve">1.72787392139435</t>
   </si>
   <si>
     <t xml:space="preserve">1.74476778507233</t>
@@ -3737,37 +3737,37 @@
     <t xml:space="preserve">1.82454478740692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7907567024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8179749250412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88648903369904</t>
+    <t xml:space="preserve">1.79075694084167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81797480583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88648915290833</t>
   </si>
   <si>
     <t xml:space="preserve">1.95406484603882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91464555263519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90526008605957</t>
+    <t xml:space="preserve">1.91464567184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90526020526886</t>
   </si>
   <si>
     <t xml:space="preserve">1.90150594711304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75603055953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54204070568085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50262141227722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55171406269073</t>
+    <t xml:space="preserve">1.75603044033051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54204058647156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50262129306793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55171418190002</t>
   </si>
   <si>
     <t xml:space="preserve">1.56422793865204</t>
@@ -3779,16 +3779,16 @@
     <t xml:space="preserve">1.54401326179504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56326532363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52187347412109</t>
+    <t xml:space="preserve">1.56326520442963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5218733549118</t>
   </si>
   <si>
     <t xml:space="preserve">1.56134009361267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56904089450836</t>
+    <t xml:space="preserve">1.56904101371765</t>
   </si>
   <si>
     <t xml:space="preserve">1.4978084564209</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">1.46026682853699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37844574451447</t>
+    <t xml:space="preserve">1.37844586372375</t>
   </si>
   <si>
     <t xml:space="preserve">1.40636122226715</t>
@@ -3818,10 +3818,10 @@
     <t xml:space="preserve">1.39288485050201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36015641689301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35534334182739</t>
+    <t xml:space="preserve">1.36015629768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3553432226181</t>
   </si>
   <si>
     <t xml:space="preserve">1.38614666461945</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">1.43812704086304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43716442584991</t>
+    <t xml:space="preserve">1.4371645450592</t>
   </si>
   <si>
     <t xml:space="preserve">1.37363278865814</t>
@@ -3857,13 +3857,13 @@
     <t xml:space="preserve">1.51128482818604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48433208465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52957427501678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55652713775635</t>
+    <t xml:space="preserve">1.48433196544647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5295741558075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55652701854706</t>
   </si>
   <si>
     <t xml:space="preserve">1.545938372612</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">1.58347988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57674169540405</t>
+    <t xml:space="preserve">1.57674181461334</t>
   </si>
   <si>
     <t xml:space="preserve">1.60561978816986</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">1.49492049217224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42657589912415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42272543907166</t>
+    <t xml:space="preserve">1.42657577991486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42272555828094</t>
   </si>
   <si>
     <t xml:space="preserve">1.45449137687683</t>
@@ -3914,16 +3914,16 @@
     <t xml:space="preserve">1.44293999671936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47470581531525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41502463817596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43235158920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45064091682434</t>
+    <t xml:space="preserve">1.47470593452454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41502475738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43235146999359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45064079761505</t>
   </si>
   <si>
     <t xml:space="preserve">1.44005239009857</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">1.51994824409485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50069618225098</t>
+    <t xml:space="preserve">1.50069630146027</t>
   </si>
   <si>
     <t xml:space="preserve">1.55556452274323</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">1.49588322639465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4814441204071</t>
+    <t xml:space="preserve">1.48144423961639</t>
   </si>
   <si>
     <t xml:space="preserve">1.80680358409882</t>
@@ -3956,19 +3956,19 @@
     <t xml:space="preserve">1.67781496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.672039270401</t>
+    <t xml:space="preserve">1.67203938961029</t>
   </si>
   <si>
     <t xml:space="preserve">1.68551576137543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6556750535965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58829295635223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64989936351776</t>
+    <t xml:space="preserve">1.65567517280579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58829283714294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64989948272705</t>
   </si>
   <si>
     <t xml:space="preserve">1.64412379264832</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">1.62390923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68936610221863</t>
+    <t xml:space="preserve">1.68936622142792</t>
   </si>
   <si>
     <t xml:space="preserve">1.68840348720551</t>
@@ -4007,22 +4007,22 @@
     <t xml:space="preserve">1.75674831867218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75771081447601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76926219463348</t>
+    <t xml:space="preserve">1.7577109336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76926207542419</t>
   </si>
   <si>
     <t xml:space="preserve">1.86744749546051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89825081825256</t>
+    <t xml:space="preserve">1.89825069904327</t>
   </si>
   <si>
     <t xml:space="preserve">1.89440035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83279395103455</t>
+    <t xml:space="preserve">1.83279383182526</t>
   </si>
   <si>
     <t xml:space="preserve">1.81931746006012</t>
@@ -4031,31 +4031,31 @@
     <t xml:space="preserve">1.82894337177277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87611079216003</t>
+    <t xml:space="preserve">1.87611091136932</t>
   </si>
   <si>
     <t xml:space="preserve">1.83375644683838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8549337387085</t>
+    <t xml:space="preserve">1.85493361949921</t>
   </si>
   <si>
     <t xml:space="preserve">1.89343774318695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95793211460114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97718393802643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98295950889587</t>
+    <t xml:space="preserve">1.95793187618256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97718405723572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98295962810516</t>
   </si>
   <si>
     <t xml:space="preserve">2.01183772087097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04841685295105</t>
+    <t xml:space="preserve">2.04841661453247</t>
   </si>
   <si>
     <t xml:space="preserve">2.05996775627136</t>
@@ -4082,16 +4082,16 @@
     <t xml:space="preserve">2.09077095985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10809803009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16585421562195</t>
+    <t xml:space="preserve">2.10809779167175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16585397720337</t>
   </si>
   <si>
     <t xml:space="preserve">2.26018905639648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2813663482666</t>
+    <t xml:space="preserve">2.28136610984802</t>
   </si>
   <si>
     <t xml:space="preserve">2.24863767623901</t>
@@ -4109,13 +4109,13 @@
     <t xml:space="preserve">2.23516130447388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2274603843689</t>
+    <t xml:space="preserve">2.22746062278748</t>
   </si>
   <si>
     <t xml:space="preserve">2.22553539276123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09269642829895</t>
+    <t xml:space="preserve">2.09269618988037</t>
   </si>
   <si>
     <t xml:space="preserve">2.14082646369934</t>
@@ -4124,10 +4124,10 @@
     <t xml:space="preserve">1.96178257465363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00221157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02531433105469</t>
+    <t xml:space="preserve">2.00221180915833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02531409263611</t>
   </si>
   <si>
     <t xml:space="preserve">2.04071569442749</t>
@@ -4145,19 +4145,19 @@
     <t xml:space="preserve">2.02723932266235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07922005653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08499526977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15237784385681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18125581741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22938585281372</t>
+    <t xml:space="preserve">2.07921981811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08499550819397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15237760543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18125557899475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22938561439514</t>
   </si>
   <si>
     <t xml:space="preserve">2.25441336631775</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">2.1389012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19473218917847</t>
+    <t xml:space="preserve">2.19473195075989</t>
   </si>
   <si>
     <t xml:space="preserve">2.18510603904724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15815329551697</t>
+    <t xml:space="preserve">2.15815353393555</t>
   </si>
   <si>
     <t xml:space="preserve">2.12157440185547</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">2.13697600364685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11964893341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40842962265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38147664070129</t>
+    <t xml:space="preserve">2.11964917182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40842986106873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38147687911987</t>
   </si>
   <si>
     <t xml:space="preserve">2.45463442802429</t>
@@ -4208,31 +4208,31 @@
     <t xml:space="preserve">2.47003602981567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51239037513733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55859565734863</t>
+    <t xml:space="preserve">2.51239061355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55859541893005</t>
   </si>
   <si>
     <t xml:space="preserve">2.51624131202698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55089473724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53934359550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52971768379211</t>
+    <t xml:space="preserve">2.55089497566223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53934335708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52971744537354</t>
   </si>
   <si>
     <t xml:space="preserve">2.53356790542603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49698901176453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48351240158081</t>
+    <t xml:space="preserve">2.49698925018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48351263999939</t>
   </si>
   <si>
     <t xml:space="preserve">2.44308352470398</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">2.31409478187561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36415004730225</t>
+    <t xml:space="preserve">2.36415028572083</t>
   </si>
   <si>
     <t xml:space="preserve">2.31216955184937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26981520652771</t>
+    <t xml:space="preserve">2.26981496810913</t>
   </si>
   <si>
     <t xml:space="preserve">2.33527207374573</t>
@@ -4286,16 +4286,16 @@
     <t xml:space="preserve">2.33719706535339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29869318008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26596450805664</t>
+    <t xml:space="preserve">2.29869294166565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26596474647522</t>
   </si>
   <si>
     <t xml:space="preserve">2.27366542816162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27559065818787</t>
+    <t xml:space="preserve">2.27559089660645</t>
   </si>
   <si>
     <t xml:space="preserve">2.3256459236145</t>
@@ -4304,16 +4304,16 @@
     <t xml:space="preserve">2.31987047195435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40265417098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37955141067505</t>
+    <t xml:space="preserve">2.40265393257141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37955164909363</t>
   </si>
   <si>
     <t xml:space="preserve">2.37570118904114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38532733917236</t>
+    <t xml:space="preserve">2.38532710075378</t>
   </si>
   <si>
     <t xml:space="preserve">2.43730783462524</t>
@@ -4328,16 +4328,16 @@
     <t xml:space="preserve">2.62597751617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59324932098389</t>
+    <t xml:space="preserve">2.59324908256531</t>
   </si>
   <si>
     <t xml:space="preserve">2.63560366630554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61442637443542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61827707290649</t>
+    <t xml:space="preserve">2.614426612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61827683448792</t>
   </si>
   <si>
     <t xml:space="preserve">2.60480070114136</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">2.60287523269653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5778477191925</t>
+    <t xml:space="preserve">2.57784748077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.66255664825439</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">2.61635160446167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54319405555725</t>
+    <t xml:space="preserve">2.54319381713867</t>
   </si>
   <si>
     <t xml:space="preserve">2.50661516189575</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">2.40457916259766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35837459564209</t>
+    <t xml:space="preserve">2.35837435722351</t>
   </si>
   <si>
     <t xml:space="preserve">2.43923282623291</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">2.46233558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46811079978943</t>
+    <t xml:space="preserve">2.46811103820801</t>
   </si>
   <si>
     <t xml:space="preserve">2.43538236618042</t>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="1670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1672">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33549165725708</t>
+    <t xml:space="preserve">5.3354926109314</t>
   </si>
   <si>
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18833589553833</t>
+    <t xml:space="preserve">5.18833541870117</t>
   </si>
   <si>
     <t xml:space="preserve">5.04538249969482</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">4.91924810409546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99913311004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93186140060425</t>
+    <t xml:space="preserve">4.99913358688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93186092376709</t>
   </si>
   <si>
     <t xml:space="preserve">5.07060956954956</t>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">4.96970176696777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8772029876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91083955764771</t>
+    <t xml:space="preserve">4.87720251083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91084003448486</t>
   </si>
   <si>
     <t xml:space="preserve">4.88981676101685</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">4.72163677215576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74265956878662</t>
+    <t xml:space="preserve">4.74266052246094</t>
   </si>
   <si>
     <t xml:space="preserve">4.76368236541748</t>
@@ -98,25 +98,25 @@
     <t xml:space="preserve">4.78049993515015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70902442932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90243005752563</t>
+    <t xml:space="preserve">4.70902395248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90242958068848</t>
   </si>
   <si>
     <t xml:space="preserve">4.86459016799927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7847056388855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81413650512695</t>
+    <t xml:space="preserve">4.78470468521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81413555145264</t>
   </si>
   <si>
     <t xml:space="preserve">4.58288955688477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27175760269165</t>
+    <t xml:space="preserve">4.27175712585449</t>
   </si>
   <si>
     <t xml:space="preserve">4.26755285263062</t>
@@ -128,22 +128,22 @@
     <t xml:space="preserve">4.47357225418091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64175224304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55766248703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73425054550171</t>
+    <t xml:space="preserve">4.64175176620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55766296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73425102233887</t>
   </si>
   <si>
     <t xml:space="preserve">4.73004579544067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75106859207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75527238845825</t>
+    <t xml:space="preserve">4.75106906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75527286529541</t>
   </si>
   <si>
     <t xml:space="preserve">4.52402591705322</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">4.83515882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94867992401123</t>
+    <t xml:space="preserve">4.94867944717407</t>
   </si>
   <si>
     <t xml:space="preserve">4.99492883682251</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">4.86038541793823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77209138870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79311418533325</t>
+    <t xml:space="preserve">4.77209091186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79311370849609</t>
   </si>
   <si>
     <t xml:space="preserve">4.64595603942871</t>
@@ -179,13 +179,13 @@
     <t xml:space="preserve">4.69220590591431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66277456283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54504871368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36425590515137</t>
+    <t xml:space="preserve">4.66277503967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54504919052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36425638198853</t>
   </si>
   <si>
     <t xml:space="preserve">4.33902883529663</t>
@@ -194,49 +194,49 @@
     <t xml:space="preserve">4.30539321899414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33062028884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40209531784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46095943450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28857564926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25914335250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56607055664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4105052947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4861855506897</t>
+    <t xml:space="preserve">4.33061981201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40209627151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46095895767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28857517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2591438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56607103347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41050577163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48618650436401</t>
   </si>
   <si>
     <t xml:space="preserve">4.77629518508911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01595163345337</t>
+    <t xml:space="preserve">5.01595115661621</t>
   </si>
   <si>
     <t xml:space="preserve">4.81834077835083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76788711547852</t>
+    <t xml:space="preserve">4.76788663864136</t>
   </si>
   <si>
     <t xml:space="preserve">4.83095407485962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74686431884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78890991210938</t>
+    <t xml:space="preserve">4.7468638420105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78890943527222</t>
   </si>
   <si>
     <t xml:space="preserve">4.82254457473755</t>
@@ -245,46 +245,46 @@
     <t xml:space="preserve">4.80993175506592</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83936214447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80572652816772</t>
+    <t xml:space="preserve">4.83936309814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80572700500488</t>
   </si>
   <si>
     <t xml:space="preserve">4.92345237731934</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9823145866394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12947177886963</t>
+    <t xml:space="preserve">4.98231554031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12947225570679</t>
   </si>
   <si>
     <t xml:space="preserve">5.1799259185791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10004138946533</t>
+    <t xml:space="preserve">5.10004091262817</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731309890747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20094871520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04117870330811</t>
+    <t xml:space="preserve">5.2009482383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04117822647095</t>
   </si>
   <si>
     <t xml:space="preserve">5.01849603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04870223999023</t>
+    <t xml:space="preserve">5.04870176315308</t>
   </si>
   <si>
     <t xml:space="preserve">5.19110107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01418113708496</t>
+    <t xml:space="preserve">5.01418161392212</t>
   </si>
   <si>
     <t xml:space="preserve">4.83726119995117</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">4.74232769012451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75527334213257</t>
+    <t xml:space="preserve">4.75527381896973</t>
   </si>
   <si>
     <t xml:space="preserve">4.9063024520874</t>
@@ -308,52 +308,52 @@
     <t xml:space="preserve">4.88472700119019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81999969482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78116464614868</t>
+    <t xml:space="preserve">4.82000017166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78116416931152</t>
   </si>
   <si>
     <t xml:space="preserve">4.58698320388794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18049716949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3798565864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49636602401733</t>
+    <t xml:space="preserve">4.18049764633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37985706329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49636554718018</t>
   </si>
   <si>
     <t xml:space="preserve">4.51794004440308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5567774772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50931024551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35396528244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33239078521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29269123077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43595266342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41006231307983</t>
+    <t xml:space="preserve">4.55677700042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50931072235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35396575927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33238983154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29269075393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43595314025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41006278991699</t>
   </si>
   <si>
     <t xml:space="preserve">4.40143251419067</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40574741363525</t>
+    <t xml:space="preserve">4.4057469367981</t>
   </si>
   <si>
     <t xml:space="preserve">4.34965085983276</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">4.28233528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3625955581665</t>
+    <t xml:space="preserve">4.36259603500366</t>
   </si>
   <si>
     <t xml:space="preserve">4.41437768936157</t>
@@ -377,31 +377,31 @@
     <t xml:space="preserve">4.45752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48342037200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63013505935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62581968307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53951597213745</t>
+    <t xml:space="preserve">4.48341989517212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63013458251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62581920623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53951644897461</t>
   </si>
   <si>
     <t xml:space="preserve">4.53088617324829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49205017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50499534606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55246210098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47910499572754</t>
+    <t xml:space="preserve">4.49204969406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50499582290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55246257781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47910451889038</t>
   </si>
   <si>
     <t xml:space="preserve">4.31340360641479</t>
@@ -410,46 +410,46 @@
     <t xml:space="preserve">4.41869306564331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44026803970337</t>
+    <t xml:space="preserve">4.44026756286621</t>
   </si>
   <si>
     <t xml:space="preserve">4.34533596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28060817718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38417196273804</t>
+    <t xml:space="preserve">4.28060865402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38417148590088</t>
   </si>
   <si>
     <t xml:space="preserve">4.3410210609436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23745727539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22882699966431</t>
+    <t xml:space="preserve">4.23745775222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22882747650146</t>
   </si>
   <si>
     <t xml:space="preserve">4.2719783782959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44458389282227</t>
+    <t xml:space="preserve">4.44458341598511</t>
   </si>
   <si>
     <t xml:space="preserve">4.39711761474609</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32807540893555</t>
+    <t xml:space="preserve">4.32807493209839</t>
   </si>
   <si>
     <t xml:space="preserve">4.3013219833374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61718893051147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63444948196411</t>
+    <t xml:space="preserve">4.61718845367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63445043563843</t>
   </si>
   <si>
     <t xml:space="preserve">4.70349168777466</t>
@@ -467,58 +467,58 @@
     <t xml:space="preserve">4.56972217559814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52225589752197</t>
+    <t xml:space="preserve">4.52225637435913</t>
   </si>
   <si>
     <t xml:space="preserve">4.46615934371948</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42732334136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38848638534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35828018188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31513071060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30995178222656</t>
+    <t xml:space="preserve">4.42732286453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38848686218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35828065872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31513023376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3099513053894</t>
   </si>
   <si>
     <t xml:space="preserve">4.32376003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30477333068848</t>
+    <t xml:space="preserve">4.30477380752563</t>
   </si>
   <si>
     <t xml:space="preserve">4.24263525009155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19430589675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29441738128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37554168701172</t>
+    <t xml:space="preserve">4.19430637359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29441690444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37554216384888</t>
   </si>
   <si>
     <t xml:space="preserve">4.28578662872314</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2167444229126</t>
+    <t xml:space="preserve">4.21674394607544</t>
   </si>
   <si>
     <t xml:space="preserve">4.24091005325317</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22192335128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26334857940674</t>
+    <t xml:space="preserve">4.22192287445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2633490562439</t>
   </si>
   <si>
     <t xml:space="preserve">4.20984029769897</t>
@@ -527,22 +527,22 @@
     <t xml:space="preserve">4.26162195205688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29959487915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28751277923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29096460342407</t>
+    <t xml:space="preserve">4.29959535598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28751230239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29096508026123</t>
   </si>
   <si>
     <t xml:space="preserve">4.2150182723999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26852560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25817012786865</t>
+    <t xml:space="preserve">4.26852607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25817060470581</t>
   </si>
   <si>
     <t xml:space="preserve">4.23573112487793</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">4.4877347946167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45321369171143</t>
+    <t xml:space="preserve">4.45321416854858</t>
   </si>
   <si>
     <t xml:space="preserve">4.47479009628296</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">4.25989580154419</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16323757171631</t>
+    <t xml:space="preserve">4.16323709487915</t>
   </si>
   <si>
     <t xml:space="preserve">4.14425039291382</t>
@@ -578,22 +578,22 @@
     <t xml:space="preserve">4.12526369094849</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10455083847046</t>
+    <t xml:space="preserve">4.10455131530762</t>
   </si>
   <si>
     <t xml:space="preserve">4.17359399795532</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16668939590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12699031829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18912792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23918437957764</t>
+    <t xml:space="preserve">4.1666898727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1269907951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18912839889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23918390274048</t>
   </si>
   <si>
     <t xml:space="preserve">4.63876438140869</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">4.65171051025391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61287355422974</t>
+    <t xml:space="preserve">4.61287307739258</t>
   </si>
   <si>
     <t xml:space="preserve">4.54383134841919</t>
@@ -617,13 +617,13 @@
     <t xml:space="preserve">4.58266830444336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54814720153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5956130027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59129810333252</t>
+    <t xml:space="preserve">4.54814767837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59561347961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59129762649536</t>
   </si>
   <si>
     <t xml:space="preserve">4.599928855896</t>
@@ -635,16 +635,16 @@
     <t xml:space="preserve">4.74664306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66897010803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80705451965332</t>
+    <t xml:space="preserve">4.66897058486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80705547332764</t>
   </si>
   <si>
     <t xml:space="preserve">4.82431507110596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79410982131958</t>
+    <t xml:space="preserve">4.79410934448242</t>
   </si>
   <si>
     <t xml:space="preserve">4.77253341674805</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">4.86746644973755</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96239995956421</t>
+    <t xml:space="preserve">4.96239948272705</t>
   </si>
   <si>
     <t xml:space="preserve">4.94945383071899</t>
@@ -665,22 +665,22 @@
     <t xml:space="preserve">4.87609672546387</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97965955734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14363527297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1091136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05733203887939</t>
+    <t xml:space="preserve">4.97966003417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14363479614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10911321640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05733156204224</t>
   </si>
   <si>
     <t xml:space="preserve">5.08322286605835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02281093597412</t>
+    <t xml:space="preserve">5.02281141281128</t>
   </si>
   <si>
     <t xml:space="preserve">5.06596279144287</t>
@@ -698,13 +698,13 @@
     <t xml:space="preserve">5.1522650718689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34644556045532</t>
+    <t xml:space="preserve">5.34644603729248</t>
   </si>
   <si>
     <t xml:space="preserve">5.31192493438721</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18678569793701</t>
+    <t xml:space="preserve">5.18678617477417</t>
   </si>
   <si>
     <t xml:space="preserve">5.20836162567139</t>
@@ -713,37 +713,37 @@
     <t xml:space="preserve">5.17815589904785</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3421311378479</t>
+    <t xml:space="preserve">5.34213066101074</t>
   </si>
   <si>
     <t xml:space="preserve">5.19541692733765</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24288320541382</t>
+    <t xml:space="preserve">5.24288272857666</t>
   </si>
   <si>
     <t xml:space="preserve">5.35076141357422</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27308893203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.329185962677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38528251647949</t>
+    <t xml:space="preserve">5.27308940887451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32918500900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38528203964233</t>
   </si>
   <si>
     <t xml:space="preserve">5.54925680160522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50610542297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45000839233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50179052352905</t>
+    <t xml:space="preserve">5.50610589981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45000886917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50178956985474</t>
   </si>
   <si>
     <t xml:space="preserve">5.3550763130188</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">5.36370658874512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43706369400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41980266571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5622034072876</t>
+    <t xml:space="preserve">5.4370641708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41980314254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56220293045044</t>
   </si>
   <si>
     <t xml:space="preserve">5.48884582519531</t>
@@ -779,16 +779,16 @@
     <t xml:space="preserve">5.47158479690552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49316072463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40685892105103</t>
+    <t xml:space="preserve">5.49316024780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40685844421387</t>
   </si>
   <si>
     <t xml:space="preserve">5.37233638763428</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23856782913208</t>
+    <t xml:space="preserve">5.23856735229492</t>
   </si>
   <si>
     <t xml:space="preserve">5.36802101135254</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">5.33480167388916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67983865737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71080255508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62675666809082</t>
+    <t xml:space="preserve">5.67983818054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71080303192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62675619125366</t>
   </si>
   <si>
     <t xml:space="preserve">5.5913667678833</t>
@@ -815,10 +815,10 @@
     <t xml:space="preserve">5.66214418411255</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67099046707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6356029510498</t>
+    <t xml:space="preserve">5.67099094390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63560247421265</t>
   </si>
   <si>
     <t xml:space="preserve">5.65329742431641</t>
@@ -830,25 +830,25 @@
     <t xml:space="preserve">5.58694362640381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49404954910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4365439414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51174354553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53828573226929</t>
+    <t xml:space="preserve">5.49405002593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43654346466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51174402236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53828525543213</t>
   </si>
   <si>
     <t xml:space="preserve">5.56482553482056</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57367324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48962640762329</t>
+    <t xml:space="preserve">5.57367372512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48962593078613</t>
   </si>
   <si>
     <t xml:space="preserve">5.52059078216553</t>
@@ -860,13 +860,13 @@
     <t xml:space="preserve">5.56040239334106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55597877502441</t>
+    <t xml:space="preserve">5.55597925186157</t>
   </si>
   <si>
     <t xml:space="preserve">5.59579133987427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53386163711548</t>
+    <t xml:space="preserve">5.53386116027832</t>
   </si>
   <si>
     <t xml:space="preserve">5.61348485946655</t>
@@ -875,55 +875,55 @@
     <t xml:space="preserve">5.64887428283691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72407388687134</t>
+    <t xml:space="preserve">5.72407341003418</t>
   </si>
   <si>
     <t xml:space="preserve">5.69310903549194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71964979171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70195627212524</t>
+    <t xml:space="preserve">5.71965026855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7019567489624</t>
   </si>
   <si>
     <t xml:space="preserve">5.69753217697144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54270935058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62233304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56925010681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51616764068604</t>
+    <t xml:space="preserve">5.54270887374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62233257293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56925058364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51616716384888</t>
   </si>
   <si>
     <t xml:space="preserve">5.44096708297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41442584991455</t>
+    <t xml:space="preserve">5.41442537307739</t>
   </si>
   <si>
     <t xml:space="preserve">5.4586615562439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54713201522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64002656936646</t>
+    <t xml:space="preserve">5.54713153839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64002561569214</t>
   </si>
   <si>
     <t xml:space="preserve">5.6179084777832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6090612411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64444971084595</t>
+    <t xml:space="preserve">5.60906171798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64445018768311</t>
   </si>
   <si>
     <t xml:space="preserve">5.81254482269287</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">5.86562776565552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92755746841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852136611938</t>
+    <t xml:space="preserve">5.92755699157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852184295654</t>
   </si>
   <si>
     <t xml:space="preserve">6.02487564086914</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">5.9054388999939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76388549804688</t>
+    <t xml:space="preserve">5.76388597488403</t>
   </si>
   <si>
     <t xml:space="preserve">5.95409870147705</t>
@@ -965,10 +965,10 @@
     <t xml:space="preserve">5.71522617340088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70637989044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55155563354492</t>
+    <t xml:space="preserve">5.70638036727905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55155515670776</t>
   </si>
   <si>
     <t xml:space="preserve">5.60463809967041</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">5.50289583206177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.383460521698</t>
+    <t xml:space="preserve">5.38346099853516</t>
   </si>
   <si>
     <t xml:space="preserve">5.17555332183838</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">5.087082862854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13131761550903</t>
+    <t xml:space="preserve">5.13131809234619</t>
   </si>
   <si>
     <t xml:space="preserve">5.12247133255005</t>
@@ -1010,13 +1010,13 @@
     <t xml:space="preserve">5.16670703887939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14016532897949</t>
+    <t xml:space="preserve">5.14016580581665</t>
   </si>
   <si>
     <t xml:space="preserve">5.09592962265015</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25075483322144</t>
+    <t xml:space="preserve">5.25075435638428</t>
   </si>
   <si>
     <t xml:space="preserve">5.21978950500488</t>
@@ -1031,28 +1031,28 @@
     <t xml:space="preserve">5.11804819107056</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00303506851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93668174743652</t>
+    <t xml:space="preserve">5.0030345916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93668222427368</t>
   </si>
   <si>
     <t xml:space="preserve">4.97649335861206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94552850723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91014099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98091745376587</t>
+    <t xml:space="preserve">4.94552898406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91014051437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98091793060303</t>
   </si>
   <si>
     <t xml:space="preserve">4.94995260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91456460952759</t>
+    <t xml:space="preserve">4.91456413269043</t>
   </si>
   <si>
     <t xml:space="preserve">4.99861145019531</t>
@@ -1064,10 +1064,10 @@
     <t xml:space="preserve">5.02957630157471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01188278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98976421356201</t>
+    <t xml:space="preserve">5.01188230514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98976469039917</t>
   </si>
   <si>
     <t xml:space="preserve">4.95437669754028</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">5.1268949508667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46750783920288</t>
+    <t xml:space="preserve">5.46750831604004</t>
   </si>
   <si>
     <t xml:space="preserve">5.29498910903931</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">5.31710720062256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47635459899902</t>
+    <t xml:space="preserve">5.47635507583618</t>
   </si>
   <si>
     <t xml:space="preserve">5.40115451812744</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">5.0693883895874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96322298049927</t>
+    <t xml:space="preserve">4.96322345733643</t>
   </si>
   <si>
     <t xml:space="preserve">4.87917613983154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86590480804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88802242279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90571784973145</t>
+    <t xml:space="preserve">4.86590528488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88802289962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90571737289429</t>
   </si>
   <si>
     <t xml:space="preserve">4.98534107208252</t>
@@ -1127,34 +1127,34 @@
     <t xml:space="preserve">4.85705804824829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8216700553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80839920043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84821081161499</t>
+    <t xml:space="preserve">4.82166957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80839872360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84821176528931</t>
   </si>
   <si>
     <t xml:space="preserve">4.75531625747681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67126941680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70665740966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7597393989563</t>
+    <t xml:space="preserve">4.67126893997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70665693283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75973987579346</t>
   </si>
   <si>
     <t xml:space="preserve">4.73762178421021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78628063201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83936309814453</t>
+    <t xml:space="preserve">4.7862811088562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83936357498169</t>
   </si>
   <si>
     <t xml:space="preserve">4.86148166656494</t>
@@ -1172,49 +1172,49 @@
     <t xml:space="preserve">4.83051681518555</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75089263916016</t>
+    <t xml:space="preserve">4.75089359283447</t>
   </si>
   <si>
     <t xml:space="preserve">4.70223379135132</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61818695068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64472770690918</t>
+    <t xml:space="preserve">4.61818647384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64472723007202</t>
   </si>
   <si>
     <t xml:space="preserve">4.43682050704956</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4076247215271</t>
+    <t xml:space="preserve">4.40762519836426</t>
   </si>
   <si>
     <t xml:space="preserve">4.39700937271118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40231704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44124412536621</t>
+    <t xml:space="preserve">4.40231657028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44124364852905</t>
   </si>
   <si>
     <t xml:space="preserve">4.34038734436035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39877796173096</t>
+    <t xml:space="preserve">4.39877843856812</t>
   </si>
   <si>
     <t xml:space="preserve">4.34569597244263</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37046766281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41647243499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42355108261108</t>
+    <t xml:space="preserve">4.37046813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41647291183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42355060577393</t>
   </si>
   <si>
     <t xml:space="preserve">4.38816165924072</t>
@@ -1226,40 +1226,40 @@
     <t xml:space="preserve">2.99739742279053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07879090309143</t>
+    <t xml:space="preserve">3.07879066467285</t>
   </si>
   <si>
     <t xml:space="preserve">3.01155281066895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04163336753845</t>
+    <t xml:space="preserve">3.04163312911987</t>
   </si>
   <si>
     <t xml:space="preserve">3.06463527679443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96731686592102</t>
+    <t xml:space="preserve">2.9673171043396</t>
   </si>
   <si>
     <t xml:space="preserve">3.09648513793945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12302660942078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1955726146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26281046867371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35835886001587</t>
+    <t xml:space="preserve">3.1230263710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19557285308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26281070709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35835909843445</t>
   </si>
   <si>
     <t xml:space="preserve">3.33535671234131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34420371055603</t>
+    <t xml:space="preserve">3.34420347213745</t>
   </si>
   <si>
     <t xml:space="preserve">3.33004832267761</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">3.11948704719543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13187336921692</t>
+    <t xml:space="preserve">3.13187313079834</t>
   </si>
   <si>
     <t xml:space="preserve">3.06994390487671</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">3.00801348686218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99208903312683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01863050460815</t>
+    <t xml:space="preserve">2.99208927154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01863026618958</t>
   </si>
   <si>
     <t xml:space="preserve">2.90892672538757</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">2.70898151397705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6983654499054</t>
+    <t xml:space="preserve">2.69836568832397</t>
   </si>
   <si>
     <t xml:space="preserve">2.65943813323975</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">2.65412974357605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62581920623779</t>
+    <t xml:space="preserve">2.62581944465637</t>
   </si>
   <si>
     <t xml:space="preserve">2.56211972236633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53734850883484</t>
+    <t xml:space="preserve">2.53734827041626</t>
   </si>
   <si>
     <t xml:space="preserve">2.5001904964447</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">2.45064687728882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3957941532135</t>
+    <t xml:space="preserve">2.39579439163208</t>
   </si>
   <si>
     <t xml:space="preserve">2.40641117095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55681228637695</t>
+    <t xml:space="preserve">2.55681252479553</t>
   </si>
   <si>
     <t xml:space="preserve">2.52142310142517</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">2.43826103210449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43295240402222</t>
+    <t xml:space="preserve">2.4329526424408</t>
   </si>
   <si>
     <t xml:space="preserve">2.46126294136047</t>
@@ -1376,31 +1376,31 @@
     <t xml:space="preserve">2.49311256408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5054988861084</t>
+    <t xml:space="preserve">2.50549864768982</t>
   </si>
   <si>
     <t xml:space="preserve">2.48957347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49134349822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49488162994385</t>
+    <t xml:space="preserve">2.4913432598114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49488186836243</t>
   </si>
   <si>
     <t xml:space="preserve">2.38871669769287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35155916213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41525793075562</t>
+    <t xml:space="preserve">2.35155940055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41525816917419</t>
   </si>
   <si>
     <t xml:space="preserve">2.35686683654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36217546463013</t>
+    <t xml:space="preserve">2.36217522621155</t>
   </si>
   <si>
     <t xml:space="preserve">2.54265594482422</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">2.56742811203003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45595455169678</t>
+    <t xml:space="preserve">2.45595479011536</t>
   </si>
   <si>
     <t xml:space="preserve">2.44533848762512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4824960231781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47010946273804</t>
+    <t xml:space="preserve">2.48249578475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47010970115662</t>
   </si>
   <si>
     <t xml:space="preserve">2.40818023681641</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">2.3409423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34271168708801</t>
+    <t xml:space="preserve">2.34271192550659</t>
   </si>
   <si>
     <t xml:space="preserve">2.17638611793518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13038110733032</t>
+    <t xml:space="preserve">2.1303813457489</t>
   </si>
   <si>
     <t xml:space="preserve">2.09145379066467</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">2.1586925983429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27901291847229</t>
+    <t xml:space="preserve">2.27901315689087</t>
   </si>
   <si>
     <t xml:space="preserve">2.30024600028992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31086182594299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29493737220764</t>
+    <t xml:space="preserve">2.31086206436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29493761062622</t>
   </si>
   <si>
     <t xml:space="preserve">2.29670643806458</t>
@@ -1475,25 +1475,25 @@
     <t xml:space="preserve">2.28255152702332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28432059288025</t>
+    <t xml:space="preserve">2.28432035446167</t>
   </si>
   <si>
     <t xml:space="preserve">2.24008560180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19938898086548</t>
+    <t xml:space="preserve">2.19938921928406</t>
   </si>
   <si>
     <t xml:space="preserve">2.2135443687439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22239089012146</t>
+    <t xml:space="preserve">2.22239136695862</t>
   </si>
   <si>
     <t xml:space="preserve">2.28785991668701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22062206268311</t>
+    <t xml:space="preserve">2.22062182426453</t>
   </si>
   <si>
     <t xml:space="preserve">2.21531343460083</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">2.14630651473999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25070142745972</t>
+    <t xml:space="preserve">2.2507016658783</t>
   </si>
   <si>
     <t xml:space="preserve">2.36925292015076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31617045402527</t>
+    <t xml:space="preserve">2.31617021560669</t>
   </si>
   <si>
     <t xml:space="preserve">2.24362397193909</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">2.19231152534485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18523383140564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11976528167725</t>
+    <t xml:space="preserve">2.18523406982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11976504325867</t>
   </si>
   <si>
     <t xml:space="preserve">2.117995262146</t>
@@ -1532,34 +1532,34 @@
     <t xml:space="preserve">2.10030150413513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06137418746948</t>
+    <t xml:space="preserve">2.06137442588806</t>
   </si>
   <si>
     <t xml:space="preserve">1.98705852031708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8614296913147</t>
+    <t xml:space="preserve">1.86142981052399</t>
   </si>
   <si>
     <t xml:space="preserve">1.7959611415863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75172519683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72518396377563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72606897354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59336245059967</t>
+    <t xml:space="preserve">1.75172531604767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72518408298492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72606909275055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59336256980896</t>
   </si>
   <si>
     <t xml:space="preserve">1.57389879226685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47923469543457</t>
+    <t xml:space="preserve">1.47923445701599</t>
   </si>
   <si>
     <t xml:space="preserve">1.39518737792969</t>
@@ -1568,10 +1568,10 @@
     <t xml:space="preserve">1.36156833171844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34652817249298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32352614402771</t>
+    <t xml:space="preserve">1.34652805328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32352602481842</t>
   </si>
   <si>
     <t xml:space="preserve">1.31821751594543</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">1.38103199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39341807365417</t>
+    <t xml:space="preserve">1.39341819286346</t>
   </si>
   <si>
     <t xml:space="preserve">1.39076387882233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35979926586151</t>
+    <t xml:space="preserve">1.35979914665222</t>
   </si>
   <si>
     <t xml:space="preserve">1.35537576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41819024085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4314603805542</t>
+    <t xml:space="preserve">1.41819036006927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43146049976349</t>
   </si>
   <si>
     <t xml:space="preserve">1.3713002204895</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">1.3164484500885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32618021965027</t>
+    <t xml:space="preserve">1.32618033885956</t>
   </si>
   <si>
     <t xml:space="preserve">1.34298980236053</t>
@@ -1622,13 +1622,13 @@
     <t xml:space="preserve">1.32706439495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30671656131744</t>
+    <t xml:space="preserve">1.30671668052673</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060359954834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33237278461456</t>
+    <t xml:space="preserve">1.33237290382385</t>
   </si>
   <si>
     <t xml:space="preserve">1.3350270986557</t>
@@ -1640,22 +1640,22 @@
     <t xml:space="preserve">1.45092403888702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44473159313202</t>
+    <t xml:space="preserve">1.44473147392273</t>
   </si>
   <si>
     <t xml:space="preserve">1.42526793479919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39253294467926</t>
+    <t xml:space="preserve">1.39253306388855</t>
   </si>
   <si>
     <t xml:space="preserve">1.42438280582428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32529520988464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31202518939972</t>
+    <t xml:space="preserve">1.32529509067535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31202495098114</t>
   </si>
   <si>
     <t xml:space="preserve">1.13154339790344</t>
@@ -1664,49 +1664,49 @@
     <t xml:space="preserve">1.0191855430603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04838120937347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.670609354972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744925737380981</t>
+    <t xml:space="preserve">1.04838109016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.670609295368195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744925796985626</t>
   </si>
   <si>
     <t xml:space="preserve">0.746694922447205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913020312786102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01476216316223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00414526462555</t>
+    <t xml:space="preserve">0.913020372390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01476228237152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00414538383484</t>
   </si>
   <si>
     <t xml:space="preserve">0.898865103721619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967872083187103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00060701370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973180651664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9714115858078</t>
+    <t xml:space="preserve">0.967872202396393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0006068944931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973180592060089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971411466598511</t>
   </si>
   <si>
     <t xml:space="preserve">1.06430542469025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21559178829193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18020272254944</t>
+    <t xml:space="preserve">1.21559166908264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18020260334015</t>
   </si>
   <si>
     <t xml:space="preserve">1.1642781496048</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">1.09704041481018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07138323783875</t>
+    <t xml:space="preserve">1.07138311862946</t>
   </si>
   <si>
     <t xml:space="preserve">1.07846081256866</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">1.05811297893524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07580757141113</t>
+    <t xml:space="preserve">1.07580745220184</t>
   </si>
   <si>
     <t xml:space="preserve">1.07315325737</t>
@@ -1739,10 +1739,10 @@
     <t xml:space="preserve">1.1465836763382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16693246364594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19435799121857</t>
+    <t xml:space="preserve">1.16693234443665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19435787200928</t>
   </si>
   <si>
     <t xml:space="preserve">1.19612801074982</t>
@@ -1754,16 +1754,16 @@
     <t xml:space="preserve">1.20408964157104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17931854724884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16781651973724</t>
+    <t xml:space="preserve">1.17931842803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16781663894653</t>
   </si>
   <si>
     <t xml:space="preserve">1.12888920307159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09350121021271</t>
+    <t xml:space="preserve">1.09350109100342</t>
   </si>
   <si>
     <t xml:space="preserve">1.13419759273529</t>
@@ -1772,16 +1772,16 @@
     <t xml:space="preserve">1.12623584270477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07934594154358</t>
+    <t xml:space="preserve">1.07934582233429</t>
   </si>
   <si>
     <t xml:space="preserve">1.09615528583527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12800514698029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1952428817749</t>
+    <t xml:space="preserve">1.128005027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19524276256561</t>
   </si>
   <si>
     <t xml:space="preserve">1.14923799037933</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">1.13596773147583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14481449127197</t>
+    <t xml:space="preserve">1.14481437206268</t>
   </si>
   <si>
     <t xml:space="preserve">1.17047071456909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14216029644012</t>
+    <t xml:space="preserve">1.14216017723083</t>
   </si>
   <si>
     <t xml:space="preserve">1.1651623249054</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.17843341827393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17577934265137</t>
+    <t xml:space="preserve">1.17577922344208</t>
   </si>
   <si>
     <t xml:space="preserve">1.2987539768219</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">1.44119226932526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40934240818024</t>
+    <t xml:space="preserve">1.40934252738953</t>
   </si>
   <si>
     <t xml:space="preserve">1.37483942508698</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">1.46950280666351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40845847129822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43057548999786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43499982357025</t>
+    <t xml:space="preserve">1.40845835208893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43057537078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43499970436096</t>
   </si>
   <si>
     <t xml:space="preserve">1.40757346153259</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">1.50312173366547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50577592849731</t>
+    <t xml:space="preserve">1.5057760477066</t>
   </si>
   <si>
     <t xml:space="preserve">1.50666093826294</t>
@@ -1871,16 +1871,16 @@
     <t xml:space="preserve">1.51285350322723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48277401924133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45711672306061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47658026218414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53939485549927</t>
+    <t xml:space="preserve">1.48277390003204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45711660385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47658038139343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53939473628998</t>
   </si>
   <si>
     <t xml:space="preserve">1.52081620693207</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">1.70660531520844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69156503677368</t>
+    <t xml:space="preserve">1.69156515598297</t>
   </si>
   <si>
     <t xml:space="preserve">1.68802678585052</t>
@@ -1901,37 +1901,37 @@
     <t xml:space="preserve">1.66767799854279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64467597007751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64290571212769</t>
+    <t xml:space="preserve">1.64467585086823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64290583133698</t>
   </si>
   <si>
     <t xml:space="preserve">1.60397946834564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55797445774078</t>
+    <t xml:space="preserve">1.55797433853149</t>
   </si>
   <si>
     <t xml:space="preserve">1.50135242938995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51904690265656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47038793563843</t>
+    <t xml:space="preserve">1.51904702186584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47038781642914</t>
   </si>
   <si>
     <t xml:space="preserve">1.46507930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41111171245575</t>
+    <t xml:space="preserve">1.41111183166504</t>
   </si>
   <si>
     <t xml:space="preserve">1.44826996326447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42969131469727</t>
+    <t xml:space="preserve">1.42969143390656</t>
   </si>
   <si>
     <t xml:space="preserve">1.38014698028564</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">1.40049564838409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39430224895477</t>
+    <t xml:space="preserve">1.39430212974548</t>
   </si>
   <si>
     <t xml:space="preserve">1.37572360038757</t>
@@ -1952,34 +1952,34 @@
     <t xml:space="preserve">1.38810968399048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39695644378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36864602565765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36333751678467</t>
+    <t xml:space="preserve">1.39695656299591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36864590644836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36333763599396</t>
   </si>
   <si>
     <t xml:space="preserve">1.32441020011902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40580403804779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3889946937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39784145355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42880618572235</t>
+    <t xml:space="preserve">1.40580415725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38899481296539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39784157276154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42880606651306</t>
   </si>
   <si>
     <t xml:space="preserve">1.4261519908905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38457143306732</t>
+    <t xml:space="preserve">1.38457131385803</t>
   </si>
   <si>
     <t xml:space="preserve">1.33679616451263</t>
@@ -1988,16 +1988,16 @@
     <t xml:space="preserve">1.34387373924255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29433047771454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26248073577881</t>
+    <t xml:space="preserve">1.29433059692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2624808549881</t>
   </si>
   <si>
     <t xml:space="preserve">1.43853807449341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40138077735901</t>
+    <t xml:space="preserve">1.4013808965683</t>
   </si>
   <si>
     <t xml:space="preserve">1.358029961586</t>
@@ -2006,28 +2006,28 @@
     <t xml:space="preserve">1.31379413604736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34918224811554</t>
+    <t xml:space="preserve">1.34918236732483</t>
   </si>
   <si>
     <t xml:space="preserve">1.33591210842133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40491902828217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41730511188507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50931525230408</t>
+    <t xml:space="preserve">1.40491914749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41730523109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50931513309479</t>
   </si>
   <si>
     <t xml:space="preserve">1.56947541236877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58451569080353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59159338474274</t>
+    <t xml:space="preserve">1.58451581001282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59159326553345</t>
   </si>
   <si>
     <t xml:space="preserve">1.59247744083405</t>
@@ -2042,16 +2042,16 @@
     <t xml:space="preserve">1.62963569164276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64025259017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58009147644043</t>
+    <t xml:space="preserve">1.64025247097015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58009135723114</t>
   </si>
   <si>
     <t xml:space="preserve">1.50046753883362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47569620609283</t>
+    <t xml:space="preserve">1.47569632530212</t>
   </si>
   <si>
     <t xml:space="preserve">1.47304201126099</t>
@@ -2060,25 +2060,25 @@
     <t xml:space="preserve">1.50400674343109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4562326669693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42792201042175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41022765636444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40668833255768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37395453453064</t>
+    <t xml:space="preserve">1.45623254776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42792212963104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41022753715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40668821334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37395441532135</t>
   </si>
   <si>
     <t xml:space="preserve">1.37660872936249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37926280498505</t>
+    <t xml:space="preserve">1.37926304340363</t>
   </si>
   <si>
     <t xml:space="preserve">1.41199672222137</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">1.3403354883194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31556344032288</t>
+    <t xml:space="preserve">1.31556332111359</t>
   </si>
   <si>
     <t xml:space="preserve">1.47215700149536</t>
@@ -2096,13 +2096,13 @@
     <t xml:space="preserve">1.45180928707123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46684861183167</t>
+    <t xml:space="preserve">1.46684849262238</t>
   </si>
   <si>
     <t xml:space="preserve">1.47127294540405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.461541056633</t>
+    <t xml:space="preserve">1.46154117584229</t>
   </si>
   <si>
     <t xml:space="preserve">1.53851068019867</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">1.57655310630798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58539974689484</t>
+    <t xml:space="preserve">1.58539986610413</t>
   </si>
   <si>
     <t xml:space="preserve">1.58982312679291</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">1.51373851299286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49073565006256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41288185119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40403401851654</t>
+    <t xml:space="preserve">1.49073553085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.412881731987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40403413772583</t>
   </si>
   <si>
     <t xml:space="preserve">1.41642010211945</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">1.44207727909088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4500390291214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53054797649384</t>
+    <t xml:space="preserve">1.45003914833069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53054809570312</t>
   </si>
   <si>
     <t xml:space="preserve">1.51993119716644</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">1.5526659488678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5588583946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55178093910217</t>
+    <t xml:space="preserve">1.55885851383209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55178081989288</t>
   </si>
   <si>
     <t xml:space="preserve">1.55974352359772</t>
@@ -2180,19 +2180,19 @@
     <t xml:space="preserve">1.60132527351379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55708944797516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58097636699677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61282622814178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63140475749969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.626096367836</t>
+    <t xml:space="preserve">1.55708932876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58097648620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61282634735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63140487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62609624862671</t>
   </si>
   <si>
     <t xml:space="preserve">1.69245004653931</t>
@@ -2210,19 +2210,19 @@
     <t xml:space="preserve">1.68714165687561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7287232875824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67829489707947</t>
+    <t xml:space="preserve">1.72872316837311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67829477787018</t>
   </si>
   <si>
     <t xml:space="preserve">1.65263772010803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63317394256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65086841583252</t>
+    <t xml:space="preserve">1.63317406177521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65086853504181</t>
   </si>
   <si>
     <t xml:space="preserve">1.65883111953735</t>
@@ -2234,13 +2234,13 @@
     <t xml:space="preserve">1.68094897270203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7473019361496</t>
+    <t xml:space="preserve">1.74730181694031</t>
   </si>
   <si>
     <t xml:space="preserve">1.8437352180481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80834710597992</t>
+    <t xml:space="preserve">1.80834722518921</t>
   </si>
   <si>
     <t xml:space="preserve">1.82073330879211</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">1.79242181777954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87027645111084</t>
+    <t xml:space="preserve">1.87027657032013</t>
   </si>
   <si>
     <t xml:space="preserve">1.85258209705353</t>
@@ -2270,28 +2270,28 @@
     <t xml:space="preserve">1.73580098152161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7039510011673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78534424304962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76941978931427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78711426258087</t>
+    <t xml:space="preserve">1.70395112037659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78534412384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76941967010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78711438179016</t>
   </si>
   <si>
     <t xml:space="preserve">1.77472817897797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78003656864166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71279788017273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7110288143158</t>
+    <t xml:space="preserve">1.78003668785095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71279776096344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71102869510651</t>
   </si>
   <si>
     <t xml:space="preserve">1.72076058387756</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">1.73757004737854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71987569332123</t>
+    <t xml:space="preserve">1.71987557411194</t>
   </si>
   <si>
     <t xml:space="preserve">1.7048362493515</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">1.67121732234955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68537247180939</t>
+    <t xml:space="preserve">1.68537259101868</t>
   </si>
   <si>
     <t xml:space="preserve">1.65440785884857</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">1.68979585170746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67652475833893</t>
+    <t xml:space="preserve">1.67652463912964</t>
   </si>
   <si>
     <t xml:space="preserve">1.6986426115036</t>
@@ -2333,10 +2333,10 @@
     <t xml:space="preserve">1.69510424137115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67917895317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63671338558197</t>
+    <t xml:space="preserve">1.67917907238007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63671326637268</t>
   </si>
   <si>
     <t xml:space="preserve">1.6384824514389</t>
@@ -2348,19 +2348,19 @@
     <t xml:space="preserve">1.522585272789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58274555206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57743811607361</t>
+    <t xml:space="preserve">1.58274567127228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57743799686432</t>
   </si>
   <si>
     <t xml:space="preserve">1.55443513393402</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6022093296051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61636447906494</t>
+    <t xml:space="preserve">1.60220921039581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61636459827423</t>
   </si>
   <si>
     <t xml:space="preserve">1.62255799770355</t>
@@ -2369,10 +2369,10 @@
     <t xml:space="preserve">1.63936746120453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60663259029388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59867084026337</t>
+    <t xml:space="preserve">1.60663270950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59867095947266</t>
   </si>
   <si>
     <t xml:space="preserve">1.57035946846008</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">1.25009477138519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23593938350677</t>
+    <t xml:space="preserve">1.23593950271606</t>
   </si>
   <si>
     <t xml:space="preserve">1.20320558547974</t>
@@ -2396,10 +2396,10 @@
     <t xml:space="preserve">1.08819258213043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988220989704132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822779595851898</t>
+    <t xml:space="preserve">0.988221049308777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822779536247253</t>
   </si>
   <si>
     <t xml:space="preserve">0.761735200881958</t>
@@ -2408,16 +2408,16 @@
     <t xml:space="preserve">0.736963093280792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579042375087738</t>
+    <t xml:space="preserve">0.579042315483093</t>
   </si>
   <si>
     <t xml:space="preserve">0.649819433689117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.550288915634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.634779095649719</t>
+    <t xml:space="preserve">0.55028885602951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634779155254364</t>
   </si>
   <si>
     <t xml:space="preserve">0.714845180511475</t>
@@ -2426,37 +2426,37 @@
     <t xml:space="preserve">0.767927765846252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743155598640442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675033688545227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722807824611664</t>
+    <t xml:space="preserve">0.743155658245087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675033628940582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.722807884216309</t>
   </si>
   <si>
     <t xml:space="preserve">0.72059565782547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728558361530304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698920726776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681668221950531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698477685451508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681226193904877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6644167304039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610892117023468</t>
+    <t xml:space="preserve">0.728558301925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698920786380768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681668281555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698477745056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681226253509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.664416790008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610892176628113</t>
   </si>
   <si>
     <t xml:space="preserve">0.654684901237488</t>
@@ -2465,16 +2465,16 @@
     <t xml:space="preserve">0.699804842472076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684765517711639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.689188897609711</t>
+    <t xml:space="preserve">0.684765458106995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.689188838005066</t>
   </si>
   <si>
     <t xml:space="preserve">0.675917744636536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688303828239441</t>
+    <t xml:space="preserve">0.688303887844086</t>
   </si>
   <si>
     <t xml:space="preserve">0.678129911422729</t>
@@ -2489,19 +2489,19 @@
     <t xml:space="preserve">0.646280169487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641414701938629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.647165238857269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.690073013305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716614305973053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693612337112427</t>
+    <t xml:space="preserve">0.641414761543274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.647165298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.690072953701019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716614365577698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693612277507782</t>
   </si>
   <si>
     <t xml:space="preserve">0.680341184139252</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">0.679457068443298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694497346878052</t>
+    <t xml:space="preserve">0.694497406482697</t>
   </si>
   <si>
     <t xml:space="preserve">0.677687883377075</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">0.687419712543488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707767486572266</t>
+    <t xml:space="preserve">0.70776754617691</t>
   </si>
   <si>
     <t xml:space="preserve">0.688745856285095</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">0.663531720638275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6458380818367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641856789588928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.667071044445038</t>
+    <t xml:space="preserve">0.645838141441345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641856729984283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667070925235748</t>
   </si>
   <si>
     <t xml:space="preserve">0.632125020027161</t>
@@ -2543,25 +2543,25 @@
     <t xml:space="preserve">0.608679950237274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616200566291809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608237862586975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.637433409690857</t>
+    <t xml:space="preserve">0.616200625896454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60823792219162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637433350086212</t>
   </si>
   <si>
     <t xml:space="preserve">0.667956054210663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769254922866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836050748825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.808182239532471</t>
+    <t xml:space="preserve">0.769254863262177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836050689220428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.808182299137115</t>
   </si>
   <si>
     <t xml:space="preserve">0.813932776451111</t>
@@ -2570,28 +2570,28 @@
     <t xml:space="preserve">0.876747250556946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884709894657135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954602003097534</t>
+    <t xml:space="preserve">0.88470983505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954602062702179</t>
   </si>
   <si>
     <t xml:space="preserve">0.964333832263947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06519055366516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07049918174744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02626323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929829835891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979373097419739</t>
+    <t xml:space="preserve">1.06519067287445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07049906253815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0262633562088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929829776287079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979373157024384</t>
   </si>
   <si>
     <t xml:space="preserve">0.980258285999298</t>
@@ -2600,16 +2600,16 @@
     <t xml:space="preserve">0.993529260158539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976719915866852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944870173931122</t>
+    <t xml:space="preserve">0.976719975471497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944870114326477</t>
   </si>
   <si>
     <t xml:space="preserve">0.946639358997345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948408424854279</t>
+    <t xml:space="preserve">0.948408484458923</t>
   </si>
   <si>
     <t xml:space="preserve">0.872323870658875</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.827203929424286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873650968074799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85374516248703</t>
+    <t xml:space="preserve">0.873650908470154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85374528169632</t>
   </si>
   <si>
     <t xml:space="preserve">0.832069337368011</t>
@@ -2630,19 +2630,19 @@
     <t xml:space="preserve">0.849763870239258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844897508621216</t>
+    <t xml:space="preserve">0.844897449016571</t>
   </si>
   <si>
     <t xml:space="preserve">0.849320888519287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845782518386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822337508201599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82853102684021</t>
+    <t xml:space="preserve">0.845782577991486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822337567806244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828531086444855</t>
   </si>
   <si>
     <t xml:space="preserve">0.811720609664917</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">0.870111644268036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842686235904694</t>
+    <t xml:space="preserve">0.842686295509338</t>
   </si>
   <si>
     <t xml:space="preserve">0.91478955745697</t>
@@ -2663,28 +2663,28 @@
     <t xml:space="preserve">0.894441723823547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908596932888031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885594010353088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884266972541809</t>
+    <t xml:space="preserve">0.908596992492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885594069957733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884266912937164</t>
   </si>
   <si>
     <t xml:space="preserve">0.888248264789581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847551703453064</t>
+    <t xml:space="preserve">0.847551763057709</t>
   </si>
   <si>
     <t xml:space="preserve">0.819683253765106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836492717266083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817472040653229</t>
+    <t xml:space="preserve">0.836492776870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817472100257874</t>
   </si>
   <si>
     <t xml:space="preserve">0.812605679035187</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">0.83339649438858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83958899974823</t>
+    <t xml:space="preserve">0.839589059352875</t>
   </si>
   <si>
     <t xml:space="preserve">0.803758859634399</t>
@@ -2705,19 +2705,19 @@
     <t xml:space="preserve">0.811278581619263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847993791103363</t>
+    <t xml:space="preserve">0.847993731498718</t>
   </si>
   <si>
     <t xml:space="preserve">0.857725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847109615802765</t>
+    <t xml:space="preserve">0.84710967540741</t>
   </si>
   <si>
     <t xml:space="preserve">0.826318860054016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816586971282959</t>
+    <t xml:space="preserve">0.816587030887604</t>
   </si>
   <si>
     <t xml:space="preserve">0.784737229347229</t>
@@ -2729,28 +2729,28 @@
     <t xml:space="preserve">0.754214584827423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724576950073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.731654584407806</t>
+    <t xml:space="preserve">0.724577009677887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.731654644012451</t>
   </si>
   <si>
     <t xml:space="preserve">0.733866810798645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72634619474411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.713961005210876</t>
+    <t xml:space="preserve">0.726346135139465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.713961064815521</t>
   </si>
   <si>
     <t xml:space="preserve">0.705998361110687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72236579656601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72811633348465</t>
+    <t xml:space="preserve">0.722365736961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.728116273880005</t>
   </si>
   <si>
     <t xml:space="preserve">0.725904107093811</t>
@@ -2759,37 +2759,37 @@
     <t xml:space="preserve">0.717941462993622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735635936260223</t>
+    <t xml:space="preserve">0.735635995864868</t>
   </si>
   <si>
     <t xml:space="preserve">0.738732278347015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.745367825031281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.739617347717285</t>
+    <t xml:space="preserve">0.745367765426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.739617228507996</t>
   </si>
   <si>
     <t xml:space="preserve">0.76394647359848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763062298297882</t>
+    <t xml:space="preserve">0.763062357902527</t>
   </si>
   <si>
     <t xml:space="preserve">0.786506414413452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813047707080841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760850131511688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757311761379242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828087985515594</t>
+    <t xml:space="preserve">0.813047766685486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760850191116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.757311820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828088045120239</t>
   </si>
   <si>
     <t xml:space="preserve">0.801989734172821</t>
@@ -2801,10 +2801,10 @@
     <t xml:space="preserve">0.843570351600647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874092996120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900634229183197</t>
+    <t xml:space="preserve">0.874093055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900634288787842</t>
   </si>
   <si>
     <t xml:space="preserve">0.911251187324524</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">0.923637270927429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902403473854065</t>
+    <t xml:space="preserve">0.90240353345871</t>
   </si>
   <si>
     <t xml:space="preserve">0.905057668685913</t>
@@ -2831,22 +2831,22 @@
     <t xml:space="preserve">0.860822856426239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855514407157898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861264884471893</t>
+    <t xml:space="preserve">0.855514347553253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861264944076538</t>
   </si>
   <si>
     <t xml:space="preserve">0.877632260322571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882055640220642</t>
+    <t xml:space="preserve">0.882055699825287</t>
   </si>
   <si>
     <t xml:space="preserve">0.869227528572083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794027090072632</t>
+    <t xml:space="preserve">0.794027030467987</t>
   </si>
   <si>
     <t xml:space="preserve">0.752887487411499</t>
@@ -2858,13 +2858,13 @@
     <t xml:space="preserve">0.671494364738464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683438360691071</t>
+    <t xml:space="preserve">0.683438420295715</t>
   </si>
   <si>
     <t xml:space="preserve">0.699362814426422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725018978118896</t>
+    <t xml:space="preserve">0.725019037723541</t>
   </si>
   <si>
     <t xml:space="preserve">0.729885458946228</t>
@@ -2885,22 +2885,22 @@
     <t xml:space="preserve">0.906827747821808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89532595872879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928944706916809</t>
+    <t xml:space="preserve">0.895325839519501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928944826126099</t>
   </si>
   <si>
     <t xml:space="preserve">0.95371687412262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942215859889984</t>
+    <t xml:space="preserve">0.942215919494629</t>
   </si>
   <si>
     <t xml:space="preserve">0.939561665058136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943101048469543</t>
+    <t xml:space="preserve">0.943100988864899</t>
   </si>
   <si>
     <t xml:space="preserve">0.933369100093842</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">0.95814037322998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94575423002243</t>
+    <t xml:space="preserve">0.945754170417786</t>
   </si>
   <si>
     <t xml:space="preserve">0.955486118793488</t>
@@ -2918,55 +2918,55 @@
     <t xml:space="preserve">0.934253215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919212937355042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890902519226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889133214950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891787528991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890018284320831</t>
+    <t xml:space="preserve">0.919212877750397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890902459621429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889133274555206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891787469387054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890018343925476</t>
   </si>
   <si>
     <t xml:space="preserve">0.910366117954254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959025323390961</t>
+    <t xml:space="preserve">0.959025382995605</t>
   </si>
   <si>
     <t xml:space="preserve">0.899749279022217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924521327018738</t>
+    <t xml:space="preserve">0.924521386623383</t>
   </si>
   <si>
     <t xml:space="preserve">0.959910452365875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999722003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01033878326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0138772726059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02272498607635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03599512577057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01830065250397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989989995956421</t>
+    <t xml:space="preserve">0.999721884727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01033890247345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01387715339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02272486686707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03599500656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01830053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98999011516571</t>
   </si>
   <si>
     <t xml:space="preserve">0.956371188163757</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">0.926290512084961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903288543224335</t>
+    <t xml:space="preserve">0.90328848361969</t>
   </si>
   <si>
     <t xml:space="preserve">0.918328821659088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.930714845657349</t>
+    <t xml:space="preserve">0.930714905261993</t>
   </si>
   <si>
     <t xml:space="preserve">0.960794568061829</t>
@@ -2990,34 +2990,34 @@
     <t xml:space="preserve">0.986451804637909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975834846496582</t>
+    <t xml:space="preserve">0.975834786891937</t>
   </si>
   <si>
     <t xml:space="preserve">0.982027471065521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966988027095795</t>
+    <t xml:space="preserve">0.966988086700439</t>
   </si>
   <si>
     <t xml:space="preserve">1.00326120853424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952831864356995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984681665897369</t>
+    <t xml:space="preserve">0.952831923961639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98468154668808</t>
   </si>
   <si>
     <t xml:space="preserve">0.994413614273071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992644250392914</t>
+    <t xml:space="preserve">0.992644309997559</t>
   </si>
   <si>
     <t xml:space="preserve">0.9979527592659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997067749500275</t>
+    <t xml:space="preserve">0.99706768989563</t>
   </si>
   <si>
     <t xml:space="preserve">1.00237619876862</t>
@@ -3029,52 +3029,52 @@
     <t xml:space="preserve">1.03334081172943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21470665931702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25982654094696</t>
+    <t xml:space="preserve">1.21470654010773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25982666015625</t>
   </si>
   <si>
     <t xml:space="preserve">1.24301695823669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22886192798615</t>
+    <t xml:space="preserve">1.22886180877686</t>
   </si>
   <si>
     <t xml:space="preserve">1.22620761394501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24124801158905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20585978031158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17489409446716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17666435241699</t>
+    <t xml:space="preserve">1.24124789237976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20585989952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17489421367645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1766642332077</t>
   </si>
   <si>
     <t xml:space="preserve">1.17224085330963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1775484085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19789707660675</t>
+    <t xml:space="preserve">1.17754852771759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19789719581604</t>
   </si>
   <si>
     <t xml:space="preserve">1.18728029727936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23240113258362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2129373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18108773231506</t>
+    <t xml:space="preserve">1.23240125179291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21293747425079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18108761310577</t>
   </si>
   <si>
     <t xml:space="preserve">1.17312490940094</t>
@@ -3083,10 +3083,10 @@
     <t xml:space="preserve">1.45888674259186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45357823371887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52435541152954</t>
+    <t xml:space="preserve">1.45357835292816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52435553073883</t>
   </si>
   <si>
     <t xml:space="preserve">1.52170121669769</t>
@@ -3095,13 +3095,13 @@
     <t xml:space="preserve">1.52523946762085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48985147476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49515998363495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4801197052002</t>
+    <t xml:space="preserve">1.48985159397125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49515986442566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48011982440948</t>
   </si>
   <si>
     <t xml:space="preserve">1.52347040176392</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">1.54558825492859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52612459659576</t>
+    <t xml:space="preserve">1.52612471580505</t>
   </si>
   <si>
     <t xml:space="preserve">1.51816201210022</t>
@@ -3125,25 +3125,25 @@
     <t xml:space="preserve">1.49692916870117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5101991891861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68183314800262</t>
+    <t xml:space="preserve">1.51019930839539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68183326721191</t>
   </si>
   <si>
     <t xml:space="preserve">1.64202165603638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72252976894379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70749032497406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71633720397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71545219421387</t>
+    <t xml:space="preserve">1.72252988815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70749056339264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71633732318878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71545207500458</t>
   </si>
   <si>
     <t xml:space="preserve">1.7234148979187</t>
@@ -3164,16 +3164,16 @@
     <t xml:space="preserve">1.43676888942719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43942308425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44561564922333</t>
+    <t xml:space="preserve">1.43942320346832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44561576843262</t>
   </si>
   <si>
     <t xml:space="preserve">1.48572742938995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5195152759552</t>
+    <t xml:space="preserve">1.51951539516449</t>
   </si>
   <si>
     <t xml:space="preserve">1.4960515499115</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">1.47634184360504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47446477413177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41252040863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53359353542328</t>
+    <t xml:space="preserve">1.47446501255035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41252052783966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53359365463257</t>
   </si>
   <si>
     <t xml:space="preserve">1.57864415645599</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">1.60773932933807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62275612354279</t>
+    <t xml:space="preserve">1.6227560043335</t>
   </si>
   <si>
     <t xml:space="preserve">1.67813062667847</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">1.62932586669922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65091252326965</t>
+    <t xml:space="preserve">1.65091264247894</t>
   </si>
   <si>
     <t xml:space="preserve">1.66968369483948</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">1.71004140377045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70159447193146</t>
+    <t xml:space="preserve">1.70159435272217</t>
   </si>
   <si>
     <t xml:space="preserve">1.66217529773712</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">1.68282341957092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69877862930298</t>
+    <t xml:space="preserve">1.69877874851227</t>
   </si>
   <si>
     <t xml:space="preserve">1.73256659507751</t>
@@ -3242,22 +3242,22 @@
     <t xml:space="preserve">1.72130393981934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70816421508789</t>
+    <t xml:space="preserve">1.70816433429718</t>
   </si>
   <si>
     <t xml:space="preserve">1.67719197273254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60867786407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61055481433868</t>
+    <t xml:space="preserve">1.60867774486542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61055493354797</t>
   </si>
   <si>
     <t xml:space="preserve">1.58145976066589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58615255355835</t>
+    <t xml:space="preserve">1.58615267276764</t>
   </si>
   <si>
     <t xml:space="preserve">1.61524760723114</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">1.63120305538177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62087905406952</t>
+    <t xml:space="preserve">1.62087893486023</t>
   </si>
   <si>
     <t xml:space="preserve">1.64528131484985</t>
@@ -3284,7 +3284,7 @@
     <t xml:space="preserve">1.76166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65654397010803</t>
+    <t xml:space="preserve">1.65654385089874</t>
   </si>
   <si>
     <t xml:space="preserve">1.60680067539215</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">1.71379554271698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93717086315155</t>
+    <t xml:space="preserve">1.93717074394226</t>
   </si>
   <si>
     <t xml:space="preserve">1.95594191551208</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">2.00850081443787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10047888755798</t>
+    <t xml:space="preserve">2.10047912597656</t>
   </si>
   <si>
     <t xml:space="preserve">2.15679216384888</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">2.21498227119446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29945182800293</t>
+    <t xml:space="preserve">2.29945206642151</t>
   </si>
   <si>
     <t xml:space="preserve">2.07607650756836</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">2.07795381546021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06105995178223</t>
+    <t xml:space="preserve">2.06105971336365</t>
   </si>
   <si>
     <t xml:space="preserve">2.13802123069763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23375368118286</t>
+    <t xml:space="preserve">2.23375344276428</t>
   </si>
   <si>
     <t xml:space="preserve">2.1980881690979</t>
@@ -3359,19 +3359,19 @@
     <t xml:space="preserve">2.26378703117371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25252461433411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30696034431458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29194331169128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30508351325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31071448326111</t>
+    <t xml:space="preserve">2.25252437591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.306960105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29194355010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30508327484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31071424484253</t>
   </si>
   <si>
     <t xml:space="preserve">2.37641334533691</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">2.30883741378784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24877023696899</t>
+    <t xml:space="preserve">2.24876999855042</t>
   </si>
   <si>
     <t xml:space="preserve">2.27317237854004</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">2.44211173057556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42146372795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45712852478027</t>
+    <t xml:space="preserve">2.42146348953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45712876319885</t>
   </si>
   <si>
     <t xml:space="preserve">2.48716235160828</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">2.56036925315857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59040284156799</t>
+    <t xml:space="preserve">2.59040307998657</t>
   </si>
   <si>
     <t xml:space="preserve">2.52470469474792</t>
@@ -3419,13 +3419,13 @@
     <t xml:space="preserve">2.620436668396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66173267364502</t>
+    <t xml:space="preserve">2.6617329120636</t>
   </si>
   <si>
     <t xml:space="preserve">2.65797853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57538604736328</t>
+    <t xml:space="preserve">2.57538628578186</t>
   </si>
   <si>
     <t xml:space="preserve">2.61668252944946</t>
@@ -3434,13 +3434,13 @@
     <t xml:space="preserve">2.53784394264221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47777700424194</t>
+    <t xml:space="preserve">2.47777676582336</t>
   </si>
   <si>
     <t xml:space="preserve">2.51907300949097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34074807167053</t>
+    <t xml:space="preserve">2.34074831008911</t>
   </si>
   <si>
     <t xml:space="preserve">2.53033590316772</t>
@@ -3452,10 +3452,10 @@
     <t xml:space="preserve">2.63920783996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71241497993469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81377816200256</t>
+    <t xml:space="preserve">2.71241474151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81377840042114</t>
   </si>
   <si>
     <t xml:space="preserve">2.79688429832458</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">2.78749895095825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81002402305603</t>
+    <t xml:space="preserve">2.81002426147461</t>
   </si>
   <si>
     <t xml:space="preserve">2.74995684623718</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">2.41770935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41020131111145</t>
+    <t xml:space="preserve">2.41020107269287</t>
   </si>
   <si>
     <t xml:space="preserve">2.39330697059631</t>
@@ -3494,10 +3494,10 @@
     <t xml:space="preserve">2.44586586952209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4139552116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42334055900574</t>
+    <t xml:space="preserve">2.41395545005798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42334079742432</t>
   </si>
   <si>
     <t xml:space="preserve">2.40269255638123</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">2.44398903846741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37265920639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27692675590515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28818917274475</t>
+    <t xml:space="preserve">2.3726589679718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27692699432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28818941116333</t>
   </si>
   <si>
     <t xml:space="preserve">2.30320596694946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26566386222839</t>
+    <t xml:space="preserve">2.26566410064697</t>
   </si>
   <si>
     <t xml:space="preserve">2.28443503379822</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">2.17931723594666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29757475852966</t>
+    <t xml:space="preserve">2.29757452011108</t>
   </si>
   <si>
     <t xml:space="preserve">2.32573127746582</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">2.26190996170044</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53409004211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53596711158752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18870258331299</t>
+    <t xml:space="preserve">2.53408980369568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53596687316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18870282173157</t>
   </si>
   <si>
     <t xml:space="preserve">2.11174154281616</t>
@@ -3560,16 +3560,16 @@
     <t xml:space="preserve">2.21873664855957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13238954544067</t>
+    <t xml:space="preserve">2.13238978385925</t>
   </si>
   <si>
     <t xml:space="preserve">2.20371961593628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10986423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15491485595703</t>
+    <t xml:space="preserve">2.1098644733429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15491509437561</t>
   </si>
   <si>
     <t xml:space="preserve">2.14928364753723</t>
@@ -3578,22 +3578,22 @@
     <t xml:space="preserve">2.04604291915894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13426685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12300419807434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97846710681915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01413226127625</t>
+    <t xml:space="preserve">2.13426661491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12300395965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97846722602844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01413202285767</t>
   </si>
   <si>
     <t xml:space="preserve">1.91276872158051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74289071559906</t>
+    <t xml:space="preserve">1.74289083480835</t>
   </si>
   <si>
     <t xml:space="preserve">1.6556054353714</t>
@@ -3614,40 +3614,40 @@
     <t xml:space="preserve">1.75790750980377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89212048053741</t>
+    <t xml:space="preserve">1.8921205997467</t>
   </si>
   <si>
     <t xml:space="preserve">1.85927104949951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83956158161163</t>
+    <t xml:space="preserve">1.83956146240234</t>
   </si>
   <si>
     <t xml:space="preserve">1.83674585819244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80765080451965</t>
+    <t xml:space="preserve">1.80765068531036</t>
   </si>
   <si>
     <t xml:space="preserve">1.74852204322815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76447749137878</t>
+    <t xml:space="preserve">1.76447737216949</t>
   </si>
   <si>
     <t xml:space="preserve">1.77855563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83017599582672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97471296787262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94280219078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84894704818726</t>
+    <t xml:space="preserve">1.83017611503601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9747132062912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94280230998993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84894716739655</t>
   </si>
   <si>
     <t xml:space="preserve">1.89024329185486</t>
@@ -3656,13 +3656,13 @@
     <t xml:space="preserve">1.86677944660187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83111453056335</t>
+    <t xml:space="preserve">1.83111464977264</t>
   </si>
   <si>
     <t xml:space="preserve">1.76917016506195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73819804191589</t>
+    <t xml:space="preserve">1.7381979227066</t>
   </si>
   <si>
     <t xml:space="preserve">1.69596314430237</t>
@@ -3671,19 +3671,19 @@
     <t xml:space="preserve">1.71567249298096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81140506267548</t>
+    <t xml:space="preserve">1.81140494346619</t>
   </si>
   <si>
     <t xml:space="preserve">1.80108094215393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77761721611023</t>
+    <t xml:space="preserve">1.77761709690094</t>
   </si>
   <si>
     <t xml:space="preserve">1.72599673271179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73632085323334</t>
+    <t xml:space="preserve">1.73632097244263</t>
   </si>
   <si>
     <t xml:space="preserve">1.72693526744843</t>
@@ -3698,10 +3698,10 @@
     <t xml:space="preserve">1.64246571063995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54954898357391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56644296646118</t>
+    <t xml:space="preserve">1.5495491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56644284725189</t>
   </si>
   <si>
     <t xml:space="preserve">1.63308012485504</t>
@@ -3713,34 +3713,34 @@
     <t xml:space="preserve">1.68376195430756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74195206165314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7025328874588</t>
+    <t xml:space="preserve">1.74195218086243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70253300666809</t>
   </si>
   <si>
     <t xml:space="preserve">1.69502449035645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61618626117706</t>
+    <t xml:space="preserve">1.61618614196777</t>
   </si>
   <si>
     <t xml:space="preserve">1.61149346828461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72787392139435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74476778507233</t>
+    <t xml:space="preserve">1.72787380218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74476766586304</t>
   </si>
   <si>
     <t xml:space="preserve">1.82454478740692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79075694084167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81797480583191</t>
+    <t xml:space="preserve">1.79075682163239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8179749250412</t>
   </si>
   <si>
     <t xml:space="preserve">1.88648915290833</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">1.91464567184448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90526020526886</t>
+    <t xml:space="preserve">1.90526008605957</t>
   </si>
   <si>
     <t xml:space="preserve">1.90150594711304</t>
@@ -3764,10 +3764,10 @@
     <t xml:space="preserve">1.54204058647156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50262129306793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55171418190002</t>
+    <t xml:space="preserve">1.50262141227722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55171406269073</t>
   </si>
   <si>
     <t xml:space="preserve">1.56422793865204</t>
@@ -3779,16 +3779,16 @@
     <t xml:space="preserve">1.54401326179504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56326520442963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5218733549118</t>
+    <t xml:space="preserve">1.56326532363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52187347412109</t>
   </si>
   <si>
     <t xml:space="preserve">1.56134009361267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56904101371765</t>
+    <t xml:space="preserve">1.56904089450836</t>
   </si>
   <si>
     <t xml:space="preserve">1.4978084564209</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">1.46026682853699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37844586372375</t>
+    <t xml:space="preserve">1.37844574451447</t>
   </si>
   <si>
     <t xml:space="preserve">1.40636122226715</t>
@@ -3818,10 +3818,10 @@
     <t xml:space="preserve">1.39288485050201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36015629768372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3553432226181</t>
+    <t xml:space="preserve">1.36015641689301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35534334182739</t>
   </si>
   <si>
     <t xml:space="preserve">1.38614666461945</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">1.43812704086304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4371645450592</t>
+    <t xml:space="preserve">1.43716442584991</t>
   </si>
   <si>
     <t xml:space="preserve">1.37363278865814</t>
@@ -3857,13 +3857,13 @@
     <t xml:space="preserve">1.51128482818604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48433196544647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5295741558075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55652701854706</t>
+    <t xml:space="preserve">1.48433208465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52957427501678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55652713775635</t>
   </si>
   <si>
     <t xml:space="preserve">1.545938372612</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">1.58347988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57674181461334</t>
+    <t xml:space="preserve">1.57674169540405</t>
   </si>
   <si>
     <t xml:space="preserve">1.60561978816986</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">1.49492049217224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42657577991486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42272555828094</t>
+    <t xml:space="preserve">1.42657589912415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42272543907166</t>
   </si>
   <si>
     <t xml:space="preserve">1.45449137687683</t>
@@ -3914,16 +3914,16 @@
     <t xml:space="preserve">1.44293999671936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47470593452454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41502475738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43235146999359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45064079761505</t>
+    <t xml:space="preserve">1.47470581531525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41502463817596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43235158920288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45064091682434</t>
   </si>
   <si>
     <t xml:space="preserve">1.44005239009857</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">1.51994824409485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50069630146027</t>
+    <t xml:space="preserve">1.50069618225098</t>
   </si>
   <si>
     <t xml:space="preserve">1.55556452274323</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">1.49588322639465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48144423961639</t>
+    <t xml:space="preserve">1.4814441204071</t>
   </si>
   <si>
     <t xml:space="preserve">1.80680358409882</t>
@@ -3956,19 +3956,19 @@
     <t xml:space="preserve">1.67781496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67203938961029</t>
+    <t xml:space="preserve">1.672039270401</t>
   </si>
   <si>
     <t xml:space="preserve">1.68551576137543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65567517280579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58829283714294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64989948272705</t>
+    <t xml:space="preserve">1.6556750535965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58829295635223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64989936351776</t>
   </si>
   <si>
     <t xml:space="preserve">1.64412379264832</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">1.62390923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68936622142792</t>
+    <t xml:space="preserve">1.68936610221863</t>
   </si>
   <si>
     <t xml:space="preserve">1.68840348720551</t>
@@ -4007,22 +4007,22 @@
     <t xml:space="preserve">1.75674831867218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7577109336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76926207542419</t>
+    <t xml:space="preserve">1.75771081447601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76926219463348</t>
   </si>
   <si>
     <t xml:space="preserve">1.86744749546051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89825069904327</t>
+    <t xml:space="preserve">1.89825081825256</t>
   </si>
   <si>
     <t xml:space="preserve">1.89440035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83279383182526</t>
+    <t xml:space="preserve">1.83279395103455</t>
   </si>
   <si>
     <t xml:space="preserve">1.81931746006012</t>
@@ -4031,31 +4031,31 @@
     <t xml:space="preserve">1.82894337177277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87611091136932</t>
+    <t xml:space="preserve">1.87611079216003</t>
   </si>
   <si>
     <t xml:space="preserve">1.83375644683838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85493361949921</t>
+    <t xml:space="preserve">1.8549337387085</t>
   </si>
   <si>
     <t xml:space="preserve">1.89343774318695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95793187618256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97718405723572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98295962810516</t>
+    <t xml:space="preserve">1.95793211460114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97718393802643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98295950889587</t>
   </si>
   <si>
     <t xml:space="preserve">2.01183772087097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04841661453247</t>
+    <t xml:space="preserve">2.04841685295105</t>
   </si>
   <si>
     <t xml:space="preserve">2.05996775627136</t>
@@ -4082,16 +4082,16 @@
     <t xml:space="preserve">2.09077095985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10809779167175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16585397720337</t>
+    <t xml:space="preserve">2.10809803009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16585421562195</t>
   </si>
   <si>
     <t xml:space="preserve">2.26018905639648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28136610984802</t>
+    <t xml:space="preserve">2.2813663482666</t>
   </si>
   <si>
     <t xml:space="preserve">2.24863767623901</t>
@@ -4109,13 +4109,13 @@
     <t xml:space="preserve">2.23516130447388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22746062278748</t>
+    <t xml:space="preserve">2.2274603843689</t>
   </si>
   <si>
     <t xml:space="preserve">2.22553539276123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09269618988037</t>
+    <t xml:space="preserve">2.09269642829895</t>
   </si>
   <si>
     <t xml:space="preserve">2.14082646369934</t>
@@ -4124,10 +4124,10 @@
     <t xml:space="preserve">1.96178257465363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00221180915833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02531409263611</t>
+    <t xml:space="preserve">2.00221157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02531433105469</t>
   </si>
   <si>
     <t xml:space="preserve">2.04071569442749</t>
@@ -4145,19 +4145,19 @@
     <t xml:space="preserve">2.02723932266235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07921981811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08499550819397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15237760543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18125557899475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22938561439514</t>
+    <t xml:space="preserve">2.07922005653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08499526977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15237784385681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18125581741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22938585281372</t>
   </si>
   <si>
     <t xml:space="preserve">2.25441336631775</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">2.1389012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19473195075989</t>
+    <t xml:space="preserve">2.19473218917847</t>
   </si>
   <si>
     <t xml:space="preserve">2.18510603904724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15815353393555</t>
+    <t xml:space="preserve">2.15815329551697</t>
   </si>
   <si>
     <t xml:space="preserve">2.12157440185547</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">2.13697600364685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11964917182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40842986106873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38147687911987</t>
+    <t xml:space="preserve">2.11964893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40842962265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38147664070129</t>
   </si>
   <si>
     <t xml:space="preserve">2.45463442802429</t>
@@ -4208,31 +4208,31 @@
     <t xml:space="preserve">2.47003602981567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51239061355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55859541893005</t>
+    <t xml:space="preserve">2.51239037513733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55859565734863</t>
   </si>
   <si>
     <t xml:space="preserve">2.51624131202698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55089497566223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53934335708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52971744537354</t>
+    <t xml:space="preserve">2.55089473724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53934359550476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52971768379211</t>
   </si>
   <si>
     <t xml:space="preserve">2.53356790542603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49698925018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48351263999939</t>
+    <t xml:space="preserve">2.49698901176453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48351240158081</t>
   </si>
   <si>
     <t xml:space="preserve">2.44308352470398</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">2.31409478187561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36415028572083</t>
+    <t xml:space="preserve">2.36415004730225</t>
   </si>
   <si>
     <t xml:space="preserve">2.31216955184937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26981496810913</t>
+    <t xml:space="preserve">2.26981520652771</t>
   </si>
   <si>
     <t xml:space="preserve">2.33527207374573</t>
@@ -4286,16 +4286,16 @@
     <t xml:space="preserve">2.33719706535339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29869294166565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26596474647522</t>
+    <t xml:space="preserve">2.29869318008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26596450805664</t>
   </si>
   <si>
     <t xml:space="preserve">2.27366542816162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27559089660645</t>
+    <t xml:space="preserve">2.27559065818787</t>
   </si>
   <si>
     <t xml:space="preserve">2.3256459236145</t>
@@ -4304,16 +4304,16 @@
     <t xml:space="preserve">2.31987047195435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40265393257141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37955164909363</t>
+    <t xml:space="preserve">2.40265417098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37955141067505</t>
   </si>
   <si>
     <t xml:space="preserve">2.37570118904114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38532710075378</t>
+    <t xml:space="preserve">2.38532733917236</t>
   </si>
   <si>
     <t xml:space="preserve">2.43730783462524</t>
@@ -4328,16 +4328,16 @@
     <t xml:space="preserve">2.62597751617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59324908256531</t>
+    <t xml:space="preserve">2.59324932098389</t>
   </si>
   <si>
     <t xml:space="preserve">2.63560366630554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.614426612854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61827683448792</t>
+    <t xml:space="preserve">2.61442637443542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61827707290649</t>
   </si>
   <si>
     <t xml:space="preserve">2.60480070114136</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">2.60287523269653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57784748077393</t>
+    <t xml:space="preserve">2.5778477191925</t>
   </si>
   <si>
     <t xml:space="preserve">2.66255664825439</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">2.61635160446167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54319381713867</t>
+    <t xml:space="preserve">2.54319405555725</t>
   </si>
   <si>
     <t xml:space="preserve">2.50661516189575</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">2.40457916259766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35837435722351</t>
+    <t xml:space="preserve">2.35837459564209</t>
   </si>
   <si>
     <t xml:space="preserve">2.43923282623291</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">2.46233558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46811103820801</t>
+    <t xml:space="preserve">2.46811079978943</t>
   </si>
   <si>
     <t xml:space="preserve">2.43538236618042</t>
@@ -5021,7 +5021,13 @@
     <t xml:space="preserve">2.86199998855591</t>
   </si>
   <si>
+    <t xml:space="preserve">2.80999994277954</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.82800006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68600010871887</t>
   </si>
 </sst>
 </file>
@@ -61211,27 +61217,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6494560185</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>622314</v>
+        <v>1099183</v>
       </c>
       <c r="C2149" t="n">
-        <v>2.85800004005432</v>
+        <v>2.89000010490417</v>
       </c>
       <c r="D2149" t="n">
-        <v>2.78600001335144</v>
+        <v>2.78800010681152</v>
       </c>
       <c r="E2149" t="n">
-        <v>2.83599996566772</v>
+        <v>2.86999988555908</v>
       </c>
       <c r="F2149" t="n">
-        <v>2.82800006866455</v>
+        <v>2.80999994277954</v>
       </c>
       <c r="G2149" t="s">
         <v>1669</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>622314</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>2.85800004005432</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>2.78600001335144</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>2.83599996566772</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>2.82800006866455</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6495833333</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>4895074</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>2.85999989509583</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>2.62400007247925</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>2.85999989509583</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>2.68600010871887</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="1675">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33549165725708</t>
+    <t xml:space="preserve">5.33549213409424</t>
   </si>
   <si>
     <t xml:space="preserve">OVS.MI</t>
@@ -47,34 +47,34 @@
     <t xml:space="preserve">5.18833541870117</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04538297653198</t>
+    <t xml:space="preserve">5.04538249969482</t>
   </si>
   <si>
     <t xml:space="preserve">4.91924810409546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99913311004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93186140060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07061004638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23458385467529</t>
+    <t xml:space="preserve">4.99913263320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93186092376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07060956954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23458433151245</t>
   </si>
   <si>
     <t xml:space="preserve">4.96970224380493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87720251083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91083955764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88981676101685</t>
+    <t xml:space="preserve">4.8772029876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91084003448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.889817237854</t>
   </si>
   <si>
     <t xml:space="preserve">4.50300359725952</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.47777700424194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80152177810669</t>
+    <t xml:space="preserve">4.80152273178101</t>
   </si>
   <si>
     <t xml:space="preserve">4.72163724899292</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">4.74265956878662</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76368188858032</t>
+    <t xml:space="preserve">4.76368236541748</t>
   </si>
   <si>
     <t xml:space="preserve">4.78049993515015</t>
@@ -110,55 +110,55 @@
     <t xml:space="preserve">4.78470516204834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81413602828979</t>
+    <t xml:space="preserve">4.81413555145264</t>
   </si>
   <si>
     <t xml:space="preserve">4.58288955688477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27175664901733</t>
+    <t xml:space="preserve">4.27175712585449</t>
   </si>
   <si>
     <t xml:space="preserve">4.26755237579346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53243541717529</t>
+    <t xml:space="preserve">4.53243589401245</t>
   </si>
   <si>
     <t xml:space="preserve">4.47357225418091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64175224304199</t>
+    <t xml:space="preserve">4.64175176620483</t>
   </si>
   <si>
     <t xml:space="preserve">4.55766296386719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73004579544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75106859207153</t>
+    <t xml:space="preserve">4.73425054550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73004627227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75106811523438</t>
   </si>
   <si>
     <t xml:space="preserve">4.75527238845825</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52402591705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49039077758789</t>
+    <t xml:space="preserve">4.52402639389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49038982391357</t>
   </si>
   <si>
     <t xml:space="preserve">4.70061492919922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83515930175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94867944717407</t>
+    <t xml:space="preserve">4.83515882492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94867992401123</t>
   </si>
   <si>
     <t xml:space="preserve">4.99492883682251</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">4.86038589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77209138870239</t>
+    <t xml:space="preserve">4.77209091186523</t>
   </si>
   <si>
     <t xml:space="preserve">4.79311370849609</t>
@@ -176,10 +176,10 @@
     <t xml:space="preserve">4.64595651626587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69220590591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66277503967285</t>
+    <t xml:space="preserve">4.69220638275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66277456283569</t>
   </si>
   <si>
     <t xml:space="preserve">4.54504871368408</t>
@@ -197,37 +197,37 @@
     <t xml:space="preserve">4.33061981201172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40209579467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46095943450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28857517242432</t>
+    <t xml:space="preserve">4.40209531784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46095991134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28857469558716</t>
   </si>
   <si>
     <t xml:space="preserve">4.2591438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56607103347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4105052947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48618650436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77629566192627</t>
+    <t xml:space="preserve">4.56607151031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41050481796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48618602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77629518508911</t>
   </si>
   <si>
     <t xml:space="preserve">5.01595163345337</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81834077835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76788663864136</t>
+    <t xml:space="preserve">4.81834030151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76788711547852</t>
   </si>
   <si>
     <t xml:space="preserve">4.83095359802246</t>
@@ -236,10 +236,10 @@
     <t xml:space="preserve">4.74686431884766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78890943527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82254505157471</t>
+    <t xml:space="preserve">4.78890991210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82254457473755</t>
   </si>
   <si>
     <t xml:space="preserve">4.80993175506592</t>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">4.83936262130737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80572652816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92345285415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98231554031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12947225570679</t>
+    <t xml:space="preserve">4.80572700500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92345237731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98231506347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12947273254395</t>
   </si>
   <si>
     <t xml:space="preserve">5.1799259185791</t>
@@ -269,16 +269,16 @@
     <t xml:space="preserve">5.16731309890747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2009482383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04117774963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01849603652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04870223999023</t>
+    <t xml:space="preserve">5.20094871520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04117822647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0184965133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04870176315308</t>
   </si>
   <si>
     <t xml:space="preserve">5.19110107421875</t>
@@ -287,28 +287,28 @@
     <t xml:space="preserve">5.01418113708496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83726119995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78547954559326</t>
+    <t xml:space="preserve">4.83726072311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7854790687561</t>
   </si>
   <si>
     <t xml:space="preserve">4.73801279067993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74232721328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75527381896973</t>
+    <t xml:space="preserve">4.74232769012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75527334213257</t>
   </si>
   <si>
     <t xml:space="preserve">4.9063024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88472747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82000017166138</t>
+    <t xml:space="preserve">4.88472700119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81999969482422</t>
   </si>
   <si>
     <t xml:space="preserve">4.78116416931152</t>
@@ -320,22 +320,22 @@
     <t xml:space="preserve">4.18049764633179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37985706329346</t>
+    <t xml:space="preserve">4.3798565864563</t>
   </si>
   <si>
     <t xml:space="preserve">4.49636602401733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51794052124023</t>
+    <t xml:space="preserve">4.51794004440308</t>
   </si>
   <si>
     <t xml:space="preserve">4.5567774772644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50931072235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35396575927734</t>
+    <t xml:space="preserve">4.50931024551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35396528244019</t>
   </si>
   <si>
     <t xml:space="preserve">4.33239030838013</t>
@@ -359,25 +359,25 @@
     <t xml:space="preserve">4.34965133666992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28233528137207</t>
+    <t xml:space="preserve">4.28233575820923</t>
   </si>
   <si>
     <t xml:space="preserve">4.3625955581665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41437721252441</t>
+    <t xml:space="preserve">4.41437768936157</t>
   </si>
   <si>
     <t xml:space="preserve">4.51362562179565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.448899269104</t>
+    <t xml:space="preserve">4.44889879226685</t>
   </si>
   <si>
     <t xml:space="preserve">4.45752954483032</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48341989517212</t>
+    <t xml:space="preserve">4.48341941833496</t>
   </si>
   <si>
     <t xml:space="preserve">4.63013458251953</t>
@@ -386,34 +386,34 @@
     <t xml:space="preserve">4.62581968307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53951644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53088665008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49205017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50499629974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55246210098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47910451889038</t>
+    <t xml:space="preserve">4.53951692581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53088617324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49204969406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50499582290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55246257781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47910499572754</t>
   </si>
   <si>
     <t xml:space="preserve">4.31340360641479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41869354248047</t>
+    <t xml:space="preserve">4.41869306564331</t>
   </si>
   <si>
     <t xml:space="preserve">4.44026756286621</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34533643722534</t>
+    <t xml:space="preserve">4.34533596038818</t>
   </si>
   <si>
     <t xml:space="preserve">4.28060817718506</t>
@@ -434,16 +434,16 @@
     <t xml:space="preserve">4.27197885513306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44458389282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39711713790894</t>
+    <t xml:space="preserve">4.44458341598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39711761474609</t>
   </si>
   <si>
     <t xml:space="preserve">4.32807493209839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3013219833374</t>
+    <t xml:space="preserve">4.30132150650024</t>
   </si>
   <si>
     <t xml:space="preserve">4.61718893051147</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">4.70349168777466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67328548431396</t>
+    <t xml:space="preserve">4.67328500747681</t>
   </si>
   <si>
     <t xml:space="preserve">4.57403802871704</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">4.42732334136963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38848686218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35828065872192</t>
+    <t xml:space="preserve">4.38848733901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35828018188477</t>
   </si>
   <si>
     <t xml:space="preserve">4.31513023376465</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30995225906372</t>
+    <t xml:space="preserve">4.30995178222656</t>
   </si>
   <si>
     <t xml:space="preserve">4.32376003265381</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">4.29441690444946</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37554168701172</t>
+    <t xml:space="preserve">4.37554216384888</t>
   </si>
   <si>
     <t xml:space="preserve">4.2857871055603</t>
@@ -521,19 +521,19 @@
     <t xml:space="preserve">4.26334857940674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20983982086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26162147521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29959487915039</t>
+    <t xml:space="preserve">4.20984029769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26162195205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29959535598755</t>
   </si>
   <si>
     <t xml:space="preserve">4.28751230239868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29096460342407</t>
+    <t xml:space="preserve">4.29096508026123</t>
   </si>
   <si>
     <t xml:space="preserve">4.21501874923706</t>
@@ -542,13 +542,13 @@
     <t xml:space="preserve">4.26852607727051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25817060470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23573112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31944513320923</t>
+    <t xml:space="preserve">4.25817012786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23573160171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31944465637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.39280271530151</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">4.47479009628296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25471782684326</t>
+    <t xml:space="preserve">4.2547173500061</t>
   </si>
   <si>
     <t xml:space="preserve">4.25989580154419</t>
@@ -575,10 +575,10 @@
     <t xml:space="preserve">4.14425039291382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12526321411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10455131530762</t>
+    <t xml:space="preserve">4.12526369094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10455083847046</t>
   </si>
   <si>
     <t xml:space="preserve">4.17359399795532</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">4.16668939590454</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12698984146118</t>
+    <t xml:space="preserve">4.12699031829834</t>
   </si>
   <si>
     <t xml:space="preserve">4.18912792205811</t>
@@ -605,13 +605,13 @@
     <t xml:space="preserve">4.65171051025391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61287403106689</t>
+    <t xml:space="preserve">4.61287355422974</t>
   </si>
   <si>
     <t xml:space="preserve">4.54383182525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53520154953003</t>
+    <t xml:space="preserve">4.53520107269287</t>
   </si>
   <si>
     <t xml:space="preserve">4.58266830444336</t>
@@ -620,52 +620,52 @@
     <t xml:space="preserve">4.54814720153809</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59561347961426</t>
+    <t xml:space="preserve">4.5956130027771</t>
   </si>
   <si>
     <t xml:space="preserve">4.59129762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.599928855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72938251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74664306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66897058486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80705499649048</t>
+    <t xml:space="preserve">4.59992837905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72938299179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74664258956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66897010803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80705547332764</t>
   </si>
   <si>
     <t xml:space="preserve">4.82431507110596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79410934448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77253389358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69486141204834</t>
+    <t xml:space="preserve">4.79410886764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77253341674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69486093521118</t>
   </si>
   <si>
     <t xml:space="preserve">4.86746644973755</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96240043640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94945430755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87609672546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97965955734253</t>
+    <t xml:space="preserve">4.96239995956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94945383071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87609624862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97966003417969</t>
   </si>
   <si>
     <t xml:space="preserve">5.14363527297974</t>
@@ -674,31 +674,31 @@
     <t xml:space="preserve">5.1091136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05733203887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08322286605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02281141281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06596326828003</t>
+    <t xml:space="preserve">5.05733156204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08322334289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02281093597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06596231460571</t>
   </si>
   <si>
     <t xml:space="preserve">5.00555038452148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06164741516113</t>
+    <t xml:space="preserve">5.06164693832397</t>
   </si>
   <si>
     <t xml:space="preserve">5.09185361862183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15226554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34644556045532</t>
+    <t xml:space="preserve">5.1522650718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34644603729248</t>
   </si>
   <si>
     <t xml:space="preserve">5.31192541122437</t>
@@ -737,19 +737,19 @@
     <t xml:space="preserve">5.54925727844238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50610589981079</t>
+    <t xml:space="preserve">5.50610542297363</t>
   </si>
   <si>
     <t xml:space="preserve">5.45000886917114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50179100036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35507726669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36370706558228</t>
+    <t xml:space="preserve">5.50179004669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35507678985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36370658874512</t>
   </si>
   <si>
     <t xml:space="preserve">5.43706369400024</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">5.56220245361328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48884582519531</t>
+    <t xml:space="preserve">5.48884534835815</t>
   </si>
   <si>
     <t xml:space="preserve">5.48453044891357</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">5.56651782989502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5837779045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48021459579468</t>
+    <t xml:space="preserve">5.58377742767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48021411895752</t>
   </si>
   <si>
     <t xml:space="preserve">5.47158479690552</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">5.49316024780273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40685844421387</t>
+    <t xml:space="preserve">5.40685796737671</t>
   </si>
   <si>
     <t xml:space="preserve">5.37233638763428</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23856830596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3680214881897</t>
+    <t xml:space="preserve">5.23856782913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36802101135254</t>
   </si>
   <si>
     <t xml:space="preserve">5.28171920776367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33480215072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67983865737915</t>
+    <t xml:space="preserve">5.33480167388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67983818054199</t>
   </si>
   <si>
     <t xml:space="preserve">5.71080303192139</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">5.65329742431641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58252000808716</t>
+    <t xml:space="preserve">5.58252048492432</t>
   </si>
   <si>
     <t xml:space="preserve">5.58694362640381</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">5.51174402236938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53828573226929</t>
+    <t xml:space="preserve">5.53828525543213</t>
   </si>
   <si>
     <t xml:space="preserve">5.56482553482056</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">5.57367372512817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48962640762329</t>
+    <t xml:space="preserve">5.48962593078613</t>
   </si>
   <si>
     <t xml:space="preserve">5.52059078216553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48520231246948</t>
+    <t xml:space="preserve">5.48520278930664</t>
   </si>
   <si>
     <t xml:space="preserve">5.56040239334106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55597877502441</t>
+    <t xml:space="preserve">5.55597925186157</t>
   </si>
   <si>
     <t xml:space="preserve">5.59579133987427</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">5.62233257293701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56925010681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51616764068604</t>
+    <t xml:space="preserve">5.56925058364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51616716384888</t>
   </si>
   <si>
     <t xml:space="preserve">5.44096708297729</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">5.54713153839111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6400260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61790800094604</t>
+    <t xml:space="preserve">5.64002561569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6179084777832</t>
   </si>
   <si>
     <t xml:space="preserve">5.60906171798706</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">5.64445018768311</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81254529953003</t>
+    <t xml:space="preserve">5.81254482269287</t>
   </si>
   <si>
     <t xml:space="preserve">5.86562776565552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92755651473999</t>
+    <t xml:space="preserve">5.92755699157715</t>
   </si>
   <si>
     <t xml:space="preserve">5.95852184295654</t>
@@ -941,16 +941,16 @@
     <t xml:space="preserve">6.02487564086914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94525146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90543937683105</t>
+    <t xml:space="preserve">5.94525194168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9054388999939</t>
   </si>
   <si>
     <t xml:space="preserve">5.76388597488403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95409917831421</t>
+    <t xml:space="preserve">5.95409870147705</t>
   </si>
   <si>
     <t xml:space="preserve">6.01602792739868</t>
@@ -962,34 +962,34 @@
     <t xml:space="preserve">5.68868541717529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71522665023804</t>
+    <t xml:space="preserve">5.71522617340088</t>
   </si>
   <si>
     <t xml:space="preserve">5.70638036727905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55155563354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60463762283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50289630889893</t>
+    <t xml:space="preserve">5.55155515670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60463809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50289583206177</t>
   </si>
   <si>
     <t xml:space="preserve">5.38346099853516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17555379867554</t>
+    <t xml:space="preserve">5.17555332183838</t>
   </si>
   <si>
     <t xml:space="preserve">5.19767189025879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10477638244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08708333969116</t>
+    <t xml:space="preserve">5.10477685928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.087082862854</t>
   </si>
   <si>
     <t xml:space="preserve">5.13131809234619</t>
@@ -1001,40 +1001,40 @@
     <t xml:space="preserve">5.23748302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1932487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15343570709229</t>
+    <t xml:space="preserve">5.19324827194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15343618392944</t>
   </si>
   <si>
     <t xml:space="preserve">5.16670703887939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14016532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0959300994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25075483322144</t>
+    <t xml:space="preserve">5.14016580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09592962265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25075435638428</t>
   </si>
   <si>
     <t xml:space="preserve">5.21978950500488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06054210662842</t>
+    <t xml:space="preserve">5.06054162979126</t>
   </si>
   <si>
     <t xml:space="preserve">5.14901256561279</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1180477142334</t>
+    <t xml:space="preserve">5.11804819107056</t>
   </si>
   <si>
     <t xml:space="preserve">5.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93668174743652</t>
+    <t xml:space="preserve">4.93668222427368</t>
   </si>
   <si>
     <t xml:space="preserve">4.97649335861206</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">4.94552898406982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91014099121094</t>
+    <t xml:space="preserve">4.91014051437378</t>
   </si>
   <si>
     <t xml:space="preserve">4.98091793060303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94995212554932</t>
+    <t xml:space="preserve">4.94995260238647</t>
   </si>
   <si>
     <t xml:space="preserve">4.91456413269043</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">4.99861145019531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07381248474121</t>
+    <t xml:space="preserve">5.07381200790405</t>
   </si>
   <si>
     <t xml:space="preserve">5.02957630157471</t>
@@ -1079,19 +1079,19 @@
     <t xml:space="preserve">5.21536540985107</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18440055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12689447402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46750783920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29498863220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3171067237854</t>
+    <t xml:space="preserve">5.18440008163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1268949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46750831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29498910903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31710720062256</t>
   </si>
   <si>
     <t xml:space="preserve">5.47635507583618</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">5.0693883895874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96322298049927</t>
+    <t xml:space="preserve">4.96322345733643</t>
   </si>
   <si>
     <t xml:space="preserve">4.87917613983154</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">4.88802289962769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90571784973145</t>
+    <t xml:space="preserve">4.90571737289429</t>
   </si>
   <si>
     <t xml:space="preserve">4.98534107208252</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">4.85705804824829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8216700553894</t>
+    <t xml:space="preserve">4.82166957855225</t>
   </si>
   <si>
     <t xml:space="preserve">4.80839872360229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84821128845215</t>
+    <t xml:space="preserve">4.84821176528931</t>
   </si>
   <si>
     <t xml:space="preserve">4.75531625747681</t>
@@ -1148,19 +1148,19 @@
     <t xml:space="preserve">4.70665693283081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7597393989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73762226104736</t>
+    <t xml:space="preserve">4.75973987579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73762178421021</t>
   </si>
   <si>
     <t xml:space="preserve">4.7862811088562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83936309814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86148118972778</t>
+    <t xml:space="preserve">4.83936357498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86148166656494</t>
   </si>
   <si>
     <t xml:space="preserve">4.93225860595703</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">4.92341089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87032890319824</t>
+    <t xml:space="preserve">4.87032842636108</t>
   </si>
   <si>
     <t xml:space="preserve">4.83051681518555</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">4.61818647384644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64472770690918</t>
+    <t xml:space="preserve">4.64472723007202</t>
   </si>
   <si>
     <t xml:space="preserve">4.43682050704956</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4076247215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39700889587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40231704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44124412536621</t>
+    <t xml:space="preserve">4.40762519836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39700937271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40231657028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44124364852905</t>
   </si>
   <si>
     <t xml:space="preserve">4.34038734436035</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">4.42355060577393</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38816118240356</t>
+    <t xml:space="preserve">4.38816165924072</t>
   </si>
   <si>
     <t xml:space="preserve">4.41470289230347</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">2.99739742279053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07879090309143</t>
+    <t xml:space="preserve">3.07879066467285</t>
   </si>
   <si>
     <t xml:space="preserve">3.01155281066895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04163336753845</t>
+    <t xml:space="preserve">3.04163312911987</t>
   </si>
   <si>
     <t xml:space="preserve">3.06463527679443</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">3.26281070709229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35835886001587</t>
+    <t xml:space="preserve">3.35835909843445</t>
   </si>
   <si>
     <t xml:space="preserve">3.33535671234131</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">3.34420347213745</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33004808425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36720633506775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36189818382263</t>
+    <t xml:space="preserve">3.33004832267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36720657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36189794540405</t>
   </si>
   <si>
     <t xml:space="preserve">3.28758263587952</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">3.11948704719543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13187336921692</t>
+    <t xml:space="preserve">3.13187313079834</t>
   </si>
   <si>
     <t xml:space="preserve">3.06994390487671</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">3.00801348686218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99208903312683</t>
+    <t xml:space="preserve">2.99208927154541</t>
   </si>
   <si>
     <t xml:space="preserve">3.01863026618958</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">2.65943813323975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74260115623474</t>
+    <t xml:space="preserve">2.74260139465332</t>
   </si>
   <si>
     <t xml:space="preserve">2.64882135391235</t>
@@ -1322,10 +1322,10 @@
     <t xml:space="preserve">2.66474652290344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65412950515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62581920623779</t>
+    <t xml:space="preserve">2.65412974357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62581944465637</t>
   </si>
   <si>
     <t xml:space="preserve">2.56211972236633</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">2.53734827041626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50019025802612</t>
+    <t xml:space="preserve">2.5001904964447</t>
   </si>
   <si>
     <t xml:space="preserve">2.50726795196533</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">2.45064687728882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3957941532135</t>
+    <t xml:space="preserve">2.39579439163208</t>
   </si>
   <si>
     <t xml:space="preserve">2.40641117095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55681228637695</t>
+    <t xml:space="preserve">2.55681252479553</t>
   </si>
   <si>
     <t xml:space="preserve">2.52142310142517</t>
@@ -1373,16 +1373,16 @@
     <t xml:space="preserve">2.46126294136047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47364926338196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49311280250549</t>
+    <t xml:space="preserve">2.47364902496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49311256408691</t>
   </si>
   <si>
     <t xml:space="preserve">2.50549864768982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48957324028015</t>
+    <t xml:space="preserve">2.48957347869873</t>
   </si>
   <si>
     <t xml:space="preserve">2.4913432598114</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">2.35155940055847</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41525793075562</t>
+    <t xml:space="preserve">2.41525816917419</t>
   </si>
   <si>
     <t xml:space="preserve">2.35686683654785</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.59396934509277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56742835044861</t>
+    <t xml:space="preserve">2.56742811203003</t>
   </si>
   <si>
     <t xml:space="preserve">2.45595479011536</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">2.3409423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34271168708801</t>
+    <t xml:space="preserve">2.34271192550659</t>
   </si>
   <si>
     <t xml:space="preserve">2.17638611793518</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">2.1586925983429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27901291847229</t>
+    <t xml:space="preserve">2.27901315689087</t>
   </si>
   <si>
     <t xml:space="preserve">2.30024600028992</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">2.29493761062622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29670667648315</t>
+    <t xml:space="preserve">2.29670643806458</t>
   </si>
   <si>
     <t xml:space="preserve">2.28255152702332</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">2.28432035446167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24008584022522</t>
+    <t xml:space="preserve">2.24008560180664</t>
   </si>
   <si>
     <t xml:space="preserve">2.19938921928406</t>
@@ -1490,25 +1490,25 @@
     <t xml:space="preserve">2.2135443687439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22239112854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28785967826843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062206268311</t>
+    <t xml:space="preserve">2.22239136695862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28785991668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062182426453</t>
   </si>
   <si>
     <t xml:space="preserve">2.21531343460083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14453649520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14630675315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25070142745972</t>
+    <t xml:space="preserve">2.14453625679016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14630651473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2507016658783</t>
   </si>
   <si>
     <t xml:space="preserve">2.36925292015076</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">2.06137442588806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98705875873566</t>
+    <t xml:space="preserve">1.98705852031708</t>
   </si>
   <si>
     <t xml:space="preserve">1.86142981052399</t>
@@ -1547,25 +1547,25 @@
     <t xml:space="preserve">1.7959611415863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75172519683838</t>
+    <t xml:space="preserve">1.75172531604767</t>
   </si>
   <si>
     <t xml:space="preserve">1.72518408298492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72606897354126</t>
+    <t xml:space="preserve">1.72606909275055</t>
   </si>
   <si>
     <t xml:space="preserve">1.59336256980896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57389891147614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47923457622528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3951872587204</t>
+    <t xml:space="preserve">1.57389879226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47923445701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39518737792969</t>
   </si>
   <si>
     <t xml:space="preserve">1.36156833171844</t>
@@ -1577,10 +1577,10 @@
     <t xml:space="preserve">1.32352602481842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31821763515472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36599183082581</t>
+    <t xml:space="preserve">1.31821751594543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36599171161652</t>
   </si>
   <si>
     <t xml:space="preserve">1.35183656215668</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">1.37306940555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31644833087921</t>
+    <t xml:space="preserve">1.3164484500885</t>
   </si>
   <si>
     <t xml:space="preserve">1.32618033885956</t>
@@ -1625,22 +1625,22 @@
     <t xml:space="preserve">1.32706439495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30671656131744</t>
+    <t xml:space="preserve">1.30671668052673</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060359954834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33237278461456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33502697944641</t>
+    <t xml:space="preserve">1.33237290382385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3350270986557</t>
   </si>
   <si>
     <t xml:space="preserve">1.44915497303009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45092415809631</t>
+    <t xml:space="preserve">1.45092403888702</t>
   </si>
   <si>
     <t xml:space="preserve">1.44473147392273</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">1.42526793479919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39253318309784</t>
+    <t xml:space="preserve">1.39253306388855</t>
   </si>
   <si>
     <t xml:space="preserve">1.42438280582428</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">1.32529509067535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31202507019043</t>
+    <t xml:space="preserve">1.31202495098114</t>
   </si>
   <si>
     <t xml:space="preserve">1.13154339790344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01918566226959</t>
+    <t xml:space="preserve">1.0191855430603</t>
   </si>
   <si>
     <t xml:space="preserve">1.04838109016418</t>
@@ -1673,19 +1673,19 @@
     <t xml:space="preserve">0.670609295368195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744925737380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746694982051849</t>
+    <t xml:space="preserve">0.744925796985626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.746694922447205</t>
   </si>
   <si>
     <t xml:space="preserve">0.913020372390747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01476216316223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00414526462555</t>
+    <t xml:space="preserve">1.01476228237152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00414538383484</t>
   </si>
   <si>
     <t xml:space="preserve">0.898865103721619</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">0.967872202396393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00060701370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973180532455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971411526203156</t>
+    <t xml:space="preserve">1.0006068944931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973180592060089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971411466598511</t>
   </si>
   <si>
     <t xml:space="preserve">1.06430542469025</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">1.18020260334015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16427826881409</t>
+    <t xml:space="preserve">1.1642781496048</t>
   </si>
   <si>
     <t xml:space="preserve">1.19878220558167</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">1.16870164871216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09704029560089</t>
+    <t xml:space="preserve">1.09704041481018</t>
   </si>
   <si>
     <t xml:space="preserve">1.07138311862946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07846069335938</t>
+    <t xml:space="preserve">1.07846081256866</t>
   </si>
   <si>
     <t xml:space="preserve">1.05811297893524</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">1.07580745220184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07315337657928</t>
+    <t xml:space="preserve">1.07315325737</t>
   </si>
   <si>
     <t xml:space="preserve">1.1465836763382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16693246364594</t>
+    <t xml:space="preserve">1.16693234443665</t>
   </si>
   <si>
     <t xml:space="preserve">1.19435787200928</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">1.17931842803955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16781651973724</t>
+    <t xml:space="preserve">1.16781663894653</t>
   </si>
   <si>
     <t xml:space="preserve">1.12888920307159</t>
@@ -1784,19 +1784,19 @@
     <t xml:space="preserve">1.128005027771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1952428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14923787117004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15100693702698</t>
+    <t xml:space="preserve">1.19524276256561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14923799037933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15100705623627</t>
   </si>
   <si>
     <t xml:space="preserve">1.13596773147583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14481449127197</t>
+    <t xml:space="preserve">1.14481437206268</t>
   </si>
   <si>
     <t xml:space="preserve">1.17047071456909</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">1.14216017723083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16516220569611</t>
+    <t xml:space="preserve">1.1651623249054</t>
   </si>
   <si>
     <t xml:space="preserve">1.17843341827393</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">1.17577922344208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29875385761261</t>
+    <t xml:space="preserve">1.2987539768219</t>
   </si>
   <si>
     <t xml:space="preserve">1.54824256896973</t>
@@ -1826,13 +1826,13 @@
     <t xml:space="preserve">1.4978141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44119238853455</t>
+    <t xml:space="preserve">1.44119226932526</t>
   </si>
   <si>
     <t xml:space="preserve">1.40934252738953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37483954429626</t>
+    <t xml:space="preserve">1.37483942508698</t>
   </si>
   <si>
     <t xml:space="preserve">1.45446336269379</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">1.43499970436096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4075733423233</t>
+    <t xml:space="preserve">1.40757346153259</t>
   </si>
   <si>
     <t xml:space="preserve">1.44650077819824</t>
@@ -1859,13 +1859,13 @@
     <t xml:space="preserve">1.45269334316254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48542809486389</t>
+    <t xml:space="preserve">1.4854279756546</t>
   </si>
   <si>
     <t xml:space="preserve">1.50312173366547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50577592849731</t>
+    <t xml:space="preserve">1.5057760477066</t>
   </si>
   <si>
     <t xml:space="preserve">1.50666093826294</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">1.48277390003204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45711672306061</t>
+    <t xml:space="preserve">1.45711660385132</t>
   </si>
   <si>
     <t xml:space="preserve">1.47658038139343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53939485549927</t>
+    <t xml:space="preserve">1.53939473628998</t>
   </si>
   <si>
     <t xml:space="preserve">1.52081620693207</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">1.70660531520844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69156503677368</t>
+    <t xml:space="preserve">1.69156515598297</t>
   </si>
   <si>
     <t xml:space="preserve">1.68802678585052</t>
@@ -1913,19 +1913,19 @@
     <t xml:space="preserve">1.60397946834564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55797445774078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50135254859924</t>
+    <t xml:space="preserve">1.55797433853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50135242938995</t>
   </si>
   <si>
     <t xml:space="preserve">1.51904702186584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47038769721985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46507942676544</t>
+    <t xml:space="preserve">1.47038781642914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46507930755615</t>
   </si>
   <si>
     <t xml:space="preserve">1.41111183166504</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.38014698028564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40049576759338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39430224895477</t>
+    <t xml:space="preserve">1.40049564838409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39430212974548</t>
   </si>
   <si>
     <t xml:space="preserve">1.37572360038757</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">1.39695656299591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36864602565765</t>
+    <t xml:space="preserve">1.36864590644836</t>
   </si>
   <si>
     <t xml:space="preserve">1.36333763599396</t>
@@ -1970,19 +1970,19 @@
     <t xml:space="preserve">1.40580415725708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3889946937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39784145355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42880618572235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42615187168121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38457143306732</t>
+    <t xml:space="preserve">1.38899481296539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39784157276154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42880606651306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4261519908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38457131385803</t>
   </si>
   <si>
     <t xml:space="preserve">1.33679616451263</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">1.34387373924255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29433047771454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26248073577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4385381937027</t>
+    <t xml:space="preserve">1.29433059692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2624808549881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43853807449341</t>
   </si>
   <si>
     <t xml:space="preserve">1.4013808965683</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">1.40491914749146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41730511188507</t>
+    <t xml:space="preserve">1.41730523109436</t>
   </si>
   <si>
     <t xml:space="preserve">1.50931513309479</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">1.62963569164276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64025259017944</t>
+    <t xml:space="preserve">1.64025247097015</t>
   </si>
   <si>
     <t xml:space="preserve">1.58009135723114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50046765804291</t>
+    <t xml:space="preserve">1.50046753883362</t>
   </si>
   <si>
     <t xml:space="preserve">1.47569632530212</t>
@@ -2066,13 +2066,13 @@
     <t xml:space="preserve">1.45623254776001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42792201042175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41022765636444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40668833255768</t>
+    <t xml:space="preserve">1.42792212963104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41022753715515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40668821334839</t>
   </si>
   <si>
     <t xml:space="preserve">1.37395441532135</t>
@@ -2081,13 +2081,13 @@
     <t xml:space="preserve">1.37660872936249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37926292419434</t>
+    <t xml:space="preserve">1.37926304340363</t>
   </si>
   <si>
     <t xml:space="preserve">1.41199672222137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34033560752869</t>
+    <t xml:space="preserve">1.3403354883194</t>
   </si>
   <si>
     <t xml:space="preserve">1.31556332111359</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">1.47215700149536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45180916786194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46684861183167</t>
+    <t xml:space="preserve">1.45180928707123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46684849262238</t>
   </si>
   <si>
     <t xml:space="preserve">1.47127294540405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.461541056633</t>
+    <t xml:space="preserve">1.46154117584229</t>
   </si>
   <si>
     <t xml:space="preserve">1.53851068019867</t>
@@ -2120,22 +2120,22 @@
     <t xml:space="preserve">1.58982312679291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53320229053497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48188877105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63405907154083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5473575592041</t>
+    <t xml:space="preserve">1.53320217132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48188889026642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63405895233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54735743999481</t>
   </si>
   <si>
     <t xml:space="preserve">1.47392618656158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4933899641037</t>
+    <t xml:space="preserve">1.49338984489441</t>
   </si>
   <si>
     <t xml:space="preserve">1.49162077903748</t>
@@ -2144,10 +2144,10 @@
     <t xml:space="preserve">1.51373851299286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49073565006256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41288185119629</t>
+    <t xml:space="preserve">1.49073553085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.412881731987</t>
   </si>
   <si>
     <t xml:space="preserve">1.40403413772583</t>
@@ -2168,25 +2168,25 @@
     <t xml:space="preserve">1.51993119716644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55266582965851</t>
+    <t xml:space="preserve">1.5526659488678</t>
   </si>
   <si>
     <t xml:space="preserve">1.55885851383209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55178093910217</t>
+    <t xml:space="preserve">1.55178081989288</t>
   </si>
   <si>
     <t xml:space="preserve">1.55974352359772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6013251543045</t>
+    <t xml:space="preserve">1.60132527351379</t>
   </si>
   <si>
     <t xml:space="preserve">1.55708932876587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097636699677</t>
+    <t xml:space="preserve">1.58097648620605</t>
   </si>
   <si>
     <t xml:space="preserve">1.61282634735107</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">1.72872316837311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67829489707947</t>
+    <t xml:space="preserve">1.67829477787018</t>
   </si>
   <si>
     <t xml:space="preserve">1.65263772010803</t>
@@ -2225,34 +2225,34 @@
     <t xml:space="preserve">1.63317406177521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65086841583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65883123874664</t>
+    <t xml:space="preserve">1.65086853504181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65883111953735</t>
   </si>
   <si>
     <t xml:space="preserve">1.65971529483795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68094909191132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7473019361496</t>
+    <t xml:space="preserve">1.68094897270203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74730181694031</t>
   </si>
   <si>
     <t xml:space="preserve">1.8437352180481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80834710597992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82073318958282</t>
+    <t xml:space="preserve">1.80834722518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82073330879211</t>
   </si>
   <si>
     <t xml:space="preserve">1.83134913444519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81365561485291</t>
+    <t xml:space="preserve">1.81365549564362</t>
   </si>
   <si>
     <t xml:space="preserve">1.83488845825195</t>
@@ -2264,22 +2264,22 @@
     <t xml:space="preserve">1.87027657032013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85258197784424</t>
+    <t xml:space="preserve">1.85258209705353</t>
   </si>
   <si>
     <t xml:space="preserve">1.82250237464905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73580086231232</t>
+    <t xml:space="preserve">1.73580098152161</t>
   </si>
   <si>
     <t xml:space="preserve">1.70395112037659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78534424304962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76941978931427</t>
+    <t xml:space="preserve">1.78534412384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76941967010498</t>
   </si>
   <si>
     <t xml:space="preserve">1.78711438179016</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">1.77472817897797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78003656864166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71279788017273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7110288143158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72076070308685</t>
+    <t xml:space="preserve">1.78003668785095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71279776096344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71102869510651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72076058387756</t>
   </si>
   <si>
     <t xml:space="preserve">1.70572030544281</t>
@@ -2327,22 +2327,22 @@
     <t xml:space="preserve">1.68979585170746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67652475833893</t>
+    <t xml:space="preserve">1.67652463912964</t>
   </si>
   <si>
     <t xml:space="preserve">1.6986426115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69510436058044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67917895317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63671314716339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63848257064819</t>
+    <t xml:space="preserve">1.69510424137115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67917907238007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63671326637268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6384824514389</t>
   </si>
   <si>
     <t xml:space="preserve">1.67033219337463</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">1.58274567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57743811607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55443501472473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6022093296051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61636447906494</t>
+    <t xml:space="preserve">1.57743799686432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55443513393402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60220921039581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61636459827423</t>
   </si>
   <si>
     <t xml:space="preserve">1.62255799770355</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">1.63936746120453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60663259029388</t>
+    <t xml:space="preserve">1.60663270950317</t>
   </si>
   <si>
     <t xml:space="preserve">1.59867095947266</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">1.30494737625122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2500946521759</t>
+    <t xml:space="preserve">1.25009477138519</t>
   </si>
   <si>
     <t xml:space="preserve">1.23593950271606</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">1.08819258213043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988220930099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822779595851898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761735260486603</t>
+    <t xml:space="preserve">0.988221049308777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822779536247253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761735200881958</t>
   </si>
   <si>
     <t xml:space="preserve">0.736963093280792</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">0.743155658245087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675033688545227</t>
+    <t xml:space="preserve">0.675033628940582</t>
   </si>
   <si>
     <t xml:space="preserve">0.722807884216309</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">0.72059565782547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728558361530304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698920726776123</t>
+    <t xml:space="preserve">0.728558301925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698920786380768</t>
   </si>
   <si>
     <t xml:space="preserve">0.681668281555176</t>
@@ -2459,34 +2459,34 @@
     <t xml:space="preserve">0.664416790008545</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610892117023468</t>
+    <t xml:space="preserve">0.610892176628113</t>
   </si>
   <si>
     <t xml:space="preserve">0.654684901237488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699804902076721</t>
+    <t xml:space="preserve">0.699804842472076</t>
   </si>
   <si>
     <t xml:space="preserve">0.684765458106995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.689188897609711</t>
+    <t xml:space="preserve">0.689188838005066</t>
   </si>
   <si>
     <t xml:space="preserve">0.675917744636536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688303828239441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678129971027374</t>
+    <t xml:space="preserve">0.688303887844086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678129911422729</t>
   </si>
   <si>
     <t xml:space="preserve">0.648492336273193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.652030646800995</t>
+    <t xml:space="preserve">0.65203070640564</t>
   </si>
   <si>
     <t xml:space="preserve">0.646280169487</t>
@@ -2495,31 +2495,31 @@
     <t xml:space="preserve">0.641414761543274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.647165238857269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.690073013305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716614305973053</t>
+    <t xml:space="preserve">0.647165298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.690072953701019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716614365577698</t>
   </si>
   <si>
     <t xml:space="preserve">0.693612277507782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.680341124534607</t>
+    <t xml:space="preserve">0.680341184139252</t>
   </si>
   <si>
     <t xml:space="preserve">0.679457068443298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694497346878052</t>
+    <t xml:space="preserve">0.694497406482697</t>
   </si>
   <si>
     <t xml:space="preserve">0.677687883377075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687419772148132</t>
+    <t xml:space="preserve">0.687419712543488</t>
   </si>
   <si>
     <t xml:space="preserve">0.70776754617691</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">0.688745856285095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.66353178024292</t>
+    <t xml:space="preserve">0.663531720638275</t>
   </si>
   <si>
     <t xml:space="preserve">0.645838141441345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641856789588928</t>
+    <t xml:space="preserve">0.641856729984283</t>
   </si>
   <si>
     <t xml:space="preserve">0.667070925235748</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">0.60823792219162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637433409690857</t>
+    <t xml:space="preserve">0.637433350086212</t>
   </si>
   <si>
     <t xml:space="preserve">0.667956054210663</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">0.836050689220428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808182239532471</t>
+    <t xml:space="preserve">0.808182299137115</t>
   </si>
   <si>
     <t xml:space="preserve">0.813932776451111</t>
@@ -2573,13 +2573,13 @@
     <t xml:space="preserve">0.876747250556946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884709894657135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954602003097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964333772659302</t>
+    <t xml:space="preserve">0.88470983505249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954602062702179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964333832263947</t>
   </si>
   <si>
     <t xml:space="preserve">1.06519067287445</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">0.980258285999298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993529379367828</t>
+    <t xml:space="preserve">0.993529260158539</t>
   </si>
   <si>
     <t xml:space="preserve">0.976719975471497</t>
@@ -2615,19 +2615,19 @@
     <t xml:space="preserve">0.948408484458923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87232381105423</t>
+    <t xml:space="preserve">0.872323870658875</t>
   </si>
   <si>
     <t xml:space="preserve">0.827203929424286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873650968074799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853745222091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832069396972656</t>
+    <t xml:space="preserve">0.873650908470154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85374528169632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832069337368011</t>
   </si>
   <si>
     <t xml:space="preserve">0.849763870239258</t>
@@ -2636,13 +2636,13 @@
     <t xml:space="preserve">0.844897449016571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849320828914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845782518386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822337508201599</t>
+    <t xml:space="preserve">0.849320888519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845782577991486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822337567806244</t>
   </si>
   <si>
     <t xml:space="preserve">0.828531086444855</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">0.842686295509338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914789497852325</t>
+    <t xml:space="preserve">0.91478955745697</t>
   </si>
   <si>
     <t xml:space="preserve">0.905942738056183</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">0.908596992492676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885594010353088</t>
+    <t xml:space="preserve">0.885594069957733</t>
   </si>
   <si>
     <t xml:space="preserve">0.884266912937164</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">0.836492776870728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817472040653229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.812605619430542</t>
+    <t xml:space="preserve">0.817472100257874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.812605679035187</t>
   </si>
   <si>
     <t xml:space="preserve">0.821452438831329</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.83339649438858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83958899974823</t>
+    <t xml:space="preserve">0.839589059352875</t>
   </si>
   <si>
     <t xml:space="preserve">0.803758859634399</t>
@@ -2732,19 +2732,19 @@
     <t xml:space="preserve">0.754214584827423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724576950073242</t>
+    <t xml:space="preserve">0.724577009677887</t>
   </si>
   <si>
     <t xml:space="preserve">0.731654644012451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733866751194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72634619474411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.713961005210876</t>
+    <t xml:space="preserve">0.733866810798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726346135139465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.713961064815521</t>
   </si>
   <si>
     <t xml:space="preserve">0.705998361110687</t>
@@ -2762,16 +2762,16 @@
     <t xml:space="preserve">0.717941462993622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735635936260223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.738732218742371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.745367825031281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73961728811264</t>
+    <t xml:space="preserve">0.735635995864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.738732278347015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.745367765426636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.739617228507996</t>
   </si>
   <si>
     <t xml:space="preserve">0.76394647359848</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">0.89709597826004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909481167793274</t>
+    <t xml:space="preserve">0.909481108188629</t>
   </si>
   <si>
     <t xml:space="preserve">0.893556654453278</t>
@@ -2828,13 +2828,13 @@
     <t xml:space="preserve">0.90240353345871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905057728290558</t>
+    <t xml:space="preserve">0.905057668685913</t>
   </si>
   <si>
     <t xml:space="preserve">0.860822856426239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855514407157898</t>
+    <t xml:space="preserve">0.855514347553253</t>
   </si>
   <si>
     <t xml:space="preserve">0.861264944076538</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">0.877632260322571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882055640220642</t>
+    <t xml:space="preserve">0.882055699825287</t>
   </si>
   <si>
     <t xml:space="preserve">0.869227528572083</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">0.794027030467987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.752887427806854</t>
+    <t xml:space="preserve">0.752887487411499</t>
   </si>
   <si>
     <t xml:space="preserve">0.693170249462128</t>
@@ -2861,10 +2861,10 @@
     <t xml:space="preserve">0.671494364738464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683438360691071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699362754821777</t>
+    <t xml:space="preserve">0.683438420295715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699362814426422</t>
   </si>
   <si>
     <t xml:space="preserve">0.725019037723541</t>
@@ -2879,22 +2879,22 @@
     <t xml:space="preserve">0.830742239952087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83428156375885</t>
+    <t xml:space="preserve">0.834281504154205</t>
   </si>
   <si>
     <t xml:space="preserve">0.850647985935211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906827807426453</t>
+    <t xml:space="preserve">0.906827747821808</t>
   </si>
   <si>
     <t xml:space="preserve">0.895325839519501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928944766521454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953716933727264</t>
+    <t xml:space="preserve">0.928944826126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95371687412262</t>
   </si>
   <si>
     <t xml:space="preserve">0.942215919494629</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">0.939561665058136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943101048469543</t>
+    <t xml:space="preserve">0.943100988864899</t>
   </si>
   <si>
     <t xml:space="preserve">0.933369100093842</t>
@@ -2912,16 +2912,16 @@
     <t xml:space="preserve">0.95814037322998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94575423002243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955486178398132</t>
+    <t xml:space="preserve">0.945754170417786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955486118793488</t>
   </si>
   <si>
     <t xml:space="preserve">0.934253215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919212937355042</t>
+    <t xml:space="preserve">0.919212877750397</t>
   </si>
   <si>
     <t xml:space="preserve">0.890902459621429</t>
@@ -2930,16 +2930,16 @@
     <t xml:space="preserve">0.889133274555206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891787528991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890018284320831</t>
+    <t xml:space="preserve">0.891787469387054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890018343925476</t>
   </si>
   <si>
     <t xml:space="preserve">0.910366117954254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959025323390961</t>
+    <t xml:space="preserve">0.959025382995605</t>
   </si>
   <si>
     <t xml:space="preserve">0.899749279022217</t>
@@ -2951,10 +2951,10 @@
     <t xml:space="preserve">0.959910452365875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999722003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01033878326416</t>
+    <t xml:space="preserve">0.999721884727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01033890247345</t>
   </si>
   <si>
     <t xml:space="preserve">1.01387715339661</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">0.98999011516571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956371128559113</t>
+    <t xml:space="preserve">0.956371188163757</t>
   </si>
   <si>
     <t xml:space="preserve">0.926290512084961</t>
@@ -2981,13 +2981,13 @@
     <t xml:space="preserve">0.90328848361969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918328762054443</t>
+    <t xml:space="preserve">0.918328821659088</t>
   </si>
   <si>
     <t xml:space="preserve">0.930714905261993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960794627666473</t>
+    <t xml:space="preserve">0.960794568061829</t>
   </si>
   <si>
     <t xml:space="preserve">0.986451804637909</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">0.98468154668808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994413495063782</t>
+    <t xml:space="preserve">0.994413614273071</t>
   </si>
   <si>
     <t xml:space="preserve">0.992644309997559</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">1.00237619876862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990875244140625</t>
+    <t xml:space="preserve">0.990875124931335</t>
   </si>
   <si>
     <t xml:space="preserve">1.03334081172943</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">1.21470654010773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25982654094696</t>
+    <t xml:space="preserve">1.25982666015625</t>
   </si>
   <si>
     <t xml:space="preserve">1.24301695823669</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">1.22886180877686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22620749473572</t>
+    <t xml:space="preserve">1.22620761394501</t>
   </si>
   <si>
     <t xml:space="preserve">1.24124789237976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20585978031158</t>
+    <t xml:space="preserve">1.20585989952087</t>
   </si>
   <si>
     <t xml:space="preserve">1.17489421367645</t>
@@ -3059,16 +3059,16 @@
     <t xml:space="preserve">1.1766642332077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17224073410034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1775484085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19789707660675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18728017807007</t>
+    <t xml:space="preserve">1.17224085330963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17754852771759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19789719581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18728029727936</t>
   </si>
   <si>
     <t xml:space="preserve">1.23240125179291</t>
@@ -3080,16 +3080,16 @@
     <t xml:space="preserve">1.18108761310577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17312502861023</t>
+    <t xml:space="preserve">1.17312490940094</t>
   </si>
   <si>
     <t xml:space="preserve">1.45888674259186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45357823371887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52435541152954</t>
+    <t xml:space="preserve">1.45357835292816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52435553073883</t>
   </si>
   <si>
     <t xml:space="preserve">1.52170121669769</t>
@@ -3098,19 +3098,19 @@
     <t xml:space="preserve">1.52523946762085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48985147476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49515998363495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4801197052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52347052097321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5641667842865</t>
+    <t xml:space="preserve">1.48985159397125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49515986442566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48011982440948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52347040176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56416690349579</t>
   </si>
   <si>
     <t xml:space="preserve">1.54558825492859</t>
@@ -3119,10 +3119,10 @@
     <t xml:space="preserve">1.52612471580505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51816189289093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56859028339386</t>
+    <t xml:space="preserve">1.51816201210022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56859040260315</t>
   </si>
   <si>
     <t xml:space="preserve">1.49692916870117</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">1.51019930839539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68183314800262</t>
+    <t xml:space="preserve">1.68183326721191</t>
   </si>
   <si>
     <t xml:space="preserve">1.64202165603638</t>
@@ -3140,34 +3140,34 @@
     <t xml:space="preserve">1.72252988815308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70749044418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71633720397949</t>
+    <t xml:space="preserve">1.70749056339264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71633732318878</t>
   </si>
   <si>
     <t xml:space="preserve">1.71545207500458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72341477870941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70925951004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54293406009674</t>
+    <t xml:space="preserve">1.7234148979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70925962924957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54293417930603</t>
   </si>
   <si>
     <t xml:space="preserve">1.48100471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42261373996735</t>
+    <t xml:space="preserve">1.42261362075806</t>
   </si>
   <si>
     <t xml:space="preserve">1.43676888942719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43942308425903</t>
+    <t xml:space="preserve">1.43942320346832</t>
   </si>
   <si>
     <t xml:space="preserve">1.44561576843262</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">1.48572742938995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5195152759552</t>
+    <t xml:space="preserve">1.51951539516449</t>
   </si>
   <si>
     <t xml:space="preserve">1.4960515499115</t>
@@ -3185,28 +3185,28 @@
     <t xml:space="preserve">1.47634184360504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47446489334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41252040863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53359353542328</t>
+    <t xml:space="preserve">1.47446501255035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41252052783966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53359365463257</t>
   </si>
   <si>
     <t xml:space="preserve">1.57864415645599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773921012878</t>
+    <t xml:space="preserve">1.60773932933807</t>
   </si>
   <si>
     <t xml:space="preserve">1.6227560043335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67813050746918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61900186538696</t>
+    <t xml:space="preserve">1.67813062667847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61900198459625</t>
   </si>
   <si>
     <t xml:space="preserve">1.6405885219574</t>
@@ -3215,10 +3215,10 @@
     <t xml:space="preserve">1.63589584827423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62932598590851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65091252326965</t>
+    <t xml:space="preserve">1.62932586669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65091264247894</t>
   </si>
   <si>
     <t xml:space="preserve">1.66968369483948</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">1.66217529773712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282330036163</t>
+    <t xml:space="preserve">1.68282341957092</t>
   </si>
   <si>
     <t xml:space="preserve">1.69877874851227</t>
@@ -3263,13 +3263,13 @@
     <t xml:space="preserve">1.58615267276764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61524748802185</t>
+    <t xml:space="preserve">1.61524760723114</t>
   </si>
   <si>
     <t xml:space="preserve">1.59647655487061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58990669250488</t>
+    <t xml:space="preserve">1.58990681171417</t>
   </si>
   <si>
     <t xml:space="preserve">1.63120305538177</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">1.76166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65654397010803</t>
+    <t xml:space="preserve">1.65654385089874</t>
   </si>
   <si>
     <t xml:space="preserve">1.60680067539215</t>
@@ -3299,19 +3299,19 @@
     <t xml:space="preserve">1.5523647069931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50825262069702</t>
+    <t xml:space="preserve">1.50825273990631</t>
   </si>
   <si>
     <t xml:space="preserve">1.53265511989594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55330324172974</t>
+    <t xml:space="preserve">1.55330312252045</t>
   </si>
   <si>
     <t xml:space="preserve">1.71379554271698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93717086315155</t>
+    <t xml:space="preserve">1.93717074394226</t>
   </si>
   <si>
     <t xml:space="preserve">1.95594191551208</t>
@@ -3338,19 +3338,19 @@
     <t xml:space="preserve">2.07607650756836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0009925365448</t>
+    <t xml:space="preserve">2.00099229812622</t>
   </si>
   <si>
     <t xml:space="preserve">2.07795381546021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06105995178223</t>
+    <t xml:space="preserve">2.06105971336365</t>
   </si>
   <si>
     <t xml:space="preserve">2.13802123069763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2337532043457</t>
+    <t xml:space="preserve">2.23375344276428</t>
   </si>
   <si>
     <t xml:space="preserve">2.1980881690979</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">2.26378703117371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25252461433411</t>
+    <t xml:space="preserve">2.25252437591553</t>
   </si>
   <si>
     <t xml:space="preserve">2.306960105896</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">2.24876999855042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27317214012146</t>
+    <t xml:space="preserve">2.27317237854004</t>
   </si>
   <si>
     <t xml:space="preserve">2.32760858535767</t>
@@ -3398,7 +3398,7 @@
     <t xml:space="preserve">2.42146348953247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45712852478027</t>
+    <t xml:space="preserve">2.45712876319885</t>
   </si>
   <si>
     <t xml:space="preserve">2.48716235160828</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">2.59040307998657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52470445632935</t>
+    <t xml:space="preserve">2.52470469474792</t>
   </si>
   <si>
     <t xml:space="preserve">2.60917377471924</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">2.65797853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57538604736328</t>
+    <t xml:space="preserve">2.57538628578186</t>
   </si>
   <si>
     <t xml:space="preserve">2.61668252944946</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">2.53784394264221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47777700424194</t>
+    <t xml:space="preserve">2.47777676582336</t>
   </si>
   <si>
     <t xml:space="preserve">2.51907300949097</t>
@@ -3446,19 +3446,19 @@
     <t xml:space="preserve">2.34074831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53033566474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6260678768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63920760154724</t>
+    <t xml:space="preserve">2.53033590316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62606811523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63920783996582</t>
   </si>
   <si>
     <t xml:space="preserve">2.71241474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81377816200256</t>
+    <t xml:space="preserve">2.81377840042114</t>
   </si>
   <si>
     <t xml:space="preserve">2.79688429832458</t>
@@ -3488,7 +3488,7 @@
     <t xml:space="preserve">2.41770935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41020083427429</t>
+    <t xml:space="preserve">2.41020107269287</t>
   </si>
   <si>
     <t xml:space="preserve">2.39330697059631</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">2.28818941116333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30320620536804</t>
+    <t xml:space="preserve">2.30320596694946</t>
   </si>
   <si>
     <t xml:space="preserve">2.26566410064697</t>
@@ -3536,10 +3536,10 @@
     <t xml:space="preserve">2.29757452011108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3257315158844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26191020011902</t>
+    <t xml:space="preserve">2.32573127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26190996170044</t>
   </si>
   <si>
     <t xml:space="preserve">2.53408980369568</t>
@@ -3548,7 +3548,7 @@
     <t xml:space="preserve">2.53596687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18870306015015</t>
+    <t xml:space="preserve">2.18870282173157</t>
   </si>
   <si>
     <t xml:space="preserve">2.11174154281616</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">2.24501585960388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21873641014099</t>
+    <t xml:space="preserve">2.21873664855957</t>
   </si>
   <si>
     <t xml:space="preserve">2.13238978385925</t>
@@ -3569,10 +3569,10 @@
     <t xml:space="preserve">2.20371961593628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10986423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15491485595703</t>
+    <t xml:space="preserve">2.1098644733429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15491509437561</t>
   </si>
   <si>
     <t xml:space="preserve">2.14928364753723</t>
@@ -3584,28 +3584,28 @@
     <t xml:space="preserve">2.13426661491394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12300419807434</t>
+    <t xml:space="preserve">2.12300395965576</t>
   </si>
   <si>
     <t xml:space="preserve">1.97846722602844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01413226127625</t>
+    <t xml:space="preserve">2.01413202285767</t>
   </si>
   <si>
     <t xml:space="preserve">1.91276872158051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74289071559906</t>
+    <t xml:space="preserve">1.74289083480835</t>
   </si>
   <si>
     <t xml:space="preserve">1.6556054353714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66123676300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77949440479279</t>
+    <t xml:space="preserve">1.6612366437912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7794942855835</t>
   </si>
   <si>
     <t xml:space="preserve">1.6734379529953</t>
@@ -3617,22 +3617,22 @@
     <t xml:space="preserve">1.75790750980377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89212048053741</t>
+    <t xml:space="preserve">1.8921205997467</t>
   </si>
   <si>
     <t xml:space="preserve">1.85927104949951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83956158161163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83674597740173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80765080451965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74852216243744</t>
+    <t xml:space="preserve">1.83956146240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83674585819244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80765068531036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74852204322815</t>
   </si>
   <si>
     <t xml:space="preserve">1.76447737216949</t>
@@ -3647,19 +3647,19 @@
     <t xml:space="preserve">1.9747132062912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94280219078064</t>
+    <t xml:space="preserve">1.94280230998993</t>
   </si>
   <si>
     <t xml:space="preserve">1.84894716739655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89024317264557</t>
+    <t xml:space="preserve">1.89024329185486</t>
   </si>
   <si>
     <t xml:space="preserve">1.86677944660187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83111453056335</t>
+    <t xml:space="preserve">1.83111464977264</t>
   </si>
   <si>
     <t xml:space="preserve">1.76917016506195</t>
@@ -3671,10 +3671,10 @@
     <t xml:space="preserve">1.69596314430237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71567261219025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81140506267548</t>
+    <t xml:space="preserve">1.71567249298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81140494346619</t>
   </si>
   <si>
     <t xml:space="preserve">1.80108094215393</t>
@@ -3692,10 +3692,10 @@
     <t xml:space="preserve">1.72693526744843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70441019535065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71661138534546</t>
+    <t xml:space="preserve">1.70441007614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71661126613617</t>
   </si>
   <si>
     <t xml:space="preserve">1.64246571063995</t>
@@ -3704,13 +3704,13 @@
     <t xml:space="preserve">1.5495491027832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56644296646118</t>
+    <t xml:space="preserve">1.56644284725189</t>
   </si>
   <si>
     <t xml:space="preserve">1.63308012485504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70347142219543</t>
+    <t xml:space="preserve">1.70347154140472</t>
   </si>
   <si>
     <t xml:space="preserve">1.68376195430756</t>
@@ -3719,13 +3719,13 @@
     <t xml:space="preserve">1.74195218086243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7025328874588</t>
+    <t xml:space="preserve">1.70253300666809</t>
   </si>
   <si>
     <t xml:space="preserve">1.69502449035645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61618626117706</t>
+    <t xml:space="preserve">1.61618614196777</t>
   </si>
   <si>
     <t xml:space="preserve">1.61149346828461</t>
@@ -3734,25 +3734,25 @@
     <t xml:space="preserve">1.72787380218506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74476778507233</t>
+    <t xml:space="preserve">1.74476766586304</t>
   </si>
   <si>
     <t xml:space="preserve">1.82454478740692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7907567024231</t>
+    <t xml:space="preserve">1.79075682163239</t>
   </si>
   <si>
     <t xml:space="preserve">1.8179749250412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88648903369904</t>
+    <t xml:space="preserve">1.88648915290833</t>
   </si>
   <si>
     <t xml:space="preserve">1.95406484603882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91464555263519</t>
+    <t xml:space="preserve">1.91464567184448</t>
   </si>
   <si>
     <t xml:space="preserve">1.90526008605957</t>
@@ -3761,10 +3761,10 @@
     <t xml:space="preserve">1.90150594711304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75603055953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54204070568085</t>
+    <t xml:space="preserve">1.75603044033051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54204058647156</t>
   </si>
   <si>
     <t xml:space="preserve">1.50262141227722</t>
@@ -5034,6 +5034,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.63000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65400004386902</t>
   </si>
 </sst>
 </file>
@@ -61301,7 +61304,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6493865741</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>1810627</v>
@@ -61322,6 +61325,32 @@
         <v>1673</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6495138889</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>953536</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>2.70000004768372</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>2.6340000629425</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>2.6340000629425</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>2.65400004386902</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="1675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1676">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,43 +47,43 @@
     <t xml:space="preserve">5.18833541870117</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04538249969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91924810409546</t>
+    <t xml:space="preserve">5.04538297653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9192476272583</t>
   </si>
   <si>
     <t xml:space="preserve">4.99913263320923</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93186092376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07060956954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23458433151245</t>
+    <t xml:space="preserve">4.93186140060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07061004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23458385467529</t>
   </si>
   <si>
     <t xml:space="preserve">4.96970224380493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8772029876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91084003448486</t>
+    <t xml:space="preserve">4.87720251083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91083955764771</t>
   </si>
   <si>
     <t xml:space="preserve">4.889817237854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50300359725952</t>
+    <t xml:space="preserve">4.50300312042236</t>
   </si>
   <si>
     <t xml:space="preserve">4.47777700424194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80152273178101</t>
+    <t xml:space="preserve">4.80152225494385</t>
   </si>
   <si>
     <t xml:space="preserve">4.72163724899292</t>
@@ -92,16 +92,16 @@
     <t xml:space="preserve">4.74265956878662</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76368236541748</t>
+    <t xml:space="preserve">4.76368188858032</t>
   </si>
   <si>
     <t xml:space="preserve">4.78049993515015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70902442932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90243005752563</t>
+    <t xml:space="preserve">4.70902490615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90242958068848</t>
   </si>
   <si>
     <t xml:space="preserve">4.86459016799927</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">4.55766296386719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73425054550171</t>
+    <t xml:space="preserve">4.73425102233887</t>
   </si>
   <si>
     <t xml:space="preserve">4.73004627227783</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">4.83515882492065</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94867992401123</t>
+    <t xml:space="preserve">4.94867944717407</t>
   </si>
   <si>
     <t xml:space="preserve">4.99492883682251</t>
@@ -167,19 +167,19 @@
     <t xml:space="preserve">4.86038589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77209091186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79311370849609</t>
+    <t xml:space="preserve">4.77209138870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79311323165894</t>
   </si>
   <si>
     <t xml:space="preserve">4.64595651626587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69220638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66277456283569</t>
+    <t xml:space="preserve">4.69220590591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66277503967285</t>
   </si>
   <si>
     <t xml:space="preserve">4.54504871368408</t>
@@ -191,31 +191,31 @@
     <t xml:space="preserve">4.33902931213379</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30539321899414</t>
+    <t xml:space="preserve">4.30539274215698</t>
   </si>
   <si>
     <t xml:space="preserve">4.33061981201172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40209531784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46095991134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28857469558716</t>
+    <t xml:space="preserve">4.40209579467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46095943450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28857517242432</t>
   </si>
   <si>
     <t xml:space="preserve">4.2591438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56607151031494</t>
+    <t xml:space="preserve">4.56607103347778</t>
   </si>
   <si>
     <t xml:space="preserve">4.41050481796265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48618602752686</t>
+    <t xml:space="preserve">4.48618650436401</t>
   </si>
   <si>
     <t xml:space="preserve">4.77629518508911</t>
@@ -224,10 +224,10 @@
     <t xml:space="preserve">5.01595163345337</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81834030151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76788711547852</t>
+    <t xml:space="preserve">4.81834077835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76788663864136</t>
   </si>
   <si>
     <t xml:space="preserve">4.83095359802246</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">4.74686431884766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78890991210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82254457473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80993175506592</t>
+    <t xml:space="preserve">4.78890943527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82254505157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80993223190308</t>
   </si>
   <si>
     <t xml:space="preserve">4.83936262130737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80572700500488</t>
+    <t xml:space="preserve">4.80572652816772</t>
   </si>
   <si>
     <t xml:space="preserve">4.92345237731934</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">5.1799259185791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10004091262817</t>
+    <t xml:space="preserve">5.10004043579102</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731309890747</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">5.20094871520996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04117822647095</t>
+    <t xml:space="preserve">5.04117870330811</t>
   </si>
   <si>
     <t xml:space="preserve">5.0184965133667</t>
@@ -5037,6 +5037,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.65400004386902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75600004196167</t>
   </si>
 </sst>
 </file>
@@ -61330,7 +61333,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6495138889</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>953536</v>
@@ -61351,6 +61354,32 @@
         <v>1674</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6493865741</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>1047360</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>2.75600004196167</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>2.68199992179871</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>2.68199992179871</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>2.75600004196167</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1675</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -44,22 +44,22 @@
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18833541870117</t>
+    <t xml:space="preserve">5.18833589553833</t>
   </si>
   <si>
     <t xml:space="preserve">5.04538297653198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9192476272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99913263320923</t>
+    <t xml:space="preserve">4.91924810409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99913311004639</t>
   </si>
   <si>
     <t xml:space="preserve">4.93186140060425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07061004638672</t>
+    <t xml:space="preserve">5.07060956954956</t>
   </si>
   <si>
     <t xml:space="preserve">5.23458385467529</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.91083955764771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.889817237854</t>
+    <t xml:space="preserve">4.88981676101685</t>
   </si>
   <si>
     <t xml:space="preserve">4.50300312042236</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">4.47777700424194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80152225494385</t>
+    <t xml:space="preserve">4.80152177810669</t>
   </si>
   <si>
     <t xml:space="preserve">4.72163724899292</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">4.78049993515015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70902490615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90242958068848</t>
+    <t xml:space="preserve">4.70902442932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90243005752563</t>
   </si>
   <si>
     <t xml:space="preserve">4.86459016799927</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">4.78470516204834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81413555145264</t>
+    <t xml:space="preserve">4.81413602828979</t>
   </si>
   <si>
     <t xml:space="preserve">4.58288955688477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27175712585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26755237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53243589401245</t>
+    <t xml:space="preserve">4.27175664901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26755285263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53243541717529</t>
   </si>
   <si>
     <t xml:space="preserve">4.47357225418091</t>
@@ -137,25 +137,25 @@
     <t xml:space="preserve">4.73425102233887</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73004627227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75106811523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75527238845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52402639389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49038982391357</t>
+    <t xml:space="preserve">4.73004579544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75106859207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75527286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52402591705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49039030075073</t>
   </si>
   <si>
     <t xml:space="preserve">4.70061492919922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83515882492065</t>
+    <t xml:space="preserve">4.83515930175781</t>
   </si>
   <si>
     <t xml:space="preserve">4.94867944717407</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">4.86038589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77209138870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79311323165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64595651626587</t>
+    <t xml:space="preserve">4.77209091186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79311370849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64595603942871</t>
   </si>
   <si>
     <t xml:space="preserve">4.69220590591431</t>
@@ -182,37 +182,37 @@
     <t xml:space="preserve">4.66277503967285</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54504871368408</t>
+    <t xml:space="preserve">4.54504919052124</t>
   </si>
   <si>
     <t xml:space="preserve">4.36425638198853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33902931213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30539274215698</t>
+    <t xml:space="preserve">4.33902883529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3053936958313</t>
   </si>
   <si>
     <t xml:space="preserve">4.33061981201172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40209579467773</t>
+    <t xml:space="preserve">4.40209627151489</t>
   </si>
   <si>
     <t xml:space="preserve">4.46095943450928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28857517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2591438293457</t>
+    <t xml:space="preserve">4.28857564926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25914430618286</t>
   </si>
   <si>
     <t xml:space="preserve">4.56607103347778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41050481796265</t>
+    <t xml:space="preserve">4.41050577163696</t>
   </si>
   <si>
     <t xml:space="preserve">4.48618650436401</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">4.82254505157471</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80993223190308</t>
+    <t xml:space="preserve">4.80993175506592</t>
   </si>
   <si>
     <t xml:space="preserve">4.83936262130737</t>
@@ -251,34 +251,34 @@
     <t xml:space="preserve">4.80572652816772</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92345237731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98231506347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12947273254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1799259185791</t>
+    <t xml:space="preserve">4.92345285415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98231554031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12947225570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17992639541626</t>
   </si>
   <si>
     <t xml:space="preserve">5.10004043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16731309890747</t>
+    <t xml:space="preserve">5.16731262207031</t>
   </si>
   <si>
     <t xml:space="preserve">5.20094871520996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04117870330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0184965133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04870176315308</t>
+    <t xml:space="preserve">5.04117774963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01849603652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04870223999023</t>
   </si>
   <si>
     <t xml:space="preserve">5.19110107421875</t>
@@ -287,28 +287,28 @@
     <t xml:space="preserve">5.01418113708496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83726072311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7854790687561</t>
+    <t xml:space="preserve">4.83726119995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78547954559326</t>
   </si>
   <si>
     <t xml:space="preserve">4.73801279067993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74232769012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75527334213257</t>
+    <t xml:space="preserve">4.74232721328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75527381896973</t>
   </si>
   <si>
     <t xml:space="preserve">4.9063024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88472700119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81999969482422</t>
+    <t xml:space="preserve">4.88472747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82000017166138</t>
   </si>
   <si>
     <t xml:space="preserve">4.78116416931152</t>
@@ -320,22 +320,22 @@
     <t xml:space="preserve">4.18049764633179</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3798565864563</t>
+    <t xml:space="preserve">4.37985706329346</t>
   </si>
   <si>
     <t xml:space="preserve">4.49636602401733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51794004440308</t>
+    <t xml:space="preserve">4.51794052124023</t>
   </si>
   <si>
     <t xml:space="preserve">4.5567774772644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50931024551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35396528244019</t>
+    <t xml:space="preserve">4.50931072235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35396575927734</t>
   </si>
   <si>
     <t xml:space="preserve">4.33239030838013</t>
@@ -359,25 +359,25 @@
     <t xml:space="preserve">4.34965133666992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28233575820923</t>
+    <t xml:space="preserve">4.28233528137207</t>
   </si>
   <si>
     <t xml:space="preserve">4.3625955581665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41437768936157</t>
+    <t xml:space="preserve">4.41437721252441</t>
   </si>
   <si>
     <t xml:space="preserve">4.51362562179565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44889879226685</t>
+    <t xml:space="preserve">4.448899269104</t>
   </si>
   <si>
     <t xml:space="preserve">4.45752954483032</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48341941833496</t>
+    <t xml:space="preserve">4.48341989517212</t>
   </si>
   <si>
     <t xml:space="preserve">4.63013458251953</t>
@@ -386,34 +386,34 @@
     <t xml:space="preserve">4.62581968307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53951692581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53088617324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49204969406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50499582290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55246257781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47910499572754</t>
+    <t xml:space="preserve">4.53951644897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53088665008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49205017089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50499629974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55246210098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47910451889038</t>
   </si>
   <si>
     <t xml:space="preserve">4.31340360641479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41869306564331</t>
+    <t xml:space="preserve">4.41869354248047</t>
   </si>
   <si>
     <t xml:space="preserve">4.44026756286621</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34533596038818</t>
+    <t xml:space="preserve">4.34533643722534</t>
   </si>
   <si>
     <t xml:space="preserve">4.28060817718506</t>
@@ -434,16 +434,16 @@
     <t xml:space="preserve">4.27197885513306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44458341598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39711761474609</t>
+    <t xml:space="preserve">4.44458389282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39711713790894</t>
   </si>
   <si>
     <t xml:space="preserve">4.32807493209839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30132150650024</t>
+    <t xml:space="preserve">4.3013219833374</t>
   </si>
   <si>
     <t xml:space="preserve">4.61718893051147</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">4.70349168777466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67328500747681</t>
+    <t xml:space="preserve">4.67328548431396</t>
   </si>
   <si>
     <t xml:space="preserve">4.57403802871704</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">4.42732334136963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38848733901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35828018188477</t>
+    <t xml:space="preserve">4.38848686218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35828065872192</t>
   </si>
   <si>
     <t xml:space="preserve">4.31513023376465</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30995178222656</t>
+    <t xml:space="preserve">4.30995225906372</t>
   </si>
   <si>
     <t xml:space="preserve">4.32376003265381</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">4.29441690444946</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37554216384888</t>
+    <t xml:space="preserve">4.37554168701172</t>
   </si>
   <si>
     <t xml:space="preserve">4.2857871055603</t>
@@ -521,19 +521,19 @@
     <t xml:space="preserve">4.26334857940674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20984029769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26162195205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29959535598755</t>
+    <t xml:space="preserve">4.20983982086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26162147521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29959487915039</t>
   </si>
   <si>
     <t xml:space="preserve">4.28751230239868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29096508026123</t>
+    <t xml:space="preserve">4.29096460342407</t>
   </si>
   <si>
     <t xml:space="preserve">4.21501874923706</t>
@@ -542,13 +542,13 @@
     <t xml:space="preserve">4.26852607727051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25817012786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23573160171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31944465637207</t>
+    <t xml:space="preserve">4.25817060470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23573112487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31944513320923</t>
   </si>
   <si>
     <t xml:space="preserve">4.39280271530151</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">4.47479009628296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2547173500061</t>
+    <t xml:space="preserve">4.25471782684326</t>
   </si>
   <si>
     <t xml:space="preserve">4.25989580154419</t>
@@ -575,10 +575,10 @@
     <t xml:space="preserve">4.14425039291382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12526369094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10455083847046</t>
+    <t xml:space="preserve">4.12526321411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10455131530762</t>
   </si>
   <si>
     <t xml:space="preserve">4.17359399795532</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">4.16668939590454</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12699031829834</t>
+    <t xml:space="preserve">4.12698984146118</t>
   </si>
   <si>
     <t xml:space="preserve">4.18912792205811</t>
@@ -605,13 +605,13 @@
     <t xml:space="preserve">4.65171051025391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61287355422974</t>
+    <t xml:space="preserve">4.61287403106689</t>
   </si>
   <si>
     <t xml:space="preserve">4.54383182525635</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53520107269287</t>
+    <t xml:space="preserve">4.53520154953003</t>
   </si>
   <si>
     <t xml:space="preserve">4.58266830444336</t>
@@ -620,52 +620,52 @@
     <t xml:space="preserve">4.54814720153809</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5956130027771</t>
+    <t xml:space="preserve">4.59561347961426</t>
   </si>
   <si>
     <t xml:space="preserve">4.59129762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59992837905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72938299179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74664258956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66897010803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80705547332764</t>
+    <t xml:space="preserve">4.599928855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72938251495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74664306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66897058486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80705499649048</t>
   </si>
   <si>
     <t xml:space="preserve">4.82431507110596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79410886764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77253341674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69486093521118</t>
+    <t xml:space="preserve">4.79410934448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77253389358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69486141204834</t>
   </si>
   <si>
     <t xml:space="preserve">4.86746644973755</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96239995956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94945383071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87609624862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97966003417969</t>
+    <t xml:space="preserve">4.96240043640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94945430755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87609672546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97965955734253</t>
   </si>
   <si>
     <t xml:space="preserve">5.14363527297974</t>
@@ -674,31 +674,31 @@
     <t xml:space="preserve">5.1091136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05733156204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08322334289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02281093597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06596231460571</t>
+    <t xml:space="preserve">5.05733203887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08322286605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02281141281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06596326828003</t>
   </si>
   <si>
     <t xml:space="preserve">5.00555038452148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06164693832397</t>
+    <t xml:space="preserve">5.06164741516113</t>
   </si>
   <si>
     <t xml:space="preserve">5.09185361862183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1522650718689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34644603729248</t>
+    <t xml:space="preserve">5.15226554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34644556045532</t>
   </si>
   <si>
     <t xml:space="preserve">5.31192541122437</t>
@@ -737,19 +737,19 @@
     <t xml:space="preserve">5.54925727844238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50610542297363</t>
+    <t xml:space="preserve">5.50610589981079</t>
   </si>
   <si>
     <t xml:space="preserve">5.45000886917114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50179004669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35507678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36370658874512</t>
+    <t xml:space="preserve">5.50179100036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35507726669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36370706558228</t>
   </si>
   <si>
     <t xml:space="preserve">5.43706369400024</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">5.56220245361328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48884534835815</t>
+    <t xml:space="preserve">5.48884582519531</t>
   </si>
   <si>
     <t xml:space="preserve">5.48453044891357</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">5.56651782989502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58377742767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48021411895752</t>
+    <t xml:space="preserve">5.5837779045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48021459579468</t>
   </si>
   <si>
     <t xml:space="preserve">5.47158479690552</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">5.49316024780273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40685796737671</t>
+    <t xml:space="preserve">5.40685844421387</t>
   </si>
   <si>
     <t xml:space="preserve">5.37233638763428</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23856782913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36802101135254</t>
+    <t xml:space="preserve">5.23856830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3680214881897</t>
   </si>
   <si>
     <t xml:space="preserve">5.28171920776367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33480167388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67983818054199</t>
+    <t xml:space="preserve">5.33480215072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67983865737915</t>
   </si>
   <si>
     <t xml:space="preserve">5.71080303192139</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">5.65329742431641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58252048492432</t>
+    <t xml:space="preserve">5.58252000808716</t>
   </si>
   <si>
     <t xml:space="preserve">5.58694362640381</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">5.51174402236938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53828525543213</t>
+    <t xml:space="preserve">5.53828573226929</t>
   </si>
   <si>
     <t xml:space="preserve">5.56482553482056</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">5.57367372512817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48962593078613</t>
+    <t xml:space="preserve">5.48962640762329</t>
   </si>
   <si>
     <t xml:space="preserve">5.52059078216553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48520278930664</t>
+    <t xml:space="preserve">5.48520231246948</t>
   </si>
   <si>
     <t xml:space="preserve">5.56040239334106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55597925186157</t>
+    <t xml:space="preserve">5.55597877502441</t>
   </si>
   <si>
     <t xml:space="preserve">5.59579133987427</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">5.62233257293701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56925058364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51616716384888</t>
+    <t xml:space="preserve">5.56925010681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51616764068604</t>
   </si>
   <si>
     <t xml:space="preserve">5.44096708297729</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">5.54713153839111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64002561569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6179084777832</t>
+    <t xml:space="preserve">5.6400260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61790800094604</t>
   </si>
   <si>
     <t xml:space="preserve">5.60906171798706</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">5.64445018768311</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81254482269287</t>
+    <t xml:space="preserve">5.81254529953003</t>
   </si>
   <si>
     <t xml:space="preserve">5.86562776565552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92755699157715</t>
+    <t xml:space="preserve">5.92755651473999</t>
   </si>
   <si>
     <t xml:space="preserve">5.95852184295654</t>
@@ -941,16 +941,16 @@
     <t xml:space="preserve">6.02487564086914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94525194168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9054388999939</t>
+    <t xml:space="preserve">5.94525146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90543937683105</t>
   </si>
   <si>
     <t xml:space="preserve">5.76388597488403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95409870147705</t>
+    <t xml:space="preserve">5.95409917831421</t>
   </si>
   <si>
     <t xml:space="preserve">6.01602792739868</t>
@@ -962,34 +962,34 @@
     <t xml:space="preserve">5.68868541717529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71522617340088</t>
+    <t xml:space="preserve">5.71522665023804</t>
   </si>
   <si>
     <t xml:space="preserve">5.70638036727905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55155515670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60463809967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50289583206177</t>
+    <t xml:space="preserve">5.55155563354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60463762283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50289630889893</t>
   </si>
   <si>
     <t xml:space="preserve">5.38346099853516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17555332183838</t>
+    <t xml:space="preserve">5.17555379867554</t>
   </si>
   <si>
     <t xml:space="preserve">5.19767189025879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10477685928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.087082862854</t>
+    <t xml:space="preserve">5.10477638244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08708333969116</t>
   </si>
   <si>
     <t xml:space="preserve">5.13131809234619</t>
@@ -1001,40 +1001,40 @@
     <t xml:space="preserve">5.23748302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19324827194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15343618392944</t>
+    <t xml:space="preserve">5.1932487487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15343570709229</t>
   </si>
   <si>
     <t xml:space="preserve">5.16670703887939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14016580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09592962265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25075435638428</t>
+    <t xml:space="preserve">5.14016532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0959300994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25075483322144</t>
   </si>
   <si>
     <t xml:space="preserve">5.21978950500488</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06054162979126</t>
+    <t xml:space="preserve">5.06054210662842</t>
   </si>
   <si>
     <t xml:space="preserve">5.14901256561279</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11804819107056</t>
+    <t xml:space="preserve">5.1180477142334</t>
   </si>
   <si>
     <t xml:space="preserve">5.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93668222427368</t>
+    <t xml:space="preserve">4.93668174743652</t>
   </si>
   <si>
     <t xml:space="preserve">4.97649335861206</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">4.94552898406982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91014051437378</t>
+    <t xml:space="preserve">4.91014099121094</t>
   </si>
   <si>
     <t xml:space="preserve">4.98091793060303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94995260238647</t>
+    <t xml:space="preserve">4.94995212554932</t>
   </si>
   <si>
     <t xml:space="preserve">4.91456413269043</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">4.99861145019531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07381200790405</t>
+    <t xml:space="preserve">5.07381248474121</t>
   </si>
   <si>
     <t xml:space="preserve">5.02957630157471</t>
@@ -1079,19 +1079,19 @@
     <t xml:space="preserve">5.21536540985107</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18440008163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1268949508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46750831604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29498910903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31710720062256</t>
+    <t xml:space="preserve">5.18440055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12689447402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46750783920288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29498863220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3171067237854</t>
   </si>
   <si>
     <t xml:space="preserve">5.47635507583618</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">5.0693883895874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96322345733643</t>
+    <t xml:space="preserve">4.96322298049927</t>
   </si>
   <si>
     <t xml:space="preserve">4.87917613983154</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">4.88802289962769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90571737289429</t>
+    <t xml:space="preserve">4.90571784973145</t>
   </si>
   <si>
     <t xml:space="preserve">4.98534107208252</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">4.85705804824829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82166957855225</t>
+    <t xml:space="preserve">4.8216700553894</t>
   </si>
   <si>
     <t xml:space="preserve">4.80839872360229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84821176528931</t>
+    <t xml:space="preserve">4.84821128845215</t>
   </si>
   <si>
     <t xml:space="preserve">4.75531625747681</t>
@@ -1148,19 +1148,19 @@
     <t xml:space="preserve">4.70665693283081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75973987579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73762178421021</t>
+    <t xml:space="preserve">4.7597393989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73762226104736</t>
   </si>
   <si>
     <t xml:space="preserve">4.7862811088562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83936357498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86148166656494</t>
+    <t xml:space="preserve">4.83936309814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86148118972778</t>
   </si>
   <si>
     <t xml:space="preserve">4.93225860595703</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">4.92341089248657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87032842636108</t>
+    <t xml:space="preserve">4.87032890319824</t>
   </si>
   <si>
     <t xml:space="preserve">4.83051681518555</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">4.61818647384644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64472723007202</t>
+    <t xml:space="preserve">4.64472770690918</t>
   </si>
   <si>
     <t xml:space="preserve">4.43682050704956</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40762519836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39700937271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40231657028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44124364852905</t>
+    <t xml:space="preserve">4.4076247215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39700889587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40231704711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44124412536621</t>
   </si>
   <si>
     <t xml:space="preserve">4.34038734436035</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">4.42355060577393</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38816165924072</t>
+    <t xml:space="preserve">4.38816118240356</t>
   </si>
   <si>
     <t xml:space="preserve">4.41470289230347</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">2.99739742279053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07879066467285</t>
+    <t xml:space="preserve">3.07879090309143</t>
   </si>
   <si>
     <t xml:space="preserve">3.01155281066895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04163312911987</t>
+    <t xml:space="preserve">3.04163336753845</t>
   </si>
   <si>
     <t xml:space="preserve">3.06463527679443</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">3.26281070709229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35835909843445</t>
+    <t xml:space="preserve">3.35835886001587</t>
   </si>
   <si>
     <t xml:space="preserve">3.33535671234131</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">3.34420347213745</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33004832267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36720657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36189794540405</t>
+    <t xml:space="preserve">3.33004808425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36720633506775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36189818382263</t>
   </si>
   <si>
     <t xml:space="preserve">3.28758263587952</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">3.11948704719543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13187313079834</t>
+    <t xml:space="preserve">3.13187336921692</t>
   </si>
   <si>
     <t xml:space="preserve">3.06994390487671</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">3.00801348686218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99208927154541</t>
+    <t xml:space="preserve">2.99208903312683</t>
   </si>
   <si>
     <t xml:space="preserve">3.01863026618958</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">2.65943813323975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74260139465332</t>
+    <t xml:space="preserve">2.74260115623474</t>
   </si>
   <si>
     <t xml:space="preserve">2.64882135391235</t>
@@ -1322,10 +1322,10 @@
     <t xml:space="preserve">2.66474652290344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65412974357605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62581944465637</t>
+    <t xml:space="preserve">2.65412950515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62581920623779</t>
   </si>
   <si>
     <t xml:space="preserve">2.56211972236633</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">2.53734827041626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5001904964447</t>
+    <t xml:space="preserve">2.50019025802612</t>
   </si>
   <si>
     <t xml:space="preserve">2.50726795196533</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">2.45064687728882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39579439163208</t>
+    <t xml:space="preserve">2.3957941532135</t>
   </si>
   <si>
     <t xml:space="preserve">2.40641117095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55681252479553</t>
+    <t xml:space="preserve">2.55681228637695</t>
   </si>
   <si>
     <t xml:space="preserve">2.52142310142517</t>
@@ -1373,16 +1373,16 @@
     <t xml:space="preserve">2.46126294136047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47364902496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49311256408691</t>
+    <t xml:space="preserve">2.47364926338196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49311280250549</t>
   </si>
   <si>
     <t xml:space="preserve">2.50549864768982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48957347869873</t>
+    <t xml:space="preserve">2.48957324028015</t>
   </si>
   <si>
     <t xml:space="preserve">2.4913432598114</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">2.35155940055847</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41525816917419</t>
+    <t xml:space="preserve">2.41525793075562</t>
   </si>
   <si>
     <t xml:space="preserve">2.35686683654785</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.59396934509277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56742811203003</t>
+    <t xml:space="preserve">2.56742835044861</t>
   </si>
   <si>
     <t xml:space="preserve">2.45595479011536</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">2.3409423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34271192550659</t>
+    <t xml:space="preserve">2.34271168708801</t>
   </si>
   <si>
     <t xml:space="preserve">2.17638611793518</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">2.1586925983429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27901315689087</t>
+    <t xml:space="preserve">2.27901291847229</t>
   </si>
   <si>
     <t xml:space="preserve">2.30024600028992</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">2.29493761062622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29670643806458</t>
+    <t xml:space="preserve">2.29670667648315</t>
   </si>
   <si>
     <t xml:space="preserve">2.28255152702332</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">2.28432035446167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24008560180664</t>
+    <t xml:space="preserve">2.24008584022522</t>
   </si>
   <si>
     <t xml:space="preserve">2.19938921928406</t>
@@ -1490,25 +1490,25 @@
     <t xml:space="preserve">2.2135443687439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22239136695862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28785991668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22062182426453</t>
+    <t xml:space="preserve">2.22239112854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28785967826843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22062206268311</t>
   </si>
   <si>
     <t xml:space="preserve">2.21531343460083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14453625679016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14630651473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2507016658783</t>
+    <t xml:space="preserve">2.14453649520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14630675315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25070142745972</t>
   </si>
   <si>
     <t xml:space="preserve">2.36925292015076</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">2.06137442588806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98705852031708</t>
+    <t xml:space="preserve">1.98705875873566</t>
   </si>
   <si>
     <t xml:space="preserve">1.86142981052399</t>
@@ -1547,25 +1547,25 @@
     <t xml:space="preserve">1.7959611415863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75172531604767</t>
+    <t xml:space="preserve">1.75172519683838</t>
   </si>
   <si>
     <t xml:space="preserve">1.72518408298492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72606909275055</t>
+    <t xml:space="preserve">1.72606897354126</t>
   </si>
   <si>
     <t xml:space="preserve">1.59336256980896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57389879226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47923445701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39518737792969</t>
+    <t xml:space="preserve">1.57389891147614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47923457622528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3951872587204</t>
   </si>
   <si>
     <t xml:space="preserve">1.36156833171844</t>
@@ -1577,10 +1577,10 @@
     <t xml:space="preserve">1.32352602481842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31821751594543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36599171161652</t>
+    <t xml:space="preserve">1.31821763515472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36599183082581</t>
   </si>
   <si>
     <t xml:space="preserve">1.35183656215668</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">1.37306940555573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3164484500885</t>
+    <t xml:space="preserve">1.31644833087921</t>
   </si>
   <si>
     <t xml:space="preserve">1.32618033885956</t>
@@ -1625,22 +1625,22 @@
     <t xml:space="preserve">1.32706439495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30671668052673</t>
+    <t xml:space="preserve">1.30671656131744</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060359954834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33237290382385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3350270986557</t>
+    <t xml:space="preserve">1.33237278461456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33502697944641</t>
   </si>
   <si>
     <t xml:space="preserve">1.44915497303009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45092403888702</t>
+    <t xml:space="preserve">1.45092415809631</t>
   </si>
   <si>
     <t xml:space="preserve">1.44473147392273</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">1.42526793479919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39253306388855</t>
+    <t xml:space="preserve">1.39253318309784</t>
   </si>
   <si>
     <t xml:space="preserve">1.42438280582428</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">1.32529509067535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31202495098114</t>
+    <t xml:space="preserve">1.31202507019043</t>
   </si>
   <si>
     <t xml:space="preserve">1.13154339790344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0191855430603</t>
+    <t xml:space="preserve">1.01918566226959</t>
   </si>
   <si>
     <t xml:space="preserve">1.04838109016418</t>
@@ -1673,19 +1673,19 @@
     <t xml:space="preserve">0.670609295368195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744925796985626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746694922447205</t>
+    <t xml:space="preserve">0.744925737380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.746694982051849</t>
   </si>
   <si>
     <t xml:space="preserve">0.913020372390747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01476228237152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00414538383484</t>
+    <t xml:space="preserve">1.01476216316223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00414526462555</t>
   </si>
   <si>
     <t xml:space="preserve">0.898865103721619</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">0.967872202396393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0006068944931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973180592060089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971411466598511</t>
+    <t xml:space="preserve">1.00060701370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973180532455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971411526203156</t>
   </si>
   <si>
     <t xml:space="preserve">1.06430542469025</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">1.18020260334015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1642781496048</t>
+    <t xml:space="preserve">1.16427826881409</t>
   </si>
   <si>
     <t xml:space="preserve">1.19878220558167</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">1.16870164871216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09704041481018</t>
+    <t xml:space="preserve">1.09704029560089</t>
   </si>
   <si>
     <t xml:space="preserve">1.07138311862946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07846081256866</t>
+    <t xml:space="preserve">1.07846069335938</t>
   </si>
   <si>
     <t xml:space="preserve">1.05811297893524</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">1.07580745220184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07315325737</t>
+    <t xml:space="preserve">1.07315337657928</t>
   </si>
   <si>
     <t xml:space="preserve">1.1465836763382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16693234443665</t>
+    <t xml:space="preserve">1.16693246364594</t>
   </si>
   <si>
     <t xml:space="preserve">1.19435787200928</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">1.17931842803955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16781663894653</t>
+    <t xml:space="preserve">1.16781651973724</t>
   </si>
   <si>
     <t xml:space="preserve">1.12888920307159</t>
@@ -1784,19 +1784,19 @@
     <t xml:space="preserve">1.128005027771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19524276256561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14923799037933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15100705623627</t>
+    <t xml:space="preserve">1.1952428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14923787117004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15100693702698</t>
   </si>
   <si>
     <t xml:space="preserve">1.13596773147583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14481437206268</t>
+    <t xml:space="preserve">1.14481449127197</t>
   </si>
   <si>
     <t xml:space="preserve">1.17047071456909</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">1.14216017723083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1651623249054</t>
+    <t xml:space="preserve">1.16516220569611</t>
   </si>
   <si>
     <t xml:space="preserve">1.17843341827393</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">1.17577922344208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2987539768219</t>
+    <t xml:space="preserve">1.29875385761261</t>
   </si>
   <si>
     <t xml:space="preserve">1.54824256896973</t>
@@ -1826,13 +1826,13 @@
     <t xml:space="preserve">1.4978141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44119226932526</t>
+    <t xml:space="preserve">1.44119238853455</t>
   </si>
   <si>
     <t xml:space="preserve">1.40934252738953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37483942508698</t>
+    <t xml:space="preserve">1.37483954429626</t>
   </si>
   <si>
     <t xml:space="preserve">1.45446336269379</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">1.43499970436096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40757346153259</t>
+    <t xml:space="preserve">1.4075733423233</t>
   </si>
   <si>
     <t xml:space="preserve">1.44650077819824</t>
@@ -1859,13 +1859,13 @@
     <t xml:space="preserve">1.45269334316254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4854279756546</t>
+    <t xml:space="preserve">1.48542809486389</t>
   </si>
   <si>
     <t xml:space="preserve">1.50312173366547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5057760477066</t>
+    <t xml:space="preserve">1.50577592849731</t>
   </si>
   <si>
     <t xml:space="preserve">1.50666093826294</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">1.48277390003204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45711660385132</t>
+    <t xml:space="preserve">1.45711672306061</t>
   </si>
   <si>
     <t xml:space="preserve">1.47658038139343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53939473628998</t>
+    <t xml:space="preserve">1.53939485549927</t>
   </si>
   <si>
     <t xml:space="preserve">1.52081620693207</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">1.70660531520844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69156515598297</t>
+    <t xml:space="preserve">1.69156503677368</t>
   </si>
   <si>
     <t xml:space="preserve">1.68802678585052</t>
@@ -1913,19 +1913,19 @@
     <t xml:space="preserve">1.60397946834564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55797433853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50135242938995</t>
+    <t xml:space="preserve">1.55797445774078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50135254859924</t>
   </si>
   <si>
     <t xml:space="preserve">1.51904702186584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47038781642914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46507930755615</t>
+    <t xml:space="preserve">1.47038769721985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46507942676544</t>
   </si>
   <si>
     <t xml:space="preserve">1.41111183166504</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">1.38014698028564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40049564838409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39430212974548</t>
+    <t xml:space="preserve">1.40049576759338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39430224895477</t>
   </si>
   <si>
     <t xml:space="preserve">1.37572360038757</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">1.39695656299591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36864590644836</t>
+    <t xml:space="preserve">1.36864602565765</t>
   </si>
   <si>
     <t xml:space="preserve">1.36333763599396</t>
@@ -1970,19 +1970,19 @@
     <t xml:space="preserve">1.40580415725708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38899481296539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39784157276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42880606651306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4261519908905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38457131385803</t>
+    <t xml:space="preserve">1.3889946937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39784145355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42880618572235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42615187168121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38457143306732</t>
   </si>
   <si>
     <t xml:space="preserve">1.33679616451263</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">1.34387373924255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29433059692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2624808549881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43853807449341</t>
+    <t xml:space="preserve">1.29433047771454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26248073577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4385381937027</t>
   </si>
   <si>
     <t xml:space="preserve">1.4013808965683</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">1.40491914749146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41730523109436</t>
+    <t xml:space="preserve">1.41730511188507</t>
   </si>
   <si>
     <t xml:space="preserve">1.50931513309479</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">1.62963569164276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64025247097015</t>
+    <t xml:space="preserve">1.64025259017944</t>
   </si>
   <si>
     <t xml:space="preserve">1.58009135723114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50046753883362</t>
+    <t xml:space="preserve">1.50046765804291</t>
   </si>
   <si>
     <t xml:space="preserve">1.47569632530212</t>
@@ -2066,13 +2066,13 @@
     <t xml:space="preserve">1.45623254776001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42792212963104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41022753715515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40668821334839</t>
+    <t xml:space="preserve">1.42792201042175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41022765636444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40668833255768</t>
   </si>
   <si>
     <t xml:space="preserve">1.37395441532135</t>
@@ -2081,13 +2081,13 @@
     <t xml:space="preserve">1.37660872936249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37926304340363</t>
+    <t xml:space="preserve">1.37926292419434</t>
   </si>
   <si>
     <t xml:space="preserve">1.41199672222137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3403354883194</t>
+    <t xml:space="preserve">1.34033560752869</t>
   </si>
   <si>
     <t xml:space="preserve">1.31556332111359</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">1.47215700149536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45180928707123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46684849262238</t>
+    <t xml:space="preserve">1.45180916786194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46684861183167</t>
   </si>
   <si>
     <t xml:space="preserve">1.47127294540405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46154117584229</t>
+    <t xml:space="preserve">1.461541056633</t>
   </si>
   <si>
     <t xml:space="preserve">1.53851068019867</t>
@@ -2120,22 +2120,22 @@
     <t xml:space="preserve">1.58982312679291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53320217132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48188889026642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63405895233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54735743999481</t>
+    <t xml:space="preserve">1.53320229053497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48188877105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63405907154083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5473575592041</t>
   </si>
   <si>
     <t xml:space="preserve">1.47392618656158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49338984489441</t>
+    <t xml:space="preserve">1.4933899641037</t>
   </si>
   <si>
     <t xml:space="preserve">1.49162077903748</t>
@@ -2144,10 +2144,10 @@
     <t xml:space="preserve">1.51373851299286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49073553085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.412881731987</t>
+    <t xml:space="preserve">1.49073565006256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41288185119629</t>
   </si>
   <si>
     <t xml:space="preserve">1.40403413772583</t>
@@ -2168,25 +2168,25 @@
     <t xml:space="preserve">1.51993119716644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5526659488678</t>
+    <t xml:space="preserve">1.55266582965851</t>
   </si>
   <si>
     <t xml:space="preserve">1.55885851383209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55178081989288</t>
+    <t xml:space="preserve">1.55178093910217</t>
   </si>
   <si>
     <t xml:space="preserve">1.55974352359772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60132527351379</t>
+    <t xml:space="preserve">1.6013251543045</t>
   </si>
   <si>
     <t xml:space="preserve">1.55708932876587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58097648620605</t>
+    <t xml:space="preserve">1.58097636699677</t>
   </si>
   <si>
     <t xml:space="preserve">1.61282634735107</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">1.72872316837311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67829477787018</t>
+    <t xml:space="preserve">1.67829489707947</t>
   </si>
   <si>
     <t xml:space="preserve">1.65263772010803</t>
@@ -2225,34 +2225,34 @@
     <t xml:space="preserve">1.63317406177521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65086853504181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65883111953735</t>
+    <t xml:space="preserve">1.65086841583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65883123874664</t>
   </si>
   <si>
     <t xml:space="preserve">1.65971529483795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68094897270203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74730181694031</t>
+    <t xml:space="preserve">1.68094909191132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7473019361496</t>
   </si>
   <si>
     <t xml:space="preserve">1.8437352180481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80834722518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82073330879211</t>
+    <t xml:space="preserve">1.80834710597992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82073318958282</t>
   </si>
   <si>
     <t xml:space="preserve">1.83134913444519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81365549564362</t>
+    <t xml:space="preserve">1.81365561485291</t>
   </si>
   <si>
     <t xml:space="preserve">1.83488845825195</t>
@@ -2264,22 +2264,22 @@
     <t xml:space="preserve">1.87027657032013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85258209705353</t>
+    <t xml:space="preserve">1.85258197784424</t>
   </si>
   <si>
     <t xml:space="preserve">1.82250237464905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73580098152161</t>
+    <t xml:space="preserve">1.73580086231232</t>
   </si>
   <si>
     <t xml:space="preserve">1.70395112037659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78534412384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76941967010498</t>
+    <t xml:space="preserve">1.78534424304962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76941978931427</t>
   </si>
   <si>
     <t xml:space="preserve">1.78711438179016</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">1.77472817897797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78003668785095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71279776096344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71102869510651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72076058387756</t>
+    <t xml:space="preserve">1.78003656864166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71279788017273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7110288143158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72076070308685</t>
   </si>
   <si>
     <t xml:space="preserve">1.70572030544281</t>
@@ -2327,22 +2327,22 @@
     <t xml:space="preserve">1.68979585170746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67652463912964</t>
+    <t xml:space="preserve">1.67652475833893</t>
   </si>
   <si>
     <t xml:space="preserve">1.6986426115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69510424137115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67917907238007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63671326637268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6384824514389</t>
+    <t xml:space="preserve">1.69510436058044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67917895317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63671314716339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63848257064819</t>
   </si>
   <si>
     <t xml:space="preserve">1.67033219337463</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">1.58274567127228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57743799686432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55443513393402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60220921039581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61636459827423</t>
+    <t xml:space="preserve">1.57743811607361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55443501472473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6022093296051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61636447906494</t>
   </si>
   <si>
     <t xml:space="preserve">1.62255799770355</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">1.63936746120453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60663270950317</t>
+    <t xml:space="preserve">1.60663259029388</t>
   </si>
   <si>
     <t xml:space="preserve">1.59867095947266</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">1.30494737625122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25009477138519</t>
+    <t xml:space="preserve">1.2500946521759</t>
   </si>
   <si>
     <t xml:space="preserve">1.23593950271606</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">1.08819258213043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988221049308777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822779536247253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761735200881958</t>
+    <t xml:space="preserve">0.988220930099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822779595851898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761735260486603</t>
   </si>
   <si>
     <t xml:space="preserve">0.736963093280792</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">0.743155658245087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675033628940582</t>
+    <t xml:space="preserve">0.675033688545227</t>
   </si>
   <si>
     <t xml:space="preserve">0.722807884216309</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">0.72059565782547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728558301925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698920786380768</t>
+    <t xml:space="preserve">0.728558361530304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698920726776123</t>
   </si>
   <si>
     <t xml:space="preserve">0.681668281555176</t>
@@ -2459,34 +2459,34 @@
     <t xml:space="preserve">0.664416790008545</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610892176628113</t>
+    <t xml:space="preserve">0.610892117023468</t>
   </si>
   <si>
     <t xml:space="preserve">0.654684901237488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699804842472076</t>
+    <t xml:space="preserve">0.699804902076721</t>
   </si>
   <si>
     <t xml:space="preserve">0.684765458106995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.689188838005066</t>
+    <t xml:space="preserve">0.689188897609711</t>
   </si>
   <si>
     <t xml:space="preserve">0.675917744636536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688303887844086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678129911422729</t>
+    <t xml:space="preserve">0.688303828239441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678129971027374</t>
   </si>
   <si>
     <t xml:space="preserve">0.648492336273193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.65203070640564</t>
+    <t xml:space="preserve">0.652030646800995</t>
   </si>
   <si>
     <t xml:space="preserve">0.646280169487</t>
@@ -2495,31 +2495,31 @@
     <t xml:space="preserve">0.641414761543274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.647165298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.690072953701019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716614365577698</t>
+    <t xml:space="preserve">0.647165238857269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.690073013305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716614305973053</t>
   </si>
   <si>
     <t xml:space="preserve">0.693612277507782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.680341184139252</t>
+    <t xml:space="preserve">0.680341124534607</t>
   </si>
   <si>
     <t xml:space="preserve">0.679457068443298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694497406482697</t>
+    <t xml:space="preserve">0.694497346878052</t>
   </si>
   <si>
     <t xml:space="preserve">0.677687883377075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687419712543488</t>
+    <t xml:space="preserve">0.687419772148132</t>
   </si>
   <si>
     <t xml:space="preserve">0.70776754617691</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">0.688745856285095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.663531720638275</t>
+    <t xml:space="preserve">0.66353178024292</t>
   </si>
   <si>
     <t xml:space="preserve">0.645838141441345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641856729984283</t>
+    <t xml:space="preserve">0.641856789588928</t>
   </si>
   <si>
     <t xml:space="preserve">0.667070925235748</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">0.60823792219162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637433350086212</t>
+    <t xml:space="preserve">0.637433409690857</t>
   </si>
   <si>
     <t xml:space="preserve">0.667956054210663</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">0.836050689220428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808182299137115</t>
+    <t xml:space="preserve">0.808182239532471</t>
   </si>
   <si>
     <t xml:space="preserve">0.813932776451111</t>
@@ -2573,13 +2573,13 @@
     <t xml:space="preserve">0.876747250556946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88470983505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954602062702179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964333832263947</t>
+    <t xml:space="preserve">0.884709894657135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954602003097534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964333772659302</t>
   </si>
   <si>
     <t xml:space="preserve">1.06519067287445</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">0.980258285999298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993529260158539</t>
+    <t xml:space="preserve">0.993529379367828</t>
   </si>
   <si>
     <t xml:space="preserve">0.976719975471497</t>
@@ -2615,19 +2615,19 @@
     <t xml:space="preserve">0.948408484458923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872323870658875</t>
+    <t xml:space="preserve">0.87232381105423</t>
   </si>
   <si>
     <t xml:space="preserve">0.827203929424286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873650908470154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85374528169632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832069337368011</t>
+    <t xml:space="preserve">0.873650968074799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853745222091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832069396972656</t>
   </si>
   <si>
     <t xml:space="preserve">0.849763870239258</t>
@@ -2636,13 +2636,13 @@
     <t xml:space="preserve">0.844897449016571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849320888519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845782577991486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822337567806244</t>
+    <t xml:space="preserve">0.849320828914642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845782518386841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822337508201599</t>
   </si>
   <si>
     <t xml:space="preserve">0.828531086444855</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">0.842686295509338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91478955745697</t>
+    <t xml:space="preserve">0.914789497852325</t>
   </si>
   <si>
     <t xml:space="preserve">0.905942738056183</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">0.908596992492676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885594069957733</t>
+    <t xml:space="preserve">0.885594010353088</t>
   </si>
   <si>
     <t xml:space="preserve">0.884266912937164</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">0.836492776870728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817472100257874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.812605679035187</t>
+    <t xml:space="preserve">0.817472040653229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.812605619430542</t>
   </si>
   <si>
     <t xml:space="preserve">0.821452438831329</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.83339649438858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839589059352875</t>
+    <t xml:space="preserve">0.83958899974823</t>
   </si>
   <si>
     <t xml:space="preserve">0.803758859634399</t>
@@ -2732,19 +2732,19 @@
     <t xml:space="preserve">0.754214584827423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724577009677887</t>
+    <t xml:space="preserve">0.724576950073242</t>
   </si>
   <si>
     <t xml:space="preserve">0.731654644012451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733866810798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726346135139465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.713961064815521</t>
+    <t xml:space="preserve">0.733866751194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72634619474411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.713961005210876</t>
   </si>
   <si>
     <t xml:space="preserve">0.705998361110687</t>
@@ -2762,16 +2762,16 @@
     <t xml:space="preserve">0.717941462993622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735635995864868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.738732278347015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.745367765426636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.739617228507996</t>
+    <t xml:space="preserve">0.735635936260223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.738732218742371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.745367825031281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73961728811264</t>
   </si>
   <si>
     <t xml:space="preserve">0.76394647359848</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">0.89709597826004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909481108188629</t>
+    <t xml:space="preserve">0.909481167793274</t>
   </si>
   <si>
     <t xml:space="preserve">0.893556654453278</t>
@@ -2828,13 +2828,13 @@
     <t xml:space="preserve">0.90240353345871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905057668685913</t>
+    <t xml:space="preserve">0.905057728290558</t>
   </si>
   <si>
     <t xml:space="preserve">0.860822856426239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855514347553253</t>
+    <t xml:space="preserve">0.855514407157898</t>
   </si>
   <si>
     <t xml:space="preserve">0.861264944076538</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">0.877632260322571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882055699825287</t>
+    <t xml:space="preserve">0.882055640220642</t>
   </si>
   <si>
     <t xml:space="preserve">0.869227528572083</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">0.794027030467987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.752887487411499</t>
+    <t xml:space="preserve">0.752887427806854</t>
   </si>
   <si>
     <t xml:space="preserve">0.693170249462128</t>
@@ -2861,10 +2861,10 @@
     <t xml:space="preserve">0.671494364738464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683438420295715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699362814426422</t>
+    <t xml:space="preserve">0.683438360691071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699362754821777</t>
   </si>
   <si>
     <t xml:space="preserve">0.725019037723541</t>
@@ -2879,22 +2879,22 @@
     <t xml:space="preserve">0.830742239952087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834281504154205</t>
+    <t xml:space="preserve">0.83428156375885</t>
   </si>
   <si>
     <t xml:space="preserve">0.850647985935211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906827747821808</t>
+    <t xml:space="preserve">0.906827807426453</t>
   </si>
   <si>
     <t xml:space="preserve">0.895325839519501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928944826126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95371687412262</t>
+    <t xml:space="preserve">0.928944766521454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953716933727264</t>
   </si>
   <si>
     <t xml:space="preserve">0.942215919494629</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">0.939561665058136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943100988864899</t>
+    <t xml:space="preserve">0.943101048469543</t>
   </si>
   <si>
     <t xml:space="preserve">0.933369100093842</t>
@@ -2912,16 +2912,16 @@
     <t xml:space="preserve">0.95814037322998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945754170417786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955486118793488</t>
+    <t xml:space="preserve">0.94575423002243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955486178398132</t>
   </si>
   <si>
     <t xml:space="preserve">0.934253215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919212877750397</t>
+    <t xml:space="preserve">0.919212937355042</t>
   </si>
   <si>
     <t xml:space="preserve">0.890902459621429</t>
@@ -2930,16 +2930,16 @@
     <t xml:space="preserve">0.889133274555206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891787469387054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890018343925476</t>
+    <t xml:space="preserve">0.891787528991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890018284320831</t>
   </si>
   <si>
     <t xml:space="preserve">0.910366117954254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959025382995605</t>
+    <t xml:space="preserve">0.959025323390961</t>
   </si>
   <si>
     <t xml:space="preserve">0.899749279022217</t>
@@ -2951,10 +2951,10 @@
     <t xml:space="preserve">0.959910452365875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999721884727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01033890247345</t>
+    <t xml:space="preserve">0.999722003936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01033878326416</t>
   </si>
   <si>
     <t xml:space="preserve">1.01387715339661</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">0.98999011516571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956371188163757</t>
+    <t xml:space="preserve">0.956371128559113</t>
   </si>
   <si>
     <t xml:space="preserve">0.926290512084961</t>
@@ -2981,13 +2981,13 @@
     <t xml:space="preserve">0.90328848361969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918328821659088</t>
+    <t xml:space="preserve">0.918328762054443</t>
   </si>
   <si>
     <t xml:space="preserve">0.930714905261993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960794568061829</t>
+    <t xml:space="preserve">0.960794627666473</t>
   </si>
   <si>
     <t xml:space="preserve">0.986451804637909</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">0.98468154668808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994413614273071</t>
+    <t xml:space="preserve">0.994413495063782</t>
   </si>
   <si>
     <t xml:space="preserve">0.992644309997559</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">1.00237619876862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990875124931335</t>
+    <t xml:space="preserve">0.990875244140625</t>
   </si>
   <si>
     <t xml:space="preserve">1.03334081172943</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">1.21470654010773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25982666015625</t>
+    <t xml:space="preserve">1.25982654094696</t>
   </si>
   <si>
     <t xml:space="preserve">1.24301695823669</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">1.22886180877686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22620761394501</t>
+    <t xml:space="preserve">1.22620749473572</t>
   </si>
   <si>
     <t xml:space="preserve">1.24124789237976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20585989952087</t>
+    <t xml:space="preserve">1.20585978031158</t>
   </si>
   <si>
     <t xml:space="preserve">1.17489421367645</t>
@@ -3059,16 +3059,16 @@
     <t xml:space="preserve">1.1766642332077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17224085330963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17754852771759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19789719581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18728029727936</t>
+    <t xml:space="preserve">1.17224073410034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1775484085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19789707660675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18728017807007</t>
   </si>
   <si>
     <t xml:space="preserve">1.23240125179291</t>
@@ -3080,16 +3080,16 @@
     <t xml:space="preserve">1.18108761310577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17312490940094</t>
+    <t xml:space="preserve">1.17312502861023</t>
   </si>
   <si>
     <t xml:space="preserve">1.45888674259186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45357835292816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52435553073883</t>
+    <t xml:space="preserve">1.45357823371887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52435541152954</t>
   </si>
   <si>
     <t xml:space="preserve">1.52170121669769</t>
@@ -3098,19 +3098,19 @@
     <t xml:space="preserve">1.52523946762085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48985159397125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49515986442566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48011982440948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52347040176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56416690349579</t>
+    <t xml:space="preserve">1.48985147476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49515998363495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4801197052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52347052097321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5641667842865</t>
   </si>
   <si>
     <t xml:space="preserve">1.54558825492859</t>
@@ -3119,10 +3119,10 @@
     <t xml:space="preserve">1.52612471580505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51816201210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56859040260315</t>
+    <t xml:space="preserve">1.51816189289093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56859028339386</t>
   </si>
   <si>
     <t xml:space="preserve">1.49692916870117</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">1.51019930839539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68183326721191</t>
+    <t xml:space="preserve">1.68183314800262</t>
   </si>
   <si>
     <t xml:space="preserve">1.64202165603638</t>
@@ -3140,34 +3140,34 @@
     <t xml:space="preserve">1.72252988815308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70749056339264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71633732318878</t>
+    <t xml:space="preserve">1.70749044418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71633720397949</t>
   </si>
   <si>
     <t xml:space="preserve">1.71545207500458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7234148979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70925962924957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54293417930603</t>
+    <t xml:space="preserve">1.72341477870941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70925951004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54293406009674</t>
   </si>
   <si>
     <t xml:space="preserve">1.48100471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42261362075806</t>
+    <t xml:space="preserve">1.42261373996735</t>
   </si>
   <si>
     <t xml:space="preserve">1.43676888942719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43942320346832</t>
+    <t xml:space="preserve">1.43942308425903</t>
   </si>
   <si>
     <t xml:space="preserve">1.44561576843262</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">1.48572742938995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51951539516449</t>
+    <t xml:space="preserve">1.5195152759552</t>
   </si>
   <si>
     <t xml:space="preserve">1.4960515499115</t>
@@ -3185,28 +3185,28 @@
     <t xml:space="preserve">1.47634184360504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47446501255035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41252052783966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53359365463257</t>
+    <t xml:space="preserve">1.47446489334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41252040863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53359353542328</t>
   </si>
   <si>
     <t xml:space="preserve">1.57864415645599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773932933807</t>
+    <t xml:space="preserve">1.60773921012878</t>
   </si>
   <si>
     <t xml:space="preserve">1.6227560043335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67813062667847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61900198459625</t>
+    <t xml:space="preserve">1.67813050746918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61900186538696</t>
   </si>
   <si>
     <t xml:space="preserve">1.6405885219574</t>
@@ -3215,10 +3215,10 @@
     <t xml:space="preserve">1.63589584827423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62932586669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65091264247894</t>
+    <t xml:space="preserve">1.62932598590851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65091252326965</t>
   </si>
   <si>
     <t xml:space="preserve">1.66968369483948</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">1.66217529773712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68282341957092</t>
+    <t xml:space="preserve">1.68282330036163</t>
   </si>
   <si>
     <t xml:space="preserve">1.69877874851227</t>
@@ -3263,13 +3263,13 @@
     <t xml:space="preserve">1.58615267276764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61524760723114</t>
+    <t xml:space="preserve">1.61524748802185</t>
   </si>
   <si>
     <t xml:space="preserve">1.59647655487061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58990681171417</t>
+    <t xml:space="preserve">1.58990669250488</t>
   </si>
   <si>
     <t xml:space="preserve">1.63120305538177</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">1.76166176795959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65654385089874</t>
+    <t xml:space="preserve">1.65654397010803</t>
   </si>
   <si>
     <t xml:space="preserve">1.60680067539215</t>
@@ -3299,19 +3299,19 @@
     <t xml:space="preserve">1.5523647069931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50825273990631</t>
+    <t xml:space="preserve">1.50825262069702</t>
   </si>
   <si>
     <t xml:space="preserve">1.53265511989594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55330312252045</t>
+    <t xml:space="preserve">1.55330324172974</t>
   </si>
   <si>
     <t xml:space="preserve">1.71379554271698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93717074394226</t>
+    <t xml:space="preserve">1.93717086315155</t>
   </si>
   <si>
     <t xml:space="preserve">1.95594191551208</t>
@@ -3338,19 +3338,19 @@
     <t xml:space="preserve">2.07607650756836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00099229812622</t>
+    <t xml:space="preserve">2.0009925365448</t>
   </si>
   <si>
     <t xml:space="preserve">2.07795381546021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06105971336365</t>
+    <t xml:space="preserve">2.06105995178223</t>
   </si>
   <si>
     <t xml:space="preserve">2.13802123069763</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23375344276428</t>
+    <t xml:space="preserve">2.2337532043457</t>
   </si>
   <si>
     <t xml:space="preserve">2.1980881690979</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">2.26378703117371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25252437591553</t>
+    <t xml:space="preserve">2.25252461433411</t>
   </si>
   <si>
     <t xml:space="preserve">2.306960105896</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">2.24876999855042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27317237854004</t>
+    <t xml:space="preserve">2.27317214012146</t>
   </si>
   <si>
     <t xml:space="preserve">2.32760858535767</t>
@@ -3398,7 +3398,7 @@
     <t xml:space="preserve">2.42146348953247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45712876319885</t>
+    <t xml:space="preserve">2.45712852478027</t>
   </si>
   <si>
     <t xml:space="preserve">2.48716235160828</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">2.59040307998657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52470469474792</t>
+    <t xml:space="preserve">2.52470445632935</t>
   </si>
   <si>
     <t xml:space="preserve">2.60917377471924</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">2.65797853469849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57538628578186</t>
+    <t xml:space="preserve">2.57538604736328</t>
   </si>
   <si>
     <t xml:space="preserve">2.61668252944946</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">2.53784394264221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47777676582336</t>
+    <t xml:space="preserve">2.47777700424194</t>
   </si>
   <si>
     <t xml:space="preserve">2.51907300949097</t>
@@ -3446,19 +3446,19 @@
     <t xml:space="preserve">2.34074831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53033590316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62606811523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63920783996582</t>
+    <t xml:space="preserve">2.53033566474915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6260678768158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63920760154724</t>
   </si>
   <si>
     <t xml:space="preserve">2.71241474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81377840042114</t>
+    <t xml:space="preserve">2.81377816200256</t>
   </si>
   <si>
     <t xml:space="preserve">2.79688429832458</t>
@@ -3488,7 +3488,7 @@
     <t xml:space="preserve">2.41770935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41020107269287</t>
+    <t xml:space="preserve">2.41020083427429</t>
   </si>
   <si>
     <t xml:space="preserve">2.39330697059631</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">2.28818941116333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30320596694946</t>
+    <t xml:space="preserve">2.30320620536804</t>
   </si>
   <si>
     <t xml:space="preserve">2.26566410064697</t>
@@ -3536,10 +3536,10 @@
     <t xml:space="preserve">2.29757452011108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32573127746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26190996170044</t>
+    <t xml:space="preserve">2.3257315158844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26191020011902</t>
   </si>
   <si>
     <t xml:space="preserve">2.53408980369568</t>
@@ -3548,7 +3548,7 @@
     <t xml:space="preserve">2.53596687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18870282173157</t>
+    <t xml:space="preserve">2.18870306015015</t>
   </si>
   <si>
     <t xml:space="preserve">2.11174154281616</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">2.24501585960388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21873664855957</t>
+    <t xml:space="preserve">2.21873641014099</t>
   </si>
   <si>
     <t xml:space="preserve">2.13238978385925</t>
@@ -3569,10 +3569,10 @@
     <t xml:space="preserve">2.20371961593628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1098644733429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15491509437561</t>
+    <t xml:space="preserve">2.10986423492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15491485595703</t>
   </si>
   <si>
     <t xml:space="preserve">2.14928364753723</t>
@@ -3584,28 +3584,28 @@
     <t xml:space="preserve">2.13426661491394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12300395965576</t>
+    <t xml:space="preserve">2.12300419807434</t>
   </si>
   <si>
     <t xml:space="preserve">1.97846722602844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01413202285767</t>
+    <t xml:space="preserve">2.01413226127625</t>
   </si>
   <si>
     <t xml:space="preserve">1.91276872158051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74289083480835</t>
+    <t xml:space="preserve">1.74289071559906</t>
   </si>
   <si>
     <t xml:space="preserve">1.6556054353714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6612366437912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7794942855835</t>
+    <t xml:space="preserve">1.66123676300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77949440479279</t>
   </si>
   <si>
     <t xml:space="preserve">1.6734379529953</t>
@@ -3617,22 +3617,22 @@
     <t xml:space="preserve">1.75790750980377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8921205997467</t>
+    <t xml:space="preserve">1.89212048053741</t>
   </si>
   <si>
     <t xml:space="preserve">1.85927104949951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83956146240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83674585819244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80765068531036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74852204322815</t>
+    <t xml:space="preserve">1.83956158161163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83674597740173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80765080451965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74852216243744</t>
   </si>
   <si>
     <t xml:space="preserve">1.76447737216949</t>
@@ -3647,19 +3647,19 @@
     <t xml:space="preserve">1.9747132062912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94280230998993</t>
+    <t xml:space="preserve">1.94280219078064</t>
   </si>
   <si>
     <t xml:space="preserve">1.84894716739655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89024329185486</t>
+    <t xml:space="preserve">1.89024317264557</t>
   </si>
   <si>
     <t xml:space="preserve">1.86677944660187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83111464977264</t>
+    <t xml:space="preserve">1.83111453056335</t>
   </si>
   <si>
     <t xml:space="preserve">1.76917016506195</t>
@@ -3671,10 +3671,10 @@
     <t xml:space="preserve">1.69596314430237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71567249298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81140494346619</t>
+    <t xml:space="preserve">1.71567261219025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81140506267548</t>
   </si>
   <si>
     <t xml:space="preserve">1.80108094215393</t>
@@ -3692,10 +3692,10 @@
     <t xml:space="preserve">1.72693526744843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70441007614136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71661126613617</t>
+    <t xml:space="preserve">1.70441019535065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71661138534546</t>
   </si>
   <si>
     <t xml:space="preserve">1.64246571063995</t>
@@ -3704,13 +3704,13 @@
     <t xml:space="preserve">1.5495491027832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56644284725189</t>
+    <t xml:space="preserve">1.56644296646118</t>
   </si>
   <si>
     <t xml:space="preserve">1.63308012485504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70347154140472</t>
+    <t xml:space="preserve">1.70347142219543</t>
   </si>
   <si>
     <t xml:space="preserve">1.68376195430756</t>
@@ -3719,13 +3719,13 @@
     <t xml:space="preserve">1.74195218086243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70253300666809</t>
+    <t xml:space="preserve">1.7025328874588</t>
   </si>
   <si>
     <t xml:space="preserve">1.69502449035645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61618614196777</t>
+    <t xml:space="preserve">1.61618626117706</t>
   </si>
   <si>
     <t xml:space="preserve">1.61149346828461</t>
@@ -3734,25 +3734,25 @@
     <t xml:space="preserve">1.72787380218506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74476766586304</t>
+    <t xml:space="preserve">1.74476778507233</t>
   </si>
   <si>
     <t xml:space="preserve">1.82454478740692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79075682163239</t>
+    <t xml:space="preserve">1.7907567024231</t>
   </si>
   <si>
     <t xml:space="preserve">1.8179749250412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88648915290833</t>
+    <t xml:space="preserve">1.88648903369904</t>
   </si>
   <si>
     <t xml:space="preserve">1.95406484603882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91464567184448</t>
+    <t xml:space="preserve">1.91464555263519</t>
   </si>
   <si>
     <t xml:space="preserve">1.90526008605957</t>
@@ -3761,10 +3761,10 @@
     <t xml:space="preserve">1.90150594711304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75603044033051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54204058647156</t>
+    <t xml:space="preserve">1.75603055953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54204070568085</t>
   </si>
   <si>
     <t xml:space="preserve">1.50262141227722</t>
@@ -61359,7 +61359,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6493865741</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>1047360</v>
@@ -61380,6 +61380,32 @@
         <v>1675</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6493287037</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>864476</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>2.74399995803833</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>2.69799995422363</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>2.74399995803833</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>2.69199991226196</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18833541870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04538297653198</t>
+    <t xml:space="preserve">5.18833589553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04538249969482</t>
   </si>
   <si>
     <t xml:space="preserve">4.91924810409546</t>
@@ -56,16 +56,16 @@
     <t xml:space="preserve">4.99913311004639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93186140060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07061004638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23458385467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96970176696777</t>
+    <t xml:space="preserve">4.93186092376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07060956954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23458433151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96970129013062</t>
   </si>
   <si>
     <t xml:space="preserve">4.87720251083374</t>
@@ -74,16 +74,16 @@
     <t xml:space="preserve">4.91083955764771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88981676101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50300312042236</t>
+    <t xml:space="preserve">4.889817237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50300359725952</t>
   </si>
   <si>
     <t xml:space="preserve">4.47777700424194</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80152225494385</t>
+    <t xml:space="preserve">4.80152273178101</t>
   </si>
   <si>
     <t xml:space="preserve">4.72163724899292</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">4.74265956878662</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76368188858032</t>
+    <t xml:space="preserve">4.76368284225464</t>
   </si>
   <si>
     <t xml:space="preserve">4.78049993515015</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">4.70902442932129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90243005752563</t>
+    <t xml:space="preserve">4.90243053436279</t>
   </si>
   <si>
     <t xml:space="preserve">4.86459016799927</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">4.78470516204834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81413555145264</t>
+    <t xml:space="preserve">4.81413650512695</t>
   </si>
   <si>
     <t xml:space="preserve">4.58288955688477</t>
@@ -119,16 +119,16 @@
     <t xml:space="preserve">4.27175712585449</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26755237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53243589401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47357225418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64175176620483</t>
+    <t xml:space="preserve">4.26755332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53243541717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47357177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64175224304199</t>
   </si>
   <si>
     <t xml:space="preserve">4.55766296386719</t>
@@ -137,22 +137,22 @@
     <t xml:space="preserve">4.73425102233887</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73004579544067</t>
+    <t xml:space="preserve">4.73004531860352</t>
   </si>
   <si>
     <t xml:space="preserve">4.75106859207153</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75527286529541</t>
+    <t xml:space="preserve">4.75527238845825</t>
   </si>
   <si>
     <t xml:space="preserve">4.52402591705322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49039030075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70061492919922</t>
+    <t xml:space="preserve">4.49039077758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70061445236206</t>
   </si>
   <si>
     <t xml:space="preserve">4.83515930175781</t>
@@ -161,16 +161,16 @@
     <t xml:space="preserve">4.94867944717407</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99492931365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86038589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77209138870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79311323165894</t>
+    <t xml:space="preserve">4.99492883682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86038541793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77209091186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79311370849609</t>
   </si>
   <si>
     <t xml:space="preserve">4.64595603942871</t>
@@ -179,19 +179,19 @@
     <t xml:space="preserve">4.69220590591431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66277503967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54504871368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36425638198853</t>
+    <t xml:space="preserve">4.66277456283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54504919052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36425542831421</t>
   </si>
   <si>
     <t xml:space="preserve">4.33902883529663</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30539274215698</t>
+    <t xml:space="preserve">4.3053936958313</t>
   </si>
   <si>
     <t xml:space="preserve">4.33062028884888</t>
@@ -209,25 +209,25 @@
     <t xml:space="preserve">4.25914335250854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56607055664062</t>
+    <t xml:space="preserve">4.56607103347778</t>
   </si>
   <si>
     <t xml:space="preserve">4.4105052947998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48618650436401</t>
+    <t xml:space="preserve">4.4861855506897</t>
   </si>
   <si>
     <t xml:space="preserve">4.77629518508911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01595211029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81834125518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7678861618042</t>
+    <t xml:space="preserve">5.01595163345337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81834077835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76788663864136</t>
   </si>
   <si>
     <t xml:space="preserve">4.83095359802246</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">4.78890943527222</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82254505157471</t>
+    <t xml:space="preserve">4.82254457473755</t>
   </si>
   <si>
     <t xml:space="preserve">4.80993175506592</t>
@@ -248,13 +248,13 @@
     <t xml:space="preserve">4.83936262130737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80572652816772</t>
+    <t xml:space="preserve">4.80572605133057</t>
   </si>
   <si>
     <t xml:space="preserve">4.92345237731934</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98231554031372</t>
+    <t xml:space="preserve">4.98231506347656</t>
   </si>
   <si>
     <t xml:space="preserve">5.12947273254395</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">5.1799259185791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10004043579102</t>
+    <t xml:space="preserve">5.10004091262817</t>
   </si>
   <si>
     <t xml:space="preserve">5.16731309890747</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">5.20094871520996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04117870330811</t>
+    <t xml:space="preserve">5.04117822647095</t>
   </si>
   <si>
     <t xml:space="preserve">5.01849603652954</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">5.01418113708496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83726072311401</t>
+    <t xml:space="preserve">4.83726119995117</t>
   </si>
   <si>
     <t xml:space="preserve">4.7854790687561</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">4.88472700119019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81999969482422</t>
+    <t xml:space="preserve">4.82000017166138</t>
   </si>
   <si>
     <t xml:space="preserve">4.78116464614868</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">4.3798565864563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49636602401733</t>
+    <t xml:space="preserve">4.49636554718018</t>
   </si>
   <si>
     <t xml:space="preserve">4.51794004440308</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55677700042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50931024551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35396528244019</t>
+    <t xml:space="preserve">4.5567774772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50931072235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35396575927734</t>
   </si>
   <si>
     <t xml:space="preserve">4.33239030838013</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">4.29269075393677</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43595266342163</t>
+    <t xml:space="preserve">4.43595314025879</t>
   </si>
   <si>
     <t xml:space="preserve">4.41006231307983</t>
@@ -356,13 +356,13 @@
     <t xml:space="preserve">4.40574741363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34965133666992</t>
+    <t xml:space="preserve">4.34965085983276</t>
   </si>
   <si>
     <t xml:space="preserve">4.28233528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3625955581665</t>
+    <t xml:space="preserve">4.36259603500366</t>
   </si>
   <si>
     <t xml:space="preserve">4.41437768936157</t>
@@ -377,16 +377,16 @@
     <t xml:space="preserve">4.45752906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48341989517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63013458251953</t>
+    <t xml:space="preserve">4.48342037200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63013505935669</t>
   </si>
   <si>
     <t xml:space="preserve">4.62581968307495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53951644897461</t>
+    <t xml:space="preserve">4.53951597213745</t>
   </si>
   <si>
     <t xml:space="preserve">4.53088665008545</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">4.41869306564331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44026803970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34533596038818</t>
+    <t xml:space="preserve">4.44026851654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34533548355103</t>
   </si>
   <si>
     <t xml:space="preserve">4.28060817718506</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">4.23745727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22882747650146</t>
+    <t xml:space="preserve">4.22882699966431</t>
   </si>
   <si>
     <t xml:space="preserve">4.27197885513306</t>
@@ -446,16 +446,16 @@
     <t xml:space="preserve">4.3013219833374</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61718940734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63444948196411</t>
+    <t xml:space="preserve">4.61718893051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63444900512695</t>
   </si>
   <si>
     <t xml:space="preserve">4.70349168777466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67328500747681</t>
+    <t xml:space="preserve">4.67328548431396</t>
   </si>
   <si>
     <t xml:space="preserve">4.57403802871704</t>
@@ -470,34 +470,34 @@
     <t xml:space="preserve">4.52225637435913</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46615934371948</t>
+    <t xml:space="preserve">4.46615886688232</t>
   </si>
   <si>
     <t xml:space="preserve">4.42732334136963</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38848686218262</t>
+    <t xml:space="preserve">4.38848638534546</t>
   </si>
   <si>
     <t xml:space="preserve">4.35828065872192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31513023376465</t>
+    <t xml:space="preserve">4.31513071060181</t>
   </si>
   <si>
     <t xml:space="preserve">4.30995178222656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32376003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30477380752563</t>
+    <t xml:space="preserve">4.32375955581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30477333068848</t>
   </si>
   <si>
     <t xml:space="preserve">4.24263525009155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19430637359619</t>
+    <t xml:space="preserve">4.19430589675903</t>
   </si>
   <si>
     <t xml:space="preserve">4.29441738128662</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">4.37554168701172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2857871055603</t>
+    <t xml:space="preserve">4.28578662872314</t>
   </si>
   <si>
     <t xml:space="preserve">4.21674394607544</t>
@@ -524,10 +524,10 @@
     <t xml:space="preserve">4.20984029769897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26162242889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29959535598755</t>
+    <t xml:space="preserve">4.26162195205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29959487915039</t>
   </si>
   <si>
     <t xml:space="preserve">4.28751230239868</t>
@@ -545,10 +545,10 @@
     <t xml:space="preserve">4.25817060470581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23573112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31944465637207</t>
+    <t xml:space="preserve">4.23573064804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31944513320923</t>
   </si>
   <si>
     <t xml:space="preserve">4.39280223846436</t>
@@ -566,16 +566,16 @@
     <t xml:space="preserve">4.2547173500061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25989580154419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16323661804199</t>
+    <t xml:space="preserve">4.25989627838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16323709487915</t>
   </si>
   <si>
     <t xml:space="preserve">4.14425039291382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12526321411133</t>
+    <t xml:space="preserve">4.12526369094849</t>
   </si>
   <si>
     <t xml:space="preserve">4.10455131530762</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">4.12699031829834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18912792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23918342590332</t>
+    <t xml:space="preserve">4.18912839889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23918390274048</t>
   </si>
   <si>
     <t xml:space="preserve">4.63876390457153</t>
@@ -605,13 +605,13 @@
     <t xml:space="preserve">4.65171051025391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61287403106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54383182525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53520107269287</t>
+    <t xml:space="preserve">4.61287355422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54383134841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53520154953003</t>
   </si>
   <si>
     <t xml:space="preserve">4.58266830444336</t>
@@ -623,28 +623,28 @@
     <t xml:space="preserve">4.5956130027771</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59129762649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59992837905884</t>
+    <t xml:space="preserve">4.59129810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.599928855896</t>
   </si>
   <si>
     <t xml:space="preserve">4.72938251495361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74664258956909</t>
+    <t xml:space="preserve">4.74664306640625</t>
   </si>
   <si>
     <t xml:space="preserve">4.66897010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80705499649048</t>
+    <t xml:space="preserve">4.80705451965332</t>
   </si>
   <si>
     <t xml:space="preserve">4.82431507110596</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79410934448242</t>
+    <t xml:space="preserve">4.79410982131958</t>
   </si>
   <si>
     <t xml:space="preserve">4.77253341674805</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">4.69486141204834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86746644973755</t>
+    <t xml:space="preserve">4.86746692657471</t>
   </si>
   <si>
     <t xml:space="preserve">4.96240043640137</t>
@@ -671,10 +671,10 @@
     <t xml:space="preserve">5.14363527297974</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1091136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05733156204224</t>
+    <t xml:space="preserve">5.10911321640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05733203887939</t>
   </si>
   <si>
     <t xml:space="preserve">5.08322286605835</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">5.1522650718689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34644603729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31192541122437</t>
+    <t xml:space="preserve">5.34644556045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31192493438721</t>
   </si>
   <si>
     <t xml:space="preserve">5.18678569793701</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">5.20836162567139</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17815589904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34213066101074</t>
+    <t xml:space="preserve">5.17815637588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3421311378479</t>
   </si>
   <si>
     <t xml:space="preserve">5.19541692733765</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24288272857666</t>
+    <t xml:space="preserve">5.24288320541382</t>
   </si>
   <si>
     <t xml:space="preserve">5.35076141357422</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">5.38528251647949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54925727844238</t>
+    <t xml:space="preserve">5.54925680160522</t>
   </si>
   <si>
     <t xml:space="preserve">5.50610542297363</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">5.50179052352905</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35507678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36370611190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43706369400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41980314254761</t>
+    <t xml:space="preserve">5.3550763130188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36370658874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4370641708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41980266571045</t>
   </si>
   <si>
     <t xml:space="preserve">5.56220293045044</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">5.5837779045105</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48021411895752</t>
+    <t xml:space="preserve">5.48021459579468</t>
   </si>
   <si>
     <t xml:space="preserve">5.47158479690552</t>
@@ -782,16 +782,16 @@
     <t xml:space="preserve">5.49316024780273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40685796737671</t>
+    <t xml:space="preserve">5.40685844421387</t>
   </si>
   <si>
     <t xml:space="preserve">5.37233638763428</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23856782913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36802101135254</t>
+    <t xml:space="preserve">5.23856735229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3680214881897</t>
   </si>
   <si>
     <t xml:space="preserve">5.28171873092651</t>
@@ -800,10 +800,10 @@
     <t xml:space="preserve">5.33480167388916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67983818054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71080303192139</t>
+    <t xml:space="preserve">5.67983865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71080255508423</t>
   </si>
   <si>
     <t xml:space="preserve">5.62675619125366</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">5.5913667678833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66214418411255</t>
+    <t xml:space="preserve">5.66214466094971</t>
   </si>
   <si>
     <t xml:space="preserve">5.67099094390869</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">5.58694362640381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49405002593994</t>
+    <t xml:space="preserve">5.49404954910278</t>
   </si>
   <si>
     <t xml:space="preserve">5.43654346466064</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">5.53828525543213</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56482553482056</t>
+    <t xml:space="preserve">5.56482601165771</t>
   </si>
   <si>
     <t xml:space="preserve">5.57367372512817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48962593078613</t>
+    <t xml:space="preserve">5.48962640762329</t>
   </si>
   <si>
     <t xml:space="preserve">5.52059078216553</t>
@@ -857,10 +857,10 @@
     <t xml:space="preserve">5.48520278930664</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56040239334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55597925186157</t>
+    <t xml:space="preserve">5.56040287017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55597877502441</t>
   </si>
   <si>
     <t xml:space="preserve">5.59579133987427</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">5.53386116027832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61348485946655</t>
+    <t xml:space="preserve">5.61348533630371</t>
   </si>
   <si>
     <t xml:space="preserve">5.64887428283691</t>
@@ -881,10 +881,10 @@
     <t xml:space="preserve">5.69310903549194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71965026855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7019567489624</t>
+    <t xml:space="preserve">5.71964979171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70195627212524</t>
   </si>
   <si>
     <t xml:space="preserve">5.69753217697144</t>
@@ -893,19 +893,19 @@
     <t xml:space="preserve">5.54270887374878</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62233257293701</t>
+    <t xml:space="preserve">5.62233304977417</t>
   </si>
   <si>
     <t xml:space="preserve">5.56925058364868</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51616716384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44096708297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41442537307739</t>
+    <t xml:space="preserve">5.51616764068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44096660614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41442584991455</t>
   </si>
   <si>
     <t xml:space="preserve">5.4586615562439</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">5.54713153839111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64002561569214</t>
+    <t xml:space="preserve">5.6400260925293</t>
   </si>
   <si>
     <t xml:space="preserve">5.6179084777832</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">5.60906171798706</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64445018768311</t>
+    <t xml:space="preserve">5.64444971084595</t>
   </si>
   <si>
     <t xml:space="preserve">5.81254482269287</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">5.86562776565552</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92755699157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852184295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02487564086914</t>
+    <t xml:space="preserve">5.92755746841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852136611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0248761177063</t>
   </si>
   <si>
     <t xml:space="preserve">5.94525194168091</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">5.68868541717529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71522617340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70638036727905</t>
+    <t xml:space="preserve">5.71522665023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70637989044189</t>
   </si>
   <si>
     <t xml:space="preserve">5.55155515670776</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">5.17555332183838</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19767189025879</t>
+    <t xml:space="preserve">5.19767236709595</t>
   </si>
   <si>
     <t xml:space="preserve">5.10477685928345</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">5.087082862854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13131809234619</t>
+    <t xml:space="preserve">5.13131761550903</t>
   </si>
   <si>
     <t xml:space="preserve">5.12247133255005</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">5.23748302459717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19324827194214</t>
+    <t xml:space="preserve">5.19324779510498</t>
   </si>
   <si>
     <t xml:space="preserve">5.15343618392944</t>
@@ -1010,13 +1010,13 @@
     <t xml:space="preserve">5.16670703887939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14016580581665</t>
+    <t xml:space="preserve">5.14016532897949</t>
   </si>
   <si>
     <t xml:space="preserve">5.09592962265015</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25075435638428</t>
+    <t xml:space="preserve">5.25075483322144</t>
   </si>
   <si>
     <t xml:space="preserve">5.21978950500488</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">5.0030345916748</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93668222427368</t>
+    <t xml:space="preserve">4.93668174743652</t>
   </si>
   <si>
     <t xml:space="preserve">4.97649335861206</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">4.91014051437378</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98091793060303</t>
+    <t xml:space="preserve">4.98091745376587</t>
   </si>
   <si>
     <t xml:space="preserve">4.94995260238647</t>
@@ -1100,19 +1100,19 @@
     <t xml:space="preserve">5.40115451812744</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24633121490479</t>
+    <t xml:space="preserve">5.24633073806763</t>
   </si>
   <si>
     <t xml:space="preserve">5.0693883895874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96322345733643</t>
+    <t xml:space="preserve">4.96322298049927</t>
   </si>
   <si>
     <t xml:space="preserve">4.87917613983154</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86590528488159</t>
+    <t xml:space="preserve">4.86590480804443</t>
   </si>
   <si>
     <t xml:space="preserve">4.88802289962769</t>
@@ -1133,19 +1133,19 @@
     <t xml:space="preserve">4.80839872360229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84821176528931</t>
+    <t xml:space="preserve">4.84821128845215</t>
   </si>
   <si>
     <t xml:space="preserve">4.75531625747681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67126893997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70665693283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75973987579346</t>
+    <t xml:space="preserve">4.67126941680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70665740966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7597393989563</t>
   </si>
   <si>
     <t xml:space="preserve">4.73762178421021</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">4.87032842636108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83051681518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75089359283447</t>
+    <t xml:space="preserve">4.83051633834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75089311599731</t>
   </si>
   <si>
     <t xml:space="preserve">4.70223379135132</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">4.61818647384644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64472723007202</t>
+    <t xml:space="preserve">4.64472770690918</t>
   </si>
   <si>
     <t xml:space="preserve">4.43682050704956</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">4.40231657028198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44124364852905</t>
+    <t xml:space="preserve">4.44124412536621</t>
   </si>
   <si>
     <t xml:space="preserve">4.34038734436035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39877843856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34569597244263</t>
+    <t xml:space="preserve">4.39877796173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34569549560547</t>
   </si>
   <si>
     <t xml:space="preserve">4.37046813964844</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">4.41647291183472</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42355060577393</t>
+    <t xml:space="preserve">4.42355108261108</t>
   </si>
   <si>
     <t xml:space="preserve">4.38816165924072</t>
@@ -1229,31 +1229,31 @@
     <t xml:space="preserve">3.07879066467285</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01155281066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04163312911987</t>
+    <t xml:space="preserve">3.01155257225037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04163336753845</t>
   </si>
   <si>
     <t xml:space="preserve">3.06463527679443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9673171043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09648513793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1230263710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19557285308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26281070709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35835909843445</t>
+    <t xml:space="preserve">2.96731686592102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09648537635803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12302660942078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1955726146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26281046867371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35835886001587</t>
   </si>
   <si>
     <t xml:space="preserve">3.33535671234131</t>
@@ -1265,19 +1265,19 @@
     <t xml:space="preserve">3.33004832267761</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36720657348633</t>
+    <t xml:space="preserve">3.36720681190491</t>
   </si>
   <si>
     <t xml:space="preserve">3.36189794540405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28758263587952</t>
+    <t xml:space="preserve">3.2875828742981</t>
   </si>
   <si>
     <t xml:space="preserve">3.19026446342468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20795893669128</t>
+    <t xml:space="preserve">3.20795869827271</t>
   </si>
   <si>
     <t xml:space="preserve">3.11948704719543</t>
@@ -1295,16 +1295,16 @@
     <t xml:space="preserve">2.99208927154541</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01863026618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90892672538757</t>
+    <t xml:space="preserve">3.01863050460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90892696380615</t>
   </si>
   <si>
     <t xml:space="preserve">2.70898151397705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69836568832397</t>
+    <t xml:space="preserve">2.6983654499054</t>
   </si>
   <si>
     <t xml:space="preserve">2.65943813323975</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">2.65412974357605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62581944465637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56211972236633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53734827041626</t>
+    <t xml:space="preserve">2.62581920623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56211996078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53734850883484</t>
   </si>
   <si>
     <t xml:space="preserve">2.5001904964447</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">2.50726795196533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51788473129272</t>
+    <t xml:space="preserve">2.5178849697113</t>
   </si>
   <si>
     <t xml:space="preserve">2.40994954109192</t>
@@ -1349,10 +1349,10 @@
     <t xml:space="preserve">2.39579439163208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40641117095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55681252479553</t>
+    <t xml:space="preserve">2.40641093254089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55681228637695</t>
   </si>
   <si>
     <t xml:space="preserve">2.52142310142517</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">2.43826103210449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4329526424408</t>
+    <t xml:space="preserve">2.43295240402222</t>
   </si>
   <si>
     <t xml:space="preserve">2.46126294136047</t>
@@ -1373,16 +1373,16 @@
     <t xml:space="preserve">2.47364902496338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49311256408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50549864768982</t>
+    <t xml:space="preserve">2.49311280250549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5054988861084</t>
   </si>
   <si>
     <t xml:space="preserve">2.48957347869873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4913432598114</t>
+    <t xml:space="preserve">2.49134349822998</t>
   </si>
   <si>
     <t xml:space="preserve">2.49488186836243</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">2.35155940055847</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41525816917419</t>
+    <t xml:space="preserve">2.41525793075562</t>
   </si>
   <si>
     <t xml:space="preserve">2.35686683654785</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">2.56742811203003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45595479011536</t>
+    <t xml:space="preserve">2.45595455169678</t>
   </si>
   <si>
     <t xml:space="preserve">2.44533848762512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48249578475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47010970115662</t>
+    <t xml:space="preserve">2.4824960231781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47010946273804</t>
   </si>
   <si>
     <t xml:space="preserve">2.40818023681641</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">2.12330365180969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1586925983429</t>
+    <t xml:space="preserve">2.15869283676147</t>
   </si>
   <si>
     <t xml:space="preserve">2.27901315689087</t>
@@ -1463,10 +1463,10 @@
     <t xml:space="preserve">2.30024600028992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31086206436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29493761062622</t>
+    <t xml:space="preserve">2.31086182594299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29493737220764</t>
   </si>
   <si>
     <t xml:space="preserve">2.29670643806458</t>
@@ -1478,22 +1478,22 @@
     <t xml:space="preserve">2.28432035446167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24008560180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19938921928406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2135443687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22239136695862</t>
+    <t xml:space="preserve">2.24008536338806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19938898086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21354413032532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22239112854004</t>
   </si>
   <si>
     <t xml:space="preserve">2.28785991668701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22062182426453</t>
+    <t xml:space="preserve">2.22062206268311</t>
   </si>
   <si>
     <t xml:space="preserve">2.21531343460083</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">2.36925292015076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31617021560669</t>
+    <t xml:space="preserve">2.31617045402527</t>
   </si>
   <si>
     <t xml:space="preserve">2.24362397193909</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">1.98705852031708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86142981052399</t>
+    <t xml:space="preserve">1.8614296913147</t>
   </si>
   <si>
     <t xml:space="preserve">1.7959611415863</t>
@@ -1550,16 +1550,16 @@
     <t xml:space="preserve">1.72518408298492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72606909275055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59336256980896</t>
+    <t xml:space="preserve">1.72606897354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59336245059967</t>
   </si>
   <si>
     <t xml:space="preserve">1.57389879226685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47923445701599</t>
+    <t xml:space="preserve">1.47923457622528</t>
   </si>
   <si>
     <t xml:space="preserve">1.39518737792969</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">1.36156833171844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34652805328369</t>
+    <t xml:space="preserve">1.34652817249298</t>
   </si>
   <si>
     <t xml:space="preserve">1.32352602481842</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">1.35183656215668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38103199005127</t>
+    <t xml:space="preserve">1.38103210926056</t>
   </si>
   <si>
     <t xml:space="preserve">1.39341819286346</t>
@@ -1592,16 +1592,16 @@
     <t xml:space="preserve">1.39076387882233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35979914665222</t>
+    <t xml:space="preserve">1.35979926586151</t>
   </si>
   <si>
     <t xml:space="preserve">1.35537576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41819036006927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43146049976349</t>
+    <t xml:space="preserve">1.41819024085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4314603805542</t>
   </si>
   <si>
     <t xml:space="preserve">1.3713002204895</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">1.3164484500885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32618033885956</t>
+    <t xml:space="preserve">1.32618021965027</t>
   </si>
   <si>
     <t xml:space="preserve">1.34298980236053</t>
@@ -1646,16 +1646,16 @@
     <t xml:space="preserve">1.42526793479919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39253306388855</t>
+    <t xml:space="preserve">1.39253294467926</t>
   </si>
   <si>
     <t xml:space="preserve">1.42438280582428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32529509067535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31202495098114</t>
+    <t xml:space="preserve">1.32529520988464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31202507019043</t>
   </si>
   <si>
     <t xml:space="preserve">1.13154339790344</t>
@@ -1673,25 +1673,25 @@
     <t xml:space="preserve">0.744925796985626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746694922447205</t>
+    <t xml:space="preserve">0.74669486284256</t>
   </si>
   <si>
     <t xml:space="preserve">0.913020372390747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01476228237152</t>
+    <t xml:space="preserve">1.01476216316223</t>
   </si>
   <si>
     <t xml:space="preserve">1.00414538383484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898865103721619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967872202396393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0006068944931</t>
+    <t xml:space="preserve">0.898865163326263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967872142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00060701370239</t>
   </si>
   <si>
     <t xml:space="preserve">0.973180592060089</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.21559166908264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18020260334015</t>
+    <t xml:space="preserve">1.18020272254944</t>
   </si>
   <si>
     <t xml:space="preserve">1.1642781496048</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">1.19878220558167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16870164871216</t>
+    <t xml:space="preserve">1.16870152950287</t>
   </si>
   <si>
     <t xml:space="preserve">1.09704041481018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07138311862946</t>
+    <t xml:space="preserve">1.07138323783875</t>
   </si>
   <si>
     <t xml:space="preserve">1.07846081256866</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">1.05811297893524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07580745220184</t>
+    <t xml:space="preserve">1.07580757141113</t>
   </si>
   <si>
     <t xml:space="preserve">1.07315325737</t>
@@ -1739,10 +1739,10 @@
     <t xml:space="preserve">1.1465836763382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16693234443665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19435787200928</t>
+    <t xml:space="preserve">1.16693246364594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19435799121857</t>
   </si>
   <si>
     <t xml:space="preserve">1.19612801074982</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">1.20408964157104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17931842803955</t>
+    <t xml:space="preserve">1.17931854724884</t>
   </si>
   <si>
     <t xml:space="preserve">1.16781663894653</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">1.12888920307159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09350109100342</t>
+    <t xml:space="preserve">1.09350121021271</t>
   </si>
   <si>
     <t xml:space="preserve">1.13419759273529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12623584270477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07934582233429</t>
+    <t xml:space="preserve">1.12623596191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07934594154358</t>
   </si>
   <si>
     <t xml:space="preserve">1.09615528583527</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">1.13596773147583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14481437206268</t>
+    <t xml:space="preserve">1.14481449127197</t>
   </si>
   <si>
     <t xml:space="preserve">1.17047071456909</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">1.2987539768219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54824256896973</t>
+    <t xml:space="preserve">1.54824268817902</t>
   </si>
   <si>
     <t xml:space="preserve">1.49958324432373</t>
@@ -1832,19 +1832,19 @@
     <t xml:space="preserve">1.37483942508698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45446336269379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46950280666351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40845835208893</t>
+    <t xml:space="preserve">1.45446348190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4695029258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40845847129822</t>
   </si>
   <si>
     <t xml:space="preserve">1.43057537078857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43499970436096</t>
+    <t xml:space="preserve">1.43499982357025</t>
   </si>
   <si>
     <t xml:space="preserve">1.40757346153259</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">1.50312173366547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5057760477066</t>
+    <t xml:space="preserve">1.50577592849731</t>
   </si>
   <si>
     <t xml:space="preserve">1.50666093826294</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">1.51285350322723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48277390003204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45711660385132</t>
+    <t xml:space="preserve">1.48277401924133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45711672306061</t>
   </si>
   <si>
     <t xml:space="preserve">1.47658038139343</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">1.64290583133698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60397946834564</t>
+    <t xml:space="preserve">1.60397934913635</t>
   </si>
   <si>
     <t xml:space="preserve">1.55797433853149</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">1.50135242938995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51904702186584</t>
+    <t xml:space="preserve">1.51904690265656</t>
   </si>
   <si>
     <t xml:space="preserve">1.47038781642914</t>
@@ -1925,13 +1925,13 @@
     <t xml:space="preserve">1.46507930755615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41111183166504</t>
+    <t xml:space="preserve">1.41111171245575</t>
   </si>
   <si>
     <t xml:space="preserve">1.44826996326447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42969143390656</t>
+    <t xml:space="preserve">1.42969131469727</t>
   </si>
   <si>
     <t xml:space="preserve">1.38014698028564</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">1.40049564838409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39430212974548</t>
+    <t xml:space="preserve">1.39430224895477</t>
   </si>
   <si>
     <t xml:space="preserve">1.37572360038757</t>
@@ -1952,13 +1952,13 @@
     <t xml:space="preserve">1.38810968399048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39695656299591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36864590644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36333763599396</t>
+    <t xml:space="preserve">1.39695644378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36864602565765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36333751678467</t>
   </si>
   <si>
     <t xml:space="preserve">1.32441020011902</t>
@@ -1967,13 +1967,13 @@
     <t xml:space="preserve">1.40580415725708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38899481296539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39784157276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42880606651306</t>
+    <t xml:space="preserve">1.3889946937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39784145355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42880618572235</t>
   </si>
   <si>
     <t xml:space="preserve">1.4261519908905</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">1.29433059692383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2624808549881</t>
+    <t xml:space="preserve">1.26248073577881</t>
   </si>
   <si>
     <t xml:space="preserve">1.43853807449341</t>
@@ -2009,22 +2009,22 @@
     <t xml:space="preserve">1.34918236732483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33591210842133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40491914749146</t>
+    <t xml:space="preserve">1.33591198921204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40491902828217</t>
   </si>
   <si>
     <t xml:space="preserve">1.41730523109436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50931513309479</t>
+    <t xml:space="preserve">1.50931525230408</t>
   </si>
   <si>
     <t xml:space="preserve">1.56947541236877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58451581001282</t>
+    <t xml:space="preserve">1.58451569080353</t>
   </si>
   <si>
     <t xml:space="preserve">1.59159326553345</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">1.62963569164276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64025247097015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58009135723114</t>
+    <t xml:space="preserve">1.64025259017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58009147644043</t>
   </si>
   <si>
     <t xml:space="preserve">1.50046753883362</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">1.50400674343109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45623254776001</t>
+    <t xml:space="preserve">1.4562326669693</t>
   </si>
   <si>
     <t xml:space="preserve">1.42792212963104</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">1.40668821334839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37395441532135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37660872936249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37926304340363</t>
+    <t xml:space="preserve">1.37395453453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3766086101532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37926292419434</t>
   </si>
   <si>
     <t xml:space="preserve">1.41199672222137</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">1.46684849262238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47127294540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46154117584229</t>
+    <t xml:space="preserve">1.47127282619476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.461541056633</t>
   </si>
   <si>
     <t xml:space="preserve">1.53851068019867</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">1.57655310630798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58539986610413</t>
+    <t xml:space="preserve">1.58539974689484</t>
   </si>
   <si>
     <t xml:space="preserve">1.58982312679291</t>
@@ -2132,28 +2132,28 @@
     <t xml:space="preserve">1.47392618656158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49338984489441</t>
+    <t xml:space="preserve">1.49338972568512</t>
   </si>
   <si>
     <t xml:space="preserve">1.49162077903748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51373851299286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49073553085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.412881731987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40403413772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41642010211945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44207727909088</t>
+    <t xml:space="preserve">1.51373863220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49073565006256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41288185119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40403401851654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41642022132874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44207739830017</t>
   </si>
   <si>
     <t xml:space="preserve">1.45003914833069</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">1.5526659488678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55885851383209</t>
+    <t xml:space="preserve">1.5588583946228</t>
   </si>
   <si>
     <t xml:space="preserve">1.55178081989288</t>
@@ -2180,13 +2180,13 @@
     <t xml:space="preserve">1.60132527351379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55708932876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58097648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61282634735107</t>
+    <t xml:space="preserve">1.55708944797516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58097636699677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61282622814178</t>
   </si>
   <si>
     <t xml:space="preserve">1.63140487670898</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">1.68714165687561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72872316837311</t>
+    <t xml:space="preserve">1.7287232875824</t>
   </si>
   <si>
     <t xml:space="preserve">1.67829477787018</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">1.65263772010803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63317406177521</t>
+    <t xml:space="preserve">1.63317394256592</t>
   </si>
   <si>
     <t xml:space="preserve">1.65086853504181</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">1.65883111953735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65971529483795</t>
+    <t xml:space="preserve">1.65971517562866</t>
   </si>
   <si>
     <t xml:space="preserve">1.68094897270203</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">1.8437352180481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80834722518921</t>
+    <t xml:space="preserve">1.80834710597992</t>
   </si>
   <si>
     <t xml:space="preserve">1.82073330879211</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">1.70395112037659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78534412384033</t>
+    <t xml:space="preserve">1.78534424304962</t>
   </si>
   <si>
     <t xml:space="preserve">1.76941967010498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78711438179016</t>
+    <t xml:space="preserve">1.78711426258087</t>
   </si>
   <si>
     <t xml:space="preserve">1.77472817897797</t>
@@ -2288,19 +2288,19 @@
     <t xml:space="preserve">1.78003668785095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71279776096344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71102869510651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72076058387756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70572030544281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73757004737854</t>
+    <t xml:space="preserve">1.71279788017273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7110288143158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72076046466827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7057204246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73757016658783</t>
   </si>
   <si>
     <t xml:space="preserve">1.71987557411194</t>
@@ -2309,22 +2309,22 @@
     <t xml:space="preserve">1.7048362493515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67121732234955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68537259101868</t>
+    <t xml:space="preserve">1.67121744155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68537247180939</t>
   </si>
   <si>
     <t xml:space="preserve">1.65440785884857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68625664710999</t>
+    <t xml:space="preserve">1.6862565279007</t>
   </si>
   <si>
     <t xml:space="preserve">1.68979585170746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67652463912964</t>
+    <t xml:space="preserve">1.67652475833893</t>
   </si>
   <si>
     <t xml:space="preserve">1.6986426115036</t>
@@ -2333,10 +2333,10 @@
     <t xml:space="preserve">1.69510424137115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67917907238007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63671326637268</t>
+    <t xml:space="preserve">1.67917895317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63671338558197</t>
   </si>
   <si>
     <t xml:space="preserve">1.6384824514389</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">1.67033219337463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.522585272789</t>
+    <t xml:space="preserve">1.52258539199829</t>
   </si>
   <si>
     <t xml:space="preserve">1.58274567127228</t>
@@ -2369,13 +2369,13 @@
     <t xml:space="preserve">1.63936746120453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60663270950317</t>
+    <t xml:space="preserve">1.60663259029388</t>
   </si>
   <si>
     <t xml:space="preserve">1.59867095947266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57035946846008</t>
+    <t xml:space="preserve">1.57035958766937</t>
   </si>
   <si>
     <t xml:space="preserve">1.33945035934448</t>
@@ -2390,16 +2390,16 @@
     <t xml:space="preserve">1.23593950271606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20320558547974</t>
+    <t xml:space="preserve">1.20320546627045</t>
   </si>
   <si>
     <t xml:space="preserve">1.08819258213043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988221049308777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822779536247253</t>
+    <t xml:space="preserve">0.988220989704132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822779595851898</t>
   </si>
   <si>
     <t xml:space="preserve">0.761735200881958</t>
@@ -2408,40 +2408,40 @@
     <t xml:space="preserve">0.736963093280792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579042315483093</t>
+    <t xml:space="preserve">0.579042375087738</t>
   </si>
   <si>
     <t xml:space="preserve">0.649819433689117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.55028885602951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.634779155254364</t>
+    <t xml:space="preserve">0.550288915634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634779095649719</t>
   </si>
   <si>
     <t xml:space="preserve">0.714845180511475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767927765846252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743155658245087</t>
+    <t xml:space="preserve">0.767927825450897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.743155598640442</t>
   </si>
   <si>
     <t xml:space="preserve">0.675033628940582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722807884216309</t>
+    <t xml:space="preserve">0.722807824611664</t>
   </si>
   <si>
     <t xml:space="preserve">0.72059565782547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728558301925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698920786380768</t>
+    <t xml:space="preserve">0.728558361530304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698920726776123</t>
   </si>
   <si>
     <t xml:space="preserve">0.681668281555176</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">0.664416790008545</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610892176628113</t>
+    <t xml:space="preserve">0.610892117023468</t>
   </si>
   <si>
     <t xml:space="preserve">0.654684901237488</t>
@@ -2465,10 +2465,10 @@
     <t xml:space="preserve">0.699804842472076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.684765458106995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.689188838005066</t>
+    <t xml:space="preserve">0.684765517711639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.689188897609711</t>
   </si>
   <si>
     <t xml:space="preserve">0.675917744636536</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">0.646280169487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.641414761543274</t>
+    <t xml:space="preserve">0.641414701938629</t>
   </si>
   <si>
     <t xml:space="preserve">0.647165298461914</t>
@@ -2498,10 +2498,10 @@
     <t xml:space="preserve">0.690072953701019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.716614365577698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693612277507782</t>
+    <t xml:space="preserve">0.716614305973053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693612337112427</t>
   </si>
   <si>
     <t xml:space="preserve">0.680341184139252</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">0.679457068443298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.694497406482697</t>
+    <t xml:space="preserve">0.694497346878052</t>
   </si>
   <si>
     <t xml:space="preserve">0.677687883377075</t>
@@ -2522,19 +2522,19 @@
     <t xml:space="preserve">0.70776754617691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688745856285095</t>
+    <t xml:space="preserve">0.68874591588974</t>
   </si>
   <si>
     <t xml:space="preserve">0.663531720638275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.645838141441345</t>
+    <t xml:space="preserve">0.6458380818367</t>
   </si>
   <si>
     <t xml:space="preserve">0.641856729984283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.667070925235748</t>
+    <t xml:space="preserve">0.667070984840393</t>
   </si>
   <si>
     <t xml:space="preserve">0.632125020027161</t>
@@ -2546,19 +2546,19 @@
     <t xml:space="preserve">0.616200625896454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60823792219162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.637433350086212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.667956054210663</t>
+    <t xml:space="preserve">0.608237862586975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637433409690857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667955994606018</t>
   </si>
   <si>
     <t xml:space="preserve">0.769254863262177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836050689220428</t>
+    <t xml:space="preserve">0.836050748825073</t>
   </si>
   <si>
     <t xml:space="preserve">0.808182299137115</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">0.88470983505249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954602062702179</t>
+    <t xml:space="preserve">0.954602003097534</t>
   </si>
   <si>
     <t xml:space="preserve">0.964333832263947</t>
@@ -2585,16 +2585,16 @@
     <t xml:space="preserve">1.07049906253815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0262633562088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929829776287079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979373157024384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980258285999298</t>
+    <t xml:space="preserve">1.02626323699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929829835891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979373097419739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980258345603943</t>
   </si>
   <si>
     <t xml:space="preserve">0.993529260158539</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">0.946639358997345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948408484458923</t>
+    <t xml:space="preserve">0.948408424854279</t>
   </si>
   <si>
     <t xml:space="preserve">0.872323870658875</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">0.873650908470154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.85374528169632</t>
+    <t xml:space="preserve">0.853745222091675</t>
   </si>
   <si>
     <t xml:space="preserve">0.832069337368011</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">0.849763870239258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844897449016571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849320888519287</t>
+    <t xml:space="preserve">0.844897508621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849320948123932</t>
   </si>
   <si>
     <t xml:space="preserve">0.845782577991486</t>
@@ -2648,22 +2648,22 @@
     <t xml:space="preserve">0.811720609664917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870111644268036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842686295509338</t>
+    <t xml:space="preserve">0.870111703872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842686235904694</t>
   </si>
   <si>
     <t xml:space="preserve">0.91478955745697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905942738056183</t>
+    <t xml:space="preserve">0.905942797660828</t>
   </si>
   <si>
     <t xml:space="preserve">0.894441723823547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908596992492676</t>
+    <t xml:space="preserve">0.908596932888031</t>
   </si>
   <si>
     <t xml:space="preserve">0.885594069957733</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.888248264789581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847551763057709</t>
+    <t xml:space="preserve">0.847551703453064</t>
   </si>
   <si>
     <t xml:space="preserve">0.819683253765106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836492776870728</t>
+    <t xml:space="preserve">0.836492717266083</t>
   </si>
   <si>
     <t xml:space="preserve">0.817472100257874</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">0.857725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84710967540741</t>
+    <t xml:space="preserve">0.847109615802765</t>
   </si>
   <si>
     <t xml:space="preserve">0.826318860054016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816587030887604</t>
+    <t xml:space="preserve">0.816586971282959</t>
   </si>
   <si>
     <t xml:space="preserve">0.784737229347229</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">0.722365736961365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728116273880005</t>
+    <t xml:space="preserve">0.72811633348465</t>
   </si>
   <si>
     <t xml:space="preserve">0.725904107093811</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">0.717941462993622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735635995864868</t>
+    <t xml:space="preserve">0.735635936260223</t>
   </si>
   <si>
     <t xml:space="preserve">0.738732278347015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.745367765426636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.739617228507996</t>
+    <t xml:space="preserve">0.745367825031281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73961728811264</t>
   </si>
   <si>
     <t xml:space="preserve">0.76394647359848</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">0.763062357902527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786506414413452</t>
+    <t xml:space="preserve">0.786506354808807</t>
   </si>
   <si>
     <t xml:space="preserve">0.813047766685486</t>
@@ -2789,10 +2789,10 @@
     <t xml:space="preserve">0.757311820983887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828088045120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.801989734172821</t>
+    <t xml:space="preserve">0.828087985515594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.801989674568176</t>
   </si>
   <si>
     <t xml:space="preserve">0.824991762638092</t>
@@ -2801,10 +2801,10 @@
     <t xml:space="preserve">0.843570351600647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874093055725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900634288787842</t>
+    <t xml:space="preserve">0.874092996120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900634229183197</t>
   </si>
   <si>
     <t xml:space="preserve">0.911251187324524</t>
@@ -2816,13 +2816,13 @@
     <t xml:space="preserve">0.909481108188629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893556654453278</t>
+    <t xml:space="preserve">0.893556594848633</t>
   </si>
   <si>
     <t xml:space="preserve">0.923637270927429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90240353345871</t>
+    <t xml:space="preserve">0.902403473854065</t>
   </si>
   <si>
     <t xml:space="preserve">0.905057668685913</t>
@@ -2831,10 +2831,10 @@
     <t xml:space="preserve">0.860822856426239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855514347553253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861264944076538</t>
+    <t xml:space="preserve">0.855514407157898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861264884471893</t>
   </si>
   <si>
     <t xml:space="preserve">0.877632260322571</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">0.693170249462128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671494364738464</t>
+    <t xml:space="preserve">0.671494424343109</t>
   </si>
   <si>
     <t xml:space="preserve">0.683438420295715</t>
@@ -2885,13 +2885,13 @@
     <t xml:space="preserve">0.906827747821808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895325839519501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928944826126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95371687412262</t>
+    <t xml:space="preserve">0.895325899124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928944766521454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953716933727264</t>
   </si>
   <si>
     <t xml:space="preserve">0.942215919494629</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">0.939561665058136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943100988864899</t>
+    <t xml:space="preserve">0.943101048469543</t>
   </si>
   <si>
     <t xml:space="preserve">0.933369100093842</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">0.95814037322998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945754170417786</t>
+    <t xml:space="preserve">0.94575423002243</t>
   </si>
   <si>
     <t xml:space="preserve">0.955486118793488</t>
@@ -2918,10 +2918,10 @@
     <t xml:space="preserve">0.934253215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919212877750397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890902459621429</t>
+    <t xml:space="preserve">0.919212937355042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890902519226074</t>
   </si>
   <si>
     <t xml:space="preserve">0.889133274555206</t>
@@ -2933,37 +2933,37 @@
     <t xml:space="preserve">0.890018343925476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910366117954254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959025382995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899749279022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924521386623383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959910452365875</t>
+    <t xml:space="preserve">0.910366177558899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959025323390961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899749338626862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924521327018738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95991051197052</t>
   </si>
   <si>
     <t xml:space="preserve">0.999721884727478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01033890247345</t>
+    <t xml:space="preserve">1.01033878326416</t>
   </si>
   <si>
     <t xml:space="preserve">1.01387715339661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02272486686707</t>
+    <t xml:space="preserve">1.02272498607635</t>
   </si>
   <si>
     <t xml:space="preserve">1.03599500656128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01830053329468</t>
+    <t xml:space="preserve">1.01830065250397</t>
   </si>
   <si>
     <t xml:space="preserve">0.98999011516571</t>
@@ -2975,16 +2975,16 @@
     <t xml:space="preserve">0.926290512084961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90328848361969</t>
+    <t xml:space="preserve">0.903288543224335</t>
   </si>
   <si>
     <t xml:space="preserve">0.918328821659088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.930714905261993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960794568061829</t>
+    <t xml:space="preserve">0.930714845657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960794627666473</t>
   </si>
   <si>
     <t xml:space="preserve">0.986451804637909</t>
@@ -2993,40 +2993,40 @@
     <t xml:space="preserve">0.975834786891937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982027471065521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966988086700439</t>
+    <t xml:space="preserve">0.982027411460876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966988027095795</t>
   </si>
   <si>
     <t xml:space="preserve">1.00326120853424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952831923961639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98468154668808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994413614273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992644309997559</t>
+    <t xml:space="preserve">0.952831864356995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984681606292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994413495063782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992644250392914</t>
   </si>
   <si>
     <t xml:space="preserve">0.9979527592659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99706768989563</t>
+    <t xml:space="preserve">0.997067749500275</t>
   </si>
   <si>
     <t xml:space="preserve">1.00237619876862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990875124931335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03334081172943</t>
+    <t xml:space="preserve">0.990875244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03334069252014</t>
   </si>
   <si>
     <t xml:space="preserve">1.21470654010773</t>
@@ -3044,22 +3044,22 @@
     <t xml:space="preserve">1.22620761394501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24124789237976</t>
+    <t xml:space="preserve">1.24124801158905</t>
   </si>
   <si>
     <t xml:space="preserve">1.20585989952087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17489421367645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1766642332077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17224085330963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17754852771759</t>
+    <t xml:space="preserve">1.17489409446716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17666435241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17224097251892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1775484085083</t>
   </si>
   <si>
     <t xml:space="preserve">1.19789719581604</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">1.45357835292816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52435553073883</t>
+    <t xml:space="preserve">1.52435541152954</t>
   </si>
   <si>
     <t xml:space="preserve">1.52170121669769</t>
@@ -3098,16 +3098,16 @@
     <t xml:space="preserve">1.48985159397125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49515986442566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48011982440948</t>
+    <t xml:space="preserve">1.49515998363495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4801197052002</t>
   </si>
   <si>
     <t xml:space="preserve">1.52347040176392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56416690349579</t>
+    <t xml:space="preserve">1.56416702270508</t>
   </si>
   <si>
     <t xml:space="preserve">1.54558825492859</t>
@@ -3122,28 +3122,28 @@
     <t xml:space="preserve">1.56859040260315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49692916870117</t>
+    <t xml:space="preserve">1.49692904949188</t>
   </si>
   <si>
     <t xml:space="preserve">1.51019930839539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68183326721191</t>
+    <t xml:space="preserve">1.68183314800262</t>
   </si>
   <si>
     <t xml:space="preserve">1.64202165603638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72252988815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70749056339264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71633732318878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71545207500458</t>
+    <t xml:space="preserve">1.72252976894379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70749044418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71633720397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71545219421387</t>
   </si>
   <si>
     <t xml:space="preserve">1.7234148979187</t>
@@ -3161,16 +3161,16 @@
     <t xml:space="preserve">1.42261362075806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43676888942719</t>
+    <t xml:space="preserve">1.4367687702179</t>
   </si>
   <si>
     <t xml:space="preserve">1.43942320346832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44561576843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48572742938995</t>
+    <t xml:space="preserve">1.44561564922333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48572754859924</t>
   </si>
   <si>
     <t xml:space="preserve">1.51951539516449</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">1.47634184360504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47446501255035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41252052783966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53359365463257</t>
+    <t xml:space="preserve">1.47446489334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41252040863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53359353542328</t>
   </si>
   <si>
     <t xml:space="preserve">1.57864415645599</t>
@@ -3215,13 +3215,13 @@
     <t xml:space="preserve">1.62932586669922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65091264247894</t>
+    <t xml:space="preserve">1.65091252326965</t>
   </si>
   <si>
     <t xml:space="preserve">1.66968369483948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71004140377045</t>
+    <t xml:space="preserve">1.71004152297974</t>
   </si>
   <si>
     <t xml:space="preserve">1.70159435272217</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">1.67719197273254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60867774486542</t>
+    <t xml:space="preserve">1.60867786407471</t>
   </si>
   <si>
     <t xml:space="preserve">1.61055493354797</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">1.58145976066589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58615267276764</t>
+    <t xml:space="preserve">1.58615255355835</t>
   </si>
   <si>
     <t xml:space="preserve">1.61524760723114</t>
@@ -3275,7 +3275,7 @@
     <t xml:space="preserve">1.62087893486023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64528131484985</t>
+    <t xml:space="preserve">1.64528119564056</t>
   </si>
   <si>
     <t xml:space="preserve">1.7353823184967</t>
@@ -3317,16 +3317,16 @@
     <t xml:space="preserve">2.01788640022278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00850081443787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10047912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15679216384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21498227119446</t>
+    <t xml:space="preserve">2.00850105285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10047888755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1567919254303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21498203277588</t>
   </si>
   <si>
     <t xml:space="preserve">2.29945206642151</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">2.07795381546021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06105971336365</t>
+    <t xml:space="preserve">2.06105995178223</t>
   </si>
   <si>
     <t xml:space="preserve">2.13802123069763</t>
@@ -3353,7 +3353,7 @@
     <t xml:space="preserve">2.1980881690979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22999906539917</t>
+    <t xml:space="preserve">2.22999882698059</t>
   </si>
   <si>
     <t xml:space="preserve">2.26378703117371</t>
@@ -3362,16 +3362,16 @@
     <t xml:space="preserve">2.25252437591553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.306960105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29194355010986</t>
+    <t xml:space="preserve">2.30696034431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29194331169128</t>
   </si>
   <si>
     <t xml:space="preserve">2.30508327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31071424484253</t>
+    <t xml:space="preserve">2.31071448326111</t>
   </si>
   <si>
     <t xml:space="preserve">2.37641334533691</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">2.44211173057556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42146348953247</t>
+    <t xml:space="preserve">2.42146372795105</t>
   </si>
   <si>
     <t xml:space="preserve">2.45712876319885</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">2.56036925315857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59040307998657</t>
+    <t xml:space="preserve">2.59040284156799</t>
   </si>
   <si>
     <t xml:space="preserve">2.52470469474792</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">2.6617329120636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65797853469849</t>
+    <t xml:space="preserve">2.65797877311707</t>
   </si>
   <si>
     <t xml:space="preserve">2.57538628578186</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">2.53784394264221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47777676582336</t>
+    <t xml:space="preserve">2.47777700424194</t>
   </si>
   <si>
     <t xml:space="preserve">2.51907300949097</t>
@@ -3446,13 +3446,13 @@
     <t xml:space="preserve">2.53033590316772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62606811523438</t>
+    <t xml:space="preserve">2.6260678768158</t>
   </si>
   <si>
     <t xml:space="preserve">2.63920783996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71241474151611</t>
+    <t xml:space="preserve">2.71241497993469</t>
   </si>
   <si>
     <t xml:space="preserve">2.81377840042114</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">2.81002426147461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74995684623718</t>
+    <t xml:space="preserve">2.7499566078186</t>
   </si>
   <si>
     <t xml:space="preserve">2.67299556732178</t>
@@ -3494,13 +3494,13 @@
     <t xml:space="preserve">2.44586586952209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41395545005798</t>
+    <t xml:space="preserve">2.4139552116394</t>
   </si>
   <si>
     <t xml:space="preserve">2.42334079742432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40269255638123</t>
+    <t xml:space="preserve">2.40269231796265</t>
   </si>
   <si>
     <t xml:space="preserve">2.50593328475952</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">2.44398903846741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3726589679718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27692699432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28818941116333</t>
+    <t xml:space="preserve">2.37265920639038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27692675590515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28818917274475</t>
   </si>
   <si>
     <t xml:space="preserve">2.30320596694946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26566410064697</t>
+    <t xml:space="preserve">2.26566386222839</t>
   </si>
   <si>
     <t xml:space="preserve">2.28443503379822</t>
@@ -3530,16 +3530,16 @@
     <t xml:space="preserve">2.17931723594666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29757452011108</t>
+    <t xml:space="preserve">2.29757475852966</t>
   </si>
   <si>
     <t xml:space="preserve">2.32573127746582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26190996170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53408980369568</t>
+    <t xml:space="preserve">2.26190972328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53409004211426</t>
   </si>
   <si>
     <t xml:space="preserve">2.53596687316895</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">2.11174154281616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24689292907715</t>
+    <t xml:space="preserve">2.24689316749573</t>
   </si>
   <si>
     <t xml:space="preserve">2.24501585960388</t>
@@ -3578,13 +3578,13 @@
     <t xml:space="preserve">2.04604291915894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13426661491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12300395965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97846722602844</t>
+    <t xml:space="preserve">2.13426685333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12300419807434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97846710681915</t>
   </si>
   <si>
     <t xml:space="preserve">2.01413202285767</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">1.91276872158051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74289083480835</t>
+    <t xml:space="preserve">1.74289071559906</t>
   </si>
   <si>
     <t xml:space="preserve">1.6556054353714</t>
@@ -3608,7 +3608,7 @@
     <t xml:space="preserve">1.6734379529953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68939316272736</t>
+    <t xml:space="preserve">1.68939328193665</t>
   </si>
   <si>
     <t xml:space="preserve">1.75790750980377</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">1.85927104949951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83956146240234</t>
+    <t xml:space="preserve">1.83956158161163</t>
   </si>
   <si>
     <t xml:space="preserve">1.83674585819244</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">1.77855563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83017611503601</t>
+    <t xml:space="preserve">1.83017599582672</t>
   </si>
   <si>
     <t xml:space="preserve">1.9747132062912</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">1.86677944660187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83111464977264</t>
+    <t xml:space="preserve">1.83111453056335</t>
   </si>
   <si>
     <t xml:space="preserve">1.76917016506195</t>
@@ -3677,13 +3677,13 @@
     <t xml:space="preserve">1.80108094215393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77761709690094</t>
+    <t xml:space="preserve">1.77761721611023</t>
   </si>
   <si>
     <t xml:space="preserve">1.72599673271179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73632097244263</t>
+    <t xml:space="preserve">1.73632085323334</t>
   </si>
   <si>
     <t xml:space="preserve">1.72693526744843</t>
@@ -3698,10 +3698,10 @@
     <t xml:space="preserve">1.64246571063995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5495491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56644284725189</t>
+    <t xml:space="preserve">1.54954898357391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56644296646118</t>
   </si>
   <si>
     <t xml:space="preserve">1.63308012485504</t>
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">1.68376195430756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74195218086243</t>
+    <t xml:space="preserve">1.74195206165314</t>
   </si>
   <si>
     <t xml:space="preserve">1.70253300666809</t>
@@ -3722,13 +3722,13 @@
     <t xml:space="preserve">1.69502449035645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61618614196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61149346828461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72787380218506</t>
+    <t xml:space="preserve">1.61618626117706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61149334907532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72787392139435</t>
   </si>
   <si>
     <t xml:space="preserve">1.74476766586304</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">1.82454478740692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79075682163239</t>
+    <t xml:space="preserve">1.79075694084167</t>
   </si>
   <si>
     <t xml:space="preserve">1.8179749250412</t>
@@ -3764,10 +3764,10 @@
     <t xml:space="preserve">1.54204058647156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50262141227722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55171406269073</t>
+    <t xml:space="preserve">1.50262129306793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55171418190002</t>
   </si>
   <si>
     <t xml:space="preserve">1.56422793865204</t>
@@ -3779,16 +3779,16 @@
     <t xml:space="preserve">1.54401326179504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56326532363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52187347412109</t>
+    <t xml:space="preserve">1.56326520442963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5218733549118</t>
   </si>
   <si>
     <t xml:space="preserve">1.56134009361267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56904089450836</t>
+    <t xml:space="preserve">1.56904101371765</t>
   </si>
   <si>
     <t xml:space="preserve">1.4978084564209</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">1.46026682853699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37844574451447</t>
+    <t xml:space="preserve">1.37844586372375</t>
   </si>
   <si>
     <t xml:space="preserve">1.40636122226715</t>
@@ -3818,10 +3818,10 @@
     <t xml:space="preserve">1.39288485050201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36015641689301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35534334182739</t>
+    <t xml:space="preserve">1.36015629768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3553432226181</t>
   </si>
   <si>
     <t xml:space="preserve">1.38614666461945</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">1.43812704086304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43716442584991</t>
+    <t xml:space="preserve">1.4371645450592</t>
   </si>
   <si>
     <t xml:space="preserve">1.37363278865814</t>
@@ -3857,13 +3857,13 @@
     <t xml:space="preserve">1.51128482818604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48433208465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52957427501678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55652713775635</t>
+    <t xml:space="preserve">1.48433196544647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5295741558075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55652701854706</t>
   </si>
   <si>
     <t xml:space="preserve">1.545938372612</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">1.58347988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57674169540405</t>
+    <t xml:space="preserve">1.57674181461334</t>
   </si>
   <si>
     <t xml:space="preserve">1.60561978816986</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">1.49492049217224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42657589912415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42272543907166</t>
+    <t xml:space="preserve">1.42657577991486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42272555828094</t>
   </si>
   <si>
     <t xml:space="preserve">1.45449137687683</t>
@@ -3914,16 +3914,16 @@
     <t xml:space="preserve">1.44293999671936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47470581531525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41502463817596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43235158920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45064091682434</t>
+    <t xml:space="preserve">1.47470593452454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41502475738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43235146999359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45064079761505</t>
   </si>
   <si>
     <t xml:space="preserve">1.44005239009857</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">1.51994824409485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50069618225098</t>
+    <t xml:space="preserve">1.50069630146027</t>
   </si>
   <si>
     <t xml:space="preserve">1.55556452274323</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">1.49588322639465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4814441204071</t>
+    <t xml:space="preserve">1.48144423961639</t>
   </si>
   <si>
     <t xml:space="preserve">1.80680358409882</t>
@@ -3956,19 +3956,19 @@
     <t xml:space="preserve">1.67781496047974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.672039270401</t>
+    <t xml:space="preserve">1.67203938961029</t>
   </si>
   <si>
     <t xml:space="preserve">1.68551576137543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6556750535965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58829295635223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64989936351776</t>
+    <t xml:space="preserve">1.65567517280579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58829283714294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64989948272705</t>
   </si>
   <si>
     <t xml:space="preserve">1.64412379264832</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">1.62390923500061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68936610221863</t>
+    <t xml:space="preserve">1.68936622142792</t>
   </si>
   <si>
     <t xml:space="preserve">1.68840348720551</t>
@@ -4007,22 +4007,22 @@
     <t xml:space="preserve">1.75674831867218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75771081447601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76926219463348</t>
+    <t xml:space="preserve">1.7577109336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76926207542419</t>
   </si>
   <si>
     <t xml:space="preserve">1.86744749546051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89825081825256</t>
+    <t xml:space="preserve">1.89825069904327</t>
   </si>
   <si>
     <t xml:space="preserve">1.89440035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83279395103455</t>
+    <t xml:space="preserve">1.83279383182526</t>
   </si>
   <si>
     <t xml:space="preserve">1.81931746006012</t>
@@ -4031,31 +4031,31 @@
     <t xml:space="preserve">1.82894337177277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87611079216003</t>
+    <t xml:space="preserve">1.87611091136932</t>
   </si>
   <si>
     <t xml:space="preserve">1.83375644683838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8549337387085</t>
+    <t xml:space="preserve">1.85493361949921</t>
   </si>
   <si>
     <t xml:space="preserve">1.89343774318695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95793211460114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97718393802643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98295950889587</t>
+    <t xml:space="preserve">1.95793187618256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97718405723572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98295962810516</t>
   </si>
   <si>
     <t xml:space="preserve">2.01183772087097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04841685295105</t>
+    <t xml:space="preserve">2.04841661453247</t>
   </si>
   <si>
     <t xml:space="preserve">2.05996775627136</t>
@@ -4082,16 +4082,16 @@
     <t xml:space="preserve">2.09077095985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10809803009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16585421562195</t>
+    <t xml:space="preserve">2.10809779167175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16585397720337</t>
   </si>
   <si>
     <t xml:space="preserve">2.26018905639648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2813663482666</t>
+    <t xml:space="preserve">2.28136610984802</t>
   </si>
   <si>
     <t xml:space="preserve">2.24863767623901</t>
@@ -4109,13 +4109,13 @@
     <t xml:space="preserve">2.23516130447388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2274603843689</t>
+    <t xml:space="preserve">2.22746062278748</t>
   </si>
   <si>
     <t xml:space="preserve">2.22553539276123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09269642829895</t>
+    <t xml:space="preserve">2.09269618988037</t>
   </si>
   <si>
     <t xml:space="preserve">2.14082646369934</t>
@@ -4124,10 +4124,10 @@
     <t xml:space="preserve">1.96178257465363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00221157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02531433105469</t>
+    <t xml:space="preserve">2.00221180915833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02531409263611</t>
   </si>
   <si>
     <t xml:space="preserve">2.04071569442749</t>
@@ -4145,19 +4145,19 @@
     <t xml:space="preserve">2.02723932266235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07922005653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08499526977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15237784385681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18125581741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22938585281372</t>
+    <t xml:space="preserve">2.07921981811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08499550819397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15237760543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18125557899475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22938561439514</t>
   </si>
   <si>
     <t xml:space="preserve">2.25441336631775</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">2.1389012336731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19473218917847</t>
+    <t xml:space="preserve">2.19473195075989</t>
   </si>
   <si>
     <t xml:space="preserve">2.18510603904724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15815329551697</t>
+    <t xml:space="preserve">2.15815353393555</t>
   </si>
   <si>
     <t xml:space="preserve">2.12157440185547</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">2.13697600364685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11964893341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40842962265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38147664070129</t>
+    <t xml:space="preserve">2.11964917182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40842986106873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38147687911987</t>
   </si>
   <si>
     <t xml:space="preserve">2.45463442802429</t>
@@ -4208,31 +4208,31 @@
     <t xml:space="preserve">2.47003602981567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51239037513733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55859565734863</t>
+    <t xml:space="preserve">2.51239061355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55859541893005</t>
   </si>
   <si>
     <t xml:space="preserve">2.51624131202698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55089473724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53934359550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52971768379211</t>
+    <t xml:space="preserve">2.55089497566223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53934335708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52971744537354</t>
   </si>
   <si>
     <t xml:space="preserve">2.53356790542603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49698901176453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48351240158081</t>
+    <t xml:space="preserve">2.49698925018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48351263999939</t>
   </si>
   <si>
     <t xml:space="preserve">2.44308352470398</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">2.31409478187561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36415004730225</t>
+    <t xml:space="preserve">2.36415028572083</t>
   </si>
   <si>
     <t xml:space="preserve">2.31216955184937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26981520652771</t>
+    <t xml:space="preserve">2.26981496810913</t>
   </si>
   <si>
     <t xml:space="preserve">2.33527207374573</t>
@@ -4286,16 +4286,16 @@
     <t xml:space="preserve">2.33719706535339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29869318008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26596450805664</t>
+    <t xml:space="preserve">2.29869294166565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26596474647522</t>
   </si>
   <si>
     <t xml:space="preserve">2.27366542816162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27559065818787</t>
+    <t xml:space="preserve">2.27559089660645</t>
   </si>
   <si>
     <t xml:space="preserve">2.3256459236145</t>
@@ -4304,16 +4304,16 @@
     <t xml:space="preserve">2.31987047195435</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40265417098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37955141067505</t>
+    <t xml:space="preserve">2.40265393257141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37955164909363</t>
   </si>
   <si>
     <t xml:space="preserve">2.37570118904114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38532733917236</t>
+    <t xml:space="preserve">2.38532710075378</t>
   </si>
   <si>
     <t xml:space="preserve">2.43730783462524</t>
@@ -4328,16 +4328,16 @@
     <t xml:space="preserve">2.62597751617432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59324932098389</t>
+    <t xml:space="preserve">2.59324908256531</t>
   </si>
   <si>
     <t xml:space="preserve">2.63560366630554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61442637443542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61827707290649</t>
+    <t xml:space="preserve">2.614426612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61827683448792</t>
   </si>
   <si>
     <t xml:space="preserve">2.60480070114136</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">2.60287523269653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5778477191925</t>
+    <t xml:space="preserve">2.57784748077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.66255664825439</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">2.61635160446167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54319405555725</t>
+    <t xml:space="preserve">2.54319381713867</t>
   </si>
   <si>
     <t xml:space="preserve">2.50661516189575</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">2.40457916259766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35837459564209</t>
+    <t xml:space="preserve">2.35837435722351</t>
   </si>
   <si>
     <t xml:space="preserve">2.43923282623291</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">2.46233558654785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46811079978943</t>
+    <t xml:space="preserve">2.46811103820801</t>
   </si>
   <si>
     <t xml:space="preserve">2.43538236618042</t>
@@ -61411,7 +61411,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.649375</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>778835</v>
@@ -61432,6 +61432,32 @@
         <v>1675</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.649537037</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>1115365</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>2.73600006103516</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>2.68600010871887</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>2.68600010871887</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>2.72000002861023</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="1679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1680">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19818115234375</t>
+    <t xml:space="preserve">5.19818162918091</t>
   </si>
   <si>
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05481243133545</t>
+    <t xml:space="preserve">5.05481195449829</t>
   </si>
   <si>
     <t xml:space="preserve">4.91553831100464</t>
@@ -53,31 +53,31 @@
     <t xml:space="preserve">4.79264974594116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87047910690308</t>
+    <t xml:space="preserve">4.87047863006592</t>
   </si>
   <si>
     <t xml:space="preserve">4.80493831634521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9401159286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0998706817627</t>
+    <t xml:space="preserve">4.94011640548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09987020492554</t>
   </si>
   <si>
     <t xml:space="preserve">4.84180498123169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75168657302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78445816040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76397609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38711738586426</t>
+    <t xml:space="preserve">4.75168609619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78445768356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76397562026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3871169090271</t>
   </si>
   <si>
     <t xml:space="preserve">4.36253976821899</t>
@@ -98,28 +98,28 @@
     <t xml:space="preserve">4.65747213363647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58783578872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77626419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73939800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6615686416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69024324417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46494770050049</t>
+    <t xml:space="preserve">4.58783626556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77626466751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73939847946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66156911849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69024229049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46494722366333</t>
   </si>
   <si>
     <t xml:space="preserve">4.16182231903076</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15772581100464</t>
+    <t xml:space="preserve">4.15772533416748</t>
   </si>
   <si>
     <t xml:space="preserve">4.4157919883728</t>
@@ -134,46 +134,46 @@
     <t xml:space="preserve">4.44037008285522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61241388320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60831689834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62879800796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63289403915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40759897232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37482833862305</t>
+    <t xml:space="preserve">4.61241340637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60831642150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62879848480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63289451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4075984954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37482881546021</t>
   </si>
   <si>
     <t xml:space="preserve">4.57964324951172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71072435379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82132387161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86638259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73530197143555</t>
+    <t xml:space="preserve">4.71072483062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82132339477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86638307571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73530244827271</t>
   </si>
   <si>
     <t xml:space="preserve">4.64928007125854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66976165771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52639055252075</t>
+    <t xml:space="preserve">4.66976070404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52639102935791</t>
   </si>
   <si>
     <t xml:space="preserve">4.57145071029663</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">4.25194072723389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22736310958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19459295272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21917009353638</t>
+    <t xml:space="preserve">4.22736263275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19459199905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21917057037354</t>
   </si>
   <si>
     <t xml:space="preserve">4.28880643844604</t>
@@ -203,49 +203,49 @@
     <t xml:space="preserve">4.34615516662598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17820692062378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14953374862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.448561668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29699897766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37073230743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65337657928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88686370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69433927536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64518356323242</t>
+    <t xml:space="preserve">4.1782078742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14953279495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44856119155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29699945449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3707332611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65337562561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88686513900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69433975219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64518308639526</t>
   </si>
   <si>
     <t xml:space="preserve">4.706627368927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62470197677612</t>
+    <t xml:space="preserve">4.62470245361328</t>
   </si>
   <si>
     <t xml:space="preserve">4.66566514968872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69843482971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68614625930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71482038497925</t>
+    <t xml:space="preserve">4.69843530654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68614673614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71481990814209</t>
   </si>
   <si>
     <t xml:space="preserve">4.68204975128174</t>
@@ -254,19 +254,19 @@
     <t xml:space="preserve">4.79674577713013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85409355163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99746370315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0466194152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96878957748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03433036804199</t>
+    <t xml:space="preserve">4.8540940284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99746417999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04661893844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96878910064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03433084487915</t>
   </si>
   <si>
     <t xml:space="preserve">5.06710052490234</t>
@@ -275,16 +275,16 @@
     <t xml:space="preserve">4.91144227981567</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88934373855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91877174377441</t>
+    <t xml:space="preserve">4.88934326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91877222061157</t>
   </si>
   <si>
     <t xml:space="preserve">5.0575065612793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88513994216919</t>
+    <t xml:space="preserve">4.88513946533203</t>
   </si>
   <si>
     <t xml:space="preserve">4.71277236938477</t>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">4.61607837677002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6202826499939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63289546966553</t>
+    <t xml:space="preserve">4.62028217315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63289499282837</t>
   </si>
   <si>
     <t xml:space="preserve">4.78003740310669</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">4.75901699066162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69595575332642</t>
+    <t xml:space="preserve">4.69595527648926</t>
   </si>
   <si>
     <t xml:space="preserve">4.65811967849731</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">4.46893548965454</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07291173934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26713991165161</t>
+    <t xml:space="preserve">4.07291126251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26713943481445</t>
   </si>
   <si>
     <t xml:space="preserve">4.38065052032471</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">4.43950700759888</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39326238632202</t>
+    <t xml:space="preserve">4.39326190948486</t>
   </si>
   <si>
     <t xml:space="preserve">4.24191474914551</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">4.3217921257019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29656839370728</t>
+    <t xml:space="preserve">4.29656791687012</t>
   </si>
   <si>
     <t xml:space="preserve">4.28816032409668</t>
@@ -356,22 +356,22 @@
     <t xml:space="preserve">4.2923641204834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23771142959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17212867736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25032329559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30077171325684</t>
+    <t xml:space="preserve">4.23771190643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17212820053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2503228187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30077219009399</t>
   </si>
   <si>
     <t xml:space="preserve">4.39746618270874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33440494537354</t>
+    <t xml:space="preserve">4.33440542221069</t>
   </si>
   <si>
     <t xml:space="preserve">4.34281301498413</t>
@@ -386,10 +386,10 @@
     <t xml:space="preserve">4.50677251815796</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42269086837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41428232192993</t>
+    <t xml:space="preserve">4.42269039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41428279876709</t>
   </si>
   <si>
     <t xml:space="preserve">4.37644529342651</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">4.43530321121216</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3638334274292</t>
+    <t xml:space="preserve">4.36383390426636</t>
   </si>
   <si>
     <t xml:space="preserve">4.20239686965942</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">4.23350715637207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17044591903687</t>
+    <t xml:space="preserve">4.17044544219971</t>
   </si>
   <si>
     <t xml:space="preserve">4.27134370803833</t>
@@ -425,16 +425,16 @@
     <t xml:space="preserve">4.22930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12840557098389</t>
+    <t xml:space="preserve">4.12840509414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.11999702453613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16203784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33020067214966</t>
+    <t xml:space="preserve">4.16203832626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33020114898682</t>
   </si>
   <si>
     <t xml:space="preserve">4.28395652770996</t>
@@ -446,22 +446,22 @@
     <t xml:space="preserve">4.19062614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49836397171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51518106460571</t>
+    <t xml:space="preserve">4.49836444854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51518058776855</t>
   </si>
   <si>
     <t xml:space="preserve">4.58244562149048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55301713943481</t>
+    <t xml:space="preserve">4.55301666259766</t>
   </si>
   <si>
     <t xml:space="preserve">4.45632362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44791460037231</t>
+    <t xml:space="preserve">4.44791507720947</t>
   </si>
   <si>
     <t xml:space="preserve">4.45211887359619</t>
@@ -473,13 +473,13 @@
     <t xml:space="preserve">4.35122108459473</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31338500976562</t>
+    <t xml:space="preserve">4.31338453292847</t>
   </si>
   <si>
     <t xml:space="preserve">4.27554798126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24611854553223</t>
+    <t xml:space="preserve">4.24611902236938</t>
   </si>
   <si>
     <t xml:space="preserve">4.20407915115356</t>
@@ -491,40 +491,40 @@
     <t xml:space="preserve">4.212486743927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19398880004883</t>
+    <t xml:space="preserve">4.19398927688599</t>
   </si>
   <si>
     <t xml:space="preserve">4.13344955444336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08636426925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18389892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26293611526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1754903793335</t>
+    <t xml:space="preserve">4.08636474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18389940261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26293563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17549085617065</t>
   </si>
   <si>
     <t xml:space="preserve">4.10822486877441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13176870346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1132698059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15363025665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10149908065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15194702148438</t>
+    <t xml:space="preserve">4.13176822662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11327028274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15362977981567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1014986038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15194845199585</t>
   </si>
   <si>
     <t xml:space="preserve">4.18894386291504</t>
@@ -536,49 +536,49 @@
     <t xml:space="preserve">4.18053579330444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10654354095459</t>
+    <t xml:space="preserve">4.10654401779175</t>
   </si>
   <si>
     <t xml:space="preserve">4.15867376327515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14858484268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12672281265259</t>
+    <t xml:space="preserve">4.14858531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12672328948975</t>
   </si>
   <si>
     <t xml:space="preserve">4.20828247070312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27975273132324</t>
+    <t xml:space="preserve">4.27975225448608</t>
   </si>
   <si>
     <t xml:space="preserve">4.37224149703979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33860921859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35963010787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14522123336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15026569366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05609512329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03759717941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01909875869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99891924858093</t>
+    <t xml:space="preserve">4.33860874176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35962963104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14522075653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15026617050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0560941696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03759670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01909828186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99891948699951</t>
   </si>
   <si>
     <t xml:space="preserve">4.06618499755859</t>
@@ -590,28 +590,28 @@
     <t xml:space="preserve">4.02078104019165</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08131980895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13008737564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51938438415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52358865737915</t>
+    <t xml:space="preserve">4.0813193321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13008689880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51938390731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52358818054199</t>
   </si>
   <si>
     <t xml:space="preserve">4.5319972038269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49415969848633</t>
+    <t xml:space="preserve">4.49416017532349</t>
   </si>
   <si>
     <t xml:space="preserve">4.4268946647644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41848659515381</t>
+    <t xml:space="preserve">4.41848611831665</t>
   </si>
   <si>
     <t xml:space="preserve">4.46473169326782</t>
@@ -629,13 +629,13 @@
     <t xml:space="preserve">4.48154783248901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60767078399658</t>
+    <t xml:space="preserve">4.60767030715942</t>
   </si>
   <si>
     <t xml:space="preserve">4.62448644638062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5488133430481</t>
+    <t xml:space="preserve">4.54881286621094</t>
   </si>
   <si>
     <t xml:space="preserve">4.6833438873291</t>
@@ -650,46 +650,46 @@
     <t xml:space="preserve">4.6497106552124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57403707504272</t>
+    <t xml:space="preserve">4.57403755187988</t>
   </si>
   <si>
     <t xml:space="preserve">4.74220085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8346905708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82207775115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75060844421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85150671005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01126194000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97762870788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92717981338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9524040222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89354753494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93558883666992</t>
+    <t xml:space="preserve">4.83469152450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82207822799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75060892105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85150623321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0112624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9776291847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92717933654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95240449905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89354705810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93558835983276</t>
   </si>
   <si>
     <t xml:space="preserve">4.87673091888428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93138408660889</t>
+    <t xml:space="preserve">4.93138360977173</t>
   </si>
   <si>
     <t xml:space="preserve">4.96081304550171</t>
@@ -698,22 +698,22 @@
     <t xml:space="preserve">5.01967000961304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20885324478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17522096633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05330276489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07432222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04489469528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20464897155762</t>
+    <t xml:space="preserve">5.20885372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17522144317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05330228805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07432270050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04489421844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20464944839478</t>
   </si>
   <si>
     <t xml:space="preserve">5.06171131134033</t>
@@ -728,34 +728,34 @@
     <t xml:space="preserve">5.13738489151001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1920371055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24669027328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40644502639771</t>
+    <t xml:space="preserve">5.19203758239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24669075012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40644550323486</t>
   </si>
   <si>
     <t xml:space="preserve">5.36440420150757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30975103378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36019945144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21726179122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22566986083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2971396446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28032302856445</t>
+    <t xml:space="preserve">5.3097505569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36020040512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21726226806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22566938400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29713916778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28032255172729</t>
   </si>
   <si>
     <t xml:space="preserve">5.41905784606934</t>
@@ -767,13 +767,13 @@
     <t xml:space="preserve">5.34338426589966</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42326211929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44007730484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33917951583862</t>
+    <t xml:space="preserve">5.42326164245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44007778167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33917903900146</t>
   </si>
   <si>
     <t xml:space="preserve">5.33077192306519</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">5.3517918586731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26771116256714</t>
+    <t xml:space="preserve">5.26771068572998</t>
   </si>
   <si>
     <t xml:space="preserve">5.23407745361328</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10375118255615</t>
+    <t xml:space="preserve">5.10375165939331</t>
   </si>
   <si>
     <t xml:space="preserve">5.2298731803894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14579248428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19750928878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53366613388062</t>
+    <t xml:space="preserve">5.14579200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19750881195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53366565704346</t>
   </si>
   <si>
     <t xml:space="preserve">5.56383371353149</t>
@@ -818,28 +818,28 @@
     <t xml:space="preserve">5.52504634857178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49056816101074</t>
+    <t xml:space="preserve">5.4905686378479</t>
   </si>
   <si>
     <t xml:space="preserve">5.50780820846558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43885278701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44316148757935</t>
+    <t xml:space="preserve">5.43885231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4431619644165</t>
   </si>
   <si>
     <t xml:space="preserve">5.35265874862671</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29663181304932</t>
+    <t xml:space="preserve">5.29663228988647</t>
   </si>
   <si>
     <t xml:space="preserve">5.36989736557007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39575529098511</t>
+    <t xml:space="preserve">5.39575576782227</t>
   </si>
   <si>
     <t xml:space="preserve">5.42161273956299</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">5.43023347854614</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34834909439087</t>
+    <t xml:space="preserve">5.34834861755371</t>
   </si>
   <si>
     <t xml:space="preserve">5.37851667404175</t>
@@ -863,10 +863,10 @@
     <t xml:space="preserve">5.41299438476562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4517822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39144515991211</t>
+    <t xml:space="preserve">5.45178174972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39144563674927</t>
   </si>
   <si>
     <t xml:space="preserve">5.46901988983154</t>
@@ -887,10 +887,10 @@
     <t xml:space="preserve">5.55521488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55090475082397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40006589889526</t>
+    <t xml:space="preserve">5.55090427398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40006542205811</t>
   </si>
   <si>
     <t xml:space="preserve">5.47764015197754</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">5.30094194412231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27508401870728</t>
+    <t xml:space="preserve">5.27508354187012</t>
   </si>
   <si>
     <t xml:space="preserve">5.31818103790283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40437459945679</t>
+    <t xml:space="preserve">5.40437412261963</t>
   </si>
   <si>
     <t xml:space="preserve">5.49487781524658</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">5.7750096321106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80517768859863</t>
+    <t xml:space="preserve">5.80517721176147</t>
   </si>
   <si>
     <t xml:space="preserve">5.86982345581055</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">5.79224920272827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75346088409424</t>
+    <t xml:space="preserve">5.75346040725708</t>
   </si>
   <si>
     <t xml:space="preserve">5.61555051803589</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">5.82241630554199</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54228496551514</t>
+    <t xml:space="preserve">5.54228544235229</t>
   </si>
   <si>
     <t xml:space="preserve">5.56814289093018</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">5.55952501296997</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40868377685547</t>
+    <t xml:space="preserve">5.40868425369263</t>
   </si>
   <si>
     <t xml:space="preserve">5.46040105819702</t>
@@ -977,10 +977,10 @@
     <t xml:space="preserve">5.36127710342407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24491548538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0423583984375</t>
+    <t xml:space="preserve">5.24491596221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04235887527466</t>
   </si>
   <si>
     <t xml:space="preserve">5.06390810012817</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">4.99064302444458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10269498825073</t>
+    <t xml:space="preserve">5.10269451141357</t>
   </si>
   <si>
     <t xml:space="preserve">5.05959844589233</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">5.02081108093262</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03374052047729</t>
+    <t xml:space="preserve">5.03374004364014</t>
   </si>
   <si>
     <t xml:space="preserve">5.0078821182251</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">5.11562442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08545684814453</t>
+    <t xml:space="preserve">5.08545637130737</t>
   </si>
   <si>
     <t xml:space="preserve">4.93030691146851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01650047302246</t>
+    <t xml:space="preserve">5.01650094985962</t>
   </si>
   <si>
     <t xml:space="preserve">4.98633337020874</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">4.80963516235352</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84842205047607</t>
+    <t xml:space="preserve">4.84842157363892</t>
   </si>
   <si>
     <t xml:space="preserve">4.81825399398804</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">4.78377628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85273218154907</t>
+    <t xml:space="preserve">4.85273265838623</t>
   </si>
   <si>
     <t xml:space="preserve">4.82256412506104</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">4.86997079849243</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94323539733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90013885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88290023803711</t>
+    <t xml:space="preserve">4.94323587417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90013837814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88289976119995</t>
   </si>
   <si>
     <t xml:space="preserve">4.86135149002075</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">5.08114624023438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05097818374634</t>
+    <t xml:space="preserve">5.05097770690918</t>
   </si>
   <si>
     <t xml:space="preserve">4.99495267868042</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">5.15872097015381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18027019500732</t>
+    <t xml:space="preserve">5.18026971817017</t>
   </si>
   <si>
     <t xml:space="preserve">5.33541917800903</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">5.26215410232544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11131477355957</t>
+    <t xml:space="preserve">5.11131525039673</t>
   </si>
   <si>
     <t xml:space="preserve">4.93892621994019</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">4.75360918045044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7406792640686</t>
+    <t xml:space="preserve">4.74067974090576</t>
   </si>
   <si>
     <t xml:space="preserve">4.76222801208496</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">4.73205995559692</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69758272171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68465280532837</t>
+    <t xml:space="preserve">4.69758224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68465328216553</t>
   </si>
   <si>
     <t xml:space="preserve">4.72344160079956</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">4.58552980422974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63724613189697</t>
+    <t xml:space="preserve">4.63724660873413</t>
   </si>
   <si>
     <t xml:space="preserve">4.61569738388062</t>
@@ -1190,25 +1190,25 @@
     <t xml:space="preserve">4.29419374465942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28385066986084</t>
+    <t xml:space="preserve">4.283851146698</t>
   </si>
   <si>
     <t xml:space="preserve">4.28902149200439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32694721221924</t>
+    <t xml:space="preserve">4.32694673538208</t>
   </si>
   <si>
     <t xml:space="preserve">4.22868585586548</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28557395935059</t>
+    <t xml:space="preserve">4.28557443618774</t>
   </si>
   <si>
     <t xml:space="preserve">4.23385810852051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25799226760864</t>
+    <t xml:space="preserve">4.2579927444458</t>
   </si>
   <si>
     <t xml:space="preserve">4.30281352996826</t>
@@ -1223,16 +1223,16 @@
     <t xml:space="preserve">4.3010892868042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92025828361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99955677986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93404936790466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96335601806641</t>
+    <t xml:space="preserve">2.92025852203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99955701828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93404960632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96335577964783</t>
   </si>
   <si>
     <t xml:space="preserve">2.98576593399048</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">2.89095234870911</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01679635047913</t>
+    <t xml:space="preserve">3.01679611206055</t>
   </si>
   <si>
     <t xml:space="preserve">3.04265427589417</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">3.1133337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17884111404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2719304561615</t>
+    <t xml:space="preserve">3.17884135246277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27193069458008</t>
   </si>
   <si>
     <t xml:space="preserve">3.24952030181885</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">3.12540102005005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0392062664032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05127358436584</t>
+    <t xml:space="preserve">3.03920602798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05127334594727</t>
   </si>
   <si>
     <t xml:space="preserve">2.99093794822693</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">2.94094491004944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83406472206116</t>
+    <t xml:space="preserve">2.83406448364258</t>
   </si>
   <si>
     <t xml:space="preserve">2.6392650604248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6289222240448</t>
+    <t xml:space="preserve">2.62892246246338</t>
   </si>
   <si>
     <t xml:space="preserve">2.59099674224854</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">2.67201972007751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58065295219421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59616827964783</t>
+    <t xml:space="preserve">2.58065319061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59616851806641</t>
   </si>
   <si>
     <t xml:space="preserve">2.58582496643066</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">2.47204875946045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43584752082825</t>
+    <t xml:space="preserve">2.43584728240967</t>
   </si>
   <si>
     <t xml:space="preserve">2.44274258613586</t>
@@ -1343,13 +1343,13 @@
     <t xml:space="preserve">2.34792876243591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3875789642334</t>
+    <t xml:space="preserve">2.38757872581482</t>
   </si>
   <si>
     <t xml:space="preserve">2.33413791656494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3444812297821</t>
+    <t xml:space="preserve">2.34448146820068</t>
   </si>
   <si>
     <t xml:space="preserve">2.49101209640503</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">2.45653343200684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37378716468811</t>
+    <t xml:space="preserve">2.37378692626953</t>
   </si>
   <si>
     <t xml:space="preserve">2.37551164627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3703396320343</t>
+    <t xml:space="preserve">2.37033987045288</t>
   </si>
   <si>
     <t xml:space="preserve">2.39792156219482</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">2.42895150184631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44101905822754</t>
+    <t xml:space="preserve">2.44101881980896</t>
   </si>
   <si>
     <t xml:space="preserve">2.42550349235535</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">2.32724237442017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29104113578796</t>
+    <t xml:space="preserve">2.29104137420654</t>
   </si>
   <si>
     <t xml:space="preserve">2.35310077667236</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.50135445594788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39274978637695</t>
+    <t xml:space="preserve">2.39275002479553</t>
   </si>
   <si>
     <t xml:space="preserve">2.38240694999695</t>
@@ -1424,22 +1424,22 @@
     <t xml:space="preserve">2.40654063224792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34620523452759</t>
+    <t xml:space="preserve">2.34620499610901</t>
   </si>
   <si>
     <t xml:space="preserve">2.25828742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2462203502655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22208571434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28069734573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28242135047913</t>
+    <t xml:space="preserve">2.24622011184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22208547592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28069758415222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28242158889771</t>
   </si>
   <si>
     <t xml:space="preserve">2.1203761100769</t>
@@ -1469,19 +1469,19 @@
     <t xml:space="preserve">2.23587656021118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23760008811951</t>
+    <t xml:space="preserve">2.23759984970093</t>
   </si>
   <si>
     <t xml:space="preserve">2.22380924224854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22553277015686</t>
+    <t xml:space="preserve">2.22553253173828</t>
   </si>
   <si>
     <t xml:space="preserve">2.18243622779846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14278697967529</t>
+    <t xml:space="preserve">2.14278721809387</t>
   </si>
   <si>
     <t xml:space="preserve">2.15657806396484</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">2.22898101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16347360610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15830183029175</t>
+    <t xml:space="preserve">2.16347336769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15830159187317</t>
   </si>
   <si>
     <t xml:space="preserve">2.08934593200684</t>
@@ -1511,16 +1511,16 @@
     <t xml:space="preserve">2.30827951431274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25656270980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18588376045227</t>
+    <t xml:space="preserve">2.25656294822693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18588352203369</t>
   </si>
   <si>
     <t xml:space="preserve">2.1358916759491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12899613380432</t>
+    <t xml:space="preserve">2.1289963722229</t>
   </si>
   <si>
     <t xml:space="preserve">2.06521224975586</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">1.68164813518524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55235695838928</t>
+    <t xml:space="preserve">1.55235683917999</t>
   </si>
   <si>
     <t xml:space="preserve">1.53339397907257</t>
@@ -1568,19 +1568,19 @@
     <t xml:space="preserve">1.32652795314789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3118748664856</t>
+    <t xml:space="preserve">1.31187474727631</t>
   </si>
   <si>
     <t xml:space="preserve">1.28946471214294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429269790649</t>
+    <t xml:space="preserve">1.28429281711578</t>
   </si>
   <si>
     <t xml:space="preserve">1.33083748817444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31704652309418</t>
+    <t xml:space="preserve">1.31704664230347</t>
   </si>
   <si>
     <t xml:space="preserve">1.34549069404602</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">1.35755813121796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35497200489044</t>
+    <t xml:space="preserve">1.35497212409973</t>
   </si>
   <si>
     <t xml:space="preserve">1.32480430603027</t>
@@ -1613,10 +1613,10 @@
     <t xml:space="preserve">1.28256928920746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29205060005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30842745304108</t>
+    <t xml:space="preserve">1.29205071926117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30842757225037</t>
   </si>
   <si>
     <t xml:space="preserve">1.29291200637817</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">1.41186046600342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41358411312103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40755093097687</t>
+    <t xml:space="preserve">1.41358399391174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40755081176758</t>
   </si>
   <si>
     <t xml:space="preserve">1.38858819007874</t>
@@ -1649,19 +1649,19 @@
     <t xml:space="preserve">1.35669577121735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38772594928741</t>
+    <t xml:space="preserve">1.38772583007812</t>
   </si>
   <si>
     <t xml:space="preserve">1.29118824005127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27825963497162</t>
+    <t xml:space="preserve">1.27825951576233</t>
   </si>
   <si>
     <t xml:space="preserve">1.1024227142334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992956399917603</t>
+    <t xml:space="preserve">0.992956459522247</t>
   </si>
   <si>
     <t xml:space="preserve">1.02140069007874</t>
@@ -1673,13 +1673,13 @@
     <t xml:space="preserve">0.725754916667938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727478444576263</t>
+    <t xml:space="preserve">0.727478504180908</t>
   </si>
   <si>
     <t xml:space="preserve">0.889523506164551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988646984100342</t>
+    <t xml:space="preserve">0.988647043704987</t>
   </si>
   <si>
     <t xml:space="preserve">0.978303372859955</t>
@@ -1688,16 +1688,16 @@
     <t xml:space="preserve">0.87573254108429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942963659763336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974856019020081</t>
+    <t xml:space="preserve">0.942963719367981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974855959415436</t>
   </si>
   <si>
     <t xml:space="preserve">0.948135495185852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946411848068237</t>
+    <t xml:space="preserve">0.946411907672882</t>
   </si>
   <si>
     <t xml:space="preserve">1.03691518306732</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">1.14982974529266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1343150138855</t>
+    <t xml:space="preserve">1.13431513309479</t>
   </si>
   <si>
     <t xml:space="preserve">1.16793119907379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13862466812134</t>
+    <t xml:space="preserve">1.13862478733063</t>
   </si>
   <si>
     <t xml:space="preserve">1.068807721138</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">1.03088212013245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04812133312225</t>
+    <t xml:space="preserve">1.04812121391296</t>
   </si>
   <si>
     <t xml:space="preserve">1.04553532600403</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">1.16362071037292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16534519195557</t>
+    <t xml:space="preserve">1.16534531116486</t>
   </si>
   <si>
     <t xml:space="preserve">1.16620659828186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17310214042664</t>
+    <t xml:space="preserve">1.17310202121735</t>
   </si>
   <si>
     <t xml:space="preserve">1.14896833896637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13776242733002</t>
+    <t xml:space="preserve">1.13776254653931</t>
   </si>
   <si>
     <t xml:space="preserve">1.09983682632446</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">1.06535947322845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10500872135162</t>
+    <t xml:space="preserve">1.10500860214233</t>
   </si>
   <si>
     <t xml:space="preserve">1.09725177288055</t>
@@ -1775,31 +1775,31 @@
     <t xml:space="preserve">1.05156850814819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06794548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09897553920746</t>
+    <t xml:space="preserve">1.06794536113739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09897541999817</t>
   </si>
   <si>
     <t xml:space="preserve">1.16448283195496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1196620464325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12138545513153</t>
+    <t xml:space="preserve">1.11966192722321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12138557434082</t>
   </si>
   <si>
     <t xml:space="preserve">1.10673320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11535227298737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14034819602966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11276638507843</t>
+    <t xml:space="preserve">1.11535215377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14034831523895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11276626586914</t>
   </si>
   <si>
     <t xml:space="preserve">1.13517653942108</t>
@@ -1808,13 +1808,13 @@
     <t xml:space="preserve">1.14810609817505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14552009105682</t>
+    <t xml:space="preserve">1.14552021026611</t>
   </si>
   <si>
     <t xml:space="preserve">1.26533007621765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50839817523956</t>
+    <t xml:space="preserve">1.50839805603027</t>
   </si>
   <si>
     <t xml:space="preserve">1.46099102497101</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">1.33945751190186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41703236103058</t>
+    <t xml:space="preserve">1.41703224182129</t>
   </si>
   <si>
     <t xml:space="preserve">1.43168473243713</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">1.37221121788025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39375913143158</t>
+    <t xml:space="preserve">1.39375901222229</t>
   </si>
   <si>
     <t xml:space="preserve">1.39806950092316</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">1.46443843841553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46702432632446</t>
+    <t xml:space="preserve">1.46702444553375</t>
   </si>
   <si>
     <t xml:space="preserve">1.46788656711578</t>
@@ -1883,13 +1883,13 @@
     <t xml:space="preserve">1.49977791309357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48167765140533</t>
+    <t xml:space="preserve">1.48167753219604</t>
   </si>
   <si>
     <t xml:space="preserve">1.57735288143158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66268515586853</t>
+    <t xml:space="preserve">1.66268527507782</t>
   </si>
   <si>
     <t xml:space="preserve">1.64803218841553</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">1.6445848941803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62475967407227</t>
+    <t xml:space="preserve">1.62475979328156</t>
   </si>
   <si>
     <t xml:space="preserve">1.6023496389389</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">1.56270051002502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51787924766541</t>
+    <t xml:space="preserve">1.51787936687469</t>
   </si>
   <si>
     <t xml:space="preserve">1.46271467208862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47995376586914</t>
+    <t xml:space="preserve">1.47995388507843</t>
   </si>
   <si>
     <t xml:space="preserve">1.43254697322845</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.4109982252121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39289772510529</t>
+    <t xml:space="preserve">1.39289784431458</t>
   </si>
   <si>
     <t xml:space="preserve">1.3446284532547</t>
@@ -1952,19 +1952,19 @@
     <t xml:space="preserve">1.3523862361908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3610053062439</t>
+    <t xml:space="preserve">1.36100542545319</t>
   </si>
   <si>
     <t xml:space="preserve">1.33342337608337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3282516002655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29032599925995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3696254491806</t>
+    <t xml:space="preserve">1.32825171947479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29032611846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36962532997131</t>
   </si>
   <si>
     <t xml:space="preserve">1.35324859619141</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">1.39203524589539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38944959640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34893882274628</t>
+    <t xml:space="preserve">1.38944947719574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34893894195557</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023933172226</t>
@@ -2006,16 +2006,16 @@
     <t xml:space="preserve">1.27998328208923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31446063518524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3015319108963</t>
+    <t xml:space="preserve">1.31446075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30153203010559</t>
   </si>
   <si>
     <t xml:space="preserve">1.36876308917999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38083052635193</t>
+    <t xml:space="preserve">1.38083040714264</t>
   </si>
   <si>
     <t xml:space="preserve">1.47047245502472</t>
@@ -2027,25 +2027,25 @@
     <t xml:space="preserve">1.54373776912689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55063319206238</t>
+    <t xml:space="preserve">1.55063307285309</t>
   </si>
   <si>
     <t xml:space="preserve">1.55149447917938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59372961521149</t>
+    <t xml:space="preserve">1.59372973442078</t>
   </si>
   <si>
     <t xml:space="preserve">1.61355471611023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58769643306732</t>
+    <t xml:space="preserve">1.58769655227661</t>
   </si>
   <si>
     <t xml:space="preserve">1.59804010391235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53942728042603</t>
+    <t xml:space="preserve">1.53942716121674</t>
   </si>
   <si>
     <t xml:space="preserve">1.46185255050659</t>
@@ -2054,13 +2054,13 @@
     <t xml:space="preserve">1.43771886825562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4351327419281</t>
+    <t xml:space="preserve">1.43513286113739</t>
   </si>
   <si>
     <t xml:space="preserve">1.46530067920685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41875600814819</t>
+    <t xml:space="preserve">1.4187558889389</t>
   </si>
   <si>
     <t xml:space="preserve">1.39117407798767</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">1.33859527111053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34118115901947</t>
+    <t xml:space="preserve">1.34118127822876</t>
   </si>
   <si>
     <t xml:space="preserve">1.34376728534698</t>
@@ -2093,10 +2093,10 @@
     <t xml:space="preserve">1.43427062034607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41444659233093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42909860610962</t>
+    <t xml:space="preserve">1.41444647312164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42909872531891</t>
   </si>
   <si>
     <t xml:space="preserve">1.43340921401978</t>
@@ -2123,19 +2123,19 @@
     <t xml:space="preserve">1.44375205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59200584888458</t>
+    <t xml:space="preserve">1.59200596809387</t>
   </si>
   <si>
     <t xml:space="preserve">1.50753569602966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43599414825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45495688915253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4532333612442</t>
+    <t xml:space="preserve">1.43599426746368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45495700836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45323348045349</t>
   </si>
   <si>
     <t xml:space="preserve">1.47478199005127</t>
@@ -2144,13 +2144,13 @@
     <t xml:space="preserve">1.45237100124359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37652087211609</t>
+    <t xml:space="preserve">1.3765207529068</t>
   </si>
   <si>
     <t xml:space="preserve">1.36790084838867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37996816635132</t>
+    <t xml:space="preserve">1.37996804714203</t>
   </si>
   <si>
     <t xml:space="preserve">1.40496492385864</t>
@@ -2162,19 +2162,19 @@
     <t xml:space="preserve">1.49115896224976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48081541061401</t>
+    <t xml:space="preserve">1.48081529140472</t>
   </si>
   <si>
     <t xml:space="preserve">1.51270759105682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51874089241028</t>
+    <t xml:space="preserve">1.51874077320099</t>
   </si>
   <si>
     <t xml:space="preserve">1.51184523105621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5196031332016</t>
+    <t xml:space="preserve">1.51960301399231</t>
   </si>
   <si>
     <t xml:space="preserve">1.56011462211609</t>
@@ -2198,19 +2198,19 @@
     <t xml:space="preserve">1.64889430999756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65751361846924</t>
+    <t xml:space="preserve">1.65751349925995</t>
   </si>
   <si>
     <t xml:space="preserve">1.6368271112442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69802498817444</t>
+    <t xml:space="preserve">1.69802486896515</t>
   </si>
   <si>
     <t xml:space="preserve">1.64372253417969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68423402309418</t>
+    <t xml:space="preserve">1.68423390388489</t>
   </si>
   <si>
     <t xml:space="preserve">1.6351033449173</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">1.61010658740997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59114372730255</t>
+    <t xml:space="preserve">1.59114384651184</t>
   </si>
   <si>
     <t xml:space="preserve">1.60838294029236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61614048480988</t>
+    <t xml:space="preserve">1.61614060401917</t>
   </si>
   <si>
     <t xml:space="preserve">1.61700201034546</t>
@@ -2234,13 +2234,13 @@
     <t xml:space="preserve">1.63768923282623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70233452320099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79628622531891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76180875301361</t>
+    <t xml:space="preserve">1.7023344039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79628610610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7618088722229</t>
   </si>
   <si>
     <t xml:space="preserve">1.77387619018555</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">1.77559971809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69112968444824</t>
+    <t xml:space="preserve">1.69112956523895</t>
   </si>
   <si>
     <t xml:space="preserve">1.66009938716888</t>
@@ -2282,10 +2282,10 @@
     <t xml:space="preserve">1.74112236499786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905504703522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73422694206238</t>
+    <t xml:space="preserve">1.72905492782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73422682285309</t>
   </si>
   <si>
     <t xml:space="preserve">1.6687183380127</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">1.69285309314728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67561411857605</t>
+    <t xml:space="preserve">1.67561399936676</t>
   </si>
   <si>
     <t xml:space="preserve">1.66096174716949</t>
@@ -2315,25 +2315,25 @@
     <t xml:space="preserve">1.64199900627136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61183106899261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64286017417908</t>
+    <t xml:space="preserve">1.6118311882019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64286029338837</t>
   </si>
   <si>
     <t xml:space="preserve">1.64630842208862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63337886333466</t>
+    <t xml:space="preserve">1.63337874412537</t>
   </si>
   <si>
     <t xml:space="preserve">1.65492749214172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65148031711578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63596475124359</t>
+    <t xml:space="preserve">1.65148019790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63596487045288</t>
   </si>
   <si>
     <t xml:space="preserve">1.5945919752121</t>
@@ -2360,10 +2360,10 @@
     <t xml:space="preserve">1.5609757900238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57476687431335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58080089092255</t>
+    <t xml:space="preserve">1.57476699352264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58080101013184</t>
   </si>
   <si>
     <t xml:space="preserve">1.59717786312103</t>
@@ -2372,25 +2372,25 @@
     <t xml:space="preserve">1.56528556346893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55752873420715</t>
+    <t xml:space="preserve">1.55752861499786</t>
   </si>
   <si>
     <t xml:space="preserve">1.52994573116302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30497932434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27136421203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21792328357697</t>
+    <t xml:space="preserve">1.30497920513153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27136409282684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21792316436768</t>
   </si>
   <si>
     <t xml:space="preserve">1.20413219928741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17224061489105</t>
+    <t xml:space="preserve">1.17224073410034</t>
   </si>
   <si>
     <t xml:space="preserve">1.06018757820129</t>
@@ -2402,10 +2402,10 @@
     <t xml:space="preserve">0.801605045795441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.742131650447845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717997074127197</t>
+    <t xml:space="preserve">0.74213171005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717997133731842</t>
   </si>
   <si>
     <t xml:space="preserve">0.564140498638153</t>
@@ -2414,13 +2414,13 @@
     <t xml:space="preserve">0.633096098899841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536127030849457</t>
+    <t xml:space="preserve">0.536126971244812</t>
   </si>
   <si>
     <t xml:space="preserve">0.618442893028259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.696448445320129</t>
+    <t xml:space="preserve">0.696448385715485</t>
   </si>
   <si>
     <t xml:space="preserve">0.748164892196655</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">0.704206168651581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.702050864696503</t>
+    <t xml:space="preserve">0.702050924301147</t>
   </si>
   <si>
     <t xml:space="preserve">0.709808647632599</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">0.68050217628479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.663694620132446</t>
+    <t xml:space="preserve">0.663694679737091</t>
   </si>
   <si>
     <t xml:space="preserve">0.647317826747894</t>
@@ -2468,16 +2468,16 @@
     <t xml:space="preserve">0.667142808437347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671452403068542</t>
+    <t xml:space="preserve">0.671452343463898</t>
   </si>
   <si>
     <t xml:space="preserve">0.65852278470993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.670590102672577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660677969455719</t>
+    <t xml:space="preserve">0.670590162277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660678029060364</t>
   </si>
   <si>
     <t xml:space="preserve">0.631803154945374</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">0.635250508785248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62964791059494</t>
+    <t xml:space="preserve">0.629647970199585</t>
   </si>
   <si>
     <t xml:space="preserve">0.624907732009888</t>
@@ -2495,10 +2495,10 @@
     <t xml:space="preserve">0.630510270595551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.672313749790192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698172032833099</t>
+    <t xml:space="preserve">0.672313690185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698172092437744</t>
   </si>
   <si>
     <t xml:space="preserve">0.675761938095093</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">0.689552903175354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671020805835724</t>
+    <t xml:space="preserve">0.671020746231079</t>
   </si>
   <si>
     <t xml:space="preserve">0.646455526351929</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">0.629217267036438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62533837556839</t>
+    <t xml:space="preserve">0.625338315963745</t>
   </si>
   <si>
     <t xml:space="preserve">0.649903655052185</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">0.615857064723969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593015432357788</t>
+    <t xml:space="preserve">0.593015372753143</t>
   </si>
   <si>
     <t xml:space="preserve">0.600342512130737</t>
@@ -2549,10 +2549,10 @@
     <t xml:space="preserve">0.592584729194641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62102884054184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650765955448151</t>
+    <t xml:space="preserve">0.621028780937195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650766015052795</t>
   </si>
   <si>
     <t xml:space="preserve">0.749457836151123</t>
@@ -2561,13 +2561,13 @@
     <t xml:space="preserve">0.814534664154053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787383437156677</t>
+    <t xml:space="preserve">0.787383496761322</t>
   </si>
   <si>
     <t xml:space="preserve">0.79298597574234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854183912277222</t>
+    <t xml:space="preserve">0.854183852672577</t>
   </si>
   <si>
     <t xml:space="preserve">0.861941516399384</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">0.930035054683685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939516425132751</t>
+    <t xml:space="preserve">0.939516365528107</t>
   </si>
   <si>
     <t xml:space="preserve">1.03777766227722</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">1.04294943809509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999852061271667</t>
+    <t xml:space="preserve">0.999852120876312</t>
   </si>
   <si>
     <t xml:space="preserve">0.905900299549103</t>
@@ -2603,25 +2603,25 @@
     <t xml:space="preserve">0.951583802700043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920553624629974</t>
+    <t xml:space="preserve">0.92055356502533</t>
   </si>
   <si>
     <t xml:space="preserve">0.922277271747589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924000859260559</t>
+    <t xml:space="preserve">0.924000918865204</t>
   </si>
   <si>
     <t xml:space="preserve">0.849874317646027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805915534496307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851167261600494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831773817539215</t>
+    <t xml:space="preserve">0.805915594100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85116720199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83177387714386</t>
   </si>
   <si>
     <t xml:space="preserve">0.810655772686005</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.827894926071167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823153793811798</t>
+    <t xml:space="preserve">0.823153734207153</t>
   </si>
   <si>
     <t xml:space="preserve">0.827463328838348</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">0.824016094207764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801174402236938</t>
+    <t xml:space="preserve">0.801174461841583</t>
   </si>
   <si>
     <t xml:space="preserve">0.807208597660065</t>
@@ -2654,10 +2654,10 @@
     <t xml:space="preserve">0.820999503135681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89124721288681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882628083229065</t>
+    <t xml:space="preserve">0.891247153282166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88262802362442</t>
   </si>
   <si>
     <t xml:space="preserve">0.871423006057739</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">0.862803041934967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86150997877121</t>
+    <t xml:space="preserve">0.861510038375854</t>
   </si>
   <si>
     <t xml:space="preserve">0.865388929843903</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">0.8149653673172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796434164047241</t>
+    <t xml:space="preserve">0.796434223651886</t>
   </si>
   <si>
     <t xml:space="preserve">0.791693031787872</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.817981958389282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783073902130127</t>
+    <t xml:space="preserve">0.783073842525482</t>
   </si>
   <si>
     <t xml:space="preserve">0.790400087833405</t>
@@ -2717,13 +2717,13 @@
     <t xml:space="preserve">0.805053293704987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795571863651276</t>
+    <t xml:space="preserve">0.79557192325592</t>
   </si>
   <si>
     <t xml:space="preserve">0.764541745185852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.740838825702667</t>
+    <t xml:space="preserve">0.740838766098022</t>
   </si>
   <si>
     <t xml:space="preserve">0.734804630279541</t>
@@ -2732,13 +2732,13 @@
     <t xml:space="preserve">0.705929815769196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.712825238704681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.714980483055115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.707653343677521</t>
+    <t xml:space="preserve">0.712825298309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71498054265976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.707653403282166</t>
   </si>
   <si>
     <t xml:space="preserve">0.695587038993835</t>
@@ -2747,10 +2747,10 @@
     <t xml:space="preserve">0.687829256057739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703775465488434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709378004074097</t>
+    <t xml:space="preserve">0.703775405883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.709377944469452</t>
   </si>
   <si>
     <t xml:space="preserve">0.707222759723663</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">0.716704189777374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719720721244812</t>
+    <t xml:space="preserve">0.719720780849457</t>
   </si>
   <si>
     <t xml:space="preserve">0.726185500621796</t>
@@ -2774,13 +2774,13 @@
     <t xml:space="preserve">0.744286060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743424654006958</t>
+    <t xml:space="preserve">0.743424713611603</t>
   </si>
   <si>
     <t xml:space="preserve">0.766265392303467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792123675346375</t>
+    <t xml:space="preserve">0.792123734951019</t>
   </si>
   <si>
     <t xml:space="preserve">0.741269469261169</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">0.803760349750519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82186084985733</t>
+    <t xml:space="preserve">0.821860790252686</t>
   </si>
   <si>
     <t xml:space="preserve">0.851597964763641</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">0.887799859046936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874008893966675</t>
+    <t xml:space="preserve">0.87400895357132</t>
   </si>
   <si>
     <t xml:space="preserve">0.88607531785965</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">0.773592472076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733511745929718</t>
+    <t xml:space="preserve">0.733511686325073</t>
   </si>
   <si>
     <t xml:space="preserve">0.675331294536591</t>
@@ -2861,31 +2861,31 @@
     <t xml:space="preserve">0.665849924087524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6813645362854</t>
+    <t xml:space="preserve">0.681364476680756</t>
   </si>
   <si>
     <t xml:space="preserve">0.706360459327698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.711101591587067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.777039706707001</t>
+    <t xml:space="preserve">0.711101651191711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.777039766311646</t>
   </si>
   <si>
     <t xml:space="preserve">0.809362828731537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812810957431793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828756332397461</t>
+    <t xml:space="preserve">0.812811017036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828756272792816</t>
   </si>
   <si>
     <t xml:space="preserve">0.883490264415741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872284412384033</t>
+    <t xml:space="preserve">0.872284352779388</t>
   </si>
   <si>
     <t xml:space="preserve">0.905038118362427</t>
@@ -2912,10 +2912,10 @@
     <t xml:space="preserve">0.921414911746979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93089634180069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910209953784943</t>
+    <t xml:space="preserve">0.930896401405334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910209894180298</t>
   </si>
   <si>
     <t xml:space="preserve">0.895556628704071</t>
@@ -2927,10 +2927,10 @@
     <t xml:space="preserve">0.866251170635223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868836998939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867113471031189</t>
+    <t xml:space="preserve">0.868837058544159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.867113411426544</t>
   </si>
   <si>
     <t xml:space="preserve">0.88693755865097</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">0.935206830501556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97399377822876</t>
+    <t xml:space="preserve">0.973993718624115</t>
   </si>
   <si>
     <t xml:space="preserve">0.984337508678436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.987784743309021</t>
+    <t xml:space="preserve">0.987784683704376</t>
   </si>
   <si>
     <t xml:space="preserve">0.996404707431793</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">1.00933337211609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992094278335571</t>
+    <t xml:space="preserve">0.992094218730927</t>
   </si>
   <si>
     <t xml:space="preserve">0.964512407779694</t>
@@ -2972,13 +2972,13 @@
     <t xml:space="preserve">0.931758642196655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902452170848846</t>
+    <t xml:space="preserve">0.902452111244202</t>
   </si>
   <si>
     <t xml:space="preserve">0.88004207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894695401191711</t>
+    <t xml:space="preserve">0.894695341587067</t>
   </si>
   <si>
     <t xml:space="preserve">0.906762659549713</t>
@@ -2996,13 +2996,13 @@
     <t xml:space="preserve">0.956754684448242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942102372646332</t>
+    <t xml:space="preserve">0.942102313041687</t>
   </si>
   <si>
     <t xml:space="preserve">0.977441966533661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928310453891754</t>
+    <t xml:space="preserve">0.928310513496399</t>
   </si>
   <si>
     <t xml:space="preserve">0.959340453147888</t>
@@ -3014,19 +3014,19 @@
     <t xml:space="preserve">0.967098295688629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9722700715065</t>
+    <t xml:space="preserve">0.972270131111145</t>
   </si>
   <si>
     <t xml:space="preserve">0.971407830715179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97657984495163</t>
+    <t xml:space="preserve">0.97657972574234</t>
   </si>
   <si>
     <t xml:space="preserve">0.965374648571014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00674736499786</t>
+    <t xml:space="preserve">1.00674748420715</t>
   </si>
   <si>
     <t xml:space="preserve">1.18344569206238</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">1.22740459442139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2110276222229</t>
+    <t xml:space="preserve">1.21102750301361</t>
   </si>
   <si>
     <t xml:space="preserve">1.19723665714264</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">1.17482674121857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1446578502655</t>
+    <t xml:space="preserve">1.14465796947479</t>
   </si>
   <si>
     <t xml:space="preserve">1.14638245105743</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">1.14207291603088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14724385738373</t>
+    <t xml:space="preserve">1.14724397659302</t>
   </si>
   <si>
     <t xml:space="preserve">1.16706895828247</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">1.14293420314789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42134189605713</t>
+    <t xml:space="preserve">1.42134177684784</t>
   </si>
   <si>
     <t xml:space="preserve">1.41617000102997</t>
@@ -3101,10 +3101,10 @@
     <t xml:space="preserve">1.45668148994446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44202840328217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48426330089569</t>
+    <t xml:space="preserve">1.44202852249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48426342010498</t>
   </si>
   <si>
     <t xml:space="preserve">1.52391254901886</t>
@@ -3113,13 +3113,13 @@
     <t xml:space="preserve">1.50581204891205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48684930801392</t>
+    <t xml:space="preserve">1.48684942722321</t>
   </si>
   <si>
     <t xml:space="preserve">1.47909164428711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52822232246399</t>
+    <t xml:space="preserve">1.5282222032547</t>
   </si>
   <si>
     <t xml:space="preserve">1.45840525627136</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">1.67820000648499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66354763507843</t>
+    <t xml:space="preserve">1.66354775428772</t>
   </si>
   <si>
     <t xml:space="preserve">1.67216682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67130446434021</t>
+    <t xml:space="preserve">1.67130434513092</t>
   </si>
   <si>
     <t xml:space="preserve">1.67906224727631</t>
@@ -3155,13 +3155,13 @@
     <t xml:space="preserve">1.5032262802124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4428905248642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38600206375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39979326725006</t>
+    <t xml:space="preserve">1.44289064407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38600218296051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39979314804077</t>
   </si>
   <si>
     <t xml:space="preserve">1.402379155159</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">1.37616884708405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49412620067596</t>
+    <t xml:space="preserve">1.49412608146667</t>
   </si>
   <si>
     <t xml:space="preserve">1.53801727294922</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">1.57733643054962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59836757183075</t>
+    <t xml:space="preserve">1.59836745262146</t>
   </si>
   <si>
     <t xml:space="preserve">1.59379553794861</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">1.62671387195587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66603302955627</t>
+    <t xml:space="preserve">1.66603291034698</t>
   </si>
   <si>
     <t xml:space="preserve">1.65780329704285</t>
@@ -3242,7 +3242,7 @@
     <t xml:space="preserve">1.67700564861298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66420412063599</t>
+    <t xml:space="preserve">1.66420423984528</t>
   </si>
   <si>
     <t xml:space="preserve">1.63402891159058</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">1.57367873191833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55539083480835</t>
+    <t xml:space="preserve">1.55539071559906</t>
   </si>
   <si>
     <t xml:space="preserve">1.54899001121521</t>
@@ -3278,13 +3278,13 @@
     <t xml:space="preserve">1.6029394865036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69072163105011</t>
+    <t xml:space="preserve">1.6907217502594</t>
   </si>
   <si>
     <t xml:space="preserve">1.71632480621338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6139121055603</t>
+    <t xml:space="preserve">1.61391222476959</t>
   </si>
   <si>
     <t xml:space="preserve">1.5654491186142</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">1.53618836402893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51241421699524</t>
+    <t xml:space="preserve">1.51241409778595</t>
   </si>
   <si>
     <t xml:space="preserve">1.46943736076355</t>
@@ -3302,7 +3302,7 @@
     <t xml:space="preserve">1.49321174621582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5133284330368</t>
+    <t xml:space="preserve">1.51332831382751</t>
   </si>
   <si>
     <t xml:space="preserve">1.66969048976898</t>
@@ -3311,13 +3311,13 @@
     <t xml:space="preserve">1.88731706142426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90560519695282</t>
+    <t xml:space="preserve">1.90560507774353</t>
   </si>
   <si>
     <t xml:space="preserve">1.96595549583435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95681154727936</t>
+    <t xml:space="preserve">1.95681142807007</t>
   </si>
   <si>
     <t xml:space="preserve">2.04642271995544</t>
@@ -3326,25 +3326,25 @@
     <t xml:space="preserve">2.1012864112854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15797877311707</t>
+    <t xml:space="preserve">2.15797901153564</t>
   </si>
   <si>
     <t xml:space="preserve">2.24027490615845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02264785766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9494960308075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0244767665863</t>
+    <t xml:space="preserve">2.02264809608459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94949615001678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02447700500488</t>
   </si>
   <si>
     <t xml:space="preserve">2.00801777839661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08299827575684</t>
+    <t xml:space="preserve">2.08299851417542</t>
   </si>
   <si>
     <t xml:space="preserve">2.17626714706421</t>
@@ -3356,28 +3356,28 @@
     <t xml:space="preserve">2.17260932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20552754402161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19455480575562</t>
+    <t xml:space="preserve">2.20552778244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19455504417419</t>
   </si>
   <si>
     <t xml:space="preserve">2.24758982658386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23295950889587</t>
+    <t xml:space="preserve">2.23295974731445</t>
   </si>
   <si>
     <t xml:space="preserve">2.24576115608215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25124740600586</t>
+    <t xml:space="preserve">2.25124716758728</t>
   </si>
   <si>
     <t xml:space="preserve">2.31525564193726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24941897392273</t>
+    <t xml:space="preserve">2.24941873550415</t>
   </si>
   <si>
     <t xml:space="preserve">2.19089722633362</t>
@@ -3395,13 +3395,13 @@
     <t xml:space="preserve">2.35914635658264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39389395713806</t>
+    <t xml:space="preserve">2.39389371871948</t>
   </si>
   <si>
     <t xml:space="preserve">2.42315435409546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49447703361511</t>
+    <t xml:space="preserve">2.49447727203369</t>
   </si>
   <si>
     <t xml:space="preserve">2.52373814582825</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">2.54934144020081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47253155708313</t>
+    <t xml:space="preserve">2.47253179550171</t>
   </si>
   <si>
     <t xml:space="preserve">2.41401028633118</t>
@@ -3440,13 +3440,13 @@
     <t xml:space="preserve">2.45424389839172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28050827980042</t>
+    <t xml:space="preserve">2.28050851821899</t>
   </si>
   <si>
     <t xml:space="preserve">2.46521687507629</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55848526954651</t>
+    <t xml:space="preserve">2.55848550796509</t>
   </si>
   <si>
     <t xml:space="preserve">2.57128691673279</t>
@@ -3491,13 +3491,13 @@
     <t xml:space="preserve">2.33171439170837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38292098045349</t>
+    <t xml:space="preserve">2.38292074203491</t>
   </si>
   <si>
     <t xml:space="preserve">2.35183143615723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36097502708435</t>
+    <t xml:space="preserve">2.36097526550293</t>
   </si>
   <si>
     <t xml:space="preserve">2.34085845947266</t>
@@ -3530,16 +3530,16 @@
     <t xml:space="preserve">2.12323188781738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23844599723816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26587796211243</t>
+    <t xml:space="preserve">2.23844575881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26587772369385</t>
   </si>
   <si>
     <t xml:space="preserve">2.2036988735199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46887445449829</t>
+    <t xml:space="preserve">2.46887421607971</t>
   </si>
   <si>
     <t xml:space="preserve">2.47070288658142</t>
@@ -3548,10 +3548,10 @@
     <t xml:space="preserve">2.13237595558167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05739545822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18906855583191</t>
+    <t xml:space="preserve">2.05739521980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18906831741333</t>
   </si>
   <si>
     <t xml:space="preserve">2.18723964691162</t>
@@ -3563,28 +3563,28 @@
     <t xml:space="preserve">2.07751202583313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14700603485107</t>
+    <t xml:space="preserve">2.14700627326965</t>
   </si>
   <si>
     <t xml:space="preserve">2.05556654930115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09945750236511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09397101402283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99338746070862</t>
+    <t xml:space="preserve">2.09945774078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09397125244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99338734149933</t>
   </si>
   <si>
     <t xml:space="preserve">2.07934069633484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06836795806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9275506734848</t>
+    <t xml:space="preserve">2.06836771965027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92755079269409</t>
   </si>
   <si>
     <t xml:space="preserve">1.96229767799377</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">1.86354303359985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69803690910339</t>
+    <t xml:space="preserve">1.69803702831268</t>
   </si>
   <si>
     <t xml:space="preserve">1.61299788951874</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">1.61848413944244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73369836807251</t>
+    <t xml:space="preserve">1.7336984872818</t>
   </si>
   <si>
     <t xml:space="preserve">1.63037145137787</t>
@@ -3626,13 +3626,13 @@
     <t xml:space="preserve">1.7894766330719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76113033294678</t>
+    <t xml:space="preserve">1.76113021373749</t>
   </si>
   <si>
     <t xml:space="preserve">1.70352327823639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71906805038452</t>
+    <t xml:space="preserve">1.71906793117523</t>
   </si>
   <si>
     <t xml:space="preserve">1.73278391361237</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">1.81873726844788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7839902639389</t>
+    <t xml:space="preserve">1.78399038314819</t>
   </si>
   <si>
     <t xml:space="preserve">1.72363996505737</t>
@@ -3671,13 +3671,13 @@
     <t xml:space="preserve">1.67151916027069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76478779315948</t>
+    <t xml:space="preserve">1.76478791236877</t>
   </si>
   <si>
     <t xml:space="preserve">1.75472950935364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7318696975708</t>
+    <t xml:space="preserve">1.73186957836151</t>
   </si>
   <si>
     <t xml:space="preserve">1.68157768249512</t>
@@ -3692,16 +3692,16 @@
     <t xml:space="preserve">1.66054654121399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67243361473083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60019624233246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50967085361481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52613008022308</t>
+    <t xml:space="preserve">1.67243373394012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60019636154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5096709728241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52612996101379</t>
   </si>
   <si>
     <t xml:space="preserve">1.59105229377747</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">1.65963220596313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64042973518372</t>
+    <t xml:space="preserve">1.64042985439301</t>
   </si>
   <si>
     <t xml:space="preserve">1.69712245464325</t>
@@ -3722,16 +3722,16 @@
     <t xml:space="preserve">1.65140247344971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57459318637848</t>
+    <t xml:space="preserve">1.57459306716919</t>
   </si>
   <si>
     <t xml:space="preserve">1.57002115249634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68340635299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6998655796051</t>
+    <t xml:space="preserve">1.68340647220612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69986546039581</t>
   </si>
   <si>
     <t xml:space="preserve">1.77758955955505</t>
@@ -3746,16 +3746,16 @@
     <t xml:space="preserve">1.83793973922729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90377628803253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86537158489227</t>
+    <t xml:space="preserve">1.90377640724182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86537170410156</t>
   </si>
   <si>
     <t xml:space="preserve">1.85622763633728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85257017612457</t>
+    <t xml:space="preserve">1.85257005691528</t>
   </si>
   <si>
     <t xml:space="preserve">1.71083843708038</t>
@@ -3767,13 +3767,13 @@
     <t xml:space="preserve">1.46395099163055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51178014278412</t>
+    <t xml:space="preserve">1.51178026199341</t>
   </si>
   <si>
     <t xml:space="preserve">1.52397203445435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53710162639618</t>
+    <t xml:space="preserve">1.53710174560547</t>
   </si>
   <si>
     <t xml:space="preserve">1.50427758693695</t>
@@ -3785,13 +3785,13 @@
     <t xml:space="preserve">1.48270761966705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52115857601166</t>
+    <t xml:space="preserve">1.52115845680237</t>
   </si>
   <si>
     <t xml:space="preserve">1.52866113185883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45926177501678</t>
+    <t xml:space="preserve">1.45926189422607</t>
   </si>
   <si>
     <t xml:space="preserve">1.41612160205841</t>
@@ -3800,25 +3800,25 @@
     <t xml:space="preserve">1.42268633842468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34297108650208</t>
+    <t xml:space="preserve">1.34297096729279</t>
   </si>
   <si>
     <t xml:space="preserve">1.37016808986664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4179972410202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45269703865051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43018913269043</t>
+    <t xml:space="preserve">1.41799736022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4526971578598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43018901348114</t>
   </si>
   <si>
     <t xml:space="preserve">1.3570384979248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32515227794647</t>
+    <t xml:space="preserve">1.32515239715576</t>
   </si>
   <si>
     <t xml:space="preserve">1.32046318054199</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">1.35047376155853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36923027038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44238090515137</t>
+    <t xml:space="preserve">1.36923038959503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44238078594208</t>
   </si>
   <si>
     <t xml:space="preserve">1.41518378257751</t>
@@ -3842,13 +3842,13 @@
     <t xml:space="preserve">1.40017855167389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3382819890976</t>
+    <t xml:space="preserve">1.33828186988831</t>
   </si>
   <si>
     <t xml:space="preserve">1.35516285896301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37579500675201</t>
+    <t xml:space="preserve">1.3757951259613</t>
   </si>
   <si>
     <t xml:space="preserve">1.46488881111145</t>
@@ -3863,25 +3863,25 @@
     <t xml:space="preserve">1.49021017551422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51646947860718</t>
+    <t xml:space="preserve">1.51646935939789</t>
   </si>
   <si>
     <t xml:space="preserve">1.50615310668945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53522598743439</t>
+    <t xml:space="preserve">1.5352258682251</t>
   </si>
   <si>
     <t xml:space="preserve">1.54272854328156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53616380691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56429874897003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5530446767807</t>
+    <t xml:space="preserve">1.53616368770599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56429862976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55304479598999</t>
   </si>
   <si>
     <t xml:space="preserve">1.54835557937622</t>
@@ -3902,19 +3902,19 @@
     <t xml:space="preserve">1.38986253738403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38611125946045</t>
+    <t xml:space="preserve">1.38611114025116</t>
   </si>
   <si>
     <t xml:space="preserve">1.4170595407486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41987299919128</t>
+    <t xml:space="preserve">1.41987311840057</t>
   </si>
   <si>
     <t xml:space="preserve">1.40580546855927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4367538690567</t>
+    <t xml:space="preserve">1.43675374984741</t>
   </si>
   <si>
     <t xml:space="preserve">1.37860858440399</t>
@@ -3923,7 +3923,7 @@
     <t xml:space="preserve">1.3954895734787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41330814361572</t>
+    <t xml:space="preserve">1.41330826282501</t>
   </si>
   <si>
     <t xml:space="preserve">1.40299212932587</t>
@@ -3938,10 +3938,10 @@
     <t xml:space="preserve">1.46207523345947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51553165912628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45738625526428</t>
+    <t xml:space="preserve">1.51553153991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45738613605499</t>
   </si>
   <si>
     <t xml:space="preserve">1.44331872463226</t>
@@ -3953,25 +3953,25 @@
     <t xml:space="preserve">1.73967266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63463592529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6290088891983</t>
+    <t xml:space="preserve">1.63463580608368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62900876998901</t>
   </si>
   <si>
     <t xml:space="preserve">1.64213848114014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61306583881378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54741764068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60743880271912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60181164741516</t>
+    <t xml:space="preserve">1.61306571960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54741775989532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60743868350983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60181176662445</t>
   </si>
   <si>
     <t xml:space="preserve">1.70215952396393</t>
@@ -3980,22 +3980,22 @@
     <t xml:space="preserve">1.63182234764099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58680653572083</t>
+    <t xml:space="preserve">1.58680665493011</t>
   </si>
   <si>
     <t xml:space="preserve">1.5718013048172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61025238037109</t>
+    <t xml:space="preserve">1.6102522611618</t>
   </si>
   <si>
     <t xml:space="preserve">1.58211743831635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64588963985443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64495182037354</t>
+    <t xml:space="preserve">1.64588975906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64495193958282</t>
   </si>
   <si>
     <t xml:space="preserve">1.69278109073639</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">1.71153783798218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71247565746307</t>
+    <t xml:space="preserve">1.71247553825378</t>
   </si>
   <si>
     <t xml:space="preserve">1.72372961044312</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">1.84470951557159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90754401683807</t>
+    <t xml:space="preserve">1.90754413604736</t>
   </si>
   <si>
     <t xml:space="preserve">1.92630052566528</t>
@@ -4052,13 +4052,13 @@
     <t xml:space="preserve">1.93192744255066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9600625038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9957001209259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00695395469666</t>
+    <t xml:space="preserve">1.96006238460541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99570024013519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00695371627808</t>
   </si>
   <si>
     <t xml:space="preserve">1.96756517887115</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">2.05947256088257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03508901596069</t>
+    <t xml:space="preserve">2.03508877754211</t>
   </si>
   <si>
     <t xml:space="preserve">2.03696441650391</t>
@@ -4085,7 +4085,7 @@
     <t xml:space="preserve">2.05384540557861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11011505126953</t>
+    <t xml:space="preserve">2.11011528968811</t>
   </si>
   <si>
     <t xml:space="preserve">2.20202231407166</t>
@@ -4121,7 +4121,7 @@
     <t xml:space="preserve">2.08573150634766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91129541397095</t>
+    <t xml:space="preserve">1.91129553318024</t>
   </si>
   <si>
     <t xml:space="preserve">1.95068407058716</t>
@@ -4133,40 +4133,40 @@
     <t xml:space="preserve">1.98819720745087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9975757598877</t>
+    <t xml:space="preserve">1.99757587909698</t>
   </si>
   <si>
     <t xml:space="preserve">2.00132703781128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96193826198578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97506773471832</t>
+    <t xml:space="preserve">1.96193814277649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97506761550903</t>
   </si>
   <si>
     <t xml:space="preserve">2.02571058273315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03133749961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09698557853699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12512063980103</t>
+    <t xml:space="preserve">2.03133726119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09698581695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12512040138245</t>
   </si>
   <si>
     <t xml:space="preserve">2.1720118522644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1963951587677</t>
+    <t xml:space="preserve">2.19639539718628</t>
   </si>
   <si>
     <t xml:space="preserve">2.19451951980591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16638469696045</t>
+    <t xml:space="preserve">2.16638493537903</t>
   </si>
   <si>
     <t xml:space="preserve">2.08385586738586</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">2.10261249542236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06697487831116</t>
+    <t xml:space="preserve">2.06697511672974</t>
   </si>
   <si>
     <t xml:space="preserve">2.0763533115387</t>
@@ -4190,22 +4190,22 @@
     <t xml:space="preserve">2.08198022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06509923934937</t>
+    <t xml:space="preserve">2.06509900093079</t>
   </si>
   <si>
     <t xml:space="preserve">2.34644794464111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32018876075745</t>
+    <t xml:space="preserve">2.32018852233887</t>
   </si>
   <si>
     <t xml:space="preserve">2.3914635181427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38208532333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40646910667419</t>
+    <t xml:space="preserve">2.38208556175232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40646886825562</t>
   </si>
   <si>
     <t xml:space="preserve">2.44773316383362</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">2.49274945259094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45148491859436</t>
+    <t xml:space="preserve">2.45148515701294</t>
   </si>
   <si>
     <t xml:space="preserve">2.4852466583252</t>
@@ -4223,7 +4223,7 @@
     <t xml:space="preserve">2.47399282455444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4646143913269</t>
+    <t xml:space="preserve">2.46461462974548</t>
   </si>
   <si>
     <t xml:space="preserve">2.46836566925049</t>
@@ -4232,7 +4232,7 @@
     <t xml:space="preserve">2.43272829055786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41959857940674</t>
+    <t xml:space="preserve">2.41959834098816</t>
   </si>
   <si>
     <t xml:space="preserve">2.38020992279053</t>
@@ -4250,13 +4250,13 @@
     <t xml:space="preserve">2.45711159706116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48337078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48149514198303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4664900302887</t>
+    <t xml:space="preserve">2.4833710193634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48149538040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46649026870728</t>
   </si>
   <si>
     <t xml:space="preserve">2.45523619651794</t>
@@ -4268,16 +4268,16 @@
     <t xml:space="preserve">2.35957741737366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25454068183899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30330777168274</t>
+    <t xml:space="preserve">2.25454092025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30330801010132</t>
   </si>
   <si>
     <t xml:space="preserve">2.2526650428772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21140050888062</t>
+    <t xml:space="preserve">2.21140074729919</t>
   </si>
   <si>
     <t xml:space="preserve">2.27517318725586</t>
@@ -4298,7 +4298,7 @@
     <t xml:space="preserve">2.21702766418457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26579451560974</t>
+    <t xml:space="preserve">2.26579475402832</t>
   </si>
   <si>
     <t xml:space="preserve">2.26016783714294</t>
@@ -4307,7 +4307,7 @@
     <t xml:space="preserve">2.34082102775574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31831312179565</t>
+    <t xml:space="preserve">2.31831288337708</t>
   </si>
   <si>
     <t xml:space="preserve">2.31456184387207</t>
@@ -4337,7 +4337,7 @@
     <t xml:space="preserve">2.54714322090149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55089473724365</t>
+    <t xml:space="preserve">2.55089497566223</t>
   </si>
   <si>
     <t xml:space="preserve">2.53776526451111</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">2.54901885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47774386405945</t>
+    <t xml:space="preserve">2.47774410247803</t>
   </si>
   <si>
     <t xml:space="preserve">2.4421067237854</t>
@@ -4376,25 +4376,25 @@
     <t xml:space="preserve">2.35770177841187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36520457267761</t>
+    <t xml:space="preserve">2.36520481109619</t>
   </si>
   <si>
     <t xml:space="preserve">2.34269666671753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29768085479736</t>
+    <t xml:space="preserve">2.29768109321594</t>
   </si>
   <si>
     <t xml:space="preserve">2.37645840644836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39896678924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4045934677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3727068901062</t>
+    <t xml:space="preserve">2.39896655082703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40459322929382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37270712852478</t>
   </si>
   <si>
     <t xml:space="preserve">2.49650049209595</t>
@@ -4403,10 +4403,10 @@
     <t xml:space="preserve">2.50963020324707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49837636947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51713299751282</t>
+    <t xml:space="preserve">2.49837613105774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51713275909424</t>
   </si>
   <si>
     <t xml:space="preserve">2.32792448997498</t>
@@ -5049,6 +5049,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.6159999370575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63199996948242</t>
   </si>
 </sst>
 </file>
@@ -61524,7 +61527,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6495023148</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>1042547</v>
@@ -61545,6 +61548,32 @@
         <v>1678</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6494444444</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>1094345</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>2.64000010490417</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>2.60199999809265</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>2.62800002098083</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>2.63199996948242</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1681">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05481195449829</t>
+    <t xml:space="preserve">5.05481243133545</t>
   </si>
   <si>
     <t xml:space="preserve">4.91553831100464</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79264974594116</t>
+    <t xml:space="preserve">4.792649269104</t>
   </si>
   <si>
     <t xml:space="preserve">4.87047863006592</t>
@@ -59,31 +59,31 @@
     <t xml:space="preserve">4.80493831634521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94011640548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09987020492554</t>
+    <t xml:space="preserve">4.9401159286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0998706817627</t>
   </si>
   <si>
     <t xml:space="preserve">4.84180498123169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75168609619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78445768356323</t>
+    <t xml:space="preserve">4.75168657302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78445720672607</t>
   </si>
   <si>
     <t xml:space="preserve">4.76397562026978</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3871169090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36253976821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67795372009277</t>
+    <t xml:space="preserve">4.38711738586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36254024505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67795419692993</t>
   </si>
   <si>
     <t xml:space="preserve">4.60012435913086</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">4.62060594558716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6410870552063</t>
+    <t xml:space="preserve">4.64108753204346</t>
   </si>
   <si>
     <t xml:space="preserve">4.65747213363647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58783626556396</t>
+    <t xml:space="preserve">4.58783578872681</t>
   </si>
   <si>
     <t xml:space="preserve">4.77626466751099</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">4.16182231903076</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15772533416748</t>
+    <t xml:space="preserve">4.1577262878418</t>
   </si>
   <si>
     <t xml:space="preserve">4.4157919883728</t>
@@ -137,13 +137,13 @@
     <t xml:space="preserve">4.61241340637207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60831642150879</t>
+    <t xml:space="preserve">4.60831689834595</t>
   </si>
   <si>
     <t xml:space="preserve">4.62879848480225</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63289451599121</t>
+    <t xml:space="preserve">4.63289403915405</t>
   </si>
   <si>
     <t xml:space="preserve">4.4075984954834</t>
@@ -152,52 +152,52 @@
     <t xml:space="preserve">4.37482881546021</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57964324951172</t>
+    <t xml:space="preserve">4.57964277267456</t>
   </si>
   <si>
     <t xml:space="preserve">4.71072483062744</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82132339477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86638307571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73530244827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64928007125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66976070404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52639102935791</t>
+    <t xml:space="preserve">4.82132291793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86638259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73530197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64927959442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66976118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52639150619507</t>
   </si>
   <si>
     <t xml:space="preserve">4.57145071029663</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5427770614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42808055877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25194072723389</t>
+    <t xml:space="preserve">4.54277658462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42808103561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25194025039673</t>
   </si>
   <si>
     <t xml:space="preserve">4.22736263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19459199905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21917057037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28880643844604</t>
+    <t xml:space="preserve">4.19459342956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21917009353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2888069152832</t>
   </si>
   <si>
     <t xml:space="preserve">4.34615516662598</t>
@@ -206,64 +206,64 @@
     <t xml:space="preserve">4.1782078742981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14953279495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44856119155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29699945449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3707332611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65337562561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88686513900757</t>
+    <t xml:space="preserve">4.14953327178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.448561668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29699993133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37073230743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65337514877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88686418533325</t>
   </si>
   <si>
     <t xml:space="preserve">4.69433975219727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64518308639526</t>
+    <t xml:space="preserve">4.64518404006958</t>
   </si>
   <si>
     <t xml:space="preserve">4.706627368927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62470245361328</t>
+    <t xml:space="preserve">4.62470197677612</t>
   </si>
   <si>
     <t xml:space="preserve">4.66566514968872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69843530654907</t>
+    <t xml:space="preserve">4.69843482971191</t>
   </si>
   <si>
     <t xml:space="preserve">4.68614673614502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71481990814209</t>
+    <t xml:space="preserve">4.71482038497925</t>
   </si>
   <si>
     <t xml:space="preserve">4.68204975128174</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79674577713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8540940284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99746417999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04661893844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96878910064697</t>
+    <t xml:space="preserve">4.79674625396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85409355163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99746370315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0466194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96878957748413</t>
   </si>
   <si>
     <t xml:space="preserve">5.03433084487915</t>
@@ -272,13 +272,13 @@
     <t xml:space="preserve">5.06710052490234</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91144227981567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88934326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91877222061157</t>
+    <t xml:space="preserve">4.91144132614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88934373855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91877174377441</t>
   </si>
   <si>
     <t xml:space="preserve">5.0575065612793</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">4.88513946533203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71277236938477</t>
+    <t xml:space="preserve">4.71277284622192</t>
   </si>
   <si>
     <t xml:space="preserve">4.66232347488403</t>
@@ -305,34 +305,34 @@
     <t xml:space="preserve">4.78003740310669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75901699066162</t>
+    <t xml:space="preserve">4.75901746749878</t>
   </si>
   <si>
     <t xml:space="preserve">4.69595527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65811967849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46893548965454</t>
+    <t xml:space="preserve">4.65811920166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4689359664917</t>
   </si>
   <si>
     <t xml:space="preserve">4.07291126251221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26713943481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38065052032471</t>
+    <t xml:space="preserve">4.26713991165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38065004348755</t>
   </si>
   <si>
     <t xml:space="preserve">4.4016695022583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43950700759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39326190948486</t>
+    <t xml:space="preserve">4.43950748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39326238632202</t>
   </si>
   <si>
     <t xml:space="preserve">4.24191474914551</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">4.29656791687012</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28816032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2923641204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23771190643311</t>
+    <t xml:space="preserve">4.28815984725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29236459732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23771142959595</t>
   </si>
   <si>
     <t xml:space="preserve">4.17212820053101</t>
@@ -368,10 +368,10 @@
     <t xml:space="preserve">4.30077219009399</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39746618270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33440542221069</t>
+    <t xml:space="preserve">4.3974666595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33440494537354</t>
   </si>
   <si>
     <t xml:space="preserve">4.34281301498413</t>
@@ -383,22 +383,22 @@
     <t xml:space="preserve">4.51097679138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50677251815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42269039154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41428279876709</t>
+    <t xml:space="preserve">4.5067720413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42268991470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41428232192993</t>
   </si>
   <si>
     <t xml:space="preserve">4.37644529342651</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38905811309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43530321121216</t>
+    <t xml:space="preserve">4.3890585899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43530368804932</t>
   </si>
   <si>
     <t xml:space="preserve">4.36383390426636</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">4.20239686965942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30497646331787</t>
+    <t xml:space="preserve">4.30497694015503</t>
   </si>
   <si>
     <t xml:space="preserve">4.32599639892578</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23350715637207</t>
+    <t xml:space="preserve">4.23350667953491</t>
   </si>
   <si>
     <t xml:space="preserve">4.17044544219971</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve">4.11999702453613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16203832626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33020114898682</t>
+    <t xml:space="preserve">4.16203784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33020067214966</t>
   </si>
   <si>
     <t xml:space="preserve">4.28395652770996</t>
@@ -443,25 +443,25 @@
     <t xml:space="preserve">4.21669054031372</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19062614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49836444854736</t>
+    <t xml:space="preserve">4.19062566757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49836349487305</t>
   </si>
   <si>
     <t xml:space="preserve">4.51518058776855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58244562149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55301666259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45632362365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44791507720947</t>
+    <t xml:space="preserve">4.58244609832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55301713943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45632314682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44791460037231</t>
   </si>
   <si>
     <t xml:space="preserve">4.45211887359619</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">4.40587472915649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35122108459473</t>
+    <t xml:space="preserve">4.35122060775757</t>
   </si>
   <si>
     <t xml:space="preserve">4.31338453292847</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">4.24611902236938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20407915115356</t>
+    <t xml:space="preserve">4.20407962799072</t>
   </si>
   <si>
     <t xml:space="preserve">4.19903373718262</t>
@@ -491,67 +491,67 @@
     <t xml:space="preserve">4.212486743927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19398927688599</t>
+    <t xml:space="preserve">4.19398880004883</t>
   </si>
   <si>
     <t xml:space="preserve">4.13344955444336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08636474609375</t>
+    <t xml:space="preserve">4.08636426925659</t>
   </si>
   <si>
     <t xml:space="preserve">4.18389940261841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26293563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17549085617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10822486877441</t>
+    <t xml:space="preserve">4.26293611526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1754903793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10822534561157</t>
   </si>
   <si>
     <t xml:space="preserve">4.13176822662354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11327028274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15362977981567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1014986038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15194845199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18894386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17717170715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18053579330444</t>
+    <t xml:space="preserve">4.11327075958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15362930297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10149812698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15194797515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18894290924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17717218399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18053531646729</t>
   </si>
   <si>
     <t xml:space="preserve">4.10654401779175</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15867376327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14858531951904</t>
+    <t xml:space="preserve">4.1586742401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14858484268188</t>
   </si>
   <si>
     <t xml:space="preserve">4.12672328948975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20828247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27975225448608</t>
+    <t xml:space="preserve">4.20828294754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27975273132324</t>
   </si>
   <si>
     <t xml:space="preserve">4.37224149703979</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">4.15026617050171</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0560941696167</t>
+    <t xml:space="preserve">4.05609464645386</t>
   </si>
   <si>
     <t xml:space="preserve">4.03759670257568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01909828186035</t>
+    <t xml:space="preserve">4.01909923553467</t>
   </si>
   <si>
     <t xml:space="preserve">3.99891948699951</t>
@@ -587,46 +587,46 @@
     <t xml:space="preserve">4.05945825576782</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02078104019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0813193321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13008689880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51938390731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52358818054199</t>
+    <t xml:space="preserve">4.02078151702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08131980895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13008737564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51938438415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52358865737915</t>
   </si>
   <si>
     <t xml:space="preserve">4.5319972038269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49416017532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4268946647644</t>
+    <t xml:space="preserve">4.49415969848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42689418792725</t>
   </si>
   <si>
     <t xml:space="preserve">4.41848611831665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46473169326782</t>
+    <t xml:space="preserve">4.46473121643066</t>
   </si>
   <si>
     <t xml:space="preserve">4.43109941482544</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47734355926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47313928604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48154783248901</t>
+    <t xml:space="preserve">4.47734403610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47313976287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48154830932617</t>
   </si>
   <si>
     <t xml:space="preserve">4.60767030715942</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">4.70015954971313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67073154449463</t>
+    <t xml:space="preserve">4.67073202133179</t>
   </si>
   <si>
     <t xml:space="preserve">4.6497106552124</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">4.74220085144043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83469152450562</t>
+    <t xml:space="preserve">4.8346905708313</t>
   </si>
   <si>
     <t xml:space="preserve">4.82207822799683</t>
@@ -665,13 +665,13 @@
     <t xml:space="preserve">4.75060892105103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85150623321533</t>
+    <t xml:space="preserve">4.85150671005249</t>
   </si>
   <si>
     <t xml:space="preserve">5.0112624168396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9776291847229</t>
+    <t xml:space="preserve">4.97762870788574</t>
   </si>
   <si>
     <t xml:space="preserve">4.92717933654785</t>
@@ -680,10 +680,10 @@
     <t xml:space="preserve">4.95240449905396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89354705810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93558835983276</t>
+    <t xml:space="preserve">4.89354753494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93558883666992</t>
   </si>
   <si>
     <t xml:space="preserve">4.87673091888428</t>
@@ -698,19 +698,19 @@
     <t xml:space="preserve">5.01967000961304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20885372161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17522144317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05330228805542</t>
+    <t xml:space="preserve">5.20885324478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17522096633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05330276489258</t>
   </si>
   <si>
     <t xml:space="preserve">5.07432270050049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04489421844482</t>
+    <t xml:space="preserve">5.04489469528198</t>
   </si>
   <si>
     <t xml:space="preserve">5.20464944839478</t>
@@ -722,34 +722,34 @@
     <t xml:space="preserve">5.10795545578003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21305799484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13738489151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19203758239746</t>
+    <t xml:space="preserve">5.21305847167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13738441467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1920371055603</t>
   </si>
   <si>
     <t xml:space="preserve">5.24669075012207</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40644550323486</t>
+    <t xml:space="preserve">5.40644502639771</t>
   </si>
   <si>
     <t xml:space="preserve">5.36440420150757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3097505569458</t>
+    <t xml:space="preserve">5.30975103378296</t>
   </si>
   <si>
     <t xml:space="preserve">5.36020040512085</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21726226806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22566938400269</t>
+    <t xml:space="preserve">5.21726179122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22566986083984</t>
   </si>
   <si>
     <t xml:space="preserve">5.29713916778564</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">5.41905784606934</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34758806228638</t>
+    <t xml:space="preserve">5.34758901596069</t>
   </si>
   <si>
     <t xml:space="preserve">5.34338426589966</t>
@@ -773,336 +773,339 @@
     <t xml:space="preserve">5.44007778167725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33917903900146</t>
+    <t xml:space="preserve">5.33917999267578</t>
   </si>
   <si>
     <t xml:space="preserve">5.33077192306519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3517918586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26771068572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23407745361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10375165939331</t>
+    <t xml:space="preserve">5.35179233551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2677116394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23407697677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10375118255615</t>
   </si>
   <si>
     <t xml:space="preserve">5.2298731803894</t>
   </si>
   <si>
+    <t xml:space="preserve">5.14579248428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19750881195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53366613388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48195028305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44747114181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5164270401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52504587173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49056911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50780820846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43885231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4431619644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35265827178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29663276672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36989688873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39575624465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42161273956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43023300170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34834909439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37851667404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34403944015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41730356216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41299390792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45178174972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39144611358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46901988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50349855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57676315307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54659509658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57245254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55521440505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55090427398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40006589889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4776406288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4259238243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37420749664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30094194412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27508401870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31818103790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40437459945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4948787689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47333002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4647102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49918794631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66295719146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71467399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77501010894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80517673492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86982345581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79224920272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75346040725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61555004119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80086803436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86120367050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82241630554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54228544235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56814289093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55952453613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40868473052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46040105819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36127710342407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24491548538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04235887527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06390810012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97340393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9561653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99926137924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99064302444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10269451141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05959844589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02081108093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03374004364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00788164138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96478414535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11562490463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08545637130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93030691146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01650094985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98633337020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87428045272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80963468551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84842157363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81825351715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78377676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85273218154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82256412506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78808689117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86997079849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94323587417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90013837814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88290023803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86135101318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82687425613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07252788543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08114624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05097770690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99495267868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32679986953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15872097015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18026971817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33541870117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26215410232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11131525039673</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.14579200744629</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19750881195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53366565704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56383371353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48194980621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44747114181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5164270401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52504634857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4905686378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50780820846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43885231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4431619644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35265874862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29663228988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36989736557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39575576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42161273956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43023347854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34834861755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37851667404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34403944015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41730356216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41299438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45178174972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39144563674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46901988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50349855422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57676267623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54659509658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57245302200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55521488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55090427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40006542205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47764015197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42592430114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37420701980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30094194412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27508354187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31818103790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40437412261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49487781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47333002090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46471071243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49918842315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66295719146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71467399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7750096321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80517721176147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86982345581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79224920272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75346040725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61555051803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80086803436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86120367050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82241630554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54228544235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56814289093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55952501296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40868425369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46040105819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36127710342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24491596221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04235887527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06390810012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97340393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9561653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9992618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99064302444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10269451141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05959844589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02081108093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03374004364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0078821182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96478414535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11562442779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08545637130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93030691146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01650094985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98633337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87427997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80963516235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84842157363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81825399398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78377628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85273265838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82256412506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78808641433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86997079849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94323587417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90013837814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88289976119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86135149002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82687425613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07252788543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08114624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05097770690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99495267868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32680034637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15872097015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18026971817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33541917800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26215410232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11131525039673</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.93892621994019</t>
   </si>
   <si>
@@ -1112,13 +1115,13 @@
     <t xml:space="preserve">4.75360918045044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74067974090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76222801208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77946710586548</t>
+    <t xml:space="preserve">4.7406792640686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7622275352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77946758270264</t>
   </si>
   <si>
     <t xml:space="preserve">4.85704183578491</t>
@@ -1127,34 +1130,31 @@
     <t xml:space="preserve">4.73205995559692</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69758224487305</t>
+    <t xml:space="preserve">4.69758272171021</t>
   </si>
   <si>
     <t xml:space="preserve">4.68465328216553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72344160079956</t>
+    <t xml:space="preserve">4.72344064712524</t>
   </si>
   <si>
     <t xml:space="preserve">4.63293647766113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55105257034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58552980422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63724660873413</t>
+    <t xml:space="preserve">4.55105304718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58553028106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63724613189697</t>
   </si>
   <si>
     <t xml:space="preserve">4.61569738388062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66310453414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71482086181641</t>
+    <t xml:space="preserve">4.66310405731201</t>
   </si>
   <si>
     <t xml:space="preserve">4.73637008666992</t>
@@ -1172,49 +1172,49 @@
     <t xml:space="preserve">4.70620203018188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62862777709961</t>
+    <t xml:space="preserve">4.62862682342529</t>
   </si>
   <si>
     <t xml:space="preserve">4.5812201499939</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49933576583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52519369125366</t>
+    <t xml:space="preserve">4.49933624267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52519416809082</t>
   </si>
   <si>
     <t xml:space="preserve">4.3226375579834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29419374465942</t>
+    <t xml:space="preserve">4.29419326782227</t>
   </si>
   <si>
     <t xml:space="preserve">4.283851146698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28902149200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32694673538208</t>
+    <t xml:space="preserve">4.28902196884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32694721221924</t>
   </si>
   <si>
     <t xml:space="preserve">4.22868585586548</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28557443618774</t>
+    <t xml:space="preserve">4.28557395935059</t>
   </si>
   <si>
     <t xml:space="preserve">4.23385810852051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2579927444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30281352996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30970907211304</t>
+    <t xml:space="preserve">4.25799226760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3028130531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3097095489502</t>
   </si>
   <si>
     <t xml:space="preserve">4.275230884552</t>
@@ -1226,40 +1226,40 @@
     <t xml:space="preserve">2.92025852203369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99955701828003</t>
+    <t xml:space="preserve">2.99955725669861</t>
   </si>
   <si>
     <t xml:space="preserve">2.93404960632324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96335577964783</t>
+    <t xml:space="preserve">2.96335601806641</t>
   </si>
   <si>
     <t xml:space="preserve">2.98576593399048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89095234870911</t>
+    <t xml:space="preserve">2.89095211029053</t>
   </si>
   <si>
     <t xml:space="preserve">3.01679611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04265427589417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1133337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17884135246277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27193069458008</t>
+    <t xml:space="preserve">3.04265451431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11333346366882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17884111404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2719304561615</t>
   </si>
   <si>
     <t xml:space="preserve">3.24952030181885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25813937187195</t>
+    <t xml:space="preserve">3.25813961029053</t>
   </si>
   <si>
     <t xml:space="preserve">3.24434852600098</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">3.03920602798462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05127334594727</t>
+    <t xml:space="preserve">3.05127358436584</t>
   </si>
   <si>
     <t xml:space="preserve">2.99093794822693</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">2.9306013584137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9150869846344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94094491004944</t>
+    <t xml:space="preserve">2.91508674621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94094514846802</t>
   </si>
   <si>
     <t xml:space="preserve">2.83406448364258</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">2.6392650604248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62892246246338</t>
+    <t xml:space="preserve">2.6289222240448</t>
   </si>
   <si>
     <t xml:space="preserve">2.59099674224854</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">2.58582496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55824303627014</t>
+    <t xml:space="preserve">2.55824279785156</t>
   </si>
   <si>
     <t xml:space="preserve">2.49618268013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47204875946045</t>
+    <t xml:space="preserve">2.47204899787903</t>
   </si>
   <si>
     <t xml:space="preserve">2.43584728240967</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">2.38757872581482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33413791656494</t>
+    <t xml:space="preserve">2.33413767814636</t>
   </si>
   <si>
     <t xml:space="preserve">2.34448146820068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49101209640503</t>
+    <t xml:space="preserve">2.49101185798645</t>
   </si>
   <si>
     <t xml:space="preserve">2.45653343200684</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">2.37551164627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37033987045288</t>
+    <t xml:space="preserve">2.3703396320343</t>
   </si>
   <si>
     <t xml:space="preserve">2.39792156219482</t>
@@ -1376,31 +1376,31 @@
     <t xml:space="preserve">2.42895150184631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44101881980896</t>
+    <t xml:space="preserve">2.44101905822754</t>
   </si>
   <si>
     <t xml:space="preserve">2.42550349235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42722773551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43067526817322</t>
+    <t xml:space="preserve">2.42722797393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43067502975464</t>
   </si>
   <si>
     <t xml:space="preserve">2.32724237442017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29104137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35310077667236</t>
+    <t xml:space="preserve">2.29104113578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35310053825378</t>
   </si>
   <si>
     <t xml:space="preserve">2.2962121963501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30138397216797</t>
+    <t xml:space="preserve">2.30138421058655</t>
   </si>
   <si>
     <t xml:space="preserve">2.47721982002258</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">2.50135445594788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39275002479553</t>
+    <t xml:space="preserve">2.39274978637695</t>
   </si>
   <si>
     <t xml:space="preserve">2.38240694999695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41860795021057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40654063224792</t>
+    <t xml:space="preserve">2.41860818862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40654039382935</t>
   </si>
   <si>
     <t xml:space="preserve">2.34620499610901</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">2.28069758415222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28242158889771</t>
+    <t xml:space="preserve">2.28242135047913</t>
   </si>
   <si>
     <t xml:space="preserve">2.1203761100769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07555532455444</t>
+    <t xml:space="preserve">2.07555508613586</t>
   </si>
   <si>
     <t xml:space="preserve">2.0376296043396</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">2.1031379699707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22036194801331</t>
+    <t xml:space="preserve">2.22036170959473</t>
   </si>
   <si>
     <t xml:space="preserve">2.24104833602905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25139141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23587656021118</t>
+    <t xml:space="preserve">2.25139117240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2358763217926</t>
   </si>
   <si>
     <t xml:space="preserve">2.23759984970093</t>
@@ -1475,25 +1475,25 @@
     <t xml:space="preserve">2.22380924224854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22553253173828</t>
+    <t xml:space="preserve">2.22553277015686</t>
   </si>
   <si>
     <t xml:space="preserve">2.18243622779846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14278721809387</t>
+    <t xml:space="preserve">2.14278697967529</t>
   </si>
   <si>
     <t xml:space="preserve">2.15657806396484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16519737243652</t>
+    <t xml:space="preserve">2.16519689559937</t>
   </si>
   <si>
     <t xml:space="preserve">2.22898101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16347336769104</t>
+    <t xml:space="preserve">2.16347360610962</t>
   </si>
   <si>
     <t xml:space="preserve">2.15830159187317</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">2.09107065200806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19277906417847</t>
+    <t xml:space="preserve">2.19277882575989</t>
   </si>
   <si>
     <t xml:space="preserve">2.30827951431274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25656294822693</t>
+    <t xml:space="preserve">2.25656318664551</t>
   </si>
   <si>
     <t xml:space="preserve">2.18588352203369</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">2.1358916759491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1289963722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06521224975586</t>
+    <t xml:space="preserve">2.12899613380432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06521248817444</t>
   </si>
   <si>
     <t xml:space="preserve">2.0634880065918</t>
@@ -1532,34 +1532,34 @@
     <t xml:space="preserve">2.04624962806702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00832438468933</t>
+    <t xml:space="preserve">2.00832414627075</t>
   </si>
   <si>
     <t xml:space="preserve">1.93592095375061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81352531909943</t>
+    <t xml:space="preserve">1.81352519989014</t>
   </si>
   <si>
     <t xml:space="preserve">1.74974155426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70664405822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68078589439392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68164813518524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55235683917999</t>
+    <t xml:space="preserve">1.70664393901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68078577518463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68164801597595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5523567199707</t>
   </si>
   <si>
     <t xml:space="preserve">1.53339397907257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44116592407227</t>
+    <t xml:space="preserve">1.44116616249084</t>
   </si>
   <si>
     <t xml:space="preserve">1.35928177833557</t>
@@ -1568,10 +1568,10 @@
     <t xml:space="preserve">1.32652795314789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31187474727631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28946471214294</t>
+    <t xml:space="preserve">1.3118748664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28946483135223</t>
   </si>
   <si>
     <t xml:space="preserve">1.28429281711578</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">1.34549069404602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35755813121796</t>
+    <t xml:space="preserve">1.35755801200867</t>
   </si>
   <si>
     <t xml:space="preserve">1.35497212409973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32480430603027</t>
+    <t xml:space="preserve">1.32480442523956</t>
   </si>
   <si>
     <t xml:space="preserve">1.32049477100372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38169276714325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3946213722229</t>
+    <t xml:space="preserve">1.38169264793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39462125301361</t>
   </si>
   <si>
     <t xml:space="preserve">1.3360093832016</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">1.28256928920746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29205071926117</t>
+    <t xml:space="preserve">1.29205060005188</t>
   </si>
   <si>
     <t xml:space="preserve">1.30842757225037</t>
@@ -1622,13 +1622,13 @@
     <t xml:space="preserve">1.29291200637817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27308785915375</t>
+    <t xml:space="preserve">1.27308773994446</t>
   </si>
   <si>
     <t xml:space="preserve">1.29636013507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29808390140533</t>
+    <t xml:space="preserve">1.29808378219604</t>
   </si>
   <si>
     <t xml:space="preserve">1.30066978931427</t>
@@ -1640,22 +1640,22 @@
     <t xml:space="preserve">1.41358399391174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40755081176758</t>
+    <t xml:space="preserve">1.40755093097687</t>
   </si>
   <si>
     <t xml:space="preserve">1.38858819007874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35669577121735</t>
+    <t xml:space="preserve">1.35669565200806</t>
   </si>
   <si>
     <t xml:space="preserve">1.38772583007812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29118824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27825951576233</t>
+    <t xml:space="preserve">1.29118835926056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27825975418091</t>
   </si>
   <si>
     <t xml:space="preserve">1.1024227142334</t>
@@ -1664,49 +1664,49 @@
     <t xml:space="preserve">0.992956459522247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02140069007874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653350949287415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725754916667938</t>
+    <t xml:space="preserve">1.02140080928802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653351008892059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725754857063293</t>
   </si>
   <si>
     <t xml:space="preserve">0.727478504180908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889523506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988647043704987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978303372859955</t>
+    <t xml:space="preserve">0.889523446559906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988646924495697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978303253650665</t>
   </si>
   <si>
     <t xml:space="preserve">0.87573254108429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942963719367981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974855959415436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948135495185852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946411907672882</t>
+    <t xml:space="preserve">0.942963600158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974856078624725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948135554790497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946412026882172</t>
   </si>
   <si>
     <t xml:space="preserve">1.03691518306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18430805206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14982974529266</t>
+    <t xml:space="preserve">1.18430817127228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14982986450195</t>
   </si>
   <si>
     <t xml:space="preserve">1.13431513309479</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">1.068807721138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0438107252121</t>
+    <t xml:space="preserve">1.04381084442139</t>
   </si>
   <si>
     <t xml:space="preserve">1.05070626735687</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">1.03088212013245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04812121391296</t>
+    <t xml:space="preserve">1.04812133312225</t>
   </si>
   <si>
     <t xml:space="preserve">1.04553532600403</t>
@@ -1739,10 +1739,10 @@
     <t xml:space="preserve">1.11707603931427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13690102100372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16362071037292</t>
+    <t xml:space="preserve">1.13690114021301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16362082958221</t>
   </si>
   <si>
     <t xml:space="preserve">1.16534531116486</t>
@@ -1754,16 +1754,16 @@
     <t xml:space="preserve">1.17310202121735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14896833896637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13776254653931</t>
+    <t xml:space="preserve">1.14896845817566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13776242733002</t>
   </si>
   <si>
     <t xml:space="preserve">1.09983682632446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06535947322845</t>
+    <t xml:space="preserve">1.06535959243774</t>
   </si>
   <si>
     <t xml:space="preserve">1.10500860214233</t>
@@ -1772,16 +1772,16 @@
     <t xml:space="preserve">1.09725177288055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05156850814819</t>
+    <t xml:space="preserve">1.05156862735748</t>
   </si>
   <si>
     <t xml:space="preserve">1.06794536113739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09897541999817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16448283195496</t>
+    <t xml:space="preserve">1.09897553920746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16448295116425</t>
   </si>
   <si>
     <t xml:space="preserve">1.11966192722321</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">1.10673320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11535215377808</t>
+    <t xml:space="preserve">1.11535227298737</t>
   </si>
   <si>
     <t xml:space="preserve">1.14034831523895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11276626586914</t>
+    <t xml:space="preserve">1.11276638507843</t>
   </si>
   <si>
     <t xml:space="preserve">1.13517653942108</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.14810609817505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14552021026611</t>
+    <t xml:space="preserve">1.1455203294754</t>
   </si>
   <si>
     <t xml:space="preserve">1.26533007621765</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">1.40410268306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37307262420654</t>
+    <t xml:space="preserve">1.37307250499725</t>
   </si>
   <si>
     <t xml:space="preserve">1.33945751190186</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">1.43168473243713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37221121788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39375901222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39806950092316</t>
+    <t xml:space="preserve">1.37221133708954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39375913143158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39806962013245</t>
   </si>
   <si>
     <t xml:space="preserve">1.37134909629822</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">1.46443843841553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46702444553375</t>
+    <t xml:space="preserve">1.46702432632446</t>
   </si>
   <si>
     <t xml:space="preserve">1.46788656711578</t>
@@ -1871,16 +1871,16 @@
     <t xml:space="preserve">1.47391974925995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4446142911911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4196172952652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43858015537262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49977791309357</t>
+    <t xml:space="preserve">1.44461441040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41961741447449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43858003616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49977803230286</t>
   </si>
   <si>
     <t xml:space="preserve">1.48167753219604</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">1.66268527507782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64803218841553</t>
+    <t xml:space="preserve">1.64803206920624</t>
   </si>
   <si>
     <t xml:space="preserve">1.6445848941803</t>
@@ -1901,37 +1901,37 @@
     <t xml:space="preserve">1.62475979328156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6023496389389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60062515735626</t>
+    <t xml:space="preserve">1.60234975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60062503814697</t>
   </si>
   <si>
     <t xml:space="preserve">1.56270051002502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51787936687469</t>
+    <t xml:space="preserve">1.51787948608398</t>
   </si>
   <si>
     <t xml:space="preserve">1.46271467208862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47995388507843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43254697322845</t>
+    <t xml:space="preserve">1.47995376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43254709243774</t>
   </si>
   <si>
     <t xml:space="preserve">1.42737507820129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37479639053345</t>
+    <t xml:space="preserve">1.37479627132416</t>
   </si>
   <si>
     <t xml:space="preserve">1.4109982252121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39289784431458</t>
+    <t xml:space="preserve">1.39289772510529</t>
   </si>
   <si>
     <t xml:space="preserve">1.3446284532547</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">1.36445343494415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35841929912567</t>
+    <t xml:space="preserve">1.35841941833496</t>
   </si>
   <si>
     <t xml:space="preserve">1.34031891822815</t>
@@ -1952,34 +1952,34 @@
     <t xml:space="preserve">1.3523862361908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36100542545319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33342337608337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32825171947479</t>
+    <t xml:space="preserve">1.3610053062439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33342349529266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3282516002655</t>
   </si>
   <si>
     <t xml:space="preserve">1.29032611846924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36962532997131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35324859619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36186766624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39203524589539</t>
+    <t xml:space="preserve">1.36962521076202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35324847698212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36186754703522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39203536510468</t>
   </si>
   <si>
     <t xml:space="preserve">1.38944947719574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34893894195557</t>
+    <t xml:space="preserve">1.34893906116486</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023933172226</t>
@@ -1988,16 +1988,16 @@
     <t xml:space="preserve">1.30928874015808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2610205411911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22999048233032</t>
+    <t xml:space="preserve">1.26102042198181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22999036312103</t>
   </si>
   <si>
     <t xml:space="preserve">1.40151679515839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36531591415405</t>
+    <t xml:space="preserve">1.36531579494476</t>
   </si>
   <si>
     <t xml:space="preserve">1.32308065891266</t>
@@ -2006,28 +2006,28 @@
     <t xml:space="preserve">1.27998328208923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31446075439453</t>
+    <t xml:space="preserve">1.31446063518524</t>
   </si>
   <si>
     <t xml:space="preserve">1.30153203010559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36876308917999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38083040714264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47047245502472</t>
+    <t xml:space="preserve">1.3687629699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38083028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47047257423401</t>
   </si>
   <si>
     <t xml:space="preserve">1.52908444404602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54373776912689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55063307285309</t>
+    <t xml:space="preserve">1.5437376499176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55063319206238</t>
   </si>
   <si>
     <t xml:space="preserve">1.55149447917938</t>
@@ -2042,16 +2042,16 @@
     <t xml:space="preserve">1.58769655227661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59804010391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53942716121674</t>
+    <t xml:space="preserve">1.59804022312164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53942728042603</t>
   </si>
   <si>
     <t xml:space="preserve">1.46185255050659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43771886825562</t>
+    <t xml:space="preserve">1.43771874904633</t>
   </si>
   <si>
     <t xml:space="preserve">1.43513286113739</t>
@@ -2060,25 +2060,25 @@
     <t xml:space="preserve">1.46530067920685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4187558889389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39117407798767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37393486499786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37048661708832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33859527111053</t>
+    <t xml:space="preserve">1.41875600814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39117395877838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37393498420715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37048673629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33859539031982</t>
   </si>
   <si>
     <t xml:space="preserve">1.34118127822876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34376728534698</t>
+    <t xml:space="preserve">1.34376704692841</t>
   </si>
   <si>
     <t xml:space="preserve">1.37565851211548</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">1.30584156513214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28170692920685</t>
+    <t xml:space="preserve">1.28170704841614</t>
   </si>
   <si>
     <t xml:space="preserve">1.43427062034607</t>
@@ -2096,13 +2096,13 @@
     <t xml:space="preserve">1.41444647312164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42909872531891</t>
+    <t xml:space="preserve">1.4290988445282</t>
   </si>
   <si>
     <t xml:space="preserve">1.43340921401978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42392790317535</t>
+    <t xml:space="preserve">1.42392778396606</t>
   </si>
   <si>
     <t xml:space="preserve">1.49891662597656</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">1.5359799861908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5445990562439</t>
+    <t xml:space="preserve">1.54459893703461</t>
   </si>
   <si>
     <t xml:space="preserve">1.54890847206116</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">1.47478199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45237100124359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3765207529068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36790084838867</t>
+    <t xml:space="preserve">1.45237112045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37652087211609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36790072917938</t>
   </si>
   <si>
     <t xml:space="preserve">1.37996804714203</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">1.40496492385864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41272187232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49115896224976</t>
+    <t xml:space="preserve">1.41272175312042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49115884304047</t>
   </si>
   <si>
     <t xml:space="preserve">1.48081529140472</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">1.51270759105682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51874077320099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51184523105621</t>
+    <t xml:space="preserve">1.5187406539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5118453502655</t>
   </si>
   <si>
     <t xml:space="preserve">1.51960301399231</t>
@@ -2180,19 +2180,19 @@
     <t xml:space="preserve">1.56011462211609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51701712608337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54028952121735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57131969928741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58942019939423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58424818515778</t>
+    <t xml:space="preserve">1.51701724529266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54028940200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57131958007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58942008018494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58424830436707</t>
   </si>
   <si>
     <t xml:space="preserve">1.64889430999756</t>
@@ -2210,19 +2210,19 @@
     <t xml:space="preserve">1.64372253417969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68423390388489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6351033449173</t>
+    <t xml:space="preserve">1.68423402309418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63510346412659</t>
   </si>
   <si>
     <t xml:space="preserve">1.61010658740997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59114384651184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60838294029236</t>
+    <t xml:space="preserve">1.59114372730255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60838282108307</t>
   </si>
   <si>
     <t xml:space="preserve">1.61614060401917</t>
@@ -2234,13 +2234,13 @@
     <t xml:space="preserve">1.63768923282623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7023344039917</t>
+    <t xml:space="preserve">1.70233452320099</t>
   </si>
   <si>
     <t xml:space="preserve">1.79628610610962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7618088722229</t>
+    <t xml:space="preserve">1.76180875301361</t>
   </si>
   <si>
     <t xml:space="preserve">1.77387619018555</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">1.74629330635071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82214438915253</t>
+    <t xml:space="preserve">1.82214426994324</t>
   </si>
   <si>
     <t xml:space="preserve">1.80490529537201</t>
@@ -2270,13 +2270,13 @@
     <t xml:space="preserve">1.69112956523895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66009938716888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73939776420593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72388303279877</t>
+    <t xml:space="preserve">1.66009926795959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73939788341522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72388315200806</t>
   </si>
   <si>
     <t xml:space="preserve">1.74112236499786</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">1.72905492782593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73422682285309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6687183380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66699481010437</t>
+    <t xml:space="preserve">1.7342267036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66871845722198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66699492931366</t>
   </si>
   <si>
     <t xml:space="preserve">1.67647624015808</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">1.69285309314728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67561399936676</t>
+    <t xml:space="preserve">1.67561411857605</t>
   </si>
   <si>
     <t xml:space="preserve">1.66096174716949</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">1.6282080411911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64199900627136</t>
+    <t xml:space="preserve">1.64199888706207</t>
   </si>
   <si>
     <t xml:space="preserve">1.6118311882019</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">1.64630842208862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63337874412537</t>
+    <t xml:space="preserve">1.63337886333466</t>
   </si>
   <si>
     <t xml:space="preserve">1.65492749214172</t>
@@ -2333,10 +2333,10 @@
     <t xml:space="preserve">1.65148019790649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63596487045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5945919752121</t>
+    <t xml:space="preserve">1.63596475124359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59459209442139</t>
   </si>
   <si>
     <t xml:space="preserve">1.59631562232971</t>
@@ -2348,19 +2348,19 @@
     <t xml:space="preserve">1.48340106010437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54201316833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53684210777283</t>
+    <t xml:space="preserve">1.54201304912567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53684222698212</t>
   </si>
   <si>
     <t xml:space="preserve">1.51443123817444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5609757900238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57476699352264</t>
+    <t xml:space="preserve">1.56097590923309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57476687431335</t>
   </si>
   <si>
     <t xml:space="preserve">1.58080101013184</t>
@@ -2369,10 +2369,10 @@
     <t xml:space="preserve">1.59717786312103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56528556346893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55752861499786</t>
+    <t xml:space="preserve">1.56528544425964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55752849578857</t>
   </si>
   <si>
     <t xml:space="preserve">1.52994573116302</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">1.21792316436768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20413219928741</t>
+    <t xml:space="preserve">1.20413208007812</t>
   </si>
   <si>
     <t xml:space="preserve">1.17224073410034</t>
@@ -2396,10 +2396,10 @@
     <t xml:space="preserve">1.06018757820129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962788879871368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.801605045795441</t>
+    <t xml:space="preserve">0.962788820266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.801605105400085</t>
   </si>
   <si>
     <t xml:space="preserve">0.74213171005249</t>
@@ -2408,16 +2408,16 @@
     <t xml:space="preserve">0.717997133731842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.564140498638153</t>
+    <t xml:space="preserve">0.564140558242798</t>
   </si>
   <si>
     <t xml:space="preserve">0.633096098899841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536126971244812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.618442893028259</t>
+    <t xml:space="preserve">0.536127030849457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.618442833423615</t>
   </si>
   <si>
     <t xml:space="preserve">0.696448385715485</t>
@@ -2426,37 +2426,37 @@
     <t xml:space="preserve">0.748164892196655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724030315876007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657661437988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.704206168651581</t>
+    <t xml:space="preserve">0.724030256271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657661497592926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.704206109046936</t>
   </si>
   <si>
     <t xml:space="preserve">0.702050924301147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.709808647632599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.680933833122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.664125323295593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68050217628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.663694679737091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.647317826747894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.595170676708221</t>
+    <t xml:space="preserve">0.709808707237244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680933773517609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.664125263690948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680502116680145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.663694620132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64731776714325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595170617103577</t>
   </si>
   <si>
     <t xml:space="preserve">0.637836396694183</t>
@@ -2465,16 +2465,16 @@
     <t xml:space="preserve">0.681795120239258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.667142808437347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671452343463898</t>
+    <t xml:space="preserve">0.667142868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.671452403068542</t>
   </si>
   <si>
     <t xml:space="preserve">0.65852278470993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.670590162277222</t>
+    <t xml:space="preserve">0.670590102672577</t>
   </si>
   <si>
     <t xml:space="preserve">0.660678029060364</t>
@@ -2489,19 +2489,19 @@
     <t xml:space="preserve">0.629647970199585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.624907732009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.630510270595551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672313690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698172092437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675761938095093</t>
+    <t xml:space="preserve">0.624907672405243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.630510210990906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672313749790192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698172032833099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675761997699738</t>
   </si>
   <si>
     <t xml:space="preserve">0.662832379341125</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">0.661971032619476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676624298095703</t>
+    <t xml:space="preserve">0.676624238491058</t>
   </si>
   <si>
     <t xml:space="preserve">0.660247385501862</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">0.669728755950928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.689552903175354</t>
+    <t xml:space="preserve">0.689552843570709</t>
   </si>
   <si>
     <t xml:space="preserve">0.671020746231079</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">0.646455526351929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.629217267036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625338315963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.649903655052185</t>
+    <t xml:space="preserve">0.629217207431793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62533837556839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.649903774261475</t>
   </si>
   <si>
     <t xml:space="preserve">0.615857064723969</t>
@@ -2543,25 +2543,25 @@
     <t xml:space="preserve">0.593015372753143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.600342512130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592584729194641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.621028780937195</t>
+    <t xml:space="preserve">0.600342452526093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592584669589996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62102884054184</t>
   </si>
   <si>
     <t xml:space="preserve">0.650766015052795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.749457836151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814534664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787383496761322</t>
+    <t xml:space="preserve">0.749457895755768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814534723758698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787383437156677</t>
   </si>
   <si>
     <t xml:space="preserve">0.79298597574234</t>
@@ -2570,28 +2570,28 @@
     <t xml:space="preserve">0.854183852672577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861941516399384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930035054683685</t>
+    <t xml:space="preserve">0.861941576004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930034995079041</t>
   </si>
   <si>
     <t xml:space="preserve">0.939516365528107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03777766227722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04294943809509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999852120876312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905900299549103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954168677330017</t>
+    <t xml:space="preserve">1.03777754306793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04294955730438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999852001667023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905900359153748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954168617725372</t>
   </si>
   <si>
     <t xml:space="preserve">0.955031037330627</t>
@@ -2600,16 +2600,16 @@
     <t xml:space="preserve">0.967960476875305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951583802700043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92055356502533</t>
+    <t xml:space="preserve">0.951583743095398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920553624629974</t>
   </si>
   <si>
     <t xml:space="preserve">0.922277271747589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924000918865204</t>
+    <t xml:space="preserve">0.924000859260559</t>
   </si>
   <si>
     <t xml:space="preserve">0.849874317646027</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.805915594100952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.85116720199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83177387714386</t>
+    <t xml:space="preserve">0.851167261600494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83177375793457</t>
   </si>
   <si>
     <t xml:space="preserve">0.810655772686005</t>
@@ -2630,19 +2630,19 @@
     <t xml:space="preserve">0.827894926071167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823153734207153</t>
+    <t xml:space="preserve">0.823153793811798</t>
   </si>
   <si>
     <t xml:space="preserve">0.827463328838348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824016094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.801174461841583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807208597660065</t>
+    <t xml:space="preserve">0.824016034603119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.801174402236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80720853805542</t>
   </si>
   <si>
     <t xml:space="preserve">0.790830731391907</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">0.847719073295593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820999503135681</t>
+    <t xml:space="preserve">0.820999443531036</t>
   </si>
   <si>
     <t xml:space="preserve">0.891247153282166</t>
@@ -2663,28 +2663,28 @@
     <t xml:space="preserve">0.871423006057739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885213971138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862803041934967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861510038375854</t>
+    <t xml:space="preserve">0.885213911533356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862802982330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861510097980499</t>
   </si>
   <si>
     <t xml:space="preserve">0.865388929843903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.825739741325378</t>
+    <t xml:space="preserve">0.825739681720734</t>
   </si>
   <si>
     <t xml:space="preserve">0.798588454723358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8149653673172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796434223651886</t>
+    <t xml:space="preserve">0.814965307712555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796434164047241</t>
   </si>
   <si>
     <t xml:space="preserve">0.791693031787872</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">0.811948776245117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817981958389282</t>
+    <t xml:space="preserve">0.817981898784637</t>
   </si>
   <si>
     <t xml:space="preserve">0.783073842525482</t>
@@ -2705,19 +2705,19 @@
     <t xml:space="preserve">0.790400087833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826170325279236</t>
+    <t xml:space="preserve">0.826170384883881</t>
   </si>
   <si>
     <t xml:space="preserve">0.835651755332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.825309038162231</t>
+    <t xml:space="preserve">0.825308978557587</t>
   </si>
   <si>
     <t xml:space="preserve">0.805053293704987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79557192325592</t>
+    <t xml:space="preserve">0.795571863651276</t>
   </si>
   <si>
     <t xml:space="preserve">0.764541745185852</t>
@@ -2729,28 +2729,28 @@
     <t xml:space="preserve">0.734804630279541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705929815769196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.712825298309326</t>
+    <t xml:space="preserve">0.705929756164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.712825238704681</t>
   </si>
   <si>
     <t xml:space="preserve">0.71498054265976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707653403282166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.695587038993835</t>
+    <t xml:space="preserve">0.70765346288681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.695586979389191</t>
   </si>
   <si>
     <t xml:space="preserve">0.687829256057739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703775405883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709377944469452</t>
+    <t xml:space="preserve">0.703775465488434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.709378004074097</t>
   </si>
   <si>
     <t xml:space="preserve">0.707222759723663</t>
@@ -2759,37 +2759,37 @@
     <t xml:space="preserve">0.699465036392212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.716704189777374</t>
+    <t xml:space="preserve">0.716704130172729</t>
   </si>
   <si>
     <t xml:space="preserve">0.719720780849457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.726185500621796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.720582962036133</t>
+    <t xml:space="preserve">0.72618556022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.720583081245422</t>
   </si>
   <si>
     <t xml:space="preserve">0.744286060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743424713611603</t>
+    <t xml:space="preserve">0.743424654006958</t>
   </si>
   <si>
     <t xml:space="preserve">0.766265392303467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792123734951019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.741269469261169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73782217502594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806776940822601</t>
+    <t xml:space="preserve">0.792123675346375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.741269409656525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.737822115421295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806776881217957</t>
   </si>
   <si>
     <t xml:space="preserve">0.781350255012512</t>
@@ -2801,10 +2801,10 @@
     <t xml:space="preserve">0.821860790252686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851597964763641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877456188201904</t>
+    <t xml:space="preserve">0.851597905158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87745612859726</t>
   </si>
   <si>
     <t xml:space="preserve">0.887799859046936</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">0.899867177009583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879179894924164</t>
+    <t xml:space="preserve">0.879179835319519</t>
   </si>
   <si>
     <t xml:space="preserve">0.881765723228455</t>
@@ -2831,22 +2831,22 @@
     <t xml:space="preserve">0.838669300079346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833497405052185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839100003242493</t>
+    <t xml:space="preserve">0.83349746465683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839099943637848</t>
   </si>
   <si>
     <t xml:space="preserve">0.855046093463898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859355688095093</t>
+    <t xml:space="preserve">0.859355628490448</t>
   </si>
   <si>
     <t xml:space="preserve">0.846857666969299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773592472076416</t>
+    <t xml:space="preserve">0.773592531681061</t>
   </si>
   <si>
     <t xml:space="preserve">0.733511686325073</t>
@@ -2858,13 +2858,13 @@
     <t xml:space="preserve">0.65421324968338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.665849924087524</t>
+    <t xml:space="preserve">0.66584986448288</t>
   </si>
   <si>
     <t xml:space="preserve">0.681364476680756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.706360459327698</t>
+    <t xml:space="preserve">0.706360399723053</t>
   </si>
   <si>
     <t xml:space="preserve">0.711101651191711</t>
@@ -2885,22 +2885,22 @@
     <t xml:space="preserve">0.883490264415741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872284352779388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905038118362427</t>
+    <t xml:space="preserve">0.872284471988678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905037999153137</t>
   </si>
   <si>
     <t xml:space="preserve">0.929172694683075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917967677116394</t>
+    <t xml:space="preserve">0.917967617511749</t>
   </si>
   <si>
     <t xml:space="preserve">0.915381729602814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91882997751236</t>
+    <t xml:space="preserve">0.918830037117004</t>
   </si>
   <si>
     <t xml:space="preserve">0.909348547458649</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">0.933482348918915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921414911746979</t>
+    <t xml:space="preserve">0.921414971351624</t>
   </si>
   <si>
     <t xml:space="preserve">0.930896401405334</t>
@@ -2918,19 +2918,19 @@
     <t xml:space="preserve">0.910209894180298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895556628704071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867974817752838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866251170635223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868837058544159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867113411426544</t>
+    <t xml:space="preserve">0.895556688308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.867974877357483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866251111030579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868837118148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.867113351821899</t>
   </si>
   <si>
     <t xml:space="preserve">0.88693755865097</t>
@@ -2942,31 +2942,31 @@
     <t xml:space="preserve">0.876593947410583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.900728523731232</t>
+    <t xml:space="preserve">0.900728464126587</t>
   </si>
   <si>
     <t xml:space="preserve">0.935206830501556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973993718624115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984337508678436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987784683704376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996404707431793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00933337211609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992094218730927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964512407779694</t>
+    <t xml:space="preserve">0.973993837833405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984337389469147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987784802913666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996404826641083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00933349132538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992094337940216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964512288570404</t>
   </si>
   <si>
     <t xml:space="preserve">0.931758642196655</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">0.902452111244202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88004207611084</t>
+    <t xml:space="preserve">0.880042135715485</t>
   </si>
   <si>
     <t xml:space="preserve">0.894695341587067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906762659549713</t>
+    <t xml:space="preserve">0.906762599945068</t>
   </si>
   <si>
     <t xml:space="preserve">0.93606823682785</t>
@@ -2990,34 +2990,34 @@
     <t xml:space="preserve">0.961065173149109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.950721383094788</t>
+    <t xml:space="preserve">0.950721442699432</t>
   </si>
   <si>
     <t xml:space="preserve">0.956754684448242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942102313041687</t>
+    <t xml:space="preserve">0.942102253437042</t>
   </si>
   <si>
     <t xml:space="preserve">0.977441966533661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928310513496399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959340453147888</t>
+    <t xml:space="preserve">0.928310453891754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959340572357178</t>
   </si>
   <si>
     <t xml:space="preserve">0.968822062015533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967098295688629</t>
+    <t xml:space="preserve">0.967098236083984</t>
   </si>
   <si>
     <t xml:space="preserve">0.972270131111145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971407830715179</t>
+    <t xml:space="preserve">0.971407890319824</t>
   </si>
   <si>
     <t xml:space="preserve">0.97657972574234</t>
@@ -3029,52 +3029,52 @@
     <t xml:space="preserve">1.00674748420715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18344569206238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22740459442139</t>
+    <t xml:space="preserve">1.18344581127167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2274044752121</t>
   </si>
   <si>
     <t xml:space="preserve">1.21102750301361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19723665714264</t>
+    <t xml:space="preserve">1.19723677635193</t>
   </si>
   <si>
     <t xml:space="preserve">1.1946507692337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20930397510529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17482674121857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14465796947479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14638245105743</t>
+    <t xml:space="preserve">1.20930409431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17482662200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1446578502655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14638257026672</t>
   </si>
   <si>
     <t xml:space="preserve">1.14207291603088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14724397659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16706895828247</t>
+    <t xml:space="preserve">1.14724385738373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16706883907318</t>
   </si>
   <si>
     <t xml:space="preserve">1.15672528743744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20068502426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18172216415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15069198608398</t>
+    <t xml:space="preserve">1.20068490505219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18172204494476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15069210529327</t>
   </si>
   <si>
     <t xml:space="preserve">1.14293420314789</t>
@@ -3083,10 +3083,10 @@
     <t xml:space="preserve">1.42134177684784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41617000102997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48512578010559</t>
+    <t xml:space="preserve">1.41616988182068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4851256608963</t>
   </si>
   <si>
     <t xml:space="preserve">1.48253977298737</t>
@@ -3095,13 +3095,13 @@
     <t xml:space="preserve">1.48598694801331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45150983333588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45668148994446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44202852249146</t>
+    <t xml:space="preserve">1.45150971412659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45668160915375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44202840328217</t>
   </si>
   <si>
     <t xml:space="preserve">1.48426342010498</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">1.50581204891205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48684942722321</t>
+    <t xml:space="preserve">1.48684930801392</t>
   </si>
   <si>
     <t xml:space="preserve">1.47909164428711</t>
@@ -3125,25 +3125,25 @@
     <t xml:space="preserve">1.45840525627136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47133386135101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63855075836182</t>
+    <t xml:space="preserve">1.47133374214172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63855063915253</t>
   </si>
   <si>
     <t xml:space="preserve">1.59976375102997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67820000648499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66354775428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67216682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67130434513092</t>
+    <t xml:space="preserve">1.6781998872757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66354751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67216670513153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67130446434021</t>
   </si>
   <si>
     <t xml:space="preserve">1.67906224727631</t>
@@ -3164,16 +3164,16 @@
     <t xml:space="preserve">1.39979314804077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.402379155159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40841233730316</t>
+    <t xml:space="preserve">1.40237903594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40841221809387</t>
   </si>
   <si>
     <t xml:space="preserve">1.44749176502228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48041021823883</t>
+    <t xml:space="preserve">1.48041009902954</t>
   </si>
   <si>
     <t xml:space="preserve">1.45755016803741</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">1.438347697258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43651914596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37616884708405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49412608146667</t>
+    <t xml:space="preserve">1.436518907547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37616872787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49412596225739</t>
   </si>
   <si>
     <t xml:space="preserve">1.53801727294922</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">1.56636369228363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58099389076233</t>
+    <t xml:space="preserve">1.58099400997162</t>
   </si>
   <si>
     <t xml:space="preserve">1.63494336605072</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">1.58739459514618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6084258556366</t>
+    <t xml:space="preserve">1.60842573642731</t>
   </si>
   <si>
     <t xml:space="preserve">1.62671387195587</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">1.66603291034698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65780329704285</t>
+    <t xml:space="preserve">1.65780341625214</t>
   </si>
   <si>
     <t xml:space="preserve">1.61939871311188</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">1.63951539993286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65506017208099</t>
+    <t xml:space="preserve">1.6550600528717</t>
   </si>
   <si>
     <t xml:space="preserve">1.68797838687897</t>
@@ -3242,22 +3242,22 @@
     <t xml:space="preserve">1.67700564861298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66420423984528</t>
+    <t xml:space="preserve">1.66420412063599</t>
   </si>
   <si>
     <t xml:space="preserve">1.63402891159058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5672779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56910681724548</t>
+    <t xml:space="preserve">1.56727802753448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56910669803619</t>
   </si>
   <si>
     <t xml:space="preserve">1.54076039791107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5453325510025</t>
+    <t xml:space="preserve">1.54533243179321</t>
   </si>
   <si>
     <t xml:space="preserve">1.57367873191833</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">1.58922350406647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57916510105133</t>
+    <t xml:space="preserve">1.57916522026062</t>
   </si>
   <si>
     <t xml:space="preserve">1.6029394865036</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">1.66969048976898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88731706142426</t>
+    <t xml:space="preserve">1.88731718063354</t>
   </si>
   <si>
     <t xml:space="preserve">1.90560507774353</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">1.95681142807007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04642271995544</t>
+    <t xml:space="preserve">2.04642248153687</t>
   </si>
   <si>
     <t xml:space="preserve">2.1012864112854</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">2.15797901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24027490615845</t>
+    <t xml:space="preserve">2.24027466773987</t>
   </si>
   <si>
     <t xml:space="preserve">2.02264809608459</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">2.02447700500488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00801777839661</t>
+    <t xml:space="preserve">2.00801801681519</t>
   </si>
   <si>
     <t xml:space="preserve">2.08299851417542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17626714706421</t>
+    <t xml:space="preserve">2.17626738548279</t>
   </si>
   <si>
     <t xml:space="preserve">2.14151978492737</t>
@@ -3359,19 +3359,19 @@
     <t xml:space="preserve">2.20552778244019</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19455504417419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24758982658386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23295974731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24576115608215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25124716758728</t>
+    <t xml:space="preserve">2.19455528259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24759006500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23295950889587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24576139450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25124740600586</t>
   </si>
   <si>
     <t xml:space="preserve">2.31525564193726</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">2.24941873550415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19089722633362</t>
+    <t xml:space="preserve">2.1908974647522</t>
   </si>
   <si>
     <t xml:space="preserve">2.21467161178589</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">2.37926316261292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35914635658264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39389371871948</t>
+    <t xml:space="preserve">2.35914659500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3938934803009</t>
   </si>
   <si>
     <t xml:space="preserve">2.42315435409546</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">2.49447727203369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52373814582825</t>
+    <t xml:space="preserve">2.52373790740967</t>
   </si>
   <si>
     <t xml:space="preserve">2.45973062515259</t>
@@ -3419,13 +3419,13 @@
     <t xml:space="preserve">2.55299878120422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59323239326477</t>
+    <t xml:space="preserve">2.59323215484619</t>
   </si>
   <si>
     <t xml:space="preserve">2.58957457542419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50910782814026</t>
+    <t xml:space="preserve">2.50910758972168</t>
   </si>
   <si>
     <t xml:space="preserve">2.54934144020081</t>
@@ -3434,13 +3434,13 @@
     <t xml:space="preserve">2.47253179550171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41401028633118</t>
+    <t xml:space="preserve">2.41401052474976</t>
   </si>
   <si>
     <t xml:space="preserve">2.45424389839172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28050851821899</t>
+    <t xml:space="preserve">2.28050827980042</t>
   </si>
   <si>
     <t xml:space="preserve">2.46521687507629</t>
@@ -3452,10 +3452,10 @@
     <t xml:space="preserve">2.57128691673279</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64260983467102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7413649559021</t>
+    <t xml:space="preserve">2.6426100730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74136471748352</t>
   </si>
   <si>
     <t xml:space="preserve">2.72490549087524</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">2.71576166152954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7377073764801</t>
+    <t xml:space="preserve">2.73770713806152</t>
   </si>
   <si>
     <t xml:space="preserve">2.67918586730957</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">2.35548877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34817385673523</t>
+    <t xml:space="preserve">2.34817409515381</t>
   </si>
   <si>
     <t xml:space="preserve">2.33171439170837</t>
@@ -3494,10 +3494,10 @@
     <t xml:space="preserve">2.38292074203491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35183143615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36097526550293</t>
+    <t xml:space="preserve">2.35183119773865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36097502708435</t>
   </si>
   <si>
     <t xml:space="preserve">2.34085845947266</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">2.38109230995178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31159782409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21832966804504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22930216789246</t>
+    <t xml:space="preserve">2.31159806251526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21832942962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22930192947388</t>
   </si>
   <si>
     <t xml:space="preserve">2.24393224716187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20735645294189</t>
+    <t xml:space="preserve">2.20735621452332</t>
   </si>
   <si>
     <t xml:space="preserve">2.22564435005188</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">2.12323188781738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23844575881958</t>
+    <t xml:space="preserve">2.23844599723816</t>
   </si>
   <si>
     <t xml:space="preserve">2.26587772369385</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">2.2036988735199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46887421607971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47070288658142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13237595558167</t>
+    <t xml:space="preserve">2.46887445449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13237571716309</t>
   </si>
   <si>
     <t xml:space="preserve">2.05739521980286</t>
@@ -3560,16 +3560,16 @@
     <t xml:space="preserve">2.16163682937622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07751202583313</t>
+    <t xml:space="preserve">2.07751178741455</t>
   </si>
   <si>
     <t xml:space="preserve">2.14700627326965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05556654930115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09945774078369</t>
+    <t xml:space="preserve">2.05556631088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09945750236511</t>
   </si>
   <si>
     <t xml:space="preserve">2.09397125244141</t>
@@ -3578,22 +3578,22 @@
     <t xml:space="preserve">1.99338734149933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07934069633484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06836771965027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92755079269409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96229767799377</t>
+    <t xml:space="preserve">2.07934093475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06836795806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9275506734848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96229791641235</t>
   </si>
   <si>
     <t xml:space="preserve">1.86354303359985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69803702831268</t>
+    <t xml:space="preserve">1.69803690910339</t>
   </si>
   <si>
     <t xml:space="preserve">1.61299788951874</t>
@@ -3614,40 +3614,40 @@
     <t xml:space="preserve">1.71266722679138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84342622756958</t>
+    <t xml:space="preserve">1.84342610836029</t>
   </si>
   <si>
     <t xml:space="preserve">1.81142210960388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79221975803375</t>
+    <t xml:space="preserve">1.79221987724304</t>
   </si>
   <si>
     <t xml:space="preserve">1.7894766330719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76113021373749</t>
+    <t xml:space="preserve">1.76113033294678</t>
   </si>
   <si>
     <t xml:space="preserve">1.70352327823639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71906793117523</t>
+    <t xml:space="preserve">1.71906805038452</t>
   </si>
   <si>
     <t xml:space="preserve">1.73278391361237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78307592868805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92389333248138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89280366897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80136394500732</t>
+    <t xml:space="preserve">1.78307580947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92389309406281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89280354976654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80136382579803</t>
   </si>
   <si>
     <t xml:space="preserve">1.84159731864929</t>
@@ -3656,13 +3656,13 @@
     <t xml:space="preserve">1.81873726844788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78399038314819</t>
+    <t xml:space="preserve">1.7839902639389</t>
   </si>
   <si>
     <t xml:space="preserve">1.72363996505737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69346487522125</t>
+    <t xml:space="preserve">1.69346499443054</t>
   </si>
   <si>
     <t xml:space="preserve">1.65231704711914</t>
@@ -3671,19 +3671,19 @@
     <t xml:space="preserve">1.67151916027069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76478791236877</t>
+    <t xml:space="preserve">1.76478803157806</t>
   </si>
   <si>
     <t xml:space="preserve">1.75472950935364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73186957836151</t>
+    <t xml:space="preserve">1.7318696975708</t>
   </si>
   <si>
     <t xml:space="preserve">1.68157768249512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69163620471954</t>
+    <t xml:space="preserve">1.69163608551025</t>
   </si>
   <si>
     <t xml:space="preserve">1.68249201774597</t>
@@ -3698,10 +3698,10 @@
     <t xml:space="preserve">1.60019636154175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5096709728241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52612996101379</t>
+    <t xml:space="preserve">1.50967085361481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52613008022308</t>
   </si>
   <si>
     <t xml:space="preserve">1.59105229377747</t>
@@ -3713,34 +3713,34 @@
     <t xml:space="preserve">1.64042985439301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69712245464325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65871775150299</t>
+    <t xml:space="preserve">1.69712233543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6587176322937</t>
   </si>
   <si>
     <t xml:space="preserve">1.65140247344971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57459306716919</t>
+    <t xml:space="preserve">1.57459318637848</t>
   </si>
   <si>
     <t xml:space="preserve">1.57002115249634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68340647220612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69986546039581</t>
+    <t xml:space="preserve">1.68340659141541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6998655796051</t>
   </si>
   <si>
     <t xml:space="preserve">1.77758955955505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7446711063385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77118873596191</t>
+    <t xml:space="preserve">1.74467122554779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77118861675262</t>
   </si>
   <si>
     <t xml:space="preserve">1.83793973922729</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">1.86537170410156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85622763633728</t>
+    <t xml:space="preserve">1.85622775554657</t>
   </si>
   <si>
     <t xml:space="preserve">1.85257005691528</t>
@@ -3764,10 +3764,10 @@
     <t xml:space="preserve">1.50235569477081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46395099163055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51178026199341</t>
+    <t xml:space="preserve">1.46395087242126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5117803812027</t>
   </si>
   <si>
     <t xml:space="preserve">1.52397203445435</t>
@@ -3779,16 +3779,16 @@
     <t xml:space="preserve">1.50427758693695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52303421497345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48270761966705</t>
+    <t xml:space="preserve">1.52303409576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48270750045776</t>
   </si>
   <si>
     <t xml:space="preserve">1.52115845680237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52866113185883</t>
+    <t xml:space="preserve">1.52866125106812</t>
   </si>
   <si>
     <t xml:space="preserve">1.45926189422607</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">1.42268633842468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34297096729279</t>
+    <t xml:space="preserve">1.34297108650208</t>
   </si>
   <si>
     <t xml:space="preserve">1.37016808986664</t>
@@ -3818,10 +3818,10 @@
     <t xml:space="preserve">1.3570384979248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32515239715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32046318054199</t>
+    <t xml:space="preserve">1.32515227794647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3204630613327</t>
   </si>
   <si>
     <t xml:space="preserve">1.35047376155853</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">1.40111637115479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40017855167389</t>
+    <t xml:space="preserve">1.40017867088318</t>
   </si>
   <si>
     <t xml:space="preserve">1.33828186988831</t>
@@ -3857,13 +3857,13 @@
     <t xml:space="preserve">1.47239148616791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44613230228424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49021017551422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51646935939789</t>
+    <t xml:space="preserve">1.44613218307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49021005630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5164692401886</t>
   </si>
   <si>
     <t xml:space="preserve">1.50615310668945</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">1.54272854328156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53616368770599</t>
+    <t xml:space="preserve">1.53616380691528</t>
   </si>
   <si>
     <t xml:space="preserve">1.56429862976074</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">1.45644819736481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38986253738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38611114025116</t>
+    <t xml:space="preserve">1.38986241817474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38611125946045</t>
   </si>
   <si>
     <t xml:space="preserve">1.4170595407486</t>
@@ -3914,16 +3914,16 @@
     <t xml:space="preserve">1.40580546855927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43675374984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37860858440399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3954895734787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41330826282501</t>
+    <t xml:space="preserve">1.4367538690567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37860870361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39548945426941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41330814361572</t>
   </si>
   <si>
     <t xml:space="preserve">1.40299212932587</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">1.48083186149597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46207523345947</t>
+    <t xml:space="preserve">1.46207535266876</t>
   </si>
   <si>
     <t xml:space="preserve">1.51553153991699</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">1.45738613605499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44331872463226</t>
+    <t xml:space="preserve">1.44331884384155</t>
   </si>
   <si>
     <t xml:space="preserve">1.76030492782593</t>
@@ -3956,19 +3956,19 @@
     <t xml:space="preserve">1.63463580608368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62900876998901</t>
+    <t xml:space="preserve">1.6290088891983</t>
   </si>
   <si>
     <t xml:space="preserve">1.64213848114014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61306571960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54741775989532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60743868350983</t>
+    <t xml:space="preserve">1.61306583881378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54741764068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60743880271912</t>
   </si>
   <si>
     <t xml:space="preserve">1.60181176662445</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">1.58211743831635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64588975906372</t>
+    <t xml:space="preserve">1.64588987827301</t>
   </si>
   <si>
     <t xml:space="preserve">1.64495193958282</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">1.71153783798218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71247553825378</t>
+    <t xml:space="preserve">1.71247565746307</t>
   </si>
   <si>
     <t xml:space="preserve">1.72372961044312</t>
@@ -4016,13 +4016,13 @@
     <t xml:space="preserve">1.81938815116882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84939873218536</t>
+    <t xml:space="preserve">1.84939861297607</t>
   </si>
   <si>
     <t xml:space="preserve">1.84564733505249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78562641143799</t>
+    <t xml:space="preserve">1.7856262922287</t>
   </si>
   <si>
     <t xml:space="preserve">1.77249670028687</t>
@@ -4031,31 +4031,31 @@
     <t xml:space="preserve">1.78187489509583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82782852649689</t>
+    <t xml:space="preserve">1.82782864570618</t>
   </si>
   <si>
     <t xml:space="preserve">1.78656411170959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80719637870789</t>
+    <t xml:space="preserve">1.8071962594986</t>
   </si>
   <si>
     <t xml:space="preserve">1.84470951557159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90754413604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92630052566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93192744255066</t>
+    <t xml:space="preserve">1.90754389762878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92630064487457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93192756175995</t>
   </si>
   <si>
     <t xml:space="preserve">1.96006238460541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99570024013519</t>
+    <t xml:space="preserve">1.99570000171661</t>
   </si>
   <si>
     <t xml:space="preserve">2.00695371627808</t>
@@ -4082,16 +4082,16 @@
     <t xml:space="preserve">2.03696441650391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05384540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11011528968811</t>
+    <t xml:space="preserve">2.05384516716003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11011505126953</t>
   </si>
   <si>
     <t xml:space="preserve">2.20202231407166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22265458106995</t>
+    <t xml:space="preserve">2.22265434265137</t>
   </si>
   <si>
     <t xml:space="preserve">2.19076824188232</t>
@@ -4109,13 +4109,13 @@
     <t xml:space="preserve">2.17763876914978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17013597488403</t>
+    <t xml:space="preserve">2.17013621330261</t>
   </si>
   <si>
     <t xml:space="preserve">2.16826057434082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03884029388428</t>
+    <t xml:space="preserve">2.0388400554657</t>
   </si>
   <si>
     <t xml:space="preserve">2.08573150634766</t>
@@ -4124,10 +4124,10 @@
     <t xml:space="preserve">1.91129553318024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95068407058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97319221496582</t>
+    <t xml:space="preserve">1.95068430900574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97319197654724</t>
   </si>
   <si>
     <t xml:space="preserve">1.98819720745087</t>
@@ -4145,19 +4145,19 @@
     <t xml:space="preserve">1.97506761550903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02571058273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03133726119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09698581695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12512040138245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1720118522644</t>
+    <t xml:space="preserve">2.02571034431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03133749961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09698557853699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12512016296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17201161384583</t>
   </si>
   <si>
     <t xml:space="preserve">2.19639539718628</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">2.08385586738586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13825011253357</t>
+    <t xml:space="preserve">2.13824987411499</t>
   </si>
   <si>
     <t xml:space="preserve">2.12887167930603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10261249542236</t>
+    <t xml:space="preserve">2.10261273384094</t>
   </si>
   <si>
     <t xml:space="preserve">2.06697511672974</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">2.08198022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06509900093079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34644794464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32018852233887</t>
+    <t xml:space="preserve">2.06509923934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34644818305969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32018876075745</t>
   </si>
   <si>
     <t xml:space="preserve">2.3914635181427</t>
@@ -4208,31 +4208,31 @@
     <t xml:space="preserve">2.40646886825562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44773316383362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49274945259094</t>
+    <t xml:space="preserve">2.4477334022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49274921417236</t>
   </si>
   <si>
     <t xml:space="preserve">2.45148515701294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4852466583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47399282455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46461462974548</t>
+    <t xml:space="preserve">2.48524689674377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47399258613586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4646143913269</t>
   </si>
   <si>
     <t xml:space="preserve">2.46836566925049</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43272829055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41959834098816</t>
+    <t xml:space="preserve">2.43272852897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41959857940674</t>
   </si>
   <si>
     <t xml:space="preserve">2.38020992279053</t>
@@ -4277,7 +4277,7 @@
     <t xml:space="preserve">2.2526650428772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21140074729919</t>
+    <t xml:space="preserve">2.21140050888062</t>
   </si>
   <si>
     <t xml:space="preserve">2.27517318725586</t>
@@ -4286,16 +4286,16 @@
     <t xml:space="preserve">2.27704858779907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23953557014465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20764923095703</t>
+    <t xml:space="preserve">2.23953533172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20764946937561</t>
   </si>
   <si>
     <t xml:space="preserve">2.21515202522278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21702766418457</t>
+    <t xml:space="preserve">2.21702790260315</t>
   </si>
   <si>
     <t xml:space="preserve">2.26579475402832</t>
@@ -4304,16 +4304,16 @@
     <t xml:space="preserve">2.26016783714294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34082102775574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31831288337708</t>
+    <t xml:space="preserve">2.34082078933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31831312179565</t>
   </si>
   <si>
     <t xml:space="preserve">2.31456184387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32394027709961</t>
+    <t xml:space="preserve">2.32394003868103</t>
   </si>
   <si>
     <t xml:space="preserve">2.37458300590515</t>
@@ -4328,16 +4328,16 @@
     <t xml:space="preserve">2.55839705467224</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52651119232178</t>
+    <t xml:space="preserve">2.5265109539032</t>
   </si>
   <si>
     <t xml:space="preserve">2.56777548789978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54714322090149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55089497566223</t>
+    <t xml:space="preserve">2.54714345932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55089473724365</t>
   </si>
   <si>
     <t xml:space="preserve">2.53776526451111</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">2.53588938713074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51150608062744</t>
+    <t xml:space="preserve">2.51150584220886</t>
   </si>
   <si>
     <t xml:space="preserve">2.59403491020203</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">2.54901885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47774410247803</t>
+    <t xml:space="preserve">2.47774386405945</t>
   </si>
   <si>
     <t xml:space="preserve">2.4421067237854</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">2.34269666671753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29768109321594</t>
+    <t xml:space="preserve">2.29768085479736</t>
   </si>
   <si>
     <t xml:space="preserve">2.37645840644836</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">2.39896655082703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40459322929382</t>
+    <t xml:space="preserve">2.4045934677124</t>
   </si>
   <si>
     <t xml:space="preserve">2.37270712852478</t>
@@ -5052,6 +5052,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.63199996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48399996757507</t>
   </si>
 </sst>
 </file>
@@ -19243,7 +19246,7 @@
         <v>5.6275200843811</v>
       </c>
       <c r="G533" t="s">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19321,7 +19324,7 @@
         <v>5.40128803253174</v>
       </c>
       <c r="G536" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19347,7 +19350,7 @@
         <v>5.28817176818848</v>
       </c>
       <c r="G537" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19451,7 +19454,7 @@
         <v>5.19862222671509</v>
       </c>
       <c r="G541" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19477,7 +19480,7 @@
         <v>5.18448209762573</v>
       </c>
       <c r="G542" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19503,7 +19506,7 @@
         <v>5.20804786682129</v>
       </c>
       <c r="G543" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19529,7 +19532,7 @@
         <v>5.22690105438232</v>
       </c>
       <c r="G544" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19555,7 +19558,7 @@
         <v>5.31173801422119</v>
       </c>
       <c r="G545" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19607,7 +19610,7 @@
         <v>5.17505598068237</v>
       </c>
       <c r="G547" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19633,7 +19636,7 @@
         <v>5.13735103607178</v>
       </c>
       <c r="G548" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19659,7 +19662,7 @@
         <v>5.13735103607178</v>
       </c>
       <c r="G549" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19685,7 +19688,7 @@
         <v>5.12321090698242</v>
       </c>
       <c r="G550" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19711,7 +19714,7 @@
         <v>5.19862222671509</v>
       </c>
       <c r="G551" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19737,7 +19740,7 @@
         <v>5.16562986373901</v>
       </c>
       <c r="G552" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19763,7 +19766,7 @@
         <v>5.06665277481079</v>
       </c>
       <c r="G553" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19789,7 +19792,7 @@
         <v>4.9771032333374</v>
       </c>
       <c r="G554" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19815,7 +19818,7 @@
         <v>5.014808177948</v>
       </c>
       <c r="G555" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19841,7 +19844,7 @@
         <v>5.07136583328247</v>
       </c>
       <c r="G556" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19867,7 +19870,7 @@
         <v>5.04780006408691</v>
       </c>
       <c r="G557" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19893,7 +19896,7 @@
         <v>5.09964513778687</v>
       </c>
       <c r="G558" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19919,7 +19922,7 @@
         <v>5.15620279312134</v>
       </c>
       <c r="G559" t="s">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19945,7 +19948,7 @@
         <v>5.12321090698242</v>
       </c>
       <c r="G560" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20101,7 +20104,7 @@
         <v>5.16562986373901</v>
       </c>
       <c r="G566" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20127,7 +20130,7 @@
         <v>5.19862222671509</v>
       </c>
       <c r="G567" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -61553,7 +61556,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6494444444</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>1094345</v>
@@ -61574,6 +61577,32 @@
         <v>1679</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6493402778</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>1784241</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>2.6340000629425</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>2.47399997711182</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>2.6340000629425</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>2.48399996757507</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1684">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,61 +38,61 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19818115234375</t>
+    <t xml:space="preserve">5.19818210601807</t>
   </si>
   <si>
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05481243133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91553783416748</t>
+    <t xml:space="preserve">5.05481195449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91553831100464</t>
   </si>
   <si>
     <t xml:space="preserve">4.792649269104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87047910690308</t>
+    <t xml:space="preserve">4.87047863006592</t>
   </si>
   <si>
     <t xml:space="preserve">4.80493831634521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9401159286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0998706817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84180498123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75168704986572</t>
+    <t xml:space="preserve">4.94011640548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09987020492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84180545806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75168657302856</t>
   </si>
   <si>
     <t xml:space="preserve">4.78445768356323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76397609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38711738586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36253929138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67795419692993</t>
+    <t xml:space="preserve">4.76397562026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3871169090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36253976821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67795372009277</t>
   </si>
   <si>
     <t xml:space="preserve">4.60012435913086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64108753204346</t>
+    <t xml:space="preserve">4.62060594558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6410870552063</t>
   </si>
   <si>
     <t xml:space="preserve">4.65747213363647</t>
@@ -101,70 +101,70 @@
     <t xml:space="preserve">4.58783626556396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77626419067383</t>
+    <t xml:space="preserve">4.77626514434814</t>
   </si>
   <si>
     <t xml:space="preserve">4.73939847946167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66156911849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69024324417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46494817733765</t>
+    <t xml:space="preserve">4.6615686416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69024276733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46494722366333</t>
   </si>
   <si>
     <t xml:space="preserve">4.16182231903076</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1577262878418</t>
+    <t xml:space="preserve">4.15772581100464</t>
   </si>
   <si>
     <t xml:space="preserve">4.4157919883728</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35844373703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52229499816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44037008285522</t>
+    <t xml:space="preserve">4.35844326019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5222954750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44036960601807</t>
   </si>
   <si>
     <t xml:space="preserve">4.61241340637207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60831689834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62879753112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63289356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40759897232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37482881546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57964277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71072435379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82132387161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86638259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73530244827271</t>
+    <t xml:space="preserve">4.60831642150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62879800796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63289403915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4075984954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37482833862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57964324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71072483062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82132291793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86638212203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73530197143555</t>
   </si>
   <si>
     <t xml:space="preserve">4.64928007125854</t>
@@ -176,49 +176,49 @@
     <t xml:space="preserve">4.52639102935791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57145118713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54277610778809</t>
+    <t xml:space="preserve">4.57145071029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5427770614624</t>
   </si>
   <si>
     <t xml:space="preserve">4.42808103561401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25194025039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22736310958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19459295272827</t>
+    <t xml:space="preserve">4.25194072723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22736263275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19459247589111</t>
   </si>
   <si>
     <t xml:space="preserve">4.21917009353638</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28880596160889</t>
+    <t xml:space="preserve">4.2888069152832</t>
   </si>
   <si>
     <t xml:space="preserve">4.34615516662598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17820739746094</t>
+    <t xml:space="preserve">4.1782078742981</t>
   </si>
   <si>
     <t xml:space="preserve">4.14953374862671</t>
   </si>
   <si>
-    <t xml:space="preserve">4.448561668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29699945449829</t>
+    <t xml:space="preserve">4.44856119155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29699993133545</t>
   </si>
   <si>
     <t xml:space="preserve">4.37073278427124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65337657928467</t>
+    <t xml:space="preserve">4.65337562561035</t>
   </si>
   <si>
     <t xml:space="preserve">4.88686418533325</t>
@@ -227,943 +227,943 @@
     <t xml:space="preserve">4.69433879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64518404006958</t>
+    <t xml:space="preserve">4.64518356323242</t>
   </si>
   <si>
     <t xml:space="preserve">4.706627368927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62470197677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66566562652588</t>
+    <t xml:space="preserve">4.62470245361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66566514968872</t>
   </si>
   <si>
     <t xml:space="preserve">4.69843482971191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68614625930786</t>
+    <t xml:space="preserve">4.68614721298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71481990814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68204975128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79674625396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8540940284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99746370315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04661893844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96878910064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03433036804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06710052490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91144180297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88934326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91877222061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0575065612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88513946533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71277284622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66232347488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61607837677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62028169631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63289499282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78003692626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75901746749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69595527648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65811920166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46893548965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07291126251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26713991165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38065052032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40166997909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43950748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39326238632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24191474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2208948135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18221712112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3217921257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29656791687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28815984725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2923641204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23771190643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17212867736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2503228187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30077171325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39746618270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33440542221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34281301498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36803770065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51097679138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5067720413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42269039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41428279876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37644577026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38905811309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43530321121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3638334274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20239734649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30497694015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32599592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23350763320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17044544219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27134370803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22930335998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12840509414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11999702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16203832626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33020114898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2839560508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21669054031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19062614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49836397171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51518058776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58244562149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55301713943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45632362365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44791460037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45211887359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40587472915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35122108459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31338453292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27554798126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24611902236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20407915115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19903373718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21248626708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19398927688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13344955444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08636474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18389892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26293563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17549085617065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10822486877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13176822662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11327075958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15362977981567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1014986038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15194797515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18894386291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17717170715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18053531646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10654354095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1586742401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14858531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12672281265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20828247070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27975273132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37224102020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33860874176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35962963104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14522123336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15026617050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05609464645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03759670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01909828186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99891948699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06618499755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05945825576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02078056335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0813193321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13008737564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51938390731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52358865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53199672698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49416017532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4268946647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41848611831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46473217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43109941482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47734355926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47313928604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48154830932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60767030715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62448692321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54881286621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6833438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70015954971313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67073154449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6497106552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57403755187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74220085144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83469152450562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82207822799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75060892105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85150623321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0112624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9776291847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92717933654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9524040222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89354753494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93558883666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87673091888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93138408660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96081304550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0196704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20885372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17522144317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05330276489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07432222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04489421844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20464944839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06171131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10795545578003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21305847167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13738489151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1920371055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24669027328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40644502639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36440420150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3097505569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36020040512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21726226806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22566986083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29713916778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28032255172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41905784606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34758853912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34338426589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42326164245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44007730484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33917903900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33077192306519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3517918586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26771116256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23407697677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10375165939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2298731803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14579200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19750928878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53366613388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56383371353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48194980621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44747114181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5164270401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52504634857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4905686378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50780820846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43885231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4431619644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35265874862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29663228988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36989736557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39575624465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42161273956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43023347854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34834909439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37851667404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34403896331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41730356216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41299390792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45178174972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39144563674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46901988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50349855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57676267623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54659509658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57245302200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55521488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55090427398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40006542205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47764015197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4259238243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37420749664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30094194412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27508354187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31818103790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40437412261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49487829208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47332954406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46471071243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49918842315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66295766830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71467399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77500915527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80517721176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86982345581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79224872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75346088409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61555051803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80086851119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86120367050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82241630554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54228544235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56814336776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55952501296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40868473052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46040058135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36127758026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24491596221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04235935211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06390810012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9734034538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95616579055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9992618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99064302444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10269451141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05959892272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02081060409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03374004364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00788164138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96478462219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11562490463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08545637130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93030738830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01650094985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98633289337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87427997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80963468551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84842157363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81825399398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78377676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85273265838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82256364822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78808641433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86997079849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94323635101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90013837814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88289976119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86135149002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82687425613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07252788543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08114624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05097818374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99495220184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32679986953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15872049331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18026924133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33541917800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26215410232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11131525039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93892621994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83549308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75360918045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74067974090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76222801208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77946758270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85704183578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73205995559692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69758272171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68465328216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7234411239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63293647766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55105257034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58552980422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63724613189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61569786071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66310453414917</t>
   </si>
   <si>
     <t xml:space="preserve">4.71482038497925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68204975128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79674577713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85409355163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99746370315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04661846160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96878957748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03433036804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06710052490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91144227981567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88934373855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91877174377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05750608444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88513946533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71277236938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66232347488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61607885360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6202826499939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63289499282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78003740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75901699066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69595623016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65811920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4689359664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07291173934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26713943481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38065004348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4016695022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43950748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39326238632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24191474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2208948135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18221664428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3217921257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29656839370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28815984725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2923641204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23771142959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17212867736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25032329559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30077171325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39746570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33440494537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34281301498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36803722381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51097679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50677251815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42269086837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41428232192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37644529342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3890585899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43530321121216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3638334274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20239686965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30497646331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32599639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23350763320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17044544219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27134370803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22930383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12840557098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11999702453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16203784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33020067214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2839560508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21669101715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19062614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49836349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51518058776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58244609832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55301666259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45632410049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44791507720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45211935043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40587472915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35122156143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31338500976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27554750442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24611902236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20407915115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19903373718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.212486743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19398927688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13344955444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08636426925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18389892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26293563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1754903793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10822486877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13176918029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11327028274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15363025665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1014986038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15194749832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18894386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17717170715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18053579330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10654354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15867376327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14858531951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12672281265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20828247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27975225448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37224149703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33860921859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35963010787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14522075653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15026569366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05609560012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03759670257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01909923553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99891924858093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06618547439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05945873260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02078104019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0813193321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13008737564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51938438415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52358865737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53199672698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49415922164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42689514160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41848659515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46473169326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4310998916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47734355926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47313928604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48154783248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60767030715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62448644638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5488133430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68334436416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70016002655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67073106765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6497106552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57403707504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74220085144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83469104766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82207775115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75060844421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85150718688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0112624168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97762870788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92717981338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9524040222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89354801177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93558835983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87673139572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93138408660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96081304550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01966953277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20885372161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17522048950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05330276489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07432270050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04489469528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20464944839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06171131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10795593261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21305751800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13738489151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19203662872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24669027328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40644502639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36440420150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30975103378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36019992828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21726179122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22566986083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2971396446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28032255172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41905784606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34758806228638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34338474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42326164245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44007730484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33917999267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33077192306519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3517918586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26771068572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23407745361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10375165939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2298731803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14579248428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19750928878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53366613388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56383323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48194980621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44747161865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51642751693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52504634857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4905686378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50780820846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43885231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44316148757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35265874862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29663181304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36989688873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39575576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42161321640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43023347854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34834909439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37851667404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34403896331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41730356216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41299390792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4517822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39144515991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46901988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50349903106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57676267623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54659461975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57245254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55521488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55090427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40006542205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4776406288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4259238243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37420701980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30094194412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27508401870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31818056106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40437459945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49487781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47333002090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46471071243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49918842315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66295719146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71467399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7750096321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80517721176147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86982345581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79224872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7534613609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61555051803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80086803436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86120367050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82241630554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54228496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56814289093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55952453613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40868425369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46040105819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36127710342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24491596221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04235887527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06390810012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97340393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9561653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9992618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99064302444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10269498825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05959796905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02081108093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03374052047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0078821182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96478414535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11562442779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08545637130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93030691146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01650094985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98633337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87427949905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80963516235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84842157363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8182544708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78377676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85273218154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82256412506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78808641433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86997079849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94323539733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90013885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88289976119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86135101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82687425613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07252740859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08114576339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0509786605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99495267868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32680034637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15872097015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18026971817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33541917800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26215410232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11131477355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93892621994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8354926109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75360918045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7406792640686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76222801208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77946710586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85704183578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73206043243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69758272171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68465280532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7234411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63293647766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55105304718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58552980422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63724613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61569690704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66310453414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71482086181641</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.73636960983276</t>
   </si>
   <si>
     <t xml:space="preserve">4.80532550811768</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79670572280884</t>
+    <t xml:space="preserve">4.79670524597168</t>
   </si>
   <si>
     <t xml:space="preserve">4.7449893951416</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">4.70620203018188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62862730026245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58122062683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49933624267578</t>
+    <t xml:space="preserve">4.62862777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5812201499939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49933576583862</t>
   </si>
   <si>
     <t xml:space="preserve">4.52519416809082</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">4.3226375579834</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29419374465942</t>
+    <t xml:space="preserve">4.29419326782227</t>
   </si>
   <si>
     <t xml:space="preserve">4.28385066986084</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28902149200439</t>
+    <t xml:space="preserve">4.28902196884155</t>
   </si>
   <si>
     <t xml:space="preserve">4.32694721221924</t>
@@ -1205,19 +1205,19 @@
     <t xml:space="preserve">4.28557443618774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23385763168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25799226760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3028130531311</t>
+    <t xml:space="preserve">4.23385810852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2579927444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30281352996826</t>
   </si>
   <si>
     <t xml:space="preserve">4.30970907211304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.275230884552</t>
+    <t xml:space="preserve">4.27523040771484</t>
   </si>
   <si>
     <t xml:space="preserve">4.3010892868042</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">2.92025852203369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99955701828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93404936790466</t>
+    <t xml:space="preserve">2.99955725669861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93404960632324</t>
   </si>
   <si>
     <t xml:space="preserve">2.96335601806641</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">3.01679611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04265451431274</t>
+    <t xml:space="preserve">3.04265427589417</t>
   </si>
   <si>
     <t xml:space="preserve">3.1133337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17884111404419</t>
+    <t xml:space="preserve">3.17884135246277</t>
   </si>
   <si>
     <t xml:space="preserve">3.2719304561615</t>
@@ -1262,28 +1262,28 @@
     <t xml:space="preserve">3.25813937187195</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24434876441956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2805507183075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27537846565247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20297598838806</t>
+    <t xml:space="preserve">3.2443482875824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28055024147034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27537870407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20297574996948</t>
   </si>
   <si>
     <t xml:space="preserve">3.10816192626953</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12540078163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0392062664032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05127334594727</t>
+    <t xml:space="preserve">3.12540102005005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03920602798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05127358436584</t>
   </si>
   <si>
     <t xml:space="preserve">2.99093794822693</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">2.91508674621582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94094514846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83406472206116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63926482200623</t>
+    <t xml:space="preserve">2.94094491004944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83406448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6392650604248</t>
   </si>
   <si>
     <t xml:space="preserve">2.62892246246338</t>
@@ -1313,46 +1313,46 @@
     <t xml:space="preserve">2.67201948165894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58065295219421</t>
+    <t xml:space="preserve">2.58065319061279</t>
   </si>
   <si>
     <t xml:space="preserve">2.59616851806641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58582496643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55824303627014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49618291854858</t>
+    <t xml:space="preserve">2.58582472801208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55824279785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49618268013</t>
   </si>
   <si>
     <t xml:space="preserve">2.47204875946045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43584728240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44274234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45308637619019</t>
+    <t xml:space="preserve">2.43584704399109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44274258613586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45308613777161</t>
   </si>
   <si>
     <t xml:space="preserve">2.34792876243591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3875789642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33413791656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3444812297821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49101209640503</t>
+    <t xml:space="preserve">2.38757872581482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33413767814636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34448146820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49101185798645</t>
   </si>
   <si>
     <t xml:space="preserve">2.45653343200684</t>
@@ -1364,37 +1364,37 @@
     <t xml:space="preserve">2.37551164627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3703396320343</t>
+    <t xml:space="preserve">2.37033987045288</t>
   </si>
   <si>
     <t xml:space="preserve">2.39792156219482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40998888015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42895150184631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44101905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42550373077393</t>
+    <t xml:space="preserve">2.40998911857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42895174026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44101881980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42550325393677</t>
   </si>
   <si>
     <t xml:space="preserve">2.42722773551941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43067502975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32724213600159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104113578796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35310077667236</t>
+    <t xml:space="preserve">2.43067526817322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32724237442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104137420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35310053825378</t>
   </si>
   <si>
     <t xml:space="preserve">2.2962121963501</t>
@@ -1406,10 +1406,10 @@
     <t xml:space="preserve">2.47721982002258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52721285820007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50135445594788</t>
+    <t xml:space="preserve">2.52721261978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50135469436646</t>
   </si>
   <si>
     <t xml:space="preserve">2.39275002479553</t>
@@ -1421,22 +1421,22 @@
     <t xml:space="preserve">2.41860795021057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40654039382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34620523452759</t>
+    <t xml:space="preserve">2.40654063224792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34620499610901</t>
   </si>
   <si>
     <t xml:space="preserve">2.25828742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2462203502655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22208571434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28069734573364</t>
+    <t xml:space="preserve">2.24622011184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22208547592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28069758415222</t>
   </si>
   <si>
     <t xml:space="preserve">2.28242135047913</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">2.0376296043396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06865954399109</t>
+    <t xml:space="preserve">2.06865978240967</t>
   </si>
   <si>
     <t xml:space="preserve">2.1031379699707</t>
@@ -1475,52 +1475,52 @@
     <t xml:space="preserve">2.22380924224854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22553277015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18243622779846</t>
+    <t xml:space="preserve">2.22553253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18243646621704</t>
   </si>
   <si>
     <t xml:space="preserve">2.14278721809387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15657782554626</t>
+    <t xml:space="preserve">2.15657806396484</t>
   </si>
   <si>
     <t xml:space="preserve">2.16519713401794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22898101806641</t>
+    <t xml:space="preserve">2.22898077964783</t>
   </si>
   <si>
     <t xml:space="preserve">2.16347360610962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15830183029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08934593200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09107065200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19277906417847</t>
+    <t xml:space="preserve">2.15830159187317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08934617042542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09107089042664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19277882575989</t>
   </si>
   <si>
     <t xml:space="preserve">2.30827951431274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25656270980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18588376045227</t>
+    <t xml:space="preserve">2.25656294822693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18588352203369</t>
   </si>
   <si>
     <t xml:space="preserve">2.1358916759491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12899613380432</t>
+    <t xml:space="preserve">2.1289963722229</t>
   </si>
   <si>
     <t xml:space="preserve">2.06521224975586</t>
@@ -1529,22 +1529,22 @@
     <t xml:space="preserve">2.0634880065918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0462498664856</t>
+    <t xml:space="preserve">2.04624962806702</t>
   </si>
   <si>
     <t xml:space="preserve">2.00832438468933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93592095375061</t>
+    <t xml:space="preserve">1.93592119216919</t>
   </si>
   <si>
     <t xml:space="preserve">1.81352531909943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74974143505096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70664405822754</t>
+    <t xml:space="preserve">1.74974155426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70664393901825</t>
   </si>
   <si>
     <t xml:space="preserve">1.68078589439392</t>
@@ -1556,10 +1556,10 @@
     <t xml:space="preserve">1.55235683917999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53339397907257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44116592407227</t>
+    <t xml:space="preserve">1.53339409828186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44116604328156</t>
   </si>
   <si>
     <t xml:space="preserve">1.35928165912628</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">1.32652795314789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3118748664856</t>
+    <t xml:space="preserve">1.31187474727631</t>
   </si>
   <si>
     <t xml:space="preserve">1.28946471214294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429269790649</t>
+    <t xml:space="preserve">1.28429293632507</t>
   </si>
   <si>
     <t xml:space="preserve">1.33083760738373</t>
@@ -1583,16 +1583,16 @@
     <t xml:space="preserve">1.31704664230347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34549081325531</t>
+    <t xml:space="preserve">1.34549069404602</t>
   </si>
   <si>
     <t xml:space="preserve">1.35755813121796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35497200489044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32480442523956</t>
+    <t xml:space="preserve">1.35497212409973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32480430603027</t>
   </si>
   <si>
     <t xml:space="preserve">1.32049477100372</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">1.3946213722229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33600926399231</t>
+    <t xml:space="preserve">1.3360093832016</t>
   </si>
   <si>
     <t xml:space="preserve">1.33773303031921</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">1.28256916999817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29205048084259</t>
+    <t xml:space="preserve">1.29205071926117</t>
   </si>
   <si>
     <t xml:space="preserve">1.30842757225037</t>
@@ -1622,13 +1622,13 @@
     <t xml:space="preserve">1.29291200637817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27308785915375</t>
+    <t xml:space="preserve">1.27308773994446</t>
   </si>
   <si>
     <t xml:space="preserve">1.29636013507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29808390140533</t>
+    <t xml:space="preserve">1.29808378219604</t>
   </si>
   <si>
     <t xml:space="preserve">1.30066967010498</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">1.41358411312103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40755093097687</t>
+    <t xml:space="preserve">1.40755081176758</t>
   </si>
   <si>
     <t xml:space="preserve">1.38858819007874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35669565200806</t>
+    <t xml:space="preserve">1.35669589042664</t>
   </si>
   <si>
     <t xml:space="preserve">1.38772583007812</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">1.1024227142334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992956399917603</t>
+    <t xml:space="preserve">0.992956578731537</t>
   </si>
   <si>
     <t xml:space="preserve">1.02140069007874</t>
@@ -1670,22 +1670,22 @@
     <t xml:space="preserve">0.653350949287415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725754916667938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727478444576263</t>
+    <t xml:space="preserve">0.725754857063293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727478563785553</t>
   </si>
   <si>
     <t xml:space="preserve">0.889523506164551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988646984100342</t>
+    <t xml:space="preserve">0.988646924495697</t>
   </si>
   <si>
     <t xml:space="preserve">0.978303253650665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875732600688934</t>
+    <t xml:space="preserve">0.87573254108429</t>
   </si>
   <si>
     <t xml:space="preserve">0.942963719367981</t>
@@ -1694,64 +1694,64 @@
     <t xml:space="preserve">0.974856078624725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948135495185852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946411848068237</t>
+    <t xml:space="preserve">0.948135435581207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946411967277527</t>
   </si>
   <si>
     <t xml:space="preserve">1.03691518306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1843079328537</t>
+    <t xml:space="preserve">1.18430805206299</t>
   </si>
   <si>
     <t xml:space="preserve">1.14982974529266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1343150138855</t>
+    <t xml:space="preserve">1.13431525230408</t>
   </si>
   <si>
     <t xml:space="preserve">1.16793119907379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13862466812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.068807721138</t>
+    <t xml:space="preserve">1.13862478733063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06880760192871</t>
   </si>
   <si>
     <t xml:space="preserve">1.0438107252121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05070626735687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03088200092316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04812133312225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04553532600403</t>
+    <t xml:space="preserve">1.05070614814758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03088212013245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04812121391296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04553544521332</t>
   </si>
   <si>
     <t xml:space="preserve">1.11707603931427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13690102100372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16362059116364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16534519195557</t>
+    <t xml:space="preserve">1.13690114021301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16362071037292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16534531116486</t>
   </si>
   <si>
     <t xml:space="preserve">1.16620659828186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17310214042664</t>
+    <t xml:space="preserve">1.17310202121735</t>
   </si>
   <si>
     <t xml:space="preserve">1.14896833896637</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">1.06535947322845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10500872135162</t>
+    <t xml:space="preserve">1.10500860214233</t>
   </si>
   <si>
     <t xml:space="preserve">1.09725177288055</t>
@@ -1781,16 +1781,16 @@
     <t xml:space="preserve">1.09897541999817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16448283195496</t>
+    <t xml:space="preserve">1.16448295116425</t>
   </si>
   <si>
     <t xml:space="preserve">1.11966192722321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12138557434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10673332214355</t>
+    <t xml:space="preserve">1.12138545513153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10673320293427</t>
   </si>
   <si>
     <t xml:space="preserve">1.11535227298737</t>
@@ -1799,40 +1799,40 @@
     <t xml:space="preserve">1.14034831523895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11276638507843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13517653942108</t>
+    <t xml:space="preserve">1.11276626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13517642021179</t>
   </si>
   <si>
     <t xml:space="preserve">1.14810609817505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14552009105682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26533007621765</t>
+    <t xml:space="preserve">1.14552021026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26532995700836</t>
   </si>
   <si>
     <t xml:space="preserve">1.50839805603027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46099090576172</t>
+    <t xml:space="preserve">1.46099102497101</t>
   </si>
   <si>
     <t xml:space="preserve">1.45926749706268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40410268306732</t>
+    <t xml:space="preserve">1.40410280227661</t>
   </si>
   <si>
     <t xml:space="preserve">1.37307262420654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33945751190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41703236103058</t>
+    <t xml:space="preserve">1.33945763111115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41703224182129</t>
   </si>
   <si>
     <t xml:space="preserve">1.43168473243713</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">1.37221121788025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39375913143158</t>
+    <t xml:space="preserve">1.39375901222229</t>
   </si>
   <si>
     <t xml:space="preserve">1.39806950092316</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">1.41530776023865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44720005989075</t>
+    <t xml:space="preserve">1.44720017910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.46443843841553</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">1.46788656711578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47391963005066</t>
+    <t xml:space="preserve">1.47391974925995</t>
   </si>
   <si>
     <t xml:space="preserve">1.4446142911911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4196172952652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43858003616333</t>
+    <t xml:space="preserve">1.41961741447449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43858015537262</t>
   </si>
   <si>
     <t xml:space="preserve">1.49977803230286</t>
@@ -1886,19 +1886,19 @@
     <t xml:space="preserve">1.48167753219604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57735276222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66268515586853</t>
+    <t xml:space="preserve">1.57735288143158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66268527507782</t>
   </si>
   <si>
     <t xml:space="preserve">1.64803206920624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64458477497101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62475967407227</t>
+    <t xml:space="preserve">1.6445848941803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62475979328156</t>
   </si>
   <si>
     <t xml:space="preserve">1.6023496389389</t>
@@ -1907,31 +1907,31 @@
     <t xml:space="preserve">1.60062515735626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56270039081573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51787936687469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46271467208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47995376586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43254697322845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.427374958992</t>
+    <t xml:space="preserve">1.56270051002502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51787948608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46271479129791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47995388507843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43254685401917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42737519741058</t>
   </si>
   <si>
     <t xml:space="preserve">1.37479639053345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41099810600281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39289772510529</t>
+    <t xml:space="preserve">1.4109982252121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39289784431458</t>
   </si>
   <si>
     <t xml:space="preserve">1.3446284532547</t>
@@ -1943,25 +1943,25 @@
     <t xml:space="preserve">1.35841941833496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34031879901886</t>
+    <t xml:space="preserve">1.34031891822815</t>
   </si>
   <si>
     <t xml:space="preserve">1.35066258907318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35238611698151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3610053062439</t>
+    <t xml:space="preserve">1.3523862361908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36100542545319</t>
   </si>
   <si>
     <t xml:space="preserve">1.33342349529266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3282516002655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29032599925995</t>
+    <t xml:space="preserve">1.32825171947479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29032611846924</t>
   </si>
   <si>
     <t xml:space="preserve">1.36962532997131</t>
@@ -1970,16 +1970,16 @@
     <t xml:space="preserve">1.35324847698212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36186766624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39203524589539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38944947719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34893894195557</t>
+    <t xml:space="preserve">1.36186754703522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39203536510468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38944935798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34893906116486</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023933172226</t>
@@ -1988,10 +1988,10 @@
     <t xml:space="preserve">1.30928874015808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2610205411911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22999048233032</t>
+    <t xml:space="preserve">1.26102042198181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22999036312103</t>
   </si>
   <si>
     <t xml:space="preserve">1.40151691436768</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">1.36531591415405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32308053970337</t>
+    <t xml:space="preserve">1.32308065891266</t>
   </si>
   <si>
     <t xml:space="preserve">1.27998328208923</t>
@@ -2009,49 +2009,49 @@
     <t xml:space="preserve">1.31446075439453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3015319108963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36876320838928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38083052635193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47047257423401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52908432483673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5437376499176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55063319206238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55149459838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59372961521149</t>
+    <t xml:space="preserve">1.30153203010559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36876308917999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38083028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47047245502472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52908444404602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54373776912689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55063307285309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55149447917938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59372973442078</t>
   </si>
   <si>
     <t xml:space="preserve">1.61355471611023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58769643306732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59804010391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53942739963531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46185255050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43771874904633</t>
+    <t xml:space="preserve">1.58769655227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59804022312164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53942716121674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46185266971588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43771886825562</t>
   </si>
   <si>
     <t xml:space="preserve">1.43513286113739</t>
@@ -2060,43 +2060,43 @@
     <t xml:space="preserve">1.46530067920685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41875612735748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39117407798767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37393486499786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37048661708832</t>
+    <t xml:space="preserve">1.4187558889389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39117395877838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37393498420715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37048673629761</t>
   </si>
   <si>
     <t xml:space="preserve">1.33859527111053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34118115901947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34376728534698</t>
+    <t xml:space="preserve">1.34118127822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3437671661377</t>
   </si>
   <si>
     <t xml:space="preserve">1.37565851211548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30584156513214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28170704841614</t>
+    <t xml:space="preserve">1.30584168434143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28170692920685</t>
   </si>
   <si>
     <t xml:space="preserve">1.43427062034607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41444659233093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42909872531891</t>
+    <t xml:space="preserve">1.41444635391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4290988445282</t>
   </si>
   <si>
     <t xml:space="preserve">1.43340921401978</t>
@@ -2117,22 +2117,22 @@
     <t xml:space="preserve">1.54890847206116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4937447309494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44375205039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59200596809387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50753569602966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43599414825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45495688915253</t>
+    <t xml:space="preserve">1.49374485015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44375193119049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59200608730316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50753581523895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43599426746368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45495712757111</t>
   </si>
   <si>
     <t xml:space="preserve">1.45323348045349</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">1.47478199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45237100124359</t>
+    <t xml:space="preserve">1.45237112045288</t>
   </si>
   <si>
     <t xml:space="preserve">1.37652087211609</t>
@@ -2150,31 +2150,31 @@
     <t xml:space="preserve">1.36790084838867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37996816635132</t>
+    <t xml:space="preserve">1.37996804714203</t>
   </si>
   <si>
     <t xml:space="preserve">1.40496492385864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.412721991539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49115884304047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48081541061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51270759105682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51874089241028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51184523105621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5196031332016</t>
+    <t xml:space="preserve">1.41272187232971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49115896224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48081529140472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51270747184753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51874077320099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5118453502655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51960301399231</t>
   </si>
   <si>
     <t xml:space="preserve">1.5601145029068</t>
@@ -2183,13 +2183,13 @@
     <t xml:space="preserve">1.51701712608337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54028952121735</t>
+    <t xml:space="preserve">1.54028940200806</t>
   </si>
   <si>
     <t xml:space="preserve">1.57131969928741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58942008018494</t>
+    <t xml:space="preserve">1.58942019939423</t>
   </si>
   <si>
     <t xml:space="preserve">1.58424818515778</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">1.64889430999756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65751361846924</t>
+    <t xml:space="preserve">1.65751349925995</t>
   </si>
   <si>
     <t xml:space="preserve">1.6368271112442</t>
@@ -2210,46 +2210,46 @@
     <t xml:space="preserve">1.64372253417969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68423402309418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6351033449173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61010670661926</t>
+    <t xml:space="preserve">1.68423390388489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63510346412659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61010658740997</t>
   </si>
   <si>
     <t xml:space="preserve">1.59114384651184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60838294029236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61614060401917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61700189113617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63768923282623</t>
+    <t xml:space="preserve">1.60838282108307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61614072322845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61700201034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63768935203552</t>
   </si>
   <si>
     <t xml:space="preserve">1.70233452320099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79628622531891</t>
+    <t xml:space="preserve">1.79628610610962</t>
   </si>
   <si>
     <t xml:space="preserve">1.76180875301361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77387619018555</t>
+    <t xml:space="preserve">1.77387607097626</t>
   </si>
   <si>
     <t xml:space="preserve">1.78421878814697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76698052883148</t>
+    <t xml:space="preserve">1.76698064804077</t>
   </si>
   <si>
     <t xml:space="preserve">1.78766703605652</t>
@@ -2258,22 +2258,22 @@
     <t xml:space="preserve">1.74629330635071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82214450836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80490529537201</t>
+    <t xml:space="preserve">1.82214438915253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80490517616272</t>
   </si>
   <si>
     <t xml:space="preserve">1.77559971809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69112956523895</t>
+    <t xml:space="preserve">1.69112944602966</t>
   </si>
   <si>
     <t xml:space="preserve">1.66009938716888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73939776420593</t>
+    <t xml:space="preserve">1.73939788341522</t>
   </si>
   <si>
     <t xml:space="preserve">1.72388315200806</t>
@@ -2282,28 +2282,28 @@
     <t xml:space="preserve">1.74112236499786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905504703522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73422694206238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6687183380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66699481010437</t>
+    <t xml:space="preserve">1.72905492782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7342267036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66871845722198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66699492931366</t>
   </si>
   <si>
     <t xml:space="preserve">1.67647635936737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66182315349579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69285321235657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67561411857605</t>
+    <t xml:space="preserve">1.6618230342865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69285309314728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67561399936676</t>
   </si>
   <si>
     <t xml:space="preserve">1.66096174716949</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">1.64199900627136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61183106899261</t>
+    <t xml:space="preserve">1.6118311882019</t>
   </si>
   <si>
     <t xml:space="preserve">1.64286029338837</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">1.64630842208862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63337874412537</t>
+    <t xml:space="preserve">1.63337886333466</t>
   </si>
   <si>
     <t xml:space="preserve">1.65492749214172</t>
@@ -2336,34 +2336,34 @@
     <t xml:space="preserve">1.63596475124359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5945919752121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59631550312042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6273455619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48340117931366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54201304912567</t>
+    <t xml:space="preserve">1.59459185600281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.596315741539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62734568119049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48340106010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54201316833496</t>
   </si>
   <si>
     <t xml:space="preserve">1.53684222698212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51443135738373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5609757900238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57476699352264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58080089092255</t>
+    <t xml:space="preserve">1.51443111896515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56097590923309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57476687431335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58080101013184</t>
   </si>
   <si>
     <t xml:space="preserve">1.59717786312103</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">1.56528544425964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55752885341644</t>
+    <t xml:space="preserve">1.55752861499786</t>
   </si>
   <si>
     <t xml:space="preserve">1.52994573116302</t>
@@ -2384,37 +2384,37 @@
     <t xml:space="preserve">1.27136409282684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21792316436768</t>
+    <t xml:space="preserve">1.21792304515839</t>
   </si>
   <si>
     <t xml:space="preserve">1.20413219928741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17224061489105</t>
+    <t xml:space="preserve">1.17224073410034</t>
   </si>
   <si>
     <t xml:space="preserve">1.06018757820129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962788820266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.801605045795441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74213171005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717997074127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564140558242798</t>
+    <t xml:space="preserve">0.962788760662079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.801605105400085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.742131769657135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717997133731842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564140498638153</t>
   </si>
   <si>
     <t xml:space="preserve">0.633096098899841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536127090454102</t>
+    <t xml:space="preserve">0.536126971244812</t>
   </si>
   <si>
     <t xml:space="preserve">0.618442893028259</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">0.724030315876007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657661437988281</t>
+    <t xml:space="preserve">0.657661497592926</t>
   </si>
   <si>
     <t xml:space="preserve">0.704206168651581</t>
@@ -2438,22 +2438,22 @@
     <t xml:space="preserve">0.702050924301147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.709808647632599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.680933833122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.664125263690948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.680502235889435</t>
+    <t xml:space="preserve">0.709808707237244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680933773517609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.664125323295593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68050217628479</t>
   </si>
   <si>
     <t xml:space="preserve">0.663694679737091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.64731776714325</t>
+    <t xml:space="preserve">0.647317826747894</t>
   </si>
   <si>
     <t xml:space="preserve">0.595170617103577</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">0.637836396694183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.681795120239258</t>
+    <t xml:space="preserve">0.681795179843903</t>
   </si>
   <si>
     <t xml:space="preserve">0.667142808437347</t>
@@ -2471,28 +2471,28 @@
     <t xml:space="preserve">0.671452403068542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.658522844314575</t>
+    <t xml:space="preserve">0.65852278470993</t>
   </si>
   <si>
     <t xml:space="preserve">0.670590102672577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660677969455719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631803214550018</t>
+    <t xml:space="preserve">0.660678088665009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631803154945374</t>
   </si>
   <si>
     <t xml:space="preserve">0.635250449180603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62964791059494</t>
+    <t xml:space="preserve">0.629647970199585</t>
   </si>
   <si>
     <t xml:space="preserve">0.624907732009888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.630510270595551</t>
+    <t xml:space="preserve">0.630510210990906</t>
   </si>
   <si>
     <t xml:space="preserve">0.672313749790192</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">0.698172032833099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.675761997699738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662832379341125</t>
+    <t xml:space="preserve">0.675761938095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662832319736481</t>
   </si>
   <si>
     <t xml:space="preserve">0.661971032619476</t>
@@ -2516,16 +2516,16 @@
     <t xml:space="preserve">0.660247385501862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669728755950928</t>
+    <t xml:space="preserve">0.669728815555573</t>
   </si>
   <si>
     <t xml:space="preserve">0.689552903175354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671020805835724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646455526351929</t>
+    <t xml:space="preserve">0.671020746231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.646455585956573</t>
   </si>
   <si>
     <t xml:space="preserve">0.629217267036438</t>
@@ -2534,73 +2534,73 @@
     <t xml:space="preserve">0.62533837556839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.64990371465683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615857124328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.593015432357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600342452526093</t>
+    <t xml:space="preserve">0.649903655052185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.615857064723969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.593015372753143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.600342512130737</t>
   </si>
   <si>
     <t xml:space="preserve">0.592584729194641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.621028900146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650765955448151</t>
+    <t xml:space="preserve">0.62102884054184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650766015052795</t>
   </si>
   <si>
     <t xml:space="preserve">0.749457836151123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814534604549408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787383496761322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792985916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854183912277222</t>
+    <t xml:space="preserve">0.814534664154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787383437156677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79298597574234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854183852672577</t>
   </si>
   <si>
     <t xml:space="preserve">0.861941576004028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.930035054683685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939516425132751</t>
+    <t xml:space="preserve">0.930034995079041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939516305923462</t>
   </si>
   <si>
     <t xml:space="preserve">1.03777766227722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0429493188858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999852061271667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905900359153748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954168617725372</t>
+    <t xml:space="preserve">1.04294943809509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999852120876312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905900299549103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954168677330017</t>
   </si>
   <si>
     <t xml:space="preserve">0.955031037330627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967960476875305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951583743095398</t>
+    <t xml:space="preserve">0.967960596084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951583802700043</t>
   </si>
   <si>
     <t xml:space="preserve">0.92055356502533</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">0.922277271747589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924000859260559</t>
+    <t xml:space="preserve">0.924000918865204</t>
   </si>
   <si>
     <t xml:space="preserve">0.849874258041382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805915534496307</t>
+    <t xml:space="preserve">0.805915594100952</t>
   </si>
   <si>
     <t xml:space="preserve">0.851167261600494</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">0.831773817539215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.810655772686005</t>
+    <t xml:space="preserve">0.810655832290649</t>
   </si>
   <si>
     <t xml:space="preserve">0.827894926071167</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">0.823153734207153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827463328838348</t>
+    <t xml:space="preserve">0.827463269233704</t>
   </si>
   <si>
     <t xml:space="preserve">0.824016034603119</t>
@@ -2642,34 +2642,34 @@
     <t xml:space="preserve">0.801174402236938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80720853805542</t>
+    <t xml:space="preserve">0.807208597660065</t>
   </si>
   <si>
     <t xml:space="preserve">0.790830731391907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847719132900238</t>
+    <t xml:space="preserve">0.847719073295593</t>
   </si>
   <si>
     <t xml:space="preserve">0.820999503135681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89124721288681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882628083229065</t>
+    <t xml:space="preserve">0.891247093677521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88262802362442</t>
   </si>
   <si>
     <t xml:space="preserve">0.871423006057739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885213911533356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862803041934967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86150997877121</t>
+    <t xml:space="preserve">0.885213971138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862802982330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861510038375854</t>
   </si>
   <si>
     <t xml:space="preserve">0.865388929843903</t>
@@ -2681,13 +2681,13 @@
     <t xml:space="preserve">0.798588454723358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814965307712555</t>
+    <t xml:space="preserve">0.8149653673172</t>
   </si>
   <si>
     <t xml:space="preserve">0.796434164047241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791693031787872</t>
+    <t xml:space="preserve">0.791692972183228</t>
   </si>
   <si>
     <t xml:space="preserve">0.800312101840973</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.817981898784637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783073902130127</t>
+    <t xml:space="preserve">0.783073842525482</t>
   </si>
   <si>
     <t xml:space="preserve">0.790400087833405</t>
@@ -2711,10 +2711,10 @@
     <t xml:space="preserve">0.835651755332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.825308978557587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.805053353309631</t>
+    <t xml:space="preserve">0.825309038162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.805053293704987</t>
   </si>
   <si>
     <t xml:space="preserve">0.79557192325592</t>
@@ -2729,46 +2729,46 @@
     <t xml:space="preserve">0.734804630279541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705929815769196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.712825238704681</t>
+    <t xml:space="preserve">0.705929756164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.712825298309326</t>
   </si>
   <si>
     <t xml:space="preserve">0.714980483055115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707653403282166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.695587038993835</t>
+    <t xml:space="preserve">0.70765346288681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.695586979389191</t>
   </si>
   <si>
     <t xml:space="preserve">0.687829256057739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703775465488434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709378063678741</t>
+    <t xml:space="preserve">0.703775405883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.709377944469452</t>
   </si>
   <si>
     <t xml:space="preserve">0.707222759723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699464976787567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716704189777374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719720780849457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726185500621796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.720582962036133</t>
+    <t xml:space="preserve">0.699465036392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716704130172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.719720721244812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72618556022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.720583021640778</t>
   </si>
   <si>
     <t xml:space="preserve">0.744286060333252</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">0.766265392303467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792123675346375</t>
+    <t xml:space="preserve">0.792123734951019</t>
   </si>
   <si>
     <t xml:space="preserve">0.741269469261169</t>
@@ -2789,49 +2789,49 @@
     <t xml:space="preserve">0.73782217502594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806776881217957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.781350195407867</t>
+    <t xml:space="preserve">0.806776940822601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.781350255012512</t>
   </si>
   <si>
     <t xml:space="preserve">0.803760349750519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821860909461975</t>
+    <t xml:space="preserve">0.821860790252686</t>
   </si>
   <si>
     <t xml:space="preserve">0.851597964763641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87745612859726</t>
+    <t xml:space="preserve">0.877456188201904</t>
   </si>
   <si>
     <t xml:space="preserve">0.887799859046936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874008893966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88607531785965</t>
+    <t xml:space="preserve">0.87400895357132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886075377464294</t>
   </si>
   <si>
     <t xml:space="preserve">0.870560705661774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899867117404938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879179835319519</t>
+    <t xml:space="preserve">0.899867177009583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879179894924164</t>
   </si>
   <si>
     <t xml:space="preserve">0.881765782833099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83866935968399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833497405052185</t>
+    <t xml:space="preserve">0.838669300079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83349746465683</t>
   </si>
   <si>
     <t xml:space="preserve">0.839100003242493</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">0.773592472076416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733511745929718</t>
+    <t xml:space="preserve">0.733511626720428</t>
   </si>
   <si>
     <t xml:space="preserve">0.675331294536591</t>
@@ -2858,16 +2858,16 @@
     <t xml:space="preserve">0.65421324968338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.665849924087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6813645362854</t>
+    <t xml:space="preserve">0.66584986448288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681364417076111</t>
   </si>
   <si>
     <t xml:space="preserve">0.706360459327698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.711101591587067</t>
+    <t xml:space="preserve">0.711101651191711</t>
   </si>
   <si>
     <t xml:space="preserve">0.777039766311646</t>
@@ -2876,22 +2876,22 @@
     <t xml:space="preserve">0.809362828731537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812811017036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828756332397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883490264415741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872284412384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905038118362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929172694683075</t>
+    <t xml:space="preserve">0.812811076641083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828756272792816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883490324020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872284352779388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905038058757782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92917275428772</t>
   </si>
   <si>
     <t xml:space="preserve">0.917967677116394</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">0.915381729602814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91882997751236</t>
+    <t xml:space="preserve">0.918830037117004</t>
   </si>
   <si>
     <t xml:space="preserve">0.909348547458649</t>
@@ -2909,13 +2909,13 @@
     <t xml:space="preserve">0.933482348918915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921414911746979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930896401405334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910209953784943</t>
+    <t xml:space="preserve">0.921414971351624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930896461009979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910209894180298</t>
   </si>
   <si>
     <t xml:space="preserve">0.895556688308716</t>
@@ -2927,10 +2927,10 @@
     <t xml:space="preserve">0.866251170635223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868836998939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867113471031189</t>
+    <t xml:space="preserve">0.868837118148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.867113351821899</t>
   </si>
   <si>
     <t xml:space="preserve">0.88693755865097</t>
@@ -2954,16 +2954,16 @@
     <t xml:space="preserve">0.984337389469147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.987784743309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996404826641083</t>
+    <t xml:space="preserve">0.987784683704376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996404707431793</t>
   </si>
   <si>
     <t xml:space="preserve">1.00933337211609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992094278335571</t>
+    <t xml:space="preserve">0.992094218730927</t>
   </si>
   <si>
     <t xml:space="preserve">0.964512407779694</t>
@@ -2978,46 +2978,46 @@
     <t xml:space="preserve">0.88004207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894695341587067</t>
+    <t xml:space="preserve">0.894695281982422</t>
   </si>
   <si>
     <t xml:space="preserve">0.906762659549713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93606823682785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961065113544464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950721323490143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956754624843597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942102372646332</t>
+    <t xml:space="preserve">0.936068296432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961065173149109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950721383094788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956754684448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942102313041687</t>
   </si>
   <si>
     <t xml:space="preserve">0.977441966533661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928310394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959340512752533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968822002410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967098355293274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972270011901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971407890319824</t>
+    <t xml:space="preserve">0.928310513496399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959340453147888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968821942806244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967098295688629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972270131111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971407830715179</t>
   </si>
   <si>
     <t xml:space="preserve">0.97657972574234</t>
@@ -3032,22 +3032,22 @@
     <t xml:space="preserve">1.18344569206238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22740459442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21102774143219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19723653793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1946507692337</t>
+    <t xml:space="preserve">1.2274044752121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21102750301361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19723665714264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19465065002441</t>
   </si>
   <si>
     <t xml:space="preserve">1.20930397510529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17482674121857</t>
+    <t xml:space="preserve">1.17482662200928</t>
   </si>
   <si>
     <t xml:space="preserve">1.14465796947479</t>
@@ -3056,19 +3056,19 @@
     <t xml:space="preserve">1.14638245105743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14207303524017</t>
+    <t xml:space="preserve">1.14207279682159</t>
   </si>
   <si>
     <t xml:space="preserve">1.14724385738373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16706895828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15672528743744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20068490505219</t>
+    <t xml:space="preserve">1.16706883907318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15672516822815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20068502426147</t>
   </si>
   <si>
     <t xml:space="preserve">1.18172216415405</t>
@@ -3077,16 +3077,16 @@
     <t xml:space="preserve">1.15069198608398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14293420314789</t>
+    <t xml:space="preserve">1.14293432235718</t>
   </si>
   <si>
     <t xml:space="preserve">1.42134177684784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41617012023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48512578010559</t>
+    <t xml:space="preserve">1.41616988182068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4851256608963</t>
   </si>
   <si>
     <t xml:space="preserve">1.48253977298737</t>
@@ -3095,43 +3095,43 @@
     <t xml:space="preserve">1.48598694801331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45150983333588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45668148994446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44202828407288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48426342010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52391266822815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50581216812134</t>
+    <t xml:space="preserve">1.45150971412659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45668160915375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44202840328217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48426353931427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52391242980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50581204891205</t>
   </si>
   <si>
     <t xml:space="preserve">1.48684942722321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47909164428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5282222032547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45840513706207</t>
+    <t xml:space="preserve">1.47909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52822208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45840525627136</t>
   </si>
   <si>
     <t xml:space="preserve">1.47133386135101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63855075836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59976363182068</t>
+    <t xml:space="preserve">1.63855063915253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59976375102997</t>
   </si>
   <si>
     <t xml:space="preserve">1.67820000648499</t>
@@ -3140,88 +3140,88 @@
     <t xml:space="preserve">1.66354763507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67216682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67130446434021</t>
+    <t xml:space="preserve">1.67216670513153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67130434513092</t>
   </si>
   <si>
     <t xml:space="preserve">1.67906212806702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66527128219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5032262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4428905248642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38600206375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39979326725006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.402379155159</t>
+    <t xml:space="preserve">1.66527116298676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50322616100311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44289064407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3860023021698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39979314804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40237903594971</t>
   </si>
   <si>
     <t xml:space="preserve">1.40841233730316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44749188423157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48041021823883</t>
+    <t xml:space="preserve">1.44749176502228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48041009902954</t>
   </si>
   <si>
     <t xml:space="preserve">1.45755016803741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43834781646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43651914596558</t>
+    <t xml:space="preserve">1.438347697258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43651902675629</t>
   </si>
   <si>
     <t xml:space="preserve">1.37616872787476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49412620067596</t>
+    <t xml:space="preserve">1.49412596225739</t>
   </si>
   <si>
     <t xml:space="preserve">1.53801727294922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56636369228363</t>
+    <t xml:space="preserve">1.56636357307434</t>
   </si>
   <si>
     <t xml:space="preserve">1.58099389076233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63494336605072</t>
+    <t xml:space="preserve">1.63494324684143</t>
   </si>
   <si>
     <t xml:space="preserve">1.57733631134033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59836757183075</t>
+    <t xml:space="preserve">1.59836745262146</t>
   </si>
   <si>
     <t xml:space="preserve">1.59379553794861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58739459514618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6084258556366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62671399116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66603302955627</t>
+    <t xml:space="preserve">1.58739471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60842573642731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62671387195587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66603291034698</t>
   </si>
   <si>
     <t xml:space="preserve">1.65780329704285</t>
@@ -3230,25 +3230,25 @@
     <t xml:space="preserve">1.61939871311188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63951539993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6550600528717</t>
+    <t xml:space="preserve">1.63951528072357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65506017208099</t>
   </si>
   <si>
     <t xml:space="preserve">1.68797838687897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67700576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66420412063599</t>
+    <t xml:space="preserve">1.67700564861298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66420423984528</t>
   </si>
   <si>
     <t xml:space="preserve">1.63402891159058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56727802753448</t>
+    <t xml:space="preserve">1.5672779083252</t>
   </si>
   <si>
     <t xml:space="preserve">1.56910681724548</t>
@@ -3257,19 +3257,19 @@
     <t xml:space="preserve">1.54076039791107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54533243179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57367873191833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55539083480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54899001121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58922362327576</t>
+    <t xml:space="preserve">1.5453325510025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57367861270905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55539071559906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54898989200592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58922350406647</t>
   </si>
   <si>
     <t xml:space="preserve">1.57916510105133</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">1.6029394865036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69072163105011</t>
+    <t xml:space="preserve">1.6907217502594</t>
   </si>
   <si>
     <t xml:space="preserve">1.71632480621338</t>
@@ -3293,49 +3293,49 @@
     <t xml:space="preserve">1.53618836402893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51241421699524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46943747997284</t>
+    <t xml:space="preserve">1.51241409778595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46943724155426</t>
   </si>
   <si>
     <t xml:space="preserve">1.49321174621582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51332831382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66969060897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88731706142426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90560519695282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96595525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95681154727936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04642248153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10128617286682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15797877311707</t>
+    <t xml:space="preserve">1.5133284330368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66969048976898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88731718063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90560507774353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96595549583435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95681142807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04642271995544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1012864112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15797901153564</t>
   </si>
   <si>
     <t xml:space="preserve">2.24027490615845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02264785766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94949615001678</t>
+    <t xml:space="preserve">2.02264809608459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94949638843536</t>
   </si>
   <si>
     <t xml:space="preserve">2.02447700500488</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">2.00801801681519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08299827575684</t>
+    <t xml:space="preserve">2.08299851417542</t>
   </si>
   <si>
     <t xml:space="preserve">2.17626690864563</t>
@@ -3356,34 +3356,34 @@
     <t xml:space="preserve">2.17260932922363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20552754402161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19455480575562</t>
+    <t xml:space="preserve">2.20552778244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19455528259277</t>
   </si>
   <si>
     <t xml:space="preserve">2.24758982658386</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23295950889587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24576139450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25124740600586</t>
+    <t xml:space="preserve">2.23295974731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24576115608215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25124716758728</t>
   </si>
   <si>
     <t xml:space="preserve">2.31525564193726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24941897392273</t>
+    <t xml:space="preserve">2.24941873550415</t>
   </si>
   <si>
     <t xml:space="preserve">2.19089722633362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21467161178589</t>
+    <t xml:space="preserve">2.21467137336731</t>
   </si>
   <si>
     <t xml:space="preserve">2.26770687103271</t>
@@ -3395,16 +3395,16 @@
     <t xml:space="preserve">2.35914635658264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39389371871948</t>
+    <t xml:space="preserve">2.3938934803009</t>
   </si>
   <si>
     <t xml:space="preserve">2.42315435409546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49447703361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52373790740967</t>
+    <t xml:space="preserve">2.49447727203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52373814582825</t>
   </si>
   <si>
     <t xml:space="preserve">2.45973038673401</t>
@@ -3425,25 +3425,25 @@
     <t xml:space="preserve">2.58957457542419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50910782814026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54934120178223</t>
+    <t xml:space="preserve">2.50910758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54934144020081</t>
   </si>
   <si>
     <t xml:space="preserve">2.47253179550171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41401028633118</t>
+    <t xml:space="preserve">2.41401052474976</t>
   </si>
   <si>
     <t xml:space="preserve">2.45424389839172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28050827980042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46521687507629</t>
+    <t xml:space="preserve">2.28050851821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46521663665771</t>
   </si>
   <si>
     <t xml:space="preserve">2.55848526954651</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">2.64260983467102</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7413649559021</t>
+    <t xml:space="preserve">2.74136471748352</t>
   </si>
   <si>
     <t xml:space="preserve">2.72490549087524</t>
@@ -3467,13 +3467,13 @@
     <t xml:space="preserve">2.7377073764801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67918562889099</t>
+    <t xml:space="preserve">2.67918586730957</t>
   </si>
   <si>
     <t xml:space="preserve">2.60420513153076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4066948890686</t>
+    <t xml:space="preserve">2.40669512748718</t>
   </si>
   <si>
     <t xml:space="preserve">2.39206480979919</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">2.37011909484863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35548901557922</t>
+    <t xml:space="preserve">2.35548877716064</t>
   </si>
   <si>
     <t xml:space="preserve">2.34817361831665</t>
@@ -3491,7 +3491,7 @@
     <t xml:space="preserve">2.33171439170837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38292098045349</t>
+    <t xml:space="preserve">2.38292074203491</t>
   </si>
   <si>
     <t xml:space="preserve">2.35183143615723</t>
@@ -3500,7 +3500,7 @@
     <t xml:space="preserve">2.36097526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34085822105408</t>
+    <t xml:space="preserve">2.34085845947266</t>
   </si>
   <si>
     <t xml:space="preserve">2.44144225120544</t>
@@ -3515,10 +3515,10 @@
     <t xml:space="preserve">2.21832966804504</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22930192947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24393224716187</t>
+    <t xml:space="preserve">2.22930216789246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24393248558044</t>
   </si>
   <si>
     <t xml:space="preserve">2.20735645294189</t>
@@ -3530,52 +3530,52 @@
     <t xml:space="preserve">2.12323188781738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23844599723816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26587772369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2036988735199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46887445449829</t>
+    <t xml:space="preserve">2.23844575881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26587796211243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20369911193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46887421607971</t>
   </si>
   <si>
     <t xml:space="preserve">2.47070288658142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13237595558167</t>
+    <t xml:space="preserve">2.13237619400024</t>
   </si>
   <si>
     <t xml:space="preserve">2.05739521980286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18906855583191</t>
+    <t xml:space="preserve">2.18906831741333</t>
   </si>
   <si>
     <t xml:space="preserve">2.18723964691162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16163682937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07751226425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14700603485107</t>
+    <t xml:space="preserve">2.16163659095764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07751202583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14700627326965</t>
   </si>
   <si>
     <t xml:space="preserve">2.05556631088257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09945774078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09397101402283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99338722229004</t>
+    <t xml:space="preserve">2.09945750236511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09397125244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99338734149933</t>
   </si>
   <si>
     <t xml:space="preserve">2.07934069633484</t>
@@ -3584,10 +3584,10 @@
     <t xml:space="preserve">2.06836795806885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9275506734848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96229767799377</t>
+    <t xml:space="preserve">1.92755079269409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96229791641235</t>
   </si>
   <si>
     <t xml:space="preserve">1.86354303359985</t>
@@ -3596,13 +3596,13 @@
     <t xml:space="preserve">1.69803690910339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61299800872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61848413944244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73369836807251</t>
+    <t xml:space="preserve">1.61299788951874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61848425865173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73369860649109</t>
   </si>
   <si>
     <t xml:space="preserve">1.63037145137787</t>
@@ -3611,19 +3611,19 @@
     <t xml:space="preserve">1.64591610431671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71266734600067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84342622756958</t>
+    <t xml:space="preserve">1.71266722679138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84342610836029</t>
   </si>
   <si>
     <t xml:space="preserve">1.81142210960388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79221975803375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7894766330719</t>
+    <t xml:space="preserve">1.79221987724304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78947675228119</t>
   </si>
   <si>
     <t xml:space="preserve">1.76113033294678</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">1.73278391361237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78307580947876</t>
+    <t xml:space="preserve">1.78307592868805</t>
   </si>
   <si>
     <t xml:space="preserve">1.92389333248138</t>
@@ -3647,16 +3647,16 @@
     <t xml:space="preserve">1.89280354976654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80136382579803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84159731864929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81873738765717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78399014472961</t>
+    <t xml:space="preserve">1.80136394500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84159719944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81873726844788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7839902639389</t>
   </si>
   <si>
     <t xml:space="preserve">1.72363996505737</t>
@@ -3671,37 +3671,37 @@
     <t xml:space="preserve">1.67151927947998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76478779315948</t>
+    <t xml:space="preserve">1.76478803157806</t>
   </si>
   <si>
     <t xml:space="preserve">1.75472950935364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7318696975708</t>
+    <t xml:space="preserve">1.73186957836151</t>
   </si>
   <si>
     <t xml:space="preserve">1.68157768249512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69163608551025</t>
+    <t xml:space="preserve">1.69163620471954</t>
   </si>
   <si>
     <t xml:space="preserve">1.68249201774597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66054654121399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67243373394012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60019624233246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50967085361481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52613019943237</t>
+    <t xml:space="preserve">1.66054666042328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67243385314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60019636154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5096709728241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52613008022308</t>
   </si>
   <si>
     <t xml:space="preserve">1.59105229377747</t>
@@ -3710,13 +3710,13 @@
     <t xml:space="preserve">1.65963208675385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64042973518372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69712233543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65871787071228</t>
+    <t xml:space="preserve">1.64042985439301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69712245464325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6587176322937</t>
   </si>
   <si>
     <t xml:space="preserve">1.65140247344971</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">1.57002115249634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68340635299683</t>
+    <t xml:space="preserve">1.68340647220612</t>
   </si>
   <si>
     <t xml:space="preserve">1.6998655796051</t>
@@ -3737,16 +3737,16 @@
     <t xml:space="preserve">1.77758955955505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7446711063385</t>
+    <t xml:space="preserve">1.74467098712921</t>
   </si>
   <si>
     <t xml:space="preserve">1.77118873596191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83793973922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90377628803253</t>
+    <t xml:space="preserve">1.83793962001801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90377640724182</t>
   </si>
   <si>
     <t xml:space="preserve">1.86537158489227</t>
@@ -3755,13 +3755,13 @@
     <t xml:space="preserve">1.85622763633728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85257017612457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71083843708038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50235569477081</t>
+    <t xml:space="preserve">1.85257005691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71083855628967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5023558139801</t>
   </si>
   <si>
     <t xml:space="preserve">1.46395099163055</t>
@@ -3773,16 +3773,16 @@
     <t xml:space="preserve">1.52397203445435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53710162639618</t>
+    <t xml:space="preserve">1.53710174560547</t>
   </si>
   <si>
     <t xml:space="preserve">1.50427758693695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52303409576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48270750045776</t>
+    <t xml:space="preserve">1.52303421497345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48270761966705</t>
   </si>
   <si>
     <t xml:space="preserve">1.52115845680237</t>
@@ -3791,16 +3791,16 @@
     <t xml:space="preserve">1.52866113185883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45926177501678</t>
+    <t xml:space="preserve">1.45926189422607</t>
   </si>
   <si>
     <t xml:space="preserve">1.41612160205841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42268645763397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34297108650208</t>
+    <t xml:space="preserve">1.42268633842468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34297096729279</t>
   </si>
   <si>
     <t xml:space="preserve">1.37016808986664</t>
@@ -3809,16 +3809,16 @@
     <t xml:space="preserve">1.41799736022949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45269691944122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43018913269043</t>
+    <t xml:space="preserve">1.4526971578598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43018901348114</t>
   </si>
   <si>
     <t xml:space="preserve">1.3570384979248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32515227794647</t>
+    <t xml:space="preserve">1.32515239715576</t>
   </si>
   <si>
     <t xml:space="preserve">1.32046318054199</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">1.35047376155853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36923027038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44238090515137</t>
+    <t xml:space="preserve">1.36923038959503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44238078594208</t>
   </si>
   <si>
     <t xml:space="preserve">1.41518378257751</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">1.40111637115479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40017867088318</t>
+    <t xml:space="preserve">1.40017855167389</t>
   </si>
   <si>
     <t xml:space="preserve">1.33828186988831</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">1.35516285896301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37579500675201</t>
+    <t xml:space="preserve">1.3757951259613</t>
   </si>
   <si>
     <t xml:space="preserve">1.46488881111145</t>
@@ -3866,22 +3866,22 @@
     <t xml:space="preserve">1.51646935939789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50615322589874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53522598743439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54272866249084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53616380691528</t>
+    <t xml:space="preserve">1.50615310668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5352258682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54272854328156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53616368770599</t>
   </si>
   <si>
     <t xml:space="preserve">1.56429862976074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5530446767807</t>
+    <t xml:space="preserve">1.55304479598999</t>
   </si>
   <si>
     <t xml:space="preserve">1.54835557937622</t>
@@ -3896,34 +3896,34 @@
     <t xml:space="preserve">1.47801840305328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4564483165741</t>
+    <t xml:space="preserve">1.45644819736481</t>
   </si>
   <si>
     <t xml:space="preserve">1.38986253738403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38611125946045</t>
+    <t xml:space="preserve">1.38611114025116</t>
   </si>
   <si>
     <t xml:space="preserve">1.4170595407486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41987299919128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40580558776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4367538690567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3786084651947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39548945426941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41330814361572</t>
+    <t xml:space="preserve">1.41987311840057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40580546855927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43675374984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37860858440399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3954895734787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41330826282501</t>
   </si>
   <si>
     <t xml:space="preserve">1.40299212932587</t>
@@ -3935,13 +3935,13 @@
     <t xml:space="preserve">1.48083186149597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46207535266876</t>
+    <t xml:space="preserve">1.46207523345947</t>
   </si>
   <si>
     <t xml:space="preserve">1.51553153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45738625526428</t>
+    <t xml:space="preserve">1.45738613605499</t>
   </si>
   <si>
     <t xml:space="preserve">1.44331872463226</t>
@@ -3953,22 +3953,22 @@
     <t xml:space="preserve">1.73967266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63463592529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6290088891983</t>
+    <t xml:space="preserve">1.63463580608368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62900876998901</t>
   </si>
   <si>
     <t xml:space="preserve">1.64213848114014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61306583881378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54741764068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60743880271912</t>
+    <t xml:space="preserve">1.61306571960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54741775989532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60743868350983</t>
   </si>
   <si>
     <t xml:space="preserve">1.60181176662445</t>
@@ -3977,37 +3977,37 @@
     <t xml:space="preserve">1.70215952396393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63182246685028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58680653572083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57180118560791</t>
+    <t xml:space="preserve">1.63182234764099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58680665493011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5718013048172</t>
   </si>
   <si>
     <t xml:space="preserve">1.6102522611618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58211755752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64588963985443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64495182037354</t>
+    <t xml:space="preserve">1.58211743831635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64588975906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64495193958282</t>
   </si>
   <si>
     <t xml:space="preserve">1.69278109073639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71059989929199</t>
+    <t xml:space="preserve">1.71060001850128</t>
   </si>
   <si>
     <t xml:space="preserve">1.71153783798218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71247565746307</t>
+    <t xml:space="preserve">1.71247553825378</t>
   </si>
   <si>
     <t xml:space="preserve">1.72372961044312</t>
@@ -4022,7 +4022,7 @@
     <t xml:space="preserve">1.84564733505249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7856262922287</t>
+    <t xml:space="preserve">1.78562641143799</t>
   </si>
   <si>
     <t xml:space="preserve">1.77249670028687</t>
@@ -4031,10 +4031,10 @@
     <t xml:space="preserve">1.78187489509583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82782864570618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78656399250031</t>
+    <t xml:space="preserve">1.82782852649689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78656411170959</t>
   </si>
   <si>
     <t xml:space="preserve">1.80719637870789</t>
@@ -4043,22 +4043,22 @@
     <t xml:space="preserve">1.84470951557159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90754389762878</t>
+    <t xml:space="preserve">1.90754413604736</t>
   </si>
   <si>
     <t xml:space="preserve">1.92630052566528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93192756175995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9600625038147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9957001209259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00695419311523</t>
+    <t xml:space="preserve">1.93192744255066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96006238460541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99570024013519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00695371627808</t>
   </si>
   <si>
     <t xml:space="preserve">1.96756517887115</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">2.06885075569153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05947232246399</t>
+    <t xml:space="preserve">2.05947256088257</t>
   </si>
   <si>
     <t xml:space="preserve">2.03508877754211</t>
@@ -4085,13 +4085,13 @@
     <t xml:space="preserve">2.05384540557861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11011505126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20202255249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22265434265137</t>
+    <t xml:space="preserve">2.11011528968811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20202231407166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22265458106995</t>
   </si>
   <si>
     <t xml:space="preserve">2.19076824188232</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">2.18701720237732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20577383041382</t>
+    <t xml:space="preserve">2.20577359199524</t>
   </si>
   <si>
     <t xml:space="preserve">2.23765993118286</t>
@@ -4109,10 +4109,10 @@
     <t xml:space="preserve">2.17763876914978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17013621330261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1682608127594</t>
+    <t xml:space="preserve">2.17013597488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16826057434082</t>
   </si>
   <si>
     <t xml:space="preserve">2.03884029388428</t>
@@ -4121,7 +4121,7 @@
     <t xml:space="preserve">2.08573150634766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91129541397095</t>
+    <t xml:space="preserve">1.91129553318024</t>
   </si>
   <si>
     <t xml:space="preserve">1.95068407058716</t>
@@ -4133,25 +4133,25 @@
     <t xml:space="preserve">1.98819720745087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9975757598877</t>
+    <t xml:space="preserve">1.99757587909698</t>
   </si>
   <si>
     <t xml:space="preserve">2.00132703781128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96193826198578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97506773471832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02571082115173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03133749961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09698557853699</t>
+    <t xml:space="preserve">1.96193814277649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97506761550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02571058273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03133726119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09698581695557</t>
   </si>
   <si>
     <t xml:space="preserve">2.12512040138245</t>
@@ -4160,7 +4160,7 @@
     <t xml:space="preserve">2.1720118522644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1963951587677</t>
+    <t xml:space="preserve">2.19639539718628</t>
   </si>
   <si>
     <t xml:space="preserve">2.19451951980591</t>
@@ -4169,19 +4169,19 @@
     <t xml:space="preserve">2.16638493537903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08385562896729</t>
+    <t xml:space="preserve">2.08385586738586</t>
   </si>
   <si>
     <t xml:space="preserve">2.13825011253357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12887144088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10261273384094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06697487831116</t>
+    <t xml:space="preserve">2.12887167930603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10261249542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06697511672974</t>
   </si>
   <si>
     <t xml:space="preserve">2.0763533115387</t>
@@ -4190,16 +4190,16 @@
     <t xml:space="preserve">2.08198022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06509923934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34644818305969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32018876075745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39146375656128</t>
+    <t xml:space="preserve">2.06509900093079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34644794464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32018852233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3914635181427</t>
   </si>
   <si>
     <t xml:space="preserve">2.38208556175232</t>
@@ -4208,13 +4208,13 @@
     <t xml:space="preserve">2.40646886825562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4477334022522</t>
+    <t xml:space="preserve">2.44773316383362</t>
   </si>
   <si>
     <t xml:space="preserve">2.49274945259094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45148491859436</t>
+    <t xml:space="preserve">2.45148515701294</t>
   </si>
   <si>
     <t xml:space="preserve">2.4852466583252</t>
@@ -4223,7 +4223,7 @@
     <t xml:space="preserve">2.47399282455444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4646143913269</t>
+    <t xml:space="preserve">2.46461462974548</t>
   </si>
   <si>
     <t xml:space="preserve">2.46836566925049</t>
@@ -4232,10 +4232,10 @@
     <t xml:space="preserve">2.43272829055786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41959857940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38021016120911</t>
+    <t xml:space="preserve">2.41959834098816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38020992279053</t>
   </si>
   <si>
     <t xml:space="preserve">2.38958811759949</t>
@@ -4247,16 +4247,16 @@
     <t xml:space="preserve">2.41397166252136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45711183547974</t>
+    <t xml:space="preserve">2.45711159706116</t>
   </si>
   <si>
     <t xml:space="preserve">2.4833710193634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48149514198303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4664900302887</t>
+    <t xml:space="preserve">2.48149538040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46649026870728</t>
   </si>
   <si>
     <t xml:space="preserve">2.45523619651794</t>
@@ -4265,19 +4265,19 @@
     <t xml:space="preserve">2.39709067344666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35957765579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25454068183899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30330777168274</t>
+    <t xml:space="preserve">2.35957741737366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25454092025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30330801010132</t>
   </si>
   <si>
     <t xml:space="preserve">2.2526650428772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21140050888062</t>
+    <t xml:space="preserve">2.21140074729919</t>
   </si>
   <si>
     <t xml:space="preserve">2.27517318725586</t>
@@ -4289,7 +4289,7 @@
     <t xml:space="preserve">2.23953557014465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20764946937561</t>
+    <t xml:space="preserve">2.20764923095703</t>
   </si>
   <si>
     <t xml:space="preserve">2.21515202522278</t>
@@ -4298,25 +4298,25 @@
     <t xml:space="preserve">2.21702766418457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26579451560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26016759872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34082078933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31831312179565</t>
+    <t xml:space="preserve">2.26579475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26016783714294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34082102775574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31831288337708</t>
   </si>
   <si>
     <t xml:space="preserve">2.31456184387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32394003868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37458276748657</t>
+    <t xml:space="preserve">2.32394027709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37458300590515</t>
   </si>
   <si>
     <t xml:space="preserve">2.35582637786865</t>
@@ -4325,7 +4325,7 @@
     <t xml:space="preserve">2.41584730148315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55839729309082</t>
+    <t xml:space="preserve">2.55839705467224</t>
   </si>
   <si>
     <t xml:space="preserve">2.52651119232178</t>
@@ -4337,16 +4337,16 @@
     <t xml:space="preserve">2.54714322090149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55089449882507</t>
+    <t xml:space="preserve">2.55089497566223</t>
   </si>
   <si>
     <t xml:space="preserve">2.53776526451111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53588962554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51150584220886</t>
+    <t xml:space="preserve">2.53588938713074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51150608062744</t>
   </si>
   <si>
     <t xml:space="preserve">2.59403491020203</t>
@@ -4355,13 +4355,13 @@
     <t xml:space="preserve">2.54339194297791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58278059959412</t>
+    <t xml:space="preserve">2.5827808380127</t>
   </si>
   <si>
     <t xml:space="preserve">2.54901885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47774386405945</t>
+    <t xml:space="preserve">2.47774410247803</t>
   </si>
   <si>
     <t xml:space="preserve">2.4421067237854</t>
@@ -4376,13 +4376,13 @@
     <t xml:space="preserve">2.35770177841187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36520457267761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34269690513611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29768085479736</t>
+    <t xml:space="preserve">2.36520481109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34269666671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29768109321594</t>
   </si>
   <si>
     <t xml:space="preserve">2.37645840644836</t>
@@ -4394,7 +4394,7 @@
     <t xml:space="preserve">2.40459322929382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3727068901062</t>
+    <t xml:space="preserve">2.37270712852478</t>
   </si>
   <si>
     <t xml:space="preserve">2.49650049209595</t>
@@ -4403,7 +4403,7 @@
     <t xml:space="preserve">2.50963020324707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49837636947632</t>
+    <t xml:space="preserve">2.49837613105774</t>
   </si>
   <si>
     <t xml:space="preserve">2.51713275909424</t>
@@ -4430,19 +4430,19 @@
     <t xml:space="preserve">2.38559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44134140014648</t>
+    <t xml:space="preserve">2.44134116172791</t>
   </si>
   <si>
     <t xml:space="preserve">2.47786545753479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43941926956177</t>
+    <t xml:space="preserve">2.43941903114319</t>
   </si>
   <si>
     <t xml:space="preserve">2.37021589279175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40097284317017</t>
+    <t xml:space="preserve">2.40097260475159</t>
   </si>
   <si>
     <t xml:space="preserve">2.4163510799408</t>
@@ -4454,10 +4454,10 @@
     <t xml:space="preserve">2.4451858997345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44326376914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40289521217346</t>
+    <t xml:space="preserve">2.4432635307312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40289497375488</t>
   </si>
   <si>
     <t xml:space="preserve">2.37213802337646</t>
@@ -4466,7 +4466,7 @@
     <t xml:space="preserve">2.35868167877197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35291481018066</t>
+    <t xml:space="preserve">2.35291457176208</t>
   </si>
   <si>
     <t xml:space="preserve">2.36829352378845</t>
@@ -4478,13 +4478,13 @@
     <t xml:space="preserve">2.36637091636658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40481758117676</t>
+    <t xml:space="preserve">2.40481734275818</t>
   </si>
   <si>
     <t xml:space="preserve">2.38751649856567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36252617835999</t>
+    <t xml:space="preserve">2.36252641677856</t>
   </si>
   <si>
     <t xml:space="preserve">2.29524540901184</t>
@@ -4511,7 +4511,7 @@
     <t xml:space="preserve">2.17606163024902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1568386554718</t>
+    <t xml:space="preserve">2.15683841705322</t>
   </si>
   <si>
     <t xml:space="preserve">2.12415933609009</t>
@@ -4535,13 +4535,13 @@
     <t xml:space="preserve">2.106858253479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1587610244751</t>
+    <t xml:space="preserve">2.15876078605652</t>
   </si>
   <si>
     <t xml:space="preserve">2.22796440124512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22219753265381</t>
+    <t xml:space="preserve">2.22219729423523</t>
   </si>
   <si>
     <t xml:space="preserve">2.20681881904602</t>
@@ -4550,7 +4550,7 @@
     <t xml:space="preserve">2.18951821327209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13569283485413</t>
+    <t xml:space="preserve">2.13569307327271</t>
   </si>
   <si>
     <t xml:space="preserve">2.08763527870178</t>
@@ -4562,13 +4562,13 @@
     <t xml:space="preserve">2.06264495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07610154151917</t>
+    <t xml:space="preserve">2.07610130310059</t>
   </si>
   <si>
     <t xml:space="preserve">2.06456732749939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05687832832336</t>
+    <t xml:space="preserve">2.05687808990479</t>
   </si>
   <si>
     <t xml:space="preserve">2.03765487670898</t>
@@ -4577,13 +4577,13 @@
     <t xml:space="preserve">2.01843166351318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98767471313477</t>
+    <t xml:space="preserve">1.98767483234406</t>
   </si>
   <si>
     <t xml:space="preserve">1.92423844337463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83004486560822</t>
+    <t xml:space="preserve">1.8300449848175</t>
   </si>
   <si>
     <t xml:space="preserve">1.83773410320282</t>
@@ -4592,7 +4592,7 @@
     <t xml:space="preserve">1.84157872200012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86080193519592</t>
+    <t xml:space="preserve">1.86080181598663</t>
   </si>
   <si>
     <t xml:space="preserve">1.89155900478363</t>
@@ -4607,22 +4607,22 @@
     <t xml:space="preserve">1.76564729213715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76276385784149</t>
+    <t xml:space="preserve">1.7627637386322</t>
   </si>
   <si>
     <t xml:space="preserve">1.77429759502411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72527861595154</t>
+    <t xml:space="preserve">1.72527849674225</t>
   </si>
   <si>
     <t xml:space="preserve">1.75411343574524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71951162815094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66760909557343</t>
+    <t xml:space="preserve">1.71951174736023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66760921478271</t>
   </si>
   <si>
     <t xml:space="preserve">1.68202650547028</t>
@@ -4631,16 +4631,16 @@
     <t xml:space="preserve">1.68587100505829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68779361248016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70028853416443</t>
+    <t xml:space="preserve">1.68779349327087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70028865337372</t>
   </si>
   <si>
     <t xml:space="preserve">1.69932734966278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58014392852783</t>
+    <t xml:space="preserve">1.58014380931854</t>
   </si>
   <si>
     <t xml:space="preserve">1.59936702251434</t>
@@ -4676,25 +4676,25 @@
     <t xml:space="preserve">1.66088104248047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67145383358002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68010425567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64838600158691</t>
+    <t xml:space="preserve">1.67145371437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68010413646698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6483861207962</t>
   </si>
   <si>
     <t xml:space="preserve">1.66376447677612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67241501808167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73104560375214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69356036186218</t>
+    <t xml:space="preserve">1.67241489887238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73104548454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69356048107147</t>
   </si>
   <si>
     <t xml:space="preserve">1.70990014076233</t>
@@ -4712,7 +4712,7 @@
     <t xml:space="preserve">1.72143399715424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73008441925049</t>
+    <t xml:space="preserve">1.7300843000412</t>
   </si>
   <si>
     <t xml:space="preserve">1.74450182914734</t>
@@ -4721,19 +4721,19 @@
     <t xml:space="preserve">1.78294813632965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90117049217224</t>
+    <t xml:space="preserve">1.90117061138153</t>
   </si>
   <si>
     <t xml:space="preserve">1.90693747997284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96460688114166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99151945114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03957748413086</t>
+    <t xml:space="preserve">1.96460676193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99151933193207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03957724571228</t>
   </si>
   <si>
     <t xml:space="preserve">2.02419877052307</t>
@@ -4745,10 +4745,10 @@
     <t xml:space="preserve">1.99728643894196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97037386894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97229623794556</t>
+    <t xml:space="preserve">1.97037398815155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97229635715485</t>
   </si>
   <si>
     <t xml:space="preserve">1.94922852516174</t>
@@ -4760,10 +4760,10 @@
     <t xml:space="preserve">2.16452789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16068315505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17798399925232</t>
+    <t xml:space="preserve">2.16068291664124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1779842376709</t>
   </si>
   <si>
     <t xml:space="preserve">2.15299391746521</t>
@@ -4772,40 +4772,40 @@
     <t xml:space="preserve">2.1875958442688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18182849884033</t>
+    <t xml:space="preserve">2.18182873725891</t>
   </si>
   <si>
     <t xml:space="preserve">2.16837239265442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1010913848877</t>
+    <t xml:space="preserve">2.10109162330627</t>
   </si>
   <si>
     <t xml:space="preserve">2.06648969650269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04342198371887</t>
+    <t xml:space="preserve">2.04342174530029</t>
   </si>
   <si>
     <t xml:space="preserve">2.07417893409729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07994604110718</t>
+    <t xml:space="preserve">2.0799458026886</t>
   </si>
   <si>
     <t xml:space="preserve">2.04534435272217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96076238155365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97806334495544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95307314395905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98959708213806</t>
+    <t xml:space="preserve">1.96076226234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97806322574615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95307302474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98959696292877</t>
   </si>
   <si>
     <t xml:space="preserve">2.01650953292847</t>
@@ -5061,6 +5061,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.55599999427795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56800007820129</t>
   </si>
 </sst>
 </file>
@@ -61640,7 +61643,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6495833333</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>829139</v>
@@ -61661,6 +61664,32 @@
         <v>1682</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6493402778</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>712415</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>2.59200000762939</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>2.54999995231628</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>2.56200003623962</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>2.56800007820129</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1685">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19818210601807</t>
+    <t xml:space="preserve">5.19818115234375</t>
   </si>
   <si>
     <t xml:space="preserve">OVS.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">5.05481195449829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91553831100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.792649269104</t>
+    <t xml:space="preserve">4.91553783416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79264974594116</t>
   </si>
   <si>
     <t xml:space="preserve">4.87047863006592</t>
@@ -62,34 +62,34 @@
     <t xml:space="preserve">4.94011640548706</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09987020492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84180545806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75168657302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78445768356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76397562026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3871169090271</t>
+    <t xml:space="preserve">5.0998706817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84180498123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75168609619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78445720672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76397609710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38711738586426</t>
   </si>
   <si>
     <t xml:space="preserve">4.36253976821899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67795372009277</t>
+    <t xml:space="preserve">4.67795324325562</t>
   </si>
   <si>
     <t xml:space="preserve">4.60012435913086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62060594558716</t>
+    <t xml:space="preserve">4.62060642242432</t>
   </si>
   <si>
     <t xml:space="preserve">4.6410870552063</t>
@@ -101,88 +101,88 @@
     <t xml:space="preserve">4.58783626556396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77626514434814</t>
+    <t xml:space="preserve">4.77626419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.73939847946167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6615686416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69024276733398</t>
+    <t xml:space="preserve">4.66156959533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69024324417114</t>
   </si>
   <si>
     <t xml:space="preserve">4.46494722366333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16182231903076</t>
+    <t xml:space="preserve">4.1618218421936</t>
   </si>
   <si>
     <t xml:space="preserve">4.15772581100464</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4157919883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35844326019287</t>
+    <t xml:space="preserve">4.41579151153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35844373703003</t>
   </si>
   <si>
     <t xml:space="preserve">4.5222954750061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44036960601807</t>
+    <t xml:space="preserve">4.44037008285522</t>
   </si>
   <si>
     <t xml:space="preserve">4.61241340637207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60831642150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62879800796509</t>
+    <t xml:space="preserve">4.60831594467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62879848480225</t>
   </si>
   <si>
     <t xml:space="preserve">4.63289403915405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4075984954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37482833862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57964324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71072483062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82132291793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86638212203979</t>
+    <t xml:space="preserve">4.40759897232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37482929229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5796422958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71072435379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82132387161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86638259887695</t>
   </si>
   <si>
     <t xml:space="preserve">4.73530197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64928007125854</t>
+    <t xml:space="preserve">4.64927959442139</t>
   </si>
   <si>
     <t xml:space="preserve">4.66976165771484</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52639102935791</t>
+    <t xml:space="preserve">4.52639198303223</t>
   </si>
   <si>
     <t xml:space="preserve">4.57145071029663</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5427770614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42808103561401</t>
+    <t xml:space="preserve">4.54277658462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42808055877686</t>
   </si>
   <si>
     <t xml:space="preserve">4.25194072723389</t>
@@ -194,37 +194,37 @@
     <t xml:space="preserve">4.19459247589111</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21917009353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2888069152832</t>
+    <t xml:space="preserve">4.21917057037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28880643844604</t>
   </si>
   <si>
     <t xml:space="preserve">4.34615516662598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1782078742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14953374862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44856119155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29699993133545</t>
+    <t xml:space="preserve">4.17820739746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14953327178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.448561668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29699945449829</t>
   </si>
   <si>
     <t xml:space="preserve">4.37073278427124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65337562561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88686418533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69433879852295</t>
+    <t xml:space="preserve">4.65337610244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88686466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69433975219727</t>
   </si>
   <si>
     <t xml:space="preserve">4.64518356323242</t>
@@ -233,28 +233,28 @@
     <t xml:space="preserve">4.706627368927</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62470245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66566514968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69843482971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68614721298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71481990814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68204975128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79674625396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8540940284729</t>
+    <t xml:space="preserve">4.62470197677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66566562652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69843530654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68614673614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71482038497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68204927444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79674577713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85409355163574</t>
   </si>
   <si>
     <t xml:space="preserve">4.99746370315552</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">5.04661893844604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96878910064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03433036804199</t>
+    <t xml:space="preserve">4.96879005432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03433084487915</t>
   </si>
   <si>
     <t xml:space="preserve">5.06710052490234</t>
@@ -281,37 +281,37 @@
     <t xml:space="preserve">4.91877222061157</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0575065612793</t>
+    <t xml:space="preserve">5.05750608444214</t>
   </si>
   <si>
     <t xml:space="preserve">4.88513946533203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71277284622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66232347488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61607837677002</t>
+    <t xml:space="preserve">4.71277236938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66232395172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61607789993286</t>
   </si>
   <si>
     <t xml:space="preserve">4.62028169631958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63289499282837</t>
+    <t xml:space="preserve">4.63289546966553</t>
   </si>
   <si>
     <t xml:space="preserve">4.78003692626953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75901746749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69595527648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65811920166016</t>
+    <t xml:space="preserve">4.75901699066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69595575332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65811967849731</t>
   </si>
   <si>
     <t xml:space="preserve">4.46893548965454</t>
@@ -323,13 +323,13 @@
     <t xml:space="preserve">4.26713991165161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38065052032471</t>
+    <t xml:space="preserve">4.38065004348755</t>
   </si>
   <si>
     <t xml:space="preserve">4.40166997909546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43950748443604</t>
+    <t xml:space="preserve">4.43950700759888</t>
   </si>
   <si>
     <t xml:space="preserve">4.39326238632202</t>
@@ -341,25 +341,25 @@
     <t xml:space="preserve">4.2208948135376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18221712112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3217921257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29656791687012</t>
+    <t xml:space="preserve">4.18221664428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32179260253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29656744003296</t>
   </si>
   <si>
     <t xml:space="preserve">4.28815984725952</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2923641204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23771190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17212867736816</t>
+    <t xml:space="preserve">4.29236364364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23771142959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17212820053101</t>
   </si>
   <si>
     <t xml:space="preserve">4.2503228187561</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">4.33440542221069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34281301498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36803770065308</t>
+    <t xml:space="preserve">4.34281349182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36803722381592</t>
   </si>
   <si>
     <t xml:space="preserve">4.51097679138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5067720413208</t>
+    <t xml:space="preserve">4.50677251815796</t>
   </si>
   <si>
     <t xml:space="preserve">4.42269039154053</t>
@@ -392,10 +392,10 @@
     <t xml:space="preserve">4.41428279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37644577026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38905811309814</t>
+    <t xml:space="preserve">4.37644529342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3890585899353</t>
   </si>
   <si>
     <t xml:space="preserve">4.43530321121216</t>
@@ -404,19 +404,19 @@
     <t xml:space="preserve">4.3638334274292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20239734649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30497694015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32599592208862</t>
+    <t xml:space="preserve">4.20239686965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30497646331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32599639892578</t>
   </si>
   <si>
     <t xml:space="preserve">4.23350763320923</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17044544219971</t>
+    <t xml:space="preserve">4.17044496536255</t>
   </si>
   <si>
     <t xml:space="preserve">4.27134370803833</t>
@@ -425,22 +425,22 @@
     <t xml:space="preserve">4.22930335998535</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12840509414673</t>
+    <t xml:space="preserve">4.12840557098389</t>
   </si>
   <si>
     <t xml:space="preserve">4.11999702453613</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16203832626343</t>
+    <t xml:space="preserve">4.16203784942627</t>
   </si>
   <si>
     <t xml:space="preserve">4.33020114898682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2839560508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21669054031372</t>
+    <t xml:space="preserve">4.28395557403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21669101715088</t>
   </si>
   <si>
     <t xml:space="preserve">4.19062614440918</t>
@@ -452,19 +452,19 @@
     <t xml:space="preserve">4.51518058776855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58244562149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55301713943481</t>
+    <t xml:space="preserve">4.58244609832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55301666259766</t>
   </si>
   <si>
     <t xml:space="preserve">4.45632362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44791460037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45211887359619</t>
+    <t xml:space="preserve">4.44791412353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45211839675903</t>
   </si>
   <si>
     <t xml:space="preserve">4.40587472915649</t>
@@ -473,37 +473,37 @@
     <t xml:space="preserve">4.35122108459473</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31338453292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27554798126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24611902236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20407915115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19903373718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21248626708984</t>
+    <t xml:space="preserve">4.31338500976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27554750442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24611854553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20407962799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19903421401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.212486743927</t>
   </si>
   <si>
     <t xml:space="preserve">4.19398927688599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13344955444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08636474609375</t>
+    <t xml:space="preserve">4.13345003128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08636379241943</t>
   </si>
   <si>
     <t xml:space="preserve">4.18389892578125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26293563842773</t>
+    <t xml:space="preserve">4.26293611526489</t>
   </si>
   <si>
     <t xml:space="preserve">4.17549085617065</t>
@@ -512,28 +512,28 @@
     <t xml:space="preserve">4.10822486877441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13176822662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11327075958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15362977981567</t>
+    <t xml:space="preserve">4.13176870346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11327028274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15363025665283</t>
   </si>
   <si>
     <t xml:space="preserve">4.1014986038208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15194797515869</t>
+    <t xml:space="preserve">4.15194749832153</t>
   </si>
   <si>
     <t xml:space="preserve">4.18894386291504</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17717170715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18053531646729</t>
+    <t xml:space="preserve">4.17717218399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18053579330444</t>
   </si>
   <si>
     <t xml:space="preserve">4.10654354095459</t>
@@ -542,22 +542,22 @@
     <t xml:space="preserve">4.1586742401123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14858531951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12672281265259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20828247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27975273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37224102020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33860874176025</t>
+    <t xml:space="preserve">4.14858484268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12672328948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20828294754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27975225448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37224149703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33860921859741</t>
   </si>
   <si>
     <t xml:space="preserve">4.35962963104248</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">4.15026617050171</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05609464645386</t>
+    <t xml:space="preserve">4.05609512329102</t>
   </si>
   <si>
     <t xml:space="preserve">4.03759670257568</t>
@@ -578,16 +578,16 @@
     <t xml:space="preserve">4.01909828186035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99891948699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06618499755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05945825576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02078056335449</t>
+    <t xml:space="preserve">3.99891972541809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06618547439575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05945873260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02078104019165</t>
   </si>
   <si>
     <t xml:space="preserve">4.0813193321228</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">4.13008737564087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51938390731812</t>
+    <t xml:space="preserve">4.51938438415527</t>
   </si>
   <si>
     <t xml:space="preserve">4.52358865737915</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53199672698975</t>
+    <t xml:space="preserve">4.5319972038269</t>
   </si>
   <si>
     <t xml:space="preserve">4.49416017532349</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">4.4268946647644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41848611831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46473217010498</t>
+    <t xml:space="preserve">4.41848659515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46473121643066</t>
   </si>
   <si>
     <t xml:space="preserve">4.43109941482544</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47734355926514</t>
+    <t xml:space="preserve">4.47734403610229</t>
   </si>
   <si>
     <t xml:space="preserve">4.47313928604126</t>
@@ -632,13 +632,13 @@
     <t xml:space="preserve">4.60767030715942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62448692321777</t>
+    <t xml:space="preserve">4.62448644638062</t>
   </si>
   <si>
     <t xml:space="preserve">4.54881286621094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6833438873291</t>
+    <t xml:space="preserve">4.68334436416626</t>
   </si>
   <si>
     <t xml:space="preserve">4.70015954971313</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">4.57403755187988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74220085144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83469152450562</t>
+    <t xml:space="preserve">4.74220132827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83469104766846</t>
   </si>
   <si>
     <t xml:space="preserve">4.82207822799683</t>
@@ -665,64 +665,64 @@
     <t xml:space="preserve">4.75060892105103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85150623321533</t>
+    <t xml:space="preserve">4.85150671005249</t>
   </si>
   <si>
     <t xml:space="preserve">5.0112624168396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9776291847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92717933654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9524040222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89354753494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93558883666992</t>
+    <t xml:space="preserve">4.97762870788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92717981338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95240449905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89354705810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93558931350708</t>
   </si>
   <si>
     <t xml:space="preserve">4.87673091888428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93138408660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96081304550171</t>
+    <t xml:space="preserve">4.93138456344604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96081352233887</t>
   </si>
   <si>
     <t xml:space="preserve">5.0196704864502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20885372161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17522144317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05330276489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07432222366333</t>
+    <t xml:space="preserve">5.20885276794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17522096633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05330181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07432317733765</t>
   </si>
   <si>
     <t xml:space="preserve">5.04489421844482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20464944839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06171131134033</t>
+    <t xml:space="preserve">5.20464897155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06171083450317</t>
   </si>
   <si>
     <t xml:space="preserve">5.10795545578003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21305847167969</t>
+    <t xml:space="preserve">5.21305799484253</t>
   </si>
   <si>
     <t xml:space="preserve">5.13738489151001</t>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">5.21726226806641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22566986083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29713916778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28032255172729</t>
+    <t xml:space="preserve">5.225670337677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2971396446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28032302856445</t>
   </si>
   <si>
     <t xml:space="preserve">5.41905784606934</t>
@@ -770,31 +770,31 @@
     <t xml:space="preserve">5.42326164245605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44007730484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33917903900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33077192306519</t>
+    <t xml:space="preserve">5.44007778167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33917951583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33077144622803</t>
   </si>
   <si>
     <t xml:space="preserve">5.3517918586731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26771116256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23407697677612</t>
+    <t xml:space="preserve">5.26771068572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23407745361328</t>
   </si>
   <si>
     <t xml:space="preserve">5.10375165939331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2298731803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14579200744629</t>
+    <t xml:space="preserve">5.22987365722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14579248428345</t>
   </si>
   <si>
     <t xml:space="preserve">5.19750928878784</t>
@@ -806,13 +806,13 @@
     <t xml:space="preserve">5.56383371353149</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48194980621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44747114181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5164270401001</t>
+    <t xml:space="preserve">5.48195028305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44747066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51642751693726</t>
   </si>
   <si>
     <t xml:space="preserve">5.52504634857178</t>
@@ -824,25 +824,25 @@
     <t xml:space="preserve">5.50780820846558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43885231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4431619644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35265874862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29663228988647</t>
+    <t xml:space="preserve">5.43885278701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44316148757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35265827178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29663181304932</t>
   </si>
   <si>
     <t xml:space="preserve">5.36989736557007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39575624465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42161273956299</t>
+    <t xml:space="preserve">5.39575576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42161321640015</t>
   </si>
   <si>
     <t xml:space="preserve">5.43023347854614</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">5.37851667404175</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34403896331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41730356216431</t>
+    <t xml:space="preserve">5.34403944015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41730403900146</t>
   </si>
   <si>
     <t xml:space="preserve">5.41299390792847</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">5.39144563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46901988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50349855422974</t>
+    <t xml:space="preserve">5.46901941299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50349903106689</t>
   </si>
   <si>
     <t xml:space="preserve">5.57676267623901</t>
@@ -890,16 +890,16 @@
     <t xml:space="preserve">5.55090427398682</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40006542205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47764015197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4259238243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37420749664307</t>
+    <t xml:space="preserve">5.40006589889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47763967514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42592334747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37420701980591</t>
   </si>
   <si>
     <t xml:space="preserve">5.30094194412231</t>
@@ -911,19 +911,19 @@
     <t xml:space="preserve">5.31818103790283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40437412261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49487829208374</t>
+    <t xml:space="preserve">5.40437459945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4948787689209</t>
   </si>
   <si>
     <t xml:space="preserve">5.47332954406738</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46471071243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49918842315674</t>
+    <t xml:space="preserve">5.4647102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49918794631958</t>
   </si>
   <si>
     <t xml:space="preserve">5.66295766830444</t>
@@ -932,25 +932,25 @@
     <t xml:space="preserve">5.71467399597168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77500915527344</t>
+    <t xml:space="preserve">5.7750096321106</t>
   </si>
   <si>
     <t xml:space="preserve">5.80517721176147</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86982345581055</t>
+    <t xml:space="preserve">5.86982393264771</t>
   </si>
   <si>
     <t xml:space="preserve">5.79224872589111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75346088409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61555051803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80086851119995</t>
+    <t xml:space="preserve">5.7534613609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61555004119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80086803436279</t>
   </si>
   <si>
     <t xml:space="preserve">5.86120367050171</t>
@@ -959,31 +959,31 @@
     <t xml:space="preserve">5.82241630554199</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54228544235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56814336776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55952501296997</t>
+    <t xml:space="preserve">5.54228496551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56814384460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55952453613281</t>
   </si>
   <si>
     <t xml:space="preserve">5.40868473052979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46040058135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36127758026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24491596221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04235935211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06390810012817</t>
+    <t xml:space="preserve">5.46040105819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36127710342407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24491548538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04235982894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06390857696533</t>
   </si>
   <si>
     <t xml:space="preserve">4.9734034538269</t>
@@ -998,10 +998,10 @@
     <t xml:space="preserve">4.99064302444458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10269451141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05959892272949</t>
+    <t xml:space="preserve">5.10269498825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05959844589233</t>
   </si>
   <si>
     <t xml:space="preserve">5.02081060409546</t>
@@ -1013,73 +1013,73 @@
     <t xml:space="preserve">5.00788164138794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96478462219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11562490463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08545637130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93030738830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01650094985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98633289337158</t>
+    <t xml:space="preserve">4.96478414535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11562442779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08545684814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93030691146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01650047302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98633337020874</t>
   </si>
   <si>
     <t xml:space="preserve">4.87427997589111</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80963468551636</t>
+    <t xml:space="preserve">4.80963516235352</t>
   </si>
   <si>
     <t xml:space="preserve">4.84842157363892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81825399398804</t>
+    <t xml:space="preserve">4.8182544708252</t>
   </si>
   <si>
     <t xml:space="preserve">4.78377676010132</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85273265838623</t>
+    <t xml:space="preserve">4.85273218154907</t>
   </si>
   <si>
     <t xml:space="preserve">4.82256364822388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78808641433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86997079849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94323635101318</t>
+    <t xml:space="preserve">4.78808689117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86997032165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94323539733887</t>
   </si>
   <si>
     <t xml:space="preserve">4.90013837814331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88289976119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86135149002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82687425613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07252788543701</t>
+    <t xml:space="preserve">4.88290023803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86135196685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82687377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07252740859985</t>
   </si>
   <si>
     <t xml:space="preserve">5.08114624023438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05097818374634</t>
+    <t xml:space="preserve">5.0509786605835</t>
   </si>
   <si>
     <t xml:space="preserve">4.99495220184326</t>
@@ -1100,22 +1100,22 @@
     <t xml:space="preserve">5.26215410232544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11131525039673</t>
+    <t xml:space="preserve">5.11131477355957</t>
   </si>
   <si>
     <t xml:space="preserve">4.93892621994019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83549308776855</t>
+    <t xml:space="preserve">4.8354926109314</t>
   </si>
   <si>
     <t xml:space="preserve">4.75360918045044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74067974090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76222801208496</t>
+    <t xml:space="preserve">4.7406792640686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7622275352478</t>
   </si>
   <si>
     <t xml:space="preserve">4.77946758270264</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">4.55105257034302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58552980422974</t>
+    <t xml:space="preserve">4.58552932739258</t>
   </si>
   <si>
     <t xml:space="preserve">4.63724613189697</t>
@@ -1154,16 +1154,16 @@
     <t xml:space="preserve">4.66310453414917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71482038497925</t>
+    <t xml:space="preserve">4.71482086181641</t>
   </si>
   <si>
     <t xml:space="preserve">4.73636960983276</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80532550811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79670524597168</t>
+    <t xml:space="preserve">4.80532503128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79670572280884</t>
   </si>
   <si>
     <t xml:space="preserve">4.7449893951416</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">4.70620203018188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62862777709961</t>
+    <t xml:space="preserve">4.62862730026245</t>
   </si>
   <si>
     <t xml:space="preserve">4.5812201499939</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49933576583862</t>
+    <t xml:space="preserve">4.49933624267578</t>
   </si>
   <si>
     <t xml:space="preserve">4.52519416809082</t>
@@ -1196,19 +1196,19 @@
     <t xml:space="preserve">4.28902196884155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32694721221924</t>
+    <t xml:space="preserve">4.3269476890564</t>
   </si>
   <si>
     <t xml:space="preserve">4.22868585586548</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28557443618774</t>
+    <t xml:space="preserve">4.28557395935059</t>
   </si>
   <si>
     <t xml:space="preserve">4.23385810852051</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2579927444458</t>
+    <t xml:space="preserve">4.25799226760864</t>
   </si>
   <si>
     <t xml:space="preserve">4.30281352996826</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">4.27523040771484</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3010892868042</t>
+    <t xml:space="preserve">4.30108880996704</t>
   </si>
   <si>
     <t xml:space="preserve">2.92025852203369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99955725669861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93404960632324</t>
+    <t xml:space="preserve">2.99955701828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93404936790466</t>
   </si>
   <si>
     <t xml:space="preserve">2.96335601806641</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">2.98576593399048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89095234870911</t>
+    <t xml:space="preserve">2.89095211029053</t>
   </si>
   <si>
     <t xml:space="preserve">3.01679611206055</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">3.1133337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17884135246277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2719304561615</t>
+    <t xml:space="preserve">3.17884111404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27193021774292</t>
   </si>
   <si>
     <t xml:space="preserve">3.24952030181885</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">3.27537870407104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20297574996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10816192626953</t>
+    <t xml:space="preserve">3.2029755115509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10816168785095</t>
   </si>
   <si>
     <t xml:space="preserve">3.12540102005005</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">3.05127358436584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99093794822693</t>
+    <t xml:space="preserve">2.99093770980835</t>
   </si>
   <si>
     <t xml:space="preserve">2.9306013584137</t>
@@ -1298,25 +1298,25 @@
     <t xml:space="preserve">2.94094491004944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83406448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6392650604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62892246246338</t>
+    <t xml:space="preserve">2.83406472206116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63926529884338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6289222240448</t>
   </si>
   <si>
     <t xml:space="preserve">2.59099674224854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67201948165894</t>
+    <t xml:space="preserve">2.67201972007751</t>
   </si>
   <si>
     <t xml:space="preserve">2.58065319061279</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59616851806641</t>
+    <t xml:space="preserve">2.59616827964783</t>
   </si>
   <si>
     <t xml:space="preserve">2.58582472801208</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">2.55824279785156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49618268013</t>
+    <t xml:space="preserve">2.49618291854858</t>
   </si>
   <si>
     <t xml:space="preserve">2.47204875946045</t>
@@ -1340,13 +1340,13 @@
     <t xml:space="preserve">2.45308613777161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34792876243591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38757872581482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33413767814636</t>
+    <t xml:space="preserve">2.34792852401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3875789642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33413743972778</t>
   </si>
   <si>
     <t xml:space="preserve">2.34448146820068</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">2.49101185798645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45653343200684</t>
+    <t xml:space="preserve">2.45653367042542</t>
   </si>
   <si>
     <t xml:space="preserve">2.37378692626953</t>
@@ -1364,34 +1364,34 @@
     <t xml:space="preserve">2.37551164627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37033987045288</t>
+    <t xml:space="preserve">2.3703396320343</t>
   </si>
   <si>
     <t xml:space="preserve">2.39792156219482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40998911857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42895174026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44101881980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42550325393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42722773551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43067526817322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32724237442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104137420654</t>
+    <t xml:space="preserve">2.40998888015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42895150184631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44101905822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42550349235535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42722797393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4306755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32724213600159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104113578796</t>
   </si>
   <si>
     <t xml:space="preserve">2.35310053825378</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">2.2962121963501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30138397216797</t>
+    <t xml:space="preserve">2.30138421058655</t>
   </si>
   <si>
     <t xml:space="preserve">2.47721982002258</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">2.52721261978149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50135469436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39275002479553</t>
+    <t xml:space="preserve">2.50135445594788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39274978637695</t>
   </si>
   <si>
     <t xml:space="preserve">2.38240694999695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41860795021057</t>
+    <t xml:space="preserve">2.41860818862915</t>
   </si>
   <si>
     <t xml:space="preserve">2.40654063224792</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">2.24622011184692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22208547592163</t>
+    <t xml:space="preserve">2.22208571434021</t>
   </si>
   <si>
     <t xml:space="preserve">2.28069758415222</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">2.28242135047913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1203761100769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07555532455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0376296043396</t>
+    <t xml:space="preserve">2.12037634849548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07555508613586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03762936592102</t>
   </si>
   <si>
     <t xml:space="preserve">2.06865978240967</t>
@@ -1469,61 +1469,61 @@
     <t xml:space="preserve">2.23587656021118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23760008811951</t>
+    <t xml:space="preserve">2.23760032653809</t>
   </si>
   <si>
     <t xml:space="preserve">2.22380924224854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22553253173828</t>
+    <t xml:space="preserve">2.22553277015686</t>
   </si>
   <si>
     <t xml:space="preserve">2.18243646621704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14278721809387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15657806396484</t>
+    <t xml:space="preserve">2.14278697967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15657830238342</t>
   </si>
   <si>
     <t xml:space="preserve">2.16519713401794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22898077964783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16347360610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15830159187317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08934617042542</t>
+    <t xml:space="preserve">2.22898101806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1634738445282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15830183029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08934593200684</t>
   </si>
   <si>
     <t xml:space="preserve">2.09107089042664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19277882575989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30827951431274</t>
+    <t xml:space="preserve">2.19277906417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30827927589417</t>
   </si>
   <si>
     <t xml:space="preserve">2.25656294822693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18588352203369</t>
+    <t xml:space="preserve">2.18588376045227</t>
   </si>
   <si>
     <t xml:space="preserve">2.1358916759491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1289963722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06521224975586</t>
+    <t xml:space="preserve">2.12899613380432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06521248817444</t>
   </si>
   <si>
     <t xml:space="preserve">2.0634880065918</t>
@@ -1532,10 +1532,10 @@
     <t xml:space="preserve">2.04624962806702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00832438468933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93592119216919</t>
+    <t xml:space="preserve">2.00832414627075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9359210729599</t>
   </si>
   <si>
     <t xml:space="preserve">1.81352531909943</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">1.74974155426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70664393901825</t>
+    <t xml:space="preserve">1.70664405822754</t>
   </si>
   <si>
     <t xml:space="preserve">1.68078589439392</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">1.28946471214294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429293632507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33083760738373</t>
+    <t xml:space="preserve">1.28429281711578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33083748817444</t>
   </si>
   <si>
     <t xml:space="preserve">1.31704664230347</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">1.32049477100372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38169276714325</t>
+    <t xml:space="preserve">1.38169288635254</t>
   </si>
   <si>
     <t xml:space="preserve">1.3946213722229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3360093832016</t>
+    <t xml:space="preserve">1.33600950241089</t>
   </si>
   <si>
     <t xml:space="preserve">1.33773303031921</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">1.30842757225037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29291200637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27308773994446</t>
+    <t xml:space="preserve">1.29291188716888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27308785915375</t>
   </si>
   <si>
     <t xml:space="preserve">1.29636013507843</t>
@@ -1637,16 +1637,16 @@
     <t xml:space="preserve">1.41186046600342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41358411312103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40755081176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38858819007874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35669589042664</t>
+    <t xml:space="preserve">1.41358423233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40755093097687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38858830928802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35669577121735</t>
   </si>
   <si>
     <t xml:space="preserve">1.38772583007812</t>
@@ -1661,28 +1661,28 @@
     <t xml:space="preserve">1.1024227142334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992956578731537</t>
+    <t xml:space="preserve">0.992956459522247</t>
   </si>
   <si>
     <t xml:space="preserve">1.02140069007874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653350949287415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725754857063293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727478563785553</t>
+    <t xml:space="preserve">0.653351008892059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725754797458649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727478504180908</t>
   </si>
   <si>
     <t xml:space="preserve">0.889523506164551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988646924495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978303253650665</t>
+    <t xml:space="preserve">0.988646984100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978303372859955</t>
   </si>
   <si>
     <t xml:space="preserve">0.87573254108429</t>
@@ -1691,31 +1691,31 @@
     <t xml:space="preserve">0.942963719367981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974856078624725</t>
+    <t xml:space="preserve">0.97485613822937</t>
   </si>
   <si>
     <t xml:space="preserve">0.948135435581207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946411967277527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03691518306732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18430805206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14982974529266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13431525230408</t>
+    <t xml:space="preserve">0.946411907672882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03691506385803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18430817127228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14982986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13431513309479</t>
   </si>
   <si>
     <t xml:space="preserve">1.16793119907379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13862478733063</t>
+    <t xml:space="preserve">1.13862466812134</t>
   </si>
   <si>
     <t xml:space="preserve">1.06880760192871</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">1.04553544521332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11707603931427</t>
+    <t xml:space="preserve">1.11707592010498</t>
   </si>
   <si>
     <t xml:space="preserve">1.13690114021301</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">1.16534531116486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16620659828186</t>
+    <t xml:space="preserve">1.16620671749115</t>
   </si>
   <si>
     <t xml:space="preserve">1.17310202121735</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">1.14896833896637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13776242733002</t>
+    <t xml:space="preserve">1.13776230812073</t>
   </si>
   <si>
     <t xml:space="preserve">1.09983682632446</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">1.10500860214233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09725177288055</t>
+    <t xml:space="preserve">1.09725189208984</t>
   </si>
   <si>
     <t xml:space="preserve">1.05156850814819</t>
@@ -1778,10 +1778,10 @@
     <t xml:space="preserve">1.06794536113739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09897541999817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16448295116425</t>
+    <t xml:space="preserve">1.09897530078888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16448307037354</t>
   </si>
   <si>
     <t xml:space="preserve">1.11966192722321</t>
@@ -1799,19 +1799,19 @@
     <t xml:space="preserve">1.14034831523895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11276626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13517642021179</t>
+    <t xml:space="preserve">1.11276638507843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13517653942108</t>
   </si>
   <si>
     <t xml:space="preserve">1.14810609817505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14552021026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26532995700836</t>
+    <t xml:space="preserve">1.14552009105682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26533007621765</t>
   </si>
   <si>
     <t xml:space="preserve">1.50839805603027</t>
@@ -1826,25 +1826,25 @@
     <t xml:space="preserve">1.40410280227661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37307262420654</t>
+    <t xml:space="preserve">1.37307250499725</t>
   </si>
   <si>
     <t xml:space="preserve">1.33945763111115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41703224182129</t>
+    <t xml:space="preserve">1.41703236103058</t>
   </si>
   <si>
     <t xml:space="preserve">1.43168473243713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37221121788025</t>
+    <t xml:space="preserve">1.37221133708954</t>
   </si>
   <si>
     <t xml:space="preserve">1.39375901222229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39806950092316</t>
+    <t xml:space="preserve">1.39806962013245</t>
   </si>
   <si>
     <t xml:space="preserve">1.37134897708893</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.44720017910004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46443843841553</t>
+    <t xml:space="preserve">1.46443831920624</t>
   </si>
   <si>
     <t xml:space="preserve">1.46702432632446</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">1.46788656711578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47391974925995</t>
+    <t xml:space="preserve">1.47391963005066</t>
   </si>
   <si>
     <t xml:space="preserve">1.4446142911911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41961741447449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43858015537262</t>
+    <t xml:space="preserve">1.4196172952652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43858027458191</t>
   </si>
   <si>
     <t xml:space="preserve">1.49977803230286</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.57735288143158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66268527507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64803206920624</t>
+    <t xml:space="preserve">1.66268539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64803218841553</t>
   </si>
   <si>
     <t xml:space="preserve">1.6445848941803</t>
@@ -1901,40 +1901,40 @@
     <t xml:space="preserve">1.62475979328156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6023496389389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60062515735626</t>
+    <t xml:space="preserve">1.60234975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60062503814697</t>
   </si>
   <si>
     <t xml:space="preserve">1.56270051002502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51787948608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46271479129791</t>
+    <t xml:space="preserve">1.51787936687469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46271467208862</t>
   </si>
   <si>
     <t xml:space="preserve">1.47995388507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43254685401917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42737519741058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37479639053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4109982252121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39289784431458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3446284532547</t>
+    <t xml:space="preserve">1.43254697322845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42737507820129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37479627132416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41099834442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39289772510529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34462857246399</t>
   </si>
   <si>
     <t xml:space="preserve">1.36445355415344</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">1.35841941833496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34031891822815</t>
+    <t xml:space="preserve">1.34031879901886</t>
   </si>
   <si>
     <t xml:space="preserve">1.35066258907318</t>
@@ -1958,10 +1958,10 @@
     <t xml:space="preserve">1.33342349529266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32825171947479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29032611846924</t>
+    <t xml:space="preserve">1.3282516002655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29032623767853</t>
   </si>
   <si>
     <t xml:space="preserve">1.36962532997131</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">1.36186754703522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39203536510468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38944935798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34893906116486</t>
+    <t xml:space="preserve">1.39203548431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38944947719574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34893894195557</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023933172226</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">1.26102042198181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22999036312103</t>
+    <t xml:space="preserve">1.22999048233032</t>
   </si>
   <si>
     <t xml:space="preserve">1.40151691436768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36531591415405</t>
+    <t xml:space="preserve">1.36531579494476</t>
   </si>
   <si>
     <t xml:space="preserve">1.32308065891266</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">1.27998328208923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31446075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30153203010559</t>
+    <t xml:space="preserve">1.31446063518524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3015319108963</t>
   </si>
   <si>
     <t xml:space="preserve">1.36876308917999</t>
@@ -2033,13 +2033,13 @@
     <t xml:space="preserve">1.55149447917938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59372973442078</t>
+    <t xml:space="preserve">1.59372985363007</t>
   </si>
   <si>
     <t xml:space="preserve">1.61355471611023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58769655227661</t>
+    <t xml:space="preserve">1.58769643306732</t>
   </si>
   <si>
     <t xml:space="preserve">1.59804022312164</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">1.53942716121674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46185266971588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43771886825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43513286113739</t>
+    <t xml:space="preserve">1.46185255050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43771874904633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4351327419281</t>
   </si>
   <si>
     <t xml:space="preserve">1.46530067920685</t>
@@ -2069,31 +2069,31 @@
     <t xml:space="preserve">1.37393498420715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37048673629761</t>
+    <t xml:space="preserve">1.3704868555069</t>
   </si>
   <si>
     <t xml:space="preserve">1.33859527111053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34118127822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3437671661377</t>
+    <t xml:space="preserve">1.34118115901947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34376704692841</t>
   </si>
   <si>
     <t xml:space="preserve">1.37565851211548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30584168434143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28170692920685</t>
+    <t xml:space="preserve">1.30584156513214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28170680999756</t>
   </si>
   <si>
     <t xml:space="preserve">1.43427062034607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41444635391235</t>
+    <t xml:space="preserve">1.41444647312164</t>
   </si>
   <si>
     <t xml:space="preserve">1.4290988445282</t>
@@ -2102,16 +2102,16 @@
     <t xml:space="preserve">1.43340921401978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42392778396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49891662597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5359799861908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5445990562439</t>
+    <t xml:space="preserve">1.42392766475677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49891650676727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53597986698151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54459893703461</t>
   </si>
   <si>
     <t xml:space="preserve">1.54890847206116</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">1.44375193119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59200608730316</t>
+    <t xml:space="preserve">1.59200596809387</t>
   </si>
   <si>
     <t xml:space="preserve">1.50753581523895</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">1.43599426746368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45495712757111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45323348045349</t>
+    <t xml:space="preserve">1.45495700836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4532333612442</t>
   </si>
   <si>
     <t xml:space="preserve">1.47478199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45237112045288</t>
+    <t xml:space="preserve">1.45237100124359</t>
   </si>
   <si>
     <t xml:space="preserve">1.37652087211609</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">1.36790084838867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37996804714203</t>
+    <t xml:space="preserve">1.37996816635132</t>
   </si>
   <si>
     <t xml:space="preserve">1.40496492385864</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">1.49115896224976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48081529140472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51270747184753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51874077320099</t>
+    <t xml:space="preserve">1.48081517219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51270759105682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51874089241028</t>
   </si>
   <si>
     <t xml:space="preserve">1.5118453502655</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">1.51701712608337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54028940200806</t>
+    <t xml:space="preserve">1.54028952121735</t>
   </si>
   <si>
     <t xml:space="preserve">1.57131969928741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58942019939423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58424818515778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64889430999756</t>
+    <t xml:space="preserve">1.58942008018494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58424830436707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64889442920685</t>
   </si>
   <si>
     <t xml:space="preserve">1.65751349925995</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">1.69802486896515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64372253417969</t>
+    <t xml:space="preserve">1.6437224149704</t>
   </si>
   <si>
     <t xml:space="preserve">1.68423390388489</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">1.61010658740997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59114384651184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60838282108307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61614072322845</t>
+    <t xml:space="preserve">1.59114372730255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60838294029236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61614060401917</t>
   </si>
   <si>
     <t xml:space="preserve">1.61700201034546</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">1.63768935203552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70233452320099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79628610610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76180875301361</t>
+    <t xml:space="preserve">1.70233464241028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79628622531891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76180863380432</t>
   </si>
   <si>
     <t xml:space="preserve">1.77387607097626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78421878814697</t>
+    <t xml:space="preserve">1.78421866893768</t>
   </si>
   <si>
     <t xml:space="preserve">1.76698064804077</t>
@@ -2255,10 +2255,10 @@
     <t xml:space="preserve">1.78766703605652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74629330635071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82214438915253</t>
+    <t xml:space="preserve">1.74629318714142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82214450836182</t>
   </si>
   <si>
     <t xml:space="preserve">1.80490517616272</t>
@@ -2282,10 +2282,10 @@
     <t xml:space="preserve">1.74112236499786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72905492782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7342267036438</t>
+    <t xml:space="preserve">1.72905504703522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73422682285309</t>
   </si>
   <si>
     <t xml:space="preserve">1.66871845722198</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">1.66699492931366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67647635936737</t>
+    <t xml:space="preserve">1.67647624015808</t>
   </si>
   <si>
     <t xml:space="preserve">1.6618230342865</t>
@@ -2321,10 +2321,10 @@
     <t xml:space="preserve">1.64286029338837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64630842208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63337886333466</t>
+    <t xml:space="preserve">1.64630854129791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63337898254395</t>
   </si>
   <si>
     <t xml:space="preserve">1.65492749214172</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">1.59459185600281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.596315741539</t>
+    <t xml:space="preserve">1.59631562232971</t>
   </si>
   <si>
     <t xml:space="preserve">1.62734568119049</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">1.48340106010437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54201316833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53684222698212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51443111896515</t>
+    <t xml:space="preserve">1.54201304912567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53684234619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51443123817444</t>
   </si>
   <si>
     <t xml:space="preserve">1.56097590923309</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">1.58080101013184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59717786312103</t>
+    <t xml:space="preserve">1.59717774391174</t>
   </si>
   <si>
     <t xml:space="preserve">1.56528544425964</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">1.55752861499786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52994573116302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30497920513153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27136409282684</t>
+    <t xml:space="preserve">1.52994585037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30497932434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27136421203613</t>
   </si>
   <si>
     <t xml:space="preserve">1.21792304515839</t>
@@ -2393,16 +2393,16 @@
     <t xml:space="preserve">1.17224073410034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06018757820129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962788760662079</t>
+    <t xml:space="preserve">1.06018769741058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962788820266724</t>
   </si>
   <si>
     <t xml:space="preserve">0.801605105400085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.742131769657135</t>
+    <t xml:space="preserve">0.74213171005249</t>
   </si>
   <si>
     <t xml:space="preserve">0.717997133731842</t>
@@ -2411,16 +2411,16 @@
     <t xml:space="preserve">0.564140498638153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633096098899841</t>
+    <t xml:space="preserve">0.633096158504486</t>
   </si>
   <si>
     <t xml:space="preserve">0.536126971244812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.618442893028259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.696448385715485</t>
+    <t xml:space="preserve">0.618442952632904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.696448445320129</t>
   </si>
   <si>
     <t xml:space="preserve">0.748164892196655</t>
@@ -2429,16 +2429,16 @@
     <t xml:space="preserve">0.724030315876007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657661497592926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.704206168651581</t>
+    <t xml:space="preserve">0.657661437988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.704206109046936</t>
   </si>
   <si>
     <t xml:space="preserve">0.702050924301147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.709808707237244</t>
+    <t xml:space="preserve">0.709808647632599</t>
   </si>
   <si>
     <t xml:space="preserve">0.680933773517609</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">0.663694679737091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.647317826747894</t>
+    <t xml:space="preserve">0.64731776714325</t>
   </si>
   <si>
     <t xml:space="preserve">0.595170617103577</t>
@@ -2465,10 +2465,10 @@
     <t xml:space="preserve">0.681795179843903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.667142808437347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671452403068542</t>
+    <t xml:space="preserve">0.667142868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.671452462673187</t>
   </si>
   <si>
     <t xml:space="preserve">0.65852278470993</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">0.675761938095093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.662832319736481</t>
+    <t xml:space="preserve">0.662832379341125</t>
   </si>
   <si>
     <t xml:space="preserve">0.661971032619476</t>
@@ -2522,10 +2522,10 @@
     <t xml:space="preserve">0.689552903175354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671020746231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646455585956573</t>
+    <t xml:space="preserve">0.671020805835724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.646455526351929</t>
   </si>
   <si>
     <t xml:space="preserve">0.629217267036438</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">0.62533837556839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649903655052185</t>
+    <t xml:space="preserve">0.64990371465683</t>
   </si>
   <si>
     <t xml:space="preserve">0.615857064723969</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">0.593015372753143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.600342512130737</t>
+    <t xml:space="preserve">0.600342452526093</t>
   </si>
   <si>
     <t xml:space="preserve">0.592584729194641</t>
@@ -2552,34 +2552,34 @@
     <t xml:space="preserve">0.62102884054184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.650766015052795</t>
+    <t xml:space="preserve">0.650765955448151</t>
   </si>
   <si>
     <t xml:space="preserve">0.749457836151123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814534664154053</t>
+    <t xml:space="preserve">0.814534604549408</t>
   </si>
   <si>
     <t xml:space="preserve">0.787383437156677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79298597574234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854183852672577</t>
+    <t xml:space="preserve">0.792985916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854183912277222</t>
   </si>
   <si>
     <t xml:space="preserve">0.861941576004028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.930034995079041</t>
+    <t xml:space="preserve">0.930035054683685</t>
   </si>
   <si>
     <t xml:space="preserve">0.939516305923462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03777766227722</t>
+    <t xml:space="preserve">1.03777754306793</t>
   </si>
   <si>
     <t xml:space="preserve">1.04294943809509</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">0.955031037330627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967960596084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951583802700043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92055356502533</t>
+    <t xml:space="preserve">0.96796053647995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951583862304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920553624629974</t>
   </si>
   <si>
     <t xml:space="preserve">0.922277271747589</t>
@@ -2612,13 +2612,13 @@
     <t xml:space="preserve">0.924000918865204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849874258041382</t>
+    <t xml:space="preserve">0.849874317646027</t>
   </si>
   <si>
     <t xml:space="preserve">0.805915594100952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851167261600494</t>
+    <t xml:space="preserve">0.851167321205139</t>
   </si>
   <si>
     <t xml:space="preserve">0.831773817539215</t>
@@ -2627,25 +2627,25 @@
     <t xml:space="preserve">0.810655832290649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827894926071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823153734207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827463269233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824016034603119</t>
+    <t xml:space="preserve">0.827894985675812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823153793811798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827463328838348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824016094207764</t>
   </si>
   <si>
     <t xml:space="preserve">0.801174402236938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.807208597660065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.790830731391907</t>
+    <t xml:space="preserve">0.80720853805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.790830671787262</t>
   </si>
   <si>
     <t xml:space="preserve">0.847719073295593</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">0.825739741325378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798588454723358</t>
+    <t xml:space="preserve">0.798588514328003</t>
   </si>
   <si>
     <t xml:space="preserve">0.8149653673172</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.791692972183228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.800312101840973</t>
+    <t xml:space="preserve">0.800312161445618</t>
   </si>
   <si>
     <t xml:space="preserve">0.811948776245117</t>
@@ -2699,28 +2699,28 @@
     <t xml:space="preserve">0.817981898784637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783073842525482</t>
+    <t xml:space="preserve">0.783073902130127</t>
   </si>
   <si>
     <t xml:space="preserve">0.790400087833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826170325279236</t>
+    <t xml:space="preserve">0.826170384883881</t>
   </si>
   <si>
     <t xml:space="preserve">0.835651755332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.825309038162231</t>
+    <t xml:space="preserve">0.825308978557587</t>
   </si>
   <si>
     <t xml:space="preserve">0.805053293704987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79557192325592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764541745185852</t>
+    <t xml:space="preserve">0.795571863651276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.764541804790497</t>
   </si>
   <si>
     <t xml:space="preserve">0.740838766098022</t>
@@ -2729,16 +2729,16 @@
     <t xml:space="preserve">0.734804630279541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705929756164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.712825298309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.714980483055115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70765346288681</t>
+    <t xml:space="preserve">0.705929696559906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.712825238704681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71498042345047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.707653343677521</t>
   </si>
   <si>
     <t xml:space="preserve">0.695586979389191</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.687829256057739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.703775405883789</t>
+    <t xml:space="preserve">0.703775465488434</t>
   </si>
   <si>
     <t xml:space="preserve">0.709377944469452</t>
@@ -2756,16 +2756,16 @@
     <t xml:space="preserve">0.707222759723663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699465036392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716704130172729</t>
+    <t xml:space="preserve">0.699464976787567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716704070568085</t>
   </si>
   <si>
     <t xml:space="preserve">0.719720721244812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.72618556022644</t>
+    <t xml:space="preserve">0.726185500621796</t>
   </si>
   <si>
     <t xml:space="preserve">0.720583021640778</t>
@@ -2777,46 +2777,46 @@
     <t xml:space="preserve">0.743424713611603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.766265392303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792123734951019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.741269469261169</t>
+    <t xml:space="preserve">0.766265451908112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792123675346375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.741269528865814</t>
   </si>
   <si>
     <t xml:space="preserve">0.73782217502594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806776940822601</t>
+    <t xml:space="preserve">0.806776881217957</t>
   </si>
   <si>
     <t xml:space="preserve">0.781350255012512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803760349750519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.821860790252686</t>
+    <t xml:space="preserve">0.803760290145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82186084985733</t>
   </si>
   <si>
     <t xml:space="preserve">0.851597964763641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877456188201904</t>
+    <t xml:space="preserve">0.87745612859726</t>
   </si>
   <si>
     <t xml:space="preserve">0.887799859046936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87400895357132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886075377464294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870560705661774</t>
+    <t xml:space="preserve">0.874008893966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88607531785965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870560646057129</t>
   </si>
   <si>
     <t xml:space="preserve">0.899867177009583</t>
@@ -2828,16 +2828,16 @@
     <t xml:space="preserve">0.881765782833099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838669300079346</t>
+    <t xml:space="preserve">0.83866935968399</t>
   </si>
   <si>
     <t xml:space="preserve">0.83349746465683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839100003242493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855046093463898</t>
+    <t xml:space="preserve">0.839099943637848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855046153068542</t>
   </si>
   <si>
     <t xml:space="preserve">0.859355628490448</t>
@@ -2846,22 +2846,22 @@
     <t xml:space="preserve">0.846857666969299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773592472076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733511626720428</t>
+    <t xml:space="preserve">0.773592531681061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733511686325073</t>
   </si>
   <si>
     <t xml:space="preserve">0.675331294536591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.65421324968338</t>
+    <t xml:space="preserve">0.654213309288025</t>
   </si>
   <si>
     <t xml:space="preserve">0.66584986448288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.681364417076111</t>
+    <t xml:space="preserve">0.681364476680756</t>
   </si>
   <si>
     <t xml:space="preserve">0.706360459327698</t>
@@ -2873,10 +2873,10 @@
     <t xml:space="preserve">0.777039766311646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809362828731537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.812811076641083</t>
+    <t xml:space="preserve">0.809362888336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.812811017036438</t>
   </si>
   <si>
     <t xml:space="preserve">0.828756272792816</t>
@@ -2909,28 +2909,28 @@
     <t xml:space="preserve">0.933482348918915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921414971351624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930896461009979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910209894180298</t>
+    <t xml:space="preserve">0.921414911746979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930896401405334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910209953784943</t>
   </si>
   <si>
     <t xml:space="preserve">0.895556688308716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867974817752838</t>
+    <t xml:space="preserve">0.867974877357483</t>
   </si>
   <si>
     <t xml:space="preserve">0.866251170635223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868837118148804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867113351821899</t>
+    <t xml:space="preserve">0.868837058544159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.867113411426544</t>
   </si>
   <si>
     <t xml:space="preserve">0.88693755865097</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">0.900728523731232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935206830501556</t>
+    <t xml:space="preserve">0.935206890106201</t>
   </si>
   <si>
     <t xml:space="preserve">0.973993837833405</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">0.984337389469147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.987784683704376</t>
+    <t xml:space="preserve">0.987784743309021</t>
   </si>
   <si>
     <t xml:space="preserve">0.996404707431793</t>
@@ -2963,19 +2963,19 @@
     <t xml:space="preserve">1.00933337211609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992094218730927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964512407779694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931758642196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902452111244202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88004207611084</t>
+    <t xml:space="preserve">0.992094278335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964512288570404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93175858259201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902452170848846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880042135715485</t>
   </si>
   <si>
     <t xml:space="preserve">0.894695281982422</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">0.936068296432495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961065173149109</t>
+    <t xml:space="preserve">0.961065113544464</t>
   </si>
   <si>
     <t xml:space="preserve">0.950721383094788</t>
@@ -3005,25 +3005,25 @@
     <t xml:space="preserve">0.928310513496399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959340453147888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968821942806244</t>
+    <t xml:space="preserve">0.959340512752533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968821883201599</t>
   </si>
   <si>
     <t xml:space="preserve">0.967098295688629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972270131111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971407830715179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97657972574234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965374767780304</t>
+    <t xml:space="preserve">0.9722700715065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971407890319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976579785346985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965374708175659</t>
   </si>
   <si>
     <t xml:space="preserve">1.00674748420715</t>
@@ -3035,25 +3035,25 @@
     <t xml:space="preserve">1.2274044752121</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21102750301361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19723665714264</t>
+    <t xml:space="preserve">1.2110276222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19723677635193</t>
   </si>
   <si>
     <t xml:space="preserve">1.19465065002441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20930397510529</t>
+    <t xml:space="preserve">1.20930409431458</t>
   </si>
   <si>
     <t xml:space="preserve">1.17482662200928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14465796947479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14638245105743</t>
+    <t xml:space="preserve">1.1446578502655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14638233184814</t>
   </si>
   <si>
     <t xml:space="preserve">1.14207279682159</t>
@@ -3062,40 +3062,40 @@
     <t xml:space="preserve">1.14724385738373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16706883907318</t>
+    <t xml:space="preserve">1.16706871986389</t>
   </si>
   <si>
     <t xml:space="preserve">1.15672516822815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20068502426147</t>
+    <t xml:space="preserve">1.20068490505219</t>
   </si>
   <si>
     <t xml:space="preserve">1.18172216415405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15069198608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14293432235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42134177684784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41616988182068</t>
+    <t xml:space="preserve">1.15069210529327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14293420314789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42134189605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41617000102997</t>
   </si>
   <si>
     <t xml:space="preserve">1.4851256608963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48253977298737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48598694801331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45150971412659</t>
+    <t xml:space="preserve">1.48253965377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4859870672226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4515095949173</t>
   </si>
   <si>
     <t xml:space="preserve">1.45668160915375</t>
@@ -3104,19 +3104,19 @@
     <t xml:space="preserve">1.44202840328217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48426353931427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52391242980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50581204891205</t>
+    <t xml:space="preserve">1.48426342010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52391254901886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50581216812134</t>
   </si>
   <si>
     <t xml:space="preserve">1.48684942722321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47909152507782</t>
+    <t xml:space="preserve">1.47909164428711</t>
   </si>
   <si>
     <t xml:space="preserve">1.52822208404541</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">1.59976375102997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67820000648499</t>
+    <t xml:space="preserve">1.6781998872757</t>
   </si>
   <si>
     <t xml:space="preserve">1.66354763507843</t>
@@ -3143,13 +3143,13 @@
     <t xml:space="preserve">1.67216670513153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67130434513092</t>
+    <t xml:space="preserve">1.67130446434021</t>
   </si>
   <si>
     <t xml:space="preserve">1.67906212806702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66527116298676</t>
+    <t xml:space="preserve">1.66527104377747</t>
   </si>
   <si>
     <t xml:space="preserve">1.50322616100311</t>
@@ -3161,13 +3161,13 @@
     <t xml:space="preserve">1.3860023021698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39979314804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40237903594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40841233730316</t>
+    <t xml:space="preserve">1.39979326725006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40237891674042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40841221809387</t>
   </si>
   <si>
     <t xml:space="preserve">1.44749176502228</t>
@@ -3176,19 +3176,19 @@
     <t xml:space="preserve">1.48041009902954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45755016803741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.438347697258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43651902675629</t>
+    <t xml:space="preserve">1.4575502872467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43834781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43651914596558</t>
   </si>
   <si>
     <t xml:space="preserve">1.37616872787476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49412596225739</t>
+    <t xml:space="preserve">1.49412608146667</t>
   </si>
   <si>
     <t xml:space="preserve">1.53801727294922</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">1.58099389076233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63494324684143</t>
+    <t xml:space="preserve">1.63494336605072</t>
   </si>
   <si>
     <t xml:space="preserve">1.57733631134033</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">1.59379553794861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58739471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60842573642731</t>
+    <t xml:space="preserve">1.58739459514618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6084258556366</t>
   </si>
   <si>
     <t xml:space="preserve">1.62671387195587</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">1.66603291034698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65780329704285</t>
+    <t xml:space="preserve">1.65780341625214</t>
   </si>
   <si>
     <t xml:space="preserve">1.61939871311188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63951528072357</t>
+    <t xml:space="preserve">1.63951539993286</t>
   </si>
   <si>
     <t xml:space="preserve">1.65506017208099</t>
@@ -3248,10 +3248,10 @@
     <t xml:space="preserve">1.63402891159058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5672779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56910681724548</t>
+    <t xml:space="preserve">1.56727802753448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56910669803619</t>
   </si>
   <si>
     <t xml:space="preserve">1.54076039791107</t>
@@ -3260,13 +3260,13 @@
     <t xml:space="preserve">1.5453325510025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57367861270905</t>
+    <t xml:space="preserve">1.57367873191833</t>
   </si>
   <si>
     <t xml:space="preserve">1.55539071559906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54898989200592</t>
+    <t xml:space="preserve">1.54899001121521</t>
   </si>
   <si>
     <t xml:space="preserve">1.58922350406647</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">1.6029394865036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6907217502594</t>
+    <t xml:space="preserve">1.69072163105011</t>
   </si>
   <si>
     <t xml:space="preserve">1.71632480621338</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">1.61391222476959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5654491186142</t>
+    <t xml:space="preserve">1.56544923782349</t>
   </si>
   <si>
     <t xml:space="preserve">1.53618836402893</t>
@@ -3296,46 +3296,46 @@
     <t xml:space="preserve">1.51241409778595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46943724155426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49321174621582</t>
+    <t xml:space="preserve">1.46943736076355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49321162700653</t>
   </si>
   <si>
     <t xml:space="preserve">1.5133284330368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66969048976898</t>
+    <t xml:space="preserve">1.66969060897827</t>
   </si>
   <si>
     <t xml:space="preserve">1.88731718063354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90560507774353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96595549583435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95681142807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04642271995544</t>
+    <t xml:space="preserve">1.90560531616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96595537662506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95681154727936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04642224311829</t>
   </si>
   <si>
     <t xml:space="preserve">2.1012864112854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15797901153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24027490615845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02264809608459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94949638843536</t>
+    <t xml:space="preserve">2.15797877311707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24027466773987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02264785766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94949626922607</t>
   </si>
   <si>
     <t xml:space="preserve">2.02447700500488</t>
@@ -3347,10 +3347,10 @@
     <t xml:space="preserve">2.08299851417542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17626690864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14151978492737</t>
+    <t xml:space="preserve">2.17626714706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14151954650879</t>
   </si>
   <si>
     <t xml:space="preserve">2.17260932922363</t>
@@ -3359,25 +3359,25 @@
     <t xml:space="preserve">2.20552778244019</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19455528259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24758982658386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23295974731445</t>
+    <t xml:space="preserve">2.19455504417419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24759006500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23295950889587</t>
   </si>
   <si>
     <t xml:space="preserve">2.24576115608215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25124716758728</t>
+    <t xml:space="preserve">2.25124740600586</t>
   </si>
   <si>
     <t xml:space="preserve">2.31525564193726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24941873550415</t>
+    <t xml:space="preserve">2.24941897392273</t>
   </si>
   <si>
     <t xml:space="preserve">2.19089722633362</t>
@@ -3395,34 +3395,34 @@
     <t xml:space="preserve">2.35914635658264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3938934803009</t>
+    <t xml:space="preserve">2.39389371871948</t>
   </si>
   <si>
     <t xml:space="preserve">2.42315435409546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49447727203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52373814582825</t>
+    <t xml:space="preserve">2.49447703361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52373838424683</t>
   </si>
   <si>
     <t xml:space="preserve">2.45973038673401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54202580451965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50179266929626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55299878120422</t>
+    <t xml:space="preserve">2.54202604293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50179243087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5529990196228</t>
   </si>
   <si>
     <t xml:space="preserve">2.59323239326477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58957457542419</t>
+    <t xml:space="preserve">2.58957481384277</t>
   </si>
   <si>
     <t xml:space="preserve">2.50910758972168</t>
@@ -3437,10 +3437,10 @@
     <t xml:space="preserve">2.41401052474976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45424389839172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28050851821899</t>
+    <t xml:space="preserve">2.4542441368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28050827980042</t>
   </si>
   <si>
     <t xml:space="preserve">2.46521663665771</t>
@@ -3452,22 +3452,22 @@
     <t xml:space="preserve">2.57128667831421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64260983467102</t>
+    <t xml:space="preserve">2.6426100730896</t>
   </si>
   <si>
     <t xml:space="preserve">2.74136471748352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72490549087524</t>
+    <t xml:space="preserve">2.72490572929382</t>
   </si>
   <si>
     <t xml:space="preserve">2.71576166152954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7377073764801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67918586730957</t>
+    <t xml:space="preserve">2.73770713806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67918562889099</t>
   </si>
   <si>
     <t xml:space="preserve">2.60420513153076</t>
@@ -3476,16 +3476,16 @@
     <t xml:space="preserve">2.40669512748718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39206480979919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37011909484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35548877716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34817361831665</t>
+    <t xml:space="preserve">2.39206457138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37011933326721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35548901557922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34817385673523</t>
   </si>
   <si>
     <t xml:space="preserve">2.33171439170837</t>
@@ -3494,13 +3494,13 @@
     <t xml:space="preserve">2.38292074203491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35183143615723</t>
+    <t xml:space="preserve">2.35183167457581</t>
   </si>
   <si>
     <t xml:space="preserve">2.36097526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34085845947266</t>
+    <t xml:space="preserve">2.34085869789124</t>
   </si>
   <si>
     <t xml:space="preserve">2.44144225120544</t>
@@ -3512,13 +3512,13 @@
     <t xml:space="preserve">2.31159782409668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21832966804504</t>
+    <t xml:space="preserve">2.21832942962646</t>
   </si>
   <si>
     <t xml:space="preserve">2.22930216789246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24393248558044</t>
+    <t xml:space="preserve">2.24393224716187</t>
   </si>
   <si>
     <t xml:space="preserve">2.20735645294189</t>
@@ -3533,10 +3533,10 @@
     <t xml:space="preserve">2.23844575881958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26587796211243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20369911193848</t>
+    <t xml:space="preserve">2.26587820053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2036988735199</t>
   </si>
   <si>
     <t xml:space="preserve">2.46887421607971</t>
@@ -3545,13 +3545,13 @@
     <t xml:space="preserve">2.47070288658142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13237619400024</t>
+    <t xml:space="preserve">2.13237595558167</t>
   </si>
   <si>
     <t xml:space="preserve">2.05739521980286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18906831741333</t>
+    <t xml:space="preserve">2.18906855583191</t>
   </si>
   <si>
     <t xml:space="preserve">2.18723964691162</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">2.14700627326965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05556631088257</t>
+    <t xml:space="preserve">2.05556607246399</t>
   </si>
   <si>
     <t xml:space="preserve">2.09945750236511</t>
@@ -3575,7 +3575,7 @@
     <t xml:space="preserve">2.09397125244141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99338734149933</t>
+    <t xml:space="preserve">1.99338746070862</t>
   </si>
   <si>
     <t xml:space="preserve">2.07934069633484</t>
@@ -3587,22 +3587,22 @@
     <t xml:space="preserve">1.92755079269409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96229791641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86354303359985</t>
+    <t xml:space="preserve">1.96229779720306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86354291439056</t>
   </si>
   <si>
     <t xml:space="preserve">1.69803690910339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61299788951874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61848425865173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73369860649109</t>
+    <t xml:space="preserve">1.61299800872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61848437786102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7336984872818</t>
   </si>
   <si>
     <t xml:space="preserve">1.63037145137787</t>
@@ -3632,19 +3632,19 @@
     <t xml:space="preserve">1.70352339744568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71906793117523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73278391361237</t>
+    <t xml:space="preserve">1.71906805038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73278379440308</t>
   </si>
   <si>
     <t xml:space="preserve">1.78307592868805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92389333248138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89280354976654</t>
+    <t xml:space="preserve">1.92389321327209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89280343055725</t>
   </si>
   <si>
     <t xml:space="preserve">1.80136394500732</t>
@@ -3656,49 +3656,49 @@
     <t xml:space="preserve">1.81873726844788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7839902639389</t>
+    <t xml:space="preserve">1.78399014472961</t>
   </si>
   <si>
     <t xml:space="preserve">1.72363996505737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69346487522125</t>
+    <t xml:space="preserve">1.69346475601196</t>
   </si>
   <si>
     <t xml:space="preserve">1.65231704711914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67151927947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76478803157806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75472950935364</t>
+    <t xml:space="preserve">1.67151916027069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76478791236877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75472962856293</t>
   </si>
   <si>
     <t xml:space="preserve">1.73186957836151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68157768249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69163620471954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68249201774597</t>
+    <t xml:space="preserve">1.68157756328583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69163608551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68249213695526</t>
   </si>
   <si>
     <t xml:space="preserve">1.66054666042328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67243385314941</t>
+    <t xml:space="preserve">1.67243373394012</t>
   </si>
   <si>
     <t xml:space="preserve">1.60019636154175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5096709728241</t>
+    <t xml:space="preserve">1.50967085361481</t>
   </si>
   <si>
     <t xml:space="preserve">1.52613008022308</t>
@@ -3707,46 +3707,46 @@
     <t xml:space="preserve">1.59105229377747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65963208675385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64042985439301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69712245464325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6587176322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65140247344971</t>
+    <t xml:space="preserve">1.65963220596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64042973518372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69712257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65871775150299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.651402592659</t>
   </si>
   <si>
     <t xml:space="preserve">1.57459318637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57002115249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68340647220612</t>
+    <t xml:space="preserve">1.57002127170563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68340635299683</t>
   </si>
   <si>
     <t xml:space="preserve">1.6998655796051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77758955955505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74467098712921</t>
+    <t xml:space="preserve">1.77758944034576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7446711063385</t>
   </si>
   <si>
     <t xml:space="preserve">1.77118873596191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83793962001801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90377640724182</t>
+    <t xml:space="preserve">1.83793973922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90377652645111</t>
   </si>
   <si>
     <t xml:space="preserve">1.86537158489227</t>
@@ -3755,25 +3755,25 @@
     <t xml:space="preserve">1.85622763633728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85257005691528</t>
+    <t xml:space="preserve">1.85257017612457</t>
   </si>
   <si>
     <t xml:space="preserve">1.71083855628967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5023558139801</t>
+    <t xml:space="preserve">1.50235569477081</t>
   </si>
   <si>
     <t xml:space="preserve">1.46395099163055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51178026199341</t>
+    <t xml:space="preserve">1.51178014278412</t>
   </si>
   <si>
     <t xml:space="preserve">1.52397203445435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53710174560547</t>
+    <t xml:space="preserve">1.53710162639618</t>
   </si>
   <si>
     <t xml:space="preserve">1.50427758693695</t>
@@ -3785,13 +3785,13 @@
     <t xml:space="preserve">1.48270761966705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52115845680237</t>
+    <t xml:space="preserve">1.52115857601166</t>
   </si>
   <si>
     <t xml:space="preserve">1.52866113185883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45926189422607</t>
+    <t xml:space="preserve">1.45926177501678</t>
   </si>
   <si>
     <t xml:space="preserve">1.41612160205841</t>
@@ -3800,25 +3800,25 @@
     <t xml:space="preserve">1.42268633842468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34297096729279</t>
+    <t xml:space="preserve">1.34297108650208</t>
   </si>
   <si>
     <t xml:space="preserve">1.37016808986664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41799736022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4526971578598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43018901348114</t>
+    <t xml:space="preserve">1.4179972410202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45269703865051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43018913269043</t>
   </si>
   <si>
     <t xml:space="preserve">1.3570384979248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32515239715576</t>
+    <t xml:space="preserve">1.32515227794647</t>
   </si>
   <si>
     <t xml:space="preserve">1.32046318054199</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">1.35047376155853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36923038959503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44238078594208</t>
+    <t xml:space="preserve">1.36923027038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44238090515137</t>
   </si>
   <si>
     <t xml:space="preserve">1.41518378257751</t>
@@ -3842,13 +3842,13 @@
     <t xml:space="preserve">1.40017855167389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33828186988831</t>
+    <t xml:space="preserve">1.3382819890976</t>
   </si>
   <si>
     <t xml:space="preserve">1.35516285896301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3757951259613</t>
+    <t xml:space="preserve">1.37579500675201</t>
   </si>
   <si>
     <t xml:space="preserve">1.46488881111145</t>
@@ -3863,25 +3863,25 @@
     <t xml:space="preserve">1.49021017551422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51646935939789</t>
+    <t xml:space="preserve">1.51646947860718</t>
   </si>
   <si>
     <t xml:space="preserve">1.50615310668945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5352258682251</t>
+    <t xml:space="preserve">1.53522598743439</t>
   </si>
   <si>
     <t xml:space="preserve">1.54272854328156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53616368770599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56429862976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55304479598999</t>
+    <t xml:space="preserve">1.53616380691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56429874897003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5530446767807</t>
   </si>
   <si>
     <t xml:space="preserve">1.54835557937622</t>
@@ -3902,19 +3902,19 @@
     <t xml:space="preserve">1.38986253738403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38611114025116</t>
+    <t xml:space="preserve">1.38611125946045</t>
   </si>
   <si>
     <t xml:space="preserve">1.4170595407486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41987311840057</t>
+    <t xml:space="preserve">1.41987299919128</t>
   </si>
   <si>
     <t xml:space="preserve">1.40580546855927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43675374984741</t>
+    <t xml:space="preserve">1.4367538690567</t>
   </si>
   <si>
     <t xml:space="preserve">1.37860858440399</t>
@@ -3923,7 +3923,7 @@
     <t xml:space="preserve">1.3954895734787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41330826282501</t>
+    <t xml:space="preserve">1.41330814361572</t>
   </si>
   <si>
     <t xml:space="preserve">1.40299212932587</t>
@@ -3938,10 +3938,10 @@
     <t xml:space="preserve">1.46207523345947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51553153991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45738613605499</t>
+    <t xml:space="preserve">1.51553165912628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45738625526428</t>
   </si>
   <si>
     <t xml:space="preserve">1.44331872463226</t>
@@ -3953,25 +3953,25 @@
     <t xml:space="preserve">1.73967266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63463580608368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62900876998901</t>
+    <t xml:space="preserve">1.63463592529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6290088891983</t>
   </si>
   <si>
     <t xml:space="preserve">1.64213848114014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61306571960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54741775989532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60743868350983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60181176662445</t>
+    <t xml:space="preserve">1.61306583881378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54741764068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60743880271912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60181164741516</t>
   </si>
   <si>
     <t xml:space="preserve">1.70215952396393</t>
@@ -3980,22 +3980,22 @@
     <t xml:space="preserve">1.63182234764099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58680665493011</t>
+    <t xml:space="preserve">1.58680653572083</t>
   </si>
   <si>
     <t xml:space="preserve">1.5718013048172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6102522611618</t>
+    <t xml:space="preserve">1.61025238037109</t>
   </si>
   <si>
     <t xml:space="preserve">1.58211743831635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64588975906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64495193958282</t>
+    <t xml:space="preserve">1.64588963985443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64495182037354</t>
   </si>
   <si>
     <t xml:space="preserve">1.69278109073639</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">1.71153783798218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71247553825378</t>
+    <t xml:space="preserve">1.71247565746307</t>
   </si>
   <si>
     <t xml:space="preserve">1.72372961044312</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">1.84470951557159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90754413604736</t>
+    <t xml:space="preserve">1.90754401683807</t>
   </si>
   <si>
     <t xml:space="preserve">1.92630052566528</t>
@@ -4052,13 +4052,13 @@
     <t xml:space="preserve">1.93192744255066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96006238460541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99570024013519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00695371627808</t>
+    <t xml:space="preserve">1.9600625038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9957001209259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00695395469666</t>
   </si>
   <si>
     <t xml:space="preserve">1.96756517887115</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">2.05947256088257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03508877754211</t>
+    <t xml:space="preserve">2.03508901596069</t>
   </si>
   <si>
     <t xml:space="preserve">2.03696441650391</t>
@@ -4085,7 +4085,7 @@
     <t xml:space="preserve">2.05384540557861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11011528968811</t>
+    <t xml:space="preserve">2.11011505126953</t>
   </si>
   <si>
     <t xml:space="preserve">2.20202231407166</t>
@@ -4121,7 +4121,7 @@
     <t xml:space="preserve">2.08573150634766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91129553318024</t>
+    <t xml:space="preserve">1.91129541397095</t>
   </si>
   <si>
     <t xml:space="preserve">1.95068407058716</t>
@@ -4133,40 +4133,40 @@
     <t xml:space="preserve">1.98819720745087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99757587909698</t>
+    <t xml:space="preserve">1.9975757598877</t>
   </si>
   <si>
     <t xml:space="preserve">2.00132703781128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96193814277649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97506761550903</t>
+    <t xml:space="preserve">1.96193826198578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97506773471832</t>
   </si>
   <si>
     <t xml:space="preserve">2.02571058273315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03133726119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09698581695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12512040138245</t>
+    <t xml:space="preserve">2.03133749961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09698557853699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12512063980103</t>
   </si>
   <si>
     <t xml:space="preserve">2.1720118522644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19639539718628</t>
+    <t xml:space="preserve">2.1963951587677</t>
   </si>
   <si>
     <t xml:space="preserve">2.19451951980591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16638493537903</t>
+    <t xml:space="preserve">2.16638469696045</t>
   </si>
   <si>
     <t xml:space="preserve">2.08385586738586</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">2.10261249542236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06697511672974</t>
+    <t xml:space="preserve">2.06697487831116</t>
   </si>
   <si>
     <t xml:space="preserve">2.0763533115387</t>
@@ -4190,22 +4190,22 @@
     <t xml:space="preserve">2.08198022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06509900093079</t>
+    <t xml:space="preserve">2.06509923934937</t>
   </si>
   <si>
     <t xml:space="preserve">2.34644794464111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32018852233887</t>
+    <t xml:space="preserve">2.32018876075745</t>
   </si>
   <si>
     <t xml:space="preserve">2.3914635181427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38208556175232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40646886825562</t>
+    <t xml:space="preserve">2.38208532333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40646910667419</t>
   </si>
   <si>
     <t xml:space="preserve">2.44773316383362</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">2.49274945259094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45148515701294</t>
+    <t xml:space="preserve">2.45148491859436</t>
   </si>
   <si>
     <t xml:space="preserve">2.4852466583252</t>
@@ -4223,7 +4223,7 @@
     <t xml:space="preserve">2.47399282455444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46461462974548</t>
+    <t xml:space="preserve">2.4646143913269</t>
   </si>
   <si>
     <t xml:space="preserve">2.46836566925049</t>
@@ -4232,7 +4232,7 @@
     <t xml:space="preserve">2.43272829055786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41959834098816</t>
+    <t xml:space="preserve">2.41959857940674</t>
   </si>
   <si>
     <t xml:space="preserve">2.38020992279053</t>
@@ -4250,13 +4250,13 @@
     <t xml:space="preserve">2.45711159706116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4833710193634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48149538040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46649026870728</t>
+    <t xml:space="preserve">2.48337078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48149514198303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4664900302887</t>
   </si>
   <si>
     <t xml:space="preserve">2.45523619651794</t>
@@ -4268,16 +4268,16 @@
     <t xml:space="preserve">2.35957741737366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25454092025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30330801010132</t>
+    <t xml:space="preserve">2.25454068183899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30330777168274</t>
   </si>
   <si>
     <t xml:space="preserve">2.2526650428772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21140074729919</t>
+    <t xml:space="preserve">2.21140050888062</t>
   </si>
   <si>
     <t xml:space="preserve">2.27517318725586</t>
@@ -4298,7 +4298,7 @@
     <t xml:space="preserve">2.21702766418457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26579475402832</t>
+    <t xml:space="preserve">2.26579451560974</t>
   </si>
   <si>
     <t xml:space="preserve">2.26016783714294</t>
@@ -4307,7 +4307,7 @@
     <t xml:space="preserve">2.34082102775574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31831288337708</t>
+    <t xml:space="preserve">2.31831312179565</t>
   </si>
   <si>
     <t xml:space="preserve">2.31456184387207</t>
@@ -4337,7 +4337,7 @@
     <t xml:space="preserve">2.54714322090149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55089497566223</t>
+    <t xml:space="preserve">2.55089473724365</t>
   </si>
   <si>
     <t xml:space="preserve">2.53776526451111</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">2.54901885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47774410247803</t>
+    <t xml:space="preserve">2.47774386405945</t>
   </si>
   <si>
     <t xml:space="preserve">2.4421067237854</t>
@@ -4376,25 +4376,25 @@
     <t xml:space="preserve">2.35770177841187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36520481109619</t>
+    <t xml:space="preserve">2.36520457267761</t>
   </si>
   <si>
     <t xml:space="preserve">2.34269666671753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29768109321594</t>
+    <t xml:space="preserve">2.29768085479736</t>
   </si>
   <si>
     <t xml:space="preserve">2.37645840644836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39896655082703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40459322929382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37270712852478</t>
+    <t xml:space="preserve">2.39896678924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4045934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3727068901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.49650049209595</t>
@@ -4403,10 +4403,10 @@
     <t xml:space="preserve">2.50963020324707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49837613105774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51713275909424</t>
+    <t xml:space="preserve">2.49837636947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51713299751282</t>
   </si>
   <si>
     <t xml:space="preserve">2.32792448997498</t>
@@ -5064,6 +5064,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.56800007820129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59800004959106</t>
   </si>
 </sst>
 </file>
@@ -61669,7 +61672,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6493402778</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>712415</v>
@@ -61690,6 +61693,32 @@
         <v>1683</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6496180556</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>601069</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>2.60400009155273</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>2.57399988174438</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>2.57800006866455</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>2.59800004959106</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1687">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05481195449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91553783416748</t>
+    <t xml:space="preserve">5.05481243133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91553831100464</t>
   </si>
   <si>
     <t xml:space="preserve">4.79264974594116</t>
@@ -59,40 +59,40 @@
     <t xml:space="preserve">4.80493831634521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94011640548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0998706817627</t>
+    <t xml:space="preserve">4.9401159286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09987020492554</t>
   </si>
   <si>
     <t xml:space="preserve">4.84180498123169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75168609619141</t>
+    <t xml:space="preserve">4.75168657302856</t>
   </si>
   <si>
     <t xml:space="preserve">4.78445720672607</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76397609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38711738586426</t>
+    <t xml:space="preserve">4.76397562026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38711786270142</t>
   </si>
   <si>
     <t xml:space="preserve">4.36253976821899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67795324325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60012435913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62060642242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6410870552063</t>
+    <t xml:space="preserve">4.67795372009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6001238822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62060594558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64108753204346</t>
   </si>
   <si>
     <t xml:space="preserve">4.65747213363647</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">4.58783626556396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77626419067383</t>
+    <t xml:space="preserve">4.77626466751099</t>
   </si>
   <si>
     <t xml:space="preserve">4.73939847946167</t>
@@ -113,16 +113,16 @@
     <t xml:space="preserve">4.69024324417114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46494722366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1618218421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15772581100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41579151153564</t>
+    <t xml:space="preserve">4.46494770050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16182231903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1577262878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4157919883728</t>
   </si>
   <si>
     <t xml:space="preserve">4.35844373703003</t>
@@ -134,28 +134,28 @@
     <t xml:space="preserve">4.44037008285522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61241340637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60831594467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62879848480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63289403915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40759897232056</t>
+    <t xml:space="preserve">4.61241388320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60831642150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6287989616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63289451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40759944915771</t>
   </si>
   <si>
     <t xml:space="preserve">4.37482929229736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5796422958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71072435379028</t>
+    <t xml:space="preserve">4.57964277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71072483062744</t>
   </si>
   <si>
     <t xml:space="preserve">4.82132387161255</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">4.73530197143555</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64927959442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66976165771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52639198303223</t>
+    <t xml:space="preserve">4.64928007125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66976118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52639150619507</t>
   </si>
   <si>
     <t xml:space="preserve">4.57145071029663</t>
@@ -185,31 +185,31 @@
     <t xml:space="preserve">4.42808055877686</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25194072723389</t>
+    <t xml:space="preserve">4.25194025039673</t>
   </si>
   <si>
     <t xml:space="preserve">4.22736263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19459247589111</t>
+    <t xml:space="preserve">4.19459295272827</t>
   </si>
   <si>
     <t xml:space="preserve">4.21917057037354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28880643844604</t>
+    <t xml:space="preserve">4.28880596160889</t>
   </si>
   <si>
     <t xml:space="preserve">4.34615516662598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17820739746094</t>
+    <t xml:space="preserve">4.17820692062378</t>
   </si>
   <si>
     <t xml:space="preserve">4.14953327178955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.448561668396</t>
+    <t xml:space="preserve">4.44856214523315</t>
   </si>
   <si>
     <t xml:space="preserve">4.29699945449829</t>
@@ -221,25 +221,25 @@
     <t xml:space="preserve">4.65337610244751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88686466217041</t>
+    <t xml:space="preserve">4.88686418533325</t>
   </si>
   <si>
     <t xml:space="preserve">4.69433975219727</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64518356323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.706627368927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62470197677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66566562652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69843530654907</t>
+    <t xml:space="preserve">4.64518404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70662784576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62470245361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66566610336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69843578338623</t>
   </si>
   <si>
     <t xml:space="preserve">4.68614673614502</t>
@@ -248,28 +248,28 @@
     <t xml:space="preserve">4.71482038497925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68204927444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79674577713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85409355163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99746370315552</t>
+    <t xml:space="preserve">4.6820502281189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79674530029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85409307479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99746322631836</t>
   </si>
   <si>
     <t xml:space="preserve">5.04661893844604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96879005432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03433084487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06710052490234</t>
+    <t xml:space="preserve">4.96878957748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03432989120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06710004806519</t>
   </si>
   <si>
     <t xml:space="preserve">4.91144180297852</t>
@@ -287,22 +287,22 @@
     <t xml:space="preserve">4.88513946533203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71277236938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66232395172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61607789993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62028169631958</t>
+    <t xml:space="preserve">4.71277284622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66232347488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61607837677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6202826499939</t>
   </si>
   <si>
     <t xml:space="preserve">4.63289546966553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78003692626953</t>
+    <t xml:space="preserve">4.78003740310669</t>
   </si>
   <si>
     <t xml:space="preserve">4.75901699066162</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">4.69595575332642</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65811967849731</t>
+    <t xml:space="preserve">4.65812015533447</t>
   </si>
   <si>
     <t xml:space="preserve">4.46893548965454</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">4.26713991165161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38065004348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40166997909546</t>
+    <t xml:space="preserve">4.38065052032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4016695022583</t>
   </si>
   <si>
     <t xml:space="preserve">4.43950700759888</t>
@@ -341,13 +341,13 @@
     <t xml:space="preserve">4.2208948135376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18221664428711</t>
+    <t xml:space="preserve">4.18221759796143</t>
   </si>
   <si>
     <t xml:space="preserve">4.32179260253906</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29656744003296</t>
+    <t xml:space="preserve">4.29656791687012</t>
   </si>
   <si>
     <t xml:space="preserve">4.28815984725952</t>
@@ -362,10 +362,10 @@
     <t xml:space="preserve">4.17212820053101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2503228187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30077171325684</t>
+    <t xml:space="preserve">4.25032329559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30077219009399</t>
   </si>
   <si>
     <t xml:space="preserve">4.39746618270874</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">4.34281349182129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36803722381592</t>
+    <t xml:space="preserve">4.36803770065308</t>
   </si>
   <si>
     <t xml:space="preserve">4.51097679138184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50677251815796</t>
+    <t xml:space="preserve">4.50677299499512</t>
   </si>
   <si>
     <t xml:space="preserve">4.42269039154053</t>
@@ -392,10 +392,10 @@
     <t xml:space="preserve">4.41428279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37644529342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3890585899353</t>
+    <t xml:space="preserve">4.37644577026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38905811309814</t>
   </si>
   <si>
     <t xml:space="preserve">4.43530321121216</t>
@@ -404,28 +404,28 @@
     <t xml:space="preserve">4.3638334274292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20239686965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30497646331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32599639892578</t>
+    <t xml:space="preserve">4.20239639282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30497694015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32599592208862</t>
   </si>
   <si>
     <t xml:space="preserve">4.23350763320923</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17044496536255</t>
+    <t xml:space="preserve">4.17044591903687</t>
   </si>
   <si>
     <t xml:space="preserve">4.27134370803833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22930335998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12840557098389</t>
+    <t xml:space="preserve">4.22930383682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12840509414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.11999702453613</t>
@@ -437,16 +437,16 @@
     <t xml:space="preserve">4.33020114898682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28395557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21669101715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19062614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49836397171021</t>
+    <t xml:space="preserve">4.28395652770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21669054031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19062662124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49836444854736</t>
   </si>
   <si>
     <t xml:space="preserve">4.51518058776855</t>
@@ -461,16 +461,16 @@
     <t xml:space="preserve">4.45632362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44791412353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45211839675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40587472915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35122108459473</t>
+    <t xml:space="preserve">4.44791507720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45211887359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40587425231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35122156143188</t>
   </si>
   <si>
     <t xml:space="preserve">4.31338500976562</t>
@@ -479,31 +479,31 @@
     <t xml:space="preserve">4.27554750442505</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24611854553223</t>
+    <t xml:space="preserve">4.24611902236938</t>
   </si>
   <si>
     <t xml:space="preserve">4.20407962799072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19903421401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.212486743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19398927688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13345003128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08636379241943</t>
+    <t xml:space="preserve">4.19903373718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21248722076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19398880004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13344955444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08636426925659</t>
   </si>
   <si>
     <t xml:space="preserve">4.18389892578125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26293611526489</t>
+    <t xml:space="preserve">4.26293563842773</t>
   </si>
   <si>
     <t xml:space="preserve">4.17549085617065</t>
@@ -521,28 +521,28 @@
     <t xml:space="preserve">4.15363025665283</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1014986038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15194749832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18894386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17717218399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18053579330444</t>
+    <t xml:space="preserve">4.10149908065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15194797515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18894338607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17717170715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18053531646729</t>
   </si>
   <si>
     <t xml:space="preserve">4.10654354095459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1586742401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14858484268188</t>
+    <t xml:space="preserve">4.15867376327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14858531951904</t>
   </si>
   <si>
     <t xml:space="preserve">4.12672328948975</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">4.20828294754028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27975225448608</t>
+    <t xml:space="preserve">4.27975273132324</t>
   </si>
   <si>
     <t xml:space="preserve">4.37224149703979</t>
@@ -560,10 +560,10 @@
     <t xml:space="preserve">4.33860921859741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35962963104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14522123336792</t>
+    <t xml:space="preserve">4.35963010787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14522075653076</t>
   </si>
   <si>
     <t xml:space="preserve">4.15026617050171</t>
@@ -575,22 +575,22 @@
     <t xml:space="preserve">4.03759670257568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01909828186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99891972541809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06618547439575</t>
+    <t xml:space="preserve">4.01909875869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99891901016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06618499755859</t>
   </si>
   <si>
     <t xml:space="preserve">4.05945873260498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02078104019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0813193321228</t>
+    <t xml:space="preserve">4.02078056335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08131980895996</t>
   </si>
   <si>
     <t xml:space="preserve">4.13008737564087</t>
@@ -611,40 +611,40 @@
     <t xml:space="preserve">4.4268946647644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41848659515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46473121643066</t>
+    <t xml:space="preserve">4.41848611831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46473217010498</t>
   </si>
   <si>
     <t xml:space="preserve">4.43109941482544</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47734403610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47313928604126</t>
+    <t xml:space="preserve">4.47734355926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47313976287842</t>
   </si>
   <si>
     <t xml:space="preserve">4.48154830932617</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60767030715942</t>
+    <t xml:space="preserve">4.60767078399658</t>
   </si>
   <si>
     <t xml:space="preserve">4.62448644638062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54881286621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68334436416626</t>
+    <t xml:space="preserve">4.54881238937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6833438873291</t>
   </si>
   <si>
     <t xml:space="preserve">4.70015954971313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67073154449463</t>
+    <t xml:space="preserve">4.67073202133179</t>
   </si>
   <si>
     <t xml:space="preserve">4.6497106552124</t>
@@ -653,22 +653,22 @@
     <t xml:space="preserve">4.57403755187988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74220132827759</t>
+    <t xml:space="preserve">4.74220085144043</t>
   </si>
   <si>
     <t xml:space="preserve">4.83469104766846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82207822799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75060892105103</t>
+    <t xml:space="preserve">4.82207870483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75060939788818</t>
   </si>
   <si>
     <t xml:space="preserve">4.85150671005249</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0112624168396</t>
+    <t xml:space="preserve">5.01126194000244</t>
   </si>
   <si>
     <t xml:space="preserve">4.97762870788574</t>
@@ -677,28 +677,28 @@
     <t xml:space="preserve">4.92717981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95240449905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89354705810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93558931350708</t>
+    <t xml:space="preserve">4.9524040222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89354753494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93558883666992</t>
   </si>
   <si>
     <t xml:space="preserve">4.87673091888428</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93138456344604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96081352233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0196704864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20885276794434</t>
+    <t xml:space="preserve">4.93138408660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96081304550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01966953277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20885324478149</t>
   </si>
   <si>
     <t xml:space="preserve">5.17522096633911</t>
@@ -707,16 +707,16 @@
     <t xml:space="preserve">5.05330181121826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07432317733765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04489421844482</t>
+    <t xml:space="preserve">5.07432270050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04489469528198</t>
   </si>
   <si>
     <t xml:space="preserve">5.20464897155762</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06171083450317</t>
+    <t xml:space="preserve">5.06171131134033</t>
   </si>
   <si>
     <t xml:space="preserve">5.10795545578003</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">5.21305799484253</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13738489151001</t>
+    <t xml:space="preserve">5.13738441467285</t>
   </si>
   <si>
     <t xml:space="preserve">5.1920371055603</t>
@@ -743,22 +743,22 @@
     <t xml:space="preserve">5.3097505569458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36020040512085</t>
+    <t xml:space="preserve">5.36019992828369</t>
   </si>
   <si>
     <t xml:space="preserve">5.21726226806641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.225670337677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2971396446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28032302856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41905784606934</t>
+    <t xml:space="preserve">5.22566986083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29713916778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28032207489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41905832290649</t>
   </si>
   <si>
     <t xml:space="preserve">5.34758853912354</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">5.42326164245605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44007778167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33917951583862</t>
+    <t xml:space="preserve">5.44007730484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33917903900146</t>
   </si>
   <si>
     <t xml:space="preserve">5.33077144622803</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">5.3517918586731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26771068572998</t>
+    <t xml:space="preserve">5.26771116256714</t>
   </si>
   <si>
     <t xml:space="preserve">5.23407745361328</t>
@@ -791,34 +791,34 @@
     <t xml:space="preserve">5.10375165939331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22987365722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14579248428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19750928878784</t>
+    <t xml:space="preserve">5.2298731803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14579200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19750833511353</t>
   </si>
   <si>
     <t xml:space="preserve">5.53366613388062</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56383371353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48195028305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44747066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51642751693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52504634857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4905686378479</t>
+    <t xml:space="preserve">5.56383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48194980621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44747114181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5164270401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52504587173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49056911468506</t>
   </si>
   <si>
     <t xml:space="preserve">5.50780820846558</t>
@@ -830,10 +830,10 @@
     <t xml:space="preserve">5.44316148757935</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35265827178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29663181304932</t>
+    <t xml:space="preserve">5.35265874862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29663276672363</t>
   </si>
   <si>
     <t xml:space="preserve">5.36989736557007</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">5.42161321640015</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43023347854614</t>
+    <t xml:space="preserve">5.43023300170898</t>
   </si>
   <si>
     <t xml:space="preserve">5.34834909439087</t>
@@ -854,37 +854,37 @@
     <t xml:space="preserve">5.37851667404175</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34403944015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41730403900146</t>
+    <t xml:space="preserve">5.34403991699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41730356216431</t>
   </si>
   <si>
     <t xml:space="preserve">5.41299390792847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45178174972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39144563674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46901941299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50349903106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57676267623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54659509658813</t>
+    <t xml:space="preserve">5.4517822265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39144515991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4690203666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50349855422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57676315307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54659461975098</t>
   </si>
   <si>
     <t xml:space="preserve">5.57245302200317</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55521488189697</t>
+    <t xml:space="preserve">5.55521535873413</t>
   </si>
   <si>
     <t xml:space="preserve">5.55090427398682</t>
@@ -899,31 +899,31 @@
     <t xml:space="preserve">5.42592334747314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37420701980591</t>
+    <t xml:space="preserve">5.37420654296875</t>
   </si>
   <si>
     <t xml:space="preserve">5.30094194412231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27508354187012</t>
+    <t xml:space="preserve">5.27508401870728</t>
   </si>
   <si>
     <t xml:space="preserve">5.31818103790283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40437459945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4948787689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47332954406738</t>
+    <t xml:space="preserve">5.40437507629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49487829208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47333002090454</t>
   </si>
   <si>
     <t xml:space="preserve">5.4647102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49918794631958</t>
+    <t xml:space="preserve">5.49918746948242</t>
   </si>
   <si>
     <t xml:space="preserve">5.66295766830444</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">5.80517721176147</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86982393264771</t>
+    <t xml:space="preserve">5.86982345581055</t>
   </si>
   <si>
     <t xml:space="preserve">5.79224872589111</t>
@@ -950,46 +950,46 @@
     <t xml:space="preserve">5.61555004119873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80086803436279</t>
+    <t xml:space="preserve">5.80086755752563</t>
   </si>
   <si>
     <t xml:space="preserve">5.86120367050171</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82241630554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54228496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56814384460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55952453613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40868473052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46040105819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36127710342407</t>
+    <t xml:space="preserve">5.82241678237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54228544235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56814289093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55952501296997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40868425369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46040058135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36127758026123</t>
   </si>
   <si>
     <t xml:space="preserve">5.24491548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04235982894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06390857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9734034538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95616579055786</t>
+    <t xml:space="preserve">5.04235935211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06390810012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97340393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9561653137207</t>
   </si>
   <si>
     <t xml:space="preserve">4.9992618560791</t>
@@ -1004,43 +1004,43 @@
     <t xml:space="preserve">5.05959844589233</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02081060409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03374004364014</t>
+    <t xml:space="preserve">5.02081108093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03374052047729</t>
   </si>
   <si>
     <t xml:space="preserve">5.00788164138794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96478414535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11562442779541</t>
+    <t xml:space="preserve">4.96478462219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11562490463257</t>
   </si>
   <si>
     <t xml:space="preserve">5.08545684814453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93030691146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01650047302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98633337020874</t>
+    <t xml:space="preserve">4.93030738830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01650142669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98633289337158</t>
   </si>
   <si>
     <t xml:space="preserve">4.87427997589111</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80963516235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84842157363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8182544708252</t>
+    <t xml:space="preserve">4.80963468551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84842205047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81825399398804</t>
   </si>
   <si>
     <t xml:space="preserve">4.78377676010132</t>
@@ -1049,28 +1049,28 @@
     <t xml:space="preserve">4.85273218154907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82256364822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78808689117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86997032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94323539733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90013837814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88290023803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86135196685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82687377929688</t>
+    <t xml:space="preserve">4.82256412506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78808641433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86997079849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94323587417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90013790130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88289976119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86135149002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82687425613403</t>
   </si>
   <si>
     <t xml:space="preserve">5.07252740859985</t>
@@ -1079,16 +1079,16 @@
     <t xml:space="preserve">5.08114624023438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0509786605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99495220184326</t>
+    <t xml:space="preserve">5.05097818374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99495267868042</t>
   </si>
   <si>
     <t xml:space="preserve">5.32679986953735</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15872049331665</t>
+    <t xml:space="preserve">5.15872097015381</t>
   </si>
   <si>
     <t xml:space="preserve">5.18026924133301</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">4.93892621994019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8354926109314</t>
+    <t xml:space="preserve">4.83549308776855</t>
   </si>
   <si>
     <t xml:space="preserve">4.75360918045044</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">4.7406792640686</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7622275352478</t>
+    <t xml:space="preserve">4.76222801208496</t>
   </si>
   <si>
     <t xml:space="preserve">4.77946758270264</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">4.85704183578491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73205995559692</t>
+    <t xml:space="preserve">4.73206043243408</t>
   </si>
   <si>
     <t xml:space="preserve">4.69758272171021</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">4.68465328216553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7234411239624</t>
+    <t xml:space="preserve">4.72344064712524</t>
   </si>
   <si>
     <t xml:space="preserve">4.63293647766113</t>
@@ -1142,13 +1142,13 @@
     <t xml:space="preserve">4.55105257034302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58552932739258</t>
+    <t xml:space="preserve">4.58552980422974</t>
   </si>
   <si>
     <t xml:space="preserve">4.63724613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61569786071777</t>
+    <t xml:space="preserve">4.61569738388062</t>
   </si>
   <si>
     <t xml:space="preserve">4.66310453414917</t>
@@ -1157,16 +1157,16 @@
     <t xml:space="preserve">4.71482086181641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73636960983276</t>
+    <t xml:space="preserve">4.73637008666992</t>
   </si>
   <si>
     <t xml:space="preserve">4.80532503128052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79670572280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7449893951416</t>
+    <t xml:space="preserve">4.79670524597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74498891830444</t>
   </si>
   <si>
     <t xml:space="preserve">4.70620203018188</t>
@@ -1181,22 +1181,22 @@
     <t xml:space="preserve">4.49933624267578</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52519416809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3226375579834</t>
+    <t xml:space="preserve">4.52519369125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32263803482056</t>
   </si>
   <si>
     <t xml:space="preserve">4.29419326782227</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28385066986084</t>
+    <t xml:space="preserve">4.283851146698</t>
   </si>
   <si>
     <t xml:space="preserve">4.28902196884155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3269476890564</t>
+    <t xml:space="preserve">4.32694721221924</t>
   </si>
   <si>
     <t xml:space="preserve">4.22868585586548</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">4.27523040771484</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30108880996704</t>
+    <t xml:space="preserve">4.3010892868042</t>
   </si>
   <si>
     <t xml:space="preserve">2.92025852203369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99955701828003</t>
+    <t xml:space="preserve">2.99955725669861</t>
   </si>
   <si>
     <t xml:space="preserve">2.93404936790466</t>
@@ -1241,40 +1241,40 @@
     <t xml:space="preserve">2.89095211029053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01679611206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04265427589417</t>
+    <t xml:space="preserve">3.01679635047913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04265451431274</t>
   </si>
   <si>
     <t xml:space="preserve">3.1133337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17884111404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27193021774292</t>
+    <t xml:space="preserve">3.17884087562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2719304561615</t>
   </si>
   <si>
     <t xml:space="preserve">3.24952030181885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25813937187195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2443482875824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28055024147034</t>
+    <t xml:space="preserve">3.25813961029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24434852600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28055047988892</t>
   </si>
   <si>
     <t xml:space="preserve">3.27537870407104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2029755115509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10816168785095</t>
+    <t xml:space="preserve">3.20297574996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10816192626953</t>
   </si>
   <si>
     <t xml:space="preserve">3.12540102005005</t>
@@ -1301,25 +1301,25 @@
     <t xml:space="preserve">2.83406472206116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63926529884338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6289222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59099674224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67201972007751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58065319061279</t>
+    <t xml:space="preserve">2.63926482200623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62892246246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59099650382996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67201995849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58065295219421</t>
   </si>
   <si>
     <t xml:space="preserve">2.59616827964783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58582472801208</t>
+    <t xml:space="preserve">2.58582496643066</t>
   </si>
   <si>
     <t xml:space="preserve">2.55824279785156</t>
@@ -1331,25 +1331,25 @@
     <t xml:space="preserve">2.47204875946045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43584704399109</t>
+    <t xml:space="preserve">2.43584728240967</t>
   </si>
   <si>
     <t xml:space="preserve">2.44274258613586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45308613777161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34792852401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3875789642334</t>
+    <t xml:space="preserve">2.45308637619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34792876243591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38757872581482</t>
   </si>
   <si>
     <t xml:space="preserve">2.33413743972778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34448146820068</t>
+    <t xml:space="preserve">2.34448170661926</t>
   </si>
   <si>
     <t xml:space="preserve">2.49101185798645</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">2.45653367042542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37378692626953</t>
+    <t xml:space="preserve">2.37378668785095</t>
   </si>
   <si>
     <t xml:space="preserve">2.37551164627075</t>
@@ -1367,13 +1367,13 @@
     <t xml:space="preserve">2.3703396320343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39792156219482</t>
+    <t xml:space="preserve">2.3979218006134</t>
   </si>
   <si>
     <t xml:space="preserve">2.40998888015747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42895150184631</t>
+    <t xml:space="preserve">2.42895126342773</t>
   </si>
   <si>
     <t xml:space="preserve">2.44101905822754</t>
@@ -1385,25 +1385,25 @@
     <t xml:space="preserve">2.42722797393799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4306755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32724213600159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104113578796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35310053825378</t>
+    <t xml:space="preserve">2.43067526817322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32724261283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104089736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35310077667236</t>
   </si>
   <si>
     <t xml:space="preserve">2.2962121963501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30138421058655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47721982002258</t>
+    <t xml:space="preserve">2.30138397216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47722005844116</t>
   </si>
   <si>
     <t xml:space="preserve">2.52721261978149</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">2.25828742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24622011184692</t>
+    <t xml:space="preserve">2.2462203502655</t>
   </si>
   <si>
     <t xml:space="preserve">2.22208571434021</t>
@@ -1442,40 +1442,40 @@
     <t xml:space="preserve">2.28242135047913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12037634849548</t>
+    <t xml:space="preserve">2.1203761100769</t>
   </si>
   <si>
     <t xml:space="preserve">2.07555508613586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03762936592102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06865978240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1031379699707</t>
+    <t xml:space="preserve">2.03762984275818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06865954399109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10313773155212</t>
   </si>
   <si>
     <t xml:space="preserve">2.22036170959473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24104833602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25139141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23587656021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23760032653809</t>
+    <t xml:space="preserve">2.24104809761047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25139117240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2358763217926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23760008811951</t>
   </si>
   <si>
     <t xml:space="preserve">2.22380924224854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22553277015686</t>
+    <t xml:space="preserve">2.22553300857544</t>
   </si>
   <si>
     <t xml:space="preserve">2.18243646621704</t>
@@ -1493,19 +1493,19 @@
     <t xml:space="preserve">2.22898101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1634738445282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15830183029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08934593200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09107089042664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19277906417847</t>
+    <t xml:space="preserve">2.16347360610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15830159187317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08934617042542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09107065200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19277882575989</t>
   </si>
   <si>
     <t xml:space="preserve">2.30827927589417</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">2.18588376045227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1358916759491</t>
+    <t xml:space="preserve">2.13589191436768</t>
   </si>
   <si>
     <t xml:space="preserve">2.12899613380432</t>
@@ -1529,10 +1529,10 @@
     <t xml:space="preserve">2.0634880065918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04624962806702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00832414627075</t>
+    <t xml:space="preserve">2.0462498664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00832390785217</t>
   </si>
   <si>
     <t xml:space="preserve">1.9359210729599</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">1.81352531909943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74974155426025</t>
+    <t xml:space="preserve">1.74974143505096</t>
   </si>
   <si>
     <t xml:space="preserve">1.70664405822754</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">1.55235683917999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53339409828186</t>
+    <t xml:space="preserve">1.53339385986328</t>
   </si>
   <si>
     <t xml:space="preserve">1.44116604328156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35928165912628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32652795314789</t>
+    <t xml:space="preserve">1.35928177833557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32652807235718</t>
   </si>
   <si>
     <t xml:space="preserve">1.31187474727631</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">1.28429281711578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33083748817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31704664230347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34549069404602</t>
+    <t xml:space="preserve">1.33083760738373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31704652309418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34549057483673</t>
   </si>
   <si>
     <t xml:space="preserve">1.35755813121796</t>
@@ -1592,13 +1592,13 @@
     <t xml:space="preserve">1.35497212409973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32480430603027</t>
+    <t xml:space="preserve">1.32480442523956</t>
   </si>
   <si>
     <t xml:space="preserve">1.32049477100372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38169288635254</t>
+    <t xml:space="preserve">1.38169264793396</t>
   </si>
   <si>
     <t xml:space="preserve">1.3946213722229</t>
@@ -1613,55 +1613,55 @@
     <t xml:space="preserve">1.28256916999817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29205071926117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30842757225037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29291188716888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27308785915375</t>
+    <t xml:space="preserve">1.29205060005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30842733383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29291200637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27308773994446</t>
   </si>
   <si>
     <t xml:space="preserve">1.29636013507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29808378219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30066967010498</t>
+    <t xml:space="preserve">1.29808366298676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30066990852356</t>
   </si>
   <si>
     <t xml:space="preserve">1.41186046600342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41358423233032</t>
+    <t xml:space="preserve">1.41358399391174</t>
   </si>
   <si>
     <t xml:space="preserve">1.40755093097687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38858830928802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35669577121735</t>
+    <t xml:space="preserve">1.38858819007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35669565200806</t>
   </si>
   <si>
     <t xml:space="preserve">1.38772583007812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29118824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27825963497162</t>
+    <t xml:space="preserve">1.29118835926056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27825975418091</t>
   </si>
   <si>
     <t xml:space="preserve">1.1024227142334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992956459522247</t>
+    <t xml:space="preserve">0.992956519126892</t>
   </si>
   <si>
     <t xml:space="preserve">1.02140069007874</t>
@@ -1670,94 +1670,94 @@
     <t xml:space="preserve">0.653351008892059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725754797458649</t>
+    <t xml:space="preserve">0.725754857063293</t>
   </si>
   <si>
     <t xml:space="preserve">0.727478504180908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889523506164551</t>
+    <t xml:space="preserve">0.889523446559906</t>
   </si>
   <si>
     <t xml:space="preserve">0.988646984100342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978303372859955</t>
+    <t xml:space="preserve">0.978303253650665</t>
   </si>
   <si>
     <t xml:space="preserve">0.87573254108429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942963719367981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97485613822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948135435581207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946411907672882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03691506385803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18430817127228</t>
+    <t xml:space="preserve">0.942963600158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974856078624725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948135554790497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946411967277527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03691518306732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18430805206299</t>
   </si>
   <si>
     <t xml:space="preserve">1.14982986450195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13431513309479</t>
+    <t xml:space="preserve">1.13431525230408</t>
   </si>
   <si>
     <t xml:space="preserve">1.16793119907379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13862466812134</t>
+    <t xml:space="preserve">1.13862478733063</t>
   </si>
   <si>
     <t xml:space="preserve">1.06880760192871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0438107252121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05070614814758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03088212013245</t>
+    <t xml:space="preserve">1.04381084442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05070626735687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03088223934174</t>
   </si>
   <si>
     <t xml:space="preserve">1.04812121391296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04553544521332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11707592010498</t>
+    <t xml:space="preserve">1.04553532600403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11707603931427</t>
   </si>
   <si>
     <t xml:space="preserve">1.13690114021301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16362071037292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16534531116486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16620671749115</t>
+    <t xml:space="preserve">1.16362082958221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16534519195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16620659828186</t>
   </si>
   <si>
     <t xml:space="preserve">1.17310202121735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14896833896637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13776230812073</t>
+    <t xml:space="preserve">1.14896845817566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13776242733002</t>
   </si>
   <si>
     <t xml:space="preserve">1.09983682632446</t>
@@ -1775,61 +1775,61 @@
     <t xml:space="preserve">1.05156850814819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06794536113739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09897530078888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16448307037354</t>
+    <t xml:space="preserve">1.06794548034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09897541999817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16448295116425</t>
   </si>
   <si>
     <t xml:space="preserve">1.11966192722321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12138545513153</t>
+    <t xml:space="preserve">1.12138557434082</t>
   </si>
   <si>
     <t xml:space="preserve">1.10673320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11535227298737</t>
+    <t xml:space="preserve">1.11535239219666</t>
   </si>
   <si>
     <t xml:space="preserve">1.14034831523895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11276638507843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13517653942108</t>
+    <t xml:space="preserve">1.11276650428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13517642021179</t>
   </si>
   <si>
     <t xml:space="preserve">1.14810609817505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14552009105682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26533007621765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50839805603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46099102497101</t>
+    <t xml:space="preserve">1.14552021026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26533019542694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50839817523956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46099090576172</t>
   </si>
   <si>
     <t xml:space="preserve">1.45926749706268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40410280227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37307250499725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33945763111115</t>
+    <t xml:space="preserve">1.40410268306732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37307262420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33945751190186</t>
   </si>
   <si>
     <t xml:space="preserve">1.41703236103058</t>
@@ -1841,13 +1841,13 @@
     <t xml:space="preserve">1.37221133708954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39375901222229</t>
+    <t xml:space="preserve">1.39375913143158</t>
   </si>
   <si>
     <t xml:space="preserve">1.39806962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37134897708893</t>
+    <t xml:space="preserve">1.37134921550751</t>
   </si>
   <si>
     <t xml:space="preserve">1.40927457809448</t>
@@ -1856,19 +1856,19 @@
     <t xml:space="preserve">1.41530776023865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44720017910004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46443831920624</t>
+    <t xml:space="preserve">1.44720005989075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46443843841553</t>
   </si>
   <si>
     <t xml:space="preserve">1.46702432632446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46788656711578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47391963005066</t>
+    <t xml:space="preserve">1.46788668632507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47391974925995</t>
   </si>
   <si>
     <t xml:space="preserve">1.4446142911911</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.4196172952652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43858027458191</t>
+    <t xml:space="preserve">1.43858003616333</t>
   </si>
   <si>
     <t xml:space="preserve">1.49977803230286</t>
@@ -1886,25 +1886,25 @@
     <t xml:space="preserve">1.48167753219604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57735288143158</t>
+    <t xml:space="preserve">1.57735276222229</t>
   </si>
   <si>
     <t xml:space="preserve">1.66268539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64803218841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6445848941803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62475979328156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60234975814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60062503814697</t>
+    <t xml:space="preserve">1.64803206920624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64458477497101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62475967407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6023496389389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60062515735626</t>
   </si>
   <si>
     <t xml:space="preserve">1.56270051002502</t>
@@ -1913,37 +1913,37 @@
     <t xml:space="preserve">1.51787936687469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46271467208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47995388507843</t>
+    <t xml:space="preserve">1.46271455287933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47995376586914</t>
   </si>
   <si>
     <t xml:space="preserve">1.43254697322845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42737507820129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37479627132416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41099834442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39289772510529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34462857246399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36445355415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35841941833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34031879901886</t>
+    <t xml:space="preserve">1.427374958992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37479639053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4109982252121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39289784431458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3446284532547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36445343494415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35841953754425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34031891822815</t>
   </si>
   <si>
     <t xml:space="preserve">1.35066258907318</t>
@@ -1952,16 +1952,16 @@
     <t xml:space="preserve">1.3523862361908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36100542545319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33342349529266</t>
+    <t xml:space="preserve">1.3610053062439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33342337608337</t>
   </si>
   <si>
     <t xml:space="preserve">1.3282516002655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29032623767853</t>
+    <t xml:space="preserve">1.29032599925995</t>
   </si>
   <si>
     <t xml:space="preserve">1.36962532997131</t>
@@ -1970,10 +1970,10 @@
     <t xml:space="preserve">1.35324847698212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36186754703522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39203548431396</t>
+    <t xml:space="preserve">1.36186766624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39203524589539</t>
   </si>
   <si>
     <t xml:space="preserve">1.38944947719574</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">1.3023933172226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30928874015808</t>
+    <t xml:space="preserve">1.30928885936737</t>
   </si>
   <si>
     <t xml:space="preserve">1.26102042198181</t>
@@ -2006,22 +2006,22 @@
     <t xml:space="preserve">1.27998328208923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31446063518524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3015319108963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36876308917999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38083028793335</t>
+    <t xml:space="preserve">1.31446075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30153203010559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3687629699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38083040714264</t>
   </si>
   <si>
     <t xml:space="preserve">1.47047245502472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52908444404602</t>
+    <t xml:space="preserve">1.52908432483673</t>
   </si>
   <si>
     <t xml:space="preserve">1.54373776912689</t>
@@ -2030,28 +2030,28 @@
     <t xml:space="preserve">1.55063307285309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55149447917938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59372985363007</t>
+    <t xml:space="preserve">1.55149459838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59372961521149</t>
   </si>
   <si>
     <t xml:space="preserve">1.61355471611023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58769643306732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59804022312164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53942716121674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46185255050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43771874904633</t>
+    <t xml:space="preserve">1.58769655227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59804010391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53942728042603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4618524312973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43771886825562</t>
   </si>
   <si>
     <t xml:space="preserve">1.4351327419281</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">1.46530067920685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4187558889389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39117395877838</t>
+    <t xml:space="preserve">1.41875600814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39117407798767</t>
   </si>
   <si>
     <t xml:space="preserve">1.37393498420715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3704868555069</t>
+    <t xml:space="preserve">1.37048673629761</t>
   </si>
   <si>
     <t xml:space="preserve">1.33859527111053</t>
@@ -2078,16 +2078,16 @@
     <t xml:space="preserve">1.34118115901947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34376704692841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37565851211548</t>
+    <t xml:space="preserve">1.3437671661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37565863132477</t>
   </si>
   <si>
     <t xml:space="preserve">1.30584156513214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28170680999756</t>
+    <t xml:space="preserve">1.28170692920685</t>
   </si>
   <si>
     <t xml:space="preserve">1.43427062034607</t>
@@ -2102,22 +2102,22 @@
     <t xml:space="preserve">1.43340921401978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42392766475677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49891650676727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53597986698151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54459893703461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54890847206116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49374485015869</t>
+    <t xml:space="preserve">1.42392778396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49891662597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5359799861908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5445990562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54890859127045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4937447309494</t>
   </si>
   <si>
     <t xml:space="preserve">1.44375193119049</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.59200596809387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50753581523895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43599426746368</t>
+    <t xml:space="preserve">1.50753569602966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43599414825439</t>
   </si>
   <si>
     <t xml:space="preserve">1.45495700836182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4532333612442</t>
+    <t xml:space="preserve">1.45323348045349</t>
   </si>
   <si>
     <t xml:space="preserve">1.47478199005127</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">1.37652087211609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36790084838867</t>
+    <t xml:space="preserve">1.36790072917938</t>
   </si>
   <si>
     <t xml:space="preserve">1.37996816635132</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">1.49115896224976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48081517219543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51270759105682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51874089241028</t>
+    <t xml:space="preserve">1.48081541061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51270771026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5187406539917</t>
   </si>
   <si>
     <t xml:space="preserve">1.5118453502655</t>
@@ -2177,25 +2177,25 @@
     <t xml:space="preserve">1.51960301399231</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5601145029068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51701712608337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54028952121735</t>
+    <t xml:space="preserve">1.56011462211609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51701724529266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54028940200806</t>
   </si>
   <si>
     <t xml:space="preserve">1.57131969928741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58942008018494</t>
+    <t xml:space="preserve">1.58941996097565</t>
   </si>
   <si>
     <t xml:space="preserve">1.58424830436707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64889442920685</t>
+    <t xml:space="preserve">1.64889430999756</t>
   </si>
   <si>
     <t xml:space="preserve">1.65751349925995</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">1.6368271112442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69802486896515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6437224149704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68423390388489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63510346412659</t>
+    <t xml:space="preserve">1.69802498817444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64372253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68423402309418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6351033449173</t>
   </si>
   <si>
     <t xml:space="preserve">1.61010658740997</t>
@@ -2222,13 +2222,13 @@
     <t xml:space="preserve">1.59114372730255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60838294029236</t>
+    <t xml:space="preserve">1.60838282108307</t>
   </si>
   <si>
     <t xml:space="preserve">1.61614060401917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61700201034546</t>
+    <t xml:space="preserve">1.61700189113617</t>
   </si>
   <si>
     <t xml:space="preserve">1.63768935203552</t>
@@ -2240,46 +2240,46 @@
     <t xml:space="preserve">1.79628622531891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76180863380432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77387607097626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78421866893768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76698064804077</t>
+    <t xml:space="preserve">1.76180875301361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77387619018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78421878814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76698052883148</t>
   </si>
   <si>
     <t xml:space="preserve">1.78766703605652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74629318714142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82214450836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80490517616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77559971809387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69112944602966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66009938716888</t>
+    <t xml:space="preserve">1.74629330635071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82214438915253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80490529537201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77559959888458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69112956523895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66009926795959</t>
   </si>
   <si>
     <t xml:space="preserve">1.73939788341522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72388315200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74112236499786</t>
+    <t xml:space="preserve">1.72388327121735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74112224578857</t>
   </si>
   <si>
     <t xml:space="preserve">1.72905504703522</t>
@@ -2291,58 +2291,58 @@
     <t xml:space="preserve">1.66871845722198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66699492931366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67647624015808</t>
+    <t xml:space="preserve">1.66699504852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67647635936737</t>
   </si>
   <si>
     <t xml:space="preserve">1.6618230342865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69285309314728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67561399936676</t>
+    <t xml:space="preserve">1.69285321235657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67561411857605</t>
   </si>
   <si>
     <t xml:space="preserve">1.66096174716949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6282080411911</t>
+    <t xml:space="preserve">1.62820792198181</t>
   </si>
   <si>
     <t xml:space="preserve">1.64199900627136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6118311882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64286029338837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64630854129791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63337898254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65492749214172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65148031711578</t>
+    <t xml:space="preserve">1.61183106899261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64286017417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64630842208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63337886333466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65492761135101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65148019790649</t>
   </si>
   <si>
     <t xml:space="preserve">1.63596475124359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59459185600281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59631562232971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62734568119049</t>
+    <t xml:space="preserve">1.5945919752121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.596315741539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6273455619812</t>
   </si>
   <si>
     <t xml:space="preserve">1.48340106010437</t>
@@ -2351,22 +2351,22 @@
     <t xml:space="preserve">1.54201304912567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53684234619141</t>
+    <t xml:space="preserve">1.53684222698212</t>
   </si>
   <si>
     <t xml:space="preserve">1.51443123817444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56097590923309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57476687431335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58080101013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59717774391174</t>
+    <t xml:space="preserve">1.56097602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57476699352264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58080089092255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59717786312103</t>
   </si>
   <si>
     <t xml:space="preserve">1.56528544425964</t>
@@ -2384,40 +2384,40 @@
     <t xml:space="preserve">1.27136421203613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21792304515839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20413219928741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17224073410034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06018769741058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962788820266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.801605105400085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74213171005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717997133731842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564140498638153</t>
+    <t xml:space="preserve">1.21792316436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20413208007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17224085330963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06018757820129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962788760662079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.801605045795441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.742131650447845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717997074127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564140558242798</t>
   </si>
   <si>
     <t xml:space="preserve">0.633096158504486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536126971244812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.618442952632904</t>
+    <t xml:space="preserve">0.536127030849457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.618442893028259</t>
   </si>
   <si>
     <t xml:space="preserve">0.696448445320129</t>
@@ -2426,13 +2426,13 @@
     <t xml:space="preserve">0.748164892196655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724030315876007</t>
+    <t xml:space="preserve">0.724030256271362</t>
   </si>
   <si>
     <t xml:space="preserve">0.657661437988281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.704206109046936</t>
+    <t xml:space="preserve">0.704206168651581</t>
   </si>
   <si>
     <t xml:space="preserve">0.702050924301147</t>
@@ -2441,16 +2441,16 @@
     <t xml:space="preserve">0.709808647632599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.680933773517609</t>
+    <t xml:space="preserve">0.680933833122253</t>
   </si>
   <si>
     <t xml:space="preserve">0.664125323295593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.68050217628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.663694679737091</t>
+    <t xml:space="preserve">0.680502235889435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.663694620132446</t>
   </si>
   <si>
     <t xml:space="preserve">0.64731776714325</t>
@@ -2462,13 +2462,13 @@
     <t xml:space="preserve">0.637836396694183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.681795179843903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.667142868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671452462673187</t>
+    <t xml:space="preserve">0.681795120239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667142808437347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.671452343463898</t>
   </si>
   <si>
     <t xml:space="preserve">0.65852278470993</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">0.670590102672577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660678088665009</t>
+    <t xml:space="preserve">0.660677969455719</t>
   </si>
   <si>
     <t xml:space="preserve">0.631803154945374</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">0.635250449180603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.629647970199585</t>
+    <t xml:space="preserve">0.62964791059494</t>
   </si>
   <si>
     <t xml:space="preserve">0.624907732009888</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">0.662832379341125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.661971032619476</t>
+    <t xml:space="preserve">0.661970973014832</t>
   </si>
   <si>
     <t xml:space="preserve">0.676624238491058</t>
@@ -2516,13 +2516,13 @@
     <t xml:space="preserve">0.660247385501862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669728815555573</t>
+    <t xml:space="preserve">0.669728755950928</t>
   </si>
   <si>
     <t xml:space="preserve">0.689552903175354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671020805835724</t>
+    <t xml:space="preserve">0.671020746231079</t>
   </si>
   <si>
     <t xml:space="preserve">0.646455526351929</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">0.64990371465683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.615857064723969</t>
+    <t xml:space="preserve">0.615857005119324</t>
   </si>
   <si>
     <t xml:space="preserve">0.593015372753143</t>
@@ -2546,37 +2546,37 @@
     <t xml:space="preserve">0.600342452526093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.592584729194641</t>
+    <t xml:space="preserve">0.592584788799286</t>
   </si>
   <si>
     <t xml:space="preserve">0.62102884054184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.650765955448151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.749457836151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814534604549408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787383437156677</t>
+    <t xml:space="preserve">0.650766015052795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.749457895755768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814534664154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787383496761322</t>
   </si>
   <si>
     <t xml:space="preserve">0.792985916137695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854183912277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861941576004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930035054683685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939516305923462</t>
+    <t xml:space="preserve">0.854183852672577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861941635608673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930034995079041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939516425132751</t>
   </si>
   <si>
     <t xml:space="preserve">1.03777754306793</t>
@@ -2585,37 +2585,37 @@
     <t xml:space="preserve">1.04294943809509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999852120876312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905900299549103</t>
+    <t xml:space="preserve">0.999852061271667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905900359153748</t>
   </si>
   <si>
     <t xml:space="preserve">0.954168677330017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955031037330627</t>
+    <t xml:space="preserve">0.955030977725983</t>
   </si>
   <si>
     <t xml:space="preserve">0.96796053647995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951583862304688</t>
+    <t xml:space="preserve">0.951583743095398</t>
   </si>
   <si>
     <t xml:space="preserve">0.920553624629974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922277271747589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924000918865204</t>
+    <t xml:space="preserve">0.922277331352234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924000799655914</t>
   </si>
   <si>
     <t xml:space="preserve">0.849874317646027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805915594100952</t>
+    <t xml:space="preserve">0.805915534496307</t>
   </si>
   <si>
     <t xml:space="preserve">0.851167321205139</t>
@@ -2624,19 +2624,19 @@
     <t xml:space="preserve">0.831773817539215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.810655832290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827894985675812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823153793811798</t>
+    <t xml:space="preserve">0.81065571308136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827894926071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823153734207153</t>
   </si>
   <si>
     <t xml:space="preserve">0.827463328838348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824016094207764</t>
+    <t xml:space="preserve">0.824016034603119</t>
   </si>
   <si>
     <t xml:space="preserve">0.801174402236938</t>
@@ -2645,22 +2645,22 @@
     <t xml:space="preserve">0.80720853805542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.790830671787262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.847719073295593</t>
+    <t xml:space="preserve">0.790830731391907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.847719013690948</t>
   </si>
   <si>
     <t xml:space="preserve">0.820999503135681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891247093677521</t>
+    <t xml:space="preserve">0.891247153282166</t>
   </si>
   <si>
     <t xml:space="preserve">0.88262802362442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871423006057739</t>
+    <t xml:space="preserve">0.871422946453094</t>
   </si>
   <si>
     <t xml:space="preserve">0.885213971138</t>
@@ -2669,28 +2669,28 @@
     <t xml:space="preserve">0.862802982330322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861510038375854</t>
+    <t xml:space="preserve">0.861510097980499</t>
   </si>
   <si>
     <t xml:space="preserve">0.865388929843903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.825739741325378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.798588514328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8149653673172</t>
+    <t xml:space="preserve">0.825739681720734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.798588454723358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814965307712555</t>
   </si>
   <si>
     <t xml:space="preserve">0.796434164047241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791692972183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.800312161445618</t>
+    <t xml:space="preserve">0.791693031787872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.800312101840973</t>
   </si>
   <si>
     <t xml:space="preserve">0.811948776245117</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">0.783073902130127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.790400087833405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826170384883881</t>
+    <t xml:space="preserve">0.79040002822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826170444488525</t>
   </si>
   <si>
     <t xml:space="preserve">0.835651755332947</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">0.795571863651276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.764541804790497</t>
+    <t xml:space="preserve">0.764541745185852</t>
   </si>
   <si>
     <t xml:space="preserve">0.740838766098022</t>
@@ -2729,28 +2729,28 @@
     <t xml:space="preserve">0.734804630279541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705929696559906</t>
+    <t xml:space="preserve">0.705929815769196</t>
   </si>
   <si>
     <t xml:space="preserve">0.712825238704681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71498042345047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.707653343677521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.695586979389191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.687829256057739</t>
+    <t xml:space="preserve">0.71498054265976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.707653403282166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.695587038993835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.687829315662384</t>
   </si>
   <si>
     <t xml:space="preserve">0.703775465488434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.709377944469452</t>
+    <t xml:space="preserve">0.709378004074097</t>
   </si>
   <si>
     <t xml:space="preserve">0.707222759723663</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">0.699464976787567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.716704070568085</t>
+    <t xml:space="preserve">0.716704189777374</t>
   </si>
   <si>
     <t xml:space="preserve">0.719720721244812</t>
@@ -2771,25 +2771,25 @@
     <t xml:space="preserve">0.720583021640778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744286060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743424713611603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.766265451908112</t>
+    <t xml:space="preserve">0.744286000728607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.743424654006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.766265392303467</t>
   </si>
   <si>
     <t xml:space="preserve">0.792123675346375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.741269528865814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73782217502594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806776881217957</t>
+    <t xml:space="preserve">0.741269469261169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.737822115421295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806776940822601</t>
   </si>
   <si>
     <t xml:space="preserve">0.781350255012512</t>
@@ -2804,19 +2804,19 @@
     <t xml:space="preserve">0.851597964763641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87745612859726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887799859046936</t>
+    <t xml:space="preserve">0.877456188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887799799442291</t>
   </si>
   <si>
     <t xml:space="preserve">0.874008893966675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88607531785965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870560646057129</t>
+    <t xml:space="preserve">0.886075377464294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870560705661774</t>
   </si>
   <si>
     <t xml:space="preserve">0.899867177009583</t>
@@ -2825,19 +2825,19 @@
     <t xml:space="preserve">0.879179894924164</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881765782833099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83866935968399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83349746465683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839099943637848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855046153068542</t>
+    <t xml:space="preserve">0.881765723228455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.838669300079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833497524261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839100003242493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855046093463898</t>
   </si>
   <si>
     <t xml:space="preserve">0.859355628490448</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">0.846857666969299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773592531681061</t>
+    <t xml:space="preserve">0.773592591285706</t>
   </si>
   <si>
     <t xml:space="preserve">0.733511686325073</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">0.675331294536591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.654213309288025</t>
+    <t xml:space="preserve">0.65421324968338</t>
   </si>
   <si>
     <t xml:space="preserve">0.66584986448288</t>
@@ -2864,16 +2864,16 @@
     <t xml:space="preserve">0.681364476680756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.706360459327698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.711101651191711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.777039766311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809362888336182</t>
+    <t xml:space="preserve">0.706360399723053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.711101591587067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.777039706707001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.809362828731537</t>
   </si>
   <si>
     <t xml:space="preserve">0.812811017036438</t>
@@ -2882,16 +2882,16 @@
     <t xml:space="preserve">0.828756272792816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883490324020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872284352779388</t>
+    <t xml:space="preserve">0.883490264415741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872284412384033</t>
   </si>
   <si>
     <t xml:space="preserve">0.905038058757782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92917275428772</t>
+    <t xml:space="preserve">0.929172694683075</t>
   </si>
   <si>
     <t xml:space="preserve">0.917967677116394</t>
@@ -2900,34 +2900,34 @@
     <t xml:space="preserve">0.915381729602814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918830037117004</t>
+    <t xml:space="preserve">0.91882997751236</t>
   </si>
   <si>
     <t xml:space="preserve">0.909348547458649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933482348918915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921414911746979</t>
+    <t xml:space="preserve">0.93348228931427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921414971351624</t>
   </si>
   <si>
     <t xml:space="preserve">0.930896401405334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910209953784943</t>
+    <t xml:space="preserve">0.910209894180298</t>
   </si>
   <si>
     <t xml:space="preserve">0.895556688308716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867974877357483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866251170635223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868837058544159</t>
+    <t xml:space="preserve">0.867974817752838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866251111030579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868837118148804</t>
   </si>
   <si>
     <t xml:space="preserve">0.867113411426544</t>
@@ -2939,43 +2939,43 @@
     <t xml:space="preserve">0.934344530105591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876593947410583</t>
+    <t xml:space="preserve">0.876593887805939</t>
   </si>
   <si>
     <t xml:space="preserve">0.900728523731232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935206890106201</t>
+    <t xml:space="preserve">0.935206949710846</t>
   </si>
   <si>
     <t xml:space="preserve">0.973993837833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984337389469147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987784743309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996404707431793</t>
+    <t xml:space="preserve">0.984337449073792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987784802913666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996404826641083</t>
   </si>
   <si>
     <t xml:space="preserve">1.00933337211609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992094278335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964512288570404</t>
+    <t xml:space="preserve">0.992094337940216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964512348175049</t>
   </si>
   <si>
     <t xml:space="preserve">0.93175858259201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902452170848846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880042135715485</t>
+    <t xml:space="preserve">0.902452111244202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88004207611084</t>
   </si>
   <si>
     <t xml:space="preserve">0.894695281982422</t>
@@ -2984,13 +2984,13 @@
     <t xml:space="preserve">0.906762659549713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936068296432495</t>
+    <t xml:space="preserve">0.93606823682785</t>
   </si>
   <si>
     <t xml:space="preserve">0.961065113544464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.950721383094788</t>
+    <t xml:space="preserve">0.950721442699432</t>
   </si>
   <si>
     <t xml:space="preserve">0.956754684448242</t>
@@ -2999,49 +2999,49 @@
     <t xml:space="preserve">0.942102313041687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977441966533661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928310513496399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959340512752533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968821883201599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967098295688629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9722700715065</t>
+    <t xml:space="preserve">0.977441906929016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928310453891754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959340572357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968822002410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967098236083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972270131111145</t>
   </si>
   <si>
     <t xml:space="preserve">0.971407890319824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976579785346985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965374708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00674748420715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18344569206238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2274044752121</t>
+    <t xml:space="preserve">0.97657972574234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965374648571014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00674736499786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18344581127167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22740435600281</t>
   </si>
   <si>
     <t xml:space="preserve">1.2110276222229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19723677635193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19465065002441</t>
+    <t xml:space="preserve">1.19723665714264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1946507692337</t>
   </si>
   <si>
     <t xml:space="preserve">1.20930409431458</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">1.1446578502655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14638233184814</t>
+    <t xml:space="preserve">1.14638245105743</t>
   </si>
   <si>
     <t xml:space="preserve">1.14207279682159</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">1.18172216415405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15069210529327</t>
+    <t xml:space="preserve">1.15069198608398</t>
   </si>
   <si>
     <t xml:space="preserve">1.14293420314789</t>
@@ -3092,49 +3092,49 @@
     <t xml:space="preserve">1.48253965377808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4859870672226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4515095949173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45668160915375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44202840328217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48426342010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52391254901886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50581216812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48684942722321</t>
+    <t xml:space="preserve">1.48598694801331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45150971412659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45668148994446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44202852249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48426330089569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52391266822815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50581204891205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48684930801392</t>
   </si>
   <si>
     <t xml:space="preserve">1.47909164428711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52822208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45840525627136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47133386135101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63855063915253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59976375102997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6781998872757</t>
+    <t xml:space="preserve">1.5282222032547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45840513706207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47133374214172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63855051994324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59976363182068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67820000648499</t>
   </si>
   <si>
     <t xml:space="preserve">1.66354763507843</t>
@@ -3149,25 +3149,25 @@
     <t xml:space="preserve">1.67906212806702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66527104377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50322616100311</t>
+    <t xml:space="preserve">1.66527128219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5032262802124</t>
   </si>
   <si>
     <t xml:space="preserve">1.44289064407349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3860023021698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39979326725006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40237891674042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40841221809387</t>
+    <t xml:space="preserve">1.38600218296051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39979314804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40237903594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40841233730316</t>
   </si>
   <si>
     <t xml:space="preserve">1.44749176502228</t>
@@ -3176,22 +3176,22 @@
     <t xml:space="preserve">1.48041009902954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4575502872467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43834781646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43651914596558</t>
+    <t xml:space="preserve">1.45755016803741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43834793567657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43651902675629</t>
   </si>
   <si>
     <t xml:space="preserve">1.37616872787476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49412608146667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53801727294922</t>
+    <t xml:space="preserve">1.49412596225739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53801715373993</t>
   </si>
   <si>
     <t xml:space="preserve">1.56636357307434</t>
@@ -3203,10 +3203,10 @@
     <t xml:space="preserve">1.63494336605072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57733631134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59836745262146</t>
+    <t xml:space="preserve">1.57733643054962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59836757183075</t>
   </si>
   <si>
     <t xml:space="preserve">1.59379553794861</t>
@@ -3215,31 +3215,31 @@
     <t xml:space="preserve">1.58739459514618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6084258556366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62671387195587</t>
+    <t xml:space="preserve">1.60842573642731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62671375274658</t>
   </si>
   <si>
     <t xml:space="preserve">1.66603291034698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65780341625214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61939871311188</t>
+    <t xml:space="preserve">1.65780329704285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61939859390259</t>
   </si>
   <si>
     <t xml:space="preserve">1.63951539993286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65506017208099</t>
+    <t xml:space="preserve">1.6550600528717</t>
   </si>
   <si>
     <t xml:space="preserve">1.68797838687897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67700564861298</t>
+    <t xml:space="preserve">1.67700576782227</t>
   </si>
   <si>
     <t xml:space="preserve">1.66420423984528</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">1.54076039791107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5453325510025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57367873191833</t>
+    <t xml:space="preserve">1.54533243179321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57367861270905</t>
   </si>
   <si>
     <t xml:space="preserve">1.55539071559906</t>
@@ -3278,61 +3278,61 @@
     <t xml:space="preserve">1.6029394865036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69072163105011</t>
+    <t xml:space="preserve">1.6907217502594</t>
   </si>
   <si>
     <t xml:space="preserve">1.71632480621338</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61391222476959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56544923782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53618836402893</t>
+    <t xml:space="preserve">1.61391234397888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5654491186142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53618848323822</t>
   </si>
   <si>
     <t xml:space="preserve">1.51241409778595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46943736076355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49321162700653</t>
+    <t xml:space="preserve">1.46943747997284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49321186542511</t>
   </si>
   <si>
     <t xml:space="preserve">1.5133284330368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66969060897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88731718063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90560531616211</t>
+    <t xml:space="preserve">1.66969048976898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88731729984283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90560519695282</t>
   </si>
   <si>
     <t xml:space="preserve">1.96595537662506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95681154727936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04642224311829</t>
+    <t xml:space="preserve">1.95681142807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04642248153687</t>
   </si>
   <si>
     <t xml:space="preserve">2.1012864112854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15797877311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24027466773987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02264785766602</t>
+    <t xml:space="preserve">2.15797924995422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24027490615845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02264809608459</t>
   </si>
   <si>
     <t xml:space="preserve">1.94949626922607</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">2.17626714706421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14151954650879</t>
+    <t xml:space="preserve">2.14151978492737</t>
   </si>
   <si>
     <t xml:space="preserve">2.17260932922363</t>
@@ -3359,31 +3359,31 @@
     <t xml:space="preserve">2.20552778244019</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19455504417419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24759006500244</t>
+    <t xml:space="preserve">2.19455528259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24758982658386</t>
   </si>
   <si>
     <t xml:space="preserve">2.23295950889587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24576115608215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25124740600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31525564193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24941897392273</t>
+    <t xml:space="preserve">2.24576139450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25124764442444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31525540351868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24941873550415</t>
   </si>
   <si>
     <t xml:space="preserve">2.19089722633362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21467137336731</t>
+    <t xml:space="preserve">2.21467161178589</t>
   </si>
   <si>
     <t xml:space="preserve">2.26770687103271</t>
@@ -3392,40 +3392,40 @@
     <t xml:space="preserve">2.37926316261292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35914635658264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39389371871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42315435409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49447703361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52373838424683</t>
+    <t xml:space="preserve">2.35914659500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3938934803009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42315459251404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49447751045227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52373814582825</t>
   </si>
   <si>
     <t xml:space="preserve">2.45973038673401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54202604293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50179243087769</t>
+    <t xml:space="preserve">2.54202580451965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50179290771484</t>
   </si>
   <si>
     <t xml:space="preserve">2.5529990196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59323239326477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58957481384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50910758972168</t>
+    <t xml:space="preserve">2.59323215484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58957457542419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50910782814026</t>
   </si>
   <si>
     <t xml:space="preserve">2.54934144020081</t>
@@ -3437,19 +3437,19 @@
     <t xml:space="preserve">2.41401052474976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4542441368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28050827980042</t>
+    <t xml:space="preserve">2.45424389839172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28050804138184</t>
   </si>
   <si>
     <t xml:space="preserve">2.46521663665771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55848526954651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57128667831421</t>
+    <t xml:space="preserve">2.55848550796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57128691673279</t>
   </si>
   <si>
     <t xml:space="preserve">2.6426100730896</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">2.73770713806152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67918562889099</t>
+    <t xml:space="preserve">2.67918586730957</t>
   </si>
   <si>
     <t xml:space="preserve">2.60420513153076</t>
@@ -3476,13 +3476,13 @@
     <t xml:space="preserve">2.40669512748718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39206457138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37011933326721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35548901557922</t>
+    <t xml:space="preserve">2.39206480979919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37011909484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35548877716064</t>
   </si>
   <si>
     <t xml:space="preserve">2.34817385673523</t>
@@ -3494,16 +3494,16 @@
     <t xml:space="preserve">2.38292074203491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35183167457581</t>
+    <t xml:space="preserve">2.35183119773865</t>
   </si>
   <si>
     <t xml:space="preserve">2.36097526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34085869789124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44144225120544</t>
+    <t xml:space="preserve">2.34085845947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44144248962402</t>
   </si>
   <si>
     <t xml:space="preserve">2.38109230995178</t>
@@ -3515,13 +3515,13 @@
     <t xml:space="preserve">2.21832942962646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22930216789246</t>
+    <t xml:space="preserve">2.22930192947388</t>
   </si>
   <si>
     <t xml:space="preserve">2.24393224716187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20735645294189</t>
+    <t xml:space="preserve">2.20735621452332</t>
   </si>
   <si>
     <t xml:space="preserve">2.22564435005188</t>
@@ -3533,13 +3533,13 @@
     <t xml:space="preserve">2.23844575881958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26587820053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2036988735199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46887421607971</t>
+    <t xml:space="preserve">2.26587796211243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20369911193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46887445449829</t>
   </si>
   <si>
     <t xml:space="preserve">2.47070288658142</t>
@@ -3563,19 +3563,19 @@
     <t xml:space="preserve">2.07751202583313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14700627326965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05556607246399</t>
+    <t xml:space="preserve">2.14700603485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05556654930115</t>
   </si>
   <si>
     <t xml:space="preserve">2.09945750236511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09397125244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99338746070862</t>
+    <t xml:space="preserve">2.09397101402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99338734149933</t>
   </si>
   <si>
     <t xml:space="preserve">2.07934069633484</t>
@@ -3587,25 +3587,25 @@
     <t xml:space="preserve">1.92755079269409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96229779720306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86354291439056</t>
+    <t xml:space="preserve">1.96229767799377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86354303359985</t>
   </si>
   <si>
     <t xml:space="preserve">1.69803690910339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61299800872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61848437786102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7336984872818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63037145137787</t>
+    <t xml:space="preserve">1.61299788951874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61848425865173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73369836807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63037133216858</t>
   </si>
   <si>
     <t xml:space="preserve">1.64591610431671</t>
@@ -3617,58 +3617,58 @@
     <t xml:space="preserve">1.84342610836029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81142210960388</t>
+    <t xml:space="preserve">1.81142222881317</t>
   </si>
   <si>
     <t xml:space="preserve">1.79221987724304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78947675228119</t>
+    <t xml:space="preserve">1.7894766330719</t>
   </si>
   <si>
     <t xml:space="preserve">1.76113033294678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70352339744568</t>
+    <t xml:space="preserve">1.70352327823639</t>
   </si>
   <si>
     <t xml:space="preserve">1.71906805038452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73278379440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78307592868805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92389321327209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89280343055725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80136394500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84159719944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81873726844788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78399014472961</t>
+    <t xml:space="preserve">1.73278391361237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78307580947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92389309406281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89280354976654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80136382579803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84159731864929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81873738765717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7839902639389</t>
   </si>
   <si>
     <t xml:space="preserve">1.72363996505737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69346475601196</t>
+    <t xml:space="preserve">1.69346487522125</t>
   </si>
   <si>
     <t xml:space="preserve">1.65231704711914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67151916027069</t>
+    <t xml:space="preserve">1.67151927947998</t>
   </si>
   <si>
     <t xml:space="preserve">1.76478791236877</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">1.73186957836151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68157756328583</t>
+    <t xml:space="preserve">1.68157768249512</t>
   </si>
   <si>
     <t xml:space="preserve">1.69163608551025</t>
@@ -3689,10 +3689,10 @@
     <t xml:space="preserve">1.68249213695526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66054666042328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67243373394012</t>
+    <t xml:space="preserve">1.66054654121399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67243385314941</t>
   </si>
   <si>
     <t xml:space="preserve">1.60019636154175</t>
@@ -3713,10 +3713,10 @@
     <t xml:space="preserve">1.64042973518372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69712257385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65871775150299</t>
+    <t xml:space="preserve">1.69712221622467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6587176322937</t>
   </si>
   <si>
     <t xml:space="preserve">1.651402592659</t>
@@ -3725,28 +3725,28 @@
     <t xml:space="preserve">1.57459318637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57002127170563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68340635299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6998655796051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77758944034576</t>
+    <t xml:space="preserve">1.57002115249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68340647220612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69986581802368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77758955955505</t>
   </si>
   <si>
     <t xml:space="preserve">1.7446711063385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77118873596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83793973922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90377652645111</t>
+    <t xml:space="preserve">1.77118861675262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83793962001801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90377628803253</t>
   </si>
   <si>
     <t xml:space="preserve">1.86537158489227</t>
@@ -3755,19 +3755,19 @@
     <t xml:space="preserve">1.85622763633728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85257017612457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71083855628967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50235569477081</t>
+    <t xml:space="preserve">1.85257005691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71083843708038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5023558139801</t>
   </si>
   <si>
     <t xml:space="preserve">1.46395099163055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51178014278412</t>
+    <t xml:space="preserve">1.51178026199341</t>
   </si>
   <si>
     <t xml:space="preserve">1.52397203445435</t>
@@ -3779,25 +3779,25 @@
     <t xml:space="preserve">1.50427758693695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52303421497345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48270761966705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52115857601166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52866113185883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45926177501678</t>
+    <t xml:space="preserve">1.52303409576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48270738124847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52115845680237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52866125106812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45926189422607</t>
   </si>
   <si>
     <t xml:space="preserve">1.41612160205841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42268633842468</t>
+    <t xml:space="preserve">1.42268645763397</t>
   </si>
   <si>
     <t xml:space="preserve">1.34297108650208</t>
@@ -3815,31 +3815,31 @@
     <t xml:space="preserve">1.43018913269043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3570384979248</t>
+    <t xml:space="preserve">1.35703861713409</t>
   </si>
   <si>
     <t xml:space="preserve">1.32515227794647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32046318054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35047376155853</t>
+    <t xml:space="preserve">1.3204630613327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35047364234924</t>
   </si>
   <si>
     <t xml:space="preserve">1.36923027038574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44238090515137</t>
+    <t xml:space="preserve">1.44238078594208</t>
   </si>
   <si>
     <t xml:space="preserve">1.41518378257751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40111637115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40017855167389</t>
+    <t xml:space="preserve">1.4011162519455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40017867088318</t>
   </si>
   <si>
     <t xml:space="preserve">1.3382819890976</t>
@@ -3848,10 +3848,10 @@
     <t xml:space="preserve">1.35516285896301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37579500675201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46488881111145</t>
+    <t xml:space="preserve">1.3757951259613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46488893032074</t>
   </si>
   <si>
     <t xml:space="preserve">1.47239148616791</t>
@@ -3860,25 +3860,25 @@
     <t xml:space="preserve">1.44613230228424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49021017551422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51646947860718</t>
+    <t xml:space="preserve">1.49021005630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5164692401886</t>
   </si>
   <si>
     <t xml:space="preserve">1.50615310668945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53522598743439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54272854328156</t>
+    <t xml:space="preserve">1.5352258682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54272842407227</t>
   </si>
   <si>
     <t xml:space="preserve">1.53616380691528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56429874897003</t>
+    <t xml:space="preserve">1.56429862976074</t>
   </si>
   <si>
     <t xml:space="preserve">1.5530446767807</t>
@@ -3896,10 +3896,13 @@
     <t xml:space="preserve">1.47801840305328</t>
   </si>
   <si>
+    <t xml:space="preserve">1.46395087242126</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.45644819736481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38986253738403</t>
+    <t xml:space="preserve">1.38986241817474</t>
   </si>
   <si>
     <t xml:space="preserve">1.38611125946045</t>
@@ -3908,7 +3911,7 @@
     <t xml:space="preserve">1.4170595407486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41987299919128</t>
+    <t xml:space="preserve">1.41987311840057</t>
   </si>
   <si>
     <t xml:space="preserve">1.40580546855927</t>
@@ -3920,7 +3923,7 @@
     <t xml:space="preserve">1.37860858440399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3954895734787</t>
+    <t xml:space="preserve">1.39548945426941</t>
   </si>
   <si>
     <t xml:space="preserve">1.41330814361572</t>
@@ -3932,10 +3935,10 @@
     <t xml:space="preserve">1.45832395553589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48083186149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46207523345947</t>
+    <t xml:space="preserve">1.48083198070526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46207535266876</t>
   </si>
   <si>
     <t xml:space="preserve">1.51553165912628</t>
@@ -3953,7 +3956,7 @@
     <t xml:space="preserve">1.73967266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63463592529297</t>
+    <t xml:space="preserve">1.63463580608368</t>
   </si>
   <si>
     <t xml:space="preserve">1.6290088891983</t>
@@ -3971,7 +3974,7 @@
     <t xml:space="preserve">1.60743880271912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60181164741516</t>
+    <t xml:space="preserve">1.60181176662445</t>
   </si>
   <si>
     <t xml:space="preserve">1.70215952396393</t>
@@ -3986,13 +3989,13 @@
     <t xml:space="preserve">1.5718013048172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61025238037109</t>
+    <t xml:space="preserve">1.6102522611618</t>
   </si>
   <si>
     <t xml:space="preserve">1.58211743831635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64588963985443</t>
+    <t xml:space="preserve">1.64588975906372</t>
   </si>
   <si>
     <t xml:space="preserve">1.64495182037354</t>
@@ -4004,7 +4007,7 @@
     <t xml:space="preserve">1.71060001850128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71153783798218</t>
+    <t xml:space="preserve">1.71153771877289</t>
   </si>
   <si>
     <t xml:space="preserve">1.71247565746307</t>
@@ -4013,7 +4016,7 @@
     <t xml:space="preserve">1.72372961044312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81938815116882</t>
+    <t xml:space="preserve">1.81938803195953</t>
   </si>
   <si>
     <t xml:space="preserve">1.84939873218536</t>
@@ -4022,16 +4025,16 @@
     <t xml:space="preserve">1.84564733505249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78562641143799</t>
+    <t xml:space="preserve">1.7856262922287</t>
   </si>
   <si>
     <t xml:space="preserve">1.77249670028687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78187489509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82782852649689</t>
+    <t xml:space="preserve">1.78187501430511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82782864570618</t>
   </si>
   <si>
     <t xml:space="preserve">1.78656411170959</t>
@@ -4043,25 +4046,25 @@
     <t xml:space="preserve">1.84470951557159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90754401683807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92630052566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93192744255066</t>
+    <t xml:space="preserve">1.90754389762878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92630064487457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93192756175995</t>
   </si>
   <si>
     <t xml:space="preserve">1.9600625038147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9957001209259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00695395469666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96756517887115</t>
+    <t xml:space="preserve">1.99569988250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00695371627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96756505966187</t>
   </si>
   <si>
     <t xml:space="preserve">2.01633214950562</t>
@@ -4070,28 +4073,28 @@
     <t xml:space="preserve">2.03321313858032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06885075569153</t>
+    <t xml:space="preserve">2.06885051727295</t>
   </si>
   <si>
     <t xml:space="preserve">2.05947256088257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03508901596069</t>
+    <t xml:space="preserve">2.03508877754211</t>
   </si>
   <si>
     <t xml:space="preserve">2.03696441650391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05384540557861</t>
+    <t xml:space="preserve">2.05384516716003</t>
   </si>
   <si>
     <t xml:space="preserve">2.11011505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20202231407166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22265458106995</t>
+    <t xml:space="preserve">2.20202207565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22265434265137</t>
   </si>
   <si>
     <t xml:space="preserve">2.19076824188232</t>
@@ -4103,7 +4106,7 @@
     <t xml:space="preserve">2.20577359199524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23765993118286</t>
+    <t xml:space="preserve">2.23765969276428</t>
   </si>
   <si>
     <t xml:space="preserve">2.17763876914978</t>
@@ -4112,10 +4115,10 @@
     <t xml:space="preserve">2.17013597488403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16826057434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03884029388428</t>
+    <t xml:space="preserve">2.16826033592224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0388400554657</t>
   </si>
   <si>
     <t xml:space="preserve">2.08573150634766</t>
@@ -4127,22 +4130,22 @@
     <t xml:space="preserve">1.95068407058716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97319221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98819720745087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9975757598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00132703781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96193826198578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97506773471832</t>
+    <t xml:space="preserve">1.97319209575653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98819732666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99757599830627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0013267993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96193814277649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97506761550903</t>
   </si>
   <si>
     <t xml:space="preserve">2.02571058273315</t>
@@ -4151,10 +4154,10 @@
     <t xml:space="preserve">2.03133749961853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09698557853699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12512063980103</t>
+    <t xml:space="preserve">2.09698534011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12512040138245</t>
   </si>
   <si>
     <t xml:space="preserve">2.1720118522644</t>
@@ -4163,16 +4166,16 @@
     <t xml:space="preserve">2.1963951587677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19451951980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16638469696045</t>
+    <t xml:space="preserve">2.19451975822449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16638493537903</t>
   </si>
   <si>
     <t xml:space="preserve">2.08385586738586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13825011253357</t>
+    <t xml:space="preserve">2.13824987411499</t>
   </si>
   <si>
     <t xml:space="preserve">2.12887167930603</t>
@@ -4193,7 +4196,7 @@
     <t xml:space="preserve">2.06509923934937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34644794464111</t>
+    <t xml:space="preserve">2.34644818305969</t>
   </si>
   <si>
     <t xml:space="preserve">2.32018876075745</t>
@@ -4202,16 +4205,16 @@
     <t xml:space="preserve">2.3914635181427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38208532333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40646910667419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44773316383362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49274945259094</t>
+    <t xml:space="preserve">2.38208556175232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40646886825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4477334022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49274921417236</t>
   </si>
   <si>
     <t xml:space="preserve">2.45148491859436</t>
@@ -4220,7 +4223,7 @@
     <t xml:space="preserve">2.4852466583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47399282455444</t>
+    <t xml:space="preserve">2.47399258613586</t>
   </si>
   <si>
     <t xml:space="preserve">2.4646143913269</t>
@@ -4238,25 +4241,25 @@
     <t xml:space="preserve">2.38020992279053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38958811759949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4102201461792</t>
+    <t xml:space="preserve">2.38958835601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41022038459778</t>
   </si>
   <si>
     <t xml:space="preserve">2.41397166252136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45711159706116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48337078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48149514198303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4664900302887</t>
+    <t xml:space="preserve">2.45711183547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4833710193634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48149538040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46649026870728</t>
   </si>
   <si>
     <t xml:space="preserve">2.45523619651794</t>
@@ -4271,7 +4274,7 @@
     <t xml:space="preserve">2.25454068183899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30330777168274</t>
+    <t xml:space="preserve">2.30330801010132</t>
   </si>
   <si>
     <t xml:space="preserve">2.2526650428772</t>
@@ -4289,7 +4292,7 @@
     <t xml:space="preserve">2.23953557014465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20764923095703</t>
+    <t xml:space="preserve">2.20764946937561</t>
   </si>
   <si>
     <t xml:space="preserve">2.21515202522278</t>
@@ -4298,7 +4301,7 @@
     <t xml:space="preserve">2.21702766418457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26579451560974</t>
+    <t xml:space="preserve">2.26579475402832</t>
   </si>
   <si>
     <t xml:space="preserve">2.26016783714294</t>
@@ -4313,28 +4316,28 @@
     <t xml:space="preserve">2.31456184387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32394027709961</t>
+    <t xml:space="preserve">2.32394003868103</t>
   </si>
   <si>
     <t xml:space="preserve">2.37458300590515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35582637786865</t>
+    <t xml:space="preserve">2.35582661628723</t>
   </si>
   <si>
     <t xml:space="preserve">2.41584730148315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55839705467224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52651119232178</t>
+    <t xml:space="preserve">2.55839729309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5265109539032</t>
   </si>
   <si>
     <t xml:space="preserve">2.56777548789978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54714322090149</t>
+    <t xml:space="preserve">2.54714345932007</t>
   </si>
   <si>
     <t xml:space="preserve">2.55089473724365</t>
@@ -4346,7 +4349,7 @@
     <t xml:space="preserve">2.53588938713074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51150608062744</t>
+    <t xml:space="preserve">2.51150584220886</t>
   </si>
   <si>
     <t xml:space="preserve">2.59403491020203</t>
@@ -4361,7 +4364,7 @@
     <t xml:space="preserve">2.54901885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47774386405945</t>
+    <t xml:space="preserve">2.47774410247803</t>
   </si>
   <si>
     <t xml:space="preserve">2.4421067237854</t>
@@ -4385,28 +4388,28 @@
     <t xml:space="preserve">2.29768085479736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37645840644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39896678924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4045934677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3727068901062</t>
+    <t xml:space="preserve">2.37645864486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39896655082703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40459322929382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37270712852478</t>
   </si>
   <si>
     <t xml:space="preserve">2.49650049209595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50963020324707</t>
+    <t xml:space="preserve">2.50963044166565</t>
   </si>
   <si>
     <t xml:space="preserve">2.49837636947632</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51713299751282</t>
+    <t xml:space="preserve">2.51713275909424</t>
   </si>
   <si>
     <t xml:space="preserve">2.32792448997498</t>
@@ -4430,19 +4433,19 @@
     <t xml:space="preserve">2.38559436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44134116172791</t>
+    <t xml:space="preserve">2.44134140014648</t>
   </si>
   <si>
     <t xml:space="preserve">2.47786545753479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43941903114319</t>
+    <t xml:space="preserve">2.43941926956177</t>
   </si>
   <si>
     <t xml:space="preserve">2.37021589279175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40097260475159</t>
+    <t xml:space="preserve">2.40097284317017</t>
   </si>
   <si>
     <t xml:space="preserve">2.4163510799408</t>
@@ -4454,10 +4457,10 @@
     <t xml:space="preserve">2.4451858997345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4432635307312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40289497375488</t>
+    <t xml:space="preserve">2.44326376914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40289521217346</t>
   </si>
   <si>
     <t xml:space="preserve">2.37213802337646</t>
@@ -4466,7 +4469,7 @@
     <t xml:space="preserve">2.35868167877197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35291457176208</t>
+    <t xml:space="preserve">2.35291481018066</t>
   </si>
   <si>
     <t xml:space="preserve">2.36829352378845</t>
@@ -4478,13 +4481,13 @@
     <t xml:space="preserve">2.36637091636658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40481734275818</t>
+    <t xml:space="preserve">2.40481758117676</t>
   </si>
   <si>
     <t xml:space="preserve">2.38751649856567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36252641677856</t>
+    <t xml:space="preserve">2.36252617835999</t>
   </si>
   <si>
     <t xml:space="preserve">2.29524540901184</t>
@@ -4511,7 +4514,7 @@
     <t xml:space="preserve">2.17606163024902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15683841705322</t>
+    <t xml:space="preserve">2.1568386554718</t>
   </si>
   <si>
     <t xml:space="preserve">2.12415933609009</t>
@@ -4535,13 +4538,13 @@
     <t xml:space="preserve">2.106858253479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15876078605652</t>
+    <t xml:space="preserve">2.1587610244751</t>
   </si>
   <si>
     <t xml:space="preserve">2.22796440124512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22219729423523</t>
+    <t xml:space="preserve">2.22219753265381</t>
   </si>
   <si>
     <t xml:space="preserve">2.20681881904602</t>
@@ -4550,7 +4553,7 @@
     <t xml:space="preserve">2.18951821327209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13569307327271</t>
+    <t xml:space="preserve">2.13569283485413</t>
   </si>
   <si>
     <t xml:space="preserve">2.08763527870178</t>
@@ -4562,13 +4565,13 @@
     <t xml:space="preserve">2.06264495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07610130310059</t>
+    <t xml:space="preserve">2.07610154151917</t>
   </si>
   <si>
     <t xml:space="preserve">2.06456732749939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05687808990479</t>
+    <t xml:space="preserve">2.05687832832336</t>
   </si>
   <si>
     <t xml:space="preserve">2.03765487670898</t>
@@ -4577,13 +4580,13 @@
     <t xml:space="preserve">2.01843166351318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98767483234406</t>
+    <t xml:space="preserve">1.98767471313477</t>
   </si>
   <si>
     <t xml:space="preserve">1.92423844337463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8300449848175</t>
+    <t xml:space="preserve">1.83004486560822</t>
   </si>
   <si>
     <t xml:space="preserve">1.83773410320282</t>
@@ -4592,7 +4595,7 @@
     <t xml:space="preserve">1.84157872200012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86080181598663</t>
+    <t xml:space="preserve">1.86080193519592</t>
   </si>
   <si>
     <t xml:space="preserve">1.89155900478363</t>
@@ -4607,22 +4610,22 @@
     <t xml:space="preserve">1.76564729213715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7627637386322</t>
+    <t xml:space="preserve">1.76276385784149</t>
   </si>
   <si>
     <t xml:space="preserve">1.77429759502411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72527849674225</t>
+    <t xml:space="preserve">1.72527861595154</t>
   </si>
   <si>
     <t xml:space="preserve">1.75411343574524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71951174736023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66760921478271</t>
+    <t xml:space="preserve">1.71951162815094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66760909557343</t>
   </si>
   <si>
     <t xml:space="preserve">1.68202650547028</t>
@@ -4631,16 +4634,16 @@
     <t xml:space="preserve">1.68587100505829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68779349327087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70028865337372</t>
+    <t xml:space="preserve">1.68779361248016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70028853416443</t>
   </si>
   <si>
     <t xml:space="preserve">1.69932734966278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58014380931854</t>
+    <t xml:space="preserve">1.58014392852783</t>
   </si>
   <si>
     <t xml:space="preserve">1.59936702251434</t>
@@ -4676,25 +4679,25 @@
     <t xml:space="preserve">1.66088104248047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67145371437073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68010413646698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6483861207962</t>
+    <t xml:space="preserve">1.67145383358002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68010425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64838600158691</t>
   </si>
   <si>
     <t xml:space="preserve">1.66376447677612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67241489887238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73104548454285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69356048107147</t>
+    <t xml:space="preserve">1.67241501808167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73104560375214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69356036186218</t>
   </si>
   <si>
     <t xml:space="preserve">1.70990014076233</t>
@@ -4712,7 +4715,7 @@
     <t xml:space="preserve">1.72143399715424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7300843000412</t>
+    <t xml:space="preserve">1.73008441925049</t>
   </si>
   <si>
     <t xml:space="preserve">1.74450182914734</t>
@@ -4721,19 +4724,19 @@
     <t xml:space="preserve">1.78294813632965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90117061138153</t>
+    <t xml:space="preserve">1.90117049217224</t>
   </si>
   <si>
     <t xml:space="preserve">1.90693747997284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96460676193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99151933193207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03957724571228</t>
+    <t xml:space="preserve">1.96460688114166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99151945114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03957748413086</t>
   </si>
   <si>
     <t xml:space="preserve">2.02419877052307</t>
@@ -4745,10 +4748,10 @@
     <t xml:space="preserve">1.99728643894196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97037398815155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97229635715485</t>
+    <t xml:space="preserve">1.97037386894226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97229623794556</t>
   </si>
   <si>
     <t xml:space="preserve">1.94922852516174</t>
@@ -4760,10 +4763,10 @@
     <t xml:space="preserve">2.16452789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16068291664124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1779842376709</t>
+    <t xml:space="preserve">2.16068315505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17798399925232</t>
   </si>
   <si>
     <t xml:space="preserve">2.15299391746521</t>
@@ -4772,40 +4775,40 @@
     <t xml:space="preserve">2.1875958442688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18182873725891</t>
+    <t xml:space="preserve">2.18182849884033</t>
   </si>
   <si>
     <t xml:space="preserve">2.16837239265442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10109162330627</t>
+    <t xml:space="preserve">2.1010913848877</t>
   </si>
   <si>
     <t xml:space="preserve">2.06648969650269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04342174530029</t>
+    <t xml:space="preserve">2.04342198371887</t>
   </si>
   <si>
     <t xml:space="preserve">2.07417893409729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0799458026886</t>
+    <t xml:space="preserve">2.07994604110718</t>
   </si>
   <si>
     <t xml:space="preserve">2.04534435272217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96076226234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97806322574615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95307302474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98959696292877</t>
+    <t xml:space="preserve">1.96076238155365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97806334495544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95307314395905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98959708213806</t>
   </si>
   <si>
     <t xml:space="preserve">2.01650953292847</t>
@@ -5067,6 +5070,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.59800004959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59400010108948</t>
   </si>
 </sst>
 </file>
@@ -49366,7 +49372,7 @@
         <v>1.56099998950958</v>
       </c>
       <c r="G1691" t="s">
-        <v>1250</v>
+        <v>1294</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49392,7 +49398,7 @@
         <v>1.55299997329712</v>
       </c>
       <c r="G1692" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49418,7 +49424,7 @@
         <v>1.48199999332428</v>
       </c>
       <c r="G1693" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49444,7 +49450,7 @@
         <v>1.47800004482269</v>
       </c>
       <c r="G1694" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49470,7 +49476,7 @@
         <v>1.5110000371933</v>
       </c>
       <c r="G1695" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49496,7 +49502,7 @@
         <v>1.51400005817413</v>
       </c>
       <c r="G1696" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49522,7 +49528,7 @@
         <v>1.49899995326996</v>
       </c>
       <c r="G1697" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49548,7 +49554,7 @@
         <v>1.53199994564056</v>
       </c>
       <c r="G1698" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49574,7 +49580,7 @@
         <v>1.47000002861023</v>
       </c>
       <c r="G1699" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49600,7 +49606,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G1700" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49626,7 +49632,7 @@
         <v>1.50699996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49652,7 +49658,7 @@
         <v>1.49600005149841</v>
       </c>
       <c r="G1702" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49678,7 +49684,7 @@
         <v>1.55499994754791</v>
       </c>
       <c r="G1703" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49704,7 +49710,7 @@
         <v>1.5789999961853</v>
       </c>
       <c r="G1704" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49730,7 +49736,7 @@
         <v>1.55900001525879</v>
       </c>
       <c r="G1705" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49756,7 +49762,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1706" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49782,7 +49788,7 @@
         <v>1.56099998950958</v>
       </c>
       <c r="G1707" t="s">
-        <v>1250</v>
+        <v>1294</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49808,7 +49814,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G1708" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49860,7 +49866,7 @@
         <v>1.53900003433228</v>
       </c>
       <c r="G1710" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49886,7 +49892,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G1711" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49912,7 +49918,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49938,7 +49944,7 @@
         <v>1.74300003051758</v>
       </c>
       <c r="G1713" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49964,7 +49970,7 @@
         <v>1.73699998855591</v>
       </c>
       <c r="G1714" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49990,7 +49996,7 @@
         <v>1.75100004673004</v>
       </c>
       <c r="G1715" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50016,7 +50022,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50042,7 +50048,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1717" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50068,7 +50074,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1718" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50094,7 +50100,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G1719" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50120,7 +50126,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G1720" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50146,7 +50152,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1721" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50172,7 +50178,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1722" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50198,7 +50204,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1723" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50250,7 +50256,7 @@
         <v>1.71700000762939</v>
       </c>
       <c r="G1725" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50276,7 +50282,7 @@
         <v>1.68700003623962</v>
       </c>
       <c r="G1726" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50302,7 +50308,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G1727" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50328,7 +50334,7 @@
         <v>1.75399994850159</v>
       </c>
       <c r="G1728" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50354,7 +50360,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G1729" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50380,7 +50386,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G1730" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50406,7 +50412,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G1731" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50432,7 +50438,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G1732" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50458,7 +50464,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G1733" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50484,7 +50490,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G1734" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50510,7 +50516,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1735" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50536,7 +50542,7 @@
         <v>1.97200000286102</v>
       </c>
       <c r="G1736" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50562,7 +50568,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G1737" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50588,7 +50594,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1738" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50614,7 +50620,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1739" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50640,7 +50646,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1740" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50666,7 +50672,7 @@
         <v>1.94900000095367</v>
       </c>
       <c r="G1741" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50692,7 +50698,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50718,7 +50724,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G1743" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50744,7 +50750,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G1744" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50770,7 +50776,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G1745" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50796,7 +50802,7 @@
         <v>2.05399990081787</v>
       </c>
       <c r="G1746" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50822,7 +50828,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1747" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50848,7 +50854,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1748" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50874,7 +50880,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1749" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50900,7 +50906,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1750" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50926,7 +50932,7 @@
         <v>2.09800004959106</v>
       </c>
       <c r="G1751" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50952,7 +50958,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1752" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50978,7 +50984,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1753" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51004,7 +51010,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1754" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51030,7 +51036,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1755" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51056,7 +51062,7 @@
         <v>2.20600008964539</v>
       </c>
       <c r="G1756" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51082,7 +51088,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G1757" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51108,7 +51114,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1758" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51134,7 +51140,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G1759" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51160,7 +51166,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1760" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51186,7 +51192,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1761" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51212,7 +51218,7 @@
         <v>2.25</v>
       </c>
       <c r="G1762" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51238,7 +51244,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G1763" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51264,7 +51270,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1764" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51290,7 +51296,7 @@
         <v>2.33599996566772</v>
       </c>
       <c r="G1765" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51316,7 +51322,7 @@
         <v>2.33200001716614</v>
       </c>
       <c r="G1766" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51342,7 +51348,7 @@
         <v>2.35199999809265</v>
       </c>
       <c r="G1767" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51368,7 +51374,7 @@
         <v>2.38599991798401</v>
       </c>
       <c r="G1768" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51394,7 +51400,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1769" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51420,7 +51426,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G1770" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51446,7 +51452,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1771" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51472,7 +51478,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G1772" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51498,7 +51504,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1773" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51524,7 +51530,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G1774" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51550,7 +51556,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1775" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51576,7 +51582,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G1776" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51602,7 +51608,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1777" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51628,7 +51634,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1778" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51654,7 +51660,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G1779" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51680,7 +51686,7 @@
         <v>2.09200000762939</v>
       </c>
       <c r="G1780" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51706,7 +51712,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1781" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51732,7 +51738,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G1782" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51758,7 +51764,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1783" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51784,7 +51790,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1784" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51810,7 +51816,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G1785" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51836,7 +51842,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1786" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51862,7 +51868,7 @@
         <v>2.25</v>
       </c>
       <c r="G1787" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51888,7 +51894,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G1788" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51914,7 +51920,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1789" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51940,7 +51946,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1790" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51966,7 +51972,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G1791" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51992,7 +51998,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1792" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52018,7 +52024,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1793" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52044,7 +52050,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1794" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52070,7 +52076,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1795" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52096,7 +52102,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1796" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52122,7 +52128,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1797" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52148,7 +52154,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1798" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52174,7 +52180,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1799" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52200,7 +52206,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1800" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52226,7 +52232,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1801" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52252,7 +52258,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1802" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52278,7 +52284,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1803" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52304,7 +52310,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G1804" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52330,7 +52336,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1805" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52356,7 +52362,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52382,7 +52388,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1807" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52408,7 +52414,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52434,7 +52440,7 @@
         <v>2.56599998474121</v>
       </c>
       <c r="G1809" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52460,7 +52466,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1810" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52486,7 +52492,7 @@
         <v>2.65799999237061</v>
       </c>
       <c r="G1811" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52512,7 +52518,7 @@
         <v>2.61400008201599</v>
       </c>
       <c r="G1812" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52538,7 +52544,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1813" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52564,7 +52570,7 @@
         <v>2.63800001144409</v>
       </c>
       <c r="G1814" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52590,7 +52596,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G1815" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52616,7 +52622,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1816" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52642,7 +52648,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1817" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52668,7 +52674,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1818" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52694,7 +52700,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1819" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52720,7 +52726,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G1820" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52746,7 +52752,7 @@
         <v>2.56599998474121</v>
       </c>
       <c r="G1821" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52772,7 +52778,7 @@
         <v>2.54800009727478</v>
       </c>
       <c r="G1822" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52798,7 +52804,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1823" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52824,7 +52830,7 @@
         <v>2.57399988174438</v>
       </c>
       <c r="G1824" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52850,7 +52856,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1825" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52876,7 +52882,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1826" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52902,7 +52908,7 @@
         <v>2.64800000190735</v>
       </c>
       <c r="G1827" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52928,7 +52934,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1828" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52954,7 +52960,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1829" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52980,7 +52986,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1830" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53006,7 +53012,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G1831" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53032,7 +53038,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G1832" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53058,7 +53064,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1833" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53084,7 +53090,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G1834" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53110,7 +53116,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1835" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53136,7 +53142,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1836" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53162,7 +53168,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G1837" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53188,7 +53194,7 @@
         <v>2.38599991798401</v>
       </c>
       <c r="G1838" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53214,7 +53220,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1839" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53240,7 +53246,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G1840" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53266,7 +53272,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1841" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53292,7 +53298,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G1842" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53318,7 +53324,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1843" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53344,7 +53350,7 @@
         <v>2.33200001716614</v>
       </c>
       <c r="G1844" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53370,7 +53376,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G1845" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53396,7 +53402,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G1846" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53422,7 +53428,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1847" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53448,7 +53454,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G1848" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53474,7 +53480,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1849" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53500,7 +53506,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G1850" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53526,7 +53532,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1851" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53552,7 +53558,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1852" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53578,7 +53584,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1853" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53604,7 +53610,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G1854" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53630,7 +53636,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G1855" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53656,7 +53662,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1856" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53682,7 +53688,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1857" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53708,7 +53714,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1858" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53734,7 +53740,7 @@
         <v>2.57599997520447</v>
       </c>
       <c r="G1859" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53760,7 +53766,7 @@
         <v>2.7279999256134</v>
       </c>
       <c r="G1860" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53786,7 +53792,7 @@
         <v>2.69400000572205</v>
       </c>
       <c r="G1861" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53812,7 +53818,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G1862" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53838,7 +53844,7 @@
         <v>2.69400000572205</v>
       </c>
       <c r="G1863" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53864,7 +53870,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1864" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53890,7 +53896,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1865" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53916,7 +53922,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G1866" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53942,7 +53948,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G1867" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53968,7 +53974,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53994,7 +54000,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1869" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54020,7 +54026,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1870" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54046,7 +54052,7 @@
         <v>2.76600003242493</v>
       </c>
       <c r="G1871" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54072,7 +54078,7 @@
         <v>2.71199989318848</v>
       </c>
       <c r="G1872" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54098,7 +54104,7 @@
         <v>2.75399994850159</v>
       </c>
       <c r="G1873" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54124,7 +54130,7 @@
         <v>2.71799993515015</v>
       </c>
       <c r="G1874" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54150,7 +54156,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1875" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54176,7 +54182,7 @@
         <v>2.64199995994568</v>
       </c>
       <c r="G1876" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54202,7 +54208,7 @@
         <v>2.64199995994568</v>
       </c>
       <c r="G1877" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54228,7 +54234,7 @@
         <v>2.60400009155273</v>
       </c>
       <c r="G1878" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54254,7 +54260,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1879" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54280,7 +54286,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1880" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54306,7 +54312,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1881" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54332,7 +54338,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G1882" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54358,7 +54364,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G1883" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54384,7 +54390,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1884" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54410,7 +54416,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G1885" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54436,7 +54442,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1886" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54462,7 +54468,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1887" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54488,7 +54494,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G1888" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54514,7 +54520,7 @@
         <v>2.55800008773804</v>
       </c>
       <c r="G1889" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54540,7 +54546,7 @@
         <v>2.56399989128113</v>
       </c>
       <c r="G1890" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54566,7 +54572,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1891" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54592,7 +54598,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G1892" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54618,7 +54624,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G1893" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54644,7 +54650,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G1894" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54670,7 +54676,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G1895" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54696,7 +54702,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1896" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54722,7 +54728,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1897" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54748,7 +54754,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G1898" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54774,7 +54780,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1899" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54800,7 +54806,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1900" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54826,7 +54832,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1901" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54852,7 +54858,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1902" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54878,7 +54884,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1903" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54904,7 +54910,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G1904" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54930,7 +54936,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G1905" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54956,7 +54962,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G1906" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54982,7 +54988,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1907" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55008,7 +55014,7 @@
         <v>2.48200011253357</v>
       </c>
       <c r="G1908" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55034,7 +55040,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1909" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55060,7 +55066,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1910" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55086,7 +55092,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1911" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55112,7 +55118,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G1912" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55138,7 +55144,7 @@
         <v>2.46600008010864</v>
       </c>
       <c r="G1913" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55164,7 +55170,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1914" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55190,7 +55196,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1915" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55216,7 +55222,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1916" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55242,7 +55248,7 @@
         <v>2.54399991035461</v>
       </c>
       <c r="G1917" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55268,7 +55274,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1918" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55294,7 +55300,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1919" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55320,7 +55326,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1920" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55346,7 +55352,7 @@
         <v>2.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55372,7 +55378,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G1922" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55398,7 +55404,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G1923" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55424,7 +55430,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G1924" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55450,7 +55456,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G1925" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55476,7 +55482,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1926" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55502,7 +55508,7 @@
         <v>2.46199989318848</v>
       </c>
       <c r="G1927" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55528,7 +55534,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1928" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55554,7 +55560,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G1929" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55580,7 +55586,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1930" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55606,7 +55612,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G1931" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55632,7 +55638,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1932" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55658,7 +55664,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G1933" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55684,7 +55690,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1934" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55710,7 +55716,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1935" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55736,7 +55742,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1936" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55762,7 +55768,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G1937" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55788,7 +55794,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G1938" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55814,7 +55820,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1939" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55840,7 +55846,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1940" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55866,7 +55872,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1941" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55892,7 +55898,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1942" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55918,7 +55924,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1943" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55944,7 +55950,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1944" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55970,7 +55976,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G1945" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55996,7 +56002,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1946" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56022,7 +56028,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G1947" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56048,7 +56054,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G1948" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56074,7 +56080,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G1949" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56100,7 +56106,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G1950" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56126,7 +56132,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1951" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56152,7 +56158,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1952" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56178,7 +56184,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1953" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56204,7 +56210,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1954" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56230,7 +56236,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1955" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56256,7 +56262,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1956" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56282,7 +56288,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1957" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56308,7 +56314,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1958" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56334,7 +56340,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G1959" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56360,7 +56366,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1960" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56386,7 +56392,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G1961" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56412,7 +56418,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1962" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56438,7 +56444,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1963" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56464,7 +56470,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1964" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56490,7 +56496,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1965" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56516,7 +56522,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1966" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56542,7 +56548,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G1967" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56568,7 +56574,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G1968" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56594,7 +56600,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1969" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56620,7 +56626,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G1970" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56646,7 +56652,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G1971" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56672,7 +56678,7 @@
         <v>1.93599998950958</v>
       </c>
       <c r="G1972" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56698,7 +56704,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G1973" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56724,7 +56730,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1974" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56750,7 +56756,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G1975" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56776,7 +56782,7 @@
         <v>1.83700001239777</v>
       </c>
       <c r="G1976" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56802,7 +56808,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G1977" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56828,7 +56834,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G1978" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56854,7 +56860,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G1979" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56880,7 +56886,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G1980" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56906,7 +56912,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G1981" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56932,7 +56938,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G1982" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56958,7 +56964,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G1983" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56984,7 +56990,7 @@
         <v>1.75</v>
       </c>
       <c r="G1984" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57010,7 +57016,7 @@
         <v>1.75399994850159</v>
       </c>
       <c r="G1985" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57036,7 +57042,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1986" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57062,7 +57068,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G1987" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57088,7 +57094,7 @@
         <v>1.76800000667572</v>
       </c>
       <c r="G1988" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57114,7 +57120,7 @@
         <v>1.64400005340576</v>
       </c>
       <c r="G1989" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57140,7 +57146,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1990" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57166,7 +57172,7 @@
         <v>1.65199995040894</v>
       </c>
       <c r="G1991" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57192,7 +57198,7 @@
         <v>1.65900003910065</v>
       </c>
       <c r="G1992" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57218,7 +57224,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1993" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57244,7 +57250,7 @@
         <v>1.66499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57270,7 +57276,7 @@
         <v>1.6710000038147</v>
       </c>
       <c r="G1995" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57296,7 +57302,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1996" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57322,7 +57328,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1997" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57348,7 +57354,7 @@
         <v>1.73800003528595</v>
       </c>
       <c r="G1998" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57374,7 +57380,7 @@
         <v>1.71899998188019</v>
       </c>
       <c r="G1999" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57400,7 +57406,7 @@
         <v>1.72800004482269</v>
       </c>
       <c r="G2000" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57426,7 +57432,7 @@
         <v>1.7389999628067</v>
       </c>
       <c r="G2001" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57452,7 +57458,7 @@
         <v>1.74800002574921</v>
       </c>
       <c r="G2002" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57478,7 +57484,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G2003" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57504,7 +57510,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G2004" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57530,7 +57536,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G2005" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57556,7 +57562,7 @@
         <v>1.80099999904633</v>
       </c>
       <c r="G2006" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57582,7 +57588,7 @@
         <v>1.76199996471405</v>
       </c>
       <c r="G2007" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57608,7 +57614,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G2008" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57634,7 +57640,7 @@
         <v>1.81400001049042</v>
       </c>
       <c r="G2009" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57660,7 +57666,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G2010" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57686,7 +57692,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2011" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57712,7 +57718,7 @@
         <v>1.79100000858307</v>
       </c>
       <c r="G2012" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57738,7 +57744,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2013" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57764,7 +57770,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2014" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57790,7 +57796,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G2015" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57816,7 +57822,7 @@
         <v>1.97800004482269</v>
       </c>
       <c r="G2016" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57842,7 +57848,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G2017" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57868,7 +57874,7 @@
         <v>2.04399991035461</v>
       </c>
       <c r="G2018" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57894,7 +57900,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G2019" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57920,7 +57926,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G2020" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57946,7 +57952,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G2021" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57972,7 +57978,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G2022" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57998,7 +58004,7 @@
         <v>2.07800006866455</v>
       </c>
       <c r="G2023" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58024,7 +58030,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58050,7 +58056,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G2025" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58076,7 +58082,7 @@
         <v>2.02800011634827</v>
       </c>
       <c r="G2026" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58102,7 +58108,7 @@
         <v>2.14400005340576</v>
       </c>
       <c r="G2027" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58128,7 +58134,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G2028" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58154,7 +58160,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G2029" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58180,7 +58186,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G2030" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58206,7 +58212,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G2031" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58232,7 +58238,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G2032" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58258,7 +58264,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2033" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58284,7 +58290,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G2034" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58310,7 +58316,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G2035" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58336,7 +58342,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58362,7 +58368,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G2037" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58388,7 +58394,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G2038" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58414,7 +58420,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2039" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58440,7 +58446,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G2040" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58466,7 +58472,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2041" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58492,7 +58498,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58518,7 +58524,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2043" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58544,7 +58550,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2044" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58570,7 +58576,7 @@
         <v>2.16400003433228</v>
       </c>
       <c r="G2045" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58596,7 +58602,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G2046" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58622,7 +58628,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G2047" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58648,7 +58654,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58674,7 +58680,7 @@
         <v>2.05800008773804</v>
       </c>
       <c r="G2049" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58700,7 +58706,7 @@
         <v>2.03200006484985</v>
       </c>
       <c r="G2050" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58726,7 +58732,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2051" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58752,7 +58758,7 @@
         <v>2.09800004959106</v>
       </c>
       <c r="G2052" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58778,7 +58784,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G2053" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58804,7 +58810,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58830,7 +58836,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G2055" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58856,7 +58862,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G2056" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58882,7 +58888,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2057" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58908,7 +58914,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2058" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58934,7 +58940,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G2059" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58960,7 +58966,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2060" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58986,7 +58992,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2061" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59012,7 +59018,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2062" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59038,7 +59044,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2063" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59064,7 +59070,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G2064" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59090,7 +59096,7 @@
         <v>2.25</v>
       </c>
       <c r="G2065" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59116,7 +59122,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G2066" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59142,7 +59148,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2067" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59168,7 +59174,7 @@
         <v>2.25</v>
       </c>
       <c r="G2068" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59194,7 +59200,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G2069" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59220,7 +59226,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2070" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59246,7 +59252,7 @@
         <v>2.20600008964539</v>
       </c>
       <c r="G2071" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59272,7 +59278,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G2072" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59298,7 +59304,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2073" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59324,7 +59330,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G2074" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59350,7 +59356,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2075" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59376,7 +59382,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2076" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59402,7 +59408,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G2077" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59428,7 +59434,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2078" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59454,7 +59460,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G2079" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59480,7 +59486,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2080" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59506,7 +59512,7 @@
         <v>2.25</v>
       </c>
       <c r="G2081" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59532,7 +59538,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G2082" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59558,7 +59564,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G2083" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59584,7 +59590,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G2084" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59610,7 +59616,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G2085" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59636,7 +59642,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2086" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59662,7 +59668,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G2087" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59688,7 +59694,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2088" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59714,7 +59720,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G2089" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59740,7 +59746,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2090" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59766,7 +59772,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2091" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59792,7 +59798,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G2092" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59818,7 +59824,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G2093" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59844,7 +59850,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G2094" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59870,7 +59876,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G2095" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59896,7 +59902,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59922,7 +59928,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G2097" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59948,7 +59954,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G2098" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59974,7 +59980,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G2099" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60000,7 +60006,7 @@
         <v>2.37400007247925</v>
       </c>
       <c r="G2100" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60026,7 +60032,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G2101" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60052,7 +60058,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60078,7 +60084,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G2103" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60104,7 +60110,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G2104" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60130,7 +60136,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G2105" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60156,7 +60162,7 @@
         <v>2.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60182,7 +60188,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G2107" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60208,7 +60214,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G2108" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60234,7 +60240,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G2109" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60260,7 +60266,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60286,7 +60292,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G2111" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60312,7 +60318,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G2112" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60338,7 +60344,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60364,7 +60370,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G2114" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60390,7 +60396,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60416,7 +60422,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G2116" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60442,7 +60448,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G2117" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60468,7 +60474,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G2118" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60494,7 +60500,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G2119" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60520,7 +60526,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G2120" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60546,7 +60552,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G2121" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60572,7 +60578,7 @@
         <v>2.5</v>
       </c>
       <c r="G2122" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60598,7 +60604,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G2123" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60624,7 +60630,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G2124" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60650,7 +60656,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G2125" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60676,7 +60682,7 @@
         <v>2.58599996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60702,7 +60708,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G2127" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60728,7 +60734,7 @@
         <v>2.6340000629425</v>
       </c>
       <c r="G2128" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60754,7 +60760,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60780,7 +60786,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G2130" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60806,7 +60812,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2131" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60832,7 +60838,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2132" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60858,7 +60864,7 @@
         <v>2.70199990272522</v>
       </c>
       <c r="G2133" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60884,7 +60890,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2134" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60910,7 +60916,7 @@
         <v>2.65799999237061</v>
       </c>
       <c r="G2135" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60936,7 +60942,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2136" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60962,7 +60968,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2137" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60988,7 +60994,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G2138" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61014,7 +61020,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61040,7 +61046,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G2140" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61066,7 +61072,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G2141" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61092,7 +61098,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G2142" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61118,7 +61124,7 @@
         <v>2.86400008201599</v>
       </c>
       <c r="G2143" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61144,7 +61150,7 @@
         <v>2.82200002670288</v>
       </c>
       <c r="G2144" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61170,7 +61176,7 @@
         <v>2.80200004577637</v>
       </c>
       <c r="G2145" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61196,7 +61202,7 @@
         <v>2.79399991035461</v>
       </c>
       <c r="G2146" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61222,7 +61228,7 @@
         <v>2.79200005531311</v>
       </c>
       <c r="G2147" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61248,7 +61254,7 @@
         <v>2.86199998855591</v>
       </c>
       <c r="G2148" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61274,7 +61280,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G2149" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61300,7 +61306,7 @@
         <v>2.82800006866455</v>
       </c>
       <c r="G2150" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61326,7 +61332,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2151" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61352,7 +61358,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G2152" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61378,7 +61384,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G2153" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61404,7 +61410,7 @@
         <v>2.75600004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61430,7 +61436,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2155" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61456,7 +61462,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61482,7 +61488,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G2157" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61508,7 +61514,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2158" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61534,7 +61540,7 @@
         <v>2.58400011062622</v>
       </c>
       <c r="G2159" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61560,7 +61566,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G2160" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61586,7 +61592,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G2161" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61612,7 +61618,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G2162" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61638,7 +61644,7 @@
         <v>2.55200004577637</v>
       </c>
       <c r="G2163" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61664,7 +61670,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G2164" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61690,7 +61696,7 @@
         <v>2.56800007820129</v>
       </c>
       <c r="G2165" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61698,7 +61704,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6496180556</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>601069</v>
@@ -61716,9 +61722,35 @@
         <v>2.59800004959106</v>
       </c>
       <c r="G2166" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6496064815</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>826656</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>2.62599992752075</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>2.57399988174438</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>2.59400010108948</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>2.59400010108948</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19818115234375</t>
+    <t xml:space="preserve">5.19818162918091</t>
   </si>
   <si>
     <t xml:space="preserve">OVS.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">5.05481243133545</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91553831100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79264974594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87047863006592</t>
+    <t xml:space="preserve">4.9155387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.792649269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87047910690308</t>
   </si>
   <si>
     <t xml:space="preserve">4.80493831634521</t>
@@ -62,19 +62,19 @@
     <t xml:space="preserve">4.9401159286499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09987020492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84180498123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75168657302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78445720672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76397562026978</t>
+    <t xml:space="preserve">5.0998706817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84180545806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75168704986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78445816040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76397514343262</t>
   </si>
   <si>
     <t xml:space="preserve">4.38711786270142</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">4.36253976821899</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67795372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6001238822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62060594558716</t>
+    <t xml:space="preserve">4.67795324325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60012340545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62060546875</t>
   </si>
   <si>
     <t xml:space="preserve">4.64108753204346</t>
@@ -98,25 +98,25 @@
     <t xml:space="preserve">4.65747213363647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58783626556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77626466751099</t>
+    <t xml:space="preserve">4.58783578872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77626419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.73939847946167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66156959533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69024324417114</t>
+    <t xml:space="preserve">4.66156911849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">4.46494770050049</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16182231903076</t>
+    <t xml:space="preserve">4.1618218421936</t>
   </si>
   <si>
     <t xml:space="preserve">4.1577262878418</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">4.35844373703003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5222954750061</t>
+    <t xml:space="preserve">4.52229499816895</t>
   </si>
   <si>
     <t xml:space="preserve">4.44037008285522</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">4.60831642150879</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6287989616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63289451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40759944915771</t>
+    <t xml:space="preserve">4.62879800796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63289403915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4075984954834</t>
   </si>
   <si>
     <t xml:space="preserve">4.37482929229736</t>
@@ -155,61 +155,61 @@
     <t xml:space="preserve">4.57964277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71072483062744</t>
+    <t xml:space="preserve">4.71072435379028</t>
   </si>
   <si>
     <t xml:space="preserve">4.82132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86638259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73530197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64928007125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66976118087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52639150619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57145071029663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54277658462524</t>
+    <t xml:space="preserve">4.86638307571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73530149459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64927959442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66976165771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52639102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57145023345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5427770614624</t>
   </si>
   <si>
     <t xml:space="preserve">4.42808055877686</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25194025039673</t>
+    <t xml:space="preserve">4.25193977355957</t>
   </si>
   <si>
     <t xml:space="preserve">4.22736263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19459295272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21917057037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28880596160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34615516662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17820692062378</t>
+    <t xml:space="preserve">4.19459247589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21917009353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28880643844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34615564346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17820739746094</t>
   </si>
   <si>
     <t xml:space="preserve">4.14953327178955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44856214523315</t>
+    <t xml:space="preserve">4.448561668396</t>
   </si>
   <si>
     <t xml:space="preserve">4.29699945449829</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">4.88686418533325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69433975219727</t>
+    <t xml:space="preserve">4.69433927536011</t>
   </si>
   <si>
     <t xml:space="preserve">4.64518404006958</t>
@@ -233,10 +233,10 @@
     <t xml:space="preserve">4.70662784576416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62470245361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66566610336304</t>
+    <t xml:space="preserve">4.62470197677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66566562652588</t>
   </si>
   <si>
     <t xml:space="preserve">4.69843578338623</t>
@@ -248,28 +248,28 @@
     <t xml:space="preserve">4.71482038497925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6820502281189</t>
+    <t xml:space="preserve">4.68204927444458</t>
   </si>
   <si>
     <t xml:space="preserve">4.79674530029297</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85409307479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99746322631836</t>
+    <t xml:space="preserve">4.85409355163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99746370315552</t>
   </si>
   <si>
     <t xml:space="preserve">5.04661893844604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96878957748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03432989120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06710004806519</t>
+    <t xml:space="preserve">4.96879005432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03433084487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06710052490234</t>
   </si>
   <si>
     <t xml:space="preserve">4.91144180297852</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">4.91877222061157</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05750608444214</t>
+    <t xml:space="preserve">5.05750560760498</t>
   </si>
   <si>
     <t xml:space="preserve">4.88513946533203</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">4.66232347488403</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61607837677002</t>
+    <t xml:space="preserve">4.61607885360718</t>
   </si>
   <si>
     <t xml:space="preserve">4.6202826499939</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">4.75901699066162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69595575332642</t>
+    <t xml:space="preserve">4.69595623016357</t>
   </si>
   <si>
     <t xml:space="preserve">4.65812015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46893548965454</t>
+    <t xml:space="preserve">4.4689359664917</t>
   </si>
   <si>
     <t xml:space="preserve">4.07291126251221</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">4.26713991165161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38065052032471</t>
+    <t xml:space="preserve">4.38065004348755</t>
   </si>
   <si>
     <t xml:space="preserve">4.4016695022583</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">4.2208948135376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18221759796143</t>
+    <t xml:space="preserve">4.18221712112427</t>
   </si>
   <si>
     <t xml:space="preserve">4.32179260253906</t>
@@ -353,13 +353,13 @@
     <t xml:space="preserve">4.28815984725952</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29236364364624</t>
+    <t xml:space="preserve">4.2923641204834</t>
   </si>
   <si>
     <t xml:space="preserve">4.23771142959595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17212820053101</t>
+    <t xml:space="preserve">4.17212867736816</t>
   </si>
   <si>
     <t xml:space="preserve">4.25032329559326</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">4.34281349182129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36803770065308</t>
+    <t xml:space="preserve">4.36803722381592</t>
   </si>
   <si>
     <t xml:space="preserve">4.51097679138184</t>
@@ -392,16 +392,16 @@
     <t xml:space="preserve">4.41428279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37644577026367</t>
+    <t xml:space="preserve">4.37644529342651</t>
   </si>
   <si>
     <t xml:space="preserve">4.38905811309814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43530321121216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3638334274292</t>
+    <t xml:space="preserve">4.43530368804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36383295059204</t>
   </si>
   <si>
     <t xml:space="preserve">4.20239639282227</t>
@@ -410,22 +410,22 @@
     <t xml:space="preserve">4.30497694015503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32599592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23350763320923</t>
+    <t xml:space="preserve">4.32599639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23350715637207</t>
   </si>
   <si>
     <t xml:space="preserve">4.17044591903687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27134370803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22930383682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12840509414673</t>
+    <t xml:space="preserve">4.27134323120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22930335998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12840557098389</t>
   </si>
   <si>
     <t xml:space="preserve">4.11999702453613</t>
@@ -437,16 +437,16 @@
     <t xml:space="preserve">4.33020114898682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28395652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21669054031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19062662124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49836444854736</t>
+    <t xml:space="preserve">4.2839560508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21669006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19062566757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49836349487305</t>
   </si>
   <si>
     <t xml:space="preserve">4.51518058776855</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">4.58244609832764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55301666259766</t>
+    <t xml:space="preserve">4.5530161857605</t>
   </si>
   <si>
     <t xml:space="preserve">4.45632362365723</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">4.40587425231934</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35122156143188</t>
+    <t xml:space="preserve">4.35122108459473</t>
   </si>
   <si>
     <t xml:space="preserve">4.31338500976562</t>
@@ -482,28 +482,28 @@
     <t xml:space="preserve">4.24611902236938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20407962799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19903373718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21248722076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19398880004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13344955444336</t>
+    <t xml:space="preserve">4.20407867431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19903421401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.212486743927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19398975372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13345003128052</t>
   </si>
   <si>
     <t xml:space="preserve">4.08636426925659</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26293563842773</t>
+    <t xml:space="preserve">4.18389844894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26293611526489</t>
   </si>
   <si>
     <t xml:space="preserve">4.17549085617065</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">4.13176870346069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11327028274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15363025665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10149908065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15194797515869</t>
+    <t xml:space="preserve">4.11327075958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15363073348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1014986038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15194845199585</t>
   </si>
   <si>
     <t xml:space="preserve">4.18894338607788</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">4.17717170715332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18053531646729</t>
+    <t xml:space="preserve">4.18053579330444</t>
   </si>
   <si>
     <t xml:space="preserve">4.10654354095459</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">4.15867376327515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14858531951904</t>
+    <t xml:space="preserve">4.14858484268188</t>
   </si>
   <si>
     <t xml:space="preserve">4.12672328948975</t>
@@ -554,16 +554,16 @@
     <t xml:space="preserve">4.27975273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37224149703979</t>
+    <t xml:space="preserve">4.37224102020264</t>
   </si>
   <si>
     <t xml:space="preserve">4.33860921859741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35963010787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14522075653076</t>
+    <t xml:space="preserve">4.35962963104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14522123336792</t>
   </si>
   <si>
     <t xml:space="preserve">4.15026617050171</t>
@@ -572,13 +572,13 @@
     <t xml:space="preserve">4.05609512329102</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03759670257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01909875869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99891901016235</t>
+    <t xml:space="preserve">4.03759717941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01909923553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99891948699951</t>
   </si>
   <si>
     <t xml:space="preserve">4.06618499755859</t>
@@ -587,22 +587,22 @@
     <t xml:space="preserve">4.05945873260498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02078056335449</t>
+    <t xml:space="preserve">4.02078104019165</t>
   </si>
   <si>
     <t xml:space="preserve">4.08131980895996</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13008737564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51938438415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52358865737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5319972038269</t>
+    <t xml:space="preserve">4.13008689880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51938390731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52358818054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53199672698975</t>
   </si>
   <si>
     <t xml:space="preserve">4.49416017532349</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">4.41848611831665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46473217010498</t>
+    <t xml:space="preserve">4.46473169326782</t>
   </si>
   <si>
     <t xml:space="preserve">4.43109941482544</t>
@@ -629,13 +629,13 @@
     <t xml:space="preserve">4.48154830932617</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60767078399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62448644638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54881238937378</t>
+    <t xml:space="preserve">4.60766983032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62448596954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54881286621094</t>
   </si>
   <si>
     <t xml:space="preserve">4.6833438873291</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">4.6497106552124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57403755187988</t>
+    <t xml:space="preserve">4.57403707504272</t>
   </si>
   <si>
     <t xml:space="preserve">4.74220085144043</t>
@@ -662,22 +662,22 @@
     <t xml:space="preserve">4.82207870483398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75060939788818</t>
+    <t xml:space="preserve">4.75060892105103</t>
   </si>
   <si>
     <t xml:space="preserve">4.85150671005249</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01126194000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97762870788574</t>
+    <t xml:space="preserve">5.0112624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9776291847229</t>
   </si>
   <si>
     <t xml:space="preserve">4.92717981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9524040222168</t>
+    <t xml:space="preserve">4.95240449905396</t>
   </si>
   <si>
     <t xml:space="preserve">4.89354753494263</t>
@@ -686,25 +686,25 @@
     <t xml:space="preserve">4.93558883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87673091888428</t>
+    <t xml:space="preserve">4.87673139572144</t>
   </si>
   <si>
     <t xml:space="preserve">4.93138408660889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96081304550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01966953277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20885324478149</t>
+    <t xml:space="preserve">4.96081256866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01967000961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20885276794434</t>
   </si>
   <si>
     <t xml:space="preserve">5.17522096633911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05330181121826</t>
+    <t xml:space="preserve">5.05330228805542</t>
   </si>
   <si>
     <t xml:space="preserve">5.07432270050049</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">5.10795545578003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21305799484253</t>
+    <t xml:space="preserve">5.21305847167969</t>
   </si>
   <si>
     <t xml:space="preserve">5.13738441467285</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">5.24669027328491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40644502639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36440420150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3097505569458</t>
+    <t xml:space="preserve">5.40644454956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36440372467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30975151062012</t>
   </si>
   <si>
     <t xml:space="preserve">5.36019992828369</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">5.22566986083984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29713916778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28032207489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41905832290649</t>
+    <t xml:space="preserve">5.2971396446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28032255172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41905784606934</t>
   </si>
   <si>
     <t xml:space="preserve">5.34758853912354</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">5.44007730484009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33917903900146</t>
+    <t xml:space="preserve">5.33917999267578</t>
   </si>
   <si>
     <t xml:space="preserve">5.33077144622803</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">5.10375165939331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2298731803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14579200744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19750833511353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53366613388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56383323669434</t>
+    <t xml:space="preserve">5.22987365722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14579296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19750881195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53366565704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56383371353149</t>
   </si>
   <si>
     <t xml:space="preserve">5.48194980621338</t>
@@ -812,19 +812,19 @@
     <t xml:space="preserve">5.44747114181519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5164270401001</t>
+    <t xml:space="preserve">5.51642751693726</t>
   </si>
   <si>
     <t xml:space="preserve">5.52504587173462</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49056911468506</t>
+    <t xml:space="preserve">5.4905686378479</t>
   </si>
   <si>
     <t xml:space="preserve">5.50780820846558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43885278701782</t>
+    <t xml:space="preserve">5.43885231018066</t>
   </si>
   <si>
     <t xml:space="preserve">5.44316148757935</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">5.39575576782227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42161321640015</t>
+    <t xml:space="preserve">5.4216136932373</t>
   </si>
   <si>
     <t xml:space="preserve">5.43023300170898</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">5.34834909439087</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37851667404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34403991699219</t>
+    <t xml:space="preserve">5.37851715087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34403944015503</t>
   </si>
   <si>
     <t xml:space="preserve">5.41730356216431</t>
@@ -863,10 +863,10 @@
     <t xml:space="preserve">5.41299390792847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4517822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39144515991211</t>
+    <t xml:space="preserve">5.45178127288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39144563674927</t>
   </si>
   <si>
     <t xml:space="preserve">5.4690203666687</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">5.50349855422974</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57676315307617</t>
+    <t xml:space="preserve">5.57676219940186</t>
   </si>
   <si>
     <t xml:space="preserve">5.54659461975098</t>
@@ -884,25 +884,25 @@
     <t xml:space="preserve">5.57245302200317</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55521535873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55090427398682</t>
+    <t xml:space="preserve">5.55521488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55090475082397</t>
   </si>
   <si>
     <t xml:space="preserve">5.40006589889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47763967514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42592334747314</t>
+    <t xml:space="preserve">5.47764015197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4259238243103</t>
   </si>
   <si>
     <t xml:space="preserve">5.37420654296875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30094194412231</t>
+    <t xml:space="preserve">5.30094146728516</t>
   </si>
   <si>
     <t xml:space="preserve">5.27508401870728</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">5.31818103790283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40437507629395</t>
+    <t xml:space="preserve">5.40437459945679</t>
   </si>
   <si>
     <t xml:space="preserve">5.49487829208374</t>
@@ -920,10 +920,10 @@
     <t xml:space="preserve">5.47333002090454</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4647102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49918746948242</t>
+    <t xml:space="preserve">5.46471071243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49918794631958</t>
   </si>
   <si>
     <t xml:space="preserve">5.66295766830444</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">5.71467399597168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7750096321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80517721176147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86982345581055</t>
+    <t xml:space="preserve">5.77500915527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80517768859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86982393264771</t>
   </si>
   <si>
     <t xml:space="preserve">5.79224872589111</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">5.61555004119873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80086755752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86120367050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82241678237915</t>
+    <t xml:space="preserve">5.80086803436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86120319366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82241630554199</t>
   </si>
   <si>
     <t xml:space="preserve">5.54228544235229</t>
@@ -968,19 +968,19 @@
     <t xml:space="preserve">5.55952501296997</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40868425369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46040058135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36127758026123</t>
+    <t xml:space="preserve">5.40868377685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46040105819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36127710342407</t>
   </si>
   <si>
     <t xml:space="preserve">5.24491548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04235935211182</t>
+    <t xml:space="preserve">5.04235887527466</t>
   </si>
   <si>
     <t xml:space="preserve">5.06390810012817</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">4.9992618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99064302444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10269498825073</t>
+    <t xml:space="preserve">4.99064254760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10269546508789</t>
   </si>
   <si>
     <t xml:space="preserve">5.05959844589233</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">4.96478462219238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11562490463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08545684814453</t>
+    <t xml:space="preserve">5.11562442779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08545637130737</t>
   </si>
   <si>
     <t xml:space="preserve">4.93030738830566</t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">5.01650142669678</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98633289337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87427997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80963468551636</t>
+    <t xml:space="preserve">4.98633337020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87427949905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80963516235352</t>
   </si>
   <si>
     <t xml:space="preserve">4.84842205047607</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">4.85273218154907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82256412506104</t>
+    <t xml:space="preserve">4.82256364822388</t>
   </si>
   <si>
     <t xml:space="preserve">4.78808641433716</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">4.94323587417603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90013790130615</t>
+    <t xml:space="preserve">4.90013837814331</t>
   </si>
   <si>
     <t xml:space="preserve">4.88289976119995</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">5.07252740859985</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08114624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05097818374634</t>
+    <t xml:space="preserve">5.08114576339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0509786605835</t>
   </si>
   <si>
     <t xml:space="preserve">4.99495267868042</t>
@@ -1091,16 +1091,19 @@
     <t xml:space="preserve">5.15872097015381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18026924133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33541917800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26215410232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11131477355957</t>
+    <t xml:space="preserve">5.18026971817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33541965484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2621545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11131525039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14579248428345</t>
   </si>
   <si>
     <t xml:space="preserve">4.93892621994019</t>
@@ -1112,76 +1115,73 @@
     <t xml:space="preserve">4.75360918045044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7406792640686</t>
+    <t xml:space="preserve">4.74067974090576</t>
   </si>
   <si>
     <t xml:space="preserve">4.76222801208496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77946758270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85704183578491</t>
+    <t xml:space="preserve">4.77946710586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85704231262207</t>
   </si>
   <si>
     <t xml:space="preserve">4.73206043243408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69758272171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68465328216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72344064712524</t>
+    <t xml:space="preserve">4.69758319854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68465375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7234411239624</t>
   </si>
   <si>
     <t xml:space="preserve">4.63293647766113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55105257034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58552980422974</t>
+    <t xml:space="preserve">4.55105209350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58552932739258</t>
   </si>
   <si>
     <t xml:space="preserve">4.63724613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61569738388062</t>
+    <t xml:space="preserve">4.61569786071777</t>
   </si>
   <si>
     <t xml:space="preserve">4.66310453414917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71482086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73637008666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80532503128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79670524597168</t>
+    <t xml:space="preserve">4.73636960983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80532550811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79670476913452</t>
   </si>
   <si>
     <t xml:space="preserve">4.74498891830444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70620203018188</t>
+    <t xml:space="preserve">4.70620250701904</t>
   </si>
   <si>
     <t xml:space="preserve">4.62862730026245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5812201499939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49933624267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52519369125366</t>
+    <t xml:space="preserve">4.58122062683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49933576583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52519464492798</t>
   </si>
   <si>
     <t xml:space="preserve">4.32263803482056</t>
@@ -1193,28 +1193,28 @@
     <t xml:space="preserve">4.283851146698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28902196884155</t>
+    <t xml:space="preserve">4.28902149200439</t>
   </si>
   <si>
     <t xml:space="preserve">4.32694721221924</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22868585586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28557395935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23385810852051</t>
+    <t xml:space="preserve">4.22868633270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28557443618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23385763168335</t>
   </si>
   <si>
     <t xml:space="preserve">4.25799226760864</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30281352996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30970907211304</t>
+    <t xml:space="preserve">4.3028130531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30970859527588</t>
   </si>
   <si>
     <t xml:space="preserve">4.27523040771484</t>
@@ -1229,10 +1229,10 @@
     <t xml:space="preserve">2.99955725669861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93404936790466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96335601806641</t>
+    <t xml:space="preserve">2.93404960632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96335577964783</t>
   </si>
   <si>
     <t xml:space="preserve">2.98576593399048</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">3.24952030181885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25813961029053</t>
+    <t xml:space="preserve">3.25813937187195</t>
   </si>
   <si>
     <t xml:space="preserve">3.24434852600098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28055047988892</t>
+    <t xml:space="preserve">3.28055024147034</t>
   </si>
   <si>
     <t xml:space="preserve">3.27537870407104</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">3.12540102005005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03920602798462</t>
+    <t xml:space="preserve">3.0392062664032</t>
   </si>
   <si>
     <t xml:space="preserve">3.05127358436584</t>
@@ -1289,46 +1289,46 @@
     <t xml:space="preserve">2.99093770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9306013584137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91508674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94094491004944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83406472206116</t>
+    <t xml:space="preserve">2.93060111999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91508650779724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94094514846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83406496047974</t>
   </si>
   <si>
     <t xml:space="preserve">2.63926482200623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62892246246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59099650382996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67201995849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58065295219421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59616827964783</t>
+    <t xml:space="preserve">2.6289222240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59099674224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67201972007751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58065319061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59616851806641</t>
   </si>
   <si>
     <t xml:space="preserve">2.58582496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55824279785156</t>
+    <t xml:space="preserve">2.55824303627014</t>
   </si>
   <si>
     <t xml:space="preserve">2.49618291854858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47204875946045</t>
+    <t xml:space="preserve">2.47204899787903</t>
   </si>
   <si>
     <t xml:space="preserve">2.43584728240967</t>
@@ -1343,40 +1343,40 @@
     <t xml:space="preserve">2.34792876243591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38757872581482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33413743972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34448170661926</t>
+    <t xml:space="preserve">2.3875789642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33413767814636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34448146820068</t>
   </si>
   <si>
     <t xml:space="preserve">2.49101185798645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45653367042542</t>
+    <t xml:space="preserve">2.45653343200684</t>
   </si>
   <si>
     <t xml:space="preserve">2.37378668785095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37551164627075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3703396320343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3979218006134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40998888015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42895126342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44101905822754</t>
+    <t xml:space="preserve">2.37551140785217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37033987045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39792156219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40998911857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42895150184631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44101881980896</t>
   </si>
   <si>
     <t xml:space="preserve">2.42550349235535</t>
@@ -1385,49 +1385,49 @@
     <t xml:space="preserve">2.42722797393799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43067526817322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32724261283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104089736938</t>
+    <t xml:space="preserve">2.4306755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32724237442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104113578796</t>
   </si>
   <si>
     <t xml:space="preserve">2.35310077667236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2962121963501</t>
+    <t xml:space="preserve">2.29621195793152</t>
   </si>
   <si>
     <t xml:space="preserve">2.30138397216797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47722005844116</t>
+    <t xml:space="preserve">2.47721982002258</t>
   </si>
   <si>
     <t xml:space="preserve">2.52721261978149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50135445594788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39274978637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38240694999695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41860818862915</t>
+    <t xml:space="preserve">2.50135469436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39275002479553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38240671157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41860795021057</t>
   </si>
   <si>
     <t xml:space="preserve">2.40654063224792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34620499610901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25828742980957</t>
+    <t xml:space="preserve">2.34620475769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25828719139099</t>
   </si>
   <si>
     <t xml:space="preserve">2.2462203502655</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">2.28069758415222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28242135047913</t>
+    <t xml:space="preserve">2.28242111206055</t>
   </si>
   <si>
     <t xml:space="preserve">2.1203761100769</t>
@@ -1448,49 +1448,49 @@
     <t xml:space="preserve">2.07555508613586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03762984275818</t>
+    <t xml:space="preserve">2.0376296043396</t>
   </si>
   <si>
     <t xml:space="preserve">2.06865954399109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10313773155212</t>
+    <t xml:space="preserve">2.1031379699707</t>
   </si>
   <si>
     <t xml:space="preserve">2.22036170959473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24104809761047</t>
+    <t xml:space="preserve">2.24104833602905</t>
   </si>
   <si>
     <t xml:space="preserve">2.25139117240906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2358763217926</t>
+    <t xml:space="preserve">2.23587656021118</t>
   </si>
   <si>
     <t xml:space="preserve">2.23760008811951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22380924224854</t>
+    <t xml:space="preserve">2.22380900382996</t>
   </si>
   <si>
     <t xml:space="preserve">2.22553300857544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18243646621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14278697967529</t>
+    <t xml:space="preserve">2.18243622779846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14278721809387</t>
   </si>
   <si>
     <t xml:space="preserve">2.15657830238342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16519713401794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22898101806641</t>
+    <t xml:space="preserve">2.16519737243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22898125648499</t>
   </si>
   <si>
     <t xml:space="preserve">2.16347360610962</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">2.09107065200806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19277882575989</t>
+    <t xml:space="preserve">2.19277906417847</t>
   </si>
   <si>
     <t xml:space="preserve">2.30827927589417</t>
@@ -1523,22 +1523,22 @@
     <t xml:space="preserve">2.12899613380432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06521248817444</t>
+    <t xml:space="preserve">2.06521224975586</t>
   </si>
   <si>
     <t xml:space="preserve">2.0634880065918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0462498664856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00832390785217</t>
+    <t xml:space="preserve">2.04624962806702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00832414627075</t>
   </si>
   <si>
     <t xml:space="preserve">1.9359210729599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81352531909943</t>
+    <t xml:space="preserve">1.81352519989014</t>
   </si>
   <si>
     <t xml:space="preserve">1.74974143505096</t>
@@ -1556,40 +1556,40 @@
     <t xml:space="preserve">1.55235683917999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53339385986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44116604328156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35928177833557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32652807235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31187474727631</t>
+    <t xml:space="preserve">1.53339397907257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44116592407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35928165912628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32652795314789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3118748664856</t>
   </si>
   <si>
     <t xml:space="preserve">1.28946471214294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429281711578</t>
+    <t xml:space="preserve">1.28429293632507</t>
   </si>
   <si>
     <t xml:space="preserve">1.33083760738373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31704652309418</t>
+    <t xml:space="preserve">1.31704664230347</t>
   </si>
   <si>
     <t xml:space="preserve">1.34549057483673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35755813121796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35497212409973</t>
+    <t xml:space="preserve">1.35755801200867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35497224330902</t>
   </si>
   <si>
     <t xml:space="preserve">1.32480442523956</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">1.38169264793396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3946213722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33600950241089</t>
+    <t xml:space="preserve">1.39462125301361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3360093832016</t>
   </si>
   <si>
     <t xml:space="preserve">1.33773303031921</t>
@@ -1616,28 +1616,28 @@
     <t xml:space="preserve">1.29205060005188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30842733383179</t>
+    <t xml:space="preserve">1.30842757225037</t>
   </si>
   <si>
     <t xml:space="preserve">1.29291200637817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27308773994446</t>
+    <t xml:space="preserve">1.27308785915375</t>
   </si>
   <si>
     <t xml:space="preserve">1.29636013507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29808366298676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30066990852356</t>
+    <t xml:space="preserve">1.29808378219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30066978931427</t>
   </si>
   <si>
     <t xml:space="preserve">1.41186046600342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41358399391174</t>
+    <t xml:space="preserve">1.41358411312103</t>
   </si>
   <si>
     <t xml:space="preserve">1.40755093097687</t>
@@ -1646,22 +1646,22 @@
     <t xml:space="preserve">1.38858819007874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35669565200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38772583007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29118835926056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27825975418091</t>
+    <t xml:space="preserve">1.35669577121735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38772594928741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29118824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27825963497162</t>
   </si>
   <si>
     <t xml:space="preserve">1.1024227142334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992956519126892</t>
+    <t xml:space="preserve">0.992956399917603</t>
   </si>
   <si>
     <t xml:space="preserve">1.02140069007874</t>
@@ -1676,40 +1676,40 @@
     <t xml:space="preserve">0.727478504180908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889523446559906</t>
+    <t xml:space="preserve">0.889523506164551</t>
   </si>
   <si>
     <t xml:space="preserve">0.988646984100342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978303253650665</t>
+    <t xml:space="preserve">0.97830331325531</t>
   </si>
   <si>
     <t xml:space="preserve">0.87573254108429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942963600158691</t>
+    <t xml:space="preserve">0.942963659763336</t>
   </si>
   <si>
     <t xml:space="preserve">0.974856078624725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948135554790497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946411967277527</t>
+    <t xml:space="preserve">0.948135495185852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946411907672882</t>
   </si>
   <si>
     <t xml:space="preserve">1.03691518306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18430805206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14982986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13431525230408</t>
+    <t xml:space="preserve">1.1843079328537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14982974529266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13431513309479</t>
   </si>
   <si>
     <t xml:space="preserve">1.16793119907379</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">1.04381084442139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05070626735687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03088223934174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04812121391296</t>
+    <t xml:space="preserve">1.05070614814758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03088212013245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04812133312225</t>
   </si>
   <si>
     <t xml:space="preserve">1.04553532600403</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">1.11707603931427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13690114021301</t>
+    <t xml:space="preserve">1.13690102100372</t>
   </si>
   <si>
     <t xml:space="preserve">1.16362082958221</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">1.16620659828186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17310202121735</t>
+    <t xml:space="preserve">1.17310214042664</t>
   </si>
   <si>
     <t xml:space="preserve">1.14896845817566</t>
@@ -1787,16 +1787,16 @@
     <t xml:space="preserve">1.11966192722321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12138557434082</t>
+    <t xml:space="preserve">1.12138545513153</t>
   </si>
   <si>
     <t xml:space="preserve">1.10673320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11535239219666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14034831523895</t>
+    <t xml:space="preserve">1.11535227298737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14034843444824</t>
   </si>
   <si>
     <t xml:space="preserve">1.11276650428772</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">1.13517642021179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14810609817505</t>
+    <t xml:space="preserve">1.14810597896576</t>
   </si>
   <si>
     <t xml:space="preserve">1.14552021026611</t>
@@ -1823,22 +1823,22 @@
     <t xml:space="preserve">1.45926749706268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40410268306732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37307262420654</t>
+    <t xml:space="preserve">1.40410280227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37307250499725</t>
   </si>
   <si>
     <t xml:space="preserve">1.33945751190186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41703236103058</t>
+    <t xml:space="preserve">1.41703248023987</t>
   </si>
   <si>
     <t xml:space="preserve">1.43168473243713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37221133708954</t>
+    <t xml:space="preserve">1.37221121788025</t>
   </si>
   <si>
     <t xml:space="preserve">1.39375913143158</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">1.39806962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37134921550751</t>
+    <t xml:space="preserve">1.37134909629822</t>
   </si>
   <si>
     <t xml:space="preserve">1.40927457809448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41530776023865</t>
+    <t xml:space="preserve">1.41530787944794</t>
   </si>
   <si>
     <t xml:space="preserve">1.44720005989075</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">1.46702432632446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46788668632507</t>
+    <t xml:space="preserve">1.46788656711578</t>
   </si>
   <si>
     <t xml:space="preserve">1.47391974925995</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">1.4446142911911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4196172952652</t>
+    <t xml:space="preserve">1.41961717605591</t>
   </si>
   <si>
     <t xml:space="preserve">1.43858003616333</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">1.49977803230286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48167753219604</t>
+    <t xml:space="preserve">1.48167741298676</t>
   </si>
   <si>
     <t xml:space="preserve">1.57735276222229</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">1.66268539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64803206920624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64458477497101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62475967407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6023496389389</t>
+    <t xml:space="preserve">1.64803218841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6445848941803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62475979328156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60234951972961</t>
   </si>
   <si>
     <t xml:space="preserve">1.60062515735626</t>
@@ -1919,22 +1919,22 @@
     <t xml:space="preserve">1.47995376586914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43254697322845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.427374958992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37479639053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4109982252121</t>
+    <t xml:space="preserve">1.43254685401917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42737507820129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37479627132416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41099810600281</t>
   </si>
   <si>
     <t xml:space="preserve">1.39289784431458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3446284532547</t>
+    <t xml:space="preserve">1.34462857246399</t>
   </si>
   <si>
     <t xml:space="preserve">1.36445343494415</t>
@@ -1943,25 +1943,25 @@
     <t xml:space="preserve">1.35841953754425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34031891822815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35066258907318</t>
+    <t xml:space="preserve">1.34031879901886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35066246986389</t>
   </si>
   <si>
     <t xml:space="preserve">1.3523862361908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3610053062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33342337608337</t>
+    <t xml:space="preserve">1.36100542545319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33342349529266</t>
   </si>
   <si>
     <t xml:space="preserve">1.3282516002655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29032599925995</t>
+    <t xml:space="preserve">1.29032611846924</t>
   </si>
   <si>
     <t xml:space="preserve">1.36962532997131</t>
@@ -1970,10 +1970,10 @@
     <t xml:space="preserve">1.35324847698212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36186766624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39203524589539</t>
+    <t xml:space="preserve">1.36186754703522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39203536510468</t>
   </si>
   <si>
     <t xml:space="preserve">1.38944947719574</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">1.34893894195557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3023933172226</t>
+    <t xml:space="preserve">1.30239319801331</t>
   </si>
   <si>
     <t xml:space="preserve">1.30928885936737</t>
@@ -1997,31 +1997,31 @@
     <t xml:space="preserve">1.40151691436768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36531579494476</t>
+    <t xml:space="preserve">1.36531591415405</t>
   </si>
   <si>
     <t xml:space="preserve">1.32308065891266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27998328208923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31446075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30153203010559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3687629699707</t>
+    <t xml:space="preserve">1.27998316287994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31446063518524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3015319108963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36876308917999</t>
   </si>
   <si>
     <t xml:space="preserve">1.38083040714264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47047245502472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52908432483673</t>
+    <t xml:space="preserve">1.47047257423401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52908444404602</t>
   </si>
   <si>
     <t xml:space="preserve">1.54373776912689</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">1.55063307285309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55149459838867</t>
+    <t xml:space="preserve">1.55149447917938</t>
   </si>
   <si>
     <t xml:space="preserve">1.59372961521149</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">1.59804010391235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53942728042603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4618524312973</t>
+    <t xml:space="preserve">1.53942716121674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46185255050659</t>
   </si>
   <si>
     <t xml:space="preserve">1.43771886825562</t>
@@ -2057,25 +2057,25 @@
     <t xml:space="preserve">1.4351327419281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46530067920685</t>
+    <t xml:space="preserve">1.46530055999756</t>
   </si>
   <si>
     <t xml:space="preserve">1.41875600814819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39117407798767</t>
+    <t xml:space="preserve">1.39117419719696</t>
   </si>
   <si>
     <t xml:space="preserve">1.37393498420715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37048673629761</t>
+    <t xml:space="preserve">1.37048661708832</t>
   </si>
   <si>
     <t xml:space="preserve">1.33859527111053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34118115901947</t>
+    <t xml:space="preserve">1.34118127822876</t>
   </si>
   <si>
     <t xml:space="preserve">1.3437671661377</t>
@@ -2102,10 +2102,10 @@
     <t xml:space="preserve">1.43340921401978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42392778396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49891662597656</t>
+    <t xml:space="preserve">1.42392790317535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49891650676727</t>
   </si>
   <si>
     <t xml:space="preserve">1.5359799861908</t>
@@ -2114,16 +2114,16 @@
     <t xml:space="preserve">1.5445990562439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54890859127045</t>
+    <t xml:space="preserve">1.54890871047974</t>
   </si>
   <si>
     <t xml:space="preserve">1.4937447309494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44375193119049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59200596809387</t>
+    <t xml:space="preserve">1.4437518119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59200608730316</t>
   </si>
   <si>
     <t xml:space="preserve">1.50753569602966</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">1.47478199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45237100124359</t>
+    <t xml:space="preserve">1.4523708820343</t>
   </si>
   <si>
     <t xml:space="preserve">1.37652087211609</t>
@@ -2162,19 +2162,19 @@
     <t xml:space="preserve">1.49115896224976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48081541061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51270771026611</t>
+    <t xml:space="preserve">1.48081529140472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51270759105682</t>
   </si>
   <si>
     <t xml:space="preserve">1.5187406539917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5118453502655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51960301399231</t>
+    <t xml:space="preserve">1.51184523105621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5196031332016</t>
   </si>
   <si>
     <t xml:space="preserve">1.56011462211609</t>
@@ -2186,13 +2186,13 @@
     <t xml:space="preserve">1.54028940200806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57131969928741</t>
+    <t xml:space="preserve">1.57131958007812</t>
   </si>
   <si>
     <t xml:space="preserve">1.58941996097565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58424830436707</t>
+    <t xml:space="preserve">1.58424818515778</t>
   </si>
   <si>
     <t xml:space="preserve">1.64889430999756</t>
@@ -2201,10 +2201,10 @@
     <t xml:space="preserve">1.65751349925995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6368271112442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69802498817444</t>
+    <t xml:space="preserve">1.63682723045349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69802486896515</t>
   </si>
   <si>
     <t xml:space="preserve">1.64372253417969</t>
@@ -2213,19 +2213,19 @@
     <t xml:space="preserve">1.68423402309418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6351033449173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61010658740997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59114372730255</t>
+    <t xml:space="preserve">1.63510346412659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61010646820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59114360809326</t>
   </si>
   <si>
     <t xml:space="preserve">1.60838282108307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61614060401917</t>
+    <t xml:space="preserve">1.61614072322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.61700189113617</t>
@@ -2237,13 +2237,13 @@
     <t xml:space="preserve">1.70233464241028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79628622531891</t>
+    <t xml:space="preserve">1.79628610610962</t>
   </si>
   <si>
     <t xml:space="preserve">1.76180875301361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77387619018555</t>
+    <t xml:space="preserve">1.77387607097626</t>
   </si>
   <si>
     <t xml:space="preserve">1.78421878814697</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">1.82214438915253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80490529537201</t>
+    <t xml:space="preserve">1.80490517616272</t>
   </si>
   <si>
     <t xml:space="preserve">1.77559959888458</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">1.73939788341522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72388327121735</t>
+    <t xml:space="preserve">1.72388315200806</t>
   </si>
   <si>
     <t xml:space="preserve">1.74112224578857</t>
@@ -2291,22 +2291,22 @@
     <t xml:space="preserve">1.66871845722198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66699504852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67647635936737</t>
+    <t xml:space="preserve">1.66699492931366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67647624015808</t>
   </si>
   <si>
     <t xml:space="preserve">1.6618230342865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69285321235657</t>
+    <t xml:space="preserve">1.69285309314728</t>
   </si>
   <si>
     <t xml:space="preserve">1.67561411857605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66096174716949</t>
+    <t xml:space="preserve">1.66096186637878</t>
   </si>
   <si>
     <t xml:space="preserve">1.62820792198181</t>
@@ -2315,10 +2315,10 @@
     <t xml:space="preserve">1.64199900627136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61183106899261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64286017417908</t>
+    <t xml:space="preserve">1.6118311882019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64286029338837</t>
   </si>
   <si>
     <t xml:space="preserve">1.64630842208862</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">1.63337886333466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65492761135101</t>
+    <t xml:space="preserve">1.65492749214172</t>
   </si>
   <si>
     <t xml:space="preserve">1.65148019790649</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">1.63596475124359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5945919752121</t>
+    <t xml:space="preserve">1.59459185600281</t>
   </si>
   <si>
     <t xml:space="preserve">1.596315741539</t>
@@ -2348,16 +2348,16 @@
     <t xml:space="preserve">1.48340106010437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54201304912567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53684222698212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51443123817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56097602844238</t>
+    <t xml:space="preserve">1.54201316833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53684210777283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51443111896515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56097590923309</t>
   </si>
   <si>
     <t xml:space="preserve">1.57476699352264</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">1.30497932434082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27136421203613</t>
+    <t xml:space="preserve">1.27136409282684</t>
   </si>
   <si>
     <t xml:space="preserve">1.21792316436768</t>
@@ -2390,61 +2390,61 @@
     <t xml:space="preserve">1.20413208007812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17224085330963</t>
+    <t xml:space="preserve">1.17224073410034</t>
   </si>
   <si>
     <t xml:space="preserve">1.06018757820129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962788760662079</t>
+    <t xml:space="preserve">0.962788820266724</t>
   </si>
   <si>
     <t xml:space="preserve">0.801605045795441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.742131650447845</t>
+    <t xml:space="preserve">0.74213171005249</t>
   </si>
   <si>
     <t xml:space="preserve">0.717997074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.564140558242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633096158504486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536127030849457</t>
+    <t xml:space="preserve">0.564140498638153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633096098899841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536127090454102</t>
   </si>
   <si>
     <t xml:space="preserve">0.618442893028259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.696448445320129</t>
+    <t xml:space="preserve">0.696448385715485</t>
   </si>
   <si>
     <t xml:space="preserve">0.748164892196655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724030256271362</t>
+    <t xml:space="preserve">0.724030315876007</t>
   </si>
   <si>
     <t xml:space="preserve">0.657661437988281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.704206168651581</t>
+    <t xml:space="preserve">0.704206109046936</t>
   </si>
   <si>
     <t xml:space="preserve">0.702050924301147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.709808647632599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.680933833122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.664125323295593</t>
+    <t xml:space="preserve">0.709808588027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680933773517609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.664125382900238</t>
   </si>
   <si>
     <t xml:space="preserve">0.680502235889435</t>
@@ -2468,22 +2468,22 @@
     <t xml:space="preserve">0.667142808437347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671452343463898</t>
+    <t xml:space="preserve">0.671452403068542</t>
   </si>
   <si>
     <t xml:space="preserve">0.65852278470993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.670590102672577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.660677969455719</t>
+    <t xml:space="preserve">0.670590162277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.660678029060364</t>
   </si>
   <si>
     <t xml:space="preserve">0.631803154945374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.635250449180603</t>
+    <t xml:space="preserve">0.635250508785248</t>
   </si>
   <si>
     <t xml:space="preserve">0.62964791059494</t>
@@ -2498,13 +2498,13 @@
     <t xml:space="preserve">0.672313749790192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.698172032833099</t>
+    <t xml:space="preserve">0.698171973228455</t>
   </si>
   <si>
     <t xml:space="preserve">0.675761938095093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.662832379341125</t>
+    <t xml:space="preserve">0.662832319736481</t>
   </si>
   <si>
     <t xml:space="preserve">0.661970973014832</t>
@@ -2522,10 +2522,10 @@
     <t xml:space="preserve">0.689552903175354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671020746231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646455526351929</t>
+    <t xml:space="preserve">0.671020805835724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.646455585956573</t>
   </si>
   <si>
     <t xml:space="preserve">0.629217267036438</t>
@@ -2540,19 +2540,19 @@
     <t xml:space="preserve">0.615857005119324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593015372753143</t>
+    <t xml:space="preserve">0.593015432357788</t>
   </si>
   <si>
     <t xml:space="preserve">0.600342452526093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.592584788799286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62102884054184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650766015052795</t>
+    <t xml:space="preserve">0.592584729194641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.621028780937195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650765955448151</t>
   </si>
   <si>
     <t xml:space="preserve">0.749457895755768</t>
@@ -2567,31 +2567,31 @@
     <t xml:space="preserve">0.792985916137695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854183852672577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861941635608673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930034995079041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939516425132751</t>
+    <t xml:space="preserve">0.854183912277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861941576004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930035054683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939516365528107</t>
   </si>
   <si>
     <t xml:space="preserve">1.03777754306793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04294943809509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999852061271667</t>
+    <t xml:space="preserve">1.0429493188858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999851942062378</t>
   </si>
   <si>
     <t xml:space="preserve">0.905900359153748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954168677330017</t>
+    <t xml:space="preserve">0.954168736934662</t>
   </si>
   <si>
     <t xml:space="preserve">0.955030977725983</t>
@@ -2603,19 +2603,19 @@
     <t xml:space="preserve">0.951583743095398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920553624629974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922277331352234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924000799655914</t>
+    <t xml:space="preserve">0.92055356502533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922277271747589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924000918865204</t>
   </si>
   <si>
     <t xml:space="preserve">0.849874317646027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805915534496307</t>
+    <t xml:space="preserve">0.805915594100952</t>
   </si>
   <si>
     <t xml:space="preserve">0.851167321205139</t>
@@ -2624,31 +2624,31 @@
     <t xml:space="preserve">0.831773817539215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81065571308136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827894926071167</t>
+    <t xml:space="preserve">0.810655772686005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827894985675812</t>
   </si>
   <si>
     <t xml:space="preserve">0.823153734207153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827463328838348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824016034603119</t>
+    <t xml:space="preserve">0.827463269233704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824016094207764</t>
   </si>
   <si>
     <t xml:space="preserve">0.801174402236938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80720853805542</t>
+    <t xml:space="preserve">0.807208478450775</t>
   </si>
   <si>
     <t xml:space="preserve">0.790830731391907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847719013690948</t>
+    <t xml:space="preserve">0.847719073295593</t>
   </si>
   <si>
     <t xml:space="preserve">0.820999503135681</t>
@@ -2660,22 +2660,22 @@
     <t xml:space="preserve">0.88262802362442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871422946453094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885213971138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.862802982330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861510097980499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865388929843903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825739681720734</t>
+    <t xml:space="preserve">0.871423006057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885213911533356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.862802922725677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861510038375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865388870239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825739622116089</t>
   </si>
   <si>
     <t xml:space="preserve">0.798588454723358</t>
@@ -2693,40 +2693,40 @@
     <t xml:space="preserve">0.800312101840973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811948776245117</t>
+    <t xml:space="preserve">0.811948716640472</t>
   </si>
   <si>
     <t xml:space="preserve">0.817981898784637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783073902130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79040002822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826170444488525</t>
+    <t xml:space="preserve">0.783073961734772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.790399968624115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826170384883881</t>
   </si>
   <si>
     <t xml:space="preserve">0.835651755332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.825308978557587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.805053293704987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795571863651276</t>
+    <t xml:space="preserve">0.825309097766876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.805053234100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.795571804046631</t>
   </si>
   <si>
     <t xml:space="preserve">0.764541745185852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.740838766098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.734804630279541</t>
+    <t xml:space="preserve">0.740838706493378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.734804689884186</t>
   </si>
   <si>
     <t xml:space="preserve">0.705929815769196</t>
@@ -2735,13 +2735,13 @@
     <t xml:space="preserve">0.712825238704681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71498054265976</t>
+    <t xml:space="preserve">0.714980483055115</t>
   </si>
   <si>
     <t xml:space="preserve">0.707653403282166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695587038993835</t>
+    <t xml:space="preserve">0.69558709859848</t>
   </si>
   <si>
     <t xml:space="preserve">0.687829315662384</t>
@@ -2753,22 +2753,22 @@
     <t xml:space="preserve">0.709378004074097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707222759723663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699464976787567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716704189777374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719720721244812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726185500621796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.720583021640778</t>
+    <t xml:space="preserve">0.707222700119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699465036392212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716704130172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.719720661640167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726185441017151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.720582962036133</t>
   </si>
   <si>
     <t xml:space="preserve">0.744286000728607</t>
@@ -2780,16 +2780,16 @@
     <t xml:space="preserve">0.766265392303467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792123675346375</t>
+    <t xml:space="preserve">0.79212361574173</t>
   </si>
   <si>
     <t xml:space="preserve">0.741269469261169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737822115421295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806776940822601</t>
+    <t xml:space="preserve">0.73782217502594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806776881217957</t>
   </si>
   <si>
     <t xml:space="preserve">0.781350255012512</t>
@@ -2822,37 +2822,37 @@
     <t xml:space="preserve">0.899867177009583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879179894924164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881765723228455</t>
+    <t xml:space="preserve">0.879179775714874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88176566362381</t>
   </si>
   <si>
     <t xml:space="preserve">0.838669300079346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833497524261475</t>
+    <t xml:space="preserve">0.83349746465683</t>
   </si>
   <si>
     <t xml:space="preserve">0.839100003242493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855046093463898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859355628490448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846857666969299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.773592591285706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733511686325073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675331294536591</t>
+    <t xml:space="preserve">0.855046153068542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859355688095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846857726573944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.773592531681061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733511626720428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675331234931946</t>
   </si>
   <si>
     <t xml:space="preserve">0.65421324968338</t>
@@ -2864,16 +2864,16 @@
     <t xml:space="preserve">0.681364476680756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.706360399723053</t>
+    <t xml:space="preserve">0.706360459327698</t>
   </si>
   <si>
     <t xml:space="preserve">0.711101591587067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777039706707001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809362828731537</t>
+    <t xml:space="preserve">0.777039766311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.809362769126892</t>
   </si>
   <si>
     <t xml:space="preserve">0.812811017036438</t>
@@ -2885,13 +2885,13 @@
     <t xml:space="preserve">0.883490264415741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872284412384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905038058757782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929172694683075</t>
+    <t xml:space="preserve">0.872284352779388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905038118362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92917275428772</t>
   </si>
   <si>
     <t xml:space="preserve">0.917967677116394</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">0.909348547458649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93348228931427</t>
+    <t xml:space="preserve">0.933482348918915</t>
   </si>
   <si>
     <t xml:space="preserve">0.921414971351624</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">0.930896401405334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910209894180298</t>
+    <t xml:space="preserve">0.910209953784943</t>
   </si>
   <si>
     <t xml:space="preserve">0.895556688308716</t>
@@ -2927,64 +2927,64 @@
     <t xml:space="preserve">0.866251111030579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868837118148804</t>
+    <t xml:space="preserve">0.868837058544159</t>
   </si>
   <si>
     <t xml:space="preserve">0.867113411426544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88693755865097</t>
+    <t xml:space="preserve">0.886937618255615</t>
   </si>
   <si>
     <t xml:space="preserve">0.934344530105591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876593887805939</t>
+    <t xml:space="preserve">0.876593947410583</t>
   </si>
   <si>
     <t xml:space="preserve">0.900728523731232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935206949710846</t>
+    <t xml:space="preserve">0.935206890106201</t>
   </si>
   <si>
     <t xml:space="preserve">0.973993837833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984337449073792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987784802913666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996404826641083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00933337211609</t>
+    <t xml:space="preserve">0.984337389469147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987784683704376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996404707431793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0093332529068</t>
   </si>
   <si>
     <t xml:space="preserve">0.992094337940216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964512348175049</t>
+    <t xml:space="preserve">0.964512407779694</t>
   </si>
   <si>
     <t xml:space="preserve">0.93175858259201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902452111244202</t>
+    <t xml:space="preserve">0.902452170848846</t>
   </si>
   <si>
     <t xml:space="preserve">0.88004207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894695281982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906762659549713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93606823682785</t>
+    <t xml:space="preserve">0.894695341587067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906762599945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936068296432495</t>
   </si>
   <si>
     <t xml:space="preserve">0.961065113544464</t>
@@ -2993,13 +2993,13 @@
     <t xml:space="preserve">0.950721442699432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956754684448242</t>
+    <t xml:space="preserve">0.956754565238953</t>
   </si>
   <si>
     <t xml:space="preserve">0.942102313041687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977441906929016</t>
+    <t xml:space="preserve">0.977441966533661</t>
   </si>
   <si>
     <t xml:space="preserve">0.928310453891754</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">0.972270131111145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971407890319824</t>
+    <t xml:space="preserve">0.971407949924469</t>
   </si>
   <si>
     <t xml:space="preserve">0.97657972574234</t>
@@ -3032,40 +3032,40 @@
     <t xml:space="preserve">1.18344581127167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22740435600281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2110276222229</t>
+    <t xml:space="preserve">1.22740459442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21102774143219</t>
   </si>
   <si>
     <t xml:space="preserve">1.19723665714264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1946507692337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20930409431458</t>
+    <t xml:space="preserve">1.19465088844299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20930397510529</t>
   </si>
   <si>
     <t xml:space="preserve">1.17482662200928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1446578502655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14638245105743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14207279682159</t>
+    <t xml:space="preserve">1.14465796947479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14638233184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14207291603088</t>
   </si>
   <si>
     <t xml:space="preserve">1.14724385738373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16706871986389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15672516822815</t>
+    <t xml:space="preserve">1.16706883907318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15672528743744</t>
   </si>
   <si>
     <t xml:space="preserve">1.20068490505219</t>
@@ -3077,13 +3077,13 @@
     <t xml:space="preserve">1.15069198608398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14293420314789</t>
+    <t xml:space="preserve">1.14293432235718</t>
   </si>
   <si>
     <t xml:space="preserve">1.42134189605713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41617000102997</t>
+    <t xml:space="preserve">1.41616988182068</t>
   </si>
   <si>
     <t xml:space="preserve">1.4851256608963</t>
@@ -3092,46 +3092,46 @@
     <t xml:space="preserve">1.48253965377808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48598694801331</t>
+    <t xml:space="preserve">1.4859870672226</t>
   </si>
   <si>
     <t xml:space="preserve">1.45150971412659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45668148994446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44202852249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48426330089569</t>
+    <t xml:space="preserve">1.45668160915375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44202840328217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48426342010498</t>
   </si>
   <si>
     <t xml:space="preserve">1.52391266822815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50581204891205</t>
+    <t xml:space="preserve">1.50581216812134</t>
   </si>
   <si>
     <t xml:space="preserve">1.48684930801392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47909164428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5282222032547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45840513706207</t>
+    <t xml:space="preserve">1.47909152507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52822208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45840525627136</t>
   </si>
   <si>
     <t xml:space="preserve">1.47133374214172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63855051994324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59976363182068</t>
+    <t xml:space="preserve">1.63855063915253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59976375102997</t>
   </si>
   <si>
     <t xml:space="preserve">1.67820000648499</t>
@@ -3140,7 +3140,7 @@
     <t xml:space="preserve">1.66354763507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67216670513153</t>
+    <t xml:space="preserve">1.67216682434082</t>
   </si>
   <si>
     <t xml:space="preserve">1.67130446434021</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">1.67906212806702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66527128219604</t>
+    <t xml:space="preserve">1.66527116298676</t>
   </si>
   <si>
     <t xml:space="preserve">1.5032262802124</t>
@@ -3167,19 +3167,19 @@
     <t xml:space="preserve">1.40237903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40841233730316</t>
+    <t xml:space="preserve">1.40841221809387</t>
   </si>
   <si>
     <t xml:space="preserve">1.44749176502228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48041009902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45755016803741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43834793567657</t>
+    <t xml:space="preserve">1.48041021823883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4575502872467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43834781646729</t>
   </si>
   <si>
     <t xml:space="preserve">1.43651902675629</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">1.49412596225739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53801715373993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56636357307434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58099389076233</t>
+    <t xml:space="preserve">1.53801727294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56636369228363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58099377155304</t>
   </si>
   <si>
     <t xml:space="preserve">1.63494336605072</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">1.63951539993286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6550600528717</t>
+    <t xml:space="preserve">1.65506017208099</t>
   </si>
   <si>
     <t xml:space="preserve">1.68797838687897</t>
@@ -3248,19 +3248,19 @@
     <t xml:space="preserve">1.63402891159058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56727802753448</t>
+    <t xml:space="preserve">1.5672779083252</t>
   </si>
   <si>
     <t xml:space="preserve">1.56910669803619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54076039791107</t>
+    <t xml:space="preserve">1.54076027870178</t>
   </si>
   <si>
     <t xml:space="preserve">1.54533243179321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57367861270905</t>
+    <t xml:space="preserve">1.57367885112762</t>
   </si>
   <si>
     <t xml:space="preserve">1.55539071559906</t>
@@ -3275,10 +3275,10 @@
     <t xml:space="preserve">1.57916510105133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6029394865036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6907217502594</t>
+    <t xml:space="preserve">1.60293936729431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69072163105011</t>
   </si>
   <si>
     <t xml:space="preserve">1.71632480621338</t>
@@ -3287,46 +3287,46 @@
     <t xml:space="preserve">1.61391234397888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5654491186142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53618848323822</t>
+    <t xml:space="preserve">1.56544899940491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53618836402893</t>
   </si>
   <si>
     <t xml:space="preserve">1.51241409778595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46943747997284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49321186542511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5133284330368</t>
+    <t xml:space="preserve">1.46943724155426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49321174621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51332855224609</t>
   </si>
   <si>
     <t xml:space="preserve">1.66969048976898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88731729984283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90560519695282</t>
+    <t xml:space="preserve">1.88731706142426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90560507774353</t>
   </si>
   <si>
     <t xml:space="preserve">1.96595537662506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95681142807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04642248153687</t>
+    <t xml:space="preserve">1.95681154727936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04642224311829</t>
   </si>
   <si>
     <t xml:space="preserve">2.1012864112854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15797924995422</t>
+    <t xml:space="preserve">2.15797877311707</t>
   </si>
   <si>
     <t xml:space="preserve">2.24027490615845</t>
@@ -3335,10 +3335,10 @@
     <t xml:space="preserve">2.02264809608459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94949626922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02447700500488</t>
+    <t xml:space="preserve">1.94949615001678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0244767665863</t>
   </si>
   <si>
     <t xml:space="preserve">2.00801801681519</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">2.08299851417542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17626714706421</t>
+    <t xml:space="preserve">2.17626738548279</t>
   </si>
   <si>
     <t xml:space="preserve">2.14151978492737</t>
@@ -3368,10 +3368,10 @@
     <t xml:space="preserve">2.23295950889587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24576139450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25124764442444</t>
+    <t xml:space="preserve">2.24576115608215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25124740600586</t>
   </si>
   <si>
     <t xml:space="preserve">2.31525540351868</t>
@@ -3380,13 +3380,13 @@
     <t xml:space="preserve">2.24941873550415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19089722633362</t>
+    <t xml:space="preserve">2.1908974647522</t>
   </si>
   <si>
     <t xml:space="preserve">2.21467161178589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26770687103271</t>
+    <t xml:space="preserve">2.26770663261414</t>
   </si>
   <si>
     <t xml:space="preserve">2.37926316261292</t>
@@ -3398,10 +3398,10 @@
     <t xml:space="preserve">2.3938934803009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42315459251404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49447751045227</t>
+    <t xml:space="preserve">2.42315435409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49447727203369</t>
   </si>
   <si>
     <t xml:space="preserve">2.52373814582825</t>
@@ -3410,19 +3410,19 @@
     <t xml:space="preserve">2.45973038673401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54202580451965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50179290771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5529990196228</t>
+    <t xml:space="preserve">2.54202604293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50179266929626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55299878120422</t>
   </si>
   <si>
     <t xml:space="preserve">2.59323215484619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58957457542419</t>
+    <t xml:space="preserve">2.58957481384277</t>
   </si>
   <si>
     <t xml:space="preserve">2.50910782814026</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">2.54934144020081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47253179550171</t>
+    <t xml:space="preserve">2.47253203392029</t>
   </si>
   <si>
     <t xml:space="preserve">2.41401052474976</t>
@@ -3449,13 +3449,13 @@
     <t xml:space="preserve">2.55848550796509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57128691673279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6426100730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74136471748352</t>
+    <t xml:space="preserve">2.57128667831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64260983467102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7413649559021</t>
   </si>
   <si>
     <t xml:space="preserve">2.72490572929382</t>
@@ -3470,25 +3470,25 @@
     <t xml:space="preserve">2.67918586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60420513153076</t>
+    <t xml:space="preserve">2.60420536994934</t>
   </si>
   <si>
     <t xml:space="preserve">2.40669512748718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39206480979919</t>
+    <t xml:space="preserve">2.39206457138062</t>
   </si>
   <si>
     <t xml:space="preserve">2.37011909484863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35548877716064</t>
+    <t xml:space="preserve">2.35548901557922</t>
   </si>
   <si>
     <t xml:space="preserve">2.34817385673523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33171439170837</t>
+    <t xml:space="preserve">2.33171463012695</t>
   </si>
   <si>
     <t xml:space="preserve">2.38292074203491</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">2.35183119773865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36097526550293</t>
+    <t xml:space="preserve">2.36097502708435</t>
   </si>
   <si>
     <t xml:space="preserve">2.34085845947266</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">2.38109230995178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31159782409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21832942962646</t>
+    <t xml:space="preserve">2.3115975856781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21832919120789</t>
   </si>
   <si>
     <t xml:space="preserve">2.22930192947388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24393224716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20735621452332</t>
+    <t xml:space="preserve">2.24393248558044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20735645294189</t>
   </si>
   <si>
     <t xml:space="preserve">2.22564435005188</t>
@@ -3530,16 +3530,16 @@
     <t xml:space="preserve">2.12323188781738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23844575881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26587796211243</t>
+    <t xml:space="preserve">2.23844599723816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26587772369385</t>
   </si>
   <si>
     <t xml:space="preserve">2.20369911193848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46887445449829</t>
+    <t xml:space="preserve">2.46887421607971</t>
   </si>
   <si>
     <t xml:space="preserve">2.47070288658142</t>
@@ -3551,10 +3551,10 @@
     <t xml:space="preserve">2.05739521980286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18906855583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18723964691162</t>
+    <t xml:space="preserve">2.18906831741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18723940849304</t>
   </si>
   <si>
     <t xml:space="preserve">2.16163659095764</t>
@@ -3563,49 +3563,49 @@
     <t xml:space="preserve">2.07751202583313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14700603485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05556654930115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09945750236511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09397101402283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99338734149933</t>
+    <t xml:space="preserve">2.14700627326965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05556631088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09945774078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09397077560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99338757991791</t>
   </si>
   <si>
     <t xml:space="preserve">2.07934069633484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06836795806885</t>
+    <t xml:space="preserve">2.06836819648743</t>
   </si>
   <si>
     <t xml:space="preserve">1.92755079269409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96229767799377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86354303359985</t>
+    <t xml:space="preserve">1.96229779720306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86354291439056</t>
   </si>
   <si>
     <t xml:space="preserve">1.69803690910339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61299788951874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61848425865173</t>
+    <t xml:space="preserve">1.61299777030945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61848413944244</t>
   </si>
   <si>
     <t xml:space="preserve">1.73369836807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63037133216858</t>
+    <t xml:space="preserve">1.63037145137787</t>
   </si>
   <si>
     <t xml:space="preserve">1.64591610431671</t>
@@ -3620,19 +3620,19 @@
     <t xml:space="preserve">1.81142222881317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79221987724304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7894766330719</t>
+    <t xml:space="preserve">1.79221975803375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78947675228119</t>
   </si>
   <si>
     <t xml:space="preserve">1.76113033294678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70352327823639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71906805038452</t>
+    <t xml:space="preserve">1.7035231590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71906793117523</t>
   </si>
   <si>
     <t xml:space="preserve">1.73278391361237</t>
@@ -3641,13 +3641,13 @@
     <t xml:space="preserve">1.78307580947876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92389309406281</t>
+    <t xml:space="preserve">1.92389333248138</t>
   </si>
   <si>
     <t xml:space="preserve">1.89280354976654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80136382579803</t>
+    <t xml:space="preserve">1.80136370658875</t>
   </si>
   <si>
     <t xml:space="preserve">1.84159731864929</t>
@@ -3662,7 +3662,7 @@
     <t xml:space="preserve">1.72363996505737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69346487522125</t>
+    <t xml:space="preserve">1.69346499443054</t>
   </si>
   <si>
     <t xml:space="preserve">1.65231704711914</t>
@@ -3677,13 +3677,13 @@
     <t xml:space="preserve">1.75472962856293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73186957836151</t>
+    <t xml:space="preserve">1.7318696975708</t>
   </si>
   <si>
     <t xml:space="preserve">1.68157768249512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69163608551025</t>
+    <t xml:space="preserve">1.69163620471954</t>
   </si>
   <si>
     <t xml:space="preserve">1.68249213695526</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">1.66054654121399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67243385314941</t>
+    <t xml:space="preserve">1.67243373394012</t>
   </si>
   <si>
     <t xml:space="preserve">1.60019636154175</t>
@@ -3701,49 +3701,49 @@
     <t xml:space="preserve">1.50967085361481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52613008022308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59105229377747</t>
+    <t xml:space="preserve">1.52612996101379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59105241298676</t>
   </si>
   <si>
     <t xml:space="preserve">1.65963220596313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64042973518372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69712221622467</t>
+    <t xml:space="preserve">1.64042985439301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69712233543396</t>
   </si>
   <si>
     <t xml:space="preserve">1.6587176322937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.651402592659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57459318637848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57002115249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68340647220612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69986581802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77758955955505</t>
+    <t xml:space="preserve">1.65140247344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57459306716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57002103328705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68340635299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69986569881439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77758944034576</t>
   </si>
   <si>
     <t xml:space="preserve">1.7446711063385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77118861675262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83793962001801</t>
+    <t xml:space="preserve">1.77118873596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83793973922729</t>
   </si>
   <si>
     <t xml:space="preserve">1.90377628803253</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">1.86537158489227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85622763633728</t>
+    <t xml:space="preserve">1.85622775554657</t>
   </si>
   <si>
     <t xml:space="preserve">1.85257005691528</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">1.71083843708038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5023558139801</t>
+    <t xml:space="preserve">1.50235569477081</t>
   </si>
   <si>
     <t xml:space="preserve">1.46395099163055</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">1.51178026199341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52397203445435</t>
+    <t xml:space="preserve">1.52397191524506</t>
   </si>
   <si>
     <t xml:space="preserve">1.53710162639618</t>
@@ -3782,19 +3782,19 @@
     <t xml:space="preserve">1.52303409576416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48270738124847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52115845680237</t>
+    <t xml:space="preserve">1.48270750045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52115857601166</t>
   </si>
   <si>
     <t xml:space="preserve">1.52866125106812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45926189422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41612160205841</t>
+    <t xml:space="preserve">1.45926177501678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4161217212677</t>
   </si>
   <si>
     <t xml:space="preserve">1.42268645763397</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">1.4179972410202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45269703865051</t>
+    <t xml:space="preserve">1.45269691944122</t>
   </si>
   <si>
     <t xml:space="preserve">1.43018913269043</t>
@@ -3836,19 +3836,19 @@
     <t xml:space="preserve">1.41518378257751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4011162519455</t>
+    <t xml:space="preserve">1.40111637115479</t>
   </si>
   <si>
     <t xml:space="preserve">1.40017867088318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3382819890976</t>
+    <t xml:space="preserve">1.33828186988831</t>
   </si>
   <si>
     <t xml:space="preserve">1.35516285896301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3757951259613</t>
+    <t xml:space="preserve">1.37579500675201</t>
   </si>
   <si>
     <t xml:space="preserve">1.46488893032074</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">1.44613230228424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49021005630493</t>
+    <t xml:space="preserve">1.49021017551422</t>
   </si>
   <si>
     <t xml:space="preserve">1.5164692401886</t>
@@ -3869,10 +3869,10 @@
     <t xml:space="preserve">1.50615310668945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5352258682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54272842407227</t>
+    <t xml:space="preserve">1.53522598743439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54272854328156</t>
   </si>
   <si>
     <t xml:space="preserve">1.53616380691528</t>
@@ -3896,37 +3896,34 @@
     <t xml:space="preserve">1.47801840305328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46395087242126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45644819736481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38986241817474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38611125946045</t>
+    <t xml:space="preserve">1.4564483165741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38986253738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38611114025116</t>
   </si>
   <si>
     <t xml:space="preserve">1.4170595407486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41987311840057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40580546855927</t>
+    <t xml:space="preserve">1.41987299919128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40580558776855</t>
   </si>
   <si>
     <t xml:space="preserve">1.4367538690567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37860858440399</t>
+    <t xml:space="preserve">1.3786084651947</t>
   </si>
   <si>
     <t xml:space="preserve">1.39548945426941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41330814361572</t>
+    <t xml:space="preserve">1.41330826282501</t>
   </si>
   <si>
     <t xml:space="preserve">1.40299212932587</t>
@@ -3935,7 +3932,7 @@
     <t xml:space="preserve">1.45832395553589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48083198070526</t>
+    <t xml:space="preserve">1.48083186149597</t>
   </si>
   <si>
     <t xml:space="preserve">1.46207535266876</t>
@@ -3959,7 +3956,7 @@
     <t xml:space="preserve">1.63463580608368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6290088891983</t>
+    <t xml:space="preserve">1.62900876998901</t>
   </si>
   <si>
     <t xml:space="preserve">1.64213848114014</t>
@@ -3992,7 +3989,7 @@
     <t xml:space="preserve">1.6102522611618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58211743831635</t>
+    <t xml:space="preserve">1.58211755752563</t>
   </si>
   <si>
     <t xml:space="preserve">1.64588975906372</t>
@@ -4004,10 +4001,10 @@
     <t xml:space="preserve">1.69278109073639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71060001850128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71153771877289</t>
+    <t xml:space="preserve">1.71059989929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71153783798218</t>
   </si>
   <si>
     <t xml:space="preserve">1.71247565746307</t>
@@ -4016,19 +4013,19 @@
     <t xml:space="preserve">1.72372961044312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81938803195953</t>
+    <t xml:space="preserve">1.81938815116882</t>
   </si>
   <si>
     <t xml:space="preserve">1.84939873218536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84564733505249</t>
+    <t xml:space="preserve">1.84564745426178</t>
   </si>
   <si>
     <t xml:space="preserve">1.7856262922287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77249670028687</t>
+    <t xml:space="preserve">1.77249658107758</t>
   </si>
   <si>
     <t xml:space="preserve">1.78187501430511</t>
@@ -4061,7 +4058,7 @@
     <t xml:space="preserve">1.99569988250732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00695371627808</t>
+    <t xml:space="preserve">2.00695395469666</t>
   </si>
   <si>
     <t xml:space="preserve">1.96756505966187</t>
@@ -4085,13 +4082,13 @@
     <t xml:space="preserve">2.03696441650391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05384516716003</t>
+    <t xml:space="preserve">2.05384540557861</t>
   </si>
   <si>
     <t xml:space="preserve">2.11011505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20202207565308</t>
+    <t xml:space="preserve">2.20202231407166</t>
   </si>
   <si>
     <t xml:space="preserve">2.22265434265137</t>
@@ -4115,13 +4112,13 @@
     <t xml:space="preserve">2.17013597488403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16826033592224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0388400554657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08573150634766</t>
+    <t xml:space="preserve">2.16826057434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03884029388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08573174476624</t>
   </si>
   <si>
     <t xml:space="preserve">1.91129541397095</t>
@@ -4130,13 +4127,13 @@
     <t xml:space="preserve">1.95068407058716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97319209575653</t>
+    <t xml:space="preserve">1.97319233417511</t>
   </si>
   <si>
     <t xml:space="preserve">1.98819732666016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99757599830627</t>
+    <t xml:space="preserve">1.9975757598877</t>
   </si>
   <si>
     <t xml:space="preserve">2.0013267993927</t>
@@ -4148,13 +4145,13 @@
     <t xml:space="preserve">1.97506761550903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02571058273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03133749961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09698534011841</t>
+    <t xml:space="preserve">2.02571082115173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03133726119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09698557853699</t>
   </si>
   <si>
     <t xml:space="preserve">2.12512040138245</t>
@@ -4166,19 +4163,19 @@
     <t xml:space="preserve">2.1963951587677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19451975822449</t>
+    <t xml:space="preserve">2.19451951980591</t>
   </si>
   <si>
     <t xml:space="preserve">2.16638493537903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08385586738586</t>
+    <t xml:space="preserve">2.08385562896729</t>
   </si>
   <si>
     <t xml:space="preserve">2.13824987411499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12887167930603</t>
+    <t xml:space="preserve">2.12887144088745</t>
   </si>
   <si>
     <t xml:space="preserve">2.10261249542236</t>
@@ -4202,7 +4199,7 @@
     <t xml:space="preserve">2.32018876075745</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3914635181427</t>
+    <t xml:space="preserve">2.39146375656128</t>
   </si>
   <si>
     <t xml:space="preserve">2.38208556175232</t>
@@ -4217,16 +4214,16 @@
     <t xml:space="preserve">2.49274921417236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45148491859436</t>
+    <t xml:space="preserve">2.45148468017578</t>
   </si>
   <si>
     <t xml:space="preserve">2.4852466583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47399258613586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4646143913269</t>
+    <t xml:space="preserve">2.47399282455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46461462974548</t>
   </si>
   <si>
     <t xml:space="preserve">2.46836566925049</t>
@@ -4235,13 +4232,13 @@
     <t xml:space="preserve">2.43272829055786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41959857940674</t>
+    <t xml:space="preserve">2.41959834098816</t>
   </si>
   <si>
     <t xml:space="preserve">2.38020992279053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38958835601807</t>
+    <t xml:space="preserve">2.38958811759949</t>
   </si>
   <si>
     <t xml:space="preserve">2.41022038459778</t>
@@ -4256,25 +4253,25 @@
     <t xml:space="preserve">2.4833710193634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48149538040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46649026870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45523619651794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39709067344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35957741737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25454068183899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30330801010132</t>
+    <t xml:space="preserve">2.48149514198303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4664900302887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45523595809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39709091186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35957765579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25454092025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30330777168274</t>
   </si>
   <si>
     <t xml:space="preserve">2.2526650428772</t>
@@ -4286,7 +4283,7 @@
     <t xml:space="preserve">2.27517318725586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27704858779907</t>
+    <t xml:space="preserve">2.27704834938049</t>
   </si>
   <si>
     <t xml:space="preserve">2.23953557014465</t>
@@ -4310,19 +4307,19 @@
     <t xml:space="preserve">2.34082102775574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31831312179565</t>
+    <t xml:space="preserve">2.31831288337708</t>
   </si>
   <si>
     <t xml:space="preserve">2.31456184387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32394003868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37458300590515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35582661628723</t>
+    <t xml:space="preserve">2.32393980026245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37458276748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35582637786865</t>
   </si>
   <si>
     <t xml:space="preserve">2.41584730148315</t>
@@ -4331,13 +4328,13 @@
     <t xml:space="preserve">2.55839729309082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5265109539032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56777548789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54714345932007</t>
+    <t xml:space="preserve">2.52651119232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5677752494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54714322090149</t>
   </si>
   <si>
     <t xml:space="preserve">2.55089473724365</t>
@@ -4346,13 +4343,13 @@
     <t xml:space="preserve">2.53776526451111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53588938713074</t>
+    <t xml:space="preserve">2.53588962554932</t>
   </si>
   <si>
     <t xml:space="preserve">2.51150584220886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59403491020203</t>
+    <t xml:space="preserve">2.59403467178345</t>
   </si>
   <si>
     <t xml:space="preserve">2.54339194297791</t>
@@ -4391,10 +4388,10 @@
     <t xml:space="preserve">2.37645864486694</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39896655082703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40459322929382</t>
+    <t xml:space="preserve">2.39896631240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40459299087524</t>
   </si>
   <si>
     <t xml:space="preserve">2.37270712852478</t>
@@ -5073,6 +5070,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.59400010108948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58800005912781</t>
   </si>
 </sst>
 </file>
@@ -19264,7 +19264,7 @@
         <v>5.6275200843811</v>
       </c>
       <c r="G533" t="s">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19342,7 +19342,7 @@
         <v>5.40128803253174</v>
       </c>
       <c r="G536" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19368,7 +19368,7 @@
         <v>5.28817176818848</v>
       </c>
       <c r="G537" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19472,7 +19472,7 @@
         <v>5.19862222671509</v>
       </c>
       <c r="G541" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19498,7 +19498,7 @@
         <v>5.18448209762573</v>
       </c>
       <c r="G542" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19524,7 +19524,7 @@
         <v>5.20804786682129</v>
       </c>
       <c r="G543" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19550,7 +19550,7 @@
         <v>5.22690105438232</v>
       </c>
       <c r="G544" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19576,7 +19576,7 @@
         <v>5.31173801422119</v>
       </c>
       <c r="G545" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19628,7 +19628,7 @@
         <v>5.17505598068237</v>
       </c>
       <c r="G547" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19654,7 +19654,7 @@
         <v>5.13735103607178</v>
       </c>
       <c r="G548" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19680,7 +19680,7 @@
         <v>5.13735103607178</v>
       </c>
       <c r="G549" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19706,7 +19706,7 @@
         <v>5.12321090698242</v>
       </c>
       <c r="G550" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19732,7 +19732,7 @@
         <v>5.19862222671509</v>
       </c>
       <c r="G551" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19758,7 +19758,7 @@
         <v>5.16562986373901</v>
       </c>
       <c r="G552" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19784,7 +19784,7 @@
         <v>5.06665277481079</v>
       </c>
       <c r="G553" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19810,7 +19810,7 @@
         <v>4.9771032333374</v>
       </c>
       <c r="G554" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19836,7 +19836,7 @@
         <v>5.014808177948</v>
       </c>
       <c r="G555" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19862,7 +19862,7 @@
         <v>5.07136583328247</v>
       </c>
       <c r="G556" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19888,7 +19888,7 @@
         <v>5.04780006408691</v>
       </c>
       <c r="G557" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19914,7 +19914,7 @@
         <v>5.09964513778687</v>
       </c>
       <c r="G558" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19940,7 +19940,7 @@
         <v>5.15620279312134</v>
       </c>
       <c r="G559" t="s">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19966,7 +19966,7 @@
         <v>5.12321090698242</v>
       </c>
       <c r="G560" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20122,7 +20122,7 @@
         <v>5.16562986373901</v>
       </c>
       <c r="G566" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20148,7 +20148,7 @@
         <v>5.19862222671509</v>
       </c>
       <c r="G567" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -49372,7 +49372,7 @@
         <v>1.56099998950958</v>
       </c>
       <c r="G1691" t="s">
-        <v>1294</v>
+        <v>1250</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49398,7 +49398,7 @@
         <v>1.55299997329712</v>
       </c>
       <c r="G1692" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49424,7 +49424,7 @@
         <v>1.48199999332428</v>
       </c>
       <c r="G1693" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49450,7 +49450,7 @@
         <v>1.47800004482269</v>
       </c>
       <c r="G1694" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49476,7 +49476,7 @@
         <v>1.5110000371933</v>
       </c>
       <c r="G1695" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49502,7 +49502,7 @@
         <v>1.51400005817413</v>
       </c>
       <c r="G1696" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49528,7 +49528,7 @@
         <v>1.49899995326996</v>
       </c>
       <c r="G1697" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49554,7 +49554,7 @@
         <v>1.53199994564056</v>
       </c>
       <c r="G1698" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49580,7 +49580,7 @@
         <v>1.47000002861023</v>
       </c>
       <c r="G1699" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49606,7 +49606,7 @@
         <v>1.48800003528595</v>
       </c>
       <c r="G1700" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49632,7 +49632,7 @@
         <v>1.50699996948242</v>
       </c>
       <c r="G1701" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49658,7 +49658,7 @@
         <v>1.49600005149841</v>
       </c>
       <c r="G1702" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49684,7 +49684,7 @@
         <v>1.55499994754791</v>
       </c>
       <c r="G1703" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49710,7 +49710,7 @@
         <v>1.5789999961853</v>
       </c>
       <c r="G1704" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49736,7 +49736,7 @@
         <v>1.55900001525879</v>
       </c>
       <c r="G1705" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49762,7 +49762,7 @@
         <v>1.61600005626678</v>
       </c>
       <c r="G1706" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49788,7 +49788,7 @@
         <v>1.56099998950958</v>
       </c>
       <c r="G1707" t="s">
-        <v>1294</v>
+        <v>1250</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49814,7 +49814,7 @@
         <v>1.55400002002716</v>
       </c>
       <c r="G1708" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49866,7 +49866,7 @@
         <v>1.53900003433228</v>
       </c>
       <c r="G1710" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49892,7 +49892,7 @@
         <v>1.87699997425079</v>
       </c>
       <c r="G1711" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49918,7 +49918,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49944,7 +49944,7 @@
         <v>1.74300003051758</v>
       </c>
       <c r="G1713" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49970,7 +49970,7 @@
         <v>1.73699998855591</v>
       </c>
       <c r="G1714" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49996,7 +49996,7 @@
         <v>1.75100004673004</v>
       </c>
       <c r="G1715" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50022,7 +50022,7 @@
         <v>1.72000002861023</v>
       </c>
       <c r="G1716" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50048,7 +50048,7 @@
         <v>1.64999997615814</v>
       </c>
       <c r="G1717" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50074,7 +50074,7 @@
         <v>1.71399998664856</v>
       </c>
       <c r="G1718" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50100,7 +50100,7 @@
         <v>1.70799994468689</v>
       </c>
       <c r="G1719" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50126,7 +50126,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G1720" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50152,7 +50152,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G1721" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50178,7 +50178,7 @@
         <v>1.69200003147125</v>
       </c>
       <c r="G1722" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50204,7 +50204,7 @@
         <v>1.67599999904633</v>
       </c>
       <c r="G1723" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50256,7 +50256,7 @@
         <v>1.71700000762939</v>
       </c>
       <c r="G1725" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50282,7 +50282,7 @@
         <v>1.68700003623962</v>
       </c>
       <c r="G1726" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50308,7 +50308,7 @@
         <v>1.75499999523163</v>
       </c>
       <c r="G1727" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50334,7 +50334,7 @@
         <v>1.75399994850159</v>
       </c>
       <c r="G1728" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50360,7 +50360,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G1729" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50386,7 +50386,7 @@
         <v>1.82400000095367</v>
       </c>
       <c r="G1730" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50412,7 +50412,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G1731" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50438,7 +50438,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G1732" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50464,7 +50464,7 @@
         <v>1.82599997520447</v>
       </c>
       <c r="G1733" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50490,7 +50490,7 @@
         <v>1.83800005912781</v>
       </c>
       <c r="G1734" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50516,7 +50516,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1735" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50542,7 +50542,7 @@
         <v>1.97200000286102</v>
       </c>
       <c r="G1736" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50568,7 +50568,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G1737" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50594,7 +50594,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1738" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50620,7 +50620,7 @@
         <v>1.88999998569489</v>
       </c>
       <c r="G1739" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50646,7 +50646,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1740" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50672,7 +50672,7 @@
         <v>1.94900000095367</v>
       </c>
       <c r="G1741" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50698,7 +50698,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G1742" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50724,7 +50724,7 @@
         <v>1.92700004577637</v>
       </c>
       <c r="G1743" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50750,7 +50750,7 @@
         <v>1.96700000762939</v>
       </c>
       <c r="G1744" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50776,7 +50776,7 @@
         <v>2.03399991989136</v>
       </c>
       <c r="G1745" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50802,7 +50802,7 @@
         <v>2.05399990081787</v>
       </c>
       <c r="G1746" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50828,7 +50828,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1747" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50854,7 +50854,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1748" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50880,7 +50880,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1749" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50906,7 +50906,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1750" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50932,7 +50932,7 @@
         <v>2.09800004959106</v>
       </c>
       <c r="G1751" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50958,7 +50958,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1752" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50984,7 +50984,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1753" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51010,7 +51010,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1754" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51036,7 +51036,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1755" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51062,7 +51062,7 @@
         <v>2.20600008964539</v>
       </c>
       <c r="G1756" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51088,7 +51088,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G1757" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51114,7 +51114,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1758" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51140,7 +51140,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G1759" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51166,7 +51166,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1760" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51192,7 +51192,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1761" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51218,7 +51218,7 @@
         <v>2.25</v>
       </c>
       <c r="G1762" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51244,7 +51244,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G1763" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51270,7 +51270,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1764" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51296,7 +51296,7 @@
         <v>2.33599996566772</v>
       </c>
       <c r="G1765" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51322,7 +51322,7 @@
         <v>2.33200001716614</v>
       </c>
       <c r="G1766" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51348,7 +51348,7 @@
         <v>2.35199999809265</v>
       </c>
       <c r="G1767" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51374,7 +51374,7 @@
         <v>2.38599991798401</v>
       </c>
       <c r="G1768" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51400,7 +51400,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1769" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51426,7 +51426,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G1770" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51452,7 +51452,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1771" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51478,7 +51478,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G1772" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51504,7 +51504,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1773" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51530,7 +51530,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G1774" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51556,7 +51556,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1775" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51582,7 +51582,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G1776" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51608,7 +51608,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1777" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51634,7 +51634,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1778" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51660,7 +51660,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G1779" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51686,7 +51686,7 @@
         <v>2.09200000762939</v>
       </c>
       <c r="G1780" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51712,7 +51712,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1781" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51738,7 +51738,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G1782" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51764,7 +51764,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1783" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51790,7 +51790,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1784" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51816,7 +51816,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G1785" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51842,7 +51842,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1786" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51868,7 +51868,7 @@
         <v>2.25</v>
       </c>
       <c r="G1787" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51894,7 +51894,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G1788" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51920,7 +51920,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1789" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51946,7 +51946,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1790" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51972,7 +51972,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G1791" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51998,7 +51998,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1792" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52024,7 +52024,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1793" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52050,7 +52050,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1794" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52076,7 +52076,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1795" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52102,7 +52102,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1796" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52128,7 +52128,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1797" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52154,7 +52154,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1798" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52180,7 +52180,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1799" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52206,7 +52206,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1800" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52232,7 +52232,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1801" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52258,7 +52258,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1802" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52284,7 +52284,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1803" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52310,7 +52310,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G1804" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52336,7 +52336,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1805" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52362,7 +52362,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52388,7 +52388,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1807" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52414,7 +52414,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52440,7 +52440,7 @@
         <v>2.56599998474121</v>
       </c>
       <c r="G1809" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52466,7 +52466,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1810" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52492,7 +52492,7 @@
         <v>2.65799999237061</v>
       </c>
       <c r="G1811" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52518,7 +52518,7 @@
         <v>2.61400008201599</v>
       </c>
       <c r="G1812" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52544,7 +52544,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1813" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52570,7 +52570,7 @@
         <v>2.63800001144409</v>
       </c>
       <c r="G1814" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52596,7 +52596,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G1815" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52622,7 +52622,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1816" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52648,7 +52648,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1817" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52674,7 +52674,7 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G1818" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52700,7 +52700,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1819" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52726,7 +52726,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G1820" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52752,7 +52752,7 @@
         <v>2.56599998474121</v>
       </c>
       <c r="G1821" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52778,7 +52778,7 @@
         <v>2.54800009727478</v>
       </c>
       <c r="G1822" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52804,7 +52804,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1823" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52830,7 +52830,7 @@
         <v>2.57399988174438</v>
       </c>
       <c r="G1824" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52856,7 +52856,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1825" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52882,7 +52882,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1826" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52908,7 +52908,7 @@
         <v>2.64800000190735</v>
       </c>
       <c r="G1827" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52934,7 +52934,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1828" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52960,7 +52960,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1829" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52986,7 +52986,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1830" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53012,7 +53012,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G1831" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53038,7 +53038,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G1832" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53064,7 +53064,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1833" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53090,7 +53090,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G1834" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53116,7 +53116,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1835" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53142,7 +53142,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1836" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53168,7 +53168,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G1837" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53194,7 +53194,7 @@
         <v>2.38599991798401</v>
       </c>
       <c r="G1838" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53220,7 +53220,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1839" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53246,7 +53246,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G1840" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53272,7 +53272,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1841" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53298,7 +53298,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G1842" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53324,7 +53324,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1843" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53350,7 +53350,7 @@
         <v>2.33200001716614</v>
       </c>
       <c r="G1844" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53376,7 +53376,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G1845" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53402,7 +53402,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G1846" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53428,7 +53428,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1847" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53454,7 +53454,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G1848" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53480,7 +53480,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1849" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53506,7 +53506,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G1850" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53532,7 +53532,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1851" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53558,7 +53558,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1852" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53584,7 +53584,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1853" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53610,7 +53610,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G1854" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53636,7 +53636,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G1855" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53662,7 +53662,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1856" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53688,7 +53688,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1857" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53714,7 +53714,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G1858" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53740,7 +53740,7 @@
         <v>2.57599997520447</v>
       </c>
       <c r="G1859" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53766,7 +53766,7 @@
         <v>2.7279999256134</v>
       </c>
       <c r="G1860" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53792,7 +53792,7 @@
         <v>2.69400000572205</v>
       </c>
       <c r="G1861" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53818,7 +53818,7 @@
         <v>2.73799991607666</v>
       </c>
       <c r="G1862" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53844,7 +53844,7 @@
         <v>2.69400000572205</v>
       </c>
       <c r="G1863" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53870,7 +53870,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1864" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53896,7 +53896,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1865" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53922,7 +53922,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G1866" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53948,7 +53948,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G1867" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53974,7 +53974,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1868" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54000,7 +54000,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1869" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54026,7 +54026,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1870" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54052,7 +54052,7 @@
         <v>2.76600003242493</v>
       </c>
       <c r="G1871" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54078,7 +54078,7 @@
         <v>2.71199989318848</v>
       </c>
       <c r="G1872" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54104,7 +54104,7 @@
         <v>2.75399994850159</v>
       </c>
       <c r="G1873" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54130,7 +54130,7 @@
         <v>2.71799993515015</v>
       </c>
       <c r="G1874" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54156,7 +54156,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G1875" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54182,7 +54182,7 @@
         <v>2.64199995994568</v>
       </c>
       <c r="G1876" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54208,7 +54208,7 @@
         <v>2.64199995994568</v>
       </c>
       <c r="G1877" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54234,7 +54234,7 @@
         <v>2.60400009155273</v>
       </c>
       <c r="G1878" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54260,7 +54260,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1879" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54286,7 +54286,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G1880" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54312,7 +54312,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1881" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54338,7 +54338,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G1882" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54364,7 +54364,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G1883" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54390,7 +54390,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1884" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54416,7 +54416,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G1885" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54442,7 +54442,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1886" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54468,7 +54468,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1887" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54494,7 +54494,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G1888" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54520,7 +54520,7 @@
         <v>2.55800008773804</v>
       </c>
       <c r="G1889" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54546,7 +54546,7 @@
         <v>2.56399989128113</v>
       </c>
       <c r="G1890" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54572,7 +54572,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1891" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54598,7 +54598,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G1892" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54624,7 +54624,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G1893" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54650,7 +54650,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G1894" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54676,7 +54676,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G1895" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54702,7 +54702,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1896" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54728,7 +54728,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1897" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54754,7 +54754,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G1898" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54780,7 +54780,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1899" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54806,7 +54806,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1900" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54832,7 +54832,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1901" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54858,7 +54858,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1902" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54884,7 +54884,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1903" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54910,7 +54910,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G1904" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54936,7 +54936,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G1905" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54962,7 +54962,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G1906" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54988,7 +54988,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1907" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55014,7 +55014,7 @@
         <v>2.48200011253357</v>
       </c>
       <c r="G1908" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55040,7 +55040,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1909" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55066,7 +55066,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1910" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55092,7 +55092,7 @@
         <v>2.57800006866455</v>
       </c>
       <c r="G1911" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55118,7 +55118,7 @@
         <v>2.53800010681152</v>
       </c>
       <c r="G1912" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55144,7 +55144,7 @@
         <v>2.46600008010864</v>
       </c>
       <c r="G1913" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55170,7 +55170,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1914" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55196,7 +55196,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1915" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55222,7 +55222,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1916" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55248,7 +55248,7 @@
         <v>2.54399991035461</v>
       </c>
       <c r="G1917" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55274,7 +55274,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1918" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55300,7 +55300,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1919" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55326,7 +55326,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1920" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55352,7 +55352,7 @@
         <v>2.5</v>
       </c>
       <c r="G1921" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55378,7 +55378,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G1922" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55404,7 +55404,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G1923" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55430,7 +55430,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G1924" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55456,7 +55456,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G1925" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55482,7 +55482,7 @@
         <v>2.47399997711182</v>
       </c>
       <c r="G1926" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55508,7 +55508,7 @@
         <v>2.46199989318848</v>
       </c>
       <c r="G1927" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55534,7 +55534,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1928" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55560,7 +55560,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G1929" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55586,7 +55586,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1930" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55612,7 +55612,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G1931" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55638,7 +55638,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1932" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55664,7 +55664,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G1933" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55690,7 +55690,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1934" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55716,7 +55716,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1935" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55742,7 +55742,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1936" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55768,7 +55768,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G1937" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55794,7 +55794,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G1938" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55820,7 +55820,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1939" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55846,7 +55846,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1940" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55872,7 +55872,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1941" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55898,7 +55898,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1942" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55924,7 +55924,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1943" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55950,7 +55950,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1944" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55976,7 +55976,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G1945" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56002,7 +56002,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1946" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56028,7 +56028,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G1947" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56054,7 +56054,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G1948" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56080,7 +56080,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G1949" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56106,7 +56106,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G1950" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56132,7 +56132,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1951" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56158,7 +56158,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1952" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56184,7 +56184,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1953" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56210,7 +56210,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1954" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56236,7 +56236,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1955" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56262,7 +56262,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1956" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56288,7 +56288,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1957" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56314,7 +56314,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1958" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56340,7 +56340,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G1959" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56366,7 +56366,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1960" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56392,7 +56392,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G1961" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56418,7 +56418,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1962" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56444,7 +56444,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1963" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56470,7 +56470,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1964" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56496,7 +56496,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1965" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56522,7 +56522,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1966" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56548,7 +56548,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G1967" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56574,7 +56574,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G1968" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56600,7 +56600,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G1969" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56626,7 +56626,7 @@
         <v>1.91199994087219</v>
       </c>
       <c r="G1970" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56652,7 +56652,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G1971" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56678,7 +56678,7 @@
         <v>1.93599998950958</v>
       </c>
       <c r="G1972" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56704,7 +56704,7 @@
         <v>1.96800005435944</v>
       </c>
       <c r="G1973" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56730,7 +56730,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1974" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56756,7 +56756,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G1975" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56782,7 +56782,7 @@
         <v>1.83700001239777</v>
       </c>
       <c r="G1976" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56808,7 +56808,7 @@
         <v>1.83399999141693</v>
       </c>
       <c r="G1977" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56834,7 +56834,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G1978" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56860,7 +56860,7 @@
         <v>1.79499995708466</v>
       </c>
       <c r="G1979" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56886,7 +56886,7 @@
         <v>1.84599995613098</v>
       </c>
       <c r="G1980" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56912,7 +56912,7 @@
         <v>1.82500004768372</v>
       </c>
       <c r="G1981" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56938,7 +56938,7 @@
         <v>1.78900003433228</v>
       </c>
       <c r="G1982" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56964,7 +56964,7 @@
         <v>1.73500001430511</v>
       </c>
       <c r="G1983" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56990,7 +56990,7 @@
         <v>1.75</v>
       </c>
       <c r="G1984" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57016,7 +57016,7 @@
         <v>1.75399994850159</v>
       </c>
       <c r="G1985" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57042,7 +57042,7 @@
         <v>1.75600004196167</v>
       </c>
       <c r="G1986" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57068,7 +57068,7 @@
         <v>1.76900005340576</v>
       </c>
       <c r="G1987" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57094,7 +57094,7 @@
         <v>1.76800000667572</v>
       </c>
       <c r="G1988" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57120,7 +57120,7 @@
         <v>1.64400005340576</v>
       </c>
       <c r="G1989" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57146,7 +57146,7 @@
         <v>1.66400003433228</v>
       </c>
       <c r="G1990" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57172,7 +57172,7 @@
         <v>1.65199995040894</v>
       </c>
       <c r="G1991" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57198,7 +57198,7 @@
         <v>1.65900003910065</v>
       </c>
       <c r="G1992" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57224,7 +57224,7 @@
         <v>1.65600001811981</v>
       </c>
       <c r="G1993" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57250,7 +57250,7 @@
         <v>1.66499996185303</v>
       </c>
       <c r="G1994" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57276,7 +57276,7 @@
         <v>1.6710000038147</v>
       </c>
       <c r="G1995" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57302,7 +57302,7 @@
         <v>1.67999994754791</v>
       </c>
       <c r="G1996" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57328,7 +57328,7 @@
         <v>1.69599997997284</v>
       </c>
       <c r="G1997" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57354,7 +57354,7 @@
         <v>1.73800003528595</v>
       </c>
       <c r="G1998" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57380,7 +57380,7 @@
         <v>1.71899998188019</v>
       </c>
       <c r="G1999" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57406,7 +57406,7 @@
         <v>1.72800004482269</v>
       </c>
       <c r="G2000" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57432,7 +57432,7 @@
         <v>1.7389999628067</v>
       </c>
       <c r="G2001" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57458,7 +57458,7 @@
         <v>1.74800002574921</v>
       </c>
       <c r="G2002" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57484,7 +57484,7 @@
         <v>1.7150000333786</v>
       </c>
       <c r="G2003" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57510,7 +57510,7 @@
         <v>1.73099994659424</v>
       </c>
       <c r="G2004" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57536,7 +57536,7 @@
         <v>1.74000000953674</v>
       </c>
       <c r="G2005" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57562,7 +57562,7 @@
         <v>1.80099999904633</v>
       </c>
       <c r="G2006" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57588,7 +57588,7 @@
         <v>1.76199996471405</v>
       </c>
       <c r="G2007" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57614,7 +57614,7 @@
         <v>1.77900004386902</v>
       </c>
       <c r="G2008" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57640,7 +57640,7 @@
         <v>1.81400001049042</v>
       </c>
       <c r="G2009" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57666,7 +57666,7 @@
         <v>1.81599998474121</v>
       </c>
       <c r="G2010" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57692,7 +57692,7 @@
         <v>1.79200005531311</v>
       </c>
       <c r="G2011" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57718,7 +57718,7 @@
         <v>1.79100000858307</v>
       </c>
       <c r="G2012" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57744,7 +57744,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2013" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57770,7 +57770,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2014" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57796,7 +57796,7 @@
         <v>1.85500001907349</v>
       </c>
       <c r="G2015" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57822,7 +57822,7 @@
         <v>1.97800004482269</v>
       </c>
       <c r="G2016" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57848,7 +57848,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G2017" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57874,7 +57874,7 @@
         <v>2.04399991035461</v>
       </c>
       <c r="G2018" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57900,7 +57900,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G2019" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57926,7 +57926,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G2020" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57952,7 +57952,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G2021" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57978,7 +57978,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G2022" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58004,7 +58004,7 @@
         <v>2.07800006866455</v>
       </c>
       <c r="G2023" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58030,7 +58030,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2024" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58056,7 +58056,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G2025" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58082,7 +58082,7 @@
         <v>2.02800011634827</v>
       </c>
       <c r="G2026" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58108,7 +58108,7 @@
         <v>2.14400005340576</v>
       </c>
       <c r="G2027" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58134,7 +58134,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G2028" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58160,7 +58160,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G2029" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58186,7 +58186,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G2030" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58212,7 +58212,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G2031" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58238,7 +58238,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G2032" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58264,7 +58264,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2033" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58290,7 +58290,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G2034" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58316,7 +58316,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G2035" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58342,7 +58342,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58368,7 +58368,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G2037" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58394,7 +58394,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G2038" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58420,7 +58420,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2039" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58446,7 +58446,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G2040" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58472,7 +58472,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2041" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58498,7 +58498,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58524,7 +58524,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2043" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58550,7 +58550,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2044" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58576,7 +58576,7 @@
         <v>2.16400003433228</v>
       </c>
       <c r="G2045" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58602,7 +58602,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G2046" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58628,7 +58628,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G2047" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58654,7 +58654,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2048" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58680,7 +58680,7 @@
         <v>2.05800008773804</v>
       </c>
       <c r="G2049" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58706,7 +58706,7 @@
         <v>2.03200006484985</v>
       </c>
       <c r="G2050" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58732,7 +58732,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2051" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58758,7 +58758,7 @@
         <v>2.09800004959106</v>
       </c>
       <c r="G2052" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58784,7 +58784,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G2053" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58810,7 +58810,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58836,7 +58836,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G2055" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58862,7 +58862,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G2056" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58888,7 +58888,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2057" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58914,7 +58914,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2058" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58940,7 +58940,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G2059" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58966,7 +58966,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2060" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58992,7 +58992,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2061" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59018,7 +59018,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2062" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59044,7 +59044,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2063" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59070,7 +59070,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G2064" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59096,7 +59096,7 @@
         <v>2.25</v>
       </c>
       <c r="G2065" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59122,7 +59122,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G2066" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59148,7 +59148,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2067" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59174,7 +59174,7 @@
         <v>2.25</v>
       </c>
       <c r="G2068" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59200,7 +59200,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G2069" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59226,7 +59226,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2070" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59252,7 +59252,7 @@
         <v>2.20600008964539</v>
       </c>
       <c r="G2071" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59278,7 +59278,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G2072" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59304,7 +59304,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2073" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59330,7 +59330,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G2074" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59356,7 +59356,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2075" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59382,7 +59382,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2076" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59408,7 +59408,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G2077" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59434,7 +59434,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2078" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59460,7 +59460,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G2079" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59486,7 +59486,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2080" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59512,7 +59512,7 @@
         <v>2.25</v>
       </c>
       <c r="G2081" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59538,7 +59538,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G2082" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59564,7 +59564,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G2083" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59590,7 +59590,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G2084" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59616,7 +59616,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G2085" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59642,7 +59642,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2086" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59668,7 +59668,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G2087" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59694,7 +59694,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2088" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59720,7 +59720,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G2089" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59746,7 +59746,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2090" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59772,7 +59772,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2091" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59798,7 +59798,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G2092" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59824,7 +59824,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G2093" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59850,7 +59850,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G2094" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59876,7 +59876,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G2095" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59902,7 +59902,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59928,7 +59928,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G2097" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59954,7 +59954,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G2098" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59980,7 +59980,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G2099" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60006,7 +60006,7 @@
         <v>2.37400007247925</v>
       </c>
       <c r="G2100" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60032,7 +60032,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G2101" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60058,7 +60058,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G2102" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60084,7 +60084,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G2103" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60110,7 +60110,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G2104" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60136,7 +60136,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G2105" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60162,7 +60162,7 @@
         <v>2.25</v>
       </c>
       <c r="G2106" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60188,7 +60188,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G2107" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60214,7 +60214,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G2108" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60240,7 +60240,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G2109" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60266,7 +60266,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2110" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60292,7 +60292,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G2111" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60318,7 +60318,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G2112" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60344,7 +60344,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G2113" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60370,7 +60370,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G2114" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60396,7 +60396,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60422,7 +60422,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G2116" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60448,7 +60448,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G2117" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60474,7 +60474,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G2118" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60500,7 +60500,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G2119" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60526,7 +60526,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G2120" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60552,7 +60552,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G2121" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60578,7 +60578,7 @@
         <v>2.5</v>
       </c>
       <c r="G2122" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60604,7 +60604,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G2123" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60630,7 +60630,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G2124" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60656,7 +60656,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G2125" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60682,7 +60682,7 @@
         <v>2.58599996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60708,7 +60708,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G2127" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60734,7 +60734,7 @@
         <v>2.6340000629425</v>
       </c>
       <c r="G2128" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60760,7 +60760,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60786,7 +60786,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G2130" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60812,7 +60812,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2131" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60838,7 +60838,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2132" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60864,7 +60864,7 @@
         <v>2.70199990272522</v>
       </c>
       <c r="G2133" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60890,7 +60890,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2134" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60916,7 +60916,7 @@
         <v>2.65799999237061</v>
       </c>
       <c r="G2135" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60942,7 +60942,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2136" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60968,7 +60968,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2137" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60994,7 +60994,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G2138" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61020,7 +61020,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61046,7 +61046,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G2140" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61072,7 +61072,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G2141" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61098,7 +61098,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G2142" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61124,7 +61124,7 @@
         <v>2.86400008201599</v>
       </c>
       <c r="G2143" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61150,7 +61150,7 @@
         <v>2.82200002670288</v>
       </c>
       <c r="G2144" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61176,7 +61176,7 @@
         <v>2.80200004577637</v>
       </c>
       <c r="G2145" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61202,7 +61202,7 @@
         <v>2.79399991035461</v>
       </c>
       <c r="G2146" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61228,7 +61228,7 @@
         <v>2.79200005531311</v>
       </c>
       <c r="G2147" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61254,7 +61254,7 @@
         <v>2.86199998855591</v>
       </c>
       <c r="G2148" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61280,7 +61280,7 @@
         <v>2.80999994277954</v>
       </c>
       <c r="G2149" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61306,7 +61306,7 @@
         <v>2.82800006866455</v>
       </c>
       <c r="G2150" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61332,7 +61332,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2151" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61358,7 +61358,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G2152" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61384,7 +61384,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G2153" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61410,7 +61410,7 @@
         <v>2.75600004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61436,7 +61436,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2155" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61462,7 +61462,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G2156" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61488,7 +61488,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G2157" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61514,7 +61514,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2158" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61540,7 +61540,7 @@
         <v>2.58400011062622</v>
       </c>
       <c r="G2159" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61566,7 +61566,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G2160" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61592,7 +61592,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G2161" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61618,7 +61618,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G2162" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61644,7 +61644,7 @@
         <v>2.55200004577637</v>
       </c>
       <c r="G2163" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61670,7 +61670,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G2164" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61696,7 +61696,7 @@
         <v>2.56800007820129</v>
       </c>
       <c r="G2165" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61722,7 +61722,7 @@
         <v>2.59800004959106</v>
       </c>
       <c r="G2166" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61730,7 +61730,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6496064815</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>826656</v>
@@ -61748,9 +61748,35 @@
         <v>2.59400010108948</v>
       </c>
       <c r="G2167" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6495486111</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>455097</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>2.62400007247925</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>2.55999994277954</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>2.59400010108948</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>2.58800005912781</v>
+      </c>
+      <c r="G2168" t="s">
         <v>1686</v>
       </c>
-      <c r="H2167" t="s">
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OVS.MI.xlsx
+++ b/data/OVS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1689">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">OVS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05481243133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9155387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.792649269104</t>
+    <t xml:space="preserve">5.05481195449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91553831100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79264974594116</t>
   </si>
   <si>
     <t xml:space="preserve">4.87047910690308</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">4.80493831634521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9401159286499</t>
+    <t xml:space="preserve">4.94011640548706</t>
   </si>
   <si>
     <t xml:space="preserve">5.0998706817627</t>
@@ -68,16 +68,16 @@
     <t xml:space="preserve">4.84180545806885</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75168704986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78445816040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76397514343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38711786270142</t>
+    <t xml:space="preserve">4.75168657302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78445768356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76397562026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38711738586426</t>
   </si>
   <si>
     <t xml:space="preserve">4.36253976821899</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">4.67795324325562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60012340545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64108753204346</t>
+    <t xml:space="preserve">4.60012435913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62060594558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6410870552063</t>
   </si>
   <si>
     <t xml:space="preserve">4.65747213363647</t>
@@ -101,28 +101,28 @@
     <t xml:space="preserve">4.58783578872681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77626419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73939847946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66156911849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69024276733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46494770050049</t>
+    <t xml:space="preserve">4.77626466751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73939800262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66156959533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69024324417114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46494722366333</t>
   </si>
   <si>
     <t xml:space="preserve">4.1618218421936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1577262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4157919883728</t>
+    <t xml:space="preserve">4.15772581100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41579246520996</t>
   </si>
   <si>
     <t xml:space="preserve">4.35844373703003</t>
@@ -131,25 +131,25 @@
     <t xml:space="preserve">4.52229499816895</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44037008285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61241388320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60831642150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62879800796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63289403915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4075984954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37482929229736</t>
+    <t xml:space="preserve">4.44037055969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61241340637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60831594467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62879848480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63289451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40759897232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37482881546021</t>
   </si>
   <si>
     <t xml:space="preserve">4.57964277267456</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">4.82132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86638307571411</t>
+    <t xml:space="preserve">4.86638259887695</t>
   </si>
   <si>
     <t xml:space="preserve">4.73530149459839</t>
@@ -173,34 +173,34 @@
     <t xml:space="preserve">4.66976165771484</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52639102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57145023345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5427770614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42808055877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25193977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22736263275146</t>
+    <t xml:space="preserve">4.52639150619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57145071029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54277658462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4280800819397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25194025039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22736310958862</t>
   </si>
   <si>
     <t xml:space="preserve">4.19459247589111</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21917009353638</t>
+    <t xml:space="preserve">4.21917057037354</t>
   </si>
   <si>
     <t xml:space="preserve">4.28880643844604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34615564346313</t>
+    <t xml:space="preserve">4.34615516662598</t>
   </si>
   <si>
     <t xml:space="preserve">4.17820739746094</t>
@@ -218,16 +218,16 @@
     <t xml:space="preserve">4.37073278427124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65337610244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88686418533325</t>
+    <t xml:space="preserve">4.65337562561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88686513900757</t>
   </si>
   <si>
     <t xml:space="preserve">4.69433927536011</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64518404006958</t>
+    <t xml:space="preserve">4.64518356323242</t>
   </si>
   <si>
     <t xml:space="preserve">4.70662784576416</t>
@@ -236,40 +236,40 @@
     <t xml:space="preserve">4.62470197677612</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66566562652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69843578338623</t>
+    <t xml:space="preserve">4.66566610336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69843530654907</t>
   </si>
   <si>
     <t xml:space="preserve">4.68614673614502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71482038497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68204927444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79674530029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85409355163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99746370315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04661893844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96879005432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03433084487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06710052490234</t>
+    <t xml:space="preserve">4.71481990814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68204975128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79674577713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8540940284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99746322631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04661846160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96878957748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03433036804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0671010017395</t>
   </si>
   <si>
     <t xml:space="preserve">4.91144180297852</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">4.91877222061157</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05750560760498</t>
+    <t xml:space="preserve">5.05750608444214</t>
   </si>
   <si>
     <t xml:space="preserve">4.88513946533203</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">4.66232347488403</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61607885360718</t>
+    <t xml:space="preserve">4.61607837677002</t>
   </si>
   <si>
     <t xml:space="preserve">4.6202826499939</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">4.75901699066162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69595623016357</t>
+    <t xml:space="preserve">4.69595575332642</t>
   </si>
   <si>
     <t xml:space="preserve">4.65812015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4689359664917</t>
+    <t xml:space="preserve">4.46893548965454</t>
   </si>
   <si>
     <t xml:space="preserve">4.07291126251221</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">4.26713991165161</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38065004348755</t>
+    <t xml:space="preserve">4.38065052032471</t>
   </si>
   <si>
     <t xml:space="preserve">4.4016695022583</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">4.2208948135376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18221712112427</t>
+    <t xml:space="preserve">4.18221759796143</t>
   </si>
   <si>
     <t xml:space="preserve">4.32179260253906</t>
@@ -353,13 +353,13 @@
     <t xml:space="preserve">4.28815984725952</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2923641204834</t>
+    <t xml:space="preserve">4.29236364364624</t>
   </si>
   <si>
     <t xml:space="preserve">4.23771142959595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17212867736816</t>
+    <t xml:space="preserve">4.17212820053101</t>
   </si>
   <si>
     <t xml:space="preserve">4.25032329559326</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">4.34281349182129</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36803722381592</t>
+    <t xml:space="preserve">4.36803770065308</t>
   </si>
   <si>
     <t xml:space="preserve">4.51097679138184</t>
@@ -392,16 +392,16 @@
     <t xml:space="preserve">4.41428279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37644529342651</t>
+    <t xml:space="preserve">4.37644577026367</t>
   </si>
   <si>
     <t xml:space="preserve">4.38905811309814</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43530368804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36383295059204</t>
+    <t xml:space="preserve">4.43530321121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3638334274292</t>
   </si>
   <si>
     <t xml:space="preserve">4.20239639282227</t>
@@ -410,22 +410,22 @@
     <t xml:space="preserve">4.30497694015503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32599639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23350715637207</t>
+    <t xml:space="preserve">4.32599592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23350763320923</t>
   </si>
   <si>
     <t xml:space="preserve">4.17044591903687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27134323120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22930335998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12840557098389</t>
+    <t xml:space="preserve">4.27134370803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22930383682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12840509414673</t>
   </si>
   <si>
     <t xml:space="preserve">4.11999702453613</t>
@@ -437,16 +437,16 @@
     <t xml:space="preserve">4.33020114898682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2839560508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21669006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19062566757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49836349487305</t>
+    <t xml:space="preserve">4.28395652770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21669054031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19062662124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49836444854736</t>
   </si>
   <si>
     <t xml:space="preserve">4.51518058776855</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">4.58244609832764</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5530161857605</t>
+    <t xml:space="preserve">4.55301666259766</t>
   </si>
   <si>
     <t xml:space="preserve">4.45632362365723</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">4.40587425231934</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35122108459473</t>
+    <t xml:space="preserve">4.35122156143188</t>
   </si>
   <si>
     <t xml:space="preserve">4.31338500976562</t>
@@ -482,28 +482,28 @@
     <t xml:space="preserve">4.24611902236938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20407867431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19903421401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.212486743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19398975372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13345003128052</t>
+    <t xml:space="preserve">4.20407962799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19903373718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21248722076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19398880004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13344955444336</t>
   </si>
   <si>
     <t xml:space="preserve">4.08636426925659</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18389844894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26293611526489</t>
+    <t xml:space="preserve">4.18389892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26293563842773</t>
   </si>
   <si>
     <t xml:space="preserve">4.17549085617065</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">4.13176870346069</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11327075958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15363073348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1014986038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15194845199585</t>
+    <t xml:space="preserve">4.11327028274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15363025665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10149908065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15194797515869</t>
   </si>
   <si>
     <t xml:space="preserve">4.18894338607788</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">4.17717170715332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18053579330444</t>
+    <t xml:space="preserve">4.18053531646729</t>
   </si>
   <si>
     <t xml:space="preserve">4.10654354095459</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">4.15867376327515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14858484268188</t>
+    <t xml:space="preserve">4.14858531951904</t>
   </si>
   <si>
     <t xml:space="preserve">4.12672328948975</t>
@@ -554,16 +554,16 @@
     <t xml:space="preserve">4.27975273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37224102020264</t>
+    <t xml:space="preserve">4.37224149703979</t>
   </si>
   <si>
     <t xml:space="preserve">4.33860921859741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35962963104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14522123336792</t>
+    <t xml:space="preserve">4.35963010787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14522075653076</t>
   </si>
   <si>
     <t xml:space="preserve">4.15026617050171</t>
@@ -572,13 +572,13 @@
     <t xml:space="preserve">4.05609512329102</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03759717941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01909923553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99891948699951</t>
+    <t xml:space="preserve">4.03759670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01909875869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99891901016235</t>
   </si>
   <si>
     <t xml:space="preserve">4.06618499755859</t>
@@ -587,22 +587,22 @@
     <t xml:space="preserve">4.05945873260498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02078104019165</t>
+    <t xml:space="preserve">4.02078056335449</t>
   </si>
   <si>
     <t xml:space="preserve">4.08131980895996</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13008689880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51938390731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52358818054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53199672698975</t>
+    <t xml:space="preserve">4.13008737564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51938438415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52358865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5319972038269</t>
   </si>
   <si>
     <t xml:space="preserve">4.49416017532349</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">4.41848611831665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46473169326782</t>
+    <t xml:space="preserve">4.46473217010498</t>
   </si>
   <si>
     <t xml:space="preserve">4.43109941482544</t>
@@ -629,13 +629,13 @@
     <t xml:space="preserve">4.48154830932617</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60766983032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62448596954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54881286621094</t>
+    <t xml:space="preserve">4.60767078399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62448644638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54881238937378</t>
   </si>
   <si>
     <t xml:space="preserve">4.6833438873291</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">4.6497106552124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57403707504272</t>
+    <t xml:space="preserve">4.57403755187988</t>
   </si>
   <si>
     <t xml:space="preserve">4.74220085144043</t>
@@ -662,22 +662,22 @@
     <t xml:space="preserve">4.82207870483398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75060892105103</t>
+    <t xml:space="preserve">4.75060939788818</t>
   </si>
   <si>
     <t xml:space="preserve">4.85150671005249</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0112624168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9776291847229</t>
+    <t xml:space="preserve">5.01126194000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97762870788574</t>
   </si>
   <si>
     <t xml:space="preserve">4.92717981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95240449905396</t>
+    <t xml:space="preserve">4.9524040222168</t>
   </si>
   <si>
     <t xml:space="preserve">4.89354753494263</t>
@@ -686,25 +686,25 @@
     <t xml:space="preserve">4.93558883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87673139572144</t>
+    <t xml:space="preserve">4.87673091888428</t>
   </si>
   <si>
     <t xml:space="preserve">4.93138408660889</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96081256866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01967000961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20885276794434</t>
+    <t xml:space="preserve">4.96081304550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01966953277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20885324478149</t>
   </si>
   <si>
     <t xml:space="preserve">5.17522096633911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05330228805542</t>
+    <t xml:space="preserve">5.05330181121826</t>
   </si>
   <si>
     <t xml:space="preserve">5.07432270050049</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">5.10795545578003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21305847167969</t>
+    <t xml:space="preserve">5.21305799484253</t>
   </si>
   <si>
     <t xml:space="preserve">5.13738441467285</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">5.24669027328491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40644454956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36440372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30975151062012</t>
+    <t xml:space="preserve">5.40644502639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36440420150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3097505569458</t>
   </si>
   <si>
     <t xml:space="preserve">5.36019992828369</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">5.22566986083984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2971396446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28032255172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41905784606934</t>
+    <t xml:space="preserve">5.29713916778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28032207489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41905832290649</t>
   </si>
   <si>
     <t xml:space="preserve">5.34758853912354</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">5.44007730484009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33917999267578</t>
+    <t xml:space="preserve">5.33917903900146</t>
   </si>
   <si>
     <t xml:space="preserve">5.33077144622803</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">5.10375165939331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22987365722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14579296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19750881195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53366565704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56383371353149</t>
+    <t xml:space="preserve">5.2298731803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14579200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19750833511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53366613388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56383323669434</t>
   </si>
   <si>
     <t xml:space="preserve">5.48194980621338</t>
@@ -812,19 +812,19 @@
     <t xml:space="preserve">5.44747114181519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51642751693726</t>
+    <t xml:space="preserve">5.5164270401001</t>
   </si>
   <si>
     <t xml:space="preserve">5.52504587173462</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4905686378479</t>
+    <t xml:space="preserve">5.49056911468506</t>
   </si>
   <si>
     <t xml:space="preserve">5.50780820846558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43885231018066</t>
+    <t xml:space="preserve">5.43885278701782</t>
   </si>
   <si>
     <t xml:space="preserve">5.44316148757935</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">5.39575576782227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4216136932373</t>
+    <t xml:space="preserve">5.42161321640015</t>
   </si>
   <si>
     <t xml:space="preserve">5.43023300170898</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">5.34834909439087</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37851715087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34403944015503</t>
+    <t xml:space="preserve">5.37851667404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34403991699219</t>
   </si>
   <si>
     <t xml:space="preserve">5.41730356216431</t>
@@ -863,10 +863,10 @@
     <t xml:space="preserve">5.41299390792847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45178127288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39144563674927</t>
+    <t xml:space="preserve">5.4517822265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39144515991211</t>
   </si>
   <si>
     <t xml:space="preserve">5.4690203666687</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">5.50349855422974</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57676219940186</t>
+    <t xml:space="preserve">5.57676315307617</t>
   </si>
   <si>
     <t xml:space="preserve">5.54659461975098</t>
@@ -884,25 +884,25 @@
     <t xml:space="preserve">5.57245302200317</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55521488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55090475082397</t>
+    <t xml:space="preserve">5.55521535873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55090427398682</t>
   </si>
   <si>
     <t xml:space="preserve">5.40006589889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47764015197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4259238243103</t>
+    <t xml:space="preserve">5.47763967514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42592334747314</t>
   </si>
   <si>
     <t xml:space="preserve">5.37420654296875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30094146728516</t>
+    <t xml:space="preserve">5.30094194412231</t>
   </si>
   <si>
     <t xml:space="preserve">5.27508401870728</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">5.31818103790283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40437459945679</t>
+    <t xml:space="preserve">5.40437507629395</t>
   </si>
   <si>
     <t xml:space="preserve">5.49487829208374</t>
@@ -920,10 +920,10 @@
     <t xml:space="preserve">5.47333002090454</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46471071243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49918794631958</t>
+    <t xml:space="preserve">5.4647102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49918746948242</t>
   </si>
   <si>
     <t xml:space="preserve">5.66295766830444</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">5.71467399597168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77500915527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80517768859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86982393264771</t>
+    <t xml:space="preserve">5.7750096321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80517721176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86982345581055</t>
   </si>
   <si>
     <t xml:space="preserve">5.79224872589111</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">5.61555004119873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80086803436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86120319366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82241630554199</t>
+    <t xml:space="preserve">5.80086755752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86120367050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82241678237915</t>
   </si>
   <si>
     <t xml:space="preserve">5.54228544235229</t>
@@ -968,19 +968,19 @@
     <t xml:space="preserve">5.55952501296997</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40868377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46040105819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36127710342407</t>
+    <t xml:space="preserve">5.40868425369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46040058135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36127758026123</t>
   </si>
   <si>
     <t xml:space="preserve">5.24491548538208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04235887527466</t>
+    <t xml:space="preserve">5.04235935211182</t>
   </si>
   <si>
     <t xml:space="preserve">5.06390810012817</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">4.9992618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99064254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10269546508789</t>
+    <t xml:space="preserve">4.99064302444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10269498825073</t>
   </si>
   <si>
     <t xml:space="preserve">5.05959844589233</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">4.96478462219238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11562442779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08545637130737</t>
+    <t xml:space="preserve">5.11562490463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08545684814453</t>
   </si>
   <si>
     <t xml:space="preserve">4.93030738830566</t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">5.01650142669678</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98633337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87427949905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80963516235352</t>
+    <t xml:space="preserve">4.98633289337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87427997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80963468551636</t>
   </si>
   <si>
     <t xml:space="preserve">4.84842205047607</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">4.85273218154907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82256364822388</t>
+    <t xml:space="preserve">4.82256412506104</t>
   </si>
   <si>
     <t xml:space="preserve">4.78808641433716</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">4.94323587417603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90013837814331</t>
+    <t xml:space="preserve">4.90013790130615</t>
   </si>
   <si>
     <t xml:space="preserve">4.88289976119995</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">5.07252740859985</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08114576339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0509786605835</t>
+    <t xml:space="preserve">5.08114624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05097818374634</t>
   </si>
   <si>
     <t xml:space="preserve">4.99495267868042</t>
@@ -1091,19 +1091,16 @@
     <t xml:space="preserve">5.15872097015381</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18026971817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33541965484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2621545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11131525039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14579248428345</t>
+    <t xml:space="preserve">5.18026924133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33541917800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26215410232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11131477355957</t>
   </si>
   <si>
     <t xml:space="preserve">4.93892621994019</t>
@@ -1115,73 +1112,76 @@
     <t xml:space="preserve">4.75360918045044</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74067974090576</t>
+    <t xml:space="preserve">4.7406792640686</t>
   </si>
   <si>
     <t xml:space="preserve">4.76222801208496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77946710586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85704231262207</t>
+    <t xml:space="preserve">4.77946758270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85704183578491</t>
   </si>
   <si>
     <t xml:space="preserve">4.73206043243408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69758319854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68465375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7234411239624</t>
+    <t xml:space="preserve">4.69758272171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68465328216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72344064712524</t>
   </si>
   <si>
     <t xml:space="preserve">4.63293647766113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55105209350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58552932739258</t>
+    <t xml:space="preserve">4.55105257034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58552980422974</t>
   </si>
   <si>
     <t xml:space="preserve">4.63724613189697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61569786071777</t>
+    <t xml:space="preserve">4.61569738388062</t>
   </si>
   <si>
     <t xml:space="preserve">4.66310453414917</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73636960983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80532550811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79670476913452</t>
+    <t xml:space="preserve">4.71482086181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73637008666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80532503128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79670524597168</t>
   </si>
   <si>
     <t xml:space="preserve">4.74498891830444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70620250701904</t>
+    <t xml:space="preserve">4.70620203018188</t>
   </si>
   <si>
     <t xml:space="preserve">4.62862730026245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58122062683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49933576583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52519464492798</t>
+    <t xml:space="preserve">4.5812201499939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49933624267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52519369125366</t>
   </si>
   <si>
     <t xml:space="preserve">4.32263803482056</t>
@@ -1193,28 +1193,28 @@
     <t xml:space="preserve">4.283851146698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28902149200439</t>
+    <t xml:space="preserve">4.28902196884155</t>
   </si>
   <si>
     <t xml:space="preserve">4.32694721221924</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22868633270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28557443618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23385763168335</t>
+    <t xml:space="preserve">4.22868585586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28557395935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23385810852051</t>
   </si>
   <si>
     <t xml:space="preserve">4.25799226760864</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3028130531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30970859527588</t>
+    <t xml:space="preserve">4.30281352996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30970907211304</t>
   </si>
   <si>
     <t xml:space="preserve">4.27523040771484</t>
@@ -1229,10 +1229,10 @@
     <t xml:space="preserve">2.99955725669861</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93404960632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96335577964783</t>
+    <t xml:space="preserve">2.93404936790466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96335601806641</t>
   </si>
   <si>
     <t xml:space="preserve">2.98576593399048</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">3.24952030181885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25813937187195</t>
+    <t xml:space="preserve">3.25813961029053</t>
   </si>
   <si>
     <t xml:space="preserve">3.24434852600098</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28055024147034</t>
+    <t xml:space="preserve">3.28055047988892</t>
   </si>
   <si>
     <t xml:space="preserve">3.27537870407104</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">3.12540102005005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0392062664032</t>
+    <t xml:space="preserve">3.03920602798462</t>
   </si>
   <si>
     <t xml:space="preserve">3.05127358436584</t>
@@ -1289,46 +1289,46 @@
     <t xml:space="preserve">2.99093770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93060111999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91508650779724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94094514846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83406496047974</t>
+    <t xml:space="preserve">2.9306013584137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91508674621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94094491004944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83406472206116</t>
   </si>
   <si>
     <t xml:space="preserve">2.63926482200623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6289222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59099674224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67201972007751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58065319061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59616851806641</t>
+    <t xml:space="preserve">2.62892246246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59099650382996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67201995849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58065295219421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59616827964783</t>
   </si>
   <si>
     <t xml:space="preserve">2.58582496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55824303627014</t>
+    <t xml:space="preserve">2.55824279785156</t>
   </si>
   <si>
     <t xml:space="preserve">2.49618291854858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47204899787903</t>
+    <t xml:space="preserve">2.47204875946045</t>
   </si>
   <si>
     <t xml:space="preserve">2.43584728240967</t>
@@ -1343,40 +1343,40 @@
     <t xml:space="preserve">2.34792876243591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3875789642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33413767814636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34448146820068</t>
+    <t xml:space="preserve">2.38757872581482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33413743972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34448170661926</t>
   </si>
   <si>
     <t xml:space="preserve">2.49101185798645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45653343200684</t>
+    <t xml:space="preserve">2.45653367042542</t>
   </si>
   <si>
     <t xml:space="preserve">2.37378668785095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37551140785217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37033987045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39792156219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40998911857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42895150184631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44101881980896</t>
+    <t xml:space="preserve">2.37551164627075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3703396320343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3979218006134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40998888015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42895126342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44101905822754</t>
   </si>
   <si>
     <t xml:space="preserve">2.42550349235535</t>
@@ -1385,49 +1385,49 @@
     <t xml:space="preserve">2.42722797393799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4306755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32724237442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104113578796</t>
+    <t xml:space="preserve">2.43067526817322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32724261283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104089736938</t>
   </si>
   <si>
     <t xml:space="preserve">2.35310077667236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29621195793152</t>
+    <t xml:space="preserve">2.2962121963501</t>
   </si>
   <si>
     <t xml:space="preserve">2.30138397216797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47721982002258</t>
+    <t xml:space="preserve">2.47722005844116</t>
   </si>
   <si>
     <t xml:space="preserve">2.52721261978149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50135469436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39275002479553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38240671157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41860795021057</t>
+    <t xml:space="preserve">2.50135445594788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39274978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38240694999695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41860818862915</t>
   </si>
   <si>
     <t xml:space="preserve">2.40654063224792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34620475769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25828719139099</t>
+    <t xml:space="preserve">2.34620499610901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25828742980957</t>
   </si>
   <si>
     <t xml:space="preserve">2.2462203502655</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">2.28069758415222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28242111206055</t>
+    <t xml:space="preserve">2.28242135047913</t>
   </si>
   <si>
     <t xml:space="preserve">2.1203761100769</t>
@@ -1448,49 +1448,49 @@
     <t xml:space="preserve">2.07555508613586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0376296043396</t>
+    <t xml:space="preserve">2.03762984275818</t>
   </si>
   <si>
     <t xml:space="preserve">2.06865954399109</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1031379699707</t>
+    <t xml:space="preserve">2.10313773155212</t>
   </si>
   <si>
     <t xml:space="preserve">2.22036170959473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24104833602905</t>
+    <t xml:space="preserve">2.24104809761047</t>
   </si>
   <si>
     <t xml:space="preserve">2.25139117240906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23587656021118</t>
+    <t xml:space="preserve">2.2358763217926</t>
   </si>
   <si>
     <t xml:space="preserve">2.23760008811951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22380900382996</t>
+    <t xml:space="preserve">2.22380924224854</t>
   </si>
   <si>
     <t xml:space="preserve">2.22553300857544</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18243622779846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14278721809387</t>
+    <t xml:space="preserve">2.18243646621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14278697967529</t>
   </si>
   <si>
     <t xml:space="preserve">2.15657830238342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16519737243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22898125648499</t>
+    <t xml:space="preserve">2.16519713401794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22898101806641</t>
   </si>
   <si>
     <t xml:space="preserve">2.16347360610962</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">2.09107065200806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19277906417847</t>
+    <t xml:space="preserve">2.19277882575989</t>
   </si>
   <si>
     <t xml:space="preserve">2.30827927589417</t>
@@ -1523,22 +1523,22 @@
     <t xml:space="preserve">2.12899613380432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06521224975586</t>
+    <t xml:space="preserve">2.06521248817444</t>
   </si>
   <si>
     <t xml:space="preserve">2.0634880065918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04624962806702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00832414627075</t>
+    <t xml:space="preserve">2.0462498664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00832390785217</t>
   </si>
   <si>
     <t xml:space="preserve">1.9359210729599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81352519989014</t>
+    <t xml:space="preserve">1.81352531909943</t>
   </si>
   <si>
     <t xml:space="preserve">1.74974143505096</t>
@@ -1556,40 +1556,40 @@
     <t xml:space="preserve">1.55235683917999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53339397907257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44116592407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35928165912628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32652795314789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3118748664856</t>
+    <t xml:space="preserve">1.53339385986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44116604328156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35928177833557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32652807235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31187474727631</t>
   </si>
   <si>
     <t xml:space="preserve">1.28946471214294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429293632507</t>
+    <t xml:space="preserve">1.28429281711578</t>
   </si>
   <si>
     <t xml:space="preserve">1.33083760738373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31704664230347</t>
+    <t xml:space="preserve">1.31704652309418</t>
   </si>
   <si>
     <t xml:space="preserve">1.34549057483673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35755801200867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35497224330902</t>
+    <t xml:space="preserve">1.35755813121796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35497212409973</t>
   </si>
   <si>
     <t xml:space="preserve">1.32480442523956</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">1.38169264793396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39462125301361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3360093832016</t>
+    <t xml:space="preserve">1.3946213722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33600950241089</t>
   </si>
   <si>
     <t xml:space="preserve">1.33773303031921</t>
@@ -1616,28 +1616,28 @@
     <t xml:space="preserve">1.29205060005188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30842757225037</t>
+    <t xml:space="preserve">1.30842733383179</t>
   </si>
   <si>
     <t xml:space="preserve">1.29291200637817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27308785915375</t>
+    <t xml:space="preserve">1.27308773994446</t>
   </si>
   <si>
     <t xml:space="preserve">1.29636013507843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29808378219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30066978931427</t>
+    <t xml:space="preserve">1.29808366298676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30066990852356</t>
   </si>
   <si>
     <t xml:space="preserve">1.41186046600342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41358411312103</t>
+    <t xml:space="preserve">1.41358399391174</t>
   </si>
   <si>
     <t xml:space="preserve">1.40755093097687</t>
@@ -1646,22 +1646,22 @@
     <t xml:space="preserve">1.38858819007874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35669577121735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38772594928741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29118824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27825963497162</t>
+    <t xml:space="preserve">1.35669565200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38772583007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29118835926056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27825975418091</t>
   </si>
   <si>
     <t xml:space="preserve">1.1024227142334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992956399917603</t>
+    <t xml:space="preserve">0.992956519126892</t>
   </si>
   <si>
     <t xml:space="preserve">1.02140069007874</t>
@@ -1676,40 +1676,40 @@
     <t xml:space="preserve">0.727478504180908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889523506164551</t>
+    <t xml:space="preserve">0.889523446559906</t>
   </si>
   <si>
     <t xml:space="preserve">0.988646984100342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97830331325531</t>
+    <t xml:space="preserve">0.978303253650665</t>
   </si>
   <si>
     <t xml:space="preserve">0.87573254108429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942963659763336</t>
+    <t xml:space="preserve">0.942963600158691</t>
   </si>
   <si>
     <t xml:space="preserve">0.974856078624725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948135495185852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946411907672882</t>
+    <t xml:space="preserve">0.948135554790497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946411967277527</t>
   </si>
   <si>
     <t xml:space="preserve">1.03691518306732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1843079328537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14982974529266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13431513309479</t>
+    <t xml:space="preserve">1.18430805206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14982986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13431525230408</t>
   </si>
   <si>
     <t xml:space="preserve">1.16793119907379</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">1.04381084442139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05070614814758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03088212013245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04812133312225</t>
+    <t xml:space="preserve">1.05070626735687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03088223934174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04812121391296</t>
   </si>
   <si>
     <t xml:space="preserve">1.04553532600403</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">1.11707603931427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13690102100372</t>
+    <t xml:space="preserve">1.13690114021301</t>
   </si>
   <si>
     <t xml:space="preserve">1.16362082958221</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">1.16620659828186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17310214042664</t>
+    <t xml:space="preserve">1.17310202121735</t>
   </si>
   <si>
     <t xml:space="preserve">1.14896845817566</t>
@@ -1787,16 +1787,16 @@
     <t xml:space="preserve">1.11966192722321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12138545513153</t>
+    <t xml:space="preserve">1.12138557434082</t>
   </si>
   <si>
     <t xml:space="preserve">1.10673320293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11535227298737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14034843444824</t>
+    <t xml:space="preserve">1.11535239219666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14034831523895</t>
   </si>
   <si>
     <t xml:space="preserve">1.11276650428772</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">1.13517642021179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14810597896576</t>
+    <t xml:space="preserve">1.14810609817505</t>
   </si>
   <si>
     <t xml:space="preserve">1.14552021026611</t>
@@ -1823,22 +1823,22 @@
     <t xml:space="preserve">1.45926749706268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40410280227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37307250499725</t>
+    <t xml:space="preserve">1.40410268306732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37307262420654</t>
   </si>
   <si>
     <t xml:space="preserve">1.33945751190186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41703248023987</t>
+    <t xml:space="preserve">1.41703236103058</t>
   </si>
   <si>
     <t xml:space="preserve">1.43168473243713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37221121788025</t>
+    <t xml:space="preserve">1.37221133708954</t>
   </si>
   <si>
     <t xml:space="preserve">1.39375913143158</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">1.39806962013245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37134909629822</t>
+    <t xml:space="preserve">1.37134921550751</t>
   </si>
   <si>
     <t xml:space="preserve">1.40927457809448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41530787944794</t>
+    <t xml:space="preserve">1.41530776023865</t>
   </si>
   <si>
     <t xml:space="preserve">1.44720005989075</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">1.46702432632446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46788656711578